--- a/data/patients_and_inspections.xlsx
+++ b/data/patients_and_inspections.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TanakaMo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TanakaMo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2010" yWindow="470" windowWidth="33000" windowHeight="19160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="【公開OK】ピポット集計" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1655" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="72">
   <si>
     <t>（1）入退院の状況</t>
   </si>
@@ -248,6 +248,10 @@
   <si>
     <t>四條畷市</t>
   </si>
+  <si>
+    <t>女性</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -338,7 +342,20 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -616,18 +633,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -635,31 +652,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -667,20 +684,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -688,31 +705,31 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>10</v>
       </c>
       <c r="B13">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>11</v>
       </c>
       <c r="B14">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>12</v>
       </c>
       <c r="B15">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -720,20 +737,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>7</v>
       </c>
       <c r="B18">
-        <v>387</v>
+        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -745,26 +762,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H389"/>
+  <dimension ref="A1:H410"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J386" sqref="J386"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I412" sqref="I412"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="3">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="B1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -790,7 +807,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -816,7 +833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -842,7 +859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -868,7 +885,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -894,7 +911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -920,7 +937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>6</v>
       </c>
@@ -946,7 +963,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>7</v>
       </c>
@@ -972,7 +989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>8</v>
       </c>
@@ -998,7 +1015,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1024,7 +1041,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1050,7 +1067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1076,7 +1093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1102,7 +1119,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1128,7 +1145,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1154,7 +1171,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1180,7 +1197,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1206,7 +1223,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1232,7 +1249,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1258,7 +1275,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1284,7 +1301,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1310,7 +1327,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1336,7 +1353,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1362,7 +1379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1388,7 +1405,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1414,7 +1431,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1440,7 +1457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1466,7 +1483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1492,7 +1509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1518,7 +1535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1544,7 +1561,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1570,7 +1587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1596,7 +1613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1622,7 +1639,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1648,7 +1665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1674,7 +1691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1700,7 +1717,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1726,7 +1743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1752,7 +1769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1778,7 +1795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1804,7 +1821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1830,7 +1847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1856,7 +1873,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>42</v>
       </c>
@@ -1882,7 +1899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>43</v>
       </c>
@@ -1908,7 +1925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>44</v>
       </c>
@@ -1934,7 +1951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>45</v>
       </c>
@@ -1960,7 +1977,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>46</v>
       </c>
@@ -1986,7 +2003,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>47</v>
       </c>
@@ -2012,7 +2029,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>48</v>
       </c>
@@ -2038,7 +2055,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>49</v>
       </c>
@@ -2064,7 +2081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>50</v>
       </c>
@@ -2090,7 +2107,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>51</v>
       </c>
@@ -2116,7 +2133,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>52</v>
       </c>
@@ -2142,7 +2159,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>53</v>
       </c>
@@ -2168,7 +2185,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>54</v>
       </c>
@@ -2194,7 +2211,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>55</v>
       </c>
@@ -2220,7 +2237,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>56</v>
       </c>
@@ -2246,7 +2263,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>57</v>
       </c>
@@ -2272,7 +2289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>58</v>
       </c>
@@ -2298,7 +2315,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>59</v>
       </c>
@@ -2324,7 +2341,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>60</v>
       </c>
@@ -2350,7 +2367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>61</v>
       </c>
@@ -2376,7 +2393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>62</v>
       </c>
@@ -2402,7 +2419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>63</v>
       </c>
@@ -2428,7 +2445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>64</v>
       </c>
@@ -2454,7 +2471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>65</v>
       </c>
@@ -2480,7 +2497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>66</v>
       </c>
@@ -2506,7 +2523,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>67</v>
       </c>
@@ -2532,7 +2549,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>68</v>
       </c>
@@ -2558,7 +2575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>69</v>
       </c>
@@ -2584,7 +2601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>70</v>
       </c>
@@ -2610,7 +2627,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>71</v>
       </c>
@@ -2636,7 +2653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>72</v>
       </c>
@@ -2662,7 +2679,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>73</v>
       </c>
@@ -2688,7 +2705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>74</v>
       </c>
@@ -2714,7 +2731,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>75</v>
       </c>
@@ -2740,7 +2757,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>76</v>
       </c>
@@ -2766,7 +2783,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>77</v>
       </c>
@@ -2792,7 +2809,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>78</v>
       </c>
@@ -2818,7 +2835,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>79</v>
       </c>
@@ -2844,7 +2861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>80</v>
       </c>
@@ -2870,7 +2887,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>81</v>
       </c>
@@ -2896,7 +2913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>82</v>
       </c>
@@ -2922,7 +2939,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>83</v>
       </c>
@@ -2948,7 +2965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>84</v>
       </c>
@@ -2974,7 +2991,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>85</v>
       </c>
@@ -3000,7 +3017,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>86</v>
       </c>
@@ -3026,7 +3043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>87</v>
       </c>
@@ -3052,7 +3069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>88</v>
       </c>
@@ -3078,7 +3095,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>89</v>
       </c>
@@ -3104,7 +3121,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>90</v>
       </c>
@@ -3130,7 +3147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>91</v>
       </c>
@@ -3156,7 +3173,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>92</v>
       </c>
@@ -3182,7 +3199,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>93</v>
       </c>
@@ -3208,7 +3225,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>94</v>
       </c>
@@ -3234,7 +3251,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>95</v>
       </c>
@@ -3260,7 +3277,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>96</v>
       </c>
@@ -3286,7 +3303,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>97</v>
       </c>
@@ -3312,7 +3329,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>98</v>
       </c>
@@ -3338,7 +3355,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>99</v>
       </c>
@@ -3364,7 +3381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A102">
         <v>100</v>
       </c>
@@ -3390,7 +3407,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A103">
         <v>101</v>
       </c>
@@ -3416,7 +3433,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A104">
         <v>102</v>
       </c>
@@ -3442,7 +3459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A105">
         <v>103</v>
       </c>
@@ -3468,7 +3485,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A106">
         <v>104</v>
       </c>
@@ -3494,7 +3511,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A107">
         <v>105</v>
       </c>
@@ -3520,7 +3537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A108">
         <v>106</v>
       </c>
@@ -3546,7 +3563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A109">
         <v>107</v>
       </c>
@@ -3572,7 +3589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A110">
         <v>108</v>
       </c>
@@ -3598,7 +3615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A111">
         <v>109</v>
       </c>
@@ -3624,7 +3641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A112">
         <v>110</v>
       </c>
@@ -3650,7 +3667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A113">
         <v>111</v>
       </c>
@@ -3676,7 +3693,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A114">
         <v>112</v>
       </c>
@@ -3702,7 +3719,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A115">
         <v>113</v>
       </c>
@@ -3728,7 +3745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A116">
         <v>114</v>
       </c>
@@ -3754,7 +3771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A117">
         <v>115</v>
       </c>
@@ -3780,7 +3797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A118">
         <v>116</v>
       </c>
@@ -3806,7 +3823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A119">
         <v>117</v>
       </c>
@@ -3832,7 +3849,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A120">
         <v>118</v>
       </c>
@@ -3858,7 +3875,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A121">
         <v>119</v>
       </c>
@@ -3884,7 +3901,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A122">
         <v>120</v>
       </c>
@@ -3910,7 +3927,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A123">
         <v>121</v>
       </c>
@@ -3936,7 +3953,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A124">
         <v>122</v>
       </c>
@@ -3962,7 +3979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A125">
         <v>123</v>
       </c>
@@ -3988,7 +4005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A126">
         <v>124</v>
       </c>
@@ -4014,7 +4031,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A127">
         <v>125</v>
       </c>
@@ -4040,7 +4057,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A128">
         <v>126</v>
       </c>
@@ -4066,7 +4083,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A129">
         <v>127</v>
       </c>
@@ -4092,7 +4109,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A130">
         <v>128</v>
       </c>
@@ -4118,7 +4135,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A131">
         <v>129</v>
       </c>
@@ -4144,7 +4161,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A132">
         <v>130</v>
       </c>
@@ -4170,7 +4187,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A133">
         <v>131</v>
       </c>
@@ -4196,7 +4213,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A134">
         <v>132</v>
       </c>
@@ -4222,7 +4239,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A135">
         <v>133</v>
       </c>
@@ -4248,7 +4265,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A136">
         <v>134</v>
       </c>
@@ -4274,7 +4291,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A137">
         <v>135</v>
       </c>
@@ -4300,7 +4317,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A138">
         <v>136</v>
       </c>
@@ -4326,7 +4343,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A139">
         <v>137</v>
       </c>
@@ -4352,7 +4369,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A140">
         <v>138</v>
       </c>
@@ -4378,7 +4395,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A141">
         <v>139</v>
       </c>
@@ -4404,7 +4421,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A142">
         <v>140</v>
       </c>
@@ -4430,7 +4447,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A143">
         <v>141</v>
       </c>
@@ -4456,7 +4473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A144">
         <v>142</v>
       </c>
@@ -4482,7 +4499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A145">
         <v>143</v>
       </c>
@@ -4508,7 +4525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A146">
         <v>144</v>
       </c>
@@ -4534,7 +4551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A147">
         <v>145</v>
       </c>
@@ -4560,7 +4577,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A148">
         <v>146</v>
       </c>
@@ -4586,7 +4603,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A149">
         <v>147</v>
       </c>
@@ -4612,7 +4629,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A150">
         <v>148</v>
       </c>
@@ -4638,7 +4655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A151">
         <v>149</v>
       </c>
@@ -4664,7 +4681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A152">
         <v>150</v>
       </c>
@@ -4690,7 +4707,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A153">
         <v>151</v>
       </c>
@@ -4716,7 +4733,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A154">
         <v>152</v>
       </c>
@@ -4742,7 +4759,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A155">
         <v>153</v>
       </c>
@@ -4768,7 +4785,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A156">
         <v>154</v>
       </c>
@@ -4794,7 +4811,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A157">
         <v>155</v>
       </c>
@@ -4820,7 +4837,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A158">
         <v>156</v>
       </c>
@@ -4846,7 +4863,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A159">
         <v>157</v>
       </c>
@@ -4872,7 +4889,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A160">
         <v>158</v>
       </c>
@@ -4898,7 +4915,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A161">
         <v>159</v>
       </c>
@@ -4924,7 +4941,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A162">
         <v>160</v>
       </c>
@@ -4950,7 +4967,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A163">
         <v>161</v>
       </c>
@@ -4976,7 +4993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A164">
         <v>162</v>
       </c>
@@ -5002,7 +5019,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A165">
         <v>163</v>
       </c>
@@ -5028,7 +5045,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A166">
         <v>164</v>
       </c>
@@ -5054,7 +5071,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A167">
         <v>165</v>
       </c>
@@ -5080,7 +5097,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A168">
         <v>166</v>
       </c>
@@ -5106,7 +5123,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A169">
         <v>167</v>
       </c>
@@ -5132,7 +5149,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A170">
         <v>168</v>
       </c>
@@ -5158,7 +5175,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A171">
         <v>169</v>
       </c>
@@ -5184,7 +5201,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A172">
         <v>170</v>
       </c>
@@ -5210,7 +5227,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A173">
         <v>171</v>
       </c>
@@ -5236,7 +5253,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A174">
         <v>172</v>
       </c>
@@ -5262,7 +5279,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A175">
         <v>173</v>
       </c>
@@ -5288,7 +5305,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A176">
         <v>174</v>
       </c>
@@ -5314,7 +5331,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A177">
         <v>175</v>
       </c>
@@ -5340,7 +5357,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A178">
         <v>176</v>
       </c>
@@ -5366,7 +5383,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A179">
         <v>177</v>
       </c>
@@ -5392,7 +5409,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A180">
         <v>178</v>
       </c>
@@ -5418,7 +5435,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A181">
         <v>179</v>
       </c>
@@ -5444,7 +5461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A182">
         <v>180</v>
       </c>
@@ -5470,7 +5487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A183">
         <v>181</v>
       </c>
@@ -5496,7 +5513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A184">
         <v>182</v>
       </c>
@@ -5522,7 +5539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A185">
         <v>183</v>
       </c>
@@ -5548,7 +5565,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A186">
         <v>184</v>
       </c>
@@ -5574,7 +5591,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A187">
         <v>185</v>
       </c>
@@ -5600,7 +5617,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A188">
         <v>186</v>
       </c>
@@ -5626,7 +5643,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A189">
         <v>187</v>
       </c>
@@ -5652,7 +5669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A190">
         <v>188</v>
       </c>
@@ -5678,7 +5695,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A191">
         <v>189</v>
       </c>
@@ -5704,7 +5721,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A192">
         <v>190</v>
       </c>
@@ -5730,7 +5747,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A193">
         <v>191</v>
       </c>
@@ -5756,7 +5773,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A194">
         <v>192</v>
       </c>
@@ -5782,7 +5799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A195">
         <v>193</v>
       </c>
@@ -5808,7 +5825,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A196">
         <v>194</v>
       </c>
@@ -5834,7 +5851,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A197">
         <v>195</v>
       </c>
@@ -5860,7 +5877,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A198">
         <v>196</v>
       </c>
@@ -5886,7 +5903,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A199">
         <v>197</v>
       </c>
@@ -5912,7 +5929,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A200">
         <v>198</v>
       </c>
@@ -5938,7 +5955,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A201">
         <v>199</v>
       </c>
@@ -5964,7 +5981,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A202">
         <v>200</v>
       </c>
@@ -5990,7 +6007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A203">
         <v>201</v>
       </c>
@@ -6016,7 +6033,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A204">
         <v>202</v>
       </c>
@@ -6042,7 +6059,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A205">
         <v>203</v>
       </c>
@@ -6068,7 +6085,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A206">
         <v>204</v>
       </c>
@@ -6094,7 +6111,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A207">
         <v>205</v>
       </c>
@@ -6120,7 +6137,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A208">
         <v>206</v>
       </c>
@@ -6146,7 +6163,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A209">
         <v>207</v>
       </c>
@@ -6172,7 +6189,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A210">
         <v>208</v>
       </c>
@@ -6198,7 +6215,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A211">
         <v>209</v>
       </c>
@@ -6224,7 +6241,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A212">
         <v>210</v>
       </c>
@@ -6250,7 +6267,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A213">
         <v>211</v>
       </c>
@@ -6276,7 +6293,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A214">
         <v>212</v>
       </c>
@@ -6302,7 +6319,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A215">
         <v>213</v>
       </c>
@@ -6328,7 +6345,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A216">
         <v>214</v>
       </c>
@@ -6354,7 +6371,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A217">
         <v>215</v>
       </c>
@@ -6380,7 +6397,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A218">
         <v>216</v>
       </c>
@@ -6406,7 +6423,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A219">
         <v>217</v>
       </c>
@@ -6432,7 +6449,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A220">
         <v>218</v>
       </c>
@@ -6458,7 +6475,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A221">
         <v>219</v>
       </c>
@@ -6484,7 +6501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A222">
         <v>220</v>
       </c>
@@ -6510,7 +6527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A223">
         <v>221</v>
       </c>
@@ -6536,7 +6553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A224">
         <v>222</v>
       </c>
@@ -6562,7 +6579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A225">
         <v>223</v>
       </c>
@@ -6588,7 +6605,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A226">
         <v>224</v>
       </c>
@@ -6614,7 +6631,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A227">
         <v>225</v>
       </c>
@@ -6640,7 +6657,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A228">
         <v>226</v>
       </c>
@@ -6666,7 +6683,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A229">
         <v>227</v>
       </c>
@@ -6692,7 +6709,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A230">
         <v>228</v>
       </c>
@@ -6718,7 +6735,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A231">
         <v>229</v>
       </c>
@@ -6744,7 +6761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A232">
         <v>230</v>
       </c>
@@ -6770,7 +6787,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A233">
         <v>231</v>
       </c>
@@ -6796,7 +6813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A234">
         <v>232</v>
       </c>
@@ -6822,7 +6839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A235">
         <v>233</v>
       </c>
@@ -6848,7 +6865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A236">
         <v>234</v>
       </c>
@@ -6874,7 +6891,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A237">
         <v>235</v>
       </c>
@@ -6900,7 +6917,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A238">
         <v>236</v>
       </c>
@@ -6926,7 +6943,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A239">
         <v>237</v>
       </c>
@@ -6952,7 +6969,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A240">
         <v>238</v>
       </c>
@@ -6978,7 +6995,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A241">
         <v>239</v>
       </c>
@@ -7004,7 +7021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A242">
         <v>240</v>
       </c>
@@ -7030,7 +7047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A243">
         <v>241</v>
       </c>
@@ -7056,7 +7073,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A244">
         <v>242</v>
       </c>
@@ -7082,7 +7099,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A245">
         <v>243</v>
       </c>
@@ -7108,7 +7125,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A246">
         <v>244</v>
       </c>
@@ -7134,7 +7151,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A247">
         <v>245</v>
       </c>
@@ -7160,7 +7177,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A248">
         <v>246</v>
       </c>
@@ -7186,7 +7203,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A249">
         <v>247</v>
       </c>
@@ -7212,7 +7229,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A250">
         <v>248</v>
       </c>
@@ -7238,7 +7255,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A251">
         <v>249</v>
       </c>
@@ -7264,7 +7281,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A252">
         <v>250</v>
       </c>
@@ -7290,7 +7307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A253">
         <v>251</v>
       </c>
@@ -7316,7 +7333,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A254">
         <v>252</v>
       </c>
@@ -7342,7 +7359,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A255">
         <v>253</v>
       </c>
@@ -7368,7 +7385,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A256">
         <v>254</v>
       </c>
@@ -7394,7 +7411,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A257">
         <v>255</v>
       </c>
@@ -7420,7 +7437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A258">
         <v>256</v>
       </c>
@@ -7446,7 +7463,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A259">
         <v>257</v>
       </c>
@@ -7472,7 +7489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A260">
         <v>258</v>
       </c>
@@ -7498,7 +7515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A261">
         <v>259</v>
       </c>
@@ -7524,7 +7541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A262">
         <v>260</v>
       </c>
@@ -7550,7 +7567,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A263">
         <v>261</v>
       </c>
@@ -7576,7 +7593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A264">
         <v>262</v>
       </c>
@@ -7602,7 +7619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A265">
         <v>263</v>
       </c>
@@ -7628,7 +7645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A266">
         <v>264</v>
       </c>
@@ -7654,7 +7671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A267">
         <v>265</v>
       </c>
@@ -7680,7 +7697,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A268">
         <v>266</v>
       </c>
@@ -7706,7 +7723,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A269">
         <v>267</v>
       </c>
@@ -7732,7 +7749,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A270">
         <v>268</v>
       </c>
@@ -7758,7 +7775,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A271">
         <v>269</v>
       </c>
@@ -7784,7 +7801,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A272">
         <v>270</v>
       </c>
@@ -7810,7 +7827,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A273">
         <v>271</v>
       </c>
@@ -7836,7 +7853,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A274">
         <v>272</v>
       </c>
@@ -7862,7 +7879,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A275">
         <v>273</v>
       </c>
@@ -7888,7 +7905,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A276">
         <v>274</v>
       </c>
@@ -7914,7 +7931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A277">
         <v>275</v>
       </c>
@@ -7940,7 +7957,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A278">
         <v>276</v>
       </c>
@@ -7966,7 +7983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A279">
         <v>277</v>
       </c>
@@ -7992,7 +8009,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A280">
         <v>278</v>
       </c>
@@ -8018,7 +8035,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A281">
         <v>279</v>
       </c>
@@ -8044,7 +8061,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A282">
         <v>280</v>
       </c>
@@ -8070,7 +8087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A283">
         <v>281</v>
       </c>
@@ -8096,7 +8113,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A284">
         <v>282</v>
       </c>
@@ -8122,7 +8139,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A285">
         <v>283</v>
       </c>
@@ -8148,7 +8165,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A286">
         <v>284</v>
       </c>
@@ -8174,7 +8191,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A287">
         <v>285</v>
       </c>
@@ -8200,7 +8217,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A288">
         <v>286</v>
       </c>
@@ -8226,7 +8243,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A289">
         <v>287</v>
       </c>
@@ -8252,7 +8269,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A290">
         <v>288</v>
       </c>
@@ -8278,7 +8295,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A291">
         <v>289</v>
       </c>
@@ -8304,7 +8321,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A292">
         <v>290</v>
       </c>
@@ -8330,7 +8347,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A293">
         <v>291</v>
       </c>
@@ -8356,7 +8373,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A294">
         <v>292</v>
       </c>
@@ -8382,7 +8399,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A295">
         <v>293</v>
       </c>
@@ -8408,7 +8425,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A296">
         <v>294</v>
       </c>
@@ -8434,7 +8451,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A297">
         <v>295</v>
       </c>
@@ -8460,7 +8477,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A298">
         <v>296</v>
       </c>
@@ -8486,7 +8503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A299">
         <v>297</v>
       </c>
@@ -8512,7 +8529,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A300">
         <v>298</v>
       </c>
@@ -8538,7 +8555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A301">
         <v>299</v>
       </c>
@@ -8564,7 +8581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A302">
         <v>300</v>
       </c>
@@ -8590,7 +8607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A303">
         <v>301</v>
       </c>
@@ -8616,7 +8633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A304">
         <v>302</v>
       </c>
@@ -8642,7 +8659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A305">
         <v>303</v>
       </c>
@@ -8668,7 +8685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A306">
         <v>304</v>
       </c>
@@ -8694,7 +8711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A307">
         <v>305</v>
       </c>
@@ -8720,7 +8737,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A308">
         <v>306</v>
       </c>
@@ -8746,7 +8763,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A309">
         <v>307</v>
       </c>
@@ -8772,7 +8789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A310">
         <v>308</v>
       </c>
@@ -8798,7 +8815,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A311">
         <v>309</v>
       </c>
@@ -8824,7 +8841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A312">
         <v>310</v>
       </c>
@@ -8850,7 +8867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A313">
         <v>311</v>
       </c>
@@ -8876,7 +8893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A314">
         <v>312</v>
       </c>
@@ -8902,7 +8919,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A315">
         <v>313</v>
       </c>
@@ -8928,7 +8945,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A316">
         <v>314</v>
       </c>
@@ -8954,7 +8971,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A317">
         <v>315</v>
       </c>
@@ -8980,7 +8997,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A318">
         <v>316</v>
       </c>
@@ -9006,7 +9023,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A319">
         <v>317</v>
       </c>
@@ -9032,7 +9049,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A320">
         <v>318</v>
       </c>
@@ -9058,7 +9075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A321">
         <v>319</v>
       </c>
@@ -9084,7 +9101,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A322">
         <v>320</v>
       </c>
@@ -9110,7 +9127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A323">
         <v>321</v>
       </c>
@@ -9136,7 +9153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A324">
         <v>322</v>
       </c>
@@ -9162,7 +9179,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A325">
         <v>323</v>
       </c>
@@ -9188,7 +9205,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A326">
         <v>324</v>
       </c>
@@ -9214,7 +9231,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A327">
         <v>325</v>
       </c>
@@ -9240,7 +9257,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A328">
         <v>326</v>
       </c>
@@ -9266,7 +9283,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A329">
         <v>327</v>
       </c>
@@ -9292,7 +9309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A330">
         <v>328</v>
       </c>
@@ -9318,7 +9335,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A331">
         <v>329</v>
       </c>
@@ -9344,7 +9361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A332">
         <v>330</v>
       </c>
@@ -9370,7 +9387,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A333">
         <v>331</v>
       </c>
@@ -9396,7 +9413,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A334">
         <v>332</v>
       </c>
@@ -9422,7 +9439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A335">
         <v>333</v>
       </c>
@@ -9448,7 +9465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A336">
         <v>334</v>
       </c>
@@ -9474,7 +9491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A337">
         <v>335</v>
       </c>
@@ -9500,7 +9517,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A338">
         <v>336</v>
       </c>
@@ -9526,7 +9543,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A339">
         <v>337</v>
       </c>
@@ -9552,7 +9569,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A340">
         <v>338</v>
       </c>
@@ -9578,7 +9595,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A341">
         <v>339</v>
       </c>
@@ -9604,7 +9621,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A342">
         <v>340</v>
       </c>
@@ -9630,7 +9647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A343">
         <v>341</v>
       </c>
@@ -9656,7 +9673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A344">
         <v>342</v>
       </c>
@@ -9682,7 +9699,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A345">
         <v>343</v>
       </c>
@@ -9708,7 +9725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A346">
         <v>344</v>
       </c>
@@ -9734,7 +9751,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A347">
         <v>345</v>
       </c>
@@ -9760,7 +9777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A348">
         <v>346</v>
       </c>
@@ -9786,7 +9803,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A349">
         <v>347</v>
       </c>
@@ -9812,7 +9829,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A350">
         <v>348</v>
       </c>
@@ -9838,7 +9855,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A351">
         <v>349</v>
       </c>
@@ -9864,7 +9881,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A352">
         <v>350</v>
       </c>
@@ -9890,7 +9907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A353">
         <v>351</v>
       </c>
@@ -9916,7 +9933,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A354">
         <v>352</v>
       </c>
@@ -9942,7 +9959,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A355">
         <v>353</v>
       </c>
@@ -9968,7 +9985,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A356">
         <v>354</v>
       </c>
@@ -9994,7 +10011,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A357">
         <v>355</v>
       </c>
@@ -10020,7 +10037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A358">
         <v>356</v>
       </c>
@@ -10046,7 +10063,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A359">
         <v>357</v>
       </c>
@@ -10072,7 +10089,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A360">
         <v>358</v>
       </c>
@@ -10098,7 +10115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A361">
         <v>359</v>
       </c>
@@ -10124,7 +10141,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A362">
         <v>360</v>
       </c>
@@ -10150,7 +10167,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A363">
         <v>361</v>
       </c>
@@ -10176,7 +10193,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A364">
         <v>362</v>
       </c>
@@ -10202,7 +10219,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A365">
         <v>363</v>
       </c>
@@ -10228,7 +10245,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A366">
         <v>364</v>
       </c>
@@ -10254,7 +10271,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A367">
         <v>365</v>
       </c>
@@ -10280,7 +10297,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A368">
         <v>366</v>
       </c>
@@ -10306,7 +10323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A369">
         <v>367</v>
       </c>
@@ -10332,7 +10349,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A370">
         <v>368</v>
       </c>
@@ -10358,7 +10375,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A371">
         <v>369</v>
       </c>
@@ -10384,7 +10401,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A372">
         <v>370</v>
       </c>
@@ -10410,7 +10427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A373">
         <v>371</v>
       </c>
@@ -10436,7 +10453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A374">
         <v>372</v>
       </c>
@@ -10462,7 +10479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A375">
         <v>373</v>
       </c>
@@ -10488,7 +10505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A376">
         <v>374</v>
       </c>
@@ -10514,7 +10531,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A377">
         <v>375</v>
       </c>
@@ -10540,7 +10557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A378">
         <v>376</v>
       </c>
@@ -10566,7 +10583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A379">
         <v>377</v>
       </c>
@@ -10592,7 +10609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A380">
         <v>378</v>
       </c>
@@ -10618,7 +10635,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A381">
         <v>379</v>
       </c>
@@ -10644,7 +10661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A382">
         <v>380</v>
       </c>
@@ -10670,7 +10687,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A383">
         <v>381</v>
       </c>
@@ -10696,7 +10713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A384">
         <v>382</v>
       </c>
@@ -10722,7 +10739,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A385">
         <v>383</v>
       </c>
@@ -10748,7 +10765,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A386">
         <v>384</v>
       </c>
@@ -10774,7 +10791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A387">
         <v>385</v>
       </c>
@@ -10800,7 +10817,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A388">
         <v>386</v>
       </c>
@@ -10811,7 +10828,7 @@
         <v>70</v>
       </c>
       <c r="D388" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="E388" t="s">
         <v>28</v>
@@ -10826,7 +10843,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A389">
         <v>387</v>
       </c>
@@ -10849,6 +10866,552 @@
         <v>10</v>
       </c>
       <c r="H389" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A390">
+        <v>388</v>
+      </c>
+      <c r="B390" s="2">
+        <v>43926</v>
+      </c>
+      <c r="C390">
+        <v>20</v>
+      </c>
+      <c r="D390" t="s">
+        <v>26</v>
+      </c>
+      <c r="E390" t="s">
+        <v>35</v>
+      </c>
+      <c r="F390" s="1">
+        <v>43917</v>
+      </c>
+      <c r="G390" t="s">
+        <v>10</v>
+      </c>
+      <c r="H390" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A391">
+        <v>389</v>
+      </c>
+      <c r="B391" s="2">
+        <v>43926</v>
+      </c>
+      <c r="C391">
+        <v>30</v>
+      </c>
+      <c r="D391" t="s">
+        <v>26</v>
+      </c>
+      <c r="E391" t="s">
+        <v>35</v>
+      </c>
+      <c r="F391" s="1">
+        <v>43916</v>
+      </c>
+      <c r="G391" t="s">
+        <v>10</v>
+      </c>
+      <c r="H391" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A392">
+        <v>390</v>
+      </c>
+      <c r="B392" s="2">
+        <v>43926</v>
+      </c>
+      <c r="C392">
+        <v>50</v>
+      </c>
+      <c r="D392" t="s">
+        <v>24</v>
+      </c>
+      <c r="E392" t="s">
+        <v>35</v>
+      </c>
+      <c r="F392" s="1">
+        <v>43916</v>
+      </c>
+      <c r="G392" t="s">
+        <v>10</v>
+      </c>
+      <c r="H392" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A393">
+        <v>391</v>
+      </c>
+      <c r="B393" s="2">
+        <v>43926</v>
+      </c>
+      <c r="C393">
+        <v>80</v>
+      </c>
+      <c r="D393" t="s">
+        <v>24</v>
+      </c>
+      <c r="E393" t="s">
+        <v>35</v>
+      </c>
+      <c r="F393" s="1">
+        <v>43916</v>
+      </c>
+      <c r="G393" t="s">
+        <v>10</v>
+      </c>
+      <c r="H393" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A394">
+        <v>392</v>
+      </c>
+      <c r="B394" s="2">
+        <v>43926</v>
+      </c>
+      <c r="C394">
+        <v>20</v>
+      </c>
+      <c r="D394" t="s">
+        <v>26</v>
+      </c>
+      <c r="E394" t="s">
+        <v>35</v>
+      </c>
+      <c r="F394" s="1">
+        <v>43921</v>
+      </c>
+      <c r="G394" t="s">
+        <v>10</v>
+      </c>
+      <c r="H394" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A395">
+        <v>393</v>
+      </c>
+      <c r="B395" s="2">
+        <v>43926</v>
+      </c>
+      <c r="C395">
+        <v>20</v>
+      </c>
+      <c r="D395" t="s">
+        <v>24</v>
+      </c>
+      <c r="E395" t="s">
+        <v>25</v>
+      </c>
+      <c r="F395" s="1">
+        <v>43924</v>
+      </c>
+      <c r="G395" t="s">
+        <v>10</v>
+      </c>
+      <c r="H395" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A396">
+        <v>394</v>
+      </c>
+      <c r="B396" s="2">
+        <v>43926</v>
+      </c>
+      <c r="C396">
+        <v>40</v>
+      </c>
+      <c r="D396" t="s">
+        <v>26</v>
+      </c>
+      <c r="E396" t="s">
+        <v>25</v>
+      </c>
+      <c r="F396" s="1">
+        <v>43915</v>
+      </c>
+      <c r="G396" t="s">
+        <v>10</v>
+      </c>
+      <c r="H396" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A397">
+        <v>395</v>
+      </c>
+      <c r="B397" s="2">
+        <v>43926</v>
+      </c>
+      <c r="C397">
+        <v>70</v>
+      </c>
+      <c r="D397" t="s">
+        <v>24</v>
+      </c>
+      <c r="E397" t="s">
+        <v>25</v>
+      </c>
+      <c r="F397" s="1">
+        <v>43925</v>
+      </c>
+      <c r="G397" t="s">
+        <v>10</v>
+      </c>
+      <c r="H397" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A398">
+        <v>396</v>
+      </c>
+      <c r="B398" s="2">
+        <v>43926</v>
+      </c>
+      <c r="C398">
+        <v>30</v>
+      </c>
+      <c r="D398" t="s">
+        <v>26</v>
+      </c>
+      <c r="E398" t="s">
+        <v>25</v>
+      </c>
+      <c r="F398" s="1">
+        <v>43924</v>
+      </c>
+      <c r="G398" t="s">
+        <v>10</v>
+      </c>
+      <c r="H398" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A399">
+        <v>397</v>
+      </c>
+      <c r="B399" s="2">
+        <v>43926</v>
+      </c>
+      <c r="C399">
+        <v>20</v>
+      </c>
+      <c r="D399" t="s">
+        <v>24</v>
+      </c>
+      <c r="E399" t="s">
+        <v>25</v>
+      </c>
+      <c r="F399" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G399" t="s">
+        <v>10</v>
+      </c>
+      <c r="H399" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A400">
+        <v>398</v>
+      </c>
+      <c r="B400" s="2">
+        <v>43926</v>
+      </c>
+      <c r="C400">
+        <v>70</v>
+      </c>
+      <c r="D400" t="s">
+        <v>26</v>
+      </c>
+      <c r="E400" t="s">
+        <v>25</v>
+      </c>
+      <c r="F400" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G400" t="s">
+        <v>10</v>
+      </c>
+      <c r="H400" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A401">
+        <v>399</v>
+      </c>
+      <c r="B401" s="2">
+        <v>43926</v>
+      </c>
+      <c r="C401">
+        <v>80</v>
+      </c>
+      <c r="D401" t="s">
+        <v>26</v>
+      </c>
+      <c r="E401" t="s">
+        <v>25</v>
+      </c>
+      <c r="F401" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G401" t="s">
+        <v>10</v>
+      </c>
+      <c r="H401" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A402">
+        <v>400</v>
+      </c>
+      <c r="B402" s="2">
+        <v>43926</v>
+      </c>
+      <c r="C402">
+        <v>70</v>
+      </c>
+      <c r="D402" t="s">
+        <v>26</v>
+      </c>
+      <c r="E402" t="s">
+        <v>46</v>
+      </c>
+      <c r="F402" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G402" t="s">
+        <v>10</v>
+      </c>
+      <c r="H402" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A403">
+        <v>401</v>
+      </c>
+      <c r="B403" s="2">
+        <v>43926</v>
+      </c>
+      <c r="C403">
+        <v>80</v>
+      </c>
+      <c r="D403" t="s">
+        <v>26</v>
+      </c>
+      <c r="E403" t="s">
+        <v>25</v>
+      </c>
+      <c r="F403" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G403" t="s">
+        <v>10</v>
+      </c>
+      <c r="H403" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A404">
+        <v>402</v>
+      </c>
+      <c r="B404" s="2">
+        <v>43926</v>
+      </c>
+      <c r="C404">
+        <v>70</v>
+      </c>
+      <c r="D404" t="s">
+        <v>26</v>
+      </c>
+      <c r="E404" t="s">
+        <v>25</v>
+      </c>
+      <c r="F404" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G404" t="s">
+        <v>10</v>
+      </c>
+      <c r="H404" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A405">
+        <v>403</v>
+      </c>
+      <c r="B405" s="2">
+        <v>43926</v>
+      </c>
+      <c r="C405">
+        <v>40</v>
+      </c>
+      <c r="D405" t="s">
+        <v>26</v>
+      </c>
+      <c r="E405" t="s">
+        <v>25</v>
+      </c>
+      <c r="F405" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G405" t="s">
+        <v>10</v>
+      </c>
+      <c r="H405" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A406">
+        <v>404</v>
+      </c>
+      <c r="B406" s="2">
+        <v>43926</v>
+      </c>
+      <c r="C406">
+        <v>20</v>
+      </c>
+      <c r="D406" t="s">
+        <v>26</v>
+      </c>
+      <c r="E406" t="s">
+        <v>25</v>
+      </c>
+      <c r="F406" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G406" t="s">
+        <v>10</v>
+      </c>
+      <c r="H406" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A407">
+        <v>405</v>
+      </c>
+      <c r="B407" s="2">
+        <v>43926</v>
+      </c>
+      <c r="C407">
+        <v>20</v>
+      </c>
+      <c r="D407" t="s">
+        <v>26</v>
+      </c>
+      <c r="E407" t="s">
+        <v>25</v>
+      </c>
+      <c r="F407" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G407" t="s">
+        <v>10</v>
+      </c>
+      <c r="H407" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A408">
+        <v>406</v>
+      </c>
+      <c r="B408" s="2">
+        <v>43926</v>
+      </c>
+      <c r="C408">
+        <v>40</v>
+      </c>
+      <c r="D408" t="s">
+        <v>26</v>
+      </c>
+      <c r="E408" t="s">
+        <v>30</v>
+      </c>
+      <c r="F408" s="1">
+        <v>43920</v>
+      </c>
+      <c r="G408" t="s">
+        <v>10</v>
+      </c>
+      <c r="H408" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A409">
+        <v>407</v>
+      </c>
+      <c r="B409" s="2">
+        <v>43926</v>
+      </c>
+      <c r="C409">
+        <v>70</v>
+      </c>
+      <c r="D409" t="s">
+        <v>24</v>
+      </c>
+      <c r="E409" t="s">
+        <v>49</v>
+      </c>
+      <c r="F409" s="1">
+        <v>43921</v>
+      </c>
+      <c r="G409" t="s">
+        <v>10</v>
+      </c>
+      <c r="H409" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A410">
+        <v>408</v>
+      </c>
+      <c r="B410" s="2">
+        <v>43926</v>
+      </c>
+      <c r="C410">
+        <v>30</v>
+      </c>
+      <c r="D410" t="s">
+        <v>26</v>
+      </c>
+      <c r="E410" t="s">
+        <v>29</v>
+      </c>
+      <c r="F410" s="1">
+        <v>43921</v>
+      </c>
+      <c r="G410" t="s">
+        <v>10</v>
+      </c>
+      <c r="H410" t="s">
         <v>5</v>
       </c>
     </row>
@@ -10860,26 +11423,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J73"/>
+  <dimension ref="A1:J74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="3">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="B1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="4"/>
       <c r="B2" t="s">
         <v>62</v>
@@ -10909,7 +11472,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>43856</v>
       </c>
@@ -10941,7 +11504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>43857</v>
       </c>
@@ -10973,7 +11536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>43858</v>
       </c>
@@ -11005,7 +11568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>43859</v>
       </c>
@@ -11037,7 +11600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>43860</v>
       </c>
@@ -11069,7 +11632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>43861</v>
       </c>
@@ -11101,7 +11664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>43862</v>
       </c>
@@ -11133,7 +11696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>43863</v>
       </c>
@@ -11165,7 +11728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>43864</v>
       </c>
@@ -11197,7 +11760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>43865</v>
       </c>
@@ -11229,7 +11792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>43866</v>
       </c>
@@ -11261,7 +11824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>43867</v>
       </c>
@@ -11293,7 +11856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>43868</v>
       </c>
@@ -11325,7 +11888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>43869</v>
       </c>
@@ -11357,7 +11920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>43870</v>
       </c>
@@ -11389,7 +11952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>43871</v>
       </c>
@@ -11421,7 +11984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>43872</v>
       </c>
@@ -11453,7 +12016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>43873</v>
       </c>
@@ -11485,7 +12048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>43874</v>
       </c>
@@ -11517,7 +12080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>43875</v>
       </c>
@@ -11549,7 +12112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>43876</v>
       </c>
@@ -11581,7 +12144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>43877</v>
       </c>
@@ -11613,7 +12176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>43878</v>
       </c>
@@ -11645,7 +12208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>43879</v>
       </c>
@@ -11677,7 +12240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>43880</v>
       </c>
@@ -11709,7 +12272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>43881</v>
       </c>
@@ -11741,7 +12304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>43882</v>
       </c>
@@ -11773,7 +12336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <v>43883</v>
       </c>
@@ -11805,7 +12368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>43884</v>
       </c>
@@ -11837,7 +12400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <v>43885</v>
       </c>
@@ -11869,7 +12432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <v>43886</v>
       </c>
@@ -11901,7 +12464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
         <v>43887</v>
       </c>
@@ -11933,7 +12496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35" s="2">
         <v>43888</v>
       </c>
@@ -11965,7 +12528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A36" s="2">
         <v>43889</v>
       </c>
@@ -11997,7 +12560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37" s="2">
         <v>43890</v>
       </c>
@@ -12029,7 +12592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38" s="2">
         <v>43891</v>
       </c>
@@ -12061,7 +12624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39" s="2">
         <v>43892</v>
       </c>
@@ -12093,7 +12656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40" s="2">
         <v>43893</v>
       </c>
@@ -12125,7 +12688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A41" s="2">
         <v>43894</v>
       </c>
@@ -12157,7 +12720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A42" s="2">
         <v>43895</v>
       </c>
@@ -12189,7 +12752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A43" s="2">
         <v>43896</v>
       </c>
@@ -12221,7 +12784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A44" s="2">
         <v>43897</v>
       </c>
@@ -12253,7 +12816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A45" s="2">
         <v>43898</v>
       </c>
@@ -12285,7 +12848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A46" s="2">
         <v>43899</v>
       </c>
@@ -12317,7 +12880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A47" s="2">
         <v>43900</v>
       </c>
@@ -12349,7 +12912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A48" s="2">
         <v>43901</v>
       </c>
@@ -12381,7 +12944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A49" s="2">
         <v>43902</v>
       </c>
@@ -12413,7 +12976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A50" s="2">
         <v>43903</v>
       </c>
@@ -12445,7 +13008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A51" s="2">
         <v>43904</v>
       </c>
@@ -12477,7 +13040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A52" s="2">
         <v>43905</v>
       </c>
@@ -12509,7 +13072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A53" s="2">
         <v>43906</v>
       </c>
@@ -12541,7 +13104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A54" s="2">
         <v>43907</v>
       </c>
@@ -12573,7 +13136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A55" s="2">
         <v>43908</v>
       </c>
@@ -12605,7 +13168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A56" s="2">
         <v>43909</v>
       </c>
@@ -12637,7 +13200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A57" s="2">
         <v>43910</v>
       </c>
@@ -12669,7 +13232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A58" s="2">
         <v>43911</v>
       </c>
@@ -12701,7 +13264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A59" s="2">
         <v>43912</v>
       </c>
@@ -12733,7 +13296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A60" s="2">
         <v>43913</v>
       </c>
@@ -12765,7 +13328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A61" s="2">
         <v>43914</v>
       </c>
@@ -12797,7 +13360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A62" s="2">
         <v>43915</v>
       </c>
@@ -12829,7 +13392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A63" s="2">
         <v>43916</v>
       </c>
@@ -12861,7 +13424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A64" s="2">
         <v>43917</v>
       </c>
@@ -12893,7 +13456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A65" s="2">
         <v>43918</v>
       </c>
@@ -12925,7 +13488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A66" s="2">
         <v>43919</v>
       </c>
@@ -12957,7 +13520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A67" s="2">
         <v>43920</v>
       </c>
@@ -12989,7 +13552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A68" s="2">
         <v>43921</v>
       </c>
@@ -13021,7 +13584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A69" s="2">
         <v>43922</v>
       </c>
@@ -13053,7 +13616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A70" s="2">
         <v>43923</v>
       </c>
@@ -13085,7 +13648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A71" s="2">
         <v>43924</v>
       </c>
@@ -13117,7 +13680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A72" s="2">
         <v>43925</v>
       </c>
@@ -13131,7 +13694,7 @@
         <v>387</v>
       </c>
       <c r="E72">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F72">
         <v>1</v>
@@ -13149,23 +13712,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" s="4" t="s">
+    <row r="73" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="2">
+        <v>43926</v>
+      </c>
+      <c r="B73">
+        <v>140</v>
+      </c>
+      <c r="C73">
+        <v>21</v>
+      </c>
+      <c r="D73">
+        <v>408</v>
+      </c>
+      <c r="E73">
+        <v>303</v>
+      </c>
+      <c r="F73">
+        <v>2</v>
+      </c>
+      <c r="G73">
+        <v>101</v>
+      </c>
+      <c r="H73">
+        <v>2</v>
+      </c>
+      <c r="I73">
+        <v>101</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A74" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B73">
-        <v>4728</v>
-      </c>
-      <c r="C73">
-        <v>387</v>
-      </c>
-      <c r="F73">
-        <v>99</v>
-      </c>
-      <c r="H73">
-        <v>99</v>
-      </c>
-      <c r="J73">
+      <c r="B74">
+        <v>4868</v>
+      </c>
+      <c r="C74">
+        <v>408</v>
+      </c>
+      <c r="F74">
+        <v>101</v>
+      </c>
+      <c r="H74">
+        <v>101</v>
+      </c>
+      <c r="J74">
         <v>4</v>
       </c>
     </row>

--- a/data/patients_and_inspections.xlsx
+++ b/data/patients_and_inspections.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\コロナ対策サイト\0408\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\コロナ対策サイト\0409\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6030" yWindow="465" windowWidth="33000" windowHeight="19155" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="4020" yWindow="465" windowWidth="33000" windowHeight="19155" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="【公開OK】ピポット集計" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2045" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2220" uniqueCount="74">
   <si>
     <t>（1）入退院の状況</t>
   </si>
@@ -251,6 +251,12 @@
   <si>
     <t>高石市</t>
   </si>
+  <si>
+    <t>能勢町</t>
+  </si>
+  <si>
+    <t>大阪狭山市</t>
+  </si>
 </sst>
 </file>
 
@@ -324,7 +330,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -345,6 +351,9 @@
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -629,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B18"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -653,7 +662,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -661,7 +670,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
@@ -669,7 +678,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>137</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
@@ -677,7 +686,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
@@ -685,7 +694,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>481</v>
+        <v>524</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
@@ -706,7 +715,7 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <v>305</v>
+        <v>343</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
@@ -722,7 +731,7 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
@@ -730,7 +739,7 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
@@ -738,7 +747,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
@@ -746,7 +755,7 @@
         <v>7</v>
       </c>
       <c r="B18">
-        <v>481</v>
+        <v>524</v>
       </c>
     </row>
   </sheetData>
@@ -758,10 +767,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H483"/>
+  <dimension ref="A1:H526"/>
   <sheetViews>
-    <sheetView topLeftCell="A427" workbookViewId="0">
-      <selection activeCell="A427" sqref="A427"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -771,7 +780,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="3">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="B1" t="s">
         <v>61</v>
@@ -2279,10 +2288,10 @@
         <v>43895</v>
       </c>
       <c r="G59" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H59" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.4">
@@ -4255,10 +4264,10 @@
         <v>43900</v>
       </c>
       <c r="G135" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H135" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.4">
@@ -5191,10 +5200,10 @@
         <v>43905</v>
       </c>
       <c r="G171" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H171" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.4">
@@ -8649,10 +8658,10 @@
         <v>43922</v>
       </c>
       <c r="G304" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H304" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.4">
@@ -10004,7 +10013,7 @@
         <v>10</v>
       </c>
       <c r="H356" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.4">
@@ -10053,10 +10062,10 @@
         <v>43922</v>
       </c>
       <c r="G358" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H358" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.4">
@@ -10680,7 +10689,7 @@
         <v>10</v>
       </c>
       <c r="H382" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.4">
@@ -10732,7 +10741,7 @@
         <v>10</v>
       </c>
       <c r="H384" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.4">
@@ -11223,7 +11232,7 @@
         <v>47</v>
       </c>
       <c r="G403" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H403" t="s">
         <v>4</v>
@@ -11382,7 +11391,7 @@
         <v>10</v>
       </c>
       <c r="H409" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="410" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11486,7 +11495,7 @@
         <v>10</v>
       </c>
       <c r="H413" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="414" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11642,7 +11651,7 @@
         <v>10</v>
       </c>
       <c r="H419" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="420" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11798,7 +11807,7 @@
         <v>10</v>
       </c>
       <c r="H425" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="426" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12240,7 +12249,7 @@
         <v>10</v>
       </c>
       <c r="H442" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="443" spans="1:8" x14ac:dyDescent="0.4">
@@ -13306,6 +13315,1124 @@
         <v>10</v>
       </c>
       <c r="H483" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="484" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A484">
+        <v>482</v>
+      </c>
+      <c r="B484" s="2">
+        <v>43929</v>
+      </c>
+      <c r="C484">
+        <v>40</v>
+      </c>
+      <c r="D484" t="s">
+        <v>26</v>
+      </c>
+      <c r="E484" t="s">
+        <v>25</v>
+      </c>
+      <c r="F484" s="1">
+        <v>43925</v>
+      </c>
+      <c r="G484" t="s">
+        <v>10</v>
+      </c>
+      <c r="H484" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="485" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A485">
+        <v>483</v>
+      </c>
+      <c r="B485" s="2">
+        <v>43929</v>
+      </c>
+      <c r="C485">
+        <v>30</v>
+      </c>
+      <c r="D485" t="s">
+        <v>26</v>
+      </c>
+      <c r="E485" t="s">
+        <v>25</v>
+      </c>
+      <c r="F485" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G485" t="s">
+        <v>10</v>
+      </c>
+      <c r="H485" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="486" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A486">
+        <v>484</v>
+      </c>
+      <c r="B486" s="2">
+        <v>43929</v>
+      </c>
+      <c r="C486">
+        <v>10</v>
+      </c>
+      <c r="D486" t="s">
+        <v>24</v>
+      </c>
+      <c r="E486" t="s">
+        <v>25</v>
+      </c>
+      <c r="F486" s="1">
+        <v>43921</v>
+      </c>
+      <c r="G486" t="s">
+        <v>10</v>
+      </c>
+      <c r="H486" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="487" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A487">
+        <v>485</v>
+      </c>
+      <c r="B487" s="2">
+        <v>43929</v>
+      </c>
+      <c r="C487">
+        <v>50</v>
+      </c>
+      <c r="D487" t="s">
+        <v>26</v>
+      </c>
+      <c r="E487" t="s">
+        <v>25</v>
+      </c>
+      <c r="F487" s="1">
+        <v>43923</v>
+      </c>
+      <c r="G487" t="s">
+        <v>10</v>
+      </c>
+      <c r="H487" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="488" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A488">
+        <v>486</v>
+      </c>
+      <c r="B488" s="2">
+        <v>43929</v>
+      </c>
+      <c r="C488">
+        <v>20</v>
+      </c>
+      <c r="D488" t="s">
+        <v>24</v>
+      </c>
+      <c r="E488" t="s">
+        <v>25</v>
+      </c>
+      <c r="F488" s="1">
+        <v>43920</v>
+      </c>
+      <c r="G488" t="s">
+        <v>10</v>
+      </c>
+      <c r="H488" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="489" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A489">
+        <v>487</v>
+      </c>
+      <c r="B489" s="2">
+        <v>43929</v>
+      </c>
+      <c r="C489">
+        <v>50</v>
+      </c>
+      <c r="D489" t="s">
+        <v>26</v>
+      </c>
+      <c r="E489" t="s">
+        <v>25</v>
+      </c>
+      <c r="F489" s="1">
+        <v>43924</v>
+      </c>
+      <c r="G489" t="s">
+        <v>10</v>
+      </c>
+      <c r="H489" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="490" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A490">
+        <v>488</v>
+      </c>
+      <c r="B490" s="2">
+        <v>43929</v>
+      </c>
+      <c r="C490">
+        <v>20</v>
+      </c>
+      <c r="D490" t="s">
+        <v>26</v>
+      </c>
+      <c r="E490" t="s">
+        <v>25</v>
+      </c>
+      <c r="F490" s="1">
+        <v>43921</v>
+      </c>
+      <c r="G490" t="s">
+        <v>10</v>
+      </c>
+      <c r="H490" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="491" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A491">
+        <v>489</v>
+      </c>
+      <c r="B491" s="2">
+        <v>43929</v>
+      </c>
+      <c r="C491">
+        <v>20</v>
+      </c>
+      <c r="D491" t="s">
+        <v>24</v>
+      </c>
+      <c r="E491" t="s">
+        <v>25</v>
+      </c>
+      <c r="F491" s="1">
+        <v>43924</v>
+      </c>
+      <c r="G491" t="s">
+        <v>10</v>
+      </c>
+      <c r="H491" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="492" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A492">
+        <v>490</v>
+      </c>
+      <c r="B492" s="2">
+        <v>43929</v>
+      </c>
+      <c r="C492">
+        <v>10</v>
+      </c>
+      <c r="D492" t="s">
+        <v>24</v>
+      </c>
+      <c r="E492" t="s">
+        <v>25</v>
+      </c>
+      <c r="F492" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G492" t="s">
+        <v>12</v>
+      </c>
+      <c r="H492" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A493">
+        <v>491</v>
+      </c>
+      <c r="B493" s="2">
+        <v>43929</v>
+      </c>
+      <c r="C493">
+        <v>50</v>
+      </c>
+      <c r="D493" t="s">
+        <v>26</v>
+      </c>
+      <c r="E493" t="s">
+        <v>25</v>
+      </c>
+      <c r="F493" s="1">
+        <v>43924</v>
+      </c>
+      <c r="G493" t="s">
+        <v>10</v>
+      </c>
+      <c r="H493" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="494" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A494">
+        <v>492</v>
+      </c>
+      <c r="B494" s="2">
+        <v>43929</v>
+      </c>
+      <c r="C494">
+        <v>60</v>
+      </c>
+      <c r="D494" t="s">
+        <v>24</v>
+      </c>
+      <c r="E494" t="s">
+        <v>72</v>
+      </c>
+      <c r="F494" s="1">
+        <v>43921</v>
+      </c>
+      <c r="G494" t="s">
+        <v>10</v>
+      </c>
+      <c r="H494" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="495" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A495">
+        <v>493</v>
+      </c>
+      <c r="B495" s="2">
+        <v>43929</v>
+      </c>
+      <c r="C495">
+        <v>80</v>
+      </c>
+      <c r="D495" t="s">
+        <v>26</v>
+      </c>
+      <c r="E495" t="s">
+        <v>72</v>
+      </c>
+      <c r="F495" s="1">
+        <v>43925</v>
+      </c>
+      <c r="G495" t="s">
+        <v>10</v>
+      </c>
+      <c r="H495" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="496" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A496">
+        <v>494</v>
+      </c>
+      <c r="B496" s="2">
+        <v>43929</v>
+      </c>
+      <c r="C496">
+        <v>40</v>
+      </c>
+      <c r="D496" t="s">
+        <v>26</v>
+      </c>
+      <c r="E496" t="s">
+        <v>25</v>
+      </c>
+      <c r="F496" s="1">
+        <v>43924</v>
+      </c>
+      <c r="G496" t="s">
+        <v>10</v>
+      </c>
+      <c r="H496" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A497">
+        <v>495</v>
+      </c>
+      <c r="B497" s="2">
+        <v>43929</v>
+      </c>
+      <c r="C497">
+        <v>30</v>
+      </c>
+      <c r="D497" t="s">
+        <v>24</v>
+      </c>
+      <c r="E497" t="s">
+        <v>25</v>
+      </c>
+      <c r="F497" s="1">
+        <v>43923</v>
+      </c>
+      <c r="G497" t="s">
+        <v>10</v>
+      </c>
+      <c r="H497" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A498">
+        <v>496</v>
+      </c>
+      <c r="B498" s="2">
+        <v>43929</v>
+      </c>
+      <c r="C498">
+        <v>20</v>
+      </c>
+      <c r="D498" t="s">
+        <v>26</v>
+      </c>
+      <c r="E498" t="s">
+        <v>25</v>
+      </c>
+      <c r="F498" s="1">
+        <v>43920</v>
+      </c>
+      <c r="G498" t="s">
+        <v>10</v>
+      </c>
+      <c r="H498" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="499" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A499">
+        <v>497</v>
+      </c>
+      <c r="B499" s="2">
+        <v>43929</v>
+      </c>
+      <c r="C499">
+        <v>50</v>
+      </c>
+      <c r="D499" t="s">
+        <v>26</v>
+      </c>
+      <c r="E499" t="s">
+        <v>25</v>
+      </c>
+      <c r="F499" s="1">
+        <v>43920</v>
+      </c>
+      <c r="G499" t="s">
+        <v>10</v>
+      </c>
+      <c r="H499" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="500" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A500">
+        <v>498</v>
+      </c>
+      <c r="B500" s="2">
+        <v>43929</v>
+      </c>
+      <c r="C500">
+        <v>20</v>
+      </c>
+      <c r="D500" t="s">
+        <v>26</v>
+      </c>
+      <c r="E500" t="s">
+        <v>25</v>
+      </c>
+      <c r="F500" s="1">
+        <v>43915</v>
+      </c>
+      <c r="G500" t="s">
+        <v>10</v>
+      </c>
+      <c r="H500" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="501" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A501">
+        <v>499</v>
+      </c>
+      <c r="B501" s="2">
+        <v>43929</v>
+      </c>
+      <c r="C501">
+        <v>30</v>
+      </c>
+      <c r="D501" t="s">
+        <v>26</v>
+      </c>
+      <c r="E501" t="s">
+        <v>25</v>
+      </c>
+      <c r="F501" s="1">
+        <v>43922</v>
+      </c>
+      <c r="G501" t="s">
+        <v>10</v>
+      </c>
+      <c r="H501" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="502" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A502">
+        <v>500</v>
+      </c>
+      <c r="B502" s="2">
+        <v>43929</v>
+      </c>
+      <c r="C502">
+        <v>30</v>
+      </c>
+      <c r="D502" t="s">
+        <v>26</v>
+      </c>
+      <c r="E502" t="s">
+        <v>25</v>
+      </c>
+      <c r="F502" s="1">
+        <v>43923</v>
+      </c>
+      <c r="G502" t="s">
+        <v>10</v>
+      </c>
+      <c r="H502" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="503" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A503">
+        <v>501</v>
+      </c>
+      <c r="B503" s="2">
+        <v>43929</v>
+      </c>
+      <c r="C503">
+        <v>20</v>
+      </c>
+      <c r="D503" t="s">
+        <v>24</v>
+      </c>
+      <c r="E503" t="s">
+        <v>25</v>
+      </c>
+      <c r="F503" s="1">
+        <v>43918</v>
+      </c>
+      <c r="G503" t="s">
+        <v>10</v>
+      </c>
+      <c r="H503" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="504" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A504">
+        <v>502</v>
+      </c>
+      <c r="B504" s="2">
+        <v>43929</v>
+      </c>
+      <c r="C504">
+        <v>20</v>
+      </c>
+      <c r="D504" t="s">
+        <v>26</v>
+      </c>
+      <c r="E504" t="s">
+        <v>25</v>
+      </c>
+      <c r="F504" s="1">
+        <v>43918</v>
+      </c>
+      <c r="G504" t="s">
+        <v>10</v>
+      </c>
+      <c r="H504" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="505" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A505">
+        <v>503</v>
+      </c>
+      <c r="B505" s="2">
+        <v>43929</v>
+      </c>
+      <c r="C505">
+        <v>20</v>
+      </c>
+      <c r="D505" t="s">
+        <v>26</v>
+      </c>
+      <c r="E505" t="s">
+        <v>25</v>
+      </c>
+      <c r="F505" s="1">
+        <v>43923</v>
+      </c>
+      <c r="G505" t="s">
+        <v>10</v>
+      </c>
+      <c r="H505" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="506" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A506">
+        <v>504</v>
+      </c>
+      <c r="B506" s="2">
+        <v>43929</v>
+      </c>
+      <c r="C506">
+        <v>30</v>
+      </c>
+      <c r="D506" t="s">
+        <v>26</v>
+      </c>
+      <c r="E506" t="s">
+        <v>25</v>
+      </c>
+      <c r="F506" s="1">
+        <v>43920</v>
+      </c>
+      <c r="G506" t="s">
+        <v>10</v>
+      </c>
+      <c r="H506" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="507" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A507">
+        <v>505</v>
+      </c>
+      <c r="B507" s="2">
+        <v>43929</v>
+      </c>
+      <c r="C507">
+        <v>20</v>
+      </c>
+      <c r="D507" t="s">
+        <v>26</v>
+      </c>
+      <c r="E507" t="s">
+        <v>25</v>
+      </c>
+      <c r="F507" s="1">
+        <v>43925</v>
+      </c>
+      <c r="G507" t="s">
+        <v>10</v>
+      </c>
+      <c r="H507" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="508" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A508">
+        <v>506</v>
+      </c>
+      <c r="B508" s="2">
+        <v>43929</v>
+      </c>
+      <c r="C508">
+        <v>50</v>
+      </c>
+      <c r="D508" t="s">
+        <v>26</v>
+      </c>
+      <c r="E508" t="s">
+        <v>25</v>
+      </c>
+      <c r="F508" s="1">
+        <v>43918</v>
+      </c>
+      <c r="G508" t="s">
+        <v>10</v>
+      </c>
+      <c r="H508" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="509" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A509">
+        <v>507</v>
+      </c>
+      <c r="B509" s="2">
+        <v>43929</v>
+      </c>
+      <c r="C509">
+        <v>40</v>
+      </c>
+      <c r="D509" t="s">
+        <v>26</v>
+      </c>
+      <c r="E509" t="s">
+        <v>25</v>
+      </c>
+      <c r="F509" s="1">
+        <v>43924</v>
+      </c>
+      <c r="G509" t="s">
+        <v>10</v>
+      </c>
+      <c r="H509" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="510" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A510">
+        <v>508</v>
+      </c>
+      <c r="B510" s="2">
+        <v>43929</v>
+      </c>
+      <c r="C510">
+        <v>40</v>
+      </c>
+      <c r="D510" t="s">
+        <v>26</v>
+      </c>
+      <c r="E510" t="s">
+        <v>25</v>
+      </c>
+      <c r="F510" s="1">
+        <v>43920</v>
+      </c>
+      <c r="G510" t="s">
+        <v>10</v>
+      </c>
+      <c r="H510" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="511" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A511">
+        <v>509</v>
+      </c>
+      <c r="B511" s="2">
+        <v>43929</v>
+      </c>
+      <c r="C511">
+        <v>20</v>
+      </c>
+      <c r="D511" t="s">
+        <v>26</v>
+      </c>
+      <c r="E511" t="s">
+        <v>31</v>
+      </c>
+      <c r="F511" s="1">
+        <v>43921</v>
+      </c>
+      <c r="G511" t="s">
+        <v>10</v>
+      </c>
+      <c r="H511" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="512" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A512">
+        <v>510</v>
+      </c>
+      <c r="B512" s="2">
+        <v>43929</v>
+      </c>
+      <c r="C512">
+        <v>30</v>
+      </c>
+      <c r="D512" t="s">
+        <v>26</v>
+      </c>
+      <c r="E512" t="s">
+        <v>42</v>
+      </c>
+      <c r="F512" s="1">
+        <v>43918</v>
+      </c>
+      <c r="G512" t="s">
+        <v>10</v>
+      </c>
+      <c r="H512" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="513" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A513">
+        <v>511</v>
+      </c>
+      <c r="B513" s="2">
+        <v>43929</v>
+      </c>
+      <c r="C513">
+        <v>30</v>
+      </c>
+      <c r="D513" t="s">
+        <v>24</v>
+      </c>
+      <c r="E513" t="s">
+        <v>36</v>
+      </c>
+      <c r="F513" s="1">
+        <v>43921</v>
+      </c>
+      <c r="G513" t="s">
+        <v>10</v>
+      </c>
+      <c r="H513" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="514" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A514">
+        <v>512</v>
+      </c>
+      <c r="B514" s="2">
+        <v>43929</v>
+      </c>
+      <c r="C514">
+        <v>30</v>
+      </c>
+      <c r="D514" t="s">
+        <v>26</v>
+      </c>
+      <c r="E514" t="s">
+        <v>36</v>
+      </c>
+      <c r="F514" s="1">
+        <v>43924</v>
+      </c>
+      <c r="G514" t="s">
+        <v>10</v>
+      </c>
+      <c r="H514" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="515" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A515">
+        <v>513</v>
+      </c>
+      <c r="B515" s="2">
+        <v>43929</v>
+      </c>
+      <c r="C515">
+        <v>20</v>
+      </c>
+      <c r="D515" t="s">
+        <v>24</v>
+      </c>
+      <c r="E515" t="s">
+        <v>36</v>
+      </c>
+      <c r="F515" s="1">
+        <v>43921</v>
+      </c>
+      <c r="G515" t="s">
+        <v>10</v>
+      </c>
+      <c r="H515" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="516" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A516">
+        <v>514</v>
+      </c>
+      <c r="B516" s="2">
+        <v>43929</v>
+      </c>
+      <c r="C516">
+        <v>60</v>
+      </c>
+      <c r="D516" t="s">
+        <v>26</v>
+      </c>
+      <c r="E516" t="s">
+        <v>40</v>
+      </c>
+      <c r="F516" s="1">
+        <v>43923</v>
+      </c>
+      <c r="G516" t="s">
+        <v>10</v>
+      </c>
+      <c r="H516" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="517" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A517">
+        <v>515</v>
+      </c>
+      <c r="B517" s="2">
+        <v>43929</v>
+      </c>
+      <c r="C517">
+        <v>40</v>
+      </c>
+      <c r="D517" t="s">
+        <v>24</v>
+      </c>
+      <c r="E517" t="s">
+        <v>40</v>
+      </c>
+      <c r="F517" s="1">
+        <v>43922</v>
+      </c>
+      <c r="G517" t="s">
+        <v>10</v>
+      </c>
+      <c r="H517" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="518" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A518">
+        <v>516</v>
+      </c>
+      <c r="B518" s="2">
+        <v>43929</v>
+      </c>
+      <c r="C518">
+        <v>50</v>
+      </c>
+      <c r="D518" t="s">
+        <v>24</v>
+      </c>
+      <c r="E518" t="s">
+        <v>40</v>
+      </c>
+      <c r="F518" s="1">
+        <v>43924</v>
+      </c>
+      <c r="G518" t="s">
+        <v>10</v>
+      </c>
+      <c r="H518" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="519" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A519">
+        <v>517</v>
+      </c>
+      <c r="B519" s="2">
+        <v>43929</v>
+      </c>
+      <c r="C519">
+        <v>20</v>
+      </c>
+      <c r="D519" t="s">
+        <v>24</v>
+      </c>
+      <c r="E519" t="s">
+        <v>55</v>
+      </c>
+      <c r="F519" s="1">
+        <v>43923</v>
+      </c>
+      <c r="G519" t="s">
+        <v>10</v>
+      </c>
+      <c r="H519" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="520" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A520">
+        <v>518</v>
+      </c>
+      <c r="B520" s="2">
+        <v>43929</v>
+      </c>
+      <c r="C520">
+        <v>30</v>
+      </c>
+      <c r="D520" t="s">
+        <v>26</v>
+      </c>
+      <c r="E520" t="s">
+        <v>30</v>
+      </c>
+      <c r="F520" s="1">
+        <v>43925</v>
+      </c>
+      <c r="G520" t="s">
+        <v>10</v>
+      </c>
+      <c r="H520" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="521" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A521">
+        <v>519</v>
+      </c>
+      <c r="B521" s="2">
+        <v>43929</v>
+      </c>
+      <c r="C521">
+        <v>30</v>
+      </c>
+      <c r="D521" t="s">
+        <v>24</v>
+      </c>
+      <c r="E521" t="s">
+        <v>30</v>
+      </c>
+      <c r="F521" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G521" t="s">
+        <v>10</v>
+      </c>
+      <c r="H521" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="522" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A522">
+        <v>520</v>
+      </c>
+      <c r="B522" s="2">
+        <v>43929</v>
+      </c>
+      <c r="C522">
+        <v>30</v>
+      </c>
+      <c r="D522" t="s">
+        <v>24</v>
+      </c>
+      <c r="E522" t="s">
+        <v>29</v>
+      </c>
+      <c r="F522" s="1">
+        <v>43920</v>
+      </c>
+      <c r="G522" t="s">
+        <v>10</v>
+      </c>
+      <c r="H522" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="523" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A523">
+        <v>521</v>
+      </c>
+      <c r="B523" s="2">
+        <v>43929</v>
+      </c>
+      <c r="C523">
+        <v>60</v>
+      </c>
+      <c r="D523" t="s">
+        <v>26</v>
+      </c>
+      <c r="E523" t="s">
+        <v>51</v>
+      </c>
+      <c r="F523" s="1">
+        <v>43920</v>
+      </c>
+      <c r="G523" t="s">
+        <v>10</v>
+      </c>
+      <c r="H523" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="524" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A524">
+        <v>522</v>
+      </c>
+      <c r="B524" s="2">
+        <v>43929</v>
+      </c>
+      <c r="C524">
+        <v>40</v>
+      </c>
+      <c r="D524" t="s">
+        <v>26</v>
+      </c>
+      <c r="E524" t="s">
+        <v>73</v>
+      </c>
+      <c r="F524" s="1">
+        <v>43920</v>
+      </c>
+      <c r="G524" t="s">
+        <v>10</v>
+      </c>
+      <c r="H524" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="525" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A525">
+        <v>523</v>
+      </c>
+      <c r="B525" s="2">
+        <v>43929</v>
+      </c>
+      <c r="C525">
+        <v>40</v>
+      </c>
+      <c r="D525" t="s">
+        <v>26</v>
+      </c>
+      <c r="E525" t="s">
+        <v>35</v>
+      </c>
+      <c r="F525" s="1">
+        <v>43927</v>
+      </c>
+      <c r="G525" t="s">
+        <v>10</v>
+      </c>
+      <c r="H525" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="526" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A526">
+        <v>524</v>
+      </c>
+      <c r="B526" s="2">
+        <v>43929</v>
+      </c>
+      <c r="C526">
+        <v>70</v>
+      </c>
+      <c r="D526" t="s">
+        <v>26</v>
+      </c>
+      <c r="E526" t="s">
+        <v>35</v>
+      </c>
+      <c r="F526" s="1">
+        <v>43922</v>
+      </c>
+      <c r="G526" t="s">
+        <v>10</v>
+      </c>
+      <c r="H526" t="s">
         <v>5</v>
       </c>
     </row>
@@ -13317,11 +14444,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J76"/>
+  <dimension ref="A1:J77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -13330,7 +14455,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="3">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="B1" t="s">
         <v>61</v>
@@ -13367,7 +14492,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" s="2">
+      <c r="A3" s="7">
         <v>43856</v>
       </c>
       <c r="B3">
@@ -13399,7 +14524,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4" s="2">
+      <c r="A4" s="7">
         <v>43857</v>
       </c>
       <c r="B4">
@@ -13431,7 +14556,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5" s="2">
+      <c r="A5" s="7">
         <v>43858</v>
       </c>
       <c r="B5">
@@ -13463,7 +14588,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" s="2">
+      <c r="A6" s="7">
         <v>43859</v>
       </c>
       <c r="B6">
@@ -13495,7 +14620,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="2">
+      <c r="A7" s="7">
         <v>43860</v>
       </c>
       <c r="B7">
@@ -13527,7 +14652,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" s="2">
+      <c r="A8" s="7">
         <v>43861</v>
       </c>
       <c r="B8">
@@ -13559,7 +14684,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9" s="2">
+      <c r="A9" s="7">
         <v>43862</v>
       </c>
       <c r="B9">
@@ -13591,7 +14716,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A10" s="2">
+      <c r="A10" s="7">
         <v>43863</v>
       </c>
       <c r="B10">
@@ -13623,7 +14748,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A11" s="2">
+      <c r="A11" s="7">
         <v>43864</v>
       </c>
       <c r="B11">
@@ -13655,7 +14780,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A12" s="2">
+      <c r="A12" s="7">
         <v>43865</v>
       </c>
       <c r="B12">
@@ -13687,7 +14812,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A13" s="2">
+      <c r="A13" s="7">
         <v>43866</v>
       </c>
       <c r="B13">
@@ -13719,7 +14844,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A14" s="2">
+      <c r="A14" s="7">
         <v>43867</v>
       </c>
       <c r="B14">
@@ -13751,7 +14876,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A15" s="2">
+      <c r="A15" s="7">
         <v>43868</v>
       </c>
       <c r="B15">
@@ -13783,7 +14908,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A16" s="2">
+      <c r="A16" s="7">
         <v>43869</v>
       </c>
       <c r="B16">
@@ -13815,7 +14940,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A17" s="2">
+      <c r="A17" s="7">
         <v>43870</v>
       </c>
       <c r="B17">
@@ -13847,7 +14972,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A18" s="2">
+      <c r="A18" s="7">
         <v>43871</v>
       </c>
       <c r="B18">
@@ -13879,7 +15004,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A19" s="2">
+      <c r="A19" s="7">
         <v>43872</v>
       </c>
       <c r="B19">
@@ -13911,7 +15036,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A20" s="2">
+      <c r="A20" s="7">
         <v>43873</v>
       </c>
       <c r="B20">
@@ -13943,7 +15068,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A21" s="2">
+      <c r="A21" s="7">
         <v>43874</v>
       </c>
       <c r="B21">
@@ -13975,7 +15100,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A22" s="2">
+      <c r="A22" s="7">
         <v>43875</v>
       </c>
       <c r="B22">
@@ -14007,7 +15132,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A23" s="2">
+      <c r="A23" s="7">
         <v>43876</v>
       </c>
       <c r="B23">
@@ -14039,7 +15164,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A24" s="2">
+      <c r="A24" s="7">
         <v>43877</v>
       </c>
       <c r="B24">
@@ -14071,7 +15196,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A25" s="2">
+      <c r="A25" s="7">
         <v>43878</v>
       </c>
       <c r="B25">
@@ -14103,7 +15228,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A26" s="2">
+      <c r="A26" s="7">
         <v>43879</v>
       </c>
       <c r="B26">
@@ -14135,7 +15260,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A27" s="2">
+      <c r="A27" s="7">
         <v>43880</v>
       </c>
       <c r="B27">
@@ -14167,7 +15292,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A28" s="2">
+      <c r="A28" s="7">
         <v>43881</v>
       </c>
       <c r="B28">
@@ -14199,7 +15324,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A29" s="2">
+      <c r="A29" s="7">
         <v>43882</v>
       </c>
       <c r="B29">
@@ -14231,7 +15356,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A30" s="2">
+      <c r="A30" s="7">
         <v>43883</v>
       </c>
       <c r="B30">
@@ -14263,7 +15388,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A31" s="2">
+      <c r="A31" s="7">
         <v>43884</v>
       </c>
       <c r="B31">
@@ -14295,7 +15420,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A32" s="2">
+      <c r="A32" s="7">
         <v>43885</v>
       </c>
       <c r="B32">
@@ -14327,7 +15452,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A33" s="2">
+      <c r="A33" s="7">
         <v>43886</v>
       </c>
       <c r="B33">
@@ -14359,7 +15484,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A34" s="2">
+      <c r="A34" s="7">
         <v>43887</v>
       </c>
       <c r="B34">
@@ -14391,7 +15516,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A35" s="2">
+      <c r="A35" s="7">
         <v>43888</v>
       </c>
       <c r="B35">
@@ -14423,7 +15548,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A36" s="2">
+      <c r="A36" s="7">
         <v>43889</v>
       </c>
       <c r="B36">
@@ -14455,7 +15580,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A37" s="2">
+      <c r="A37" s="7">
         <v>43890</v>
       </c>
       <c r="B37">
@@ -14487,7 +15612,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A38" s="2">
+      <c r="A38" s="7">
         <v>43891</v>
       </c>
       <c r="B38">
@@ -14519,7 +15644,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A39" s="2">
+      <c r="A39" s="7">
         <v>43892</v>
       </c>
       <c r="B39">
@@ -14551,7 +15676,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A40" s="2">
+      <c r="A40" s="7">
         <v>43893</v>
       </c>
       <c r="B40">
@@ -14583,7 +15708,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A41" s="2">
+      <c r="A41" s="7">
         <v>43894</v>
       </c>
       <c r="B41">
@@ -14615,7 +15740,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A42" s="2">
+      <c r="A42" s="7">
         <v>43895</v>
       </c>
       <c r="B42">
@@ -14647,7 +15772,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A43" s="2">
+      <c r="A43" s="7">
         <v>43896</v>
       </c>
       <c r="B43">
@@ -14679,7 +15804,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A44" s="2">
+      <c r="A44" s="7">
         <v>43897</v>
       </c>
       <c r="B44">
@@ -14711,7 +15836,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A45" s="2">
+      <c r="A45" s="7">
         <v>43898</v>
       </c>
       <c r="B45">
@@ -14743,7 +15868,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A46" s="2">
+      <c r="A46" s="7">
         <v>43899</v>
       </c>
       <c r="B46">
@@ -14775,7 +15900,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A47" s="2">
+      <c r="A47" s="7">
         <v>43900</v>
       </c>
       <c r="B47">
@@ -14807,7 +15932,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A48" s="2">
+      <c r="A48" s="7">
         <v>43901</v>
       </c>
       <c r="B48">
@@ -14839,7 +15964,7 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A49" s="2">
+      <c r="A49" s="7">
         <v>43902</v>
       </c>
       <c r="B49">
@@ -14871,7 +15996,7 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A50" s="2">
+      <c r="A50" s="7">
         <v>43903</v>
       </c>
       <c r="B50">
@@ -14903,7 +16028,7 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A51" s="2">
+      <c r="A51" s="7">
         <v>43904</v>
       </c>
       <c r="B51">
@@ -14935,7 +16060,7 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A52" s="2">
+      <c r="A52" s="7">
         <v>43905</v>
       </c>
       <c r="B52">
@@ -14967,7 +16092,7 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A53" s="2">
+      <c r="A53" s="7">
         <v>43906</v>
       </c>
       <c r="B53">
@@ -14999,7 +16124,7 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A54" s="2">
+      <c r="A54" s="7">
         <v>43907</v>
       </c>
       <c r="B54">
@@ -15031,7 +16156,7 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A55" s="2">
+      <c r="A55" s="7">
         <v>43908</v>
       </c>
       <c r="B55">
@@ -15063,7 +16188,7 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A56" s="2">
+      <c r="A56" s="7">
         <v>43909</v>
       </c>
       <c r="B56">
@@ -15095,7 +16220,7 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A57" s="2">
+      <c r="A57" s="7">
         <v>43910</v>
       </c>
       <c r="B57">
@@ -15127,7 +16252,7 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A58" s="2">
+      <c r="A58" s="7">
         <v>43911</v>
       </c>
       <c r="B58">
@@ -15159,7 +16284,7 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A59" s="2">
+      <c r="A59" s="7">
         <v>43912</v>
       </c>
       <c r="B59">
@@ -15191,7 +16316,7 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A60" s="2">
+      <c r="A60" s="7">
         <v>43913</v>
       </c>
       <c r="B60">
@@ -15223,7 +16348,7 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A61" s="2">
+      <c r="A61" s="7">
         <v>43914</v>
       </c>
       <c r="B61">
@@ -15255,7 +16380,7 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A62" s="2">
+      <c r="A62" s="7">
         <v>43915</v>
       </c>
       <c r="B62">
@@ -15287,7 +16412,7 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A63" s="2">
+      <c r="A63" s="7">
         <v>43916</v>
       </c>
       <c r="B63">
@@ -15319,7 +16444,7 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A64" s="2">
+      <c r="A64" s="7">
         <v>43917</v>
       </c>
       <c r="B64">
@@ -15351,7 +16476,7 @@
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A65" s="2">
+      <c r="A65" s="7">
         <v>43918</v>
       </c>
       <c r="B65">
@@ -15383,7 +16508,7 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A66" s="2">
+      <c r="A66" s="7">
         <v>43919</v>
       </c>
       <c r="B66">
@@ -15415,7 +16540,7 @@
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A67" s="2">
+      <c r="A67" s="7">
         <v>43920</v>
       </c>
       <c r="B67">
@@ -15447,7 +16572,7 @@
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A68" s="2">
+      <c r="A68" s="7">
         <v>43921</v>
       </c>
       <c r="B68">
@@ -15479,7 +16604,7 @@
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A69" s="2">
+      <c r="A69" s="7">
         <v>43922</v>
       </c>
       <c r="B69">
@@ -15492,13 +16617,13 @@
         <v>278</v>
       </c>
       <c r="E69">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F69">
         <v>7</v>
       </c>
       <c r="G69">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H69">
         <v>6</v>
@@ -15511,7 +16636,7 @@
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A70" s="2">
+      <c r="A70" s="7">
         <v>43923</v>
       </c>
       <c r="B70">
@@ -15524,13 +16649,13 @@
         <v>311</v>
       </c>
       <c r="E70">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F70">
         <v>2</v>
       </c>
       <c r="G70">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H70">
         <v>3</v>
@@ -15543,7 +16668,7 @@
       </c>
     </row>
     <row r="71" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="2">
+      <c r="A71" s="7">
         <v>43924</v>
       </c>
       <c r="B71">
@@ -15556,13 +16681,13 @@
         <v>346</v>
       </c>
       <c r="E71">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F71">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G71">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H71">
         <v>5</v>
@@ -15575,7 +16700,7 @@
       </c>
     </row>
     <row r="72" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="2">
+      <c r="A72" s="7">
         <v>43925</v>
       </c>
       <c r="B72">
@@ -15588,13 +16713,13 @@
         <v>387</v>
       </c>
       <c r="E72">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="F72">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G72">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -15607,7 +16732,7 @@
       </c>
     </row>
     <row r="73" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="2">
+      <c r="A73" s="7">
         <v>43926</v>
       </c>
       <c r="B73">
@@ -15620,13 +16745,13 @@
         <v>408</v>
       </c>
       <c r="E73">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="F73">
         <v>1</v>
       </c>
       <c r="G73">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -15639,7 +16764,7 @@
       </c>
     </row>
     <row r="74" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="2">
+      <c r="A74" s="7">
         <v>43927</v>
       </c>
       <c r="B74">
@@ -15652,13 +16777,13 @@
         <v>428</v>
       </c>
       <c r="E74">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="F74">
         <v>4</v>
       </c>
       <c r="G74">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="H74">
         <v>4</v>
@@ -15671,7 +16796,7 @@
       </c>
     </row>
     <row r="75" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="2">
+      <c r="A75" s="7">
         <v>43928</v>
       </c>
       <c r="B75">
@@ -15684,13 +16809,13 @@
         <v>481</v>
       </c>
       <c r="E75">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F75">
         <v>2</v>
       </c>
       <c r="G75">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H75">
         <v>8</v>
@@ -15703,23 +16828,55 @@
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A76" s="4" t="s">
+      <c r="A76" s="7">
+        <v>43929</v>
+      </c>
+      <c r="B76">
+        <v>362</v>
+      </c>
+      <c r="C76">
+        <v>43</v>
+      </c>
+      <c r="D76">
+        <v>524</v>
+      </c>
+      <c r="E76">
+        <v>403</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>115</v>
+      </c>
+      <c r="H76">
+        <v>2</v>
+      </c>
+      <c r="I76">
+        <v>115</v>
+      </c>
+      <c r="J76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A77" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B76">
-        <v>5418</v>
-      </c>
-      <c r="C76">
-        <v>481</v>
-      </c>
-      <c r="F76">
-        <v>113</v>
-      </c>
-      <c r="H76">
-        <v>113</v>
-      </c>
-      <c r="J76">
-        <v>4</v>
+      <c r="B77">
+        <v>5780</v>
+      </c>
+      <c r="C77">
+        <v>524</v>
+      </c>
+      <c r="F77">
+        <v>115</v>
+      </c>
+      <c r="H77">
+        <v>115</v>
+      </c>
+      <c r="J77">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/data/patients_and_inspections.xlsx
+++ b/data/patients_and_inspections.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\コロナ対策サイト\0409\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.19.163.21\share\企画\020_部局・各課懸案\新型コロナ肺炎\コロナサイト立ち上げ\更新用データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="465" windowWidth="33000" windowHeight="19155" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="2010" yWindow="465" windowWidth="33000" windowHeight="19155" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="【公開OK】ピポット集計" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2220" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2651" uniqueCount="79">
   <si>
     <t>（1）入退院の状況</t>
   </si>
@@ -257,6 +257,38 @@
   <si>
     <t>大阪狭山市</t>
   </si>
+  <si>
+    <t>調査中</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大阪府外</t>
+    <rPh sb="2" eb="3">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>池田市</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>池田市</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>松原市</t>
+    <rPh sb="0" eb="2">
+      <t>マツバラ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -330,7 +362,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -351,9 +383,6 @@
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -639,7 +668,7 @@
   <dimension ref="A2:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -662,7 +691,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -670,7 +699,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>230</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
@@ -678,7 +707,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>173</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
@@ -694,7 +723,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>524</v>
+        <v>616</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
@@ -715,7 +744,7 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <v>343</v>
+        <v>426</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
@@ -723,7 +752,7 @@
         <v>11</v>
       </c>
       <c r="B14">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
@@ -731,7 +760,7 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
@@ -747,7 +776,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
@@ -755,7 +784,7 @@
         <v>7</v>
       </c>
       <c r="B18">
-        <v>524</v>
+        <v>616</v>
       </c>
     </row>
   </sheetData>
@@ -767,7 +796,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H526"/>
+  <dimension ref="A1:H618"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -780,7 +809,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="3">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="B1" t="s">
         <v>61</v>
@@ -7124,10 +7153,10 @@
         <v>43915</v>
       </c>
       <c r="G245" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H245" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.4">
@@ -9649,7 +9678,7 @@
         <v>10</v>
       </c>
       <c r="H342" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.4">
@@ -10036,7 +10065,7 @@
         <v>43921</v>
       </c>
       <c r="G357" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H357" t="s">
         <v>4</v>
@@ -11443,7 +11472,7 @@
         <v>10</v>
       </c>
       <c r="H411" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="412" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11492,7 +11521,7 @@
         <v>43918</v>
       </c>
       <c r="G413" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H413" t="s">
         <v>4</v>
@@ -12067,7 +12096,7 @@
         <v>10</v>
       </c>
       <c r="H435" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="436" spans="1:8" x14ac:dyDescent="0.4">
@@ -12093,7 +12122,7 @@
         <v>10</v>
       </c>
       <c r="H436" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="437" spans="1:8" x14ac:dyDescent="0.4">
@@ -12119,7 +12148,7 @@
         <v>12</v>
       </c>
       <c r="H437" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="438" spans="1:8" x14ac:dyDescent="0.4">
@@ -12246,7 +12275,7 @@
         <v>43921</v>
       </c>
       <c r="G442" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H442" t="s">
         <v>4</v>
@@ -12379,7 +12408,7 @@
         <v>10</v>
       </c>
       <c r="H447" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="448" spans="1:8" x14ac:dyDescent="0.4">
@@ -12431,7 +12460,7 @@
         <v>10</v>
       </c>
       <c r="H449" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.4">
@@ -12454,10 +12483,10 @@
         <v>43924</v>
       </c>
       <c r="G450" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H450" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.4">
@@ -12509,7 +12538,7 @@
         <v>10</v>
       </c>
       <c r="H452" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="453" spans="1:8" x14ac:dyDescent="0.4">
@@ -12587,7 +12616,7 @@
         <v>10</v>
       </c>
       <c r="H455" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.4">
@@ -12769,7 +12798,7 @@
         <v>10</v>
       </c>
       <c r="H462" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.4">
@@ -12951,7 +12980,7 @@
         <v>10</v>
       </c>
       <c r="H469" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="470" spans="1:8" x14ac:dyDescent="0.4">
@@ -12977,7 +13006,7 @@
         <v>10</v>
       </c>
       <c r="H470" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="471" spans="1:8" x14ac:dyDescent="0.4">
@@ -13081,7 +13110,7 @@
         <v>10</v>
       </c>
       <c r="H474" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="475" spans="1:8" x14ac:dyDescent="0.4">
@@ -13445,7 +13474,7 @@
         <v>10</v>
       </c>
       <c r="H488" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="489" spans="1:8" x14ac:dyDescent="0.4">
@@ -13471,7 +13500,7 @@
         <v>10</v>
       </c>
       <c r="H489" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="490" spans="1:8" x14ac:dyDescent="0.4">
@@ -13523,7 +13552,7 @@
         <v>10</v>
       </c>
       <c r="H491" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="492" spans="1:8" x14ac:dyDescent="0.4">
@@ -13575,7 +13604,7 @@
         <v>10</v>
       </c>
       <c r="H493" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="494" spans="1:8" x14ac:dyDescent="0.4">
@@ -13653,7 +13682,7 @@
         <v>10</v>
       </c>
       <c r="H496" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="497" spans="1:8" x14ac:dyDescent="0.4">
@@ -14433,6 +14462,2398 @@
         <v>10</v>
       </c>
       <c r="H526" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="527" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A527">
+        <v>525</v>
+      </c>
+      <c r="B527" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C527">
+        <v>50</v>
+      </c>
+      <c r="D527" t="s">
+        <v>26</v>
+      </c>
+      <c r="E527" t="s">
+        <v>49</v>
+      </c>
+      <c r="F527" s="1">
+        <v>43929</v>
+      </c>
+      <c r="G527" t="s">
+        <v>10</v>
+      </c>
+      <c r="H527" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="528" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A528">
+        <v>526</v>
+      </c>
+      <c r="B528" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C528" t="s">
+        <v>74</v>
+      </c>
+      <c r="D528" t="s">
+        <v>26</v>
+      </c>
+      <c r="E528" t="s">
+        <v>74</v>
+      </c>
+      <c r="F528" s="1">
+        <v>43923</v>
+      </c>
+      <c r="G528" t="s">
+        <v>10</v>
+      </c>
+      <c r="H528" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="529" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A529">
+        <v>527</v>
+      </c>
+      <c r="B529" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C529">
+        <v>50</v>
+      </c>
+      <c r="D529" t="s">
+        <v>26</v>
+      </c>
+      <c r="E529" t="s">
+        <v>25</v>
+      </c>
+      <c r="F529" s="1">
+        <v>43923</v>
+      </c>
+      <c r="G529" t="s">
+        <v>10</v>
+      </c>
+      <c r="H529" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="530" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A530">
+        <v>528</v>
+      </c>
+      <c r="B530" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C530">
+        <v>20</v>
+      </c>
+      <c r="D530" t="s">
+        <v>26</v>
+      </c>
+      <c r="E530" t="s">
+        <v>25</v>
+      </c>
+      <c r="F530" s="1">
+        <v>43926</v>
+      </c>
+      <c r="G530" t="s">
+        <v>10</v>
+      </c>
+      <c r="H530" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="531" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A531">
+        <v>529</v>
+      </c>
+      <c r="B531" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C531">
+        <v>50</v>
+      </c>
+      <c r="D531" t="s">
+        <v>26</v>
+      </c>
+      <c r="E531" t="s">
+        <v>25</v>
+      </c>
+      <c r="F531" s="1">
+        <v>43927</v>
+      </c>
+      <c r="G531" t="s">
+        <v>10</v>
+      </c>
+      <c r="H531" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="532" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A532">
+        <v>530</v>
+      </c>
+      <c r="B532" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C532">
+        <v>10</v>
+      </c>
+      <c r="D532" t="s">
+        <v>26</v>
+      </c>
+      <c r="E532" t="s">
+        <v>25</v>
+      </c>
+      <c r="F532" s="1">
+        <v>43925</v>
+      </c>
+      <c r="G532" t="s">
+        <v>10</v>
+      </c>
+      <c r="H532" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="533" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A533">
+        <v>531</v>
+      </c>
+      <c r="B533" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C533">
+        <v>20</v>
+      </c>
+      <c r="D533" t="s">
+        <v>24</v>
+      </c>
+      <c r="E533" t="s">
+        <v>25</v>
+      </c>
+      <c r="F533" s="1">
+        <v>43925</v>
+      </c>
+      <c r="G533" t="s">
+        <v>10</v>
+      </c>
+      <c r="H533" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="534" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A534">
+        <v>532</v>
+      </c>
+      <c r="B534" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C534">
+        <v>40</v>
+      </c>
+      <c r="D534" t="s">
+        <v>26</v>
+      </c>
+      <c r="E534" t="s">
+        <v>25</v>
+      </c>
+      <c r="F534" s="1">
+        <v>43916</v>
+      </c>
+      <c r="G534" t="s">
+        <v>10</v>
+      </c>
+      <c r="H534" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="535" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A535">
+        <v>533</v>
+      </c>
+      <c r="B535" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C535">
+        <v>20</v>
+      </c>
+      <c r="D535" t="s">
+        <v>24</v>
+      </c>
+      <c r="E535" t="s">
+        <v>25</v>
+      </c>
+      <c r="F535" s="1">
+        <v>43923</v>
+      </c>
+      <c r="G535" t="s">
+        <v>10</v>
+      </c>
+      <c r="H535" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="536" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A536">
+        <v>534</v>
+      </c>
+      <c r="B536" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C536">
+        <v>70</v>
+      </c>
+      <c r="D536" t="s">
+        <v>26</v>
+      </c>
+      <c r="E536" t="s">
+        <v>38</v>
+      </c>
+      <c r="F536" s="1">
+        <v>43925</v>
+      </c>
+      <c r="G536" t="s">
+        <v>10</v>
+      </c>
+      <c r="H536" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="537" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A537">
+        <v>535</v>
+      </c>
+      <c r="B537" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C537">
+        <v>30</v>
+      </c>
+      <c r="D537" t="s">
+        <v>24</v>
+      </c>
+      <c r="E537" t="s">
+        <v>39</v>
+      </c>
+      <c r="F537" s="1">
+        <v>43918</v>
+      </c>
+      <c r="G537" t="s">
+        <v>10</v>
+      </c>
+      <c r="H537" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="538" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A538">
+        <v>536</v>
+      </c>
+      <c r="B538" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C538">
+        <v>40</v>
+      </c>
+      <c r="D538" t="s">
+        <v>26</v>
+      </c>
+      <c r="E538" t="s">
+        <v>49</v>
+      </c>
+      <c r="F538" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G538" t="s">
+        <v>12</v>
+      </c>
+      <c r="H538" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="539" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A539">
+        <v>537</v>
+      </c>
+      <c r="B539" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C539">
+        <v>80</v>
+      </c>
+      <c r="D539" t="s">
+        <v>24</v>
+      </c>
+      <c r="E539" t="s">
+        <v>49</v>
+      </c>
+      <c r="F539" s="1">
+        <v>43917</v>
+      </c>
+      <c r="G539" t="s">
+        <v>11</v>
+      </c>
+      <c r="H539" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="540" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A540">
+        <v>538</v>
+      </c>
+      <c r="B540" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C540">
+        <v>30</v>
+      </c>
+      <c r="D540" t="s">
+        <v>24</v>
+      </c>
+      <c r="E540" t="s">
+        <v>46</v>
+      </c>
+      <c r="F540" s="1">
+        <v>43921</v>
+      </c>
+      <c r="G540" t="s">
+        <v>10</v>
+      </c>
+      <c r="H540" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="541" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A541">
+        <v>539</v>
+      </c>
+      <c r="B541" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C541">
+        <v>40</v>
+      </c>
+      <c r="D541" t="s">
+        <v>26</v>
+      </c>
+      <c r="E541" t="s">
+        <v>46</v>
+      </c>
+      <c r="F541" s="1">
+        <v>43920</v>
+      </c>
+      <c r="G541" t="s">
+        <v>10</v>
+      </c>
+      <c r="H541" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="542" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A542">
+        <v>540</v>
+      </c>
+      <c r="B542" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C542">
+        <v>20</v>
+      </c>
+      <c r="D542" t="s">
+        <v>26</v>
+      </c>
+      <c r="E542" t="s">
+        <v>46</v>
+      </c>
+      <c r="F542" s="1">
+        <v>43924</v>
+      </c>
+      <c r="G542" t="s">
+        <v>10</v>
+      </c>
+      <c r="H542" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="543" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A543">
+        <v>541</v>
+      </c>
+      <c r="B543" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C543">
+        <v>80</v>
+      </c>
+      <c r="D543" t="s">
+        <v>24</v>
+      </c>
+      <c r="E543" t="s">
+        <v>32</v>
+      </c>
+      <c r="F543" s="1">
+        <v>43921</v>
+      </c>
+      <c r="G543" t="s">
+        <v>10</v>
+      </c>
+      <c r="H543" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="544" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A544">
+        <v>542</v>
+      </c>
+      <c r="B544" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C544">
+        <v>10</v>
+      </c>
+      <c r="D544" t="s">
+        <v>24</v>
+      </c>
+      <c r="E544" t="s">
+        <v>32</v>
+      </c>
+      <c r="F544" s="1">
+        <v>43922</v>
+      </c>
+      <c r="G544" t="s">
+        <v>10</v>
+      </c>
+      <c r="H544" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="545" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A545">
+        <v>543</v>
+      </c>
+      <c r="B545" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C545">
+        <v>40</v>
+      </c>
+      <c r="D545" t="s">
+        <v>24</v>
+      </c>
+      <c r="E545" t="s">
+        <v>32</v>
+      </c>
+      <c r="F545" s="1">
+        <v>43919</v>
+      </c>
+      <c r="G545" t="s">
+        <v>10</v>
+      </c>
+      <c r="H545" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="546" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A546">
+        <v>544</v>
+      </c>
+      <c r="B546" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C546">
+        <v>80</v>
+      </c>
+      <c r="D546" t="s">
+        <v>26</v>
+      </c>
+      <c r="E546" t="s">
+        <v>38</v>
+      </c>
+      <c r="F546" s="1">
+        <v>43924</v>
+      </c>
+      <c r="G546" t="s">
+        <v>10</v>
+      </c>
+      <c r="H546" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="547" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A547">
+        <v>545</v>
+      </c>
+      <c r="B547" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C547">
+        <v>20</v>
+      </c>
+      <c r="D547" t="s">
+        <v>24</v>
+      </c>
+      <c r="E547" t="s">
+        <v>25</v>
+      </c>
+      <c r="F547" s="1">
+        <v>43922</v>
+      </c>
+      <c r="G547" t="s">
+        <v>10</v>
+      </c>
+      <c r="H547" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="548" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A548">
+        <v>546</v>
+      </c>
+      <c r="B548" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C548" t="s">
+        <v>74</v>
+      </c>
+      <c r="D548" t="s">
+        <v>26</v>
+      </c>
+      <c r="E548" t="s">
+        <v>31</v>
+      </c>
+      <c r="F548" s="1">
+        <v>43923</v>
+      </c>
+      <c r="G548" t="s">
+        <v>11</v>
+      </c>
+      <c r="H548" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="549" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A549">
+        <v>547</v>
+      </c>
+      <c r="B549" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C549">
+        <v>20</v>
+      </c>
+      <c r="D549" t="s">
+        <v>26</v>
+      </c>
+      <c r="E549" t="s">
+        <v>25</v>
+      </c>
+      <c r="F549" t="s">
+        <v>74</v>
+      </c>
+      <c r="G549" t="s">
+        <v>10</v>
+      </c>
+      <c r="H549" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="550" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A550">
+        <v>548</v>
+      </c>
+      <c r="B550" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C550">
+        <v>30</v>
+      </c>
+      <c r="D550" t="s">
+        <v>26</v>
+      </c>
+      <c r="E550" t="s">
+        <v>31</v>
+      </c>
+      <c r="F550" s="1">
+        <v>43916</v>
+      </c>
+      <c r="G550" t="s">
+        <v>10</v>
+      </c>
+      <c r="H550" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="551" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A551">
+        <v>549</v>
+      </c>
+      <c r="B551" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C551">
+        <v>20</v>
+      </c>
+      <c r="D551" t="s">
+        <v>26</v>
+      </c>
+      <c r="E551" t="s">
+        <v>25</v>
+      </c>
+      <c r="F551" s="1">
+        <v>43927</v>
+      </c>
+      <c r="G551" t="s">
+        <v>10</v>
+      </c>
+      <c r="H551" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="552" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A552">
+        <v>550</v>
+      </c>
+      <c r="B552" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C552">
+        <v>30</v>
+      </c>
+      <c r="D552" t="s">
+        <v>26</v>
+      </c>
+      <c r="E552" t="s">
+        <v>25</v>
+      </c>
+      <c r="F552" s="1">
+        <v>43926</v>
+      </c>
+      <c r="G552" t="s">
+        <v>10</v>
+      </c>
+      <c r="H552" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="553" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A553">
+        <v>551</v>
+      </c>
+      <c r="B553" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C553">
+        <v>70</v>
+      </c>
+      <c r="D553" t="s">
+        <v>24</v>
+      </c>
+      <c r="E553" t="s">
+        <v>25</v>
+      </c>
+      <c r="F553" s="1">
+        <v>43924</v>
+      </c>
+      <c r="G553" t="s">
+        <v>10</v>
+      </c>
+      <c r="H553" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="554" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A554">
+        <v>552</v>
+      </c>
+      <c r="B554" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C554">
+        <v>20</v>
+      </c>
+      <c r="D554" t="s">
+        <v>26</v>
+      </c>
+      <c r="E554" t="s">
+        <v>25</v>
+      </c>
+      <c r="F554" s="1">
+        <v>43922</v>
+      </c>
+      <c r="G554" t="s">
+        <v>10</v>
+      </c>
+      <c r="H554" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="555" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A555">
+        <v>553</v>
+      </c>
+      <c r="B555" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C555">
+        <v>70</v>
+      </c>
+      <c r="D555" t="s">
+        <v>24</v>
+      </c>
+      <c r="E555" t="s">
+        <v>25</v>
+      </c>
+      <c r="F555" s="1">
+        <v>43922</v>
+      </c>
+      <c r="G555" t="s">
+        <v>10</v>
+      </c>
+      <c r="H555" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="556" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A556">
+        <v>554</v>
+      </c>
+      <c r="B556" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C556">
+        <v>80</v>
+      </c>
+      <c r="D556" t="s">
+        <v>26</v>
+      </c>
+      <c r="E556" t="s">
+        <v>25</v>
+      </c>
+      <c r="F556" s="1">
+        <v>43926</v>
+      </c>
+      <c r="G556" t="s">
+        <v>10</v>
+      </c>
+      <c r="H556" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="557" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A557">
+        <v>555</v>
+      </c>
+      <c r="B557" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C557">
+        <v>20</v>
+      </c>
+      <c r="D557" t="s">
+        <v>24</v>
+      </c>
+      <c r="E557" t="s">
+        <v>75</v>
+      </c>
+      <c r="F557" s="1">
+        <v>43923</v>
+      </c>
+      <c r="G557" t="s">
+        <v>10</v>
+      </c>
+      <c r="H557" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="558" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A558">
+        <v>556</v>
+      </c>
+      <c r="B558" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C558">
+        <v>30</v>
+      </c>
+      <c r="D558" t="s">
+        <v>26</v>
+      </c>
+      <c r="E558" t="s">
+        <v>25</v>
+      </c>
+      <c r="F558" s="1">
+        <v>43923</v>
+      </c>
+      <c r="G558" t="s">
+        <v>10</v>
+      </c>
+      <c r="H558" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="559" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A559">
+        <v>557</v>
+      </c>
+      <c r="B559" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C559">
+        <v>30</v>
+      </c>
+      <c r="D559" t="s">
+        <v>26</v>
+      </c>
+      <c r="E559" t="s">
+        <v>25</v>
+      </c>
+      <c r="F559" s="1">
+        <v>43917</v>
+      </c>
+      <c r="G559" t="s">
+        <v>10</v>
+      </c>
+      <c r="H559" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="560" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A560">
+        <v>558</v>
+      </c>
+      <c r="B560" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C560">
+        <v>50</v>
+      </c>
+      <c r="D560" t="s">
+        <v>26</v>
+      </c>
+      <c r="E560" t="s">
+        <v>31</v>
+      </c>
+      <c r="F560" s="1">
+        <v>43920</v>
+      </c>
+      <c r="G560" t="s">
+        <v>10</v>
+      </c>
+      <c r="H560" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="561" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A561">
+        <v>559</v>
+      </c>
+      <c r="B561" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C561">
+        <v>50</v>
+      </c>
+      <c r="D561" t="s">
+        <v>26</v>
+      </c>
+      <c r="E561" t="s">
+        <v>31</v>
+      </c>
+      <c r="F561" s="1">
+        <v>43926</v>
+      </c>
+      <c r="G561" t="s">
+        <v>10</v>
+      </c>
+      <c r="H561" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="562" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A562">
+        <v>560</v>
+      </c>
+      <c r="B562" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C562">
+        <v>40</v>
+      </c>
+      <c r="D562" t="s">
+        <v>26</v>
+      </c>
+      <c r="E562" t="s">
+        <v>40</v>
+      </c>
+      <c r="F562" s="1">
+        <v>43921</v>
+      </c>
+      <c r="G562" t="s">
+        <v>10</v>
+      </c>
+      <c r="H562" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="563" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A563">
+        <v>561</v>
+      </c>
+      <c r="B563" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C563">
+        <v>30</v>
+      </c>
+      <c r="D563" t="s">
+        <v>26</v>
+      </c>
+      <c r="E563" t="s">
+        <v>40</v>
+      </c>
+      <c r="F563" s="1">
+        <v>43922</v>
+      </c>
+      <c r="G563" t="s">
+        <v>10</v>
+      </c>
+      <c r="H563" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="564" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A564">
+        <v>562</v>
+      </c>
+      <c r="B564" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C564">
+        <v>10</v>
+      </c>
+      <c r="D564" t="s">
+        <v>26</v>
+      </c>
+      <c r="E564" t="s">
+        <v>76</v>
+      </c>
+      <c r="F564" s="1">
+        <v>43922</v>
+      </c>
+      <c r="G564" t="s">
+        <v>10</v>
+      </c>
+      <c r="H564" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="565" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A565">
+        <v>563</v>
+      </c>
+      <c r="B565" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C565">
+        <v>40</v>
+      </c>
+      <c r="D565" t="s">
+        <v>24</v>
+      </c>
+      <c r="E565" t="s">
+        <v>77</v>
+      </c>
+      <c r="F565" s="1">
+        <v>43925</v>
+      </c>
+      <c r="G565" t="s">
+        <v>10</v>
+      </c>
+      <c r="H565" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="566" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A566">
+        <v>564</v>
+      </c>
+      <c r="B566" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C566">
+        <v>40</v>
+      </c>
+      <c r="D566" t="s">
+        <v>24</v>
+      </c>
+      <c r="E566" t="s">
+        <v>30</v>
+      </c>
+      <c r="F566" s="1">
+        <v>43928</v>
+      </c>
+      <c r="G566" t="s">
+        <v>10</v>
+      </c>
+      <c r="H566" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="567" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A567">
+        <v>565</v>
+      </c>
+      <c r="B567" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C567">
+        <v>30</v>
+      </c>
+      <c r="D567" t="s">
+        <v>26</v>
+      </c>
+      <c r="E567" t="s">
+        <v>78</v>
+      </c>
+      <c r="F567" s="1">
+        <v>43926</v>
+      </c>
+      <c r="G567" t="s">
+        <v>10</v>
+      </c>
+      <c r="H567" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="568" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A568">
+        <v>566</v>
+      </c>
+      <c r="B568" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C568">
+        <v>20</v>
+      </c>
+      <c r="D568" t="s">
+        <v>26</v>
+      </c>
+      <c r="E568" t="s">
+        <v>35</v>
+      </c>
+      <c r="F568" s="1">
+        <v>43925</v>
+      </c>
+      <c r="G568" t="s">
+        <v>10</v>
+      </c>
+      <c r="H568" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="569" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A569">
+        <v>567</v>
+      </c>
+      <c r="B569" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C569">
+        <v>30</v>
+      </c>
+      <c r="D569" t="s">
+        <v>26</v>
+      </c>
+      <c r="E569" t="s">
+        <v>25</v>
+      </c>
+      <c r="F569" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G569" t="s">
+        <v>12</v>
+      </c>
+      <c r="H569" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="570" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A570">
+        <v>568</v>
+      </c>
+      <c r="B570" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C570">
+        <v>20</v>
+      </c>
+      <c r="D570" t="s">
+        <v>24</v>
+      </c>
+      <c r="E570" t="s">
+        <v>35</v>
+      </c>
+      <c r="F570" s="1">
+        <v>43917</v>
+      </c>
+      <c r="G570" t="s">
+        <v>10</v>
+      </c>
+      <c r="H570" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="571" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A571">
+        <v>569</v>
+      </c>
+      <c r="B571" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C571">
+        <v>30</v>
+      </c>
+      <c r="D571" t="s">
+        <v>26</v>
+      </c>
+      <c r="E571" t="s">
+        <v>35</v>
+      </c>
+      <c r="F571" s="1">
+        <v>43927</v>
+      </c>
+      <c r="G571" t="s">
+        <v>10</v>
+      </c>
+      <c r="H571" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="572" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A572">
+        <v>570</v>
+      </c>
+      <c r="B572" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C572">
+        <v>40</v>
+      </c>
+      <c r="D572" t="s">
+        <v>26</v>
+      </c>
+      <c r="E572" t="s">
+        <v>35</v>
+      </c>
+      <c r="F572" s="1">
+        <v>43927</v>
+      </c>
+      <c r="G572" t="s">
+        <v>10</v>
+      </c>
+      <c r="H572" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="573" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A573">
+        <v>571</v>
+      </c>
+      <c r="B573" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C573">
+        <v>60</v>
+      </c>
+      <c r="D573" t="s">
+        <v>24</v>
+      </c>
+      <c r="E573" t="s">
+        <v>35</v>
+      </c>
+      <c r="F573" s="1">
+        <v>43926</v>
+      </c>
+      <c r="G573" t="s">
+        <v>10</v>
+      </c>
+      <c r="H573" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="574" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A574">
+        <v>572</v>
+      </c>
+      <c r="B574" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C574">
+        <v>70</v>
+      </c>
+      <c r="D574" t="s">
+        <v>24</v>
+      </c>
+      <c r="E574" t="s">
+        <v>35</v>
+      </c>
+      <c r="F574" s="1">
+        <v>43926</v>
+      </c>
+      <c r="G574" t="s">
+        <v>10</v>
+      </c>
+      <c r="H574" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="575" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A575">
+        <v>573</v>
+      </c>
+      <c r="B575" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C575">
+        <v>70</v>
+      </c>
+      <c r="D575" t="s">
+        <v>24</v>
+      </c>
+      <c r="E575" t="s">
+        <v>35</v>
+      </c>
+      <c r="F575" s="1">
+        <v>43926</v>
+      </c>
+      <c r="G575" t="s">
+        <v>10</v>
+      </c>
+      <c r="H575" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="576" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A576">
+        <v>574</v>
+      </c>
+      <c r="B576" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C576">
+        <v>80</v>
+      </c>
+      <c r="D576" t="s">
+        <v>24</v>
+      </c>
+      <c r="E576" t="s">
+        <v>35</v>
+      </c>
+      <c r="F576" s="1">
+        <v>43926</v>
+      </c>
+      <c r="G576" t="s">
+        <v>10</v>
+      </c>
+      <c r="H576" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="577" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A577">
+        <v>575</v>
+      </c>
+      <c r="B577" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C577">
+        <v>80</v>
+      </c>
+      <c r="D577" t="s">
+        <v>24</v>
+      </c>
+      <c r="E577" t="s">
+        <v>78</v>
+      </c>
+      <c r="F577" s="1">
+        <v>43917</v>
+      </c>
+      <c r="G577" t="s">
+        <v>10</v>
+      </c>
+      <c r="H577" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="578" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A578">
+        <v>576</v>
+      </c>
+      <c r="B578" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C578">
+        <v>20</v>
+      </c>
+      <c r="D578" t="s">
+        <v>26</v>
+      </c>
+      <c r="E578" t="s">
+        <v>25</v>
+      </c>
+      <c r="F578" s="1">
+        <v>43921</v>
+      </c>
+      <c r="G578" t="s">
+        <v>10</v>
+      </c>
+      <c r="H578" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="579" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A579">
+        <v>577</v>
+      </c>
+      <c r="B579" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C579">
+        <v>20</v>
+      </c>
+      <c r="D579" t="s">
+        <v>24</v>
+      </c>
+      <c r="E579" t="s">
+        <v>25</v>
+      </c>
+      <c r="F579" s="1">
+        <v>43917</v>
+      </c>
+      <c r="G579" t="s">
+        <v>10</v>
+      </c>
+      <c r="H579" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="580" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A580">
+        <v>578</v>
+      </c>
+      <c r="B580" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C580">
+        <v>10</v>
+      </c>
+      <c r="D580" t="s">
+        <v>24</v>
+      </c>
+      <c r="E580" t="s">
+        <v>25</v>
+      </c>
+      <c r="F580" s="1">
+        <v>43922</v>
+      </c>
+      <c r="G580" t="s">
+        <v>10</v>
+      </c>
+      <c r="H580" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="581" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A581">
+        <v>579</v>
+      </c>
+      <c r="B581" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C581">
+        <v>20</v>
+      </c>
+      <c r="D581" t="s">
+        <v>26</v>
+      </c>
+      <c r="E581" t="s">
+        <v>25</v>
+      </c>
+      <c r="F581" s="1">
+        <v>43923</v>
+      </c>
+      <c r="G581" t="s">
+        <v>10</v>
+      </c>
+      <c r="H581" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="582" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A582">
+        <v>580</v>
+      </c>
+      <c r="B582" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C582">
+        <v>20</v>
+      </c>
+      <c r="D582" t="s">
+        <v>26</v>
+      </c>
+      <c r="E582" t="s">
+        <v>25</v>
+      </c>
+      <c r="F582" s="1">
+        <v>43918</v>
+      </c>
+      <c r="G582" t="s">
+        <v>10</v>
+      </c>
+      <c r="H582" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="583" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A583">
+        <v>581</v>
+      </c>
+      <c r="B583" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C583">
+        <v>30</v>
+      </c>
+      <c r="D583" t="s">
+        <v>26</v>
+      </c>
+      <c r="E583" t="s">
+        <v>25</v>
+      </c>
+      <c r="F583" s="1">
+        <v>43922</v>
+      </c>
+      <c r="G583" t="s">
+        <v>10</v>
+      </c>
+      <c r="H583" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="584" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A584">
+        <v>582</v>
+      </c>
+      <c r="B584" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C584">
+        <v>80</v>
+      </c>
+      <c r="D584" t="s">
+        <v>26</v>
+      </c>
+      <c r="E584" t="s">
+        <v>25</v>
+      </c>
+      <c r="F584" t="s">
+        <v>74</v>
+      </c>
+      <c r="G584" t="s">
+        <v>74</v>
+      </c>
+      <c r="H584" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="585" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A585">
+        <v>583</v>
+      </c>
+      <c r="B585" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C585">
+        <v>20</v>
+      </c>
+      <c r="D585" t="s">
+        <v>26</v>
+      </c>
+      <c r="E585" t="s">
+        <v>25</v>
+      </c>
+      <c r="F585" s="1">
+        <v>43924</v>
+      </c>
+      <c r="G585" t="s">
+        <v>10</v>
+      </c>
+      <c r="H585" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="586" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A586">
+        <v>584</v>
+      </c>
+      <c r="B586" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C586">
+        <v>60</v>
+      </c>
+      <c r="D586" t="s">
+        <v>26</v>
+      </c>
+      <c r="E586" t="s">
+        <v>42</v>
+      </c>
+      <c r="F586" s="1">
+        <v>43924</v>
+      </c>
+      <c r="G586" t="s">
+        <v>10</v>
+      </c>
+      <c r="H586" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="587" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A587">
+        <v>585</v>
+      </c>
+      <c r="B587" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C587">
+        <v>70</v>
+      </c>
+      <c r="D587" t="s">
+        <v>24</v>
+      </c>
+      <c r="E587" t="s">
+        <v>42</v>
+      </c>
+      <c r="F587" s="1">
+        <v>43926</v>
+      </c>
+      <c r="G587" t="s">
+        <v>10</v>
+      </c>
+      <c r="H587" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="588" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A588">
+        <v>586</v>
+      </c>
+      <c r="B588" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C588">
+        <v>30</v>
+      </c>
+      <c r="D588" t="s">
+        <v>24</v>
+      </c>
+      <c r="E588" t="s">
+        <v>42</v>
+      </c>
+      <c r="F588" s="1">
+        <v>43922</v>
+      </c>
+      <c r="G588" t="s">
+        <v>10</v>
+      </c>
+      <c r="H588" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="589" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A589">
+        <v>587</v>
+      </c>
+      <c r="B589" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C589">
+        <v>30</v>
+      </c>
+      <c r="D589" t="s">
+        <v>26</v>
+      </c>
+      <c r="E589" t="s">
+        <v>42</v>
+      </c>
+      <c r="F589" s="1">
+        <v>43924</v>
+      </c>
+      <c r="G589" t="s">
+        <v>10</v>
+      </c>
+      <c r="H589" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="590" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A590">
+        <v>588</v>
+      </c>
+      <c r="B590" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C590">
+        <v>70</v>
+      </c>
+      <c r="D590" t="s">
+        <v>24</v>
+      </c>
+      <c r="E590" t="s">
+        <v>25</v>
+      </c>
+      <c r="F590" t="s">
+        <v>74</v>
+      </c>
+      <c r="G590" t="s">
+        <v>74</v>
+      </c>
+      <c r="H590" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="591" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A591">
+        <v>589</v>
+      </c>
+      <c r="B591" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C591" t="s">
+        <v>74</v>
+      </c>
+      <c r="D591" t="s">
+        <v>74</v>
+      </c>
+      <c r="E591" t="s">
+        <v>74</v>
+      </c>
+      <c r="F591" t="s">
+        <v>74</v>
+      </c>
+      <c r="G591" t="s">
+        <v>74</v>
+      </c>
+      <c r="H591" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="592" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A592">
+        <v>590</v>
+      </c>
+      <c r="B592" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C592" t="s">
+        <v>74</v>
+      </c>
+      <c r="D592" t="s">
+        <v>74</v>
+      </c>
+      <c r="E592" t="s">
+        <v>74</v>
+      </c>
+      <c r="F592" t="s">
+        <v>74</v>
+      </c>
+      <c r="G592" t="s">
+        <v>74</v>
+      </c>
+      <c r="H592" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="593" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A593">
+        <v>591</v>
+      </c>
+      <c r="B593" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C593" t="s">
+        <v>74</v>
+      </c>
+      <c r="D593" t="s">
+        <v>74</v>
+      </c>
+      <c r="E593" t="s">
+        <v>74</v>
+      </c>
+      <c r="F593" t="s">
+        <v>74</v>
+      </c>
+      <c r="G593" t="s">
+        <v>74</v>
+      </c>
+      <c r="H593" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="594" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A594">
+        <v>592</v>
+      </c>
+      <c r="B594" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C594" t="s">
+        <v>74</v>
+      </c>
+      <c r="D594" t="s">
+        <v>74</v>
+      </c>
+      <c r="E594" t="s">
+        <v>74</v>
+      </c>
+      <c r="F594" t="s">
+        <v>74</v>
+      </c>
+      <c r="G594" t="s">
+        <v>74</v>
+      </c>
+      <c r="H594" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="595" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A595">
+        <v>593</v>
+      </c>
+      <c r="B595" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C595" t="s">
+        <v>74</v>
+      </c>
+      <c r="D595" t="s">
+        <v>74</v>
+      </c>
+      <c r="E595" t="s">
+        <v>74</v>
+      </c>
+      <c r="F595" t="s">
+        <v>74</v>
+      </c>
+      <c r="G595" t="s">
+        <v>74</v>
+      </c>
+      <c r="H595" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="596" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A596">
+        <v>594</v>
+      </c>
+      <c r="B596" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C596" t="s">
+        <v>74</v>
+      </c>
+      <c r="D596" t="s">
+        <v>74</v>
+      </c>
+      <c r="E596" t="s">
+        <v>74</v>
+      </c>
+      <c r="F596" t="s">
+        <v>74</v>
+      </c>
+      <c r="G596" t="s">
+        <v>74</v>
+      </c>
+      <c r="H596" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="597" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A597">
+        <v>595</v>
+      </c>
+      <c r="B597" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C597" t="s">
+        <v>74</v>
+      </c>
+      <c r="D597" t="s">
+        <v>74</v>
+      </c>
+      <c r="E597" t="s">
+        <v>74</v>
+      </c>
+      <c r="F597" t="s">
+        <v>74</v>
+      </c>
+      <c r="G597" t="s">
+        <v>74</v>
+      </c>
+      <c r="H597" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="598" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A598">
+        <v>596</v>
+      </c>
+      <c r="B598" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C598" t="s">
+        <v>74</v>
+      </c>
+      <c r="D598" t="s">
+        <v>74</v>
+      </c>
+      <c r="E598" t="s">
+        <v>74</v>
+      </c>
+      <c r="F598" t="s">
+        <v>74</v>
+      </c>
+      <c r="G598" t="s">
+        <v>74</v>
+      </c>
+      <c r="H598" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="599" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A599">
+        <v>597</v>
+      </c>
+      <c r="B599" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C599" t="s">
+        <v>74</v>
+      </c>
+      <c r="D599" t="s">
+        <v>74</v>
+      </c>
+      <c r="E599" t="s">
+        <v>74</v>
+      </c>
+      <c r="F599" t="s">
+        <v>74</v>
+      </c>
+      <c r="G599" t="s">
+        <v>74</v>
+      </c>
+      <c r="H599" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="600" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A600">
+        <v>598</v>
+      </c>
+      <c r="B600" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C600" t="s">
+        <v>74</v>
+      </c>
+      <c r="D600" t="s">
+        <v>74</v>
+      </c>
+      <c r="E600" t="s">
+        <v>74</v>
+      </c>
+      <c r="F600" t="s">
+        <v>74</v>
+      </c>
+      <c r="G600" t="s">
+        <v>74</v>
+      </c>
+      <c r="H600" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="601" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A601">
+        <v>599</v>
+      </c>
+      <c r="B601" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C601" t="s">
+        <v>74</v>
+      </c>
+      <c r="D601" t="s">
+        <v>74</v>
+      </c>
+      <c r="E601" t="s">
+        <v>74</v>
+      </c>
+      <c r="F601" t="s">
+        <v>74</v>
+      </c>
+      <c r="G601" t="s">
+        <v>74</v>
+      </c>
+      <c r="H601" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="602" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A602">
+        <v>600</v>
+      </c>
+      <c r="B602" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C602" t="s">
+        <v>74</v>
+      </c>
+      <c r="D602" t="s">
+        <v>74</v>
+      </c>
+      <c r="E602" t="s">
+        <v>74</v>
+      </c>
+      <c r="F602" t="s">
+        <v>74</v>
+      </c>
+      <c r="G602" t="s">
+        <v>74</v>
+      </c>
+      <c r="H602" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="603" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A603">
+        <v>601</v>
+      </c>
+      <c r="B603" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C603" t="s">
+        <v>74</v>
+      </c>
+      <c r="D603" t="s">
+        <v>74</v>
+      </c>
+      <c r="E603" t="s">
+        <v>74</v>
+      </c>
+      <c r="F603" t="s">
+        <v>74</v>
+      </c>
+      <c r="G603" t="s">
+        <v>74</v>
+      </c>
+      <c r="H603" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="604" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A604">
+        <v>602</v>
+      </c>
+      <c r="B604" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C604" t="s">
+        <v>74</v>
+      </c>
+      <c r="D604" t="s">
+        <v>74</v>
+      </c>
+      <c r="E604" t="s">
+        <v>74</v>
+      </c>
+      <c r="F604" t="s">
+        <v>74</v>
+      </c>
+      <c r="G604" t="s">
+        <v>74</v>
+      </c>
+      <c r="H604" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="605" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A605">
+        <v>603</v>
+      </c>
+      <c r="B605" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C605" t="s">
+        <v>74</v>
+      </c>
+      <c r="D605" t="s">
+        <v>74</v>
+      </c>
+      <c r="E605" t="s">
+        <v>74</v>
+      </c>
+      <c r="F605" t="s">
+        <v>74</v>
+      </c>
+      <c r="G605" t="s">
+        <v>74</v>
+      </c>
+      <c r="H605" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="606" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A606">
+        <v>604</v>
+      </c>
+      <c r="B606" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C606" t="s">
+        <v>74</v>
+      </c>
+      <c r="D606" t="s">
+        <v>74</v>
+      </c>
+      <c r="E606" t="s">
+        <v>74</v>
+      </c>
+      <c r="F606" t="s">
+        <v>74</v>
+      </c>
+      <c r="G606" t="s">
+        <v>74</v>
+      </c>
+      <c r="H606" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="607" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A607">
+        <v>605</v>
+      </c>
+      <c r="B607" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C607" t="s">
+        <v>74</v>
+      </c>
+      <c r="D607" t="s">
+        <v>74</v>
+      </c>
+      <c r="E607" t="s">
+        <v>74</v>
+      </c>
+      <c r="F607" t="s">
+        <v>74</v>
+      </c>
+      <c r="G607" t="s">
+        <v>74</v>
+      </c>
+      <c r="H607" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="608" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A608">
+        <v>606</v>
+      </c>
+      <c r="B608" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C608" t="s">
+        <v>74</v>
+      </c>
+      <c r="D608" t="s">
+        <v>74</v>
+      </c>
+      <c r="E608" t="s">
+        <v>74</v>
+      </c>
+      <c r="F608" t="s">
+        <v>74</v>
+      </c>
+      <c r="G608" t="s">
+        <v>74</v>
+      </c>
+      <c r="H608" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="609" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A609">
+        <v>607</v>
+      </c>
+      <c r="B609" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C609" t="s">
+        <v>74</v>
+      </c>
+      <c r="D609" t="s">
+        <v>74</v>
+      </c>
+      <c r="E609" t="s">
+        <v>74</v>
+      </c>
+      <c r="F609" t="s">
+        <v>74</v>
+      </c>
+      <c r="G609" t="s">
+        <v>74</v>
+      </c>
+      <c r="H609" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="610" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A610">
+        <v>608</v>
+      </c>
+      <c r="B610" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C610" t="s">
+        <v>74</v>
+      </c>
+      <c r="D610" t="s">
+        <v>74</v>
+      </c>
+      <c r="E610" t="s">
+        <v>74</v>
+      </c>
+      <c r="F610" t="s">
+        <v>74</v>
+      </c>
+      <c r="G610" t="s">
+        <v>74</v>
+      </c>
+      <c r="H610" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="611" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A611">
+        <v>609</v>
+      </c>
+      <c r="B611" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C611" t="s">
+        <v>74</v>
+      </c>
+      <c r="D611" t="s">
+        <v>74</v>
+      </c>
+      <c r="E611" t="s">
+        <v>74</v>
+      </c>
+      <c r="F611" t="s">
+        <v>74</v>
+      </c>
+      <c r="G611" t="s">
+        <v>74</v>
+      </c>
+      <c r="H611" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="612" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A612">
+        <v>610</v>
+      </c>
+      <c r="B612" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C612" t="s">
+        <v>74</v>
+      </c>
+      <c r="D612" t="s">
+        <v>74</v>
+      </c>
+      <c r="E612" t="s">
+        <v>74</v>
+      </c>
+      <c r="F612" t="s">
+        <v>74</v>
+      </c>
+      <c r="G612" t="s">
+        <v>74</v>
+      </c>
+      <c r="H612" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="613" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A613">
+        <v>611</v>
+      </c>
+      <c r="B613" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C613" t="s">
+        <v>74</v>
+      </c>
+      <c r="D613" t="s">
+        <v>74</v>
+      </c>
+      <c r="E613" t="s">
+        <v>74</v>
+      </c>
+      <c r="F613" t="s">
+        <v>74</v>
+      </c>
+      <c r="G613" t="s">
+        <v>74</v>
+      </c>
+      <c r="H613" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="614" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A614">
+        <v>612</v>
+      </c>
+      <c r="B614" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C614" t="s">
+        <v>74</v>
+      </c>
+      <c r="D614" t="s">
+        <v>74</v>
+      </c>
+      <c r="E614" t="s">
+        <v>74</v>
+      </c>
+      <c r="F614" t="s">
+        <v>74</v>
+      </c>
+      <c r="G614" t="s">
+        <v>74</v>
+      </c>
+      <c r="H614" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="615" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A615">
+        <v>613</v>
+      </c>
+      <c r="B615" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C615" t="s">
+        <v>74</v>
+      </c>
+      <c r="D615" t="s">
+        <v>74</v>
+      </c>
+      <c r="E615" t="s">
+        <v>74</v>
+      </c>
+      <c r="F615" t="s">
+        <v>74</v>
+      </c>
+      <c r="G615" t="s">
+        <v>74</v>
+      </c>
+      <c r="H615" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="616" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A616">
+        <v>614</v>
+      </c>
+      <c r="B616" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C616" t="s">
+        <v>74</v>
+      </c>
+      <c r="D616" t="s">
+        <v>74</v>
+      </c>
+      <c r="E616" t="s">
+        <v>74</v>
+      </c>
+      <c r="F616" t="s">
+        <v>74</v>
+      </c>
+      <c r="G616" t="s">
+        <v>74</v>
+      </c>
+      <c r="H616" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="617" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A617">
+        <v>615</v>
+      </c>
+      <c r="B617" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C617" t="s">
+        <v>74</v>
+      </c>
+      <c r="D617" t="s">
+        <v>74</v>
+      </c>
+      <c r="E617" t="s">
+        <v>74</v>
+      </c>
+      <c r="F617" t="s">
+        <v>74</v>
+      </c>
+      <c r="G617" t="s">
+        <v>74</v>
+      </c>
+      <c r="H617" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="618" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A618">
+        <v>616</v>
+      </c>
+      <c r="B618" s="2">
+        <v>43930</v>
+      </c>
+      <c r="C618" t="s">
+        <v>74</v>
+      </c>
+      <c r="D618" t="s">
+        <v>74</v>
+      </c>
+      <c r="E618" t="s">
+        <v>74</v>
+      </c>
+      <c r="F618" t="s">
+        <v>74</v>
+      </c>
+      <c r="G618" t="s">
+        <v>74</v>
+      </c>
+      <c r="H618" t="s">
         <v>5</v>
       </c>
     </row>
@@ -14444,9 +16865,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J77"/>
+  <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -14455,7 +16878,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="3">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="B1" t="s">
         <v>61</v>
@@ -14492,7 +16915,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" s="7">
+      <c r="A3" s="2">
         <v>43856</v>
       </c>
       <c r="B3">
@@ -14524,7 +16947,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4" s="7">
+      <c r="A4" s="2">
         <v>43857</v>
       </c>
       <c r="B4">
@@ -14556,7 +16979,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5" s="7">
+      <c r="A5" s="2">
         <v>43858</v>
       </c>
       <c r="B5">
@@ -14588,7 +17011,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" s="7">
+      <c r="A6" s="2">
         <v>43859</v>
       </c>
       <c r="B6">
@@ -14620,7 +17043,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="7">
+      <c r="A7" s="2">
         <v>43860</v>
       </c>
       <c r="B7">
@@ -14652,7 +17075,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" s="7">
+      <c r="A8" s="2">
         <v>43861</v>
       </c>
       <c r="B8">
@@ -14684,7 +17107,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9" s="7">
+      <c r="A9" s="2">
         <v>43862</v>
       </c>
       <c r="B9">
@@ -14716,7 +17139,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A10" s="7">
+      <c r="A10" s="2">
         <v>43863</v>
       </c>
       <c r="B10">
@@ -14748,7 +17171,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A11" s="7">
+      <c r="A11" s="2">
         <v>43864</v>
       </c>
       <c r="B11">
@@ -14780,7 +17203,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A12" s="7">
+      <c r="A12" s="2">
         <v>43865</v>
       </c>
       <c r="B12">
@@ -14812,7 +17235,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A13" s="7">
+      <c r="A13" s="2">
         <v>43866</v>
       </c>
       <c r="B13">
@@ -14844,7 +17267,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A14" s="7">
+      <c r="A14" s="2">
         <v>43867</v>
       </c>
       <c r="B14">
@@ -14876,7 +17299,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A15" s="7">
+      <c r="A15" s="2">
         <v>43868</v>
       </c>
       <c r="B15">
@@ -14908,7 +17331,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A16" s="7">
+      <c r="A16" s="2">
         <v>43869</v>
       </c>
       <c r="B16">
@@ -14940,7 +17363,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A17" s="7">
+      <c r="A17" s="2">
         <v>43870</v>
       </c>
       <c r="B17">
@@ -14972,7 +17395,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A18" s="7">
+      <c r="A18" s="2">
         <v>43871</v>
       </c>
       <c r="B18">
@@ -15004,7 +17427,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A19" s="7">
+      <c r="A19" s="2">
         <v>43872</v>
       </c>
       <c r="B19">
@@ -15036,7 +17459,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A20" s="7">
+      <c r="A20" s="2">
         <v>43873</v>
       </c>
       <c r="B20">
@@ -15068,7 +17491,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A21" s="7">
+      <c r="A21" s="2">
         <v>43874</v>
       </c>
       <c r="B21">
@@ -15100,7 +17523,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A22" s="7">
+      <c r="A22" s="2">
         <v>43875</v>
       </c>
       <c r="B22">
@@ -15132,7 +17555,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A23" s="7">
+      <c r="A23" s="2">
         <v>43876</v>
       </c>
       <c r="B23">
@@ -15164,7 +17587,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A24" s="7">
+      <c r="A24" s="2">
         <v>43877</v>
       </c>
       <c r="B24">
@@ -15196,7 +17619,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A25" s="7">
+      <c r="A25" s="2">
         <v>43878</v>
       </c>
       <c r="B25">
@@ -15228,7 +17651,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A26" s="7">
+      <c r="A26" s="2">
         <v>43879</v>
       </c>
       <c r="B26">
@@ -15260,7 +17683,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A27" s="7">
+      <c r="A27" s="2">
         <v>43880</v>
       </c>
       <c r="B27">
@@ -15292,7 +17715,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A28" s="7">
+      <c r="A28" s="2">
         <v>43881</v>
       </c>
       <c r="B28">
@@ -15324,7 +17747,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A29" s="7">
+      <c r="A29" s="2">
         <v>43882</v>
       </c>
       <c r="B29">
@@ -15356,7 +17779,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A30" s="7">
+      <c r="A30" s="2">
         <v>43883</v>
       </c>
       <c r="B30">
@@ -15388,7 +17811,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A31" s="7">
+      <c r="A31" s="2">
         <v>43884</v>
       </c>
       <c r="B31">
@@ -15420,7 +17843,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A32" s="7">
+      <c r="A32" s="2">
         <v>43885</v>
       </c>
       <c r="B32">
@@ -15452,7 +17875,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A33" s="7">
+      <c r="A33" s="2">
         <v>43886</v>
       </c>
       <c r="B33">
@@ -15484,7 +17907,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A34" s="7">
+      <c r="A34" s="2">
         <v>43887</v>
       </c>
       <c r="B34">
@@ -15516,7 +17939,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A35" s="7">
+      <c r="A35" s="2">
         <v>43888</v>
       </c>
       <c r="B35">
@@ -15548,7 +17971,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A36" s="7">
+      <c r="A36" s="2">
         <v>43889</v>
       </c>
       <c r="B36">
@@ -15580,7 +18003,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A37" s="7">
+      <c r="A37" s="2">
         <v>43890</v>
       </c>
       <c r="B37">
@@ -15612,7 +18035,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A38" s="7">
+      <c r="A38" s="2">
         <v>43891</v>
       </c>
       <c r="B38">
@@ -15644,7 +18067,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A39" s="7">
+      <c r="A39" s="2">
         <v>43892</v>
       </c>
       <c r="B39">
@@ -15676,7 +18099,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A40" s="7">
+      <c r="A40" s="2">
         <v>43893</v>
       </c>
       <c r="B40">
@@ -15708,7 +18131,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A41" s="7">
+      <c r="A41" s="2">
         <v>43894</v>
       </c>
       <c r="B41">
@@ -15740,7 +18163,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A42" s="7">
+      <c r="A42" s="2">
         <v>43895</v>
       </c>
       <c r="B42">
@@ -15772,7 +18195,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A43" s="7">
+      <c r="A43" s="2">
         <v>43896</v>
       </c>
       <c r="B43">
@@ -15804,7 +18227,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A44" s="7">
+      <c r="A44" s="2">
         <v>43897</v>
       </c>
       <c r="B44">
@@ -15836,7 +18259,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A45" s="7">
+      <c r="A45" s="2">
         <v>43898</v>
       </c>
       <c r="B45">
@@ -15868,7 +18291,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A46" s="7">
+      <c r="A46" s="2">
         <v>43899</v>
       </c>
       <c r="B46">
@@ -15900,7 +18323,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A47" s="7">
+      <c r="A47" s="2">
         <v>43900</v>
       </c>
       <c r="B47">
@@ -15932,7 +18355,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A48" s="7">
+      <c r="A48" s="2">
         <v>43901</v>
       </c>
       <c r="B48">
@@ -15964,7 +18387,7 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A49" s="7">
+      <c r="A49" s="2">
         <v>43902</v>
       </c>
       <c r="B49">
@@ -15996,7 +18419,7 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A50" s="7">
+      <c r="A50" s="2">
         <v>43903</v>
       </c>
       <c r="B50">
@@ -16028,7 +18451,7 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A51" s="7">
+      <c r="A51" s="2">
         <v>43904</v>
       </c>
       <c r="B51">
@@ -16060,7 +18483,7 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A52" s="7">
+      <c r="A52" s="2">
         <v>43905</v>
       </c>
       <c r="B52">
@@ -16092,7 +18515,7 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A53" s="7">
+      <c r="A53" s="2">
         <v>43906</v>
       </c>
       <c r="B53">
@@ -16124,7 +18547,7 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A54" s="7">
+      <c r="A54" s="2">
         <v>43907</v>
       </c>
       <c r="B54">
@@ -16156,7 +18579,7 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A55" s="7">
+      <c r="A55" s="2">
         <v>43908</v>
       </c>
       <c r="B55">
@@ -16188,7 +18611,7 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A56" s="7">
+      <c r="A56" s="2">
         <v>43909</v>
       </c>
       <c r="B56">
@@ -16220,7 +18643,7 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A57" s="7">
+      <c r="A57" s="2">
         <v>43910</v>
       </c>
       <c r="B57">
@@ -16252,7 +18675,7 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A58" s="7">
+      <c r="A58" s="2">
         <v>43911</v>
       </c>
       <c r="B58">
@@ -16284,7 +18707,7 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A59" s="7">
+      <c r="A59" s="2">
         <v>43912</v>
       </c>
       <c r="B59">
@@ -16316,7 +18739,7 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A60" s="7">
+      <c r="A60" s="2">
         <v>43913</v>
       </c>
       <c r="B60">
@@ -16348,7 +18771,7 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A61" s="7">
+      <c r="A61" s="2">
         <v>43914</v>
       </c>
       <c r="B61">
@@ -16380,7 +18803,7 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A62" s="7">
+      <c r="A62" s="2">
         <v>43915</v>
       </c>
       <c r="B62">
@@ -16412,7 +18835,7 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A63" s="7">
+      <c r="A63" s="2">
         <v>43916</v>
       </c>
       <c r="B63">
@@ -16444,7 +18867,7 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A64" s="7">
+      <c r="A64" s="2">
         <v>43917</v>
       </c>
       <c r="B64">
@@ -16476,7 +18899,7 @@
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A65" s="7">
+      <c r="A65" s="2">
         <v>43918</v>
       </c>
       <c r="B65">
@@ -16508,7 +18931,7 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A66" s="7">
+      <c r="A66" s="2">
         <v>43919</v>
       </c>
       <c r="B66">
@@ -16540,7 +18963,7 @@
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A67" s="7">
+      <c r="A67" s="2">
         <v>43920</v>
       </c>
       <c r="B67">
@@ -16572,7 +18995,7 @@
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A68" s="7">
+      <c r="A68" s="2">
         <v>43921</v>
       </c>
       <c r="B68">
@@ -16604,7 +19027,7 @@
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A69" s="7">
+      <c r="A69" s="2">
         <v>43922</v>
       </c>
       <c r="B69">
@@ -16620,10 +19043,10 @@
         <v>181</v>
       </c>
       <c r="F69">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G69">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H69">
         <v>6</v>
@@ -16636,7 +19059,7 @@
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A70" s="7">
+      <c r="A70" s="2">
         <v>43923</v>
       </c>
       <c r="B70">
@@ -16652,10 +19075,10 @@
         <v>211</v>
       </c>
       <c r="F70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G70">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H70">
         <v>3</v>
@@ -16668,7 +19091,7 @@
       </c>
     </row>
     <row r="71" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="7">
+      <c r="A71" s="2">
         <v>43924</v>
       </c>
       <c r="B71">
@@ -16684,10 +19107,10 @@
         <v>240</v>
       </c>
       <c r="F71">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G71">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H71">
         <v>5</v>
@@ -16700,7 +19123,7 @@
       </c>
     </row>
     <row r="72" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="7">
+      <c r="A72" s="2">
         <v>43925</v>
       </c>
       <c r="B72">
@@ -16716,10 +19139,10 @@
         <v>275</v>
       </c>
       <c r="F72">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G72">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -16732,7 +19155,7 @@
       </c>
     </row>
     <row r="73" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="7">
+      <c r="A73" s="2">
         <v>43926</v>
       </c>
       <c r="B73">
@@ -16748,10 +19171,10 @@
         <v>295</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G73">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -16764,7 +19187,7 @@
       </c>
     </row>
     <row r="74" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="7">
+      <c r="A74" s="2">
         <v>43927</v>
       </c>
       <c r="B74">
@@ -16783,7 +19206,7 @@
         <v>4</v>
       </c>
       <c r="G74">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="H74">
         <v>4</v>
@@ -16796,7 +19219,7 @@
       </c>
     </row>
     <row r="75" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="7">
+      <c r="A75" s="2">
         <v>43928</v>
       </c>
       <c r="B75">
@@ -16827,8 +19250,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A76" s="7">
+    <row r="76" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="2">
         <v>43929</v>
       </c>
       <c r="B76">
@@ -16841,13 +19264,13 @@
         <v>524</v>
       </c>
       <c r="E76">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G76">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -16859,23 +19282,55 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A77" s="4" t="s">
+    <row r="77" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="2">
+        <v>43930</v>
+      </c>
+      <c r="B77">
+        <v>417</v>
+      </c>
+      <c r="C77">
+        <v>92</v>
+      </c>
+      <c r="D77">
+        <v>616</v>
+      </c>
+      <c r="E77">
+        <v>494</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>116</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <v>116</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A78" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B77">
-        <v>5780</v>
-      </c>
-      <c r="C77">
-        <v>524</v>
-      </c>
-      <c r="F77">
-        <v>115</v>
-      </c>
-      <c r="H77">
-        <v>115</v>
-      </c>
-      <c r="J77">
+      <c r="B78">
+        <v>6197</v>
+      </c>
+      <c r="C78">
+        <v>616</v>
+      </c>
+      <c r="F78">
+        <v>116</v>
+      </c>
+      <c r="H78">
+        <v>116</v>
+      </c>
+      <c r="J78">
         <v>6</v>
       </c>
     </row>

--- a/data/patients_and_inspections.xlsx
+++ b/data/patients_and_inspections.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.19.163.21\share\企画\020_部局・各課懸案\新型コロナ肺炎\コロナサイト立ち上げ\更新用データ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\コロナ対策サイト\0413\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2010" yWindow="465" windowWidth="33000" windowHeight="19155" activeTab="2"/>
+    <workbookView xWindow="4020" yWindow="465" windowWidth="33000" windowHeight="19155" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="【公開OK】ピポット集計" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2651" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3397" uniqueCount="79">
   <si>
     <t>（1）入退院の状況</t>
   </si>
@@ -249,44 +249,34 @@
     <t>四條畷市</t>
   </si>
   <si>
-    <t>高石市</t>
-  </si>
-  <si>
     <t>能勢町</t>
   </si>
   <si>
     <t>大阪狭山市</t>
   </si>
   <si>
-    <t>調査中</t>
+    <t>泉南市</t>
+  </si>
+  <si>
+    <t>富田林市</t>
+  </si>
+  <si>
+    <t>高石市</t>
+    <rPh sb="0" eb="3">
+      <t>タカイシシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>堺市</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大阪市</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>大阪府外</t>
-    <rPh sb="2" eb="3">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ガイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>池田市</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>池田市</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>松原市</t>
-    <rPh sb="0" eb="2">
-      <t>マツバラ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -668,7 +658,7 @@
   <dimension ref="A2:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -691,7 +681,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>116</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -699,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>251</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
@@ -707,7 +697,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>243</v>
+        <v>387</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
@@ -723,7 +713,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>616</v>
+        <v>811</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
@@ -744,7 +734,7 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <v>426</v>
+        <v>584</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
@@ -752,7 +742,7 @@
         <v>11</v>
       </c>
       <c r="B14">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
@@ -760,7 +750,7 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
@@ -776,7 +766,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>116</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
@@ -784,7 +774,7 @@
         <v>7</v>
       </c>
       <c r="B18">
-        <v>616</v>
+        <v>811</v>
       </c>
     </row>
   </sheetData>
@@ -796,20 +786,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H618"/>
+  <dimension ref="A1:H813"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="3">
-        <v>43930</v>
+        <v>43933</v>
       </c>
       <c r="B1" t="s">
         <v>61</v>
@@ -913,10 +901,10 @@
         <v>43880</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
@@ -1329,10 +1317,10 @@
         <v>43884</v>
       </c>
       <c r="G21" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
@@ -2057,10 +2045,10 @@
         <v>41</v>
       </c>
       <c r="G49" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H49" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.4">
@@ -3435,10 +3423,10 @@
         <v>14</v>
       </c>
       <c r="G102" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H102" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.4">
@@ -3643,10 +3631,10 @@
         <v>43901</v>
       </c>
       <c r="G110" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H110" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.4">
@@ -3669,10 +3657,10 @@
         <v>47</v>
       </c>
       <c r="G111" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H111" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.4">
@@ -3747,10 +3735,10 @@
         <v>43905</v>
       </c>
       <c r="G114" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H114" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.4">
@@ -4137,10 +4125,10 @@
         <v>43909</v>
       </c>
       <c r="G129" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H129" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.4">
@@ -4397,10 +4385,10 @@
         <v>43909</v>
       </c>
       <c r="G139" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H139" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.4">
@@ -4553,10 +4541,10 @@
         <v>43905</v>
       </c>
       <c r="G145" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H145" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.4">
@@ -4735,10 +4723,10 @@
         <v>43910</v>
       </c>
       <c r="G152" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H152" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.4">
@@ -5024,7 +5012,7 @@
         <v>10</v>
       </c>
       <c r="H163" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.4">
@@ -5154,7 +5142,7 @@
         <v>10</v>
       </c>
       <c r="H168" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.4">
@@ -5567,10 +5555,10 @@
         <v>43913</v>
       </c>
       <c r="G184" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H184" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.4">
@@ -5619,10 +5607,10 @@
         <v>43899</v>
       </c>
       <c r="G186" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H186" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.4">
@@ -5778,7 +5766,7 @@
         <v>10</v>
       </c>
       <c r="H192" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.4">
@@ -5853,10 +5841,10 @@
         <v>14</v>
       </c>
       <c r="G195" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H195" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.4">
@@ -6373,10 +6361,10 @@
         <v>43910</v>
       </c>
       <c r="G215" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H215" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.4">
@@ -6662,7 +6650,7 @@
         <v>10</v>
       </c>
       <c r="H226" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.4">
@@ -6763,10 +6751,10 @@
         <v>43915</v>
       </c>
       <c r="G230" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H230" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.4">
@@ -7179,7 +7167,7 @@
         <v>43920</v>
       </c>
       <c r="G246" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H246" t="s">
         <v>4</v>
@@ -8011,10 +7999,10 @@
         <v>43913</v>
       </c>
       <c r="G278" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H278" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.4">
@@ -8531,10 +8519,10 @@
         <v>43916</v>
       </c>
       <c r="G298" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H298" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.4">
@@ -8560,7 +8548,7 @@
         <v>10</v>
       </c>
       <c r="H299" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.4">
@@ -8768,7 +8756,7 @@
         <v>12</v>
       </c>
       <c r="H307" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.4">
@@ -9281,8 +9269,8 @@
       <c r="E327" t="s">
         <v>25</v>
       </c>
-      <c r="F327" s="1" t="s">
-        <v>47</v>
+      <c r="F327" s="1">
+        <v>43917</v>
       </c>
       <c r="G327" t="s">
         <v>11</v>
@@ -9496,7 +9484,7 @@
         <v>10</v>
       </c>
       <c r="H335" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.4">
@@ -9522,7 +9510,7 @@
         <v>10</v>
       </c>
       <c r="H336" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.4">
@@ -9857,10 +9845,10 @@
         <v>43900</v>
       </c>
       <c r="G349" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H349" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.4">
@@ -10195,10 +10183,10 @@
         <v>47</v>
       </c>
       <c r="G362" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H362" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.4">
@@ -10848,7 +10836,7 @@
         <v>10</v>
       </c>
       <c r="H387" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.4">
@@ -10871,10 +10859,10 @@
         <v>43915</v>
       </c>
       <c r="G388" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H388" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.4">
@@ -11021,7 +11009,7 @@
         <v>26</v>
       </c>
       <c r="E394" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F394" s="1">
         <v>43921</v>
@@ -11205,8 +11193,8 @@
       <c r="E401" t="s">
         <v>25</v>
       </c>
-      <c r="F401" s="1" t="s">
-        <v>47</v>
+      <c r="F401" s="1">
+        <v>43918</v>
       </c>
       <c r="G401" t="s">
         <v>11</v>
@@ -11257,8 +11245,8 @@
       <c r="E403" t="s">
         <v>25</v>
       </c>
-      <c r="F403" s="1" t="s">
-        <v>47</v>
+      <c r="F403" s="1">
+        <v>43919</v>
       </c>
       <c r="G403" t="s">
         <v>11</v>
@@ -11602,7 +11590,7 @@
         <v>10</v>
       </c>
       <c r="H416" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="417" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11654,7 +11642,7 @@
         <v>10</v>
       </c>
       <c r="H418" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="419" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11677,7 +11665,7 @@
         <v>43925</v>
       </c>
       <c r="G419" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H419" t="s">
         <v>4</v>
@@ -11697,7 +11685,7 @@
         <v>26</v>
       </c>
       <c r="E420" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F420" s="6">
         <v>43922</v>
@@ -11888,7 +11876,7 @@
         <v>10</v>
       </c>
       <c r="H427" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="428" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12512,7 +12500,7 @@
         <v>10</v>
       </c>
       <c r="H451" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.4">
@@ -12564,7 +12552,7 @@
         <v>10</v>
       </c>
       <c r="H453" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="454" spans="1:8" x14ac:dyDescent="0.4">
@@ -12720,7 +12708,7 @@
         <v>12</v>
       </c>
       <c r="H459" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.4">
@@ -12824,7 +12812,7 @@
         <v>10</v>
       </c>
       <c r="H463" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.4">
@@ -13188,7 +13176,7 @@
         <v>10</v>
       </c>
       <c r="H477" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="478" spans="1:8" x14ac:dyDescent="0.4">
@@ -13621,7 +13609,7 @@
         <v>24</v>
       </c>
       <c r="E494" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F494" s="1">
         <v>43921</v>
@@ -13647,7 +13635,7 @@
         <v>26</v>
       </c>
       <c r="E495" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F495" s="1">
         <v>43925</v>
@@ -13734,7 +13722,7 @@
         <v>10</v>
       </c>
       <c r="H498" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="499" spans="1:8" x14ac:dyDescent="0.4">
@@ -14199,10 +14187,10 @@
         <v>43923</v>
       </c>
       <c r="G516" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H516" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="517" spans="1:8" x14ac:dyDescent="0.4">
@@ -14306,7 +14294,7 @@
         <v>10</v>
       </c>
       <c r="H520" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="521" spans="1:8" x14ac:dyDescent="0.4">
@@ -14384,7 +14372,7 @@
         <v>10</v>
       </c>
       <c r="H523" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="524" spans="1:8" x14ac:dyDescent="0.4">
@@ -14401,7 +14389,7 @@
         <v>26</v>
       </c>
       <c r="E524" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F524" s="1">
         <v>43920</v>
@@ -14410,7 +14398,7 @@
         <v>10</v>
       </c>
       <c r="H524" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="525" spans="1:8" x14ac:dyDescent="0.4">
@@ -14488,7 +14476,7 @@
         <v>10</v>
       </c>
       <c r="H527" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="528" spans="1:8" x14ac:dyDescent="0.4">
@@ -14498,14 +14486,14 @@
       <c r="B528" s="2">
         <v>43930</v>
       </c>
-      <c r="C528" t="s">
-        <v>74</v>
+      <c r="C528">
+        <v>30</v>
       </c>
       <c r="D528" t="s">
         <v>26</v>
       </c>
       <c r="E528" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="F528" s="1">
         <v>43923</v>
@@ -14566,7 +14554,7 @@
         <v>10</v>
       </c>
       <c r="H530" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="531" spans="1:8" x14ac:dyDescent="0.4">
@@ -14722,7 +14710,7 @@
         <v>10</v>
       </c>
       <c r="H536" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="537" spans="1:8" x14ac:dyDescent="0.4">
@@ -15018,8 +15006,8 @@
       <c r="B548" s="2">
         <v>43930</v>
       </c>
-      <c r="C548" t="s">
-        <v>74</v>
+      <c r="C548">
+        <v>20</v>
       </c>
       <c r="D548" t="s">
         <v>26</v>
@@ -15053,8 +15041,8 @@
       <c r="E549" t="s">
         <v>25</v>
       </c>
-      <c r="F549" t="s">
-        <v>74</v>
+      <c r="F549" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="G549" t="s">
         <v>10</v>
@@ -15138,7 +15126,7 @@
         <v>10</v>
       </c>
       <c r="H552" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="553" spans="1:8" x14ac:dyDescent="0.4">
@@ -15164,7 +15152,7 @@
         <v>10</v>
       </c>
       <c r="H553" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="554" spans="1:8" x14ac:dyDescent="0.4">
@@ -15259,7 +15247,7 @@
         <v>24</v>
       </c>
       <c r="E557" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="F557" s="1">
         <v>43923</v>
@@ -15398,7 +15386,7 @@
         <v>10</v>
       </c>
       <c r="H562" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="563" spans="1:8" x14ac:dyDescent="0.4">
@@ -15418,7 +15406,7 @@
         <v>40</v>
       </c>
       <c r="F563" s="1">
-        <v>43922</v>
+        <v>43921</v>
       </c>
       <c r="G563" t="s">
         <v>10</v>
@@ -15441,7 +15429,7 @@
         <v>26</v>
       </c>
       <c r="E564" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="F564" s="1">
         <v>43922</v>
@@ -15467,7 +15455,7 @@
         <v>24</v>
       </c>
       <c r="E565" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="F565" s="1">
         <v>43925</v>
@@ -15519,7 +15507,7 @@
         <v>26</v>
       </c>
       <c r="E567" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="F567" s="1">
         <v>43926</v>
@@ -15580,7 +15568,7 @@
         <v>12</v>
       </c>
       <c r="H569" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="570" spans="1:8" x14ac:dyDescent="0.4">
@@ -15606,7 +15594,7 @@
         <v>10</v>
       </c>
       <c r="H570" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="571" spans="1:8" x14ac:dyDescent="0.4">
@@ -15632,7 +15620,7 @@
         <v>10</v>
       </c>
       <c r="H571" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="572" spans="1:8" x14ac:dyDescent="0.4">
@@ -15684,7 +15672,7 @@
         <v>10</v>
       </c>
       <c r="H573" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="574" spans="1:8" x14ac:dyDescent="0.4">
@@ -15762,7 +15750,7 @@
         <v>10</v>
       </c>
       <c r="H576" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="577" spans="1:8" x14ac:dyDescent="0.4">
@@ -15779,7 +15767,7 @@
         <v>24</v>
       </c>
       <c r="E577" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="F577" s="1">
         <v>43917</v>
@@ -15788,7 +15776,7 @@
         <v>10</v>
       </c>
       <c r="H577" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="578" spans="1:8" x14ac:dyDescent="0.4">
@@ -15963,11 +15951,11 @@
       <c r="E584" t="s">
         <v>25</v>
       </c>
-      <c r="F584" t="s">
-        <v>74</v>
+      <c r="F584" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="G584" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="H584" t="s">
         <v>5</v>
@@ -16019,10 +16007,10 @@
         <v>43924</v>
       </c>
       <c r="G586" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H586" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="587" spans="1:8" x14ac:dyDescent="0.4">
@@ -16119,11 +16107,11 @@
       <c r="E590" t="s">
         <v>25</v>
       </c>
-      <c r="F590" t="s">
-        <v>74</v>
+      <c r="F590" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="G590" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="H590" t="s">
         <v>5</v>
@@ -16136,20 +16124,20 @@
       <c r="B591" s="2">
         <v>43930</v>
       </c>
-      <c r="C591" t="s">
-        <v>74</v>
+      <c r="C591">
+        <v>50</v>
       </c>
       <c r="D591" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="E591" t="s">
-        <v>74</v>
-      </c>
-      <c r="F591" t="s">
-        <v>74</v>
+        <v>25</v>
+      </c>
+      <c r="F591" s="1">
+        <v>43925</v>
       </c>
       <c r="G591" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="H591" t="s">
         <v>5</v>
@@ -16162,20 +16150,20 @@
       <c r="B592" s="2">
         <v>43930</v>
       </c>
-      <c r="C592" t="s">
-        <v>74</v>
+      <c r="C592">
+        <v>20</v>
       </c>
       <c r="D592" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="E592" t="s">
-        <v>74</v>
-      </c>
-      <c r="F592" t="s">
-        <v>74</v>
+        <v>25</v>
+      </c>
+      <c r="F592" s="1">
+        <v>43913</v>
       </c>
       <c r="G592" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="H592" t="s">
         <v>5</v>
@@ -16188,20 +16176,20 @@
       <c r="B593" s="2">
         <v>43930</v>
       </c>
-      <c r="C593" t="s">
-        <v>74</v>
+      <c r="C593">
+        <v>30</v>
       </c>
       <c r="D593" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="E593" t="s">
-        <v>74</v>
-      </c>
-      <c r="F593" t="s">
-        <v>74</v>
+        <v>25</v>
+      </c>
+      <c r="F593" s="1">
+        <v>43920</v>
       </c>
       <c r="G593" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="H593" t="s">
         <v>5</v>
@@ -16214,20 +16202,20 @@
       <c r="B594" s="2">
         <v>43930</v>
       </c>
-      <c r="C594" t="s">
-        <v>74</v>
+      <c r="C594">
+        <v>20</v>
       </c>
       <c r="D594" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="E594" t="s">
-        <v>74</v>
-      </c>
-      <c r="F594" t="s">
-        <v>74</v>
+        <v>25</v>
+      </c>
+      <c r="F594" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="G594" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="H594" t="s">
         <v>5</v>
@@ -16240,20 +16228,20 @@
       <c r="B595" s="2">
         <v>43930</v>
       </c>
-      <c r="C595" t="s">
-        <v>74</v>
+      <c r="C595">
+        <v>20</v>
       </c>
       <c r="D595" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="E595" t="s">
-        <v>74</v>
-      </c>
-      <c r="F595" t="s">
-        <v>74</v>
+        <v>25</v>
+      </c>
+      <c r="F595" s="1">
+        <v>43929</v>
       </c>
       <c r="G595" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="H595" t="s">
         <v>5</v>
@@ -16266,20 +16254,20 @@
       <c r="B596" s="2">
         <v>43930</v>
       </c>
-      <c r="C596" t="s">
-        <v>74</v>
+      <c r="C596">
+        <v>40</v>
       </c>
       <c r="D596" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="E596" t="s">
-        <v>74</v>
-      </c>
-      <c r="F596" t="s">
-        <v>74</v>
+        <v>25</v>
+      </c>
+      <c r="F596" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="G596" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="H596" t="s">
         <v>5</v>
@@ -16292,20 +16280,20 @@
       <c r="B597" s="2">
         <v>43930</v>
       </c>
-      <c r="C597" t="s">
-        <v>74</v>
+      <c r="C597">
+        <v>10</v>
       </c>
       <c r="D597" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="E597" t="s">
-        <v>74</v>
-      </c>
-      <c r="F597" t="s">
-        <v>74</v>
+        <v>25</v>
+      </c>
+      <c r="F597" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="G597" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="H597" t="s">
         <v>5</v>
@@ -16318,23 +16306,23 @@
       <c r="B598" s="2">
         <v>43930</v>
       </c>
-      <c r="C598" t="s">
-        <v>74</v>
+      <c r="C598">
+        <v>60</v>
       </c>
       <c r="D598" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="E598" t="s">
-        <v>74</v>
-      </c>
-      <c r="F598" t="s">
-        <v>74</v>
+        <v>36</v>
+      </c>
+      <c r="F598" s="1">
+        <v>43926</v>
       </c>
       <c r="G598" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="H598" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="599" spans="1:8" x14ac:dyDescent="0.4">
@@ -16344,20 +16332,20 @@
       <c r="B599" s="2">
         <v>43930</v>
       </c>
-      <c r="C599" t="s">
-        <v>74</v>
+      <c r="C599">
+        <v>50</v>
       </c>
       <c r="D599" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="E599" t="s">
-        <v>74</v>
-      </c>
-      <c r="F599" t="s">
-        <v>74</v>
+        <v>38</v>
+      </c>
+      <c r="F599" s="1">
+        <v>43921</v>
       </c>
       <c r="G599" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="H599" t="s">
         <v>5</v>
@@ -16370,20 +16358,20 @@
       <c r="B600" s="2">
         <v>43930</v>
       </c>
-      <c r="C600" t="s">
-        <v>74</v>
+      <c r="C600">
+        <v>50</v>
       </c>
       <c r="D600" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="E600" t="s">
-        <v>74</v>
-      </c>
-      <c r="F600" t="s">
-        <v>74</v>
+        <v>46</v>
+      </c>
+      <c r="F600" s="1">
+        <v>43925</v>
       </c>
       <c r="G600" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="H600" t="s">
         <v>5</v>
@@ -16396,20 +16384,20 @@
       <c r="B601" s="2">
         <v>43930</v>
       </c>
-      <c r="C601" t="s">
-        <v>74</v>
+      <c r="C601">
+        <v>10</v>
       </c>
       <c r="D601" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="E601" t="s">
-        <v>74</v>
-      </c>
-      <c r="F601" t="s">
-        <v>74</v>
+        <v>46</v>
+      </c>
+      <c r="F601" s="1">
+        <v>43925</v>
       </c>
       <c r="G601" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="H601" t="s">
         <v>5</v>
@@ -16422,20 +16410,20 @@
       <c r="B602" s="2">
         <v>43930</v>
       </c>
-      <c r="C602" t="s">
-        <v>74</v>
+      <c r="C602">
+        <v>10</v>
       </c>
       <c r="D602" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="E602" t="s">
-        <v>74</v>
-      </c>
-      <c r="F602" t="s">
-        <v>74</v>
+        <v>46</v>
+      </c>
+      <c r="F602" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="G602" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="H602" t="s">
         <v>5</v>
@@ -16448,20 +16436,20 @@
       <c r="B603" s="2">
         <v>43930</v>
       </c>
-      <c r="C603" t="s">
-        <v>74</v>
+      <c r="C603">
+        <v>10</v>
       </c>
       <c r="D603" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="E603" t="s">
-        <v>74</v>
-      </c>
-      <c r="F603" t="s">
-        <v>74</v>
+        <v>35</v>
+      </c>
+      <c r="F603" s="1">
+        <v>43928</v>
       </c>
       <c r="G603" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="H603" t="s">
         <v>5</v>
@@ -16474,20 +16462,20 @@
       <c r="B604" s="2">
         <v>43930</v>
       </c>
-      <c r="C604" t="s">
-        <v>74</v>
+      <c r="C604">
+        <v>20</v>
       </c>
       <c r="D604" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="E604" t="s">
-        <v>74</v>
-      </c>
-      <c r="F604" t="s">
-        <v>74</v>
+        <v>49</v>
+      </c>
+      <c r="F604" s="1">
+        <v>43926</v>
       </c>
       <c r="G604" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="H604" t="s">
         <v>5</v>
@@ -16500,20 +16488,20 @@
       <c r="B605" s="2">
         <v>43930</v>
       </c>
-      <c r="C605" t="s">
-        <v>74</v>
+      <c r="C605">
+        <v>30</v>
       </c>
       <c r="D605" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="E605" t="s">
-        <v>74</v>
-      </c>
-      <c r="F605" t="s">
-        <v>74</v>
+        <v>46</v>
+      </c>
+      <c r="F605" s="1">
+        <v>43924</v>
       </c>
       <c r="G605" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="H605" t="s">
         <v>5</v>
@@ -16526,20 +16514,20 @@
       <c r="B606" s="2">
         <v>43930</v>
       </c>
-      <c r="C606" t="s">
-        <v>74</v>
+      <c r="C606">
+        <v>40</v>
       </c>
       <c r="D606" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="E606" t="s">
-        <v>74</v>
-      </c>
-      <c r="F606" t="s">
-        <v>74</v>
+        <v>46</v>
+      </c>
+      <c r="F606" s="1">
+        <v>43926</v>
       </c>
       <c r="G606" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="H606" t="s">
         <v>5</v>
@@ -16552,20 +16540,20 @@
       <c r="B607" s="2">
         <v>43930</v>
       </c>
-      <c r="C607" t="s">
-        <v>74</v>
+      <c r="C607">
+        <v>60</v>
       </c>
       <c r="D607" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="E607" t="s">
-        <v>74</v>
-      </c>
-      <c r="F607" t="s">
-        <v>74</v>
+        <v>35</v>
+      </c>
+      <c r="F607" s="1">
+        <v>43924</v>
       </c>
       <c r="G607" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="H607" t="s">
         <v>5</v>
@@ -16578,20 +16566,20 @@
       <c r="B608" s="2">
         <v>43930</v>
       </c>
-      <c r="C608" t="s">
-        <v>74</v>
+      <c r="C608">
+        <v>20</v>
       </c>
       <c r="D608" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="E608" t="s">
-        <v>74</v>
-      </c>
-      <c r="F608" t="s">
-        <v>74</v>
+        <v>52</v>
+      </c>
+      <c r="F608" s="1">
+        <v>43922</v>
       </c>
       <c r="G608" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="H608" t="s">
         <v>5</v>
@@ -16604,20 +16592,20 @@
       <c r="B609" s="2">
         <v>43930</v>
       </c>
-      <c r="C609" t="s">
-        <v>74</v>
+      <c r="C609">
+        <v>20</v>
       </c>
       <c r="D609" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="E609" t="s">
-        <v>74</v>
-      </c>
-      <c r="F609" t="s">
-        <v>74</v>
+        <v>49</v>
+      </c>
+      <c r="F609" s="1">
+        <v>43924</v>
       </c>
       <c r="G609" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="H609" t="s">
         <v>5</v>
@@ -16630,20 +16618,20 @@
       <c r="B610" s="2">
         <v>43930</v>
       </c>
-      <c r="C610" t="s">
-        <v>74</v>
+      <c r="C610">
+        <v>20</v>
       </c>
       <c r="D610" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="E610" t="s">
-        <v>74</v>
-      </c>
-      <c r="F610" t="s">
-        <v>74</v>
+        <v>49</v>
+      </c>
+      <c r="F610" s="1">
+        <v>43923</v>
       </c>
       <c r="G610" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="H610" t="s">
         <v>5</v>
@@ -16656,20 +16644,20 @@
       <c r="B611" s="2">
         <v>43930</v>
       </c>
-      <c r="C611" t="s">
-        <v>74</v>
+      <c r="C611">
+        <v>80</v>
       </c>
       <c r="D611" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="E611" t="s">
-        <v>74</v>
-      </c>
-      <c r="F611" t="s">
-        <v>74</v>
+        <v>34</v>
+      </c>
+      <c r="F611" s="1">
+        <v>43923</v>
       </c>
       <c r="G611" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="H611" t="s">
         <v>5</v>
@@ -16682,20 +16670,20 @@
       <c r="B612" s="2">
         <v>43930</v>
       </c>
-      <c r="C612" t="s">
-        <v>74</v>
+      <c r="C612">
+        <v>50</v>
       </c>
       <c r="D612" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="E612" t="s">
-        <v>74</v>
-      </c>
-      <c r="F612" t="s">
-        <v>74</v>
+        <v>58</v>
+      </c>
+      <c r="F612" s="1">
+        <v>43924</v>
       </c>
       <c r="G612" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="H612" t="s">
         <v>5</v>
@@ -16708,20 +16696,20 @@
       <c r="B613" s="2">
         <v>43930</v>
       </c>
-      <c r="C613" t="s">
-        <v>74</v>
+      <c r="C613">
+        <v>10</v>
       </c>
       <c r="D613" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="E613" t="s">
-        <v>74</v>
-      </c>
-      <c r="F613" t="s">
-        <v>74</v>
+        <v>58</v>
+      </c>
+      <c r="F613" s="1">
+        <v>43924</v>
       </c>
       <c r="G613" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="H613" t="s">
         <v>5</v>
@@ -16734,20 +16722,20 @@
       <c r="B614" s="2">
         <v>43930</v>
       </c>
-      <c r="C614" t="s">
-        <v>74</v>
+      <c r="C614">
+        <v>10</v>
       </c>
       <c r="D614" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="E614" t="s">
-        <v>74</v>
-      </c>
-      <c r="F614" t="s">
-        <v>74</v>
+        <v>58</v>
+      </c>
+      <c r="F614" s="1">
+        <v>43926</v>
       </c>
       <c r="G614" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="H614" t="s">
         <v>5</v>
@@ -16760,20 +16748,20 @@
       <c r="B615" s="2">
         <v>43930</v>
       </c>
-      <c r="C615" t="s">
-        <v>74</v>
+      <c r="C615">
+        <v>20</v>
       </c>
       <c r="D615" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="E615" t="s">
-        <v>74</v>
-      </c>
-      <c r="F615" t="s">
-        <v>74</v>
+        <v>34</v>
+      </c>
+      <c r="F615" s="1">
+        <v>43925</v>
       </c>
       <c r="G615" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="H615" t="s">
         <v>5</v>
@@ -16786,20 +16774,20 @@
       <c r="B616" s="2">
         <v>43930</v>
       </c>
-      <c r="C616" t="s">
-        <v>74</v>
+      <c r="C616">
+        <v>30</v>
       </c>
       <c r="D616" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="E616" t="s">
-        <v>74</v>
-      </c>
-      <c r="F616" t="s">
-        <v>74</v>
+        <v>34</v>
+      </c>
+      <c r="F616" s="1">
+        <v>43926</v>
       </c>
       <c r="G616" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="H616" t="s">
         <v>5</v>
@@ -16812,20 +16800,20 @@
       <c r="B617" s="2">
         <v>43930</v>
       </c>
-      <c r="C617" t="s">
-        <v>74</v>
+      <c r="C617">
+        <v>50</v>
       </c>
       <c r="D617" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="E617" t="s">
-        <v>74</v>
-      </c>
-      <c r="F617" t="s">
-        <v>74</v>
+        <v>58</v>
+      </c>
+      <c r="F617" s="1">
+        <v>43924</v>
       </c>
       <c r="G617" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="H617" t="s">
         <v>5</v>
@@ -16838,38 +16826,5107 @@
       <c r="B618" s="2">
         <v>43930</v>
       </c>
-      <c r="C618" t="s">
+      <c r="C618">
+        <v>50</v>
+      </c>
+      <c r="D618" t="s">
+        <v>26</v>
+      </c>
+      <c r="E618" t="s">
+        <v>58</v>
+      </c>
+      <c r="F618" s="1">
+        <v>43929</v>
+      </c>
+      <c r="G618" t="s">
+        <v>10</v>
+      </c>
+      <c r="H618" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="619" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A619">
+        <v>617</v>
+      </c>
+      <c r="B619" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C619">
+        <v>50</v>
+      </c>
+      <c r="D619" t="s">
+        <v>24</v>
+      </c>
+      <c r="E619" t="s">
+        <v>34</v>
+      </c>
+      <c r="F619" s="1">
+        <v>43927</v>
+      </c>
+      <c r="G619" t="s">
+        <v>10</v>
+      </c>
+      <c r="H619" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="620" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A620">
+        <v>618</v>
+      </c>
+      <c r="B620" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C620">
+        <v>20</v>
+      </c>
+      <c r="D620" t="s">
+        <v>26</v>
+      </c>
+      <c r="E620" t="s">
+        <v>46</v>
+      </c>
+      <c r="F620" s="1">
+        <v>43922</v>
+      </c>
+      <c r="G620" t="s">
+        <v>10</v>
+      </c>
+      <c r="H620" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="621" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A621">
+        <v>619</v>
+      </c>
+      <c r="B621" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C621">
+        <v>20</v>
+      </c>
+      <c r="D621" t="s">
+        <v>24</v>
+      </c>
+      <c r="E621" t="s">
+        <v>50</v>
+      </c>
+      <c r="F621" s="1">
+        <v>43921</v>
+      </c>
+      <c r="G621" t="s">
+        <v>10</v>
+      </c>
+      <c r="H621" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="622" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A622">
+        <v>620</v>
+      </c>
+      <c r="B622" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C622">
+        <v>20</v>
+      </c>
+      <c r="D622" t="s">
+        <v>24</v>
+      </c>
+      <c r="E622" t="s">
+        <v>50</v>
+      </c>
+      <c r="F622" s="1">
+        <v>43923</v>
+      </c>
+      <c r="G622" t="s">
+        <v>10</v>
+      </c>
+      <c r="H622" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="623" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A623">
+        <v>621</v>
+      </c>
+      <c r="B623" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C623">
+        <v>10</v>
+      </c>
+      <c r="D623" t="s">
+        <v>24</v>
+      </c>
+      <c r="E623" t="s">
+        <v>73</v>
+      </c>
+      <c r="F623" s="1">
+        <v>43925</v>
+      </c>
+      <c r="G623" t="s">
+        <v>10</v>
+      </c>
+      <c r="H623" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="624" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A624">
+        <v>622</v>
+      </c>
+      <c r="B624" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C624">
+        <v>50</v>
+      </c>
+      <c r="D624" t="s">
+        <v>24</v>
+      </c>
+      <c r="E624" t="s">
+        <v>39</v>
+      </c>
+      <c r="F624" s="1">
+        <v>43925</v>
+      </c>
+      <c r="G624" t="s">
+        <v>10</v>
+      </c>
+      <c r="H624" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="625" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A625">
+        <v>623</v>
+      </c>
+      <c r="B625" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C625">
+        <v>40</v>
+      </c>
+      <c r="D625" t="s">
+        <v>26</v>
+      </c>
+      <c r="E625" t="s">
+        <v>39</v>
+      </c>
+      <c r="F625" s="1">
+        <v>43922</v>
+      </c>
+      <c r="G625" t="s">
+        <v>10</v>
+      </c>
+      <c r="H625" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="626" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A626">
+        <v>624</v>
+      </c>
+      <c r="B626" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C626">
+        <v>70</v>
+      </c>
+      <c r="D626" t="s">
+        <v>26</v>
+      </c>
+      <c r="E626" t="s">
+        <v>56</v>
+      </c>
+      <c r="F626" s="1">
+        <v>43924</v>
+      </c>
+      <c r="G626" t="s">
+        <v>10</v>
+      </c>
+      <c r="H626" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="627" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A627">
+        <v>625</v>
+      </c>
+      <c r="B627" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C627">
+        <v>40</v>
+      </c>
+      <c r="D627" t="s">
+        <v>26</v>
+      </c>
+      <c r="E627" t="s">
+        <v>72</v>
+      </c>
+      <c r="F627" s="1">
+        <v>43925</v>
+      </c>
+      <c r="G627" t="s">
+        <v>11</v>
+      </c>
+      <c r="H627" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="628" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A628">
+        <v>626</v>
+      </c>
+      <c r="B628" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C628">
+        <v>60</v>
+      </c>
+      <c r="D628" t="s">
+        <v>26</v>
+      </c>
+      <c r="E628" t="s">
         <v>74</v>
       </c>
-      <c r="D618" t="s">
-        <v>74</v>
-      </c>
-      <c r="E618" t="s">
-        <v>74</v>
-      </c>
-      <c r="F618" t="s">
-        <v>74</v>
-      </c>
-      <c r="G618" t="s">
-        <v>74</v>
-      </c>
-      <c r="H618" t="s">
+      <c r="F628" s="1">
+        <v>43922</v>
+      </c>
+      <c r="G628" t="s">
+        <v>10</v>
+      </c>
+      <c r="H628" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="629" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A629">
+        <v>627</v>
+      </c>
+      <c r="B629" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C629">
+        <v>40</v>
+      </c>
+      <c r="D629" t="s">
+        <v>26</v>
+      </c>
+      <c r="E629" t="s">
+        <v>60</v>
+      </c>
+      <c r="F629" s="1">
+        <v>43921</v>
+      </c>
+      <c r="G629" t="s">
+        <v>10</v>
+      </c>
+      <c r="H629" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="630" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A630">
+        <v>628</v>
+      </c>
+      <c r="B630" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C630">
+        <v>70</v>
+      </c>
+      <c r="D630" t="s">
+        <v>24</v>
+      </c>
+      <c r="E630" t="s">
+        <v>33</v>
+      </c>
+      <c r="F630" s="1">
+        <v>43922</v>
+      </c>
+      <c r="G630" t="s">
+        <v>10</v>
+      </c>
+      <c r="H630" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="631" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A631">
+        <v>629</v>
+      </c>
+      <c r="B631" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C631">
+        <v>40</v>
+      </c>
+      <c r="D631" t="s">
+        <v>24</v>
+      </c>
+      <c r="E631" t="s">
+        <v>51</v>
+      </c>
+      <c r="F631" s="1">
+        <v>43927</v>
+      </c>
+      <c r="G631" t="s">
+        <v>10</v>
+      </c>
+      <c r="H631" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="632" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A632">
+        <v>630</v>
+      </c>
+      <c r="B632" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C632">
+        <v>20</v>
+      </c>
+      <c r="D632" t="s">
+        <v>24</v>
+      </c>
+      <c r="E632" t="s">
+        <v>25</v>
+      </c>
+      <c r="F632" s="1">
+        <v>43922</v>
+      </c>
+      <c r="G632" t="s">
+        <v>10</v>
+      </c>
+      <c r="H632" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="633" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A633">
+        <v>631</v>
+      </c>
+      <c r="B633" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C633">
+        <v>20</v>
+      </c>
+      <c r="D633" t="s">
+        <v>26</v>
+      </c>
+      <c r="E633" t="s">
+        <v>25</v>
+      </c>
+      <c r="F633" s="1">
+        <v>43926</v>
+      </c>
+      <c r="G633" t="s">
+        <v>10</v>
+      </c>
+      <c r="H633" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="634" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A634">
+        <v>632</v>
+      </c>
+      <c r="B634" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C634">
+        <v>10</v>
+      </c>
+      <c r="D634" t="s">
+        <v>26</v>
+      </c>
+      <c r="E634" t="s">
+        <v>25</v>
+      </c>
+      <c r="F634" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G634" t="s">
+        <v>12</v>
+      </c>
+      <c r="H634" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="635" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A635">
+        <v>633</v>
+      </c>
+      <c r="B635" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C635" t="s">
+        <v>54</v>
+      </c>
+      <c r="D635" t="s">
+        <v>26</v>
+      </c>
+      <c r="E635" t="s">
+        <v>25</v>
+      </c>
+      <c r="F635" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G635" t="s">
+        <v>12</v>
+      </c>
+      <c r="H635" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="636" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A636">
+        <v>634</v>
+      </c>
+      <c r="B636" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C636" t="s">
+        <v>54</v>
+      </c>
+      <c r="D636" t="s">
+        <v>26</v>
+      </c>
+      <c r="E636" t="s">
+        <v>25</v>
+      </c>
+      <c r="F636" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G636" t="s">
+        <v>12</v>
+      </c>
+      <c r="H636" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="637" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A637">
+        <v>635</v>
+      </c>
+      <c r="B637" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C637">
+        <v>40</v>
+      </c>
+      <c r="D637" t="s">
+        <v>26</v>
+      </c>
+      <c r="E637" t="s">
+        <v>25</v>
+      </c>
+      <c r="F637" s="1">
+        <v>43919</v>
+      </c>
+      <c r="G637" t="s">
+        <v>10</v>
+      </c>
+      <c r="H637" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="638" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A638">
+        <v>636</v>
+      </c>
+      <c r="B638" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C638">
+        <v>30</v>
+      </c>
+      <c r="D638" t="s">
+        <v>26</v>
+      </c>
+      <c r="E638" t="s">
+        <v>25</v>
+      </c>
+      <c r="F638" s="1">
+        <v>43923</v>
+      </c>
+      <c r="G638" t="s">
+        <v>10</v>
+      </c>
+      <c r="H638" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="639" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A639">
+        <v>637</v>
+      </c>
+      <c r="B639" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C639">
+        <v>60</v>
+      </c>
+      <c r="D639" t="s">
+        <v>26</v>
+      </c>
+      <c r="E639" t="s">
+        <v>25</v>
+      </c>
+      <c r="F639" s="1">
+        <v>43924</v>
+      </c>
+      <c r="G639" t="s">
+        <v>10</v>
+      </c>
+      <c r="H639" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="640" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A640">
+        <v>638</v>
+      </c>
+      <c r="B640" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C640">
+        <v>30</v>
+      </c>
+      <c r="D640" t="s">
+        <v>26</v>
+      </c>
+      <c r="E640" t="s">
+        <v>25</v>
+      </c>
+      <c r="F640" s="1">
+        <v>43921</v>
+      </c>
+      <c r="G640" t="s">
+        <v>10</v>
+      </c>
+      <c r="H640" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="641" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A641">
+        <v>639</v>
+      </c>
+      <c r="B641" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C641">
+        <v>30</v>
+      </c>
+      <c r="D641" t="s">
+        <v>24</v>
+      </c>
+      <c r="E641" t="s">
+        <v>25</v>
+      </c>
+      <c r="F641" s="1">
+        <v>43921</v>
+      </c>
+      <c r="G641" t="s">
+        <v>10</v>
+      </c>
+      <c r="H641" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="642" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A642">
+        <v>640</v>
+      </c>
+      <c r="B642" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C642">
+        <v>50</v>
+      </c>
+      <c r="D642" t="s">
+        <v>26</v>
+      </c>
+      <c r="E642" t="s">
+        <v>25</v>
+      </c>
+      <c r="F642" s="1">
+        <v>43925</v>
+      </c>
+      <c r="G642" t="s">
+        <v>10</v>
+      </c>
+      <c r="H642" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="643" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A643">
+        <v>641</v>
+      </c>
+      <c r="B643" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C643">
+        <v>30</v>
+      </c>
+      <c r="D643" t="s">
+        <v>26</v>
+      </c>
+      <c r="E643" t="s">
+        <v>25</v>
+      </c>
+      <c r="F643" s="1">
+        <v>43925</v>
+      </c>
+      <c r="G643" t="s">
+        <v>10</v>
+      </c>
+      <c r="H643" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="644" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A644">
+        <v>642</v>
+      </c>
+      <c r="B644" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C644">
+        <v>70</v>
+      </c>
+      <c r="D644" t="s">
+        <v>26</v>
+      </c>
+      <c r="E644" t="s">
+        <v>25</v>
+      </c>
+      <c r="F644" s="1">
+        <v>43927</v>
+      </c>
+      <c r="G644" t="s">
+        <v>10</v>
+      </c>
+      <c r="H644" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="645" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A645">
+        <v>643</v>
+      </c>
+      <c r="B645" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C645">
+        <v>70</v>
+      </c>
+      <c r="D645" t="s">
+        <v>26</v>
+      </c>
+      <c r="E645" t="s">
+        <v>28</v>
+      </c>
+      <c r="F645" s="1">
+        <v>43926</v>
+      </c>
+      <c r="G645" t="s">
+        <v>10</v>
+      </c>
+      <c r="H645" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="646" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A646">
+        <v>644</v>
+      </c>
+      <c r="B646" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C646">
+        <v>70</v>
+      </c>
+      <c r="D646" t="s">
+        <v>26</v>
+      </c>
+      <c r="E646" t="s">
+        <v>28</v>
+      </c>
+      <c r="F646" s="1">
+        <v>43928</v>
+      </c>
+      <c r="G646" t="s">
+        <v>10</v>
+      </c>
+      <c r="H646" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="647" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A647">
+        <v>645</v>
+      </c>
+      <c r="B647" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C647" t="s">
+        <v>54</v>
+      </c>
+      <c r="D647" t="s">
+        <v>24</v>
+      </c>
+      <c r="E647" t="s">
+        <v>36</v>
+      </c>
+      <c r="F647" s="1">
+        <v>43925</v>
+      </c>
+      <c r="G647" t="s">
+        <v>10</v>
+      </c>
+      <c r="H647" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="648" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A648">
+        <v>646</v>
+      </c>
+      <c r="B648" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C648">
+        <v>60</v>
+      </c>
+      <c r="D648" t="s">
+        <v>26</v>
+      </c>
+      <c r="E648" t="s">
+        <v>25</v>
+      </c>
+      <c r="F648" s="1">
+        <v>43925</v>
+      </c>
+      <c r="G648" t="s">
+        <v>11</v>
+      </c>
+      <c r="H648" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="649" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A649">
+        <v>647</v>
+      </c>
+      <c r="B649" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C649">
+        <v>60</v>
+      </c>
+      <c r="D649" t="s">
+        <v>26</v>
+      </c>
+      <c r="E649" t="s">
+        <v>25</v>
+      </c>
+      <c r="F649" s="1">
+        <v>43928</v>
+      </c>
+      <c r="G649" t="s">
+        <v>10</v>
+      </c>
+      <c r="H649" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="650" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A650">
+        <v>648</v>
+      </c>
+      <c r="B650" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C650">
+        <v>60</v>
+      </c>
+      <c r="D650" t="s">
+        <v>26</v>
+      </c>
+      <c r="E650" t="s">
+        <v>25</v>
+      </c>
+      <c r="F650" s="1">
+        <v>43926</v>
+      </c>
+      <c r="G650" t="s">
+        <v>10</v>
+      </c>
+      <c r="H650" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="651" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A651">
+        <v>649</v>
+      </c>
+      <c r="B651" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C651">
+        <v>30</v>
+      </c>
+      <c r="D651" t="s">
+        <v>26</v>
+      </c>
+      <c r="E651" t="s">
+        <v>25</v>
+      </c>
+      <c r="F651" s="1">
+        <v>43915</v>
+      </c>
+      <c r="G651" t="s">
+        <v>10</v>
+      </c>
+      <c r="H651" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="652" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A652">
+        <v>650</v>
+      </c>
+      <c r="B652" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C652">
+        <v>40</v>
+      </c>
+      <c r="D652" t="s">
+        <v>24</v>
+      </c>
+      <c r="E652" t="s">
+        <v>25</v>
+      </c>
+      <c r="F652" s="1">
+        <v>43926</v>
+      </c>
+      <c r="G652" t="s">
+        <v>10</v>
+      </c>
+      <c r="H652" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="653" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A653">
+        <v>651</v>
+      </c>
+      <c r="B653" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C653">
+        <v>40</v>
+      </c>
+      <c r="D653" t="s">
+        <v>26</v>
+      </c>
+      <c r="E653" t="s">
+        <v>25</v>
+      </c>
+      <c r="F653" s="1">
+        <v>43925</v>
+      </c>
+      <c r="G653" t="s">
+        <v>10</v>
+      </c>
+      <c r="H653" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="654" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A654">
+        <v>652</v>
+      </c>
+      <c r="B654" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C654">
+        <v>30</v>
+      </c>
+      <c r="D654" t="s">
+        <v>24</v>
+      </c>
+      <c r="E654" t="s">
+        <v>25</v>
+      </c>
+      <c r="F654" s="1">
+        <v>43924</v>
+      </c>
+      <c r="G654" t="s">
+        <v>10</v>
+      </c>
+      <c r="H654" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="655" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A655">
+        <v>653</v>
+      </c>
+      <c r="B655" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C655">
+        <v>20</v>
+      </c>
+      <c r="D655" t="s">
+        <v>24</v>
+      </c>
+      <c r="E655" t="s">
+        <v>25</v>
+      </c>
+      <c r="F655" s="1">
+        <v>43924</v>
+      </c>
+      <c r="G655" t="s">
+        <v>10</v>
+      </c>
+      <c r="H655" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="656" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A656">
+        <v>654</v>
+      </c>
+      <c r="B656" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C656">
+        <v>60</v>
+      </c>
+      <c r="D656" t="s">
+        <v>26</v>
+      </c>
+      <c r="E656" t="s">
+        <v>47</v>
+      </c>
+      <c r="F656" s="1">
+        <v>43926</v>
+      </c>
+      <c r="G656" t="s">
+        <v>10</v>
+      </c>
+      <c r="H656" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="657" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A657">
+        <v>655</v>
+      </c>
+      <c r="B657" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C657">
+        <v>30</v>
+      </c>
+      <c r="D657" t="s">
+        <v>24</v>
+      </c>
+      <c r="E657" t="s">
+        <v>25</v>
+      </c>
+      <c r="F657" s="1">
+        <v>43928</v>
+      </c>
+      <c r="G657" t="s">
+        <v>10</v>
+      </c>
+      <c r="H657" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="658" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A658">
+        <v>656</v>
+      </c>
+      <c r="B658" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C658">
+        <v>40</v>
+      </c>
+      <c r="D658" t="s">
+        <v>26</v>
+      </c>
+      <c r="E658" t="s">
+        <v>25</v>
+      </c>
+      <c r="F658" s="1">
+        <v>43926</v>
+      </c>
+      <c r="G658" t="s">
+        <v>10</v>
+      </c>
+      <c r="H658" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="659" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A659">
+        <v>657</v>
+      </c>
+      <c r="B659" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C659">
+        <v>70</v>
+      </c>
+      <c r="D659" t="s">
+        <v>24</v>
+      </c>
+      <c r="E659" t="s">
+        <v>25</v>
+      </c>
+      <c r="F659" s="1">
+        <v>43923</v>
+      </c>
+      <c r="G659" t="s">
+        <v>10</v>
+      </c>
+      <c r="H659" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="660" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A660">
+        <v>658</v>
+      </c>
+      <c r="B660" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C660">
+        <v>10</v>
+      </c>
+      <c r="D660" t="s">
+        <v>24</v>
+      </c>
+      <c r="E660" t="s">
+        <v>25</v>
+      </c>
+      <c r="F660" s="1">
+        <v>43920</v>
+      </c>
+      <c r="G660" t="s">
+        <v>10</v>
+      </c>
+      <c r="H660" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="661" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A661">
+        <v>659</v>
+      </c>
+      <c r="B661" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C661">
+        <v>20</v>
+      </c>
+      <c r="D661" t="s">
+        <v>24</v>
+      </c>
+      <c r="E661" t="s">
+        <v>25</v>
+      </c>
+      <c r="F661" s="1">
+        <v>43924</v>
+      </c>
+      <c r="G661" t="s">
+        <v>10</v>
+      </c>
+      <c r="H661" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="662" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A662">
+        <v>660</v>
+      </c>
+      <c r="B662" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C662">
+        <v>70</v>
+      </c>
+      <c r="D662" t="s">
+        <v>24</v>
+      </c>
+      <c r="E662" t="s">
+        <v>44</v>
+      </c>
+      <c r="F662" s="1">
+        <v>43927</v>
+      </c>
+      <c r="G662" t="s">
+        <v>10</v>
+      </c>
+      <c r="H662" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="663" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A663">
+        <v>661</v>
+      </c>
+      <c r="B663" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C663">
+        <v>90</v>
+      </c>
+      <c r="D663" t="s">
+        <v>24</v>
+      </c>
+      <c r="E663" t="s">
+        <v>44</v>
+      </c>
+      <c r="F663" s="1">
+        <v>43924</v>
+      </c>
+      <c r="G663" t="s">
+        <v>10</v>
+      </c>
+      <c r="H663" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="664" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A664">
+        <v>662</v>
+      </c>
+      <c r="B664" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C664">
+        <v>40</v>
+      </c>
+      <c r="D664" t="s">
+        <v>26</v>
+      </c>
+      <c r="E664" t="s">
+        <v>25</v>
+      </c>
+      <c r="F664" s="1">
+        <v>43916</v>
+      </c>
+      <c r="G664" t="s">
+        <v>10</v>
+      </c>
+      <c r="H664" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="665" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A665">
+        <v>663</v>
+      </c>
+      <c r="B665" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C665">
+        <v>20</v>
+      </c>
+      <c r="D665" t="s">
+        <v>24</v>
+      </c>
+      <c r="E665" t="s">
+        <v>25</v>
+      </c>
+      <c r="F665" s="1">
+        <v>43918</v>
+      </c>
+      <c r="G665" t="s">
+        <v>10</v>
+      </c>
+      <c r="H665" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="666" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A666">
+        <v>664</v>
+      </c>
+      <c r="B666" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C666">
+        <v>70</v>
+      </c>
+      <c r="D666" t="s">
+        <v>24</v>
+      </c>
+      <c r="E666" t="s">
+        <v>25</v>
+      </c>
+      <c r="F666" s="1">
+        <v>43925</v>
+      </c>
+      <c r="G666" t="s">
+        <v>10</v>
+      </c>
+      <c r="H666" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="667" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A667">
+        <v>665</v>
+      </c>
+      <c r="B667" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C667">
+        <v>30</v>
+      </c>
+      <c r="D667" t="s">
+        <v>26</v>
+      </c>
+      <c r="E667" t="s">
+        <v>25</v>
+      </c>
+      <c r="F667" s="1">
+        <v>43920</v>
+      </c>
+      <c r="G667" t="s">
+        <v>10</v>
+      </c>
+      <c r="H667" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="668" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A668">
+        <v>666</v>
+      </c>
+      <c r="B668" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C668">
+        <v>20</v>
+      </c>
+      <c r="D668" t="s">
+        <v>26</v>
+      </c>
+      <c r="E668" t="s">
+        <v>25</v>
+      </c>
+      <c r="F668" s="1">
+        <v>43930</v>
+      </c>
+      <c r="G668" t="s">
+        <v>10</v>
+      </c>
+      <c r="H668" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="669" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A669">
+        <v>667</v>
+      </c>
+      <c r="B669" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C669">
+        <v>30</v>
+      </c>
+      <c r="D669" t="s">
+        <v>24</v>
+      </c>
+      <c r="E669" t="s">
+        <v>25</v>
+      </c>
+      <c r="F669" s="1">
+        <v>43926</v>
+      </c>
+      <c r="G669" t="s">
+        <v>10</v>
+      </c>
+      <c r="H669" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="670" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A670">
+        <v>668</v>
+      </c>
+      <c r="B670" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C670">
+        <v>50</v>
+      </c>
+      <c r="D670" t="s">
+        <v>26</v>
+      </c>
+      <c r="E670" t="s">
+        <v>40</v>
+      </c>
+      <c r="F670" s="1">
+        <v>43922</v>
+      </c>
+      <c r="G670" t="s">
+        <v>10</v>
+      </c>
+      <c r="H670" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="671" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A671">
+        <v>669</v>
+      </c>
+      <c r="B671" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C671">
+        <v>50</v>
+      </c>
+      <c r="D671" t="s">
+        <v>26</v>
+      </c>
+      <c r="E671" t="s">
+        <v>40</v>
+      </c>
+      <c r="F671" s="1">
+        <v>43927</v>
+      </c>
+      <c r="G671" t="s">
+        <v>10</v>
+      </c>
+      <c r="H671" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="672" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A672">
+        <v>670</v>
+      </c>
+      <c r="B672" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C672">
+        <v>60</v>
+      </c>
+      <c r="D672" t="s">
+        <v>24</v>
+      </c>
+      <c r="E672" t="s">
+        <v>45</v>
+      </c>
+      <c r="F672" s="1">
+        <v>43927</v>
+      </c>
+      <c r="G672" t="s">
+        <v>10</v>
+      </c>
+      <c r="H672" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="673" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A673">
+        <v>671</v>
+      </c>
+      <c r="B673" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C673">
+        <v>40</v>
+      </c>
+      <c r="D673" t="s">
+        <v>26</v>
+      </c>
+      <c r="E673" t="s">
+        <v>30</v>
+      </c>
+      <c r="F673" s="1">
+        <v>43927</v>
+      </c>
+      <c r="G673" t="s">
+        <v>10</v>
+      </c>
+      <c r="H673" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="674" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A674">
+        <v>672</v>
+      </c>
+      <c r="B674" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C674">
+        <v>40</v>
+      </c>
+      <c r="D674" t="s">
+        <v>24</v>
+      </c>
+      <c r="E674" t="s">
+        <v>30</v>
+      </c>
+      <c r="F674" s="1">
+        <v>43922</v>
+      </c>
+      <c r="G674" t="s">
+        <v>10</v>
+      </c>
+      <c r="H674" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="675" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A675">
+        <v>673</v>
+      </c>
+      <c r="B675" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C675">
+        <v>20</v>
+      </c>
+      <c r="D675" t="s">
+        <v>26</v>
+      </c>
+      <c r="E675" t="s">
+        <v>30</v>
+      </c>
+      <c r="F675" s="1">
+        <v>43919</v>
+      </c>
+      <c r="G675" t="s">
+        <v>10</v>
+      </c>
+      <c r="H675" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="676" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A676">
+        <v>674</v>
+      </c>
+      <c r="B676" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C676">
+        <v>50</v>
+      </c>
+      <c r="D676" t="s">
+        <v>24</v>
+      </c>
+      <c r="E676" t="s">
+        <v>47</v>
+      </c>
+      <c r="F676" s="1">
+        <v>43926</v>
+      </c>
+      <c r="G676" t="s">
+        <v>10</v>
+      </c>
+      <c r="H676" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="677" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A677">
+        <v>675</v>
+      </c>
+      <c r="B677" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C677">
+        <v>40</v>
+      </c>
+      <c r="D677" t="s">
+        <v>26</v>
+      </c>
+      <c r="E677" t="s">
+        <v>25</v>
+      </c>
+      <c r="F677" s="1">
+        <v>43921</v>
+      </c>
+      <c r="G677" t="s">
+        <v>10</v>
+      </c>
+      <c r="H677" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="678" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A678">
+        <v>676</v>
+      </c>
+      <c r="B678" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C678">
+        <v>30</v>
+      </c>
+      <c r="D678" t="s">
+        <v>26</v>
+      </c>
+      <c r="E678" t="s">
+        <v>25</v>
+      </c>
+      <c r="F678" s="1">
+        <v>43920</v>
+      </c>
+      <c r="G678" t="s">
+        <v>10</v>
+      </c>
+      <c r="H678" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="679" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A679">
+        <v>677</v>
+      </c>
+      <c r="B679" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C679">
+        <v>40</v>
+      </c>
+      <c r="D679" t="s">
+        <v>26</v>
+      </c>
+      <c r="E679" t="s">
+        <v>51</v>
+      </c>
+      <c r="F679" s="1">
+        <v>43924</v>
+      </c>
+      <c r="G679" t="s">
+        <v>10</v>
+      </c>
+      <c r="H679" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="680" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A680">
+        <v>678</v>
+      </c>
+      <c r="B680" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C680">
+        <v>60</v>
+      </c>
+      <c r="D680" t="s">
+        <v>24</v>
+      </c>
+      <c r="E680" t="s">
+        <v>72</v>
+      </c>
+      <c r="F680" s="1">
+        <v>43930</v>
+      </c>
+      <c r="G680" t="s">
+        <v>10</v>
+      </c>
+      <c r="H680" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="681" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A681">
+        <v>679</v>
+      </c>
+      <c r="B681" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C681">
+        <v>20</v>
+      </c>
+      <c r="D681" t="s">
+        <v>24</v>
+      </c>
+      <c r="E681" t="s">
+        <v>39</v>
+      </c>
+      <c r="F681" s="1">
+        <v>43927</v>
+      </c>
+      <c r="G681" t="s">
+        <v>10</v>
+      </c>
+      <c r="H681" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="682" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A682">
+        <v>680</v>
+      </c>
+      <c r="B682" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C682">
+        <v>40</v>
+      </c>
+      <c r="D682" t="s">
+        <v>26</v>
+      </c>
+      <c r="E682" t="s">
+        <v>31</v>
+      </c>
+      <c r="F682" s="1">
+        <v>43922</v>
+      </c>
+      <c r="G682" t="s">
+        <v>10</v>
+      </c>
+      <c r="H682" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="683" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A683">
+        <v>681</v>
+      </c>
+      <c r="B683" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C683">
+        <v>30</v>
+      </c>
+      <c r="D683" t="s">
+        <v>24</v>
+      </c>
+      <c r="E683" t="s">
+        <v>36</v>
+      </c>
+      <c r="F683" s="1">
+        <v>43921</v>
+      </c>
+      <c r="G683" t="s">
+        <v>10</v>
+      </c>
+      <c r="H683" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="684" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A684">
+        <v>682</v>
+      </c>
+      <c r="B684" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C684">
+        <v>50</v>
+      </c>
+      <c r="D684" t="s">
+        <v>24</v>
+      </c>
+      <c r="E684" t="s">
+        <v>33</v>
+      </c>
+      <c r="F684" s="1">
+        <v>43927</v>
+      </c>
+      <c r="G684" t="s">
+        <v>10</v>
+      </c>
+      <c r="H684" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="685" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A685">
+        <v>683</v>
+      </c>
+      <c r="B685" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C685">
+        <v>70</v>
+      </c>
+      <c r="D685" t="s">
+        <v>24</v>
+      </c>
+      <c r="E685" t="s">
+        <v>35</v>
+      </c>
+      <c r="F685" s="1">
+        <v>43922</v>
+      </c>
+      <c r="G685" t="s">
+        <v>10</v>
+      </c>
+      <c r="H685" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="686" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A686">
+        <v>684</v>
+      </c>
+      <c r="B686" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C686">
+        <v>50</v>
+      </c>
+      <c r="D686" t="s">
+        <v>26</v>
+      </c>
+      <c r="E686" t="s">
+        <v>35</v>
+      </c>
+      <c r="F686" s="1">
+        <v>43925</v>
+      </c>
+      <c r="G686" t="s">
+        <v>10</v>
+      </c>
+      <c r="H686" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="687" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A687">
+        <v>685</v>
+      </c>
+      <c r="B687" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C687">
+        <v>70</v>
+      </c>
+      <c r="D687" t="s">
+        <v>26</v>
+      </c>
+      <c r="E687" t="s">
+        <v>35</v>
+      </c>
+      <c r="F687" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G687" t="s">
+        <v>47</v>
+      </c>
+      <c r="H687" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="688" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A688">
+        <v>686</v>
+      </c>
+      <c r="B688" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C688">
+        <v>40</v>
+      </c>
+      <c r="D688" t="s">
+        <v>26</v>
+      </c>
+      <c r="E688" t="s">
+        <v>35</v>
+      </c>
+      <c r="F688" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G688" t="s">
+        <v>47</v>
+      </c>
+      <c r="H688" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="689" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A689">
+        <v>687</v>
+      </c>
+      <c r="B689" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C689">
+        <v>70</v>
+      </c>
+      <c r="D689" t="s">
+        <v>26</v>
+      </c>
+      <c r="E689" t="s">
+        <v>34</v>
+      </c>
+      <c r="F689" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G689" t="s">
+        <v>47</v>
+      </c>
+      <c r="H689" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="690" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A690">
+        <v>688</v>
+      </c>
+      <c r="B690" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C690">
+        <v>80</v>
+      </c>
+      <c r="D690" t="s">
+        <v>26</v>
+      </c>
+      <c r="E690" t="s">
+        <v>34</v>
+      </c>
+      <c r="F690" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G690" t="s">
+        <v>47</v>
+      </c>
+      <c r="H690" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="691" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A691">
+        <v>689</v>
+      </c>
+      <c r="B691" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C691">
+        <v>50</v>
+      </c>
+      <c r="D691" t="s">
+        <v>26</v>
+      </c>
+      <c r="E691" t="s">
+        <v>34</v>
+      </c>
+      <c r="F691" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G691" t="s">
+        <v>47</v>
+      </c>
+      <c r="H691" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="692" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A692">
+        <v>690</v>
+      </c>
+      <c r="B692" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C692">
+        <v>30</v>
+      </c>
+      <c r="D692" t="s">
+        <v>24</v>
+      </c>
+      <c r="E692" t="s">
+        <v>25</v>
+      </c>
+      <c r="F692" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G692" t="s">
+        <v>47</v>
+      </c>
+      <c r="H692" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="693" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A693">
+        <v>691</v>
+      </c>
+      <c r="B693" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C693">
+        <v>20</v>
+      </c>
+      <c r="D693" t="s">
+        <v>26</v>
+      </c>
+      <c r="E693" t="s">
+        <v>34</v>
+      </c>
+      <c r="F693" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G693" t="s">
+        <v>47</v>
+      </c>
+      <c r="H693" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="694" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A694">
+        <v>692</v>
+      </c>
+      <c r="B694" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C694">
+        <v>40</v>
+      </c>
+      <c r="D694" t="s">
+        <v>26</v>
+      </c>
+      <c r="E694" t="s">
+        <v>31</v>
+      </c>
+      <c r="F694" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G694" t="s">
+        <v>47</v>
+      </c>
+      <c r="H694" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="695" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A695">
+        <v>693</v>
+      </c>
+      <c r="B695" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C695">
+        <v>50</v>
+      </c>
+      <c r="D695" t="s">
+        <v>26</v>
+      </c>
+      <c r="E695" t="s">
+        <v>34</v>
+      </c>
+      <c r="F695" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G695" t="s">
+        <v>47</v>
+      </c>
+      <c r="H695" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="696" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A696">
+        <v>694</v>
+      </c>
+      <c r="B696" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C696">
+        <v>50</v>
+      </c>
+      <c r="D696" t="s">
+        <v>26</v>
+      </c>
+      <c r="E696" t="s">
+        <v>47</v>
+      </c>
+      <c r="F696" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G696" t="s">
+        <v>47</v>
+      </c>
+      <c r="H696" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="697" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A697">
+        <v>695</v>
+      </c>
+      <c r="B697" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C697">
+        <v>20</v>
+      </c>
+      <c r="D697" t="s">
+        <v>26</v>
+      </c>
+      <c r="E697" t="s">
+        <v>32</v>
+      </c>
+      <c r="F697" s="1">
+        <v>43925</v>
+      </c>
+      <c r="G697" t="s">
+        <v>10</v>
+      </c>
+      <c r="H697" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="698" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A698">
+        <v>696</v>
+      </c>
+      <c r="B698" s="2">
+        <v>43931</v>
+      </c>
+      <c r="C698">
+        <v>40</v>
+      </c>
+      <c r="D698" t="s">
+        <v>26</v>
+      </c>
+      <c r="E698" t="s">
+        <v>25</v>
+      </c>
+      <c r="F698" s="1">
+        <v>43922</v>
+      </c>
+      <c r="G698" t="s">
+        <v>10</v>
+      </c>
+      <c r="H698" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="699" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A699">
+        <v>697</v>
+      </c>
+      <c r="B699" s="2">
+        <v>43932</v>
+      </c>
+      <c r="C699">
+        <v>50</v>
+      </c>
+      <c r="D699" t="s">
+        <v>26</v>
+      </c>
+      <c r="E699" t="s">
+        <v>25</v>
+      </c>
+      <c r="F699" s="1">
+        <v>43925</v>
+      </c>
+      <c r="G699" t="s">
+        <v>10</v>
+      </c>
+      <c r="H699" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="700" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A700">
+        <v>698</v>
+      </c>
+      <c r="B700" s="2">
+        <v>43932</v>
+      </c>
+      <c r="C700">
+        <v>30</v>
+      </c>
+      <c r="D700" t="s">
+        <v>24</v>
+      </c>
+      <c r="E700" t="s">
+        <v>25</v>
+      </c>
+      <c r="F700" s="1">
+        <v>43931</v>
+      </c>
+      <c r="G700" t="s">
+        <v>10</v>
+      </c>
+      <c r="H700" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="701" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A701">
+        <v>699</v>
+      </c>
+      <c r="B701" s="2">
+        <v>43932</v>
+      </c>
+      <c r="C701">
+        <v>20</v>
+      </c>
+      <c r="D701" t="s">
+        <v>26</v>
+      </c>
+      <c r="E701" t="s">
+        <v>25</v>
+      </c>
+      <c r="F701" s="1">
+        <v>43927</v>
+      </c>
+      <c r="G701" t="s">
+        <v>10</v>
+      </c>
+      <c r="H701" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="702" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A702">
+        <v>700</v>
+      </c>
+      <c r="B702" s="2">
+        <v>43932</v>
+      </c>
+      <c r="C702">
+        <v>20</v>
+      </c>
+      <c r="D702" t="s">
+        <v>26</v>
+      </c>
+      <c r="E702" t="s">
+        <v>25</v>
+      </c>
+      <c r="F702" s="1">
+        <v>43926</v>
+      </c>
+      <c r="G702" t="s">
+        <v>10</v>
+      </c>
+      <c r="H702" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="703" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A703">
+        <v>701</v>
+      </c>
+      <c r="B703" s="2">
+        <v>43932</v>
+      </c>
+      <c r="C703">
+        <v>50</v>
+      </c>
+      <c r="D703" t="s">
+        <v>26</v>
+      </c>
+      <c r="E703" t="s">
+        <v>25</v>
+      </c>
+      <c r="F703" s="1">
+        <v>43928</v>
+      </c>
+      <c r="G703" t="s">
+        <v>10</v>
+      </c>
+      <c r="H703" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="704" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A704">
+        <v>702</v>
+      </c>
+      <c r="B704" s="2">
+        <v>43932</v>
+      </c>
+      <c r="C704">
+        <v>20</v>
+      </c>
+      <c r="D704" t="s">
+        <v>24</v>
+      </c>
+      <c r="E704" t="s">
+        <v>77</v>
+      </c>
+      <c r="F704" s="1">
+        <v>43923</v>
+      </c>
+      <c r="G704" t="s">
+        <v>10</v>
+      </c>
+      <c r="H704" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="705" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A705">
+        <v>703</v>
+      </c>
+      <c r="B705" s="2">
+        <v>43932</v>
+      </c>
+      <c r="C705">
+        <v>30</v>
+      </c>
+      <c r="D705" t="s">
+        <v>26</v>
+      </c>
+      <c r="E705" t="s">
+        <v>78</v>
+      </c>
+      <c r="F705" s="1">
+        <v>43921</v>
+      </c>
+      <c r="G705" t="s">
+        <v>10</v>
+      </c>
+      <c r="H705" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="706" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A706">
+        <v>704</v>
+      </c>
+      <c r="B706" s="2">
+        <v>43932</v>
+      </c>
+      <c r="C706">
+        <v>20</v>
+      </c>
+      <c r="D706" t="s">
+        <v>26</v>
+      </c>
+      <c r="E706" t="s">
+        <v>25</v>
+      </c>
+      <c r="F706" s="1">
+        <v>43926</v>
+      </c>
+      <c r="G706" t="s">
+        <v>10</v>
+      </c>
+      <c r="H706" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="707" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A707">
+        <v>705</v>
+      </c>
+      <c r="B707" s="2">
+        <v>43932</v>
+      </c>
+      <c r="C707">
+        <v>70</v>
+      </c>
+      <c r="D707" t="s">
+        <v>24</v>
+      </c>
+      <c r="E707" t="s">
+        <v>25</v>
+      </c>
+      <c r="F707" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G707" t="s">
+        <v>11</v>
+      </c>
+      <c r="H707" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="708" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A708">
+        <v>706</v>
+      </c>
+      <c r="B708" s="2">
+        <v>43932</v>
+      </c>
+      <c r="C708">
+        <v>80</v>
+      </c>
+      <c r="D708" t="s">
+        <v>26</v>
+      </c>
+      <c r="E708" t="s">
+        <v>25</v>
+      </c>
+      <c r="F708" s="1">
+        <v>43926</v>
+      </c>
+      <c r="G708" t="s">
+        <v>11</v>
+      </c>
+      <c r="H708" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="709" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A709">
+        <v>707</v>
+      </c>
+      <c r="B709" s="2">
+        <v>43932</v>
+      </c>
+      <c r="C709">
+        <v>80</v>
+      </c>
+      <c r="D709" t="s">
+        <v>26</v>
+      </c>
+      <c r="E709" t="s">
+        <v>25</v>
+      </c>
+      <c r="F709" s="1">
+        <v>43923</v>
+      </c>
+      <c r="G709" t="s">
+        <v>10</v>
+      </c>
+      <c r="H709" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="710" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A710">
+        <v>708</v>
+      </c>
+      <c r="B710" s="2">
+        <v>43932</v>
+      </c>
+      <c r="C710">
+        <v>30</v>
+      </c>
+      <c r="D710" t="s">
+        <v>26</v>
+      </c>
+      <c r="E710" t="s">
+        <v>25</v>
+      </c>
+      <c r="F710" s="1">
+        <v>43922</v>
+      </c>
+      <c r="G710" t="s">
+        <v>10</v>
+      </c>
+      <c r="H710" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="711" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A711">
+        <v>709</v>
+      </c>
+      <c r="B711" s="2">
+        <v>43932</v>
+      </c>
+      <c r="C711">
+        <v>70</v>
+      </c>
+      <c r="D711" t="s">
+        <v>24</v>
+      </c>
+      <c r="E711" t="s">
+        <v>46</v>
+      </c>
+      <c r="F711" s="1">
+        <v>43916</v>
+      </c>
+      <c r="G711" t="s">
+        <v>10</v>
+      </c>
+      <c r="H711" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="712" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A712">
+        <v>710</v>
+      </c>
+      <c r="B712" s="2">
+        <v>43932</v>
+      </c>
+      <c r="C712">
+        <v>60</v>
+      </c>
+      <c r="D712" t="s">
+        <v>24</v>
+      </c>
+      <c r="E712" t="s">
+        <v>46</v>
+      </c>
+      <c r="F712" s="1">
+        <v>43927</v>
+      </c>
+      <c r="G712" t="s">
+        <v>10</v>
+      </c>
+      <c r="H712" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="713" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A713">
+        <v>711</v>
+      </c>
+      <c r="B713" s="2">
+        <v>43932</v>
+      </c>
+      <c r="C713">
+        <v>40</v>
+      </c>
+      <c r="D713" t="s">
+        <v>26</v>
+      </c>
+      <c r="E713" t="s">
+        <v>25</v>
+      </c>
+      <c r="F713" s="1">
+        <v>43926</v>
+      </c>
+      <c r="G713" t="s">
+        <v>10</v>
+      </c>
+      <c r="H713" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="714" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A714">
+        <v>712</v>
+      </c>
+      <c r="B714" s="2">
+        <v>43932</v>
+      </c>
+      <c r="C714">
+        <v>60</v>
+      </c>
+      <c r="D714" t="s">
+        <v>26</v>
+      </c>
+      <c r="E714" t="s">
+        <v>28</v>
+      </c>
+      <c r="F714" s="1">
+        <v>43924</v>
+      </c>
+      <c r="G714" t="s">
+        <v>10</v>
+      </c>
+      <c r="H714" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="715" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A715">
+        <v>713</v>
+      </c>
+      <c r="B715" s="2">
+        <v>43932</v>
+      </c>
+      <c r="C715">
+        <v>20</v>
+      </c>
+      <c r="D715" t="s">
+        <v>26</v>
+      </c>
+      <c r="E715" t="s">
+        <v>25</v>
+      </c>
+      <c r="F715" s="1">
+        <v>43919</v>
+      </c>
+      <c r="G715" t="s">
+        <v>10</v>
+      </c>
+      <c r="H715" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="716" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A716">
+        <v>714</v>
+      </c>
+      <c r="B716" s="2">
+        <v>43932</v>
+      </c>
+      <c r="C716">
+        <v>30</v>
+      </c>
+      <c r="D716" t="s">
+        <v>26</v>
+      </c>
+      <c r="E716" t="s">
+        <v>25</v>
+      </c>
+      <c r="F716" s="1">
+        <v>43924</v>
+      </c>
+      <c r="G716" t="s">
+        <v>10</v>
+      </c>
+      <c r="H716" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="717" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A717">
+        <v>715</v>
+      </c>
+      <c r="B717" s="2">
+        <v>43932</v>
+      </c>
+      <c r="C717">
+        <v>20</v>
+      </c>
+      <c r="D717" t="s">
+        <v>24</v>
+      </c>
+      <c r="E717" t="s">
+        <v>25</v>
+      </c>
+      <c r="F717" s="1">
+        <v>43921</v>
+      </c>
+      <c r="G717" t="s">
+        <v>10</v>
+      </c>
+      <c r="H717" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="718" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A718">
+        <v>716</v>
+      </c>
+      <c r="B718" s="2">
+        <v>43932</v>
+      </c>
+      <c r="C718">
+        <v>80</v>
+      </c>
+      <c r="D718" t="s">
+        <v>26</v>
+      </c>
+      <c r="E718" t="s">
+        <v>32</v>
+      </c>
+      <c r="F718" s="1">
+        <v>43924</v>
+      </c>
+      <c r="G718" t="s">
+        <v>10</v>
+      </c>
+      <c r="H718" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="719" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A719">
+        <v>717</v>
+      </c>
+      <c r="B719" s="2">
+        <v>43932</v>
+      </c>
+      <c r="C719">
+        <v>20</v>
+      </c>
+      <c r="D719" t="s">
+        <v>26</v>
+      </c>
+      <c r="E719" t="s">
+        <v>32</v>
+      </c>
+      <c r="F719" s="1">
+        <v>43927</v>
+      </c>
+      <c r="G719" t="s">
+        <v>10</v>
+      </c>
+      <c r="H719" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="720" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A720">
+        <v>718</v>
+      </c>
+      <c r="B720" s="2">
+        <v>43932</v>
+      </c>
+      <c r="C720">
+        <v>50</v>
+      </c>
+      <c r="D720" t="s">
+        <v>26</v>
+      </c>
+      <c r="E720" t="s">
+        <v>32</v>
+      </c>
+      <c r="F720" s="1">
+        <v>43928</v>
+      </c>
+      <c r="G720" t="s">
+        <v>10</v>
+      </c>
+      <c r="H720" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="721" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A721">
+        <v>719</v>
+      </c>
+      <c r="B721" s="2">
+        <v>43932</v>
+      </c>
+      <c r="C721">
+        <v>30</v>
+      </c>
+      <c r="D721" t="s">
+        <v>26</v>
+      </c>
+      <c r="E721" t="s">
+        <v>45</v>
+      </c>
+      <c r="F721" s="1">
+        <v>43929</v>
+      </c>
+      <c r="G721" t="s">
+        <v>10</v>
+      </c>
+      <c r="H721" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="722" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A722">
+        <v>720</v>
+      </c>
+      <c r="B722" s="2">
+        <v>43932</v>
+      </c>
+      <c r="C722">
+        <v>40</v>
+      </c>
+      <c r="D722" t="s">
+        <v>26</v>
+      </c>
+      <c r="E722" t="s">
+        <v>25</v>
+      </c>
+      <c r="F722" s="1">
+        <v>43927</v>
+      </c>
+      <c r="G722" t="s">
+        <v>10</v>
+      </c>
+      <c r="H722" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="723" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A723">
+        <v>721</v>
+      </c>
+      <c r="B723" s="2">
+        <v>43932</v>
+      </c>
+      <c r="C723">
+        <v>50</v>
+      </c>
+      <c r="D723" t="s">
+        <v>26</v>
+      </c>
+      <c r="E723" t="s">
+        <v>25</v>
+      </c>
+      <c r="F723" s="1">
+        <v>43928</v>
+      </c>
+      <c r="G723" t="s">
+        <v>10</v>
+      </c>
+      <c r="H723" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="724" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A724">
+        <v>722</v>
+      </c>
+      <c r="B724" s="2">
+        <v>43932</v>
+      </c>
+      <c r="C724">
+        <v>40</v>
+      </c>
+      <c r="D724" t="s">
+        <v>24</v>
+      </c>
+      <c r="E724" t="s">
+        <v>25</v>
+      </c>
+      <c r="F724" s="1">
+        <v>43929</v>
+      </c>
+      <c r="G724" t="s">
+        <v>10</v>
+      </c>
+      <c r="H724" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="725" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A725">
+        <v>723</v>
+      </c>
+      <c r="B725" s="2">
+        <v>43932</v>
+      </c>
+      <c r="C725">
+        <v>20</v>
+      </c>
+      <c r="D725" t="s">
+        <v>26</v>
+      </c>
+      <c r="E725" t="s">
+        <v>25</v>
+      </c>
+      <c r="F725" s="1">
+        <v>43922</v>
+      </c>
+      <c r="G725" t="s">
+        <v>10</v>
+      </c>
+      <c r="H725" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="726" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A726">
+        <v>724</v>
+      </c>
+      <c r="B726" s="2">
+        <v>43932</v>
+      </c>
+      <c r="C726">
+        <v>20</v>
+      </c>
+      <c r="D726" t="s">
+        <v>24</v>
+      </c>
+      <c r="E726" t="s">
+        <v>25</v>
+      </c>
+      <c r="F726" s="1">
+        <v>43925</v>
+      </c>
+      <c r="G726" t="s">
+        <v>10</v>
+      </c>
+      <c r="H726" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="727" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A727">
+        <v>725</v>
+      </c>
+      <c r="B727" s="2">
+        <v>43932</v>
+      </c>
+      <c r="C727">
+        <v>30</v>
+      </c>
+      <c r="D727" t="s">
+        <v>26</v>
+      </c>
+      <c r="E727" t="s">
+        <v>25</v>
+      </c>
+      <c r="F727" s="1">
+        <v>43925</v>
+      </c>
+      <c r="G727" t="s">
+        <v>10</v>
+      </c>
+      <c r="H727" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="728" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A728">
+        <v>726</v>
+      </c>
+      <c r="B728" s="2">
+        <v>43932</v>
+      </c>
+      <c r="C728">
+        <v>20</v>
+      </c>
+      <c r="D728" t="s">
+        <v>24</v>
+      </c>
+      <c r="E728" t="s">
+        <v>25</v>
+      </c>
+      <c r="F728" s="1">
+        <v>43927</v>
+      </c>
+      <c r="G728" t="s">
+        <v>10</v>
+      </c>
+      <c r="H728" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="729" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A729">
+        <v>727</v>
+      </c>
+      <c r="B729" s="2">
+        <v>43932</v>
+      </c>
+      <c r="C729">
+        <v>30</v>
+      </c>
+      <c r="D729" t="s">
+        <v>24</v>
+      </c>
+      <c r="E729" t="s">
+        <v>25</v>
+      </c>
+      <c r="F729" s="1">
+        <v>43921</v>
+      </c>
+      <c r="G729" t="s">
+        <v>10</v>
+      </c>
+      <c r="H729" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="730" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A730">
+        <v>728</v>
+      </c>
+      <c r="B730" s="2">
+        <v>43932</v>
+      </c>
+      <c r="C730">
+        <v>30</v>
+      </c>
+      <c r="D730" t="s">
+        <v>26</v>
+      </c>
+      <c r="E730" t="s">
+        <v>25</v>
+      </c>
+      <c r="F730" s="1">
+        <v>43926</v>
+      </c>
+      <c r="G730" t="s">
+        <v>10</v>
+      </c>
+      <c r="H730" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="731" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A731">
+        <v>729</v>
+      </c>
+      <c r="B731" s="2">
+        <v>43932</v>
+      </c>
+      <c r="C731" t="s">
+        <v>27</v>
+      </c>
+      <c r="D731" t="s">
+        <v>24</v>
+      </c>
+      <c r="E731" t="s">
+        <v>25</v>
+      </c>
+      <c r="F731" s="1">
+        <v>43927</v>
+      </c>
+      <c r="G731" t="s">
+        <v>10</v>
+      </c>
+      <c r="H731" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="732" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A732">
+        <v>730</v>
+      </c>
+      <c r="B732" s="2">
+        <v>43932</v>
+      </c>
+      <c r="C732">
+        <v>20</v>
+      </c>
+      <c r="D732" t="s">
+        <v>26</v>
+      </c>
+      <c r="E732" t="s">
+        <v>25</v>
+      </c>
+      <c r="F732" s="1">
+        <v>43924</v>
+      </c>
+      <c r="G732" t="s">
+        <v>10</v>
+      </c>
+      <c r="H732" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="733" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A733">
+        <v>731</v>
+      </c>
+      <c r="B733" s="2">
+        <v>43932</v>
+      </c>
+      <c r="C733">
+        <v>30</v>
+      </c>
+      <c r="D733" t="s">
+        <v>24</v>
+      </c>
+      <c r="E733" t="s">
+        <v>25</v>
+      </c>
+      <c r="F733" s="1">
+        <v>43926</v>
+      </c>
+      <c r="G733" t="s">
+        <v>10</v>
+      </c>
+      <c r="H733" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="734" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A734">
+        <v>732</v>
+      </c>
+      <c r="B734" s="2">
+        <v>43932</v>
+      </c>
+      <c r="C734">
+        <v>40</v>
+      </c>
+      <c r="D734" t="s">
+        <v>26</v>
+      </c>
+      <c r="E734" t="s">
+        <v>25</v>
+      </c>
+      <c r="F734" s="1">
+        <v>43924</v>
+      </c>
+      <c r="G734" t="s">
+        <v>10</v>
+      </c>
+      <c r="H734" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="735" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A735">
+        <v>733</v>
+      </c>
+      <c r="B735" s="2">
+        <v>43932</v>
+      </c>
+      <c r="C735">
+        <v>30</v>
+      </c>
+      <c r="D735" t="s">
+        <v>26</v>
+      </c>
+      <c r="E735" t="s">
+        <v>25</v>
+      </c>
+      <c r="F735" s="1">
+        <v>43924</v>
+      </c>
+      <c r="G735" t="s">
+        <v>10</v>
+      </c>
+      <c r="H735" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="736" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A736">
+        <v>734</v>
+      </c>
+      <c r="B736" s="2">
+        <v>43932</v>
+      </c>
+      <c r="C736">
+        <v>30</v>
+      </c>
+      <c r="D736" t="s">
+        <v>24</v>
+      </c>
+      <c r="E736" t="s">
+        <v>25</v>
+      </c>
+      <c r="F736" s="1">
+        <v>43924</v>
+      </c>
+      <c r="G736" t="s">
+        <v>10</v>
+      </c>
+      <c r="H736" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="737" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A737">
+        <v>735</v>
+      </c>
+      <c r="B737" s="2">
+        <v>43932</v>
+      </c>
+      <c r="C737">
+        <v>30</v>
+      </c>
+      <c r="D737" t="s">
+        <v>26</v>
+      </c>
+      <c r="E737" t="s">
+        <v>25</v>
+      </c>
+      <c r="F737" s="1">
+        <v>43923</v>
+      </c>
+      <c r="G737" t="s">
+        <v>10</v>
+      </c>
+      <c r="H737" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="738" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A738">
+        <v>736</v>
+      </c>
+      <c r="B738" s="2">
+        <v>43932</v>
+      </c>
+      <c r="C738" t="s">
+        <v>27</v>
+      </c>
+      <c r="D738" t="s">
+        <v>24</v>
+      </c>
+      <c r="E738" t="s">
+        <v>25</v>
+      </c>
+      <c r="F738" s="1">
+        <v>43928</v>
+      </c>
+      <c r="G738" t="s">
+        <v>10</v>
+      </c>
+      <c r="H738" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="739" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A739">
+        <v>737</v>
+      </c>
+      <c r="B739" s="2">
+        <v>43932</v>
+      </c>
+      <c r="C739">
+        <v>20</v>
+      </c>
+      <c r="D739" t="s">
+        <v>26</v>
+      </c>
+      <c r="E739" t="s">
+        <v>25</v>
+      </c>
+      <c r="F739" s="1">
+        <v>43918</v>
+      </c>
+      <c r="G739" t="s">
+        <v>10</v>
+      </c>
+      <c r="H739" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="740" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A740">
+        <v>738</v>
+      </c>
+      <c r="B740" s="2">
+        <v>43932</v>
+      </c>
+      <c r="C740">
+        <v>30</v>
+      </c>
+      <c r="D740" t="s">
+        <v>26</v>
+      </c>
+      <c r="E740" t="s">
+        <v>35</v>
+      </c>
+      <c r="F740" s="1">
+        <v>43927</v>
+      </c>
+      <c r="G740" t="s">
+        <v>10</v>
+      </c>
+      <c r="H740" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="741" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A741">
+        <v>739</v>
+      </c>
+      <c r="B741" s="2">
+        <v>43932</v>
+      </c>
+      <c r="C741">
+        <v>30</v>
+      </c>
+      <c r="D741" t="s">
+        <v>24</v>
+      </c>
+      <c r="E741" t="s">
+        <v>35</v>
+      </c>
+      <c r="F741" s="1">
+        <v>43924</v>
+      </c>
+      <c r="G741" t="s">
+        <v>10</v>
+      </c>
+      <c r="H741" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="742" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A742">
+        <v>740</v>
+      </c>
+      <c r="B742" s="2">
+        <v>43932</v>
+      </c>
+      <c r="C742">
+        <v>30</v>
+      </c>
+      <c r="D742" t="s">
+        <v>24</v>
+      </c>
+      <c r="E742" t="s">
+        <v>35</v>
+      </c>
+      <c r="F742" s="1">
+        <v>43926</v>
+      </c>
+      <c r="G742" t="s">
+        <v>10</v>
+      </c>
+      <c r="H742" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="743" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A743">
+        <v>741</v>
+      </c>
+      <c r="B743" s="2">
+        <v>43932</v>
+      </c>
+      <c r="C743">
+        <v>40</v>
+      </c>
+      <c r="D743" t="s">
+        <v>24</v>
+      </c>
+      <c r="E743" t="s">
+        <v>35</v>
+      </c>
+      <c r="F743" s="1">
+        <v>43917</v>
+      </c>
+      <c r="G743" t="s">
+        <v>10</v>
+      </c>
+      <c r="H743" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="744" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A744">
+        <v>742</v>
+      </c>
+      <c r="B744" s="2">
+        <v>43932</v>
+      </c>
+      <c r="C744">
+        <v>40</v>
+      </c>
+      <c r="D744" t="s">
+        <v>24</v>
+      </c>
+      <c r="E744" t="s">
+        <v>35</v>
+      </c>
+      <c r="F744" s="1">
+        <v>43922</v>
+      </c>
+      <c r="G744" t="s">
+        <v>10</v>
+      </c>
+      <c r="H744" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="745" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A745">
+        <v>743</v>
+      </c>
+      <c r="B745" s="2">
+        <v>43932</v>
+      </c>
+      <c r="C745">
+        <v>50</v>
+      </c>
+      <c r="D745" t="s">
+        <v>24</v>
+      </c>
+      <c r="E745" t="s">
+        <v>35</v>
+      </c>
+      <c r="F745" s="1">
+        <v>43924</v>
+      </c>
+      <c r="G745" t="s">
+        <v>10</v>
+      </c>
+      <c r="H745" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="746" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A746">
+        <v>744</v>
+      </c>
+      <c r="B746" s="2">
+        <v>43932</v>
+      </c>
+      <c r="C746">
+        <v>60</v>
+      </c>
+      <c r="D746" t="s">
+        <v>24</v>
+      </c>
+      <c r="E746" t="s">
+        <v>35</v>
+      </c>
+      <c r="F746" s="1">
+        <v>43929</v>
+      </c>
+      <c r="G746" t="s">
+        <v>10</v>
+      </c>
+      <c r="H746" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="747" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A747">
+        <v>745</v>
+      </c>
+      <c r="B747" s="2">
+        <v>43932</v>
+      </c>
+      <c r="C747">
+        <v>60</v>
+      </c>
+      <c r="D747" t="s">
+        <v>24</v>
+      </c>
+      <c r="E747" t="s">
+        <v>46</v>
+      </c>
+      <c r="F747" s="1">
+        <v>43926</v>
+      </c>
+      <c r="G747" t="s">
+        <v>10</v>
+      </c>
+      <c r="H747" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="748" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A748">
+        <v>746</v>
+      </c>
+      <c r="B748" s="2">
+        <v>43932</v>
+      </c>
+      <c r="C748">
+        <v>60</v>
+      </c>
+      <c r="D748" t="s">
+        <v>24</v>
+      </c>
+      <c r="E748" t="s">
+        <v>35</v>
+      </c>
+      <c r="F748" s="1">
+        <v>43929</v>
+      </c>
+      <c r="G748" t="s">
+        <v>10</v>
+      </c>
+      <c r="H748" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="749" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A749">
+        <v>747</v>
+      </c>
+      <c r="B749" s="2">
+        <v>43932</v>
+      </c>
+      <c r="C749">
+        <v>60</v>
+      </c>
+      <c r="D749" t="s">
+        <v>26</v>
+      </c>
+      <c r="E749" t="s">
+        <v>35</v>
+      </c>
+      <c r="F749" s="1">
+        <v>43930</v>
+      </c>
+      <c r="G749" t="s">
+        <v>10</v>
+      </c>
+      <c r="H749" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="750" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A750">
+        <v>748</v>
+      </c>
+      <c r="B750" s="2">
+        <v>43932</v>
+      </c>
+      <c r="C750">
+        <v>70</v>
+      </c>
+      <c r="D750" t="s">
+        <v>24</v>
+      </c>
+      <c r="E750" t="s">
+        <v>35</v>
+      </c>
+      <c r="F750" s="1">
+        <v>43925</v>
+      </c>
+      <c r="G750" t="s">
+        <v>10</v>
+      </c>
+      <c r="H750" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="751" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A751">
+        <v>749</v>
+      </c>
+      <c r="B751" s="2">
+        <v>43932</v>
+      </c>
+      <c r="C751">
+        <v>40</v>
+      </c>
+      <c r="D751" t="s">
+        <v>26</v>
+      </c>
+      <c r="E751" t="s">
+        <v>35</v>
+      </c>
+      <c r="F751" s="1">
+        <v>43929</v>
+      </c>
+      <c r="G751" t="s">
+        <v>10</v>
+      </c>
+      <c r="H751" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="752" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A752">
+        <v>750</v>
+      </c>
+      <c r="B752" s="2">
+        <v>43932</v>
+      </c>
+      <c r="C752">
+        <v>90</v>
+      </c>
+      <c r="D752" t="s">
+        <v>24</v>
+      </c>
+      <c r="E752" t="s">
+        <v>46</v>
+      </c>
+      <c r="F752" s="1">
+        <v>43930</v>
+      </c>
+      <c r="G752" t="s">
+        <v>10</v>
+      </c>
+      <c r="H752" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="753" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A753">
+        <v>751</v>
+      </c>
+      <c r="B753" s="2">
+        <v>43932</v>
+      </c>
+      <c r="C753">
+        <v>60</v>
+      </c>
+      <c r="D753" t="s">
+        <v>26</v>
+      </c>
+      <c r="E753" t="s">
+        <v>34</v>
+      </c>
+      <c r="F753" s="1">
+        <v>43926</v>
+      </c>
+      <c r="G753" t="s">
+        <v>10</v>
+      </c>
+      <c r="H753" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="754" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A754">
+        <v>752</v>
+      </c>
+      <c r="B754" s="2">
+        <v>43932</v>
+      </c>
+      <c r="C754">
+        <v>20</v>
+      </c>
+      <c r="D754" t="s">
+        <v>26</v>
+      </c>
+      <c r="E754" t="s">
+        <v>42</v>
+      </c>
+      <c r="F754" s="1">
+        <v>43925</v>
+      </c>
+      <c r="G754" t="s">
+        <v>10</v>
+      </c>
+      <c r="H754" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="755" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A755">
+        <v>753</v>
+      </c>
+      <c r="B755" s="2">
+        <v>43932</v>
+      </c>
+      <c r="C755">
+        <v>50</v>
+      </c>
+      <c r="D755" t="s">
+        <v>24</v>
+      </c>
+      <c r="E755" t="s">
+        <v>42</v>
+      </c>
+      <c r="F755" s="1">
+        <v>43926</v>
+      </c>
+      <c r="G755" t="s">
+        <v>10</v>
+      </c>
+      <c r="H755" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="756" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A756">
+        <v>754</v>
+      </c>
+      <c r="B756" s="2">
+        <v>43932</v>
+      </c>
+      <c r="C756">
+        <v>80</v>
+      </c>
+      <c r="D756" t="s">
+        <v>26</v>
+      </c>
+      <c r="E756" t="s">
+        <v>31</v>
+      </c>
+      <c r="F756" s="1">
+        <v>43928</v>
+      </c>
+      <c r="G756" t="s">
+        <v>10</v>
+      </c>
+      <c r="H756" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="757" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A757">
+        <v>755</v>
+      </c>
+      <c r="B757" s="2">
+        <v>43932</v>
+      </c>
+      <c r="C757">
+        <v>80</v>
+      </c>
+      <c r="D757" t="s">
+        <v>24</v>
+      </c>
+      <c r="E757" t="s">
+        <v>31</v>
+      </c>
+      <c r="F757" s="1">
+        <v>43921</v>
+      </c>
+      <c r="G757" t="s">
+        <v>10</v>
+      </c>
+      <c r="H757" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="758" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A758">
+        <v>756</v>
+      </c>
+      <c r="B758" s="2">
+        <v>43932</v>
+      </c>
+      <c r="C758">
+        <v>50</v>
+      </c>
+      <c r="D758" t="s">
+        <v>24</v>
+      </c>
+      <c r="E758" t="s">
+        <v>31</v>
+      </c>
+      <c r="F758" s="1">
+        <v>43926</v>
+      </c>
+      <c r="G758" t="s">
+        <v>10</v>
+      </c>
+      <c r="H758" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="759" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A759">
+        <v>757</v>
+      </c>
+      <c r="B759" s="2">
+        <v>43932</v>
+      </c>
+      <c r="C759">
+        <v>80</v>
+      </c>
+      <c r="D759" t="s">
+        <v>24</v>
+      </c>
+      <c r="E759" t="s">
+        <v>40</v>
+      </c>
+      <c r="F759" s="1">
+        <v>43928</v>
+      </c>
+      <c r="G759" t="s">
+        <v>10</v>
+      </c>
+      <c r="H759" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="760" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A760">
+        <v>758</v>
+      </c>
+      <c r="B760" s="2">
+        <v>43932</v>
+      </c>
+      <c r="C760">
+        <v>20</v>
+      </c>
+      <c r="D760" t="s">
+        <v>24</v>
+      </c>
+      <c r="E760" t="s">
+        <v>40</v>
+      </c>
+      <c r="F760" s="1">
+        <v>43922</v>
+      </c>
+      <c r="G760" t="s">
+        <v>10</v>
+      </c>
+      <c r="H760" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="761" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A761">
+        <v>759</v>
+      </c>
+      <c r="B761" s="2">
+        <v>43932</v>
+      </c>
+      <c r="C761">
+        <v>20</v>
+      </c>
+      <c r="D761" t="s">
+        <v>24</v>
+      </c>
+      <c r="E761" t="s">
+        <v>40</v>
+      </c>
+      <c r="F761" s="1">
+        <v>43920</v>
+      </c>
+      <c r="G761" t="s">
+        <v>10</v>
+      </c>
+      <c r="H761" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="762" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A762">
+        <v>760</v>
+      </c>
+      <c r="B762" s="2">
+        <v>43932</v>
+      </c>
+      <c r="C762">
+        <v>50</v>
+      </c>
+      <c r="D762" t="s">
+        <v>26</v>
+      </c>
+      <c r="E762" t="s">
+        <v>40</v>
+      </c>
+      <c r="F762" s="1">
+        <v>43919</v>
+      </c>
+      <c r="G762" t="s">
+        <v>10</v>
+      </c>
+      <c r="H762" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="763" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A763">
+        <v>761</v>
+      </c>
+      <c r="B763" s="2">
+        <v>43932</v>
+      </c>
+      <c r="C763">
+        <v>50</v>
+      </c>
+      <c r="D763" t="s">
+        <v>26</v>
+      </c>
+      <c r="E763" t="s">
+        <v>72</v>
+      </c>
+      <c r="F763" s="1">
+        <v>43925</v>
+      </c>
+      <c r="G763" t="s">
+        <v>10</v>
+      </c>
+      <c r="H763" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="764" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A764">
+        <v>762</v>
+      </c>
+      <c r="B764" s="2">
+        <v>43932</v>
+      </c>
+      <c r="C764">
+        <v>40</v>
+      </c>
+      <c r="D764" t="s">
+        <v>26</v>
+      </c>
+      <c r="E764" t="s">
+        <v>29</v>
+      </c>
+      <c r="F764" s="1">
+        <v>43923</v>
+      </c>
+      <c r="G764" t="s">
+        <v>10</v>
+      </c>
+      <c r="H764" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="765" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A765">
+        <v>763</v>
+      </c>
+      <c r="B765" s="2">
+        <v>43932</v>
+      </c>
+      <c r="C765">
+        <v>30</v>
+      </c>
+      <c r="D765" t="s">
+        <v>26</v>
+      </c>
+      <c r="E765" t="s">
+        <v>55</v>
+      </c>
+      <c r="F765" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G765" t="s">
+        <v>47</v>
+      </c>
+      <c r="H765" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="766" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A766">
+        <v>764</v>
+      </c>
+      <c r="B766" s="2">
+        <v>43932</v>
+      </c>
+      <c r="C766">
+        <v>50</v>
+      </c>
+      <c r="D766" t="s">
+        <v>26</v>
+      </c>
+      <c r="E766" t="s">
+        <v>37</v>
+      </c>
+      <c r="F766" s="1">
+        <v>43924</v>
+      </c>
+      <c r="G766" t="s">
+        <v>10</v>
+      </c>
+      <c r="H766" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="767" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A767">
+        <v>765</v>
+      </c>
+      <c r="B767" s="2">
+        <v>43932</v>
+      </c>
+      <c r="C767">
+        <v>40</v>
+      </c>
+      <c r="D767" t="s">
+        <v>24</v>
+      </c>
+      <c r="E767" t="s">
+        <v>60</v>
+      </c>
+      <c r="F767" s="1">
+        <v>43924</v>
+      </c>
+      <c r="G767" t="s">
+        <v>10</v>
+      </c>
+      <c r="H767" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="768" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A768">
+        <v>766</v>
+      </c>
+      <c r="B768" s="2">
+        <v>43932</v>
+      </c>
+      <c r="C768">
+        <v>60</v>
+      </c>
+      <c r="D768" t="s">
+        <v>26</v>
+      </c>
+      <c r="E768" t="s">
+        <v>33</v>
+      </c>
+      <c r="F768" s="1">
+        <v>43927</v>
+      </c>
+      <c r="G768" t="s">
+        <v>10</v>
+      </c>
+      <c r="H768" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="769" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A769">
+        <v>767</v>
+      </c>
+      <c r="B769" s="2">
+        <v>43933</v>
+      </c>
+      <c r="C769">
+        <v>50</v>
+      </c>
+      <c r="D769" t="s">
+        <v>26</v>
+      </c>
+      <c r="E769" t="s">
+        <v>28</v>
+      </c>
+      <c r="F769" s="1">
+        <v>43919</v>
+      </c>
+      <c r="G769" t="s">
+        <v>10</v>
+      </c>
+      <c r="H769" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="770" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A770">
+        <v>768</v>
+      </c>
+      <c r="B770" s="2">
+        <v>43933</v>
+      </c>
+      <c r="C770">
+        <v>50</v>
+      </c>
+      <c r="D770" t="s">
+        <v>24</v>
+      </c>
+      <c r="E770" t="s">
+        <v>28</v>
+      </c>
+      <c r="F770" s="1">
+        <v>43927</v>
+      </c>
+      <c r="G770" t="s">
+        <v>10</v>
+      </c>
+      <c r="H770" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="771" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A771">
+        <v>769</v>
+      </c>
+      <c r="B771" s="2">
+        <v>43933</v>
+      </c>
+      <c r="C771">
+        <v>20</v>
+      </c>
+      <c r="D771" t="s">
+        <v>26</v>
+      </c>
+      <c r="E771" t="s">
+        <v>32</v>
+      </c>
+      <c r="F771" s="1">
+        <v>43928</v>
+      </c>
+      <c r="G771" t="s">
+        <v>10</v>
+      </c>
+      <c r="H771" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="772" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A772">
+        <v>770</v>
+      </c>
+      <c r="B772" s="2">
+        <v>43933</v>
+      </c>
+      <c r="C772">
+        <v>20</v>
+      </c>
+      <c r="D772" t="s">
+        <v>26</v>
+      </c>
+      <c r="E772" t="s">
+        <v>32</v>
+      </c>
+      <c r="F772" s="1">
+        <v>43929</v>
+      </c>
+      <c r="G772" t="s">
+        <v>10</v>
+      </c>
+      <c r="H772" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="773" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A773">
+        <v>771</v>
+      </c>
+      <c r="B773" s="2">
+        <v>43933</v>
+      </c>
+      <c r="C773">
+        <v>50</v>
+      </c>
+      <c r="D773" t="s">
+        <v>24</v>
+      </c>
+      <c r="E773" t="s">
+        <v>35</v>
+      </c>
+      <c r="F773" s="1">
+        <v>43924</v>
+      </c>
+      <c r="G773" t="s">
+        <v>10</v>
+      </c>
+      <c r="H773" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="774" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A774">
+        <v>772</v>
+      </c>
+      <c r="B774" s="2">
+        <v>43933</v>
+      </c>
+      <c r="C774">
+        <v>40</v>
+      </c>
+      <c r="D774" t="s">
+        <v>26</v>
+      </c>
+      <c r="E774" t="s">
+        <v>35</v>
+      </c>
+      <c r="F774" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G774" t="s">
+        <v>10</v>
+      </c>
+      <c r="H774" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="775" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A775">
+        <v>773</v>
+      </c>
+      <c r="B775" s="2">
+        <v>43933</v>
+      </c>
+      <c r="C775">
+        <v>20</v>
+      </c>
+      <c r="D775" t="s">
+        <v>24</v>
+      </c>
+      <c r="E775" t="s">
+        <v>33</v>
+      </c>
+      <c r="F775" s="1">
+        <v>43930</v>
+      </c>
+      <c r="G775" t="s">
+        <v>10</v>
+      </c>
+      <c r="H775" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="776" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A776">
+        <v>774</v>
+      </c>
+      <c r="B776" s="2">
+        <v>43933</v>
+      </c>
+      <c r="C776">
+        <v>30</v>
+      </c>
+      <c r="D776" t="s">
+        <v>24</v>
+      </c>
+      <c r="E776" t="s">
+        <v>35</v>
+      </c>
+      <c r="F776" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G776" t="s">
+        <v>12</v>
+      </c>
+      <c r="H776" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="777" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A777">
+        <v>775</v>
+      </c>
+      <c r="B777" s="2">
+        <v>43933</v>
+      </c>
+      <c r="C777">
+        <v>60</v>
+      </c>
+      <c r="D777" t="s">
+        <v>24</v>
+      </c>
+      <c r="E777" t="s">
+        <v>45</v>
+      </c>
+      <c r="F777" s="1">
+        <v>43930</v>
+      </c>
+      <c r="G777" t="s">
+        <v>10</v>
+      </c>
+      <c r="H777" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="778" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A778">
+        <v>776</v>
+      </c>
+      <c r="B778" s="2">
+        <v>43933</v>
+      </c>
+      <c r="C778">
+        <v>40</v>
+      </c>
+      <c r="D778" t="s">
+        <v>24</v>
+      </c>
+      <c r="E778" t="s">
+        <v>40</v>
+      </c>
+      <c r="F778" s="1">
+        <v>43928</v>
+      </c>
+      <c r="G778" t="s">
+        <v>10</v>
+      </c>
+      <c r="H778" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="779" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A779">
+        <v>777</v>
+      </c>
+      <c r="B779" s="2">
+        <v>43933</v>
+      </c>
+      <c r="C779">
+        <v>20</v>
+      </c>
+      <c r="D779" t="s">
+        <v>24</v>
+      </c>
+      <c r="E779" t="s">
+        <v>40</v>
+      </c>
+      <c r="F779" s="1">
+        <v>43928</v>
+      </c>
+      <c r="G779" t="s">
+        <v>10</v>
+      </c>
+      <c r="H779" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="780" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A780">
+        <v>778</v>
+      </c>
+      <c r="B780" s="2">
+        <v>43933</v>
+      </c>
+      <c r="C780">
+        <v>80</v>
+      </c>
+      <c r="D780" t="s">
+        <v>26</v>
+      </c>
+      <c r="E780" t="s">
+        <v>40</v>
+      </c>
+      <c r="F780" s="1">
+        <v>43930</v>
+      </c>
+      <c r="G780" t="s">
+        <v>10</v>
+      </c>
+      <c r="H780" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="781" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A781">
+        <v>779</v>
+      </c>
+      <c r="B781" s="2">
+        <v>43933</v>
+      </c>
+      <c r="C781">
+        <v>70</v>
+      </c>
+      <c r="D781" t="s">
+        <v>24</v>
+      </c>
+      <c r="E781" t="s">
+        <v>40</v>
+      </c>
+      <c r="F781" s="1">
+        <v>43931</v>
+      </c>
+      <c r="G781" t="s">
+        <v>10</v>
+      </c>
+      <c r="H781" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="782" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A782">
+        <v>780</v>
+      </c>
+      <c r="B782" s="2">
+        <v>43933</v>
+      </c>
+      <c r="C782">
+        <v>30</v>
+      </c>
+      <c r="D782" t="s">
+        <v>26</v>
+      </c>
+      <c r="E782" t="s">
+        <v>37</v>
+      </c>
+      <c r="F782" s="1">
+        <v>43923</v>
+      </c>
+      <c r="G782" t="s">
+        <v>10</v>
+      </c>
+      <c r="H782" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="783" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A783">
+        <v>781</v>
+      </c>
+      <c r="B783" s="2">
+        <v>43933</v>
+      </c>
+      <c r="C783">
+        <v>20</v>
+      </c>
+      <c r="D783" t="s">
+        <v>24</v>
+      </c>
+      <c r="E783" t="s">
+        <v>32</v>
+      </c>
+      <c r="F783" s="1">
+        <v>43931</v>
+      </c>
+      <c r="G783" t="s">
+        <v>10</v>
+      </c>
+      <c r="H783" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="784" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A784">
+        <v>782</v>
+      </c>
+      <c r="B784" s="2">
+        <v>43933</v>
+      </c>
+      <c r="C784">
+        <v>50</v>
+      </c>
+      <c r="D784" t="s">
+        <v>24</v>
+      </c>
+      <c r="E784" t="s">
+        <v>32</v>
+      </c>
+      <c r="F784" s="1">
+        <v>43928</v>
+      </c>
+      <c r="G784" t="s">
+        <v>10</v>
+      </c>
+      <c r="H784" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="785" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A785">
+        <v>783</v>
+      </c>
+      <c r="B785" s="2">
+        <v>43933</v>
+      </c>
+      <c r="C785">
+        <v>70</v>
+      </c>
+      <c r="D785" t="s">
+        <v>26</v>
+      </c>
+      <c r="E785" t="s">
+        <v>32</v>
+      </c>
+      <c r="F785" s="1">
+        <v>43925</v>
+      </c>
+      <c r="G785" t="s">
+        <v>10</v>
+      </c>
+      <c r="H785" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="786" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A786">
+        <v>784</v>
+      </c>
+      <c r="B786" s="2">
+        <v>43933</v>
+      </c>
+      <c r="C786">
+        <v>30</v>
+      </c>
+      <c r="D786" t="s">
+        <v>26</v>
+      </c>
+      <c r="E786" t="s">
+        <v>32</v>
+      </c>
+      <c r="F786" s="1">
+        <v>43927</v>
+      </c>
+      <c r="G786" t="s">
+        <v>10</v>
+      </c>
+      <c r="H786" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="787" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A787">
+        <v>785</v>
+      </c>
+      <c r="B787" s="2">
+        <v>43933</v>
+      </c>
+      <c r="C787">
+        <v>50</v>
+      </c>
+      <c r="D787" t="s">
+        <v>26</v>
+      </c>
+      <c r="E787" t="s">
+        <v>25</v>
+      </c>
+      <c r="F787" s="1">
+        <v>43919</v>
+      </c>
+      <c r="G787" t="s">
+        <v>10</v>
+      </c>
+      <c r="H787" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="788" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A788">
+        <v>786</v>
+      </c>
+      <c r="B788" s="2">
+        <v>43933</v>
+      </c>
+      <c r="C788">
+        <v>50</v>
+      </c>
+      <c r="D788" t="s">
+        <v>24</v>
+      </c>
+      <c r="E788" t="s">
+        <v>25</v>
+      </c>
+      <c r="F788" s="1">
+        <v>43927</v>
+      </c>
+      <c r="G788" t="s">
+        <v>10</v>
+      </c>
+      <c r="H788" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="789" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A789">
+        <v>787</v>
+      </c>
+      <c r="B789" s="2">
+        <v>43933</v>
+      </c>
+      <c r="C789">
+        <v>20</v>
+      </c>
+      <c r="D789" t="s">
+        <v>24</v>
+      </c>
+      <c r="E789" t="s">
+        <v>25</v>
+      </c>
+      <c r="F789" s="1">
+        <v>43921</v>
+      </c>
+      <c r="G789" t="s">
+        <v>10</v>
+      </c>
+      <c r="H789" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="790" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A790">
+        <v>788</v>
+      </c>
+      <c r="B790" s="2">
+        <v>43933</v>
+      </c>
+      <c r="C790">
+        <v>20</v>
+      </c>
+      <c r="D790" t="s">
+        <v>24</v>
+      </c>
+      <c r="E790" t="s">
+        <v>25</v>
+      </c>
+      <c r="F790" s="1">
+        <v>43922</v>
+      </c>
+      <c r="G790" t="s">
+        <v>10</v>
+      </c>
+      <c r="H790" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="791" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A791">
+        <v>789</v>
+      </c>
+      <c r="B791" s="2">
+        <v>43933</v>
+      </c>
+      <c r="C791">
+        <v>30</v>
+      </c>
+      <c r="D791" t="s">
+        <v>26</v>
+      </c>
+      <c r="E791" t="s">
+        <v>25</v>
+      </c>
+      <c r="F791" s="1">
+        <v>43925</v>
+      </c>
+      <c r="G791" t="s">
+        <v>10</v>
+      </c>
+      <c r="H791" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="792" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A792">
+        <v>790</v>
+      </c>
+      <c r="B792" s="2">
+        <v>43933</v>
+      </c>
+      <c r="C792">
+        <v>30</v>
+      </c>
+      <c r="D792" t="s">
+        <v>24</v>
+      </c>
+      <c r="E792" t="s">
+        <v>25</v>
+      </c>
+      <c r="F792" s="1">
+        <v>43921</v>
+      </c>
+      <c r="G792" t="s">
+        <v>10</v>
+      </c>
+      <c r="H792" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="793" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A793">
+        <v>791</v>
+      </c>
+      <c r="B793" s="2">
+        <v>43933</v>
+      </c>
+      <c r="C793">
+        <v>20</v>
+      </c>
+      <c r="D793" t="s">
+        <v>24</v>
+      </c>
+      <c r="E793" t="s">
+        <v>25</v>
+      </c>
+      <c r="F793" s="1">
+        <v>43922</v>
+      </c>
+      <c r="G793" t="s">
+        <v>10</v>
+      </c>
+      <c r="H793" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="794" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A794">
+        <v>792</v>
+      </c>
+      <c r="B794" s="2">
+        <v>43933</v>
+      </c>
+      <c r="C794">
+        <v>30</v>
+      </c>
+      <c r="D794" t="s">
+        <v>24</v>
+      </c>
+      <c r="E794" t="s">
+        <v>25</v>
+      </c>
+      <c r="F794" s="1">
+        <v>43924</v>
+      </c>
+      <c r="G794" t="s">
+        <v>10</v>
+      </c>
+      <c r="H794" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="795" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A795">
+        <v>793</v>
+      </c>
+      <c r="B795" s="2">
+        <v>43933</v>
+      </c>
+      <c r="C795">
+        <v>60</v>
+      </c>
+      <c r="D795" t="s">
+        <v>26</v>
+      </c>
+      <c r="E795" t="s">
+        <v>25</v>
+      </c>
+      <c r="F795" s="1">
+        <v>43923</v>
+      </c>
+      <c r="G795" t="s">
+        <v>10</v>
+      </c>
+      <c r="H795" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="796" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A796">
+        <v>794</v>
+      </c>
+      <c r="B796" s="2">
+        <v>43933</v>
+      </c>
+      <c r="C796">
+        <v>20</v>
+      </c>
+      <c r="D796" t="s">
+        <v>26</v>
+      </c>
+      <c r="E796" t="s">
+        <v>25</v>
+      </c>
+      <c r="F796" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G796" t="s">
+        <v>10</v>
+      </c>
+      <c r="H796" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="797" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A797">
+        <v>795</v>
+      </c>
+      <c r="B797" s="2">
+        <v>43933</v>
+      </c>
+      <c r="C797">
+        <v>10</v>
+      </c>
+      <c r="D797" t="s">
+        <v>24</v>
+      </c>
+      <c r="E797" t="s">
+        <v>25</v>
+      </c>
+      <c r="F797" s="1">
+        <v>43922</v>
+      </c>
+      <c r="G797" t="s">
+        <v>10</v>
+      </c>
+      <c r="H797" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="798" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A798">
+        <v>796</v>
+      </c>
+      <c r="B798" s="2">
+        <v>43933</v>
+      </c>
+      <c r="C798">
+        <v>20</v>
+      </c>
+      <c r="D798" t="s">
+        <v>26</v>
+      </c>
+      <c r="E798" t="s">
+        <v>25</v>
+      </c>
+      <c r="F798" s="1">
+        <v>43926</v>
+      </c>
+      <c r="G798" t="s">
+        <v>10</v>
+      </c>
+      <c r="H798" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="799" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A799">
+        <v>797</v>
+      </c>
+      <c r="B799" s="2">
+        <v>43933</v>
+      </c>
+      <c r="C799">
+        <v>20</v>
+      </c>
+      <c r="D799" t="s">
+        <v>26</v>
+      </c>
+      <c r="E799" t="s">
+        <v>25</v>
+      </c>
+      <c r="F799" s="1">
+        <v>43923</v>
+      </c>
+      <c r="G799" t="s">
+        <v>10</v>
+      </c>
+      <c r="H799" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="800" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A800">
+        <v>798</v>
+      </c>
+      <c r="B800" s="2">
+        <v>43933</v>
+      </c>
+      <c r="C800">
+        <v>20</v>
+      </c>
+      <c r="D800" t="s">
+        <v>26</v>
+      </c>
+      <c r="E800" t="s">
+        <v>25</v>
+      </c>
+      <c r="F800" s="1">
+        <v>43916</v>
+      </c>
+      <c r="G800" t="s">
+        <v>10</v>
+      </c>
+      <c r="H800" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="801" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A801">
+        <v>799</v>
+      </c>
+      <c r="B801" s="2">
+        <v>43933</v>
+      </c>
+      <c r="C801">
+        <v>30</v>
+      </c>
+      <c r="D801" t="s">
+        <v>26</v>
+      </c>
+      <c r="E801" t="s">
+        <v>25</v>
+      </c>
+      <c r="F801" s="1">
+        <v>43924</v>
+      </c>
+      <c r="G801" t="s">
+        <v>10</v>
+      </c>
+      <c r="H801" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="802" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A802">
+        <v>800</v>
+      </c>
+      <c r="B802" s="2">
+        <v>43933</v>
+      </c>
+      <c r="C802">
+        <v>40</v>
+      </c>
+      <c r="D802" t="s">
+        <v>26</v>
+      </c>
+      <c r="E802" t="s">
+        <v>44</v>
+      </c>
+      <c r="F802" s="1">
+        <v>43922</v>
+      </c>
+      <c r="G802" t="s">
+        <v>10</v>
+      </c>
+      <c r="H802" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="803" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A803">
+        <v>801</v>
+      </c>
+      <c r="B803" s="2">
+        <v>43933</v>
+      </c>
+      <c r="C803">
+        <v>50</v>
+      </c>
+      <c r="D803" t="s">
+        <v>26</v>
+      </c>
+      <c r="E803" t="s">
+        <v>25</v>
+      </c>
+      <c r="F803" s="1">
+        <v>43928</v>
+      </c>
+      <c r="G803" t="s">
+        <v>10</v>
+      </c>
+      <c r="H803" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="804" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A804">
+        <v>802</v>
+      </c>
+      <c r="B804" s="2">
+        <v>43933</v>
+      </c>
+      <c r="C804">
+        <v>40</v>
+      </c>
+      <c r="D804" t="s">
+        <v>24</v>
+      </c>
+      <c r="E804" t="s">
+        <v>25</v>
+      </c>
+      <c r="F804" s="1">
+        <v>43924</v>
+      </c>
+      <c r="G804" t="s">
+        <v>10</v>
+      </c>
+      <c r="H804" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="805" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A805">
+        <v>803</v>
+      </c>
+      <c r="B805" s="2">
+        <v>43933</v>
+      </c>
+      <c r="C805">
+        <v>50</v>
+      </c>
+      <c r="D805" t="s">
+        <v>26</v>
+      </c>
+      <c r="E805" t="s">
+        <v>25</v>
+      </c>
+      <c r="F805" s="1">
+        <v>43929</v>
+      </c>
+      <c r="G805" t="s">
+        <v>10</v>
+      </c>
+      <c r="H805" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="806" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A806">
+        <v>804</v>
+      </c>
+      <c r="B806" s="2">
+        <v>43933</v>
+      </c>
+      <c r="C806">
+        <v>20</v>
+      </c>
+      <c r="D806" t="s">
+        <v>24</v>
+      </c>
+      <c r="E806" t="s">
+        <v>25</v>
+      </c>
+      <c r="F806" s="1">
+        <v>43927</v>
+      </c>
+      <c r="G806" t="s">
+        <v>10</v>
+      </c>
+      <c r="H806" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="807" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A807">
+        <v>805</v>
+      </c>
+      <c r="B807" s="2">
+        <v>43933</v>
+      </c>
+      <c r="C807">
+        <v>30</v>
+      </c>
+      <c r="D807" t="s">
+        <v>26</v>
+      </c>
+      <c r="E807" t="s">
+        <v>25</v>
+      </c>
+      <c r="F807" s="1">
+        <v>43927</v>
+      </c>
+      <c r="G807" t="s">
+        <v>10</v>
+      </c>
+      <c r="H807" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="808" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A808">
+        <v>806</v>
+      </c>
+      <c r="B808" s="2">
+        <v>43933</v>
+      </c>
+      <c r="C808">
+        <v>40</v>
+      </c>
+      <c r="D808" t="s">
+        <v>26</v>
+      </c>
+      <c r="E808" t="s">
+        <v>25</v>
+      </c>
+      <c r="F808" s="1">
+        <v>43926</v>
+      </c>
+      <c r="G808" t="s">
+        <v>10</v>
+      </c>
+      <c r="H808" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="809" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A809">
+        <v>807</v>
+      </c>
+      <c r="B809" s="2">
+        <v>43933</v>
+      </c>
+      <c r="C809">
+        <v>80</v>
+      </c>
+      <c r="D809" t="s">
+        <v>26</v>
+      </c>
+      <c r="E809" t="s">
+        <v>25</v>
+      </c>
+      <c r="F809" s="1">
+        <v>43922</v>
+      </c>
+      <c r="G809" t="s">
+        <v>11</v>
+      </c>
+      <c r="H809" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="810" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A810">
+        <v>808</v>
+      </c>
+      <c r="B810" s="2">
+        <v>43933</v>
+      </c>
+      <c r="C810">
+        <v>50</v>
+      </c>
+      <c r="D810" t="s">
+        <v>26</v>
+      </c>
+      <c r="E810" t="s">
+        <v>44</v>
+      </c>
+      <c r="F810" s="1">
+        <v>43927</v>
+      </c>
+      <c r="G810" t="s">
+        <v>10</v>
+      </c>
+      <c r="H810" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="811" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A811">
+        <v>809</v>
+      </c>
+      <c r="B811" s="2">
+        <v>43933</v>
+      </c>
+      <c r="C811">
+        <v>20</v>
+      </c>
+      <c r="D811" t="s">
+        <v>24</v>
+      </c>
+      <c r="E811" t="s">
+        <v>25</v>
+      </c>
+      <c r="F811" s="1">
+        <v>43922</v>
+      </c>
+      <c r="G811" t="s">
+        <v>10</v>
+      </c>
+      <c r="H811" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="812" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A812">
+        <v>810</v>
+      </c>
+      <c r="B812" s="2">
+        <v>43933</v>
+      </c>
+      <c r="C812">
+        <v>20</v>
+      </c>
+      <c r="D812" t="s">
+        <v>24</v>
+      </c>
+      <c r="E812" t="s">
+        <v>25</v>
+      </c>
+      <c r="F812" s="1">
+        <v>43922</v>
+      </c>
+      <c r="G812" t="s">
+        <v>10</v>
+      </c>
+      <c r="H812" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="813" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A813">
+        <v>811</v>
+      </c>
+      <c r="B813" s="2">
+        <v>43933</v>
+      </c>
+      <c r="C813">
+        <v>70</v>
+      </c>
+      <c r="D813" t="s">
+        <v>26</v>
+      </c>
+      <c r="E813" t="s">
+        <v>25</v>
+      </c>
+      <c r="F813" s="1">
+        <v>43928</v>
+      </c>
+      <c r="G813" t="s">
+        <v>10</v>
+      </c>
+      <c r="H813" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J78"/>
+  <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -16878,7 +21935,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="3">
-        <v>43930</v>
+        <v>43933</v>
       </c>
       <c r="B1" t="s">
         <v>61</v>
@@ -19104,7 +24161,7 @@
         <v>346</v>
       </c>
       <c r="E71">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F71">
         <v>2</v>
@@ -19136,7 +24193,7 @@
         <v>387</v>
       </c>
       <c r="E72">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F72">
         <v>1</v>
@@ -19168,7 +24225,7 @@
         <v>408</v>
       </c>
       <c r="E73">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F73">
         <v>2</v>
@@ -19200,7 +24257,7 @@
         <v>428</v>
       </c>
       <c r="E74">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F74">
         <v>4</v>
@@ -19232,7 +24289,7 @@
         <v>481</v>
       </c>
       <c r="E75">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F75">
         <v>2</v>
@@ -19264,7 +24321,7 @@
         <v>524</v>
       </c>
       <c r="E76">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -19296,7 +24353,7 @@
         <v>616</v>
       </c>
       <c r="E77">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -19314,23 +24371,119 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A78" s="4" t="s">
+    <row r="78" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B78">
+        <v>449</v>
+      </c>
+      <c r="C78">
+        <v>80</v>
+      </c>
+      <c r="D78">
+        <v>696</v>
+      </c>
+      <c r="E78">
+        <v>561</v>
+      </c>
+      <c r="F78">
+        <v>13</v>
+      </c>
+      <c r="G78">
+        <v>129</v>
+      </c>
+      <c r="H78">
+        <v>12</v>
+      </c>
+      <c r="I78">
+        <v>128</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="2">
+        <v>43932</v>
+      </c>
+      <c r="B79">
+        <v>427</v>
+      </c>
+      <c r="C79">
+        <v>70</v>
+      </c>
+      <c r="D79">
+        <v>766</v>
+      </c>
+      <c r="E79">
+        <v>619</v>
+      </c>
+      <c r="F79">
+        <v>12</v>
+      </c>
+      <c r="G79">
+        <v>141</v>
+      </c>
+      <c r="H79">
+        <v>9</v>
+      </c>
+      <c r="I79">
+        <v>137</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="2">
+        <v>43933</v>
+      </c>
+      <c r="B80">
+        <v>286</v>
+      </c>
+      <c r="C80">
+        <v>45</v>
+      </c>
+      <c r="D80">
+        <v>811</v>
+      </c>
+      <c r="E80">
+        <v>661</v>
+      </c>
+      <c r="F80">
+        <v>3</v>
+      </c>
+      <c r="G80">
+        <v>144</v>
+      </c>
+      <c r="H80">
+        <v>7</v>
+      </c>
+      <c r="I80">
+        <v>144</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A81" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B78">
-        <v>6197</v>
-      </c>
-      <c r="C78">
-        <v>616</v>
-      </c>
-      <c r="F78">
-        <v>116</v>
-      </c>
-      <c r="H78">
-        <v>116</v>
-      </c>
-      <c r="J78">
+      <c r="B81">
+        <v>7359</v>
+      </c>
+      <c r="C81">
+        <v>811</v>
+      </c>
+      <c r="F81">
+        <v>144</v>
+      </c>
+      <c r="H81">
+        <v>144</v>
+      </c>
+      <c r="J81">
         <v>6</v>
       </c>
     </row>

--- a/data/patients_and_inspections.xlsx
+++ b/data/patients_and_inspections.xlsx
@@ -5,17 +5,20 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\コロナ対策サイト\0413\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KawabataNaoa\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="465" windowWidth="33000" windowHeight="19155" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="2010" yWindow="465" windowWidth="33000" windowHeight="19155" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="【公開OK】ピポット集計" sheetId="1" r:id="rId1"/>
     <sheet name="【公開OK】府HP用(陽性者ベース)" sheetId="2" r:id="rId2"/>
     <sheet name="【公開OK】コロナサイト用（日付ベース）" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'【公開OK】府HP用(陽性者ベース)'!$A$2:$H$837</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3397" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3494" uniqueCount="81">
   <si>
     <t>（1）入退院の状況</t>
   </si>
@@ -261,6 +264,15 @@
     <t>富田林市</t>
   </si>
   <si>
+    <t>府外</t>
+  </si>
+  <si>
+    <t>自宅療養</t>
+  </si>
+  <si>
+    <t>4月初旬</t>
+  </si>
+  <si>
     <t>高石市</t>
     <rPh sb="0" eb="3">
       <t>タカイシシ</t>
@@ -272,11 +284,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>大阪市</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>大阪府外</t>
+    <t>―</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -658,7 +666,7 @@
   <dimension ref="A2:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -681,7 +689,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -689,7 +697,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>274</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
@@ -713,7 +721,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>811</v>
+        <v>835</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
@@ -734,7 +742,7 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <v>584</v>
+        <v>591</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
@@ -742,7 +750,7 @@
         <v>11</v>
       </c>
       <c r="B14">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
@@ -766,7 +774,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>137</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
@@ -774,7 +782,7 @@
         <v>7</v>
       </c>
       <c r="B18">
-        <v>811</v>
+        <v>835</v>
       </c>
     </row>
   </sheetData>
@@ -786,9 +794,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H813"/>
+  <dimension ref="A1:H837"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -797,7 +807,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="3">
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="B1" t="s">
         <v>61</v>
@@ -875,7 +885,7 @@
         <v>43881</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="H4" t="s">
         <v>3</v>
@@ -3605,10 +3615,10 @@
         <v>43904</v>
       </c>
       <c r="G109" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H109" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.4">
@@ -4232,7 +4242,7 @@
         <v>10</v>
       </c>
       <c r="H133" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.4">
@@ -5009,7 +5019,7 @@
         <v>43914</v>
       </c>
       <c r="G163" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H163" t="s">
         <v>3</v>
@@ -5139,7 +5149,7 @@
         <v>43909</v>
       </c>
       <c r="G168" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H168" t="s">
         <v>3</v>
@@ -5763,7 +5773,7 @@
         <v>41</v>
       </c>
       <c r="G192" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H192" t="s">
         <v>3</v>
@@ -6023,10 +6033,10 @@
         <v>43913</v>
       </c>
       <c r="G202" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H202" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.4">
@@ -6049,10 +6059,10 @@
         <v>43908</v>
       </c>
       <c r="G203" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H203" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.4">
@@ -6413,10 +6423,10 @@
         <v>43917</v>
       </c>
       <c r="G217" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H217" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.4">
@@ -6647,7 +6657,7 @@
         <v>43906</v>
       </c>
       <c r="G226" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H226" t="s">
         <v>3</v>
@@ -7924,7 +7934,7 @@
         <v>10</v>
       </c>
       <c r="H275" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.4">
@@ -8545,7 +8555,7 @@
         <v>43916</v>
       </c>
       <c r="G299" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H299" t="s">
         <v>3</v>
@@ -8574,7 +8584,7 @@
         <v>10</v>
       </c>
       <c r="H300" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.4">
@@ -9481,7 +9491,7 @@
         <v>43921</v>
       </c>
       <c r="G335" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H335" t="s">
         <v>3</v>
@@ -9507,7 +9517,7 @@
         <v>43921</v>
       </c>
       <c r="G336" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H336" t="s">
         <v>3</v>
@@ -9536,7 +9546,7 @@
         <v>10</v>
       </c>
       <c r="H337" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.4">
@@ -10524,7 +10534,7 @@
         <v>10</v>
       </c>
       <c r="H375" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.4">
@@ -10628,7 +10638,7 @@
         <v>10</v>
       </c>
       <c r="H379" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.4">
@@ -11009,7 +11019,7 @@
         <v>26</v>
       </c>
       <c r="E394" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F394" s="1">
         <v>43921</v>
@@ -11434,7 +11444,7 @@
         <v>10</v>
       </c>
       <c r="H410" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
     </row>
     <row r="411" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11685,7 +11695,7 @@
         <v>26</v>
       </c>
       <c r="E420" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F420" s="6">
         <v>43922</v>
@@ -11720,7 +11730,7 @@
         <v>10</v>
       </c>
       <c r="H421" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
     </row>
     <row r="422" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12734,7 +12744,7 @@
         <v>10</v>
       </c>
       <c r="H460" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.4">
@@ -14346,7 +14356,7 @@
         <v>10</v>
       </c>
       <c r="H522" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
     </row>
     <row r="523" spans="1:8" x14ac:dyDescent="0.4">
@@ -16452,7 +16462,7 @@
         <v>11</v>
       </c>
       <c r="H603" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="604" spans="1:8" x14ac:dyDescent="0.4">
@@ -16579,10 +16589,10 @@
         <v>43922</v>
       </c>
       <c r="G608" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H608" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
     </row>
     <row r="609" spans="1:8" x14ac:dyDescent="0.4">
@@ -17076,7 +17086,7 @@
         <v>11</v>
       </c>
       <c r="H627" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="628" spans="1:8" x14ac:dyDescent="0.4">
@@ -17128,7 +17138,7 @@
         <v>10</v>
       </c>
       <c r="H629" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
     </row>
     <row r="630" spans="1:8" x14ac:dyDescent="0.4">
@@ -17180,7 +17190,7 @@
         <v>10</v>
       </c>
       <c r="H631" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
     </row>
     <row r="632" spans="1:8" x14ac:dyDescent="0.4">
@@ -18558,7 +18568,7 @@
         <v>10</v>
       </c>
       <c r="H684" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
     </row>
     <row r="685" spans="1:8" x14ac:dyDescent="0.4">
@@ -19069,7 +19079,7 @@
         <v>24</v>
       </c>
       <c r="E704" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="F704" s="1">
         <v>43923</v>
@@ -19095,7 +19105,7 @@
         <v>26</v>
       </c>
       <c r="E705" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F705" s="1">
         <v>43921</v>
@@ -19702,7 +19712,7 @@
         <v>10</v>
       </c>
       <c r="H728" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="729" spans="1:8" x14ac:dyDescent="0.4">
@@ -19858,7 +19868,7 @@
         <v>10</v>
       </c>
       <c r="H734" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="735" spans="1:8" x14ac:dyDescent="0.4">
@@ -20170,7 +20180,7 @@
         <v>10</v>
       </c>
       <c r="H746" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="747" spans="1:8" x14ac:dyDescent="0.4">
@@ -20248,7 +20258,7 @@
         <v>10</v>
       </c>
       <c r="H749" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="750" spans="1:8" x14ac:dyDescent="0.4">
@@ -20456,7 +20466,7 @@
         <v>10</v>
       </c>
       <c r="H757" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="758" spans="1:8" x14ac:dyDescent="0.4">
@@ -20508,7 +20518,7 @@
         <v>10</v>
       </c>
       <c r="H759" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="760" spans="1:8" x14ac:dyDescent="0.4">
@@ -20638,7 +20648,7 @@
         <v>10</v>
       </c>
       <c r="H764" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="765" spans="1:8" x14ac:dyDescent="0.4">
@@ -21626,7 +21636,7 @@
         <v>10</v>
       </c>
       <c r="H802" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="803" spans="1:8" x14ac:dyDescent="0.4">
@@ -21652,7 +21662,7 @@
         <v>10</v>
       </c>
       <c r="H803" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="804" spans="1:8" x14ac:dyDescent="0.4">
@@ -21678,7 +21688,7 @@
         <v>10</v>
       </c>
       <c r="H804" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="805" spans="1:8" x14ac:dyDescent="0.4">
@@ -21915,18 +21925,644 @@
         <v>5</v>
       </c>
     </row>
+    <row r="814" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A814">
+        <v>812</v>
+      </c>
+      <c r="B814" s="2">
+        <v>43934</v>
+      </c>
+      <c r="C814">
+        <v>60</v>
+      </c>
+      <c r="D814" t="s">
+        <v>26</v>
+      </c>
+      <c r="E814" t="s">
+        <v>25</v>
+      </c>
+      <c r="F814" s="1">
+        <v>43924</v>
+      </c>
+      <c r="G814" t="s">
+        <v>11</v>
+      </c>
+      <c r="H814" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="815" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A815">
+        <v>813</v>
+      </c>
+      <c r="B815" s="2">
+        <v>43934</v>
+      </c>
+      <c r="C815">
+        <v>30</v>
+      </c>
+      <c r="D815" t="s">
+        <v>26</v>
+      </c>
+      <c r="E815" t="s">
+        <v>40</v>
+      </c>
+      <c r="F815" s="1">
+        <v>43925</v>
+      </c>
+      <c r="G815" t="s">
+        <v>10</v>
+      </c>
+      <c r="H815" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="816" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A816">
+        <v>814</v>
+      </c>
+      <c r="B816" s="2">
+        <v>43934</v>
+      </c>
+      <c r="C816">
+        <v>60</v>
+      </c>
+      <c r="D816" t="s">
+        <v>26</v>
+      </c>
+      <c r="E816" t="s">
+        <v>40</v>
+      </c>
+      <c r="F816" s="1">
+        <v>43923</v>
+      </c>
+      <c r="G816" t="s">
+        <v>10</v>
+      </c>
+      <c r="H816" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="817" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A817">
+        <v>815</v>
+      </c>
+      <c r="B817" s="2">
+        <v>43934</v>
+      </c>
+      <c r="C817">
+        <v>50</v>
+      </c>
+      <c r="D817" t="s">
+        <v>26</v>
+      </c>
+      <c r="E817" t="s">
+        <v>28</v>
+      </c>
+      <c r="F817" s="1">
+        <v>43926</v>
+      </c>
+      <c r="G817" t="s">
+        <v>10</v>
+      </c>
+      <c r="H817" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="818" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A818">
+        <v>816</v>
+      </c>
+      <c r="B818" s="2">
+        <v>43934</v>
+      </c>
+      <c r="C818">
+        <v>80</v>
+      </c>
+      <c r="D818" t="s">
+        <v>24</v>
+      </c>
+      <c r="E818" t="s">
+        <v>70</v>
+      </c>
+      <c r="F818" s="1">
+        <v>43932</v>
+      </c>
+      <c r="G818" t="s">
+        <v>10</v>
+      </c>
+      <c r="H818" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="819" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A819">
+        <v>817</v>
+      </c>
+      <c r="B819" s="2">
+        <v>43934</v>
+      </c>
+      <c r="C819">
+        <v>40</v>
+      </c>
+      <c r="D819" t="s">
+        <v>26</v>
+      </c>
+      <c r="E819" t="s">
+        <v>28</v>
+      </c>
+      <c r="F819" s="1">
+        <v>43926</v>
+      </c>
+      <c r="G819" t="s">
+        <v>10</v>
+      </c>
+      <c r="H819" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="820" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A820">
+        <v>818</v>
+      </c>
+      <c r="B820" s="2">
+        <v>43934</v>
+      </c>
+      <c r="C820">
+        <v>40</v>
+      </c>
+      <c r="D820" t="s">
+        <v>24</v>
+      </c>
+      <c r="E820" t="s">
+        <v>28</v>
+      </c>
+      <c r="F820" s="1">
+        <v>43922</v>
+      </c>
+      <c r="G820" t="s">
+        <v>10</v>
+      </c>
+      <c r="H820" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="821" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A821">
+        <v>819</v>
+      </c>
+      <c r="B821" s="2">
+        <v>43934</v>
+      </c>
+      <c r="C821">
+        <v>30</v>
+      </c>
+      <c r="D821" t="s">
+        <v>26</v>
+      </c>
+      <c r="E821" t="s">
+        <v>25</v>
+      </c>
+      <c r="F821" s="1">
+        <v>43928</v>
+      </c>
+      <c r="G821" t="s">
+        <v>10</v>
+      </c>
+      <c r="H821" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="822" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A822">
+        <v>820</v>
+      </c>
+      <c r="B822" s="2">
+        <v>43934</v>
+      </c>
+      <c r="C822">
+        <v>60</v>
+      </c>
+      <c r="D822" t="s">
+        <v>26</v>
+      </c>
+      <c r="E822" t="s">
+        <v>25</v>
+      </c>
+      <c r="F822" s="1">
+        <v>43929</v>
+      </c>
+      <c r="G822" t="s">
+        <v>10</v>
+      </c>
+      <c r="H822" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="823" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A823">
+        <v>821</v>
+      </c>
+      <c r="B823" s="2">
+        <v>43934</v>
+      </c>
+      <c r="C823">
+        <v>40</v>
+      </c>
+      <c r="D823" t="s">
+        <v>24</v>
+      </c>
+      <c r="E823" t="s">
+        <v>25</v>
+      </c>
+      <c r="F823" s="1">
+        <v>43932</v>
+      </c>
+      <c r="G823" t="s">
+        <v>10</v>
+      </c>
+      <c r="H823" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="824" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A824">
+        <v>822</v>
+      </c>
+      <c r="B824" s="2">
+        <v>43934</v>
+      </c>
+      <c r="C824">
+        <v>60</v>
+      </c>
+      <c r="D824" t="s">
+        <v>24</v>
+      </c>
+      <c r="E824" t="s">
+        <v>25</v>
+      </c>
+      <c r="F824" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G824" t="s">
+        <v>11</v>
+      </c>
+      <c r="H824" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="825" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A825">
+        <v>823</v>
+      </c>
+      <c r="B825" s="2">
+        <v>43934</v>
+      </c>
+      <c r="C825">
+        <v>60</v>
+      </c>
+      <c r="D825" t="s">
+        <v>26</v>
+      </c>
+      <c r="E825" t="s">
+        <v>25</v>
+      </c>
+      <c r="F825" s="1">
+        <v>43922</v>
+      </c>
+      <c r="G825" t="s">
+        <v>10</v>
+      </c>
+      <c r="H825" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="826" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A826">
+        <v>824</v>
+      </c>
+      <c r="B826" s="2">
+        <v>43934</v>
+      </c>
+      <c r="C826">
+        <v>20</v>
+      </c>
+      <c r="D826" t="s">
+        <v>24</v>
+      </c>
+      <c r="E826" t="s">
+        <v>25</v>
+      </c>
+      <c r="F826" s="1">
+        <v>43928</v>
+      </c>
+      <c r="G826" t="s">
+        <v>10</v>
+      </c>
+      <c r="H826" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="827" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A827">
+        <v>825</v>
+      </c>
+      <c r="B827" s="2">
+        <v>43934</v>
+      </c>
+      <c r="C827">
+        <v>60</v>
+      </c>
+      <c r="D827" t="s">
+        <v>24</v>
+      </c>
+      <c r="E827" t="s">
+        <v>45</v>
+      </c>
+      <c r="F827" s="1">
+        <v>43929</v>
+      </c>
+      <c r="G827" t="s">
+        <v>10</v>
+      </c>
+      <c r="H827" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="828" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A828">
+        <v>826</v>
+      </c>
+      <c r="B828" s="2">
+        <v>43934</v>
+      </c>
+      <c r="C828">
+        <v>40</v>
+      </c>
+      <c r="D828" t="s">
+        <v>26</v>
+      </c>
+      <c r="E828" t="s">
+        <v>45</v>
+      </c>
+      <c r="F828" s="1">
+        <v>43925</v>
+      </c>
+      <c r="G828" t="s">
+        <v>11</v>
+      </c>
+      <c r="H828" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="829" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A829">
+        <v>827</v>
+      </c>
+      <c r="B829" s="2">
+        <v>43934</v>
+      </c>
+      <c r="C829">
+        <v>40</v>
+      </c>
+      <c r="D829" t="s">
+        <v>24</v>
+      </c>
+      <c r="E829" t="s">
+        <v>35</v>
+      </c>
+      <c r="F829" s="1">
+        <v>43932</v>
+      </c>
+      <c r="G829" t="s">
+        <v>10</v>
+      </c>
+      <c r="H829" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="830" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A830">
+        <v>828</v>
+      </c>
+      <c r="B830" s="2">
+        <v>43934</v>
+      </c>
+      <c r="C830">
+        <v>30</v>
+      </c>
+      <c r="D830" t="s">
+        <v>24</v>
+      </c>
+      <c r="E830" t="s">
+        <v>46</v>
+      </c>
+      <c r="F830" s="1">
+        <v>43921</v>
+      </c>
+      <c r="G830" t="s">
+        <v>10</v>
+      </c>
+      <c r="H830" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="831" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A831">
+        <v>829</v>
+      </c>
+      <c r="B831" s="2">
+        <v>43934</v>
+      </c>
+      <c r="C831">
+        <v>50</v>
+      </c>
+      <c r="D831" t="s">
+        <v>24</v>
+      </c>
+      <c r="E831" t="s">
+        <v>46</v>
+      </c>
+      <c r="F831" s="1">
+        <v>43921</v>
+      </c>
+      <c r="G831" t="s">
+        <v>10</v>
+      </c>
+      <c r="H831" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="832" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A832">
+        <v>830</v>
+      </c>
+      <c r="B832" s="2">
+        <v>43934</v>
+      </c>
+      <c r="C832">
+        <v>50</v>
+      </c>
+      <c r="D832" t="s">
+        <v>26</v>
+      </c>
+      <c r="E832" t="s">
+        <v>29</v>
+      </c>
+      <c r="F832" s="1">
+        <v>43925</v>
+      </c>
+      <c r="G832" t="s">
+        <v>10</v>
+      </c>
+      <c r="H832" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="833" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A833">
+        <v>831</v>
+      </c>
+      <c r="B833" s="2">
+        <v>43934</v>
+      </c>
+      <c r="C833">
+        <v>20</v>
+      </c>
+      <c r="D833" t="s">
+        <v>26</v>
+      </c>
+      <c r="E833" t="s">
+        <v>25</v>
+      </c>
+      <c r="F833" s="1">
+        <v>43929</v>
+      </c>
+      <c r="G833" t="s">
+        <v>10</v>
+      </c>
+      <c r="H833" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="834" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A834">
+        <v>832</v>
+      </c>
+      <c r="B834" s="2">
+        <v>43934</v>
+      </c>
+      <c r="C834">
+        <v>50</v>
+      </c>
+      <c r="D834" t="s">
+        <v>26</v>
+      </c>
+      <c r="E834" t="s">
+        <v>48</v>
+      </c>
+      <c r="F834" s="1">
+        <v>43931</v>
+      </c>
+      <c r="G834" t="s">
+        <v>11</v>
+      </c>
+      <c r="H834" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="835" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A835">
+        <v>833</v>
+      </c>
+      <c r="B835" s="2">
+        <v>43934</v>
+      </c>
+      <c r="C835">
+        <v>60</v>
+      </c>
+      <c r="D835" t="s">
+        <v>26</v>
+      </c>
+      <c r="E835" t="s">
+        <v>45</v>
+      </c>
+      <c r="F835" s="1">
+        <v>43924</v>
+      </c>
+      <c r="G835" t="s">
+        <v>10</v>
+      </c>
+      <c r="H835" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="836" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A836">
+        <v>834</v>
+      </c>
+      <c r="B836" s="2">
+        <v>43934</v>
+      </c>
+      <c r="C836">
+        <v>50</v>
+      </c>
+      <c r="D836" t="s">
+        <v>26</v>
+      </c>
+      <c r="E836" t="s">
+        <v>35</v>
+      </c>
+      <c r="F836" s="1">
+        <v>43931</v>
+      </c>
+      <c r="G836" t="s">
+        <v>10</v>
+      </c>
+      <c r="H836" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="837" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A837">
+        <v>835</v>
+      </c>
+      <c r="B837" s="2">
+        <v>43934</v>
+      </c>
+      <c r="C837">
+        <v>60</v>
+      </c>
+      <c r="D837" t="s">
+        <v>26</v>
+      </c>
+      <c r="E837" t="s">
+        <v>25</v>
+      </c>
+      <c r="F837" s="1">
+        <v>43928</v>
+      </c>
+      <c r="G837" t="s">
+        <v>11</v>
+      </c>
+      <c r="H837" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A2:H837"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J81"/>
+  <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -21935,7 +22571,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="3">
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="B1" t="s">
         <v>61</v>
@@ -24467,23 +25103,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A81" s="4" t="s">
+    <row r="81" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="2">
+        <v>43934</v>
+      </c>
+      <c r="B81">
+        <v>142</v>
+      </c>
+      <c r="C81">
+        <v>24</v>
+      </c>
+      <c r="D81">
+        <v>835</v>
+      </c>
+      <c r="E81">
+        <v>681</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>148</v>
+      </c>
+      <c r="H81">
+        <v>4</v>
+      </c>
+      <c r="I81">
+        <v>148</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A82" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B81">
-        <v>7359</v>
-      </c>
-      <c r="C81">
-        <v>811</v>
-      </c>
-      <c r="F81">
-        <v>144</v>
-      </c>
-      <c r="H81">
-        <v>144</v>
-      </c>
-      <c r="J81">
+      <c r="B82">
+        <v>7501</v>
+      </c>
+      <c r="C82">
+        <v>835</v>
+      </c>
+      <c r="F82">
+        <v>148</v>
+      </c>
+      <c r="H82">
+        <v>148</v>
+      </c>
+      <c r="J82">
         <v>6</v>
       </c>
     </row>

--- a/data/patients_and_inspections.xlsx
+++ b/data/patients_and_inspections.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KawabataNaoa\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.19.163.21\share\企画\020_部局・各課懸案\新型コロナ肺炎\コロナサイト立ち上げ\更新用データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2010" yWindow="465" windowWidth="33000" windowHeight="19155" activeTab="1"/>
+    <workbookView xWindow="2010" yWindow="465" windowWidth="33000" windowHeight="19155"/>
   </bookViews>
   <sheets>
     <sheet name="【公開OK】ピポット集計" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3494" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3742" uniqueCount="81">
   <si>
     <t>（1）入退院の状況</t>
   </si>
@@ -264,27 +264,25 @@
     <t>富田林市</t>
   </si>
   <si>
-    <t>府外</t>
-  </si>
-  <si>
     <t>自宅療養</t>
   </si>
   <si>
     <t>4月初旬</t>
   </si>
   <si>
+    <t>宿泊療養</t>
+  </si>
+  <si>
+    <t>4月初め</t>
+  </si>
+  <si>
+    <t>阪南市</t>
+  </si>
+  <si>
     <t>高石市</t>
     <rPh sb="0" eb="3">
       <t>タカイシシ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>堺市</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>―</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -665,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -689,7 +687,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>148</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -697,7 +695,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
@@ -705,7 +703,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>387</v>
+        <v>432</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
@@ -713,7 +711,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
@@ -721,7 +719,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>835</v>
+        <v>894</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
@@ -742,7 +740,7 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <v>591</v>
+        <v>631</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
@@ -750,7 +748,7 @@
         <v>11</v>
       </c>
       <c r="B14">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
@@ -758,7 +756,7 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
@@ -766,7 +764,7 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
@@ -774,7 +772,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>148</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
@@ -782,7 +780,7 @@
         <v>7</v>
       </c>
       <c r="B18">
-        <v>835</v>
+        <v>894</v>
       </c>
     </row>
   </sheetData>
@@ -794,10 +792,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H837"/>
+  <dimension ref="A1:H896"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E394" sqref="E394"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -807,7 +805,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="3">
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="B1" t="s">
         <v>61</v>
@@ -885,7 +883,7 @@
         <v>43881</v>
       </c>
       <c r="G4" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
         <v>3</v>
@@ -3306,7 +3304,7 @@
         <v>10</v>
       </c>
       <c r="H97" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.4">
@@ -4242,7 +4240,7 @@
         <v>10</v>
       </c>
       <c r="H133" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.4">
@@ -5071,10 +5069,10 @@
         <v>43912</v>
       </c>
       <c r="G165" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H165" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.4">
@@ -5305,10 +5303,10 @@
         <v>43909</v>
       </c>
       <c r="G174" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H174" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.4">
@@ -5539,10 +5537,10 @@
         <v>43913</v>
       </c>
       <c r="G183" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H183" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.4">
@@ -5672,7 +5670,7 @@
         <v>11</v>
       </c>
       <c r="H188" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.4">
@@ -5828,7 +5826,7 @@
         <v>10</v>
       </c>
       <c r="H194" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.4">
@@ -6215,10 +6213,10 @@
         <v>43911</v>
       </c>
       <c r="G209" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H209" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.4">
@@ -6270,7 +6268,7 @@
         <v>10</v>
       </c>
       <c r="H211" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.4">
@@ -6296,7 +6294,7 @@
         <v>10</v>
       </c>
       <c r="H212" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.4">
@@ -6608,7 +6606,7 @@
         <v>10</v>
       </c>
       <c r="H224" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.4">
@@ -6686,7 +6684,7 @@
         <v>10</v>
       </c>
       <c r="H227" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.4">
@@ -6735,10 +6733,10 @@
         <v>43908</v>
       </c>
       <c r="G229" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H229" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.4">
@@ -7076,7 +7074,7 @@
         <v>10</v>
       </c>
       <c r="H242" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.4">
@@ -7359,10 +7357,10 @@
         <v>57</v>
       </c>
       <c r="G253" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H253" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.4">
@@ -7414,7 +7412,7 @@
         <v>12</v>
       </c>
       <c r="H255" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.4">
@@ -7463,10 +7461,10 @@
         <v>57</v>
       </c>
       <c r="G257" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H257" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.4">
@@ -7492,7 +7490,7 @@
         <v>12</v>
       </c>
       <c r="H258" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.4">
@@ -7515,10 +7513,10 @@
         <v>57</v>
       </c>
       <c r="G259" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H259" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.4">
@@ -7544,7 +7542,7 @@
         <v>12</v>
       </c>
       <c r="H260" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.4">
@@ -7570,7 +7568,7 @@
         <v>12</v>
       </c>
       <c r="H261" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.4">
@@ -7596,7 +7594,7 @@
         <v>12</v>
       </c>
       <c r="H262" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.4">
@@ -7622,7 +7620,7 @@
         <v>12</v>
       </c>
       <c r="H263" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.4">
@@ -7648,7 +7646,7 @@
         <v>12</v>
       </c>
       <c r="H264" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.4">
@@ -7674,7 +7672,7 @@
         <v>12</v>
       </c>
       <c r="H265" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.4">
@@ -7700,7 +7698,7 @@
         <v>12</v>
       </c>
       <c r="H266" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.4">
@@ -7726,7 +7724,7 @@
         <v>12</v>
       </c>
       <c r="H267" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.4">
@@ -7934,7 +7932,7 @@
         <v>10</v>
       </c>
       <c r="H275" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.4">
@@ -7983,10 +7981,10 @@
         <v>43915</v>
       </c>
       <c r="G277" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H277" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.4">
@@ -8087,10 +8085,10 @@
         <v>43921</v>
       </c>
       <c r="G281" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H281" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.4">
@@ -8243,10 +8241,10 @@
         <v>43915</v>
       </c>
       <c r="G287" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H287" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.4">
@@ -8295,10 +8293,10 @@
         <v>43919</v>
       </c>
       <c r="G289" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H289" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.4">
@@ -8584,7 +8582,7 @@
         <v>10</v>
       </c>
       <c r="H300" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.4">
@@ -8607,10 +8605,10 @@
         <v>43911</v>
       </c>
       <c r="G301" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H301" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.4">
@@ -8766,7 +8764,7 @@
         <v>12</v>
       </c>
       <c r="H307" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.4">
@@ -9546,7 +9544,7 @@
         <v>10</v>
       </c>
       <c r="H337" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.4">
@@ -9598,7 +9596,7 @@
         <v>10</v>
       </c>
       <c r="H339" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.4">
@@ -10534,7 +10532,7 @@
         <v>10</v>
       </c>
       <c r="H375" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.4">
@@ -10560,7 +10558,7 @@
         <v>10</v>
       </c>
       <c r="H376" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.4">
@@ -10638,7 +10636,7 @@
         <v>10</v>
       </c>
       <c r="H379" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.4">
@@ -10947,10 +10945,10 @@
         <v>43916</v>
       </c>
       <c r="G391" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H391" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.4">
@@ -11019,7 +11017,7 @@
         <v>26</v>
       </c>
       <c r="E394" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F394" s="1">
         <v>43921</v>
@@ -11444,7 +11442,7 @@
         <v>10</v>
       </c>
       <c r="H410" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="411" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11695,7 +11693,7 @@
         <v>26</v>
       </c>
       <c r="E420" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="F420" s="6">
         <v>43922</v>
@@ -11730,7 +11728,7 @@
         <v>10</v>
       </c>
       <c r="H421" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="422" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12117,10 +12115,10 @@
         <v>43920</v>
       </c>
       <c r="G436" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H436" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="437" spans="1:8" x14ac:dyDescent="0.4">
@@ -12640,7 +12638,7 @@
         <v>10</v>
       </c>
       <c r="H456" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.4">
@@ -12744,7 +12742,7 @@
         <v>10</v>
       </c>
       <c r="H460" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.4">
@@ -13079,10 +13077,10 @@
         <v>43920</v>
       </c>
       <c r="G473" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H473" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="474" spans="1:8" x14ac:dyDescent="0.4">
@@ -13183,10 +13181,10 @@
         <v>43916</v>
       </c>
       <c r="G477" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H477" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="478" spans="1:8" x14ac:dyDescent="0.4">
@@ -14356,7 +14354,7 @@
         <v>10</v>
       </c>
       <c r="H522" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="523" spans="1:8" x14ac:dyDescent="0.4">
@@ -15627,10 +15625,10 @@
         <v>43927</v>
       </c>
       <c r="G571" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H571" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="572" spans="1:8" x14ac:dyDescent="0.4">
@@ -16098,7 +16096,7 @@
         <v>10</v>
       </c>
       <c r="H589" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
     </row>
     <row r="590" spans="1:8" x14ac:dyDescent="0.4">
@@ -16589,10 +16587,10 @@
         <v>43922</v>
       </c>
       <c r="G608" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H608" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="609" spans="1:8" x14ac:dyDescent="0.4">
@@ -17138,7 +17136,7 @@
         <v>10</v>
       </c>
       <c r="H629" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="630" spans="1:8" x14ac:dyDescent="0.4">
@@ -17190,7 +17188,7 @@
         <v>10</v>
       </c>
       <c r="H631" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="632" spans="1:8" x14ac:dyDescent="0.4">
@@ -18397,16 +18395,16 @@
         <v>43931</v>
       </c>
       <c r="C678">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D678" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E678" t="s">
         <v>25</v>
       </c>
       <c r="F678" s="1">
-        <v>43920</v>
+        <v>43925</v>
       </c>
       <c r="G678" t="s">
         <v>10</v>
@@ -18568,7 +18566,7 @@
         <v>10</v>
       </c>
       <c r="H684" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="685" spans="1:8" x14ac:dyDescent="0.4">
@@ -19105,7 +19103,7 @@
         <v>26</v>
       </c>
       <c r="E705" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="F705" s="1">
         <v>43921</v>
@@ -21116,7 +21114,7 @@
         <v>10</v>
       </c>
       <c r="H782" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="783" spans="1:8" x14ac:dyDescent="0.4">
@@ -22202,7 +22200,7 @@
         <v>25</v>
       </c>
       <c r="F824" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G824" t="s">
         <v>11</v>
@@ -22546,6 +22544,1540 @@
         <v>11</v>
       </c>
       <c r="H837" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="838" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A838">
+        <v>836</v>
+      </c>
+      <c r="B838" s="2">
+        <v>43935</v>
+      </c>
+      <c r="C838">
+        <v>30</v>
+      </c>
+      <c r="D838" t="s">
+        <v>26</v>
+      </c>
+      <c r="E838" t="s">
+        <v>25</v>
+      </c>
+      <c r="F838" s="1">
+        <v>43923</v>
+      </c>
+      <c r="G838" t="s">
+        <v>10</v>
+      </c>
+      <c r="H838" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="839" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A839">
+        <v>837</v>
+      </c>
+      <c r="B839" s="2">
+        <v>43935</v>
+      </c>
+      <c r="C839">
+        <v>40</v>
+      </c>
+      <c r="D839" t="s">
+        <v>26</v>
+      </c>
+      <c r="E839" t="s">
+        <v>25</v>
+      </c>
+      <c r="F839" s="1">
+        <v>43923</v>
+      </c>
+      <c r="G839" t="s">
+        <v>10</v>
+      </c>
+      <c r="H839" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="840" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A840">
+        <v>838</v>
+      </c>
+      <c r="B840" s="2">
+        <v>43935</v>
+      </c>
+      <c r="C840">
+        <v>30</v>
+      </c>
+      <c r="D840" t="s">
+        <v>24</v>
+      </c>
+      <c r="E840" t="s">
+        <v>25</v>
+      </c>
+      <c r="F840" s="1">
+        <v>43922</v>
+      </c>
+      <c r="G840" t="s">
+        <v>10</v>
+      </c>
+      <c r="H840" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="841" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A841">
+        <v>839</v>
+      </c>
+      <c r="B841" s="2">
+        <v>43935</v>
+      </c>
+      <c r="C841">
+        <v>30</v>
+      </c>
+      <c r="D841" t="s">
+        <v>26</v>
+      </c>
+      <c r="E841" t="s">
+        <v>25</v>
+      </c>
+      <c r="F841" s="1">
+        <v>43921</v>
+      </c>
+      <c r="G841" t="s">
+        <v>10</v>
+      </c>
+      <c r="H841" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="842" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A842">
+        <v>840</v>
+      </c>
+      <c r="B842" s="2">
+        <v>43935</v>
+      </c>
+      <c r="C842">
+        <v>20</v>
+      </c>
+      <c r="D842" t="s">
+        <v>26</v>
+      </c>
+      <c r="E842" t="s">
+        <v>25</v>
+      </c>
+      <c r="F842" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G842" t="s">
+        <v>10</v>
+      </c>
+      <c r="H842" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="843" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A843">
+        <v>841</v>
+      </c>
+      <c r="B843" s="2">
+        <v>43935</v>
+      </c>
+      <c r="C843">
+        <v>70</v>
+      </c>
+      <c r="D843" t="s">
+        <v>24</v>
+      </c>
+      <c r="E843" t="s">
+        <v>25</v>
+      </c>
+      <c r="F843" s="1">
+        <v>43929</v>
+      </c>
+      <c r="G843" t="s">
+        <v>10</v>
+      </c>
+      <c r="H843" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="844" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A844">
+        <v>842</v>
+      </c>
+      <c r="B844" s="2">
+        <v>43935</v>
+      </c>
+      <c r="C844">
+        <v>20</v>
+      </c>
+      <c r="D844" t="s">
+        <v>24</v>
+      </c>
+      <c r="E844" t="s">
+        <v>25</v>
+      </c>
+      <c r="F844" s="1">
+        <v>43934</v>
+      </c>
+      <c r="G844" t="s">
+        <v>10</v>
+      </c>
+      <c r="H844" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="845" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A845">
+        <v>843</v>
+      </c>
+      <c r="B845" s="2">
+        <v>43935</v>
+      </c>
+      <c r="C845">
+        <v>20</v>
+      </c>
+      <c r="D845" t="s">
+        <v>24</v>
+      </c>
+      <c r="E845" t="s">
+        <v>25</v>
+      </c>
+      <c r="F845" s="1">
+        <v>43928</v>
+      </c>
+      <c r="G845" t="s">
+        <v>10</v>
+      </c>
+      <c r="H845" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="846" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A846">
+        <v>844</v>
+      </c>
+      <c r="B846" s="2">
+        <v>43935</v>
+      </c>
+      <c r="C846">
+        <v>50</v>
+      </c>
+      <c r="D846" t="s">
+        <v>26</v>
+      </c>
+      <c r="E846" t="s">
+        <v>25</v>
+      </c>
+      <c r="F846" s="1">
+        <v>43921</v>
+      </c>
+      <c r="G846" t="s">
+        <v>10</v>
+      </c>
+      <c r="H846" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="847" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A847">
+        <v>845</v>
+      </c>
+      <c r="B847" s="2">
+        <v>43935</v>
+      </c>
+      <c r="C847">
+        <v>40</v>
+      </c>
+      <c r="D847" t="s">
+        <v>26</v>
+      </c>
+      <c r="E847" t="s">
+        <v>25</v>
+      </c>
+      <c r="F847" s="1">
+        <v>43924</v>
+      </c>
+      <c r="G847" t="s">
+        <v>10</v>
+      </c>
+      <c r="H847" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="848" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A848">
+        <v>846</v>
+      </c>
+      <c r="B848" s="2">
+        <v>43935</v>
+      </c>
+      <c r="C848">
+        <v>20</v>
+      </c>
+      <c r="D848" t="s">
+        <v>24</v>
+      </c>
+      <c r="E848" t="s">
+        <v>25</v>
+      </c>
+      <c r="F848" s="1">
+        <v>43933</v>
+      </c>
+      <c r="G848" t="s">
+        <v>10</v>
+      </c>
+      <c r="H848" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="849" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A849">
+        <v>847</v>
+      </c>
+      <c r="B849" s="2">
+        <v>43935</v>
+      </c>
+      <c r="C849">
+        <v>30</v>
+      </c>
+      <c r="D849" t="s">
+        <v>26</v>
+      </c>
+      <c r="E849" t="s">
+        <v>25</v>
+      </c>
+      <c r="F849" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G849" t="s">
+        <v>10</v>
+      </c>
+      <c r="H849" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="850" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A850">
+        <v>848</v>
+      </c>
+      <c r="B850" s="2">
+        <v>43935</v>
+      </c>
+      <c r="C850">
+        <v>20</v>
+      </c>
+      <c r="D850" t="s">
+        <v>24</v>
+      </c>
+      <c r="E850" t="s">
+        <v>25</v>
+      </c>
+      <c r="F850" s="1">
+        <v>43927</v>
+      </c>
+      <c r="G850" t="s">
+        <v>10</v>
+      </c>
+      <c r="H850" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="851" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A851">
+        <v>849</v>
+      </c>
+      <c r="B851" s="2">
+        <v>43935</v>
+      </c>
+      <c r="C851">
+        <v>40</v>
+      </c>
+      <c r="D851" t="s">
+        <v>26</v>
+      </c>
+      <c r="E851" t="s">
+        <v>25</v>
+      </c>
+      <c r="F851" s="1">
+        <v>43926</v>
+      </c>
+      <c r="G851" t="s">
+        <v>10</v>
+      </c>
+      <c r="H851" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="852" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A852">
+        <v>850</v>
+      </c>
+      <c r="B852" s="2">
+        <v>43935</v>
+      </c>
+      <c r="C852">
+        <v>20</v>
+      </c>
+      <c r="D852" t="s">
+        <v>26</v>
+      </c>
+      <c r="E852" t="s">
+        <v>25</v>
+      </c>
+      <c r="F852" s="1">
+        <v>43932</v>
+      </c>
+      <c r="G852" t="s">
+        <v>10</v>
+      </c>
+      <c r="H852" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="853" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A853">
+        <v>851</v>
+      </c>
+      <c r="B853" s="2">
+        <v>43935</v>
+      </c>
+      <c r="C853">
+        <v>50</v>
+      </c>
+      <c r="D853" t="s">
+        <v>24</v>
+      </c>
+      <c r="E853" t="s">
+        <v>25</v>
+      </c>
+      <c r="F853" s="1">
+        <v>43931</v>
+      </c>
+      <c r="G853" t="s">
+        <v>10</v>
+      </c>
+      <c r="H853" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="854" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A854">
+        <v>852</v>
+      </c>
+      <c r="B854" s="2">
+        <v>43935</v>
+      </c>
+      <c r="C854">
+        <v>80</v>
+      </c>
+      <c r="D854" t="s">
+        <v>26</v>
+      </c>
+      <c r="E854" t="s">
+        <v>25</v>
+      </c>
+      <c r="F854" s="1">
+        <v>43931</v>
+      </c>
+      <c r="G854" t="s">
+        <v>10</v>
+      </c>
+      <c r="H854" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="855" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A855">
+        <v>853</v>
+      </c>
+      <c r="B855" s="2">
+        <v>43935</v>
+      </c>
+      <c r="C855">
+        <v>70</v>
+      </c>
+      <c r="D855" t="s">
+        <v>24</v>
+      </c>
+      <c r="E855" t="s">
+        <v>25</v>
+      </c>
+      <c r="F855" s="1">
+        <v>43933</v>
+      </c>
+      <c r="G855" t="s">
+        <v>10</v>
+      </c>
+      <c r="H855" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="856" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A856">
+        <v>854</v>
+      </c>
+      <c r="B856" s="2">
+        <v>43935</v>
+      </c>
+      <c r="C856">
+        <v>50</v>
+      </c>
+      <c r="D856" t="s">
+        <v>24</v>
+      </c>
+      <c r="E856" t="s">
+        <v>43</v>
+      </c>
+      <c r="F856" s="1">
+        <v>43932</v>
+      </c>
+      <c r="G856" t="s">
+        <v>10</v>
+      </c>
+      <c r="H856" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="857" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A857">
+        <v>855</v>
+      </c>
+      <c r="B857" s="2">
+        <v>43935</v>
+      </c>
+      <c r="C857">
+        <v>50</v>
+      </c>
+      <c r="D857" t="s">
+        <v>24</v>
+      </c>
+      <c r="E857" t="s">
+        <v>43</v>
+      </c>
+      <c r="F857" s="1">
+        <v>43928</v>
+      </c>
+      <c r="G857" t="s">
+        <v>10</v>
+      </c>
+      <c r="H857" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="858" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A858">
+        <v>856</v>
+      </c>
+      <c r="B858" s="2">
+        <v>43935</v>
+      </c>
+      <c r="C858">
+        <v>50</v>
+      </c>
+      <c r="D858" t="s">
+        <v>24</v>
+      </c>
+      <c r="E858" t="s">
+        <v>46</v>
+      </c>
+      <c r="F858" s="1">
+        <v>43929</v>
+      </c>
+      <c r="G858" t="s">
+        <v>10</v>
+      </c>
+      <c r="H858" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="859" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A859">
+        <v>857</v>
+      </c>
+      <c r="B859" s="2">
+        <v>43935</v>
+      </c>
+      <c r="C859">
+        <v>30</v>
+      </c>
+      <c r="D859" t="s">
+        <v>24</v>
+      </c>
+      <c r="E859" t="s">
+        <v>46</v>
+      </c>
+      <c r="F859" s="1">
+        <v>43931</v>
+      </c>
+      <c r="G859" t="s">
+        <v>10</v>
+      </c>
+      <c r="H859" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="860" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A860">
+        <v>858</v>
+      </c>
+      <c r="B860" s="2">
+        <v>43935</v>
+      </c>
+      <c r="C860">
+        <v>50</v>
+      </c>
+      <c r="D860" t="s">
+        <v>26</v>
+      </c>
+      <c r="E860" t="s">
+        <v>50</v>
+      </c>
+      <c r="F860" s="1">
+        <v>43925</v>
+      </c>
+      <c r="G860" t="s">
+        <v>10</v>
+      </c>
+      <c r="H860" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="861" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A861">
+        <v>859</v>
+      </c>
+      <c r="B861" s="2">
+        <v>43935</v>
+      </c>
+      <c r="C861">
+        <v>20</v>
+      </c>
+      <c r="D861" t="s">
+        <v>24</v>
+      </c>
+      <c r="E861" t="s">
+        <v>37</v>
+      </c>
+      <c r="F861" s="1">
+        <v>43931</v>
+      </c>
+      <c r="G861" t="s">
+        <v>10</v>
+      </c>
+      <c r="H861" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="862" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A862">
+        <v>860</v>
+      </c>
+      <c r="B862" s="2">
+        <v>43935</v>
+      </c>
+      <c r="C862">
+        <v>20</v>
+      </c>
+      <c r="D862" t="s">
+        <v>24</v>
+      </c>
+      <c r="E862" t="s">
+        <v>25</v>
+      </c>
+      <c r="F862" s="1">
+        <v>43920</v>
+      </c>
+      <c r="G862" t="s">
+        <v>10</v>
+      </c>
+      <c r="H862" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="863" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A863">
+        <v>861</v>
+      </c>
+      <c r="B863" s="2">
+        <v>43935</v>
+      </c>
+      <c r="C863">
+        <v>60</v>
+      </c>
+      <c r="D863" t="s">
+        <v>24</v>
+      </c>
+      <c r="E863" t="s">
+        <v>25</v>
+      </c>
+      <c r="F863" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G863" t="s">
+        <v>10</v>
+      </c>
+      <c r="H863" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="864" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A864">
+        <v>862</v>
+      </c>
+      <c r="B864" s="2">
+        <v>43935</v>
+      </c>
+      <c r="C864">
+        <v>30</v>
+      </c>
+      <c r="D864" t="s">
+        <v>26</v>
+      </c>
+      <c r="E864" t="s">
+        <v>25</v>
+      </c>
+      <c r="F864" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G864" t="s">
+        <v>10</v>
+      </c>
+      <c r="H864" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="865" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A865">
+        <v>863</v>
+      </c>
+      <c r="B865" s="2">
+        <v>43935</v>
+      </c>
+      <c r="C865">
+        <v>80</v>
+      </c>
+      <c r="D865" t="s">
+        <v>24</v>
+      </c>
+      <c r="E865" t="s">
+        <v>25</v>
+      </c>
+      <c r="F865" s="1">
+        <v>43930</v>
+      </c>
+      <c r="G865" t="s">
+        <v>10</v>
+      </c>
+      <c r="H865" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="866" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A866">
+        <v>864</v>
+      </c>
+      <c r="B866" s="2">
+        <v>43935</v>
+      </c>
+      <c r="C866">
+        <v>20</v>
+      </c>
+      <c r="D866" t="s">
+        <v>26</v>
+      </c>
+      <c r="E866" t="s">
+        <v>25</v>
+      </c>
+      <c r="F866" s="1">
+        <v>43924</v>
+      </c>
+      <c r="G866" t="s">
+        <v>10</v>
+      </c>
+      <c r="H866" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="867" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A867">
+        <v>865</v>
+      </c>
+      <c r="B867" s="2">
+        <v>43935</v>
+      </c>
+      <c r="C867">
+        <v>20</v>
+      </c>
+      <c r="D867" t="s">
+        <v>26</v>
+      </c>
+      <c r="E867" t="s">
+        <v>25</v>
+      </c>
+      <c r="F867" s="1">
+        <v>43924</v>
+      </c>
+      <c r="G867" t="s">
+        <v>10</v>
+      </c>
+      <c r="H867" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="868" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A868">
+        <v>866</v>
+      </c>
+      <c r="B868" s="2">
+        <v>43935</v>
+      </c>
+      <c r="C868">
+        <v>70</v>
+      </c>
+      <c r="D868" t="s">
+        <v>26</v>
+      </c>
+      <c r="E868" t="s">
+        <v>25</v>
+      </c>
+      <c r="F868" s="1">
+        <v>43927</v>
+      </c>
+      <c r="G868" t="s">
+        <v>11</v>
+      </c>
+      <c r="H868" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="869" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A869">
+        <v>867</v>
+      </c>
+      <c r="B869" s="2">
+        <v>43935</v>
+      </c>
+      <c r="C869">
+        <v>70</v>
+      </c>
+      <c r="D869" t="s">
+        <v>24</v>
+      </c>
+      <c r="E869" t="s">
+        <v>25</v>
+      </c>
+      <c r="F869" s="1">
+        <v>43931</v>
+      </c>
+      <c r="G869" t="s">
+        <v>10</v>
+      </c>
+      <c r="H869" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="870" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A870">
+        <v>868</v>
+      </c>
+      <c r="B870" s="2">
+        <v>43935</v>
+      </c>
+      <c r="C870">
+        <v>20</v>
+      </c>
+      <c r="D870" t="s">
+        <v>26</v>
+      </c>
+      <c r="E870" t="s">
+        <v>25</v>
+      </c>
+      <c r="F870" s="1">
+        <v>43922</v>
+      </c>
+      <c r="G870" t="s">
+        <v>10</v>
+      </c>
+      <c r="H870" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="871" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A871">
+        <v>869</v>
+      </c>
+      <c r="B871" s="2">
+        <v>43935</v>
+      </c>
+      <c r="C871">
+        <v>50</v>
+      </c>
+      <c r="D871" t="s">
+        <v>24</v>
+      </c>
+      <c r="E871" t="s">
+        <v>25</v>
+      </c>
+      <c r="F871" s="1">
+        <v>43922</v>
+      </c>
+      <c r="G871" t="s">
+        <v>10</v>
+      </c>
+      <c r="H871" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="872" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A872">
+        <v>870</v>
+      </c>
+      <c r="B872" s="2">
+        <v>43935</v>
+      </c>
+      <c r="C872">
+        <v>80</v>
+      </c>
+      <c r="D872" t="s">
+        <v>26</v>
+      </c>
+      <c r="E872" t="s">
+        <v>25</v>
+      </c>
+      <c r="F872" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G872" t="s">
+        <v>10</v>
+      </c>
+      <c r="H872" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="873" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A873">
+        <v>871</v>
+      </c>
+      <c r="B873" s="2">
+        <v>43935</v>
+      </c>
+      <c r="C873">
+        <v>20</v>
+      </c>
+      <c r="D873" t="s">
+        <v>24</v>
+      </c>
+      <c r="E873" t="s">
+        <v>25</v>
+      </c>
+      <c r="F873" s="1">
+        <v>43924</v>
+      </c>
+      <c r="G873" t="s">
+        <v>11</v>
+      </c>
+      <c r="H873" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="874" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A874">
+        <v>872</v>
+      </c>
+      <c r="B874" s="2">
+        <v>43935</v>
+      </c>
+      <c r="C874">
+        <v>30</v>
+      </c>
+      <c r="D874" t="s">
+        <v>24</v>
+      </c>
+      <c r="E874" t="s">
+        <v>25</v>
+      </c>
+      <c r="F874" s="1">
+        <v>43928</v>
+      </c>
+      <c r="G874" t="s">
+        <v>10</v>
+      </c>
+      <c r="H874" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="875" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A875">
+        <v>873</v>
+      </c>
+      <c r="B875" s="2">
+        <v>43935</v>
+      </c>
+      <c r="C875">
+        <v>70</v>
+      </c>
+      <c r="D875" t="s">
+        <v>24</v>
+      </c>
+      <c r="E875" t="s">
+        <v>25</v>
+      </c>
+      <c r="F875" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G875" t="s">
+        <v>10</v>
+      </c>
+      <c r="H875" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="876" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A876">
+        <v>874</v>
+      </c>
+      <c r="B876" s="2">
+        <v>43935</v>
+      </c>
+      <c r="C876">
+        <v>70</v>
+      </c>
+      <c r="D876" t="s">
+        <v>26</v>
+      </c>
+      <c r="E876" t="s">
+        <v>25</v>
+      </c>
+      <c r="F876" s="1">
+        <v>43931</v>
+      </c>
+      <c r="G876" t="s">
+        <v>10</v>
+      </c>
+      <c r="H876" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="877" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A877">
+        <v>875</v>
+      </c>
+      <c r="B877" s="2">
+        <v>43935</v>
+      </c>
+      <c r="C877">
+        <v>60</v>
+      </c>
+      <c r="D877" t="s">
+        <v>24</v>
+      </c>
+      <c r="E877" t="s">
+        <v>25</v>
+      </c>
+      <c r="F877" s="1">
+        <v>43929</v>
+      </c>
+      <c r="G877" t="s">
+        <v>10</v>
+      </c>
+      <c r="H877" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="878" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A878">
+        <v>876</v>
+      </c>
+      <c r="B878" s="2">
+        <v>43935</v>
+      </c>
+      <c r="C878">
+        <v>50</v>
+      </c>
+      <c r="D878" t="s">
+        <v>26</v>
+      </c>
+      <c r="E878" t="s">
+        <v>35</v>
+      </c>
+      <c r="F878" s="1">
+        <v>43922</v>
+      </c>
+      <c r="G878" t="s">
+        <v>10</v>
+      </c>
+      <c r="H878" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="879" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A879">
+        <v>877</v>
+      </c>
+      <c r="B879" s="2">
+        <v>43935</v>
+      </c>
+      <c r="C879">
+        <v>60</v>
+      </c>
+      <c r="D879" t="s">
+        <v>26</v>
+      </c>
+      <c r="E879" t="s">
+        <v>79</v>
+      </c>
+      <c r="F879" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G879" t="s">
+        <v>11</v>
+      </c>
+      <c r="H879" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="880" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A880">
+        <v>878</v>
+      </c>
+      <c r="B880" s="2">
+        <v>43935</v>
+      </c>
+      <c r="C880">
+        <v>20</v>
+      </c>
+      <c r="D880" t="s">
+        <v>24</v>
+      </c>
+      <c r="E880" t="s">
+        <v>40</v>
+      </c>
+      <c r="F880" s="1">
+        <v>43931</v>
+      </c>
+      <c r="G880" t="s">
+        <v>10</v>
+      </c>
+      <c r="H880" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="881" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A881">
+        <v>879</v>
+      </c>
+      <c r="B881" s="2">
+        <v>43935</v>
+      </c>
+      <c r="C881">
+        <v>40</v>
+      </c>
+      <c r="D881" t="s">
+        <v>24</v>
+      </c>
+      <c r="E881" t="s">
+        <v>33</v>
+      </c>
+      <c r="F881" s="1">
+        <v>43930</v>
+      </c>
+      <c r="G881" t="s">
+        <v>10</v>
+      </c>
+      <c r="H881" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="882" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A882">
+        <v>880</v>
+      </c>
+      <c r="B882" s="2">
+        <v>43935</v>
+      </c>
+      <c r="C882">
+        <v>20</v>
+      </c>
+      <c r="D882" t="s">
+        <v>26</v>
+      </c>
+      <c r="E882" t="s">
+        <v>33</v>
+      </c>
+      <c r="F882" s="1">
+        <v>43930</v>
+      </c>
+      <c r="G882" t="s">
+        <v>10</v>
+      </c>
+      <c r="H882" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="883" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A883">
+        <v>881</v>
+      </c>
+      <c r="B883" s="2">
+        <v>43935</v>
+      </c>
+      <c r="C883">
+        <v>20</v>
+      </c>
+      <c r="D883" t="s">
+        <v>26</v>
+      </c>
+      <c r="E883" t="s">
+        <v>42</v>
+      </c>
+      <c r="F883" s="1">
+        <v>43932</v>
+      </c>
+      <c r="G883" t="s">
+        <v>10</v>
+      </c>
+      <c r="H883" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="884" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A884">
+        <v>882</v>
+      </c>
+      <c r="B884" s="2">
+        <v>43935</v>
+      </c>
+      <c r="C884">
+        <v>30</v>
+      </c>
+      <c r="D884" t="s">
+        <v>26</v>
+      </c>
+      <c r="E884" t="s">
+        <v>42</v>
+      </c>
+      <c r="F884" s="1">
+        <v>43925</v>
+      </c>
+      <c r="G884" t="s">
+        <v>10</v>
+      </c>
+      <c r="H884" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="885" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A885">
+        <v>883</v>
+      </c>
+      <c r="B885" s="2">
+        <v>43935</v>
+      </c>
+      <c r="C885">
+        <v>50</v>
+      </c>
+      <c r="D885" t="s">
+        <v>24</v>
+      </c>
+      <c r="E885" t="s">
+        <v>42</v>
+      </c>
+      <c r="F885" s="1">
+        <v>43931</v>
+      </c>
+      <c r="G885" t="s">
+        <v>10</v>
+      </c>
+      <c r="H885" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="886" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A886">
+        <v>884</v>
+      </c>
+      <c r="B886" s="2">
+        <v>43935</v>
+      </c>
+      <c r="C886">
+        <v>20</v>
+      </c>
+      <c r="D886" t="s">
+        <v>24</v>
+      </c>
+      <c r="E886" t="s">
+        <v>42</v>
+      </c>
+      <c r="F886" s="1">
+        <v>43934</v>
+      </c>
+      <c r="G886" t="s">
+        <v>10</v>
+      </c>
+      <c r="H886" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="887" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A887">
+        <v>885</v>
+      </c>
+      <c r="B887" s="2">
+        <v>43935</v>
+      </c>
+      <c r="C887">
+        <v>30</v>
+      </c>
+      <c r="D887" t="s">
+        <v>26</v>
+      </c>
+      <c r="E887" t="s">
+        <v>34</v>
+      </c>
+      <c r="F887" s="1">
+        <v>43931</v>
+      </c>
+      <c r="G887" t="s">
+        <v>10</v>
+      </c>
+      <c r="H887" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="888" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A888">
+        <v>886</v>
+      </c>
+      <c r="B888" s="2">
+        <v>43935</v>
+      </c>
+      <c r="C888">
+        <v>50</v>
+      </c>
+      <c r="D888" t="s">
+        <v>26</v>
+      </c>
+      <c r="E888" t="s">
+        <v>25</v>
+      </c>
+      <c r="F888" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G888" t="s">
+        <v>12</v>
+      </c>
+      <c r="H888" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="889" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A889">
+        <v>887</v>
+      </c>
+      <c r="B889" s="2">
+        <v>43935</v>
+      </c>
+      <c r="C889">
+        <v>70</v>
+      </c>
+      <c r="D889" t="s">
+        <v>26</v>
+      </c>
+      <c r="E889" t="s">
+        <v>25</v>
+      </c>
+      <c r="F889" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G889" t="s">
+        <v>10</v>
+      </c>
+      <c r="H889" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="890" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A890">
+        <v>888</v>
+      </c>
+      <c r="B890" s="2">
+        <v>43935</v>
+      </c>
+      <c r="C890">
+        <v>90</v>
+      </c>
+      <c r="D890" t="s">
+        <v>24</v>
+      </c>
+      <c r="E890" t="s">
+        <v>34</v>
+      </c>
+      <c r="F890" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G890" t="s">
+        <v>10</v>
+      </c>
+      <c r="H890" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="891" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A891">
+        <v>889</v>
+      </c>
+      <c r="B891" s="2">
+        <v>43935</v>
+      </c>
+      <c r="C891">
+        <v>30</v>
+      </c>
+      <c r="D891" t="s">
+        <v>24</v>
+      </c>
+      <c r="E891" t="s">
+        <v>34</v>
+      </c>
+      <c r="F891" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G891" t="s">
+        <v>10</v>
+      </c>
+      <c r="H891" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="892" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A892">
+        <v>890</v>
+      </c>
+      <c r="B892" s="2">
+        <v>43935</v>
+      </c>
+      <c r="C892">
+        <v>60</v>
+      </c>
+      <c r="D892" t="s">
+        <v>26</v>
+      </c>
+      <c r="E892" t="s">
+        <v>44</v>
+      </c>
+      <c r="F892" s="1">
+        <v>43927</v>
+      </c>
+      <c r="G892" t="s">
+        <v>10</v>
+      </c>
+      <c r="H892" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="893" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A893">
+        <v>891</v>
+      </c>
+      <c r="B893" s="2">
+        <v>43935</v>
+      </c>
+      <c r="C893">
+        <v>50</v>
+      </c>
+      <c r="D893" t="s">
+        <v>26</v>
+      </c>
+      <c r="E893" t="s">
+        <v>55</v>
+      </c>
+      <c r="F893" s="1">
+        <v>43931</v>
+      </c>
+      <c r="G893" t="s">
+        <v>10</v>
+      </c>
+      <c r="H893" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="894" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A894">
+        <v>892</v>
+      </c>
+      <c r="B894" s="2">
+        <v>43935</v>
+      </c>
+      <c r="C894">
+        <v>20</v>
+      </c>
+      <c r="D894" t="s">
+        <v>26</v>
+      </c>
+      <c r="E894" t="s">
+        <v>55</v>
+      </c>
+      <c r="F894" s="1">
+        <v>43920</v>
+      </c>
+      <c r="G894" t="s">
+        <v>10</v>
+      </c>
+      <c r="H894" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="895" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A895">
+        <v>893</v>
+      </c>
+      <c r="B895" s="2">
+        <v>43935</v>
+      </c>
+      <c r="C895">
+        <v>50</v>
+      </c>
+      <c r="D895" t="s">
+        <v>24</v>
+      </c>
+      <c r="E895" t="s">
+        <v>31</v>
+      </c>
+      <c r="F895" s="1">
+        <v>43924</v>
+      </c>
+      <c r="G895" t="s">
+        <v>10</v>
+      </c>
+      <c r="H895" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="896" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A896">
+        <v>894</v>
+      </c>
+      <c r="B896" s="2">
+        <v>43935</v>
+      </c>
+      <c r="C896">
+        <v>50</v>
+      </c>
+      <c r="D896" t="s">
+        <v>24</v>
+      </c>
+      <c r="E896" t="s">
+        <v>31</v>
+      </c>
+      <c r="F896" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G896" t="s">
+        <v>12</v>
+      </c>
+      <c r="H896" t="s">
         <v>5</v>
       </c>
     </row>
@@ -22558,9 +24090,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J82"/>
+  <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -22571,7 +24103,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="3">
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="B1" t="s">
         <v>61</v>
@@ -25136,23 +26668,55 @@
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A82" s="4" t="s">
+      <c r="A82" s="2">
+        <v>43935</v>
+      </c>
+      <c r="B82">
+        <v>439</v>
+      </c>
+      <c r="C82">
+        <v>59</v>
+      </c>
+      <c r="D82">
+        <v>894</v>
+      </c>
+      <c r="E82">
+        <v>722</v>
+      </c>
+      <c r="F82">
+        <v>16</v>
+      </c>
+      <c r="G82">
+        <v>165</v>
+      </c>
+      <c r="H82">
+        <v>17</v>
+      </c>
+      <c r="I82">
+        <v>165</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A83" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B82">
-        <v>7501</v>
-      </c>
-      <c r="C82">
-        <v>835</v>
-      </c>
-      <c r="F82">
-        <v>148</v>
-      </c>
-      <c r="H82">
-        <v>148</v>
-      </c>
-      <c r="J82">
-        <v>6</v>
+      <c r="B83">
+        <v>7940</v>
+      </c>
+      <c r="C83">
+        <v>894</v>
+      </c>
+      <c r="F83">
+        <v>165</v>
+      </c>
+      <c r="H83">
+        <v>165</v>
+      </c>
+      <c r="J83">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/data/patients_and_inspections.xlsx
+++ b/data/patients_and_inspections.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3742" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4049" uniqueCount="85">
   <si>
     <t>（1）入退院の状況</t>
   </si>
@@ -279,11 +279,19 @@
     <t>阪南市</t>
   </si>
   <si>
+    <t>自宅療養解除①</t>
+  </si>
+  <si>
+    <t>宿泊療養解除①</t>
+  </si>
+  <si>
     <t>高石市</t>
-    <rPh sb="0" eb="3">
-      <t>タカイシシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>豊能町</t>
+  </si>
+  <si>
+    <t>河南町</t>
   </si>
 </sst>
 </file>
@@ -687,7 +695,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -695,7 +703,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>290</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
@@ -703,7 +711,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>432</v>
+        <v>484</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
@@ -711,7 +719,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
@@ -719,7 +727,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>894</v>
+        <v>968</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
@@ -740,7 +748,7 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <v>631</v>
+        <v>691</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
@@ -748,7 +756,7 @@
         <v>11</v>
       </c>
       <c r="B14">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
@@ -756,7 +764,7 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
@@ -764,7 +772,7 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
@@ -772,7 +780,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
@@ -780,7 +788,7 @@
         <v>7</v>
       </c>
       <c r="B18">
-        <v>894</v>
+        <v>968</v>
       </c>
     </row>
   </sheetData>
@@ -792,10 +800,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H896"/>
+  <dimension ref="A1:H970"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E394" sqref="E394"/>
+      <selection activeCell="E420" sqref="E420"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -805,7 +813,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="3">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="B1" t="s">
         <v>61</v>
@@ -4107,7 +4115,7 @@
         <v>43906</v>
       </c>
       <c r="G128" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H128" t="s">
         <v>4</v>
@@ -4127,7 +4135,7 @@
         <v>26</v>
       </c>
       <c r="E129" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="F129" s="1">
         <v>43909</v>
@@ -4237,10 +4245,10 @@
         <v>43904</v>
       </c>
       <c r="G133" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H133" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.4">
@@ -5667,7 +5675,7 @@
         <v>43901</v>
       </c>
       <c r="G188" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H188" t="s">
         <v>77</v>
@@ -6395,10 +6403,10 @@
         <v>43901</v>
       </c>
       <c r="G216" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H216" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.4">
@@ -7100,7 +7108,7 @@
         <v>10</v>
       </c>
       <c r="H243" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.4">
@@ -7334,7 +7342,7 @@
         <v>12</v>
       </c>
       <c r="H252" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.4">
@@ -7386,7 +7394,7 @@
         <v>12</v>
       </c>
       <c r="H254" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.4">
@@ -7438,7 +7446,7 @@
         <v>12</v>
       </c>
       <c r="H256" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.4">
@@ -8114,7 +8122,7 @@
         <v>10</v>
       </c>
       <c r="H282" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.4">
@@ -8657,10 +8665,10 @@
         <v>43920</v>
       </c>
       <c r="G303" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H303" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.4">
@@ -9622,7 +9630,7 @@
         <v>10</v>
       </c>
       <c r="H340" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.4">
@@ -10477,7 +10485,7 @@
         <v>43918</v>
       </c>
       <c r="G373" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H373" t="s">
         <v>4</v>
@@ -10555,10 +10563,10 @@
         <v>43920</v>
       </c>
       <c r="G376" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H376" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.4">
@@ -10607,10 +10615,10 @@
         <v>47</v>
       </c>
       <c r="G378" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H378" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.4">
@@ -10737,7 +10745,7 @@
         <v>43922</v>
       </c>
       <c r="G383" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H383" t="s">
         <v>4</v>
@@ -11017,7 +11025,7 @@
         <v>26</v>
       </c>
       <c r="E394" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F394" s="1">
         <v>43921</v>
@@ -11225,7 +11233,7 @@
         <v>26</v>
       </c>
       <c r="E402" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="F402" s="1" t="s">
         <v>47</v>
@@ -11277,7 +11285,7 @@
         <v>26</v>
       </c>
       <c r="E404" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="F404" s="1" t="s">
         <v>47</v>
@@ -13028,7 +13036,7 @@
         <v>10</v>
       </c>
       <c r="H471" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="472" spans="1:8" x14ac:dyDescent="0.4">
@@ -17549,10 +17557,10 @@
         <v>43926</v>
       </c>
       <c r="G645" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H645" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="646" spans="1:8" x14ac:dyDescent="0.4">
@@ -18459,10 +18467,10 @@
         <v>43930</v>
       </c>
       <c r="G680" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H680" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="681" spans="1:8" x14ac:dyDescent="0.4">
@@ -18869,7 +18877,7 @@
         <v>26</v>
       </c>
       <c r="E696" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="F696" s="1" t="s">
         <v>47</v>
@@ -19294,7 +19302,7 @@
         <v>10</v>
       </c>
       <c r="H712" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="713" spans="1:8" x14ac:dyDescent="0.4">
@@ -19710,7 +19718,7 @@
         <v>10</v>
       </c>
       <c r="H728" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
     </row>
     <row r="729" spans="1:8" x14ac:dyDescent="0.4">
@@ -20204,7 +20212,7 @@
         <v>10</v>
       </c>
       <c r="H747" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="748" spans="1:8" x14ac:dyDescent="0.4">
@@ -21189,10 +21197,10 @@
         <v>43925</v>
       </c>
       <c r="G785" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H785" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="786" spans="1:8" x14ac:dyDescent="0.4">
@@ -21946,7 +21954,7 @@
         <v>11</v>
       </c>
       <c r="H814" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="815" spans="1:8" x14ac:dyDescent="0.4">
@@ -22206,7 +22214,7 @@
         <v>11</v>
       </c>
       <c r="H824" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="825" spans="1:8" x14ac:dyDescent="0.4">
@@ -22362,7 +22370,7 @@
         <v>10</v>
       </c>
       <c r="H830" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="831" spans="1:8" x14ac:dyDescent="0.4">
@@ -22388,7 +22396,7 @@
         <v>10</v>
       </c>
       <c r="H831" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="832" spans="1:8" x14ac:dyDescent="0.4">
@@ -22466,7 +22474,7 @@
         <v>11</v>
       </c>
       <c r="H834" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="835" spans="1:8" x14ac:dyDescent="0.4">
@@ -22489,10 +22497,10 @@
         <v>43924</v>
       </c>
       <c r="G835" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H835" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="836" spans="1:8" x14ac:dyDescent="0.4">
@@ -22544,7 +22552,7 @@
         <v>11</v>
       </c>
       <c r="H837" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="838" spans="1:8" x14ac:dyDescent="0.4">
@@ -22775,10 +22783,10 @@
         <v>43921</v>
       </c>
       <c r="G846" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H846" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="847" spans="1:8" x14ac:dyDescent="0.4">
@@ -23090,7 +23098,7 @@
         <v>10</v>
       </c>
       <c r="H858" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="859" spans="1:8" x14ac:dyDescent="0.4">
@@ -23116,7 +23124,7 @@
         <v>10</v>
       </c>
       <c r="H859" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="860" spans="1:8" x14ac:dyDescent="0.4">
@@ -23142,7 +23150,7 @@
         <v>10</v>
       </c>
       <c r="H860" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="861" spans="1:8" x14ac:dyDescent="0.4">
@@ -23217,7 +23225,7 @@
         <v>47</v>
       </c>
       <c r="G863" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="H863" t="s">
         <v>5</v>
@@ -23243,7 +23251,7 @@
         <v>47</v>
       </c>
       <c r="G864" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="H864" t="s">
         <v>5</v>
@@ -23347,7 +23355,7 @@
         <v>43927</v>
       </c>
       <c r="G868" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H868" t="s">
         <v>5</v>
@@ -23477,7 +23485,7 @@
         <v>43924</v>
       </c>
       <c r="G873" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H873" t="s">
         <v>5</v>
@@ -23636,7 +23644,7 @@
         <v>11</v>
       </c>
       <c r="H879" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="880" spans="1:8" x14ac:dyDescent="0.4">
@@ -24078,6 +24086,1930 @@
         <v>12</v>
       </c>
       <c r="H896" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="897" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A897">
+        <v>895</v>
+      </c>
+      <c r="B897" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C897">
+        <v>50</v>
+      </c>
+      <c r="D897" t="s">
+        <v>26</v>
+      </c>
+      <c r="E897" t="s">
+        <v>25</v>
+      </c>
+      <c r="F897" s="1">
+        <v>43926</v>
+      </c>
+      <c r="G897" t="s">
+        <v>11</v>
+      </c>
+      <c r="H897" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="898" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A898">
+        <v>896</v>
+      </c>
+      <c r="B898" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C898">
+        <v>30</v>
+      </c>
+      <c r="D898" t="s">
+        <v>26</v>
+      </c>
+      <c r="E898" t="s">
+        <v>25</v>
+      </c>
+      <c r="F898" s="1">
+        <v>43924</v>
+      </c>
+      <c r="G898" t="s">
+        <v>10</v>
+      </c>
+      <c r="H898" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="899" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A899">
+        <v>897</v>
+      </c>
+      <c r="B899" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C899">
+        <v>70</v>
+      </c>
+      <c r="D899" t="s">
+        <v>26</v>
+      </c>
+      <c r="E899" t="s">
+        <v>25</v>
+      </c>
+      <c r="F899" s="1">
+        <v>43929</v>
+      </c>
+      <c r="G899" t="s">
+        <v>10</v>
+      </c>
+      <c r="H899" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="900" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A900">
+        <v>898</v>
+      </c>
+      <c r="B900" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C900">
+        <v>30</v>
+      </c>
+      <c r="D900" t="s">
+        <v>26</v>
+      </c>
+      <c r="E900" t="s">
+        <v>25</v>
+      </c>
+      <c r="F900" s="1">
+        <v>43926</v>
+      </c>
+      <c r="G900" t="s">
+        <v>10</v>
+      </c>
+      <c r="H900" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="901" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A901">
+        <v>899</v>
+      </c>
+      <c r="B901" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C901">
+        <v>50</v>
+      </c>
+      <c r="D901" t="s">
+        <v>24</v>
+      </c>
+      <c r="E901" t="s">
+        <v>25</v>
+      </c>
+      <c r="F901" s="1">
+        <v>43924</v>
+      </c>
+      <c r="G901" t="s">
+        <v>10</v>
+      </c>
+      <c r="H901" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="902" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A902">
+        <v>900</v>
+      </c>
+      <c r="B902" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C902">
+        <v>20</v>
+      </c>
+      <c r="D902" t="s">
+        <v>26</v>
+      </c>
+      <c r="E902" t="s">
+        <v>25</v>
+      </c>
+      <c r="F902" s="1">
+        <v>43931</v>
+      </c>
+      <c r="G902" t="s">
+        <v>10</v>
+      </c>
+      <c r="H902" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="903" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A903">
+        <v>901</v>
+      </c>
+      <c r="B903" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C903">
+        <v>20</v>
+      </c>
+      <c r="D903" t="s">
+        <v>24</v>
+      </c>
+      <c r="E903" t="s">
+        <v>25</v>
+      </c>
+      <c r="F903" s="1">
+        <v>43932</v>
+      </c>
+      <c r="G903" t="s">
+        <v>10</v>
+      </c>
+      <c r="H903" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="904" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A904">
+        <v>902</v>
+      </c>
+      <c r="B904" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C904">
+        <v>60</v>
+      </c>
+      <c r="D904" t="s">
+        <v>26</v>
+      </c>
+      <c r="E904" t="s">
+        <v>47</v>
+      </c>
+      <c r="F904" s="1">
+        <v>43924</v>
+      </c>
+      <c r="G904" t="s">
+        <v>10</v>
+      </c>
+      <c r="H904" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="905" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A905">
+        <v>903</v>
+      </c>
+      <c r="B905" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C905">
+        <v>50</v>
+      </c>
+      <c r="D905" t="s">
+        <v>24</v>
+      </c>
+      <c r="E905" t="s">
+        <v>34</v>
+      </c>
+      <c r="F905" s="1">
+        <v>43932</v>
+      </c>
+      <c r="G905" t="s">
+        <v>10</v>
+      </c>
+      <c r="H905" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="906" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A906">
+        <v>904</v>
+      </c>
+      <c r="B906" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C906">
+        <v>80</v>
+      </c>
+      <c r="D906" t="s">
+        <v>26</v>
+      </c>
+      <c r="E906" t="s">
+        <v>25</v>
+      </c>
+      <c r="F906" s="1">
+        <v>43926</v>
+      </c>
+      <c r="G906" t="s">
+        <v>10</v>
+      </c>
+      <c r="H906" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="907" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A907">
+        <v>905</v>
+      </c>
+      <c r="B907" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C907">
+        <v>70</v>
+      </c>
+      <c r="D907" t="s">
+        <v>26</v>
+      </c>
+      <c r="E907" t="s">
+        <v>25</v>
+      </c>
+      <c r="F907" s="1">
+        <v>43932</v>
+      </c>
+      <c r="G907" t="s">
+        <v>11</v>
+      </c>
+      <c r="H907" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="908" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A908">
+        <v>906</v>
+      </c>
+      <c r="B908" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C908">
+        <v>50</v>
+      </c>
+      <c r="D908" t="s">
+        <v>24</v>
+      </c>
+      <c r="E908" t="s">
+        <v>25</v>
+      </c>
+      <c r="F908" s="1">
+        <v>43920</v>
+      </c>
+      <c r="G908" t="s">
+        <v>10</v>
+      </c>
+      <c r="H908" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="909" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A909">
+        <v>907</v>
+      </c>
+      <c r="B909" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C909">
+        <v>50</v>
+      </c>
+      <c r="D909" t="s">
+        <v>26</v>
+      </c>
+      <c r="E909" t="s">
+        <v>28</v>
+      </c>
+      <c r="F909" s="1">
+        <v>43929</v>
+      </c>
+      <c r="G909" t="s">
+        <v>10</v>
+      </c>
+      <c r="H909" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="910" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A910">
+        <v>908</v>
+      </c>
+      <c r="B910" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C910">
+        <v>30</v>
+      </c>
+      <c r="D910" t="s">
+        <v>24</v>
+      </c>
+      <c r="E910" t="s">
+        <v>28</v>
+      </c>
+      <c r="F910" s="1">
+        <v>43923</v>
+      </c>
+      <c r="G910" t="s">
+        <v>10</v>
+      </c>
+      <c r="H910" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="911" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A911">
+        <v>909</v>
+      </c>
+      <c r="B911" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C911">
+        <v>60</v>
+      </c>
+      <c r="D911" t="s">
+        <v>24</v>
+      </c>
+      <c r="E911" t="s">
+        <v>28</v>
+      </c>
+      <c r="F911" s="1">
+        <v>43934</v>
+      </c>
+      <c r="G911" t="s">
+        <v>10</v>
+      </c>
+      <c r="H911" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="912" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A912">
+        <v>910</v>
+      </c>
+      <c r="B912" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C912">
+        <v>40</v>
+      </c>
+      <c r="D912" t="s">
+        <v>26</v>
+      </c>
+      <c r="E912" t="s">
+        <v>32</v>
+      </c>
+      <c r="F912" s="1">
+        <v>43929</v>
+      </c>
+      <c r="G912" t="s">
+        <v>10</v>
+      </c>
+      <c r="H912" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="913" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A913">
+        <v>911</v>
+      </c>
+      <c r="B913" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C913">
+        <v>70</v>
+      </c>
+      <c r="D913" t="s">
+        <v>24</v>
+      </c>
+      <c r="E913" t="s">
+        <v>32</v>
+      </c>
+      <c r="F913" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G913" t="s">
+        <v>10</v>
+      </c>
+      <c r="H913" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="914" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A914">
+        <v>912</v>
+      </c>
+      <c r="B914" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C914">
+        <v>40</v>
+      </c>
+      <c r="D914" t="s">
+        <v>24</v>
+      </c>
+      <c r="E914" t="s">
+        <v>32</v>
+      </c>
+      <c r="F914" s="1">
+        <v>43923</v>
+      </c>
+      <c r="G914" t="s">
+        <v>10</v>
+      </c>
+      <c r="H914" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="915" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A915">
+        <v>913</v>
+      </c>
+      <c r="B915" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C915">
+        <v>50</v>
+      </c>
+      <c r="D915" t="s">
+        <v>24</v>
+      </c>
+      <c r="E915" t="s">
+        <v>45</v>
+      </c>
+      <c r="F915" s="1">
+        <v>43929</v>
+      </c>
+      <c r="G915" t="s">
+        <v>10</v>
+      </c>
+      <c r="H915" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="916" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A916">
+        <v>914</v>
+      </c>
+      <c r="B916" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C916">
+        <v>30</v>
+      </c>
+      <c r="D916" t="s">
+        <v>24</v>
+      </c>
+      <c r="E916" t="s">
+        <v>83</v>
+      </c>
+      <c r="F916" s="1">
+        <v>43927</v>
+      </c>
+      <c r="G916" t="s">
+        <v>10</v>
+      </c>
+      <c r="H916" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="917" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A917">
+        <v>915</v>
+      </c>
+      <c r="B917" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C917">
+        <v>30</v>
+      </c>
+      <c r="D917" t="s">
+        <v>24</v>
+      </c>
+      <c r="E917" t="s">
+        <v>71</v>
+      </c>
+      <c r="F917" s="1">
+        <v>43929</v>
+      </c>
+      <c r="G917" t="s">
+        <v>10</v>
+      </c>
+      <c r="H917" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="918" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A918">
+        <v>916</v>
+      </c>
+      <c r="B918" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C918">
+        <v>20</v>
+      </c>
+      <c r="D918" t="s">
+        <v>26</v>
+      </c>
+      <c r="E918" t="s">
+        <v>45</v>
+      </c>
+      <c r="F918" s="1">
+        <v>43932</v>
+      </c>
+      <c r="G918" t="s">
+        <v>10</v>
+      </c>
+      <c r="H918" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="919" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A919">
+        <v>917</v>
+      </c>
+      <c r="B919" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C919">
+        <v>10</v>
+      </c>
+      <c r="D919" t="s">
+        <v>24</v>
+      </c>
+      <c r="E919" t="s">
+        <v>45</v>
+      </c>
+      <c r="F919" s="1">
+        <v>43930</v>
+      </c>
+      <c r="G919" t="s">
+        <v>10</v>
+      </c>
+      <c r="H919" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="920" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A920">
+        <v>918</v>
+      </c>
+      <c r="B920" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C920">
+        <v>70</v>
+      </c>
+      <c r="D920" t="s">
+        <v>26</v>
+      </c>
+      <c r="E920" t="s">
+        <v>45</v>
+      </c>
+      <c r="F920" s="1">
+        <v>43923</v>
+      </c>
+      <c r="G920" t="s">
+        <v>10</v>
+      </c>
+      <c r="H920" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="921" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A921">
+        <v>919</v>
+      </c>
+      <c r="B921" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C921">
+        <v>40</v>
+      </c>
+      <c r="D921" t="s">
+        <v>26</v>
+      </c>
+      <c r="E921" t="s">
+        <v>48</v>
+      </c>
+      <c r="F921" s="1">
+        <v>43932</v>
+      </c>
+      <c r="G921" t="s">
+        <v>10</v>
+      </c>
+      <c r="H921" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="922" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A922">
+        <v>920</v>
+      </c>
+      <c r="B922" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C922">
+        <v>50</v>
+      </c>
+      <c r="D922" t="s">
+        <v>24</v>
+      </c>
+      <c r="E922" t="s">
+        <v>29</v>
+      </c>
+      <c r="F922" s="1">
+        <v>43930</v>
+      </c>
+      <c r="G922" t="s">
+        <v>10</v>
+      </c>
+      <c r="H922" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="923" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A923">
+        <v>921</v>
+      </c>
+      <c r="B923" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C923">
+        <v>90</v>
+      </c>
+      <c r="D923" t="s">
+        <v>24</v>
+      </c>
+      <c r="E923" t="s">
+        <v>25</v>
+      </c>
+      <c r="F923" s="1">
+        <v>43933</v>
+      </c>
+      <c r="G923" t="s">
+        <v>10</v>
+      </c>
+      <c r="H923" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="924" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A924">
+        <v>922</v>
+      </c>
+      <c r="B924" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C924">
+        <v>30</v>
+      </c>
+      <c r="D924" t="s">
+        <v>24</v>
+      </c>
+      <c r="E924" t="s">
+        <v>25</v>
+      </c>
+      <c r="F924" s="1">
+        <v>43919</v>
+      </c>
+      <c r="G924" t="s">
+        <v>10</v>
+      </c>
+      <c r="H924" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="925" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A925">
+        <v>923</v>
+      </c>
+      <c r="B925" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C925">
+        <v>50</v>
+      </c>
+      <c r="D925" t="s">
+        <v>26</v>
+      </c>
+      <c r="E925" t="s">
+        <v>40</v>
+      </c>
+      <c r="F925" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G925" t="s">
+        <v>10</v>
+      </c>
+      <c r="H925" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="926" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A926">
+        <v>924</v>
+      </c>
+      <c r="B926" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C926">
+        <v>60</v>
+      </c>
+      <c r="D926" t="s">
+        <v>26</v>
+      </c>
+      <c r="E926" t="s">
+        <v>42</v>
+      </c>
+      <c r="F926" s="1">
+        <v>43929</v>
+      </c>
+      <c r="G926" t="s">
+        <v>10</v>
+      </c>
+      <c r="H926" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="927" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A927">
+        <v>925</v>
+      </c>
+      <c r="B927" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C927">
+        <v>20</v>
+      </c>
+      <c r="D927" t="s">
+        <v>26</v>
+      </c>
+      <c r="E927" t="s">
+        <v>44</v>
+      </c>
+      <c r="F927" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G927" t="s">
+        <v>10</v>
+      </c>
+      <c r="H927" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="928" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A928">
+        <v>926</v>
+      </c>
+      <c r="B928" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C928">
+        <v>50</v>
+      </c>
+      <c r="D928" t="s">
+        <v>26</v>
+      </c>
+      <c r="E928" t="s">
+        <v>35</v>
+      </c>
+      <c r="F928" s="1">
+        <v>43934</v>
+      </c>
+      <c r="G928" t="s">
+        <v>10</v>
+      </c>
+      <c r="H928" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="929" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A929">
+        <v>927</v>
+      </c>
+      <c r="B929" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C929">
+        <v>10</v>
+      </c>
+      <c r="D929" t="s">
+        <v>26</v>
+      </c>
+      <c r="E929" t="s">
+        <v>35</v>
+      </c>
+      <c r="F929" s="1">
+        <v>43930</v>
+      </c>
+      <c r="G929" t="s">
+        <v>10</v>
+      </c>
+      <c r="H929" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="930" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A930">
+        <v>928</v>
+      </c>
+      <c r="B930" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C930">
+        <v>40</v>
+      </c>
+      <c r="D930" t="s">
+        <v>24</v>
+      </c>
+      <c r="E930" t="s">
+        <v>35</v>
+      </c>
+      <c r="F930" s="1">
+        <v>43933</v>
+      </c>
+      <c r="G930" t="s">
+        <v>10</v>
+      </c>
+      <c r="H930" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="931" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A931">
+        <v>929</v>
+      </c>
+      <c r="B931" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C931">
+        <v>30</v>
+      </c>
+      <c r="D931" t="s">
+        <v>26</v>
+      </c>
+      <c r="E931" t="s">
+        <v>35</v>
+      </c>
+      <c r="F931" s="1">
+        <v>43928</v>
+      </c>
+      <c r="G931" t="s">
+        <v>10</v>
+      </c>
+      <c r="H931" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="932" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A932">
+        <v>930</v>
+      </c>
+      <c r="B932" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C932">
+        <v>20</v>
+      </c>
+      <c r="D932" t="s">
+        <v>26</v>
+      </c>
+      <c r="E932" t="s">
+        <v>35</v>
+      </c>
+      <c r="F932" s="1">
+        <v>43925</v>
+      </c>
+      <c r="G932" t="s">
+        <v>10</v>
+      </c>
+      <c r="H932" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="933" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A933">
+        <v>931</v>
+      </c>
+      <c r="B933" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C933">
+        <v>80</v>
+      </c>
+      <c r="D933" t="s">
+        <v>26</v>
+      </c>
+      <c r="E933" t="s">
+        <v>25</v>
+      </c>
+      <c r="F933" s="1">
+        <v>43932</v>
+      </c>
+      <c r="G933" t="s">
+        <v>10</v>
+      </c>
+      <c r="H933" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="934" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A934">
+        <v>932</v>
+      </c>
+      <c r="B934" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C934">
+        <v>70</v>
+      </c>
+      <c r="D934" t="s">
+        <v>26</v>
+      </c>
+      <c r="E934" t="s">
+        <v>25</v>
+      </c>
+      <c r="F934" s="1">
+        <v>43927</v>
+      </c>
+      <c r="G934" t="s">
+        <v>10</v>
+      </c>
+      <c r="H934" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="935" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A935">
+        <v>933</v>
+      </c>
+      <c r="B935" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C935">
+        <v>70</v>
+      </c>
+      <c r="D935" t="s">
+        <v>26</v>
+      </c>
+      <c r="E935" t="s">
+        <v>44</v>
+      </c>
+      <c r="F935" s="1">
+        <v>43924</v>
+      </c>
+      <c r="G935" t="s">
+        <v>10</v>
+      </c>
+      <c r="H935" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="936" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A936">
+        <v>934</v>
+      </c>
+      <c r="B936" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C936">
+        <v>30</v>
+      </c>
+      <c r="D936" t="s">
+        <v>24</v>
+      </c>
+      <c r="E936" t="s">
+        <v>25</v>
+      </c>
+      <c r="F936" s="1">
+        <v>43930</v>
+      </c>
+      <c r="G936" t="s">
+        <v>10</v>
+      </c>
+      <c r="H936" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="937" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A937">
+        <v>935</v>
+      </c>
+      <c r="B937" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C937">
+        <v>30</v>
+      </c>
+      <c r="D937" t="s">
+        <v>26</v>
+      </c>
+      <c r="E937" t="s">
+        <v>25</v>
+      </c>
+      <c r="F937" s="1">
+        <v>43928</v>
+      </c>
+      <c r="G937" t="s">
+        <v>10</v>
+      </c>
+      <c r="H937" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="938" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A938">
+        <v>936</v>
+      </c>
+      <c r="B938" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C938">
+        <v>60</v>
+      </c>
+      <c r="D938" t="s">
+        <v>26</v>
+      </c>
+      <c r="E938" t="s">
+        <v>25</v>
+      </c>
+      <c r="F938" s="1">
+        <v>43920</v>
+      </c>
+      <c r="G938" t="s">
+        <v>10</v>
+      </c>
+      <c r="H938" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="939" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A939">
+        <v>937</v>
+      </c>
+      <c r="B939" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C939">
+        <v>30</v>
+      </c>
+      <c r="D939" t="s">
+        <v>24</v>
+      </c>
+      <c r="E939" t="s">
+        <v>29</v>
+      </c>
+      <c r="F939" s="1">
+        <v>43913</v>
+      </c>
+      <c r="G939" t="s">
+        <v>10</v>
+      </c>
+      <c r="H939" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="940" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A940">
+        <v>938</v>
+      </c>
+      <c r="B940" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C940">
+        <v>30</v>
+      </c>
+      <c r="D940" t="s">
+        <v>26</v>
+      </c>
+      <c r="E940" t="s">
+        <v>29</v>
+      </c>
+      <c r="F940" s="1">
+        <v>43917</v>
+      </c>
+      <c r="G940" t="s">
+        <v>10</v>
+      </c>
+      <c r="H940" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="941" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A941">
+        <v>939</v>
+      </c>
+      <c r="B941" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C941">
+        <v>60</v>
+      </c>
+      <c r="D941" t="s">
+        <v>24</v>
+      </c>
+      <c r="E941" t="s">
+        <v>25</v>
+      </c>
+      <c r="F941" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G941" t="s">
+        <v>47</v>
+      </c>
+      <c r="H941" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="942" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A942">
+        <v>940</v>
+      </c>
+      <c r="B942" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C942" t="s">
+        <v>54</v>
+      </c>
+      <c r="D942" t="s">
+        <v>26</v>
+      </c>
+      <c r="E942" t="s">
+        <v>25</v>
+      </c>
+      <c r="F942" s="1">
+        <v>43931</v>
+      </c>
+      <c r="G942" t="s">
+        <v>10</v>
+      </c>
+      <c r="H942" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="943" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A943">
+        <v>941</v>
+      </c>
+      <c r="B943" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C943" t="s">
+        <v>27</v>
+      </c>
+      <c r="D943" t="s">
+        <v>24</v>
+      </c>
+      <c r="E943" t="s">
+        <v>25</v>
+      </c>
+      <c r="F943" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G943" t="s">
+        <v>12</v>
+      </c>
+      <c r="H943" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="944" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A944">
+        <v>942</v>
+      </c>
+      <c r="B944" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C944">
+        <v>70</v>
+      </c>
+      <c r="D944" t="s">
+        <v>26</v>
+      </c>
+      <c r="E944" t="s">
+        <v>46</v>
+      </c>
+      <c r="F944" s="1">
+        <v>43927</v>
+      </c>
+      <c r="G944" t="s">
+        <v>11</v>
+      </c>
+      <c r="H944" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="945" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A945">
+        <v>943</v>
+      </c>
+      <c r="B945" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C945">
+        <v>40</v>
+      </c>
+      <c r="D945" t="s">
+        <v>24</v>
+      </c>
+      <c r="E945" t="s">
+        <v>46</v>
+      </c>
+      <c r="F945" s="1">
+        <v>43931</v>
+      </c>
+      <c r="G945" t="s">
+        <v>10</v>
+      </c>
+      <c r="H945" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="946" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A946">
+        <v>944</v>
+      </c>
+      <c r="B946" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C946">
+        <v>30</v>
+      </c>
+      <c r="D946" t="s">
+        <v>26</v>
+      </c>
+      <c r="E946" t="s">
+        <v>38</v>
+      </c>
+      <c r="F946" s="1">
+        <v>43928</v>
+      </c>
+      <c r="G946" t="s">
+        <v>10</v>
+      </c>
+      <c r="H946" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="947" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A947">
+        <v>945</v>
+      </c>
+      <c r="B947" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C947">
+        <v>20</v>
+      </c>
+      <c r="D947" t="s">
+        <v>24</v>
+      </c>
+      <c r="E947" t="s">
+        <v>34</v>
+      </c>
+      <c r="F947" s="1">
+        <v>43932</v>
+      </c>
+      <c r="G947" t="s">
+        <v>10</v>
+      </c>
+      <c r="H947" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="948" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A948">
+        <v>946</v>
+      </c>
+      <c r="B948" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C948">
+        <v>20</v>
+      </c>
+      <c r="D948" t="s">
+        <v>24</v>
+      </c>
+      <c r="E948" t="s">
+        <v>58</v>
+      </c>
+      <c r="F948" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G948" t="s">
+        <v>10</v>
+      </c>
+      <c r="H948" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="949" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A949">
+        <v>947</v>
+      </c>
+      <c r="B949" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C949">
+        <v>40</v>
+      </c>
+      <c r="D949" t="s">
+        <v>26</v>
+      </c>
+      <c r="E949" t="s">
+        <v>58</v>
+      </c>
+      <c r="F949" s="1">
+        <v>43929</v>
+      </c>
+      <c r="G949" t="s">
+        <v>10</v>
+      </c>
+      <c r="H949" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="950" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A950">
+        <v>948</v>
+      </c>
+      <c r="B950" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C950">
+        <v>40</v>
+      </c>
+      <c r="D950" t="s">
+        <v>24</v>
+      </c>
+      <c r="E950" t="s">
+        <v>49</v>
+      </c>
+      <c r="F950" s="1">
+        <v>43930</v>
+      </c>
+      <c r="G950" t="s">
+        <v>10</v>
+      </c>
+      <c r="H950" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="951" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A951">
+        <v>949</v>
+      </c>
+      <c r="B951" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C951">
+        <v>20</v>
+      </c>
+      <c r="D951" t="s">
+        <v>26</v>
+      </c>
+      <c r="E951" t="s">
+        <v>56</v>
+      </c>
+      <c r="F951" s="1">
+        <v>43930</v>
+      </c>
+      <c r="G951" t="s">
+        <v>10</v>
+      </c>
+      <c r="H951" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="952" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A952">
+        <v>950</v>
+      </c>
+      <c r="B952" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C952">
+        <v>40</v>
+      </c>
+      <c r="D952" t="s">
+        <v>24</v>
+      </c>
+      <c r="E952" t="s">
+        <v>45</v>
+      </c>
+      <c r="F952" s="1">
+        <v>43931</v>
+      </c>
+      <c r="G952" t="s">
+        <v>10</v>
+      </c>
+      <c r="H952" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="953" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A953">
+        <v>951</v>
+      </c>
+      <c r="B953" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C953">
+        <v>10</v>
+      </c>
+      <c r="D953" t="s">
+        <v>26</v>
+      </c>
+      <c r="E953" t="s">
+        <v>45</v>
+      </c>
+      <c r="F953" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G953" t="s">
+        <v>12</v>
+      </c>
+      <c r="H953" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="954" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A954">
+        <v>952</v>
+      </c>
+      <c r="B954" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C954">
+        <v>50</v>
+      </c>
+      <c r="D954" t="s">
+        <v>26</v>
+      </c>
+      <c r="E954" t="s">
+        <v>45</v>
+      </c>
+      <c r="F954" s="1">
+        <v>43927</v>
+      </c>
+      <c r="G954" t="s">
+        <v>10</v>
+      </c>
+      <c r="H954" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="955" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A955">
+        <v>953</v>
+      </c>
+      <c r="B955" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C955">
+        <v>70</v>
+      </c>
+      <c r="D955" t="s">
+        <v>26</v>
+      </c>
+      <c r="E955" t="s">
+        <v>45</v>
+      </c>
+      <c r="F955" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G955" t="s">
+        <v>12</v>
+      </c>
+      <c r="H955" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="956" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A956">
+        <v>954</v>
+      </c>
+      <c r="B956" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C956">
+        <v>40</v>
+      </c>
+      <c r="D956" t="s">
+        <v>26</v>
+      </c>
+      <c r="E956" t="s">
+        <v>45</v>
+      </c>
+      <c r="F956" s="1">
+        <v>43925</v>
+      </c>
+      <c r="G956" t="s">
+        <v>10</v>
+      </c>
+      <c r="H956" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="957" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A957">
+        <v>955</v>
+      </c>
+      <c r="B957" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C957">
+        <v>50</v>
+      </c>
+      <c r="D957" t="s">
+        <v>26</v>
+      </c>
+      <c r="E957" t="s">
+        <v>30</v>
+      </c>
+      <c r="F957" s="1">
+        <v>43929</v>
+      </c>
+      <c r="G957" t="s">
+        <v>10</v>
+      </c>
+      <c r="H957" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="958" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A958">
+        <v>956</v>
+      </c>
+      <c r="B958" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C958">
+        <v>80</v>
+      </c>
+      <c r="D958" t="s">
+        <v>26</v>
+      </c>
+      <c r="E958" t="s">
+        <v>30</v>
+      </c>
+      <c r="F958" s="1">
+        <v>43927</v>
+      </c>
+      <c r="G958" t="s">
+        <v>10</v>
+      </c>
+      <c r="H958" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="959" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A959">
+        <v>957</v>
+      </c>
+      <c r="B959" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C959">
+        <v>70</v>
+      </c>
+      <c r="D959" t="s">
+        <v>24</v>
+      </c>
+      <c r="E959" t="s">
+        <v>30</v>
+      </c>
+      <c r="F959" s="1">
+        <v>43931</v>
+      </c>
+      <c r="G959" t="s">
+        <v>10</v>
+      </c>
+      <c r="H959" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="960" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A960">
+        <v>958</v>
+      </c>
+      <c r="B960" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C960">
+        <v>70</v>
+      </c>
+      <c r="D960" t="s">
+        <v>26</v>
+      </c>
+      <c r="E960" t="s">
+        <v>30</v>
+      </c>
+      <c r="F960" s="1">
+        <v>43930</v>
+      </c>
+      <c r="G960" t="s">
+        <v>10</v>
+      </c>
+      <c r="H960" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="961" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A961">
+        <v>959</v>
+      </c>
+      <c r="B961" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C961">
+        <v>40</v>
+      </c>
+      <c r="D961" t="s">
+        <v>26</v>
+      </c>
+      <c r="E961" t="s">
+        <v>84</v>
+      </c>
+      <c r="F961" s="1">
+        <v>43931</v>
+      </c>
+      <c r="G961" t="s">
+        <v>10</v>
+      </c>
+      <c r="H961" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="962" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A962">
+        <v>960</v>
+      </c>
+      <c r="B962" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C962">
+        <v>40</v>
+      </c>
+      <c r="D962" t="s">
+        <v>24</v>
+      </c>
+      <c r="E962" t="s">
+        <v>36</v>
+      </c>
+      <c r="F962" s="1">
+        <v>43929</v>
+      </c>
+      <c r="G962" t="s">
+        <v>10</v>
+      </c>
+      <c r="H962" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="963" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A963">
+        <v>961</v>
+      </c>
+      <c r="B963" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C963">
+        <v>30</v>
+      </c>
+      <c r="D963" t="s">
+        <v>24</v>
+      </c>
+      <c r="E963" t="s">
+        <v>40</v>
+      </c>
+      <c r="F963" s="1">
+        <v>43923</v>
+      </c>
+      <c r="G963" t="s">
+        <v>10</v>
+      </c>
+      <c r="H963" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="964" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A964">
+        <v>962</v>
+      </c>
+      <c r="B964" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C964">
+        <v>30</v>
+      </c>
+      <c r="D964" t="s">
+        <v>24</v>
+      </c>
+      <c r="E964" t="s">
+        <v>40</v>
+      </c>
+      <c r="F964" s="1">
+        <v>43929</v>
+      </c>
+      <c r="G964" t="s">
+        <v>10</v>
+      </c>
+      <c r="H964" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="965" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A965">
+        <v>963</v>
+      </c>
+      <c r="B965" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C965">
+        <v>60</v>
+      </c>
+      <c r="D965" t="s">
+        <v>24</v>
+      </c>
+      <c r="E965" t="s">
+        <v>40</v>
+      </c>
+      <c r="F965" s="1">
+        <v>43929</v>
+      </c>
+      <c r="G965" t="s">
+        <v>10</v>
+      </c>
+      <c r="H965" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="966" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A966">
+        <v>964</v>
+      </c>
+      <c r="B966" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C966">
+        <v>70</v>
+      </c>
+      <c r="D966" t="s">
+        <v>26</v>
+      </c>
+      <c r="E966" t="s">
+        <v>40</v>
+      </c>
+      <c r="F966" s="1">
+        <v>43928</v>
+      </c>
+      <c r="G966" t="s">
+        <v>10</v>
+      </c>
+      <c r="H966" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="967" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A967">
+        <v>965</v>
+      </c>
+      <c r="B967" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C967">
+        <v>70</v>
+      </c>
+      <c r="D967" t="s">
+        <v>24</v>
+      </c>
+      <c r="E967" t="s">
+        <v>40</v>
+      </c>
+      <c r="F967" s="1">
+        <v>43932</v>
+      </c>
+      <c r="G967" t="s">
+        <v>10</v>
+      </c>
+      <c r="H967" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="968" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A968">
+        <v>966</v>
+      </c>
+      <c r="B968" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C968">
+        <v>90</v>
+      </c>
+      <c r="D968" t="s">
+        <v>24</v>
+      </c>
+      <c r="E968" t="s">
+        <v>40</v>
+      </c>
+      <c r="F968" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G968" t="s">
+        <v>10</v>
+      </c>
+      <c r="H968" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="969" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A969">
+        <v>967</v>
+      </c>
+      <c r="B969" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C969">
+        <v>30</v>
+      </c>
+      <c r="D969" t="s">
+        <v>24</v>
+      </c>
+      <c r="E969" t="s">
+        <v>31</v>
+      </c>
+      <c r="F969" s="1">
+        <v>43923</v>
+      </c>
+      <c r="G969" t="s">
+        <v>10</v>
+      </c>
+      <c r="H969" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="970" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A970">
+        <v>968</v>
+      </c>
+      <c r="B970" s="2">
+        <v>43936</v>
+      </c>
+      <c r="C970">
+        <v>20</v>
+      </c>
+      <c r="D970" t="s">
+        <v>24</v>
+      </c>
+      <c r="E970" t="s">
+        <v>31</v>
+      </c>
+      <c r="F970" s="1">
+        <v>43922</v>
+      </c>
+      <c r="G970" t="s">
+        <v>10</v>
+      </c>
+      <c r="H970" t="s">
         <v>5</v>
       </c>
     </row>
@@ -24090,7 +26022,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J83"/>
+  <dimension ref="A1:J84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -24103,7 +26035,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="3">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="B1" t="s">
         <v>61</v>
@@ -26700,23 +28632,55 @@
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A83" s="4" t="s">
+      <c r="A83" s="2">
+        <v>43936</v>
+      </c>
+      <c r="B83">
+        <v>541</v>
+      </c>
+      <c r="C83">
+        <v>74</v>
+      </c>
+      <c r="D83">
+        <v>968</v>
+      </c>
+      <c r="E83">
+        <v>790</v>
+      </c>
+      <c r="F83">
+        <v>5</v>
+      </c>
+      <c r="G83">
+        <v>169</v>
+      </c>
+      <c r="H83">
+        <v>4</v>
+      </c>
+      <c r="I83">
+        <v>169</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A84" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B83">
-        <v>7940</v>
-      </c>
-      <c r="C83">
-        <v>894</v>
-      </c>
-      <c r="F83">
-        <v>165</v>
-      </c>
-      <c r="H83">
-        <v>165</v>
-      </c>
-      <c r="J83">
-        <v>7</v>
+      <c r="B84">
+        <v>8481</v>
+      </c>
+      <c r="C84">
+        <v>968</v>
+      </c>
+      <c r="F84">
+        <v>169</v>
+      </c>
+      <c r="H84">
+        <v>169</v>
+      </c>
+      <c r="J84">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/data/patients_and_inspections.xlsx
+++ b/data/patients_and_inspections.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.19.163.21\share\企画\020_部局・各課懸案\新型コロナ肺炎\コロナサイト立ち上げ\更新用データ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TanakaMo\AppData\Local\Microsoft\Windows\INetCache\Content.Outlook\C56RE2QH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2010" yWindow="465" windowWidth="33000" windowHeight="19155"/>
+    <workbookView xWindow="2010" yWindow="465" windowWidth="33000" windowHeight="19155" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="【公開OK】ピポット集計" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4049" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4229" uniqueCount="83">
   <si>
     <t>（1）入退院の状況</t>
   </si>
@@ -279,12 +279,6 @@
     <t>阪南市</t>
   </si>
   <si>
-    <t>自宅療養解除①</t>
-  </si>
-  <si>
-    <t>宿泊療養解除①</t>
-  </si>
-  <si>
     <t>高石市</t>
   </si>
   <si>
@@ -366,7 +360,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -387,6 +381,9 @@
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -671,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -695,7 +692,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>169</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -703,7 +700,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>307</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
@@ -711,7 +708,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>484</v>
+        <v>501</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
@@ -727,7 +724,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>968</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
@@ -748,7 +745,7 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <v>691</v>
+        <v>730</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
@@ -764,7 +761,7 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
@@ -780,7 +777,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>169</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
@@ -788,7 +785,7 @@
         <v>7</v>
       </c>
       <c r="B18">
-        <v>968</v>
+        <v>1020</v>
       </c>
     </row>
   </sheetData>
@@ -800,20 +797,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H970"/>
+  <dimension ref="A1:H1022"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E420" sqref="E420"/>
+    <sheetView tabSelected="1" topLeftCell="A317" workbookViewId="0">
+      <selection activeCell="K336" sqref="K336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="3">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="B1" t="s">
         <v>61</v>
@@ -4248,7 +4246,7 @@
         <v>14</v>
       </c>
       <c r="H133" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.4">
@@ -4713,10 +4711,10 @@
         <v>43914</v>
       </c>
       <c r="G151" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H151" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.4">
@@ -4791,10 +4789,10 @@
         <v>43909</v>
       </c>
       <c r="G154" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H154" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.4">
@@ -5675,10 +5673,10 @@
         <v>43901</v>
       </c>
       <c r="G188" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H188" t="s">
-        <v>77</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.4">
@@ -6533,10 +6531,10 @@
         <v>43909</v>
       </c>
       <c r="G221" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H221" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.4">
@@ -6562,7 +6560,7 @@
         <v>10</v>
       </c>
       <c r="H222" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.4">
@@ -6610,7 +6608,7 @@
       <c r="F224" s="1">
         <v>43919</v>
       </c>
-      <c r="G224" t="s">
+      <c r="G224" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H224" t="s">
@@ -6692,7 +6690,7 @@
         <v>10</v>
       </c>
       <c r="H227" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.4">
@@ -6819,10 +6817,10 @@
         <v>43917</v>
       </c>
       <c r="G232" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H232" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.4">
@@ -7004,7 +7002,7 @@
         <v>10</v>
       </c>
       <c r="H239" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.4">
@@ -7131,10 +7129,10 @@
         <v>43916</v>
       </c>
       <c r="G244" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H244" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.4">
@@ -7859,10 +7857,10 @@
         <v>43915</v>
       </c>
       <c r="G272" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H272" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.4">
@@ -8041,10 +8039,10 @@
         <v>43914</v>
       </c>
       <c r="G279" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H279" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.4">
@@ -8070,7 +8068,7 @@
         <v>10</v>
       </c>
       <c r="H280" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.4">
@@ -8509,10 +8507,10 @@
         <v>57</v>
       </c>
       <c r="G297" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H297" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.4">
@@ -8768,7 +8766,7 @@
       <c r="F307" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G307" t="s">
+      <c r="G307" s="7" t="s">
         <v>12</v>
       </c>
       <c r="H307" t="s">
@@ -9474,7 +9472,7 @@
         <v>10</v>
       </c>
       <c r="H334" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.4">
@@ -10043,10 +10041,10 @@
         <v>43917</v>
       </c>
       <c r="G356" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H356" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.4">
@@ -10228,7 +10226,7 @@
         <v>10</v>
       </c>
       <c r="H363" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.4">
@@ -10566,7 +10564,7 @@
         <v>14</v>
       </c>
       <c r="H376" t="s">
-        <v>81</v>
+        <v>3</v>
       </c>
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.4">
@@ -10589,10 +10587,10 @@
         <v>43917</v>
       </c>
       <c r="G377" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H377" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.4">
@@ -11025,7 +11023,7 @@
         <v>26</v>
       </c>
       <c r="E394" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F394" s="1">
         <v>43921</v>
@@ -11866,7 +11864,7 @@
         <v>10</v>
       </c>
       <c r="H426" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="427" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11892,7 +11890,7 @@
         <v>10</v>
       </c>
       <c r="H427" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
     </row>
     <row r="428" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12669,10 +12667,10 @@
         <v>43924</v>
       </c>
       <c r="G457" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H457" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.4">
@@ -12698,7 +12696,7 @@
         <v>10</v>
       </c>
       <c r="H458" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.4">
@@ -14151,10 +14149,10 @@
         <v>43924</v>
       </c>
       <c r="G514" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H514" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="515" spans="1:8" x14ac:dyDescent="0.4">
@@ -14333,10 +14331,10 @@
         <v>47</v>
       </c>
       <c r="G521" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H521" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="522" spans="1:8" x14ac:dyDescent="0.4">
@@ -14752,7 +14750,7 @@
         <v>10</v>
       </c>
       <c r="H537" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="538" spans="1:8" x14ac:dyDescent="0.4">
@@ -15090,7 +15088,7 @@
         <v>10</v>
       </c>
       <c r="H550" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="551" spans="1:8" x14ac:dyDescent="0.4">
@@ -15350,7 +15348,7 @@
         <v>10</v>
       </c>
       <c r="H560" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="561" spans="1:8" x14ac:dyDescent="0.4">
@@ -15376,7 +15374,7 @@
         <v>10</v>
       </c>
       <c r="H561" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="562" spans="1:8" x14ac:dyDescent="0.4">
@@ -16465,10 +16463,10 @@
         <v>43928</v>
       </c>
       <c r="G603" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H603" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="604" spans="1:8" x14ac:dyDescent="0.4">
@@ -18834,7 +18832,7 @@
         <v>47</v>
       </c>
       <c r="H694" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="695" spans="1:8" x14ac:dyDescent="0.4">
@@ -19094,7 +19092,7 @@
         <v>10</v>
       </c>
       <c r="H704" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="705" spans="1:8" x14ac:dyDescent="0.4">
@@ -20368,7 +20366,7 @@
         <v>10</v>
       </c>
       <c r="H753" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="754" spans="1:8" x14ac:dyDescent="0.4">
@@ -20420,7 +20418,7 @@
         <v>10</v>
       </c>
       <c r="H755" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
     </row>
     <row r="756" spans="1:8" x14ac:dyDescent="0.4">
@@ -20446,7 +20444,7 @@
         <v>10</v>
       </c>
       <c r="H756" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="757" spans="1:8" x14ac:dyDescent="0.4">
@@ -21356,7 +21354,7 @@
         <v>10</v>
       </c>
       <c r="H791" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="792" spans="1:8" x14ac:dyDescent="0.4">
@@ -21460,7 +21458,7 @@
         <v>10</v>
       </c>
       <c r="H795" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="796" spans="1:8" x14ac:dyDescent="0.4">
@@ -21772,7 +21770,7 @@
         <v>10</v>
       </c>
       <c r="H807" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="808" spans="1:8" x14ac:dyDescent="0.4">
@@ -21928,7 +21926,7 @@
         <v>10</v>
       </c>
       <c r="H813" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="814" spans="1:8" x14ac:dyDescent="0.4">
@@ -22058,7 +22056,7 @@
         <v>10</v>
       </c>
       <c r="H818" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="819" spans="1:8" x14ac:dyDescent="0.4">
@@ -22110,7 +22108,7 @@
         <v>10</v>
       </c>
       <c r="H820" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="821" spans="1:8" x14ac:dyDescent="0.4">
@@ -22188,7 +22186,7 @@
         <v>10</v>
       </c>
       <c r="H823" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="824" spans="1:8" x14ac:dyDescent="0.4">
@@ -22240,7 +22238,7 @@
         <v>10</v>
       </c>
       <c r="H825" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="826" spans="1:8" x14ac:dyDescent="0.4">
@@ -22682,7 +22680,7 @@
         <v>10</v>
       </c>
       <c r="H842" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="843" spans="1:8" x14ac:dyDescent="0.4">
@@ -22708,7 +22706,7 @@
         <v>10</v>
       </c>
       <c r="H843" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="844" spans="1:8" x14ac:dyDescent="0.4">
@@ -22916,7 +22914,7 @@
         <v>10</v>
       </c>
       <c r="H851" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="852" spans="1:8" x14ac:dyDescent="0.4">
@@ -23098,7 +23096,7 @@
         <v>10</v>
       </c>
       <c r="H858" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="859" spans="1:8" x14ac:dyDescent="0.4">
@@ -23280,7 +23278,7 @@
         <v>10</v>
       </c>
       <c r="H865" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="866" spans="1:8" x14ac:dyDescent="0.4">
@@ -23358,7 +23356,7 @@
         <v>10</v>
       </c>
       <c r="H868" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="869" spans="1:8" x14ac:dyDescent="0.4">
@@ -23384,7 +23382,7 @@
         <v>10</v>
       </c>
       <c r="H869" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="870" spans="1:8" x14ac:dyDescent="0.4">
@@ -23462,7 +23460,7 @@
         <v>10</v>
       </c>
       <c r="H872" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="873" spans="1:8" x14ac:dyDescent="0.4">
@@ -23514,7 +23512,7 @@
         <v>10</v>
       </c>
       <c r="H874" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="875" spans="1:8" x14ac:dyDescent="0.4">
@@ -23540,7 +23538,7 @@
         <v>10</v>
       </c>
       <c r="H875" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="876" spans="1:8" x14ac:dyDescent="0.4">
@@ -23566,7 +23564,7 @@
         <v>10</v>
       </c>
       <c r="H876" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="877" spans="1:8" x14ac:dyDescent="0.4">
@@ -23930,7 +23928,7 @@
         <v>10</v>
       </c>
       <c r="H890" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="891" spans="1:8" x14ac:dyDescent="0.4">
@@ -24008,7 +24006,7 @@
         <v>10</v>
       </c>
       <c r="H893" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="894" spans="1:8" x14ac:dyDescent="0.4">
@@ -24034,7 +24032,7 @@
         <v>10</v>
       </c>
       <c r="H894" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="895" spans="1:8" x14ac:dyDescent="0.4">
@@ -24060,7 +24058,7 @@
         <v>10</v>
       </c>
       <c r="H895" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="896" spans="1:8" x14ac:dyDescent="0.4">
@@ -24086,7 +24084,7 @@
         <v>12</v>
       </c>
       <c r="H896" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="897" spans="1:8" x14ac:dyDescent="0.4">
@@ -24320,7 +24318,7 @@
         <v>10</v>
       </c>
       <c r="H905" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="906" spans="1:8" x14ac:dyDescent="0.4">
@@ -24346,7 +24344,7 @@
         <v>10</v>
       </c>
       <c r="H906" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="907" spans="1:8" x14ac:dyDescent="0.4">
@@ -24597,7 +24595,7 @@
         <v>24</v>
       </c>
       <c r="E916" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F916" s="1">
         <v>43927</v>
@@ -25048,7 +25046,7 @@
         <v>10</v>
       </c>
       <c r="H933" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="934" spans="1:8" x14ac:dyDescent="0.4">
@@ -25360,7 +25358,7 @@
         <v>10</v>
       </c>
       <c r="H945" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="946" spans="1:8" x14ac:dyDescent="0.4">
@@ -25516,7 +25514,7 @@
         <v>10</v>
       </c>
       <c r="H951" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="952" spans="1:8" x14ac:dyDescent="0.4">
@@ -25767,7 +25765,7 @@
         <v>26</v>
       </c>
       <c r="E961" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F961" s="1">
         <v>43931</v>
@@ -26010,22 +26008,1270 @@
         <v>10</v>
       </c>
       <c r="H970" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="971" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A971">
+        <v>969</v>
+      </c>
+      <c r="B971" s="2">
+        <v>43937</v>
+      </c>
+      <c r="C971">
+        <v>20</v>
+      </c>
+      <c r="D971" t="s">
+        <v>24</v>
+      </c>
+      <c r="E971" t="s">
+        <v>25</v>
+      </c>
+      <c r="F971" s="1">
+        <v>43926</v>
+      </c>
+      <c r="G971" t="s">
+        <v>10</v>
+      </c>
+      <c r="H971" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="972" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A972">
+        <v>970</v>
+      </c>
+      <c r="B972" s="2">
+        <v>43937</v>
+      </c>
+      <c r="C972">
+        <v>70</v>
+      </c>
+      <c r="D972" t="s">
+        <v>26</v>
+      </c>
+      <c r="E972" t="s">
+        <v>25</v>
+      </c>
+      <c r="F972" s="1">
+        <v>43934</v>
+      </c>
+      <c r="G972" t="s">
+        <v>10</v>
+      </c>
+      <c r="H972" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="973" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A973">
+        <v>971</v>
+      </c>
+      <c r="B973" s="2">
+        <v>43937</v>
+      </c>
+      <c r="C973">
+        <v>50</v>
+      </c>
+      <c r="D973" t="s">
+        <v>24</v>
+      </c>
+      <c r="E973" t="s">
+        <v>25</v>
+      </c>
+      <c r="F973" s="1">
+        <v>43934</v>
+      </c>
+      <c r="G973" t="s">
+        <v>10</v>
+      </c>
+      <c r="H973" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="974" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A974">
+        <v>972</v>
+      </c>
+      <c r="B974" s="2">
+        <v>43937</v>
+      </c>
+      <c r="C974">
+        <v>40</v>
+      </c>
+      <c r="D974" t="s">
+        <v>26</v>
+      </c>
+      <c r="E974" t="s">
+        <v>25</v>
+      </c>
+      <c r="F974" s="1">
+        <v>43922</v>
+      </c>
+      <c r="G974" t="s">
+        <v>10</v>
+      </c>
+      <c r="H974" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="975" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A975">
+        <v>973</v>
+      </c>
+      <c r="B975" s="2">
+        <v>43937</v>
+      </c>
+      <c r="C975">
+        <v>70</v>
+      </c>
+      <c r="D975" t="s">
+        <v>26</v>
+      </c>
+      <c r="E975" t="s">
+        <v>25</v>
+      </c>
+      <c r="F975" s="1">
+        <v>43931</v>
+      </c>
+      <c r="G975" t="s">
+        <v>10</v>
+      </c>
+      <c r="H975" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="976" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A976">
+        <v>974</v>
+      </c>
+      <c r="B976" s="2">
+        <v>43937</v>
+      </c>
+      <c r="C976">
+        <v>40</v>
+      </c>
+      <c r="D976" t="s">
+        <v>26</v>
+      </c>
+      <c r="E976" t="s">
+        <v>40</v>
+      </c>
+      <c r="F976" s="1">
+        <v>43934</v>
+      </c>
+      <c r="G976" t="s">
+        <v>10</v>
+      </c>
+      <c r="H976" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="977" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A977">
+        <v>975</v>
+      </c>
+      <c r="B977" s="2">
+        <v>43937</v>
+      </c>
+      <c r="C977">
+        <v>20</v>
+      </c>
+      <c r="D977" t="s">
+        <v>26</v>
+      </c>
+      <c r="E977" t="s">
+        <v>39</v>
+      </c>
+      <c r="F977" s="1">
+        <v>43914</v>
+      </c>
+      <c r="G977" t="s">
+        <v>10</v>
+      </c>
+      <c r="H977" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="978" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A978">
+        <v>976</v>
+      </c>
+      <c r="B978" s="2">
+        <v>43937</v>
+      </c>
+      <c r="C978">
+        <v>40</v>
+      </c>
+      <c r="D978" t="s">
+        <v>26</v>
+      </c>
+      <c r="E978" t="s">
+        <v>25</v>
+      </c>
+      <c r="F978" s="1">
+        <v>43928</v>
+      </c>
+      <c r="G978" t="s">
+        <v>11</v>
+      </c>
+      <c r="H978" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="979" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A979">
+        <v>977</v>
+      </c>
+      <c r="B979" s="2">
+        <v>43937</v>
+      </c>
+      <c r="C979">
+        <v>30</v>
+      </c>
+      <c r="D979" t="s">
+        <v>26</v>
+      </c>
+      <c r="E979" t="s">
+        <v>29</v>
+      </c>
+      <c r="F979" s="1">
+        <v>43932</v>
+      </c>
+      <c r="G979" t="s">
+        <v>10</v>
+      </c>
+      <c r="H979" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="980" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A980">
+        <v>978</v>
+      </c>
+      <c r="B980" s="2">
+        <v>43937</v>
+      </c>
+      <c r="C980">
+        <v>30</v>
+      </c>
+      <c r="D980" t="s">
+        <v>26</v>
+      </c>
+      <c r="E980" t="s">
+        <v>48</v>
+      </c>
+      <c r="F980" s="1">
+        <v>43928</v>
+      </c>
+      <c r="G980" t="s">
+        <v>10</v>
+      </c>
+      <c r="H980" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="981" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A981">
+        <v>979</v>
+      </c>
+      <c r="B981" s="2">
+        <v>43937</v>
+      </c>
+      <c r="C981">
+        <v>60</v>
+      </c>
+      <c r="D981" t="s">
+        <v>26</v>
+      </c>
+      <c r="E981" t="s">
+        <v>79</v>
+      </c>
+      <c r="F981" s="1">
+        <v>43929</v>
+      </c>
+      <c r="G981" t="s">
+        <v>10</v>
+      </c>
+      <c r="H981" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="982" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A982">
+        <v>980</v>
+      </c>
+      <c r="B982" s="2">
+        <v>43937</v>
+      </c>
+      <c r="C982">
+        <v>60</v>
+      </c>
+      <c r="D982" t="s">
+        <v>26</v>
+      </c>
+      <c r="E982" t="s">
+        <v>55</v>
+      </c>
+      <c r="F982" s="1">
+        <v>43931</v>
+      </c>
+      <c r="G982" t="s">
+        <v>10</v>
+      </c>
+      <c r="H982" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="983" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A983">
+        <v>981</v>
+      </c>
+      <c r="B983" s="2">
+        <v>43937</v>
+      </c>
+      <c r="C983">
+        <v>30</v>
+      </c>
+      <c r="D983" t="s">
+        <v>24</v>
+      </c>
+      <c r="E983" t="s">
+        <v>55</v>
+      </c>
+      <c r="F983" s="1">
+        <v>43934</v>
+      </c>
+      <c r="G983" t="s">
+        <v>10</v>
+      </c>
+      <c r="H983" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="984" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A984">
+        <v>982</v>
+      </c>
+      <c r="B984" s="2">
+        <v>43937</v>
+      </c>
+      <c r="C984">
+        <v>30</v>
+      </c>
+      <c r="D984" t="s">
+        <v>26</v>
+      </c>
+      <c r="E984" t="s">
+        <v>30</v>
+      </c>
+      <c r="F984" s="1">
+        <v>43928</v>
+      </c>
+      <c r="G984" t="s">
+        <v>10</v>
+      </c>
+      <c r="H984" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="985" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A985">
+        <v>983</v>
+      </c>
+      <c r="B985" s="2">
+        <v>43937</v>
+      </c>
+      <c r="C985">
+        <v>20</v>
+      </c>
+      <c r="D985" t="s">
+        <v>26</v>
+      </c>
+      <c r="E985" t="s">
+        <v>28</v>
+      </c>
+      <c r="F985" s="1">
+        <v>43918</v>
+      </c>
+      <c r="G985" t="s">
+        <v>10</v>
+      </c>
+      <c r="H985" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="986" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A986">
+        <v>984</v>
+      </c>
+      <c r="B986" s="2">
+        <v>43937</v>
+      </c>
+      <c r="C986">
+        <v>40</v>
+      </c>
+      <c r="D986" t="s">
+        <v>26</v>
+      </c>
+      <c r="E986" t="s">
+        <v>49</v>
+      </c>
+      <c r="F986" s="1">
+        <v>43933</v>
+      </c>
+      <c r="G986" t="s">
+        <v>10</v>
+      </c>
+      <c r="H986" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="987" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A987">
+        <v>985</v>
+      </c>
+      <c r="B987" s="2">
+        <v>43937</v>
+      </c>
+      <c r="C987">
+        <v>20</v>
+      </c>
+      <c r="D987" t="s">
+        <v>26</v>
+      </c>
+      <c r="E987" t="s">
+        <v>32</v>
+      </c>
+      <c r="F987" s="1">
+        <v>43931</v>
+      </c>
+      <c r="G987" t="s">
+        <v>10</v>
+      </c>
+      <c r="H987" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="988" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A988">
+        <v>986</v>
+      </c>
+      <c r="B988" s="2">
+        <v>43937</v>
+      </c>
+      <c r="C988">
+        <v>20</v>
+      </c>
+      <c r="D988" t="s">
+        <v>24</v>
+      </c>
+      <c r="E988" t="s">
+        <v>32</v>
+      </c>
+      <c r="F988" s="1">
+        <v>43930</v>
+      </c>
+      <c r="G988" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="989" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A989">
+        <v>987</v>
+      </c>
+      <c r="B989" s="2">
+        <v>43937</v>
+      </c>
+      <c r="C989">
+        <v>40</v>
+      </c>
+      <c r="D989" t="s">
+        <v>24</v>
+      </c>
+      <c r="E989" t="s">
+        <v>25</v>
+      </c>
+      <c r="F989" s="1">
+        <v>43928</v>
+      </c>
+      <c r="G989" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="990" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A990">
+        <v>988</v>
+      </c>
+      <c r="B990" s="2">
+        <v>43937</v>
+      </c>
+      <c r="C990">
+        <v>40</v>
+      </c>
+      <c r="D990" t="s">
+        <v>26</v>
+      </c>
+      <c r="E990" t="s">
+        <v>46</v>
+      </c>
+      <c r="F990" s="1">
+        <v>43932</v>
+      </c>
+      <c r="G990" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="991" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A991">
+        <v>989</v>
+      </c>
+      <c r="B991" s="2">
+        <v>43937</v>
+      </c>
+      <c r="C991">
+        <v>70</v>
+      </c>
+      <c r="D991" t="s">
+        <v>26</v>
+      </c>
+      <c r="E991" t="s">
+        <v>25</v>
+      </c>
+      <c r="F991" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G991" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="992" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A992">
+        <v>990</v>
+      </c>
+      <c r="B992" s="2">
+        <v>43937</v>
+      </c>
+      <c r="C992">
+        <v>80</v>
+      </c>
+      <c r="D992" t="s">
+        <v>24</v>
+      </c>
+      <c r="E992" t="s">
+        <v>42</v>
+      </c>
+      <c r="F992" s="1">
+        <v>43936</v>
+      </c>
+      <c r="G992" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="993" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A993">
+        <v>991</v>
+      </c>
+      <c r="B993" s="2">
+        <v>43937</v>
+      </c>
+      <c r="C993">
+        <v>20</v>
+      </c>
+      <c r="D993" t="s">
+        <v>24</v>
+      </c>
+      <c r="E993" t="s">
+        <v>25</v>
+      </c>
+      <c r="F993" s="1">
+        <v>43936</v>
+      </c>
+      <c r="G993" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="994" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A994">
+        <v>992</v>
+      </c>
+      <c r="B994" s="2">
+        <v>43937</v>
+      </c>
+      <c r="C994">
+        <v>20</v>
+      </c>
+      <c r="D994" t="s">
+        <v>24</v>
+      </c>
+      <c r="E994" t="s">
+        <v>25</v>
+      </c>
+      <c r="F994" s="1">
+        <v>43926</v>
+      </c>
+      <c r="G994" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="995" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A995">
+        <v>993</v>
+      </c>
+      <c r="B995" s="2">
+        <v>43937</v>
+      </c>
+      <c r="C995">
+        <v>40</v>
+      </c>
+      <c r="D995" t="s">
+        <v>24</v>
+      </c>
+      <c r="E995" t="s">
+        <v>25</v>
+      </c>
+      <c r="F995" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G995" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="996" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A996">
+        <v>994</v>
+      </c>
+      <c r="B996" s="2">
+        <v>43937</v>
+      </c>
+      <c r="C996">
+        <v>50</v>
+      </c>
+      <c r="D996" t="s">
+        <v>26</v>
+      </c>
+      <c r="E996" t="s">
+        <v>25</v>
+      </c>
+      <c r="F996" s="1">
+        <v>43927</v>
+      </c>
+      <c r="G996" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="997" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A997">
+        <v>995</v>
+      </c>
+      <c r="B997" s="2">
+        <v>43937</v>
+      </c>
+      <c r="C997">
+        <v>30</v>
+      </c>
+      <c r="D997" t="s">
+        <v>24</v>
+      </c>
+      <c r="E997" t="s">
+        <v>25</v>
+      </c>
+      <c r="F997" s="1">
+        <v>43915</v>
+      </c>
+      <c r="G997" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="998" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A998">
+        <v>996</v>
+      </c>
+      <c r="B998" s="2">
+        <v>43937</v>
+      </c>
+      <c r="C998">
+        <v>50</v>
+      </c>
+      <c r="D998" t="s">
+        <v>24</v>
+      </c>
+      <c r="E998" t="s">
+        <v>25</v>
+      </c>
+      <c r="F998" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G998" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="999" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A999">
+        <v>997</v>
+      </c>
+      <c r="B999" s="2">
+        <v>43937</v>
+      </c>
+      <c r="C999">
+        <v>50</v>
+      </c>
+      <c r="D999" t="s">
+        <v>24</v>
+      </c>
+      <c r="E999" t="s">
+        <v>25</v>
+      </c>
+      <c r="F999" s="1">
+        <v>43932</v>
+      </c>
+      <c r="G999" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1000">
+        <v>998</v>
+      </c>
+      <c r="B1000" s="2">
+        <v>43937</v>
+      </c>
+      <c r="C1000" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1000" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1000" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1000" s="1">
+        <v>43935</v>
+      </c>
+      <c r="G1000" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1001">
+        <v>999</v>
+      </c>
+      <c r="B1001" s="2">
+        <v>43937</v>
+      </c>
+      <c r="C1001">
+        <v>50</v>
+      </c>
+      <c r="D1001" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1001" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1001" s="1">
+        <v>43925</v>
+      </c>
+      <c r="G1001" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1002">
+        <v>1000</v>
+      </c>
+      <c r="B1002" s="2">
+        <v>43937</v>
+      </c>
+      <c r="C1002">
+        <v>20</v>
+      </c>
+      <c r="D1002" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1002" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1002" s="1">
+        <v>43932</v>
+      </c>
+      <c r="G1002" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1003">
+        <v>1001</v>
+      </c>
+      <c r="B1003" s="2">
+        <v>43937</v>
+      </c>
+      <c r="C1003">
+        <v>20</v>
+      </c>
+      <c r="D1003" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1003" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1003" s="1">
+        <v>43922</v>
+      </c>
+      <c r="G1003" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1004">
+        <v>1002</v>
+      </c>
+      <c r="B1004" s="2">
+        <v>43937</v>
+      </c>
+      <c r="C1004">
+        <v>40</v>
+      </c>
+      <c r="D1004" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1004" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1004" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1004" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1005">
+        <v>1003</v>
+      </c>
+      <c r="B1005" s="2">
+        <v>43937</v>
+      </c>
+      <c r="C1005">
+        <v>30</v>
+      </c>
+      <c r="D1005" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1005" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1005" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1005" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1006">
+        <v>1004</v>
+      </c>
+      <c r="B1006" s="2">
+        <v>43937</v>
+      </c>
+      <c r="C1006">
+        <v>40</v>
+      </c>
+      <c r="D1006" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1006" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1006" s="1">
+        <v>43916</v>
+      </c>
+      <c r="G1006" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1007">
+        <v>1005</v>
+      </c>
+      <c r="B1007" s="2">
+        <v>43937</v>
+      </c>
+      <c r="C1007">
+        <v>20</v>
+      </c>
+      <c r="D1007" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1007" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1007" s="1">
+        <v>43929</v>
+      </c>
+      <c r="G1007" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1008">
+        <v>1006</v>
+      </c>
+      <c r="B1008" s="2">
+        <v>43937</v>
+      </c>
+      <c r="C1008">
+        <v>80</v>
+      </c>
+      <c r="D1008" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1008" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1008" s="1">
+        <v>43931</v>
+      </c>
+      <c r="G1008" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1009">
+        <v>1007</v>
+      </c>
+      <c r="B1009" s="2">
+        <v>43937</v>
+      </c>
+      <c r="C1009">
+        <v>50</v>
+      </c>
+      <c r="D1009" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1009" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1009" s="1">
+        <v>43934</v>
+      </c>
+      <c r="G1009" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1010">
+        <v>1008</v>
+      </c>
+      <c r="B1010" s="2">
+        <v>43937</v>
+      </c>
+      <c r="C1010">
+        <v>50</v>
+      </c>
+      <c r="D1010" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1010" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1010" s="1">
+        <v>43928</v>
+      </c>
+      <c r="G1010" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1011">
+        <v>1009</v>
+      </c>
+      <c r="B1011" s="2">
+        <v>43937</v>
+      </c>
+      <c r="C1011">
+        <v>50</v>
+      </c>
+      <c r="D1011" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1011" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1011" s="1">
+        <v>43929</v>
+      </c>
+      <c r="G1011" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1012">
+        <v>1010</v>
+      </c>
+      <c r="B1012" s="2">
+        <v>43937</v>
+      </c>
+      <c r="C1012">
+        <v>20</v>
+      </c>
+      <c r="D1012" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1012" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1012" s="1">
+        <v>43931</v>
+      </c>
+      <c r="G1012" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1013">
+        <v>1011</v>
+      </c>
+      <c r="B1013" s="2">
+        <v>43937</v>
+      </c>
+      <c r="C1013">
+        <v>50</v>
+      </c>
+      <c r="D1013" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1013" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1013" s="1">
+        <v>43932</v>
+      </c>
+      <c r="G1013" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1014">
+        <v>1012</v>
+      </c>
+      <c r="B1014" s="2">
+        <v>43937</v>
+      </c>
+      <c r="C1014">
+        <v>40</v>
+      </c>
+      <c r="D1014" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1014" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1014" s="1">
+        <v>43932</v>
+      </c>
+      <c r="G1014" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1015">
+        <v>1013</v>
+      </c>
+      <c r="B1015" s="2">
+        <v>43937</v>
+      </c>
+      <c r="C1015">
+        <v>60</v>
+      </c>
+      <c r="D1015" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1015" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1015" s="1">
+        <v>43932</v>
+      </c>
+      <c r="G1015" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1016">
+        <v>1014</v>
+      </c>
+      <c r="B1016" s="2">
+        <v>43937</v>
+      </c>
+      <c r="C1016">
+        <v>20</v>
+      </c>
+      <c r="D1016" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1016" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1016" s="1">
+        <v>43930</v>
+      </c>
+      <c r="G1016" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1017">
+        <v>1015</v>
+      </c>
+      <c r="B1017" s="2">
+        <v>43937</v>
+      </c>
+      <c r="C1017">
+        <v>30</v>
+      </c>
+      <c r="D1017" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1017" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1017" s="1">
+        <v>43930</v>
+      </c>
+      <c r="G1017" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1018">
+        <v>1016</v>
+      </c>
+      <c r="B1018" s="2">
+        <v>43937</v>
+      </c>
+      <c r="C1018" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1018" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1018" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1018" s="1">
+        <v>43931</v>
+      </c>
+      <c r="G1018" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1019">
+        <v>1017</v>
+      </c>
+      <c r="B1019" s="2">
+        <v>43937</v>
+      </c>
+      <c r="C1019">
+        <v>30</v>
+      </c>
+      <c r="D1019" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1019" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1019" s="1">
+        <v>43921</v>
+      </c>
+      <c r="G1019" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1020">
+        <v>1018</v>
+      </c>
+      <c r="B1020" s="2">
+        <v>43937</v>
+      </c>
+      <c r="C1020">
+        <v>40</v>
+      </c>
+      <c r="D1020" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1020" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1020" s="1">
+        <v>43931</v>
+      </c>
+      <c r="G1020" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1021">
+        <v>1019</v>
+      </c>
+      <c r="B1021" s="2">
+        <v>43937</v>
+      </c>
+      <c r="C1021">
+        <v>50</v>
+      </c>
+      <c r="D1021" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1021" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1021" s="1">
+        <v>43925</v>
+      </c>
+      <c r="G1021" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1022">
+        <v>1020</v>
+      </c>
+      <c r="B1022" s="2">
+        <v>43937</v>
+      </c>
+      <c r="C1022">
+        <v>40</v>
+      </c>
+      <c r="D1022" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1022" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1022" s="1">
+        <v>43932</v>
+      </c>
+      <c r="G1022" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:H837"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J84"/>
+  <dimension ref="A1:J85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="H85" sqref="H85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -26035,7 +27281,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="3">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="B1" t="s">
         <v>61</v>
@@ -28664,22 +29910,54 @@
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A84" s="4" t="s">
+      <c r="A84" s="2">
+        <v>43937</v>
+      </c>
+      <c r="B84">
+        <v>539</v>
+      </c>
+      <c r="C84">
+        <v>52</v>
+      </c>
+      <c r="D84">
+        <v>1020</v>
+      </c>
+      <c r="E84">
+        <v>828</v>
+      </c>
+      <c r="F84">
+        <v>10</v>
+      </c>
+      <c r="G84">
+        <v>184</v>
+      </c>
+      <c r="H84">
+        <v>15</v>
+      </c>
+      <c r="I84">
+        <v>184</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A85" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B84">
-        <v>8481</v>
-      </c>
-      <c r="C84">
-        <v>968</v>
-      </c>
-      <c r="F84">
-        <v>169</v>
-      </c>
-      <c r="H84">
-        <v>169</v>
-      </c>
-      <c r="J84">
+      <c r="B85">
+        <v>9020</v>
+      </c>
+      <c r="C85">
+        <v>1020</v>
+      </c>
+      <c r="F85">
+        <v>184</v>
+      </c>
+      <c r="H85">
+        <v>184</v>
+      </c>
+      <c r="J85">
         <v>8</v>
       </c>
     </row>

--- a/data/patients_and_inspections.xlsx
+++ b/data/patients_and_inspections.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TanakaMo\AppData\Local\Microsoft\Windows\INetCache\Content.Outlook\C56RE2QH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.19.161.23\kansen_fol\03防疫L（移行済）\06　中国武漢市肺炎（新型コロナウイルス）\検査の状況(HP更新)\陽性者入院状況\コロナサイト\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
     <sheet name="【公開OK】コロナサイト用（日付ベース）" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'【公開OK】府HP用(陽性者ベース)'!$A$2:$H$837</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'【公開OK】府HP用(陽性者ベース)'!$A$2:$H$1077</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4229" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4495" uniqueCount="84">
   <si>
     <t>（1）入退院の状況</t>
   </si>
@@ -287,6 +287,10 @@
   <si>
     <t>河南町</t>
   </si>
+  <si>
+    <t>退院</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -360,7 +364,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -381,9 +385,6 @@
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -669,7 +670,7 @@
   <dimension ref="A2:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -692,7 +693,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>184</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -700,7 +701,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>327</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
@@ -708,7 +709,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>501</v>
+        <v>517</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
@@ -716,7 +717,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
@@ -724,7 +725,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1020</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
@@ -745,7 +746,7 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <v>730</v>
+        <v>761</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
@@ -753,7 +754,7 @@
         <v>11</v>
       </c>
       <c r="B14">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
@@ -761,7 +762,7 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
@@ -769,7 +770,7 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
@@ -777,7 +778,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>184</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
@@ -785,7 +786,7 @@
         <v>7</v>
       </c>
       <c r="B18">
-        <v>1020</v>
+        <v>1075</v>
       </c>
     </row>
   </sheetData>
@@ -797,21 +798,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1022"/>
+  <dimension ref="A1:H1077"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A317" workbookViewId="0">
-      <selection activeCell="K336" sqref="K336"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="3">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="B1" t="s">
         <v>61</v>
@@ -4246,7 +4244,7 @@
         <v>14</v>
       </c>
       <c r="H133" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.4">
@@ -4893,10 +4891,10 @@
         <v>43911</v>
       </c>
       <c r="G158" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H158" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.4">
@@ -5257,10 +5255,10 @@
         <v>43912</v>
       </c>
       <c r="G172" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H172" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.4">
@@ -5676,7 +5674,7 @@
         <v>14</v>
       </c>
       <c r="H188" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.4">
@@ -6115,7 +6113,7 @@
         <v>43913</v>
       </c>
       <c r="G205" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H205" t="s">
         <v>4</v>
@@ -6141,10 +6139,10 @@
         <v>43918</v>
       </c>
       <c r="G206" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H206" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.4">
@@ -6608,11 +6606,11 @@
       <c r="F224" s="1">
         <v>43919</v>
       </c>
-      <c r="G224" s="7" t="s">
-        <v>10</v>
+      <c r="G224" t="s">
+        <v>14</v>
       </c>
       <c r="H224" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.4">
@@ -6687,10 +6685,10 @@
         <v>43911</v>
       </c>
       <c r="G227" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H227" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.4">
@@ -6869,10 +6867,10 @@
         <v>47</v>
       </c>
       <c r="G234" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H234" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.4">
@@ -7259,10 +7257,10 @@
         <v>43917</v>
       </c>
       <c r="G249" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H249" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.4">
@@ -7415,10 +7413,10 @@
         <v>57</v>
       </c>
       <c r="G255" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H255" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.4">
@@ -7493,10 +7491,10 @@
         <v>57</v>
       </c>
       <c r="G258" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H258" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.4">
@@ -7545,10 +7543,10 @@
         <v>57</v>
       </c>
       <c r="G260" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H260" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.4">
@@ -7571,10 +7569,10 @@
         <v>57</v>
       </c>
       <c r="G261" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H261" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.4">
@@ -7597,10 +7595,10 @@
         <v>57</v>
       </c>
       <c r="G262" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H262" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.4">
@@ -7623,10 +7621,10 @@
         <v>57</v>
       </c>
       <c r="G263" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H263" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.4">
@@ -7649,10 +7647,10 @@
         <v>57</v>
       </c>
       <c r="G264" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H264" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.4">
@@ -7675,10 +7673,10 @@
         <v>57</v>
       </c>
       <c r="G265" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H265" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.4">
@@ -7701,10 +7699,10 @@
         <v>57</v>
       </c>
       <c r="G266" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H266" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.4">
@@ -7727,10 +7725,10 @@
         <v>57</v>
       </c>
       <c r="G267" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H267" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.4">
@@ -7831,10 +7829,10 @@
         <v>43910</v>
       </c>
       <c r="G271" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H271" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.4">
@@ -7935,10 +7933,10 @@
         <v>43919</v>
       </c>
       <c r="G275" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H275" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.4">
@@ -8718,7 +8716,7 @@
         <v>10</v>
       </c>
       <c r="H305" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.4">
@@ -8766,11 +8764,11 @@
       <c r="F307" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G307" s="7" t="s">
-        <v>12</v>
+      <c r="G307" t="s">
+        <v>14</v>
       </c>
       <c r="H307" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.4">
@@ -8926,7 +8924,7 @@
         <v>10</v>
       </c>
       <c r="H313" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.4">
@@ -8952,7 +8950,7 @@
         <v>10</v>
       </c>
       <c r="H314" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.4">
@@ -8978,7 +8976,7 @@
         <v>10</v>
       </c>
       <c r="H315" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.4">
@@ -9030,7 +9028,7 @@
         <v>10</v>
       </c>
       <c r="H317" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.4">
@@ -9056,7 +9054,7 @@
         <v>10</v>
       </c>
       <c r="H318" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.4">
@@ -9134,7 +9132,7 @@
         <v>10</v>
       </c>
       <c r="H321" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.4">
@@ -9160,7 +9158,7 @@
         <v>10</v>
       </c>
       <c r="H322" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.4">
@@ -9186,7 +9184,7 @@
         <v>10</v>
       </c>
       <c r="H323" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.4">
@@ -9238,7 +9236,7 @@
         <v>10</v>
       </c>
       <c r="H325" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.4">
@@ -9342,7 +9340,7 @@
         <v>10</v>
       </c>
       <c r="H329" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.4">
@@ -9368,7 +9366,7 @@
         <v>10</v>
       </c>
       <c r="H330" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.4">
@@ -9394,7 +9392,7 @@
         <v>10</v>
       </c>
       <c r="H331" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.4">
@@ -9914,7 +9912,7 @@
         <v>10</v>
       </c>
       <c r="H351" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.4">
@@ -9940,7 +9938,7 @@
         <v>10</v>
       </c>
       <c r="H352" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.4">
@@ -10174,7 +10172,7 @@
         <v>10</v>
       </c>
       <c r="H361" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.4">
@@ -10304,7 +10302,7 @@
         <v>10</v>
       </c>
       <c r="H366" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.4">
@@ -10330,7 +10328,7 @@
         <v>10</v>
       </c>
       <c r="H367" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.4">
@@ -10356,7 +10354,7 @@
         <v>10</v>
       </c>
       <c r="H368" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.4">
@@ -10382,7 +10380,7 @@
         <v>10</v>
       </c>
       <c r="H369" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.4">
@@ -10564,7 +10562,7 @@
         <v>14</v>
       </c>
       <c r="H376" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.4">
@@ -11058,7 +11056,7 @@
         <v>10</v>
       </c>
       <c r="H395" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.4">
@@ -11162,7 +11160,7 @@
         <v>10</v>
       </c>
       <c r="H399" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.4">
@@ -11318,7 +11316,7 @@
         <v>10</v>
       </c>
       <c r="H405" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.4">
@@ -11370,7 +11368,7 @@
         <v>10</v>
       </c>
       <c r="H407" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.4">
@@ -11500,7 +11498,7 @@
         <v>10</v>
       </c>
       <c r="H412" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="413" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11552,7 +11550,7 @@
         <v>10</v>
       </c>
       <c r="H414" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="415" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11809,10 +11807,10 @@
         <v>43921</v>
       </c>
       <c r="G424" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H424" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="425" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12589,10 +12587,10 @@
         <v>43918</v>
       </c>
       <c r="G454" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H454" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.4">
@@ -12953,10 +12951,10 @@
         <v>43919</v>
       </c>
       <c r="G468" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H468" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="469" spans="1:8" x14ac:dyDescent="0.4">
@@ -15241,7 +15239,7 @@
         <v>43926</v>
       </c>
       <c r="G556" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H556" t="s">
         <v>4</v>
@@ -15397,10 +15395,10 @@
         <v>43921</v>
       </c>
       <c r="G562" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H562" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="563" spans="1:8" x14ac:dyDescent="0.4">
@@ -15787,10 +15785,10 @@
         <v>43917</v>
       </c>
       <c r="G577" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H577" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="578" spans="1:8" x14ac:dyDescent="0.4">
@@ -17607,10 +17605,10 @@
         <v>43925</v>
       </c>
       <c r="G647" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H647" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="648" spans="1:8" x14ac:dyDescent="0.4">
@@ -20103,10 +20101,10 @@
         <v>43917</v>
       </c>
       <c r="G743" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H743" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="744" spans="1:8" x14ac:dyDescent="0.4">
@@ -20363,10 +20361,10 @@
         <v>43926</v>
       </c>
       <c r="G753" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H753" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="754" spans="1:8" x14ac:dyDescent="0.4">
@@ -22469,7 +22467,7 @@
         <v>43931</v>
       </c>
       <c r="G834" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H834" t="s">
         <v>4</v>
@@ -24159,10 +24157,10 @@
         <v>43929</v>
       </c>
       <c r="G899" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H899" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="900" spans="1:8" x14ac:dyDescent="0.4">
@@ -26475,6 +26473,9 @@
       <c r="G988" t="s">
         <v>10</v>
       </c>
+      <c r="H988" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="989" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A989">
@@ -26498,6 +26499,9 @@
       <c r="G989" t="s">
         <v>10</v>
       </c>
+      <c r="H989" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="990" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A990">
@@ -26513,13 +26517,16 @@
         <v>26</v>
       </c>
       <c r="E990" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F990" s="1">
         <v>43932</v>
       </c>
       <c r="G990" t="s">
         <v>10</v>
+      </c>
+      <c r="H990" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="991" spans="1:8" x14ac:dyDescent="0.4">
@@ -26544,6 +26551,9 @@
       <c r="G991" t="s">
         <v>47</v>
       </c>
+      <c r="H991" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="992" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A992">
@@ -26567,8 +26577,11 @@
       <c r="G992" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="993" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H992" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="993" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A993">
         <v>991</v>
       </c>
@@ -26590,8 +26603,11 @@
       <c r="G993" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="994" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H993" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="994" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A994">
         <v>992</v>
       </c>
@@ -26613,8 +26629,11 @@
       <c r="G994" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="995" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H994" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="995" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A995">
         <v>993</v>
       </c>
@@ -26636,8 +26655,11 @@
       <c r="G995" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="996" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H995" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="996" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A996">
         <v>994</v>
       </c>
@@ -26659,8 +26681,11 @@
       <c r="G996" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="997" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H996" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="997" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A997">
         <v>995</v>
       </c>
@@ -26682,8 +26707,11 @@
       <c r="G997" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="998" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H997" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="998" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A998">
         <v>996</v>
       </c>
@@ -26705,8 +26733,11 @@
       <c r="G998" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="999" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H998" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="999" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A999">
         <v>997</v>
       </c>
@@ -26728,8 +26759,11 @@
       <c r="G999" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="1000" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H999" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1000">
         <v>998</v>
       </c>
@@ -26751,8 +26785,11 @@
       <c r="G1000" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="1001" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H1000" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1001">
         <v>999</v>
       </c>
@@ -26774,8 +26811,11 @@
       <c r="G1001" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="1002" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H1001" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1002">
         <v>1000</v>
       </c>
@@ -26797,8 +26837,11 @@
       <c r="G1002" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="1003" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H1002" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1003">
         <v>1001</v>
       </c>
@@ -26820,8 +26863,11 @@
       <c r="G1003" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="1004" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H1003" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1004">
         <v>1002</v>
       </c>
@@ -26843,8 +26889,11 @@
       <c r="G1004" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="1005" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H1004" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1005">
         <v>1003</v>
       </c>
@@ -26866,8 +26915,11 @@
       <c r="G1005" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="1006" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H1005" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1006">
         <v>1004</v>
       </c>
@@ -26889,8 +26941,11 @@
       <c r="G1006" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="1007" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H1006" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1007">
         <v>1005</v>
       </c>
@@ -26912,8 +26967,11 @@
       <c r="G1007" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="1008" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H1007" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1008">
         <v>1006</v>
       </c>
@@ -26935,8 +26993,11 @@
       <c r="G1008" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="1009" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H1008" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1009">
         <v>1007</v>
       </c>
@@ -26958,8 +27019,11 @@
       <c r="G1009" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="1010" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H1009" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1010">
         <v>1008</v>
       </c>
@@ -26981,8 +27045,11 @@
       <c r="G1010" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="1011" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H1010" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1011">
         <v>1009</v>
       </c>
@@ -27004,8 +27071,11 @@
       <c r="G1011" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="1012" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H1011" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1012">
         <v>1010</v>
       </c>
@@ -27027,8 +27097,11 @@
       <c r="G1012" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="1013" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H1012" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1013">
         <v>1011</v>
       </c>
@@ -27050,8 +27123,11 @@
       <c r="G1013" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="1014" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H1013" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1014">
         <v>1012</v>
       </c>
@@ -27073,8 +27149,11 @@
       <c r="G1014" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="1015" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H1014" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1015">
         <v>1013</v>
       </c>
@@ -27096,8 +27175,11 @@
       <c r="G1015" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="1016" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H1015" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1016">
         <v>1014</v>
       </c>
@@ -27119,8 +27201,11 @@
       <c r="G1016" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="1017" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H1016" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1017">
         <v>1015</v>
       </c>
@@ -27142,8 +27227,11 @@
       <c r="G1017" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="1018" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H1017" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1018">
         <v>1016</v>
       </c>
@@ -27165,8 +27253,11 @@
       <c r="G1018" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="1019" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H1018" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1019">
         <v>1017</v>
       </c>
@@ -27188,8 +27279,11 @@
       <c r="G1019" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="1020" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H1019" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1020">
         <v>1018</v>
       </c>
@@ -27211,8 +27305,11 @@
       <c r="G1020" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="1021" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H1020" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1021">
         <v>1019</v>
       </c>
@@ -27234,8 +27331,11 @@
       <c r="G1021" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="1022" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H1021" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1022">
         <v>1020</v>
       </c>
@@ -27257,22 +27357,1452 @@
       <c r="G1022" t="s">
         <v>10</v>
       </c>
+      <c r="H1022" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1023">
+        <v>1021</v>
+      </c>
+      <c r="B1023" s="2">
+        <v>43938</v>
+      </c>
+      <c r="C1023">
+        <v>50</v>
+      </c>
+      <c r="D1023" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1023" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1023" s="1">
+        <v>43933</v>
+      </c>
+      <c r="G1023" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1023" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1024">
+        <v>1022</v>
+      </c>
+      <c r="B1024" s="2">
+        <v>43938</v>
+      </c>
+      <c r="C1024">
+        <v>20</v>
+      </c>
+      <c r="D1024" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1024" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1024" s="1">
+        <v>43932</v>
+      </c>
+      <c r="G1024" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1024" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1025">
+        <v>1023</v>
+      </c>
+      <c r="B1025" s="2">
+        <v>43938</v>
+      </c>
+      <c r="C1025">
+        <v>20</v>
+      </c>
+      <c r="D1025" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1025" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1025" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1025" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1025" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1026">
+        <v>1024</v>
+      </c>
+      <c r="B1026" s="2">
+        <v>43938</v>
+      </c>
+      <c r="C1026">
+        <v>30</v>
+      </c>
+      <c r="D1026" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1026" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1026" s="1">
+        <v>43934</v>
+      </c>
+      <c r="G1026" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1026" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1027">
+        <v>1025</v>
+      </c>
+      <c r="B1027" s="2">
+        <v>43938</v>
+      </c>
+      <c r="C1027">
+        <v>50</v>
+      </c>
+      <c r="D1027" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1027" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1027" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1027" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1027" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1028">
+        <v>1026</v>
+      </c>
+      <c r="B1028" s="2">
+        <v>43938</v>
+      </c>
+      <c r="C1028">
+        <v>80</v>
+      </c>
+      <c r="D1028" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1028" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1028" s="1">
+        <v>43920</v>
+      </c>
+      <c r="G1028" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1028" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1029">
+        <v>1027</v>
+      </c>
+      <c r="B1029" s="2">
+        <v>43938</v>
+      </c>
+      <c r="C1029">
+        <v>30</v>
+      </c>
+      <c r="D1029" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1029" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1029" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1029" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1029" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1030">
+        <v>1028</v>
+      </c>
+      <c r="B1030" s="2">
+        <v>43938</v>
+      </c>
+      <c r="C1030">
+        <v>60</v>
+      </c>
+      <c r="D1030" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1030" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1030" s="1">
+        <v>43933</v>
+      </c>
+      <c r="G1030" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1030" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1031">
+        <v>1029</v>
+      </c>
+      <c r="B1031" s="2">
+        <v>43938</v>
+      </c>
+      <c r="C1031">
+        <v>50</v>
+      </c>
+      <c r="D1031" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1031" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1031" s="1">
+        <v>43931</v>
+      </c>
+      <c r="G1031" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1031" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1032">
+        <v>1030</v>
+      </c>
+      <c r="B1032" s="2">
+        <v>43938</v>
+      </c>
+      <c r="C1032">
+        <v>40</v>
+      </c>
+      <c r="D1032" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1032" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1032" s="1">
+        <v>43933</v>
+      </c>
+      <c r="G1032" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1032" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1033">
+        <v>1031</v>
+      </c>
+      <c r="B1033" s="2">
+        <v>43938</v>
+      </c>
+      <c r="C1033">
+        <v>30</v>
+      </c>
+      <c r="D1033" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1033" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1033" s="1">
+        <v>43929</v>
+      </c>
+      <c r="G1033" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1033" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1034">
+        <v>1032</v>
+      </c>
+      <c r="B1034" s="2">
+        <v>43938</v>
+      </c>
+      <c r="C1034">
+        <v>30</v>
+      </c>
+      <c r="D1034" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1034" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1034" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1034" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1034" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1035">
+        <v>1033</v>
+      </c>
+      <c r="B1035" s="2">
+        <v>43938</v>
+      </c>
+      <c r="C1035">
+        <v>20</v>
+      </c>
+      <c r="D1035" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1035" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1035" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1035" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1035" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1036">
+        <v>1034</v>
+      </c>
+      <c r="B1036" s="2">
+        <v>43938</v>
+      </c>
+      <c r="C1036">
+        <v>30</v>
+      </c>
+      <c r="D1036" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1036" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1036" s="1">
+        <v>43929</v>
+      </c>
+      <c r="G1036" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1036" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1037">
+        <v>1035</v>
+      </c>
+      <c r="B1037" s="2">
+        <v>43938</v>
+      </c>
+      <c r="C1037">
+        <v>40</v>
+      </c>
+      <c r="D1037" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1037" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1037" s="1">
+        <v>43928</v>
+      </c>
+      <c r="G1037" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1037" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1038">
+        <v>1036</v>
+      </c>
+      <c r="B1038" s="2">
+        <v>43938</v>
+      </c>
+      <c r="C1038">
+        <v>70</v>
+      </c>
+      <c r="D1038" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1038" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1038" s="1">
+        <v>43927</v>
+      </c>
+      <c r="G1038" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1038" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1039">
+        <v>1037</v>
+      </c>
+      <c r="B1039" s="2">
+        <v>43938</v>
+      </c>
+      <c r="C1039">
+        <v>30</v>
+      </c>
+      <c r="D1039" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1039" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1039" s="1">
+        <v>43933</v>
+      </c>
+      <c r="G1039" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1039" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1040">
+        <v>1038</v>
+      </c>
+      <c r="B1040" s="2">
+        <v>43938</v>
+      </c>
+      <c r="C1040">
+        <v>50</v>
+      </c>
+      <c r="D1040" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1040" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1040" s="1">
+        <v>43933</v>
+      </c>
+      <c r="G1040" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1040" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1041">
+        <v>1039</v>
+      </c>
+      <c r="B1041" s="2">
+        <v>43938</v>
+      </c>
+      <c r="C1041">
+        <v>40</v>
+      </c>
+      <c r="D1041" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1041" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1041" s="1">
+        <v>43935</v>
+      </c>
+      <c r="G1041" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1041" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1042">
+        <v>1040</v>
+      </c>
+      <c r="B1042" s="2">
+        <v>43938</v>
+      </c>
+      <c r="C1042">
+        <v>60</v>
+      </c>
+      <c r="D1042" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1042" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1042" s="1">
+        <v>43932</v>
+      </c>
+      <c r="G1042" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1042" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1043">
+        <v>1041</v>
+      </c>
+      <c r="B1043" s="2">
+        <v>43938</v>
+      </c>
+      <c r="C1043">
+        <v>80</v>
+      </c>
+      <c r="D1043" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1043" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1043" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1043" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1043" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1044">
+        <v>1042</v>
+      </c>
+      <c r="B1044" s="2">
+        <v>43938</v>
+      </c>
+      <c r="C1044">
+        <v>70</v>
+      </c>
+      <c r="D1044" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1044" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1044" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1044" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1044" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1045">
+        <v>1043</v>
+      </c>
+      <c r="B1045" s="2">
+        <v>43938</v>
+      </c>
+      <c r="C1045">
+        <v>40</v>
+      </c>
+      <c r="D1045" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1045" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1045" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1045" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1045" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1046">
+        <v>1044</v>
+      </c>
+      <c r="B1046" s="2">
+        <v>43938</v>
+      </c>
+      <c r="C1046">
+        <v>20</v>
+      </c>
+      <c r="D1046" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1046" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1046" s="1">
+        <v>43923</v>
+      </c>
+      <c r="G1046" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1046" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1047">
+        <v>1045</v>
+      </c>
+      <c r="B1047" s="2">
+        <v>43938</v>
+      </c>
+      <c r="C1047">
+        <v>50</v>
+      </c>
+      <c r="D1047" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1047" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1047" s="1">
+        <v>43927</v>
+      </c>
+      <c r="G1047" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1047" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1048">
+        <v>1046</v>
+      </c>
+      <c r="B1048" s="2">
+        <v>43938</v>
+      </c>
+      <c r="C1048">
+        <v>60</v>
+      </c>
+      <c r="D1048" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1048" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1048" s="1">
+        <v>43932</v>
+      </c>
+      <c r="G1048" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1048" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1049">
+        <v>1047</v>
+      </c>
+      <c r="B1049" s="2">
+        <v>43938</v>
+      </c>
+      <c r="C1049">
+        <v>20</v>
+      </c>
+      <c r="D1049" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1049" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1049" s="1">
+        <v>43925</v>
+      </c>
+      <c r="G1049" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1049" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1050">
+        <v>1048</v>
+      </c>
+      <c r="B1050" s="2">
+        <v>43938</v>
+      </c>
+      <c r="C1050">
+        <v>20</v>
+      </c>
+      <c r="D1050" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1050" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1050" s="1">
+        <v>43924</v>
+      </c>
+      <c r="G1050" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1050" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1051">
+        <v>1049</v>
+      </c>
+      <c r="B1051" s="2">
+        <v>43938</v>
+      </c>
+      <c r="C1051">
+        <v>20</v>
+      </c>
+      <c r="D1051" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1051" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1051" s="1">
+        <v>43924</v>
+      </c>
+      <c r="G1051" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1051" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1052">
+        <v>1050</v>
+      </c>
+      <c r="B1052" s="2">
+        <v>43938</v>
+      </c>
+      <c r="C1052">
+        <v>60</v>
+      </c>
+      <c r="D1052" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1052" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1052" s="1">
+        <v>43931</v>
+      </c>
+      <c r="G1052" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1052" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1053">
+        <v>1051</v>
+      </c>
+      <c r="B1053" s="2">
+        <v>43938</v>
+      </c>
+      <c r="C1053">
+        <v>40</v>
+      </c>
+      <c r="D1053" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1053" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1053" s="1">
+        <v>43923</v>
+      </c>
+      <c r="G1053" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1053" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1054">
+        <v>1052</v>
+      </c>
+      <c r="B1054" s="2">
+        <v>43938</v>
+      </c>
+      <c r="C1054">
+        <v>60</v>
+      </c>
+      <c r="D1054" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1054" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1054" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1054" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1054" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1055">
+        <v>1053</v>
+      </c>
+      <c r="B1055" s="2">
+        <v>43938</v>
+      </c>
+      <c r="C1055">
+        <v>70</v>
+      </c>
+      <c r="D1055" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1055" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1055" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1055" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1055" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1056">
+        <v>1054</v>
+      </c>
+      <c r="B1056" s="2">
+        <v>43938</v>
+      </c>
+      <c r="C1056">
+        <v>40</v>
+      </c>
+      <c r="D1056" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1056" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1056" s="1">
+        <v>43926</v>
+      </c>
+      <c r="G1056" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1056" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1057">
+        <v>1055</v>
+      </c>
+      <c r="B1057" s="2">
+        <v>43938</v>
+      </c>
+      <c r="C1057">
+        <v>60</v>
+      </c>
+      <c r="D1057" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1057" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1057" s="1">
+        <v>43934</v>
+      </c>
+      <c r="G1057" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1057" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1058">
+        <v>1056</v>
+      </c>
+      <c r="B1058" s="2">
+        <v>43938</v>
+      </c>
+      <c r="C1058">
+        <v>60</v>
+      </c>
+      <c r="D1058" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1058" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1058" s="1">
+        <v>43929</v>
+      </c>
+      <c r="G1058" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1058" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1059">
+        <v>1057</v>
+      </c>
+      <c r="B1059" s="2">
+        <v>43938</v>
+      </c>
+      <c r="C1059">
+        <v>40</v>
+      </c>
+      <c r="D1059" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1059" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1059" s="1">
+        <v>43927</v>
+      </c>
+      <c r="G1059" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1059" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1060">
+        <v>1058</v>
+      </c>
+      <c r="B1060" s="2">
+        <v>43938</v>
+      </c>
+      <c r="C1060">
+        <v>30</v>
+      </c>
+      <c r="D1060" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1060" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1060" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1060" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1060" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1061">
+        <v>1059</v>
+      </c>
+      <c r="B1061" s="2">
+        <v>43938</v>
+      </c>
+      <c r="C1061">
+        <v>40</v>
+      </c>
+      <c r="D1061" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1061" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1061" s="1">
+        <v>43927</v>
+      </c>
+      <c r="G1061" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1061" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1062">
+        <v>1060</v>
+      </c>
+      <c r="B1062" s="2">
+        <v>43938</v>
+      </c>
+      <c r="C1062">
+        <v>40</v>
+      </c>
+      <c r="D1062" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1062" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1062" s="1">
+        <v>43935</v>
+      </c>
+      <c r="G1062" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1062" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1063">
+        <v>1061</v>
+      </c>
+      <c r="B1063" s="2">
+        <v>43938</v>
+      </c>
+      <c r="C1063">
+        <v>20</v>
+      </c>
+      <c r="D1063" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1063" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1063" s="1">
+        <v>43930</v>
+      </c>
+      <c r="G1063" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1063" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1064">
+        <v>1062</v>
+      </c>
+      <c r="B1064" s="2">
+        <v>43938</v>
+      </c>
+      <c r="C1064">
+        <v>50</v>
+      </c>
+      <c r="D1064" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1064" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1064" s="1">
+        <v>43933</v>
+      </c>
+      <c r="G1064" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1064" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1065">
+        <v>1063</v>
+      </c>
+      <c r="B1065" s="2">
+        <v>43938</v>
+      </c>
+      <c r="C1065">
+        <v>30</v>
+      </c>
+      <c r="D1065" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1065" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1065" s="1">
+        <v>43931</v>
+      </c>
+      <c r="G1065" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1065" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1066">
+        <v>1064</v>
+      </c>
+      <c r="B1066" s="2">
+        <v>43938</v>
+      </c>
+      <c r="C1066">
+        <v>20</v>
+      </c>
+      <c r="D1066" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1066" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1066" s="1">
+        <v>43922</v>
+      </c>
+      <c r="G1066" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1066" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1067">
+        <v>1065</v>
+      </c>
+      <c r="B1067" s="2">
+        <v>43938</v>
+      </c>
+      <c r="C1067">
+        <v>20</v>
+      </c>
+      <c r="D1067" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1067" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1067" s="1">
+        <v>43924</v>
+      </c>
+      <c r="G1067" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1067" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1068">
+        <v>1066</v>
+      </c>
+      <c r="B1068" s="2">
+        <v>43938</v>
+      </c>
+      <c r="C1068">
+        <v>20</v>
+      </c>
+      <c r="D1068" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1068" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1068" s="1">
+        <v>43931</v>
+      </c>
+      <c r="G1068" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1068" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1069">
+        <v>1067</v>
+      </c>
+      <c r="B1069" s="2">
+        <v>43938</v>
+      </c>
+      <c r="C1069">
+        <v>40</v>
+      </c>
+      <c r="D1069" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1069" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1069" s="1">
+        <v>43931</v>
+      </c>
+      <c r="G1069" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1069" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1070">
+        <v>1068</v>
+      </c>
+      <c r="B1070" s="2">
+        <v>43938</v>
+      </c>
+      <c r="C1070">
+        <v>50</v>
+      </c>
+      <c r="D1070" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1070" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1070" s="1">
+        <v>43931</v>
+      </c>
+      <c r="G1070" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1070" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1071">
+        <v>1069</v>
+      </c>
+      <c r="B1071" s="2">
+        <v>43938</v>
+      </c>
+      <c r="C1071">
+        <v>80</v>
+      </c>
+      <c r="D1071" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1071" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1071" s="1">
+        <v>43922</v>
+      </c>
+      <c r="G1071" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1071" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1072">
+        <v>1070</v>
+      </c>
+      <c r="B1072" s="2">
+        <v>43938</v>
+      </c>
+      <c r="C1072">
+        <v>30</v>
+      </c>
+      <c r="D1072" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1072" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1072" s="1">
+        <v>43931</v>
+      </c>
+      <c r="G1072" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1072" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1073">
+        <v>1071</v>
+      </c>
+      <c r="B1073" s="2">
+        <v>43938</v>
+      </c>
+      <c r="C1073">
+        <v>60</v>
+      </c>
+      <c r="D1073" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1073" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1073" s="1">
+        <v>43938</v>
+      </c>
+      <c r="G1073" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1073" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1074">
+        <v>1072</v>
+      </c>
+      <c r="B1074" s="2">
+        <v>43938</v>
+      </c>
+      <c r="C1074">
+        <v>50</v>
+      </c>
+      <c r="D1074" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1074" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1074" s="1">
+        <v>43928</v>
+      </c>
+      <c r="G1074" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1074" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1075">
+        <v>1073</v>
+      </c>
+      <c r="B1075" s="2">
+        <v>43938</v>
+      </c>
+      <c r="C1075">
+        <v>70</v>
+      </c>
+      <c r="D1075" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1075" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1075" s="1">
+        <v>43929</v>
+      </c>
+      <c r="G1075" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1075" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1076">
+        <v>1074</v>
+      </c>
+      <c r="B1076" s="2">
+        <v>43938</v>
+      </c>
+      <c r="C1076">
+        <v>50</v>
+      </c>
+      <c r="D1076" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1076" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1076" s="1">
+        <v>43934</v>
+      </c>
+      <c r="G1076" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1076" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1077">
+        <v>1075</v>
+      </c>
+      <c r="B1077" s="2">
+        <v>43938</v>
+      </c>
+      <c r="C1077">
+        <v>20</v>
+      </c>
+      <c r="D1077" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1077" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1077" s="1">
+        <v>43924</v>
+      </c>
+      <c r="G1077" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1077" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H837"/>
+  <autoFilter ref="A2:H1077"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J85"/>
+  <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="H85" sqref="H85"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -27281,7 +28811,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="3">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="B1" t="s">
         <v>61</v>
@@ -29446,10 +30976,10 @@
         <v>181</v>
       </c>
       <c r="F69">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G69">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H69">
         <v>6</v>
@@ -29478,10 +31008,10 @@
         <v>211</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G70">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H70">
         <v>3</v>
@@ -29510,10 +31040,10 @@
         <v>238</v>
       </c>
       <c r="F71">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G71">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="H71">
         <v>5</v>
@@ -29542,10 +31072,10 @@
         <v>273</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G72">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -29571,13 +31101,13 @@
         <v>408</v>
       </c>
       <c r="E73">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F73">
         <v>2</v>
       </c>
       <c r="G73">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -29603,13 +31133,13 @@
         <v>428</v>
       </c>
       <c r="E74">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F74">
         <v>4</v>
       </c>
       <c r="G74">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H74">
         <v>4</v>
@@ -29635,13 +31165,13 @@
         <v>481</v>
       </c>
       <c r="E75">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F75">
         <v>2</v>
       </c>
       <c r="G75">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H75">
         <v>8</v>
@@ -29667,13 +31197,13 @@
         <v>524</v>
       </c>
       <c r="E76">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F76">
         <v>1</v>
       </c>
       <c r="G76">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -29699,13 +31229,13 @@
         <v>616</v>
       </c>
       <c r="E77">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G77">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -29731,13 +31261,13 @@
         <v>696</v>
       </c>
       <c r="E78">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F78">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G78">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H78">
         <v>12</v>
@@ -29763,13 +31293,13 @@
         <v>766</v>
       </c>
       <c r="E79">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F79">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G79">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H79">
         <v>9</v>
@@ -29795,13 +31325,13 @@
         <v>811</v>
       </c>
       <c r="E80">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="F80">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G80">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H80">
         <v>7</v>
@@ -29827,13 +31357,13 @@
         <v>835</v>
       </c>
       <c r="E81">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G81">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H81">
         <v>4</v>
@@ -29859,13 +31389,13 @@
         <v>894</v>
       </c>
       <c r="E82">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="F82">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G82">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="H82">
         <v>17</v>
@@ -29891,13 +31421,13 @@
         <v>968</v>
       </c>
       <c r="E83">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="F83">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G83">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="H83">
         <v>4</v>
@@ -29923,13 +31453,13 @@
         <v>1020</v>
       </c>
       <c r="E84">
-        <v>828</v>
+        <v>810</v>
       </c>
       <c r="F84">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G84">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="H84">
         <v>15</v>
@@ -29942,23 +31472,55 @@
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A85" s="4" t="s">
+      <c r="A85" s="2">
+        <v>43938</v>
+      </c>
+      <c r="B85">
+        <v>497</v>
+      </c>
+      <c r="C85">
+        <v>55</v>
+      </c>
+      <c r="D85">
+        <v>1075</v>
+      </c>
+      <c r="E85">
+        <v>853</v>
+      </c>
+      <c r="F85">
+        <v>11</v>
+      </c>
+      <c r="G85">
+        <v>213</v>
+      </c>
+      <c r="H85">
+        <v>29</v>
+      </c>
+      <c r="I85">
+        <v>213</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A86" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B85">
-        <v>9020</v>
-      </c>
-      <c r="C85">
-        <v>1020</v>
-      </c>
-      <c r="F85">
-        <v>184</v>
-      </c>
-      <c r="H85">
-        <v>184</v>
-      </c>
-      <c r="J85">
-        <v>8</v>
+      <c r="B86">
+        <v>9517</v>
+      </c>
+      <c r="C86">
+        <v>1075</v>
+      </c>
+      <c r="F86">
+        <v>213</v>
+      </c>
+      <c r="H86">
+        <v>213</v>
+      </c>
+      <c r="J86">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/data/patients_and_inspections.xlsx
+++ b/data/patients_and_inspections.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.19.161.23\kansen_fol\03防疫L（移行済）\06　中国武漢市肺炎（新型コロナウイルス）\検査の状況(HP更新)\陽性者入院状況\コロナサイト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KodamaYuki\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2010" yWindow="465" windowWidth="33000" windowHeight="19155" activeTab="1"/>
+    <workbookView xWindow="2010" yWindow="465" windowWidth="33000" windowHeight="19155" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="【公開OK】ピポット集計" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="【公開OK】コロナサイト用（日付ベース）" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'【公開OK】府HP用(陽性者ベース)'!$A$2:$H$1077</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'【公開OK】府HP用(陽性者ベース)'!$A$2:$H$1165</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4495" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4872" uniqueCount="87">
   <si>
     <t>（1）入退院の状況</t>
   </si>
@@ -264,13 +264,7 @@
     <t>富田林市</t>
   </si>
   <si>
-    <t>自宅療養</t>
-  </si>
-  <si>
     <t>4月初旬</t>
-  </si>
-  <si>
-    <t>宿泊療養</t>
   </si>
   <si>
     <t>4月初め</t>
@@ -288,8 +282,22 @@
     <t>河南町</t>
   </si>
   <si>
-    <t>退院</t>
-    <phoneticPr fontId="1"/>
+    <t>ー</t>
+  </si>
+  <si>
+    <t>中等症</t>
+  </si>
+  <si>
+    <t>東大阪</t>
+  </si>
+  <si>
+    <t>府外</t>
+  </si>
+  <si>
+    <t>岸和田</t>
+  </si>
+  <si>
+    <t>管外</t>
   </si>
 </sst>
 </file>
@@ -798,9 +806,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1077"/>
+  <dimension ref="A1:H1165"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -809,7 +819,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="3">
-        <v>43938</v>
+        <v>43939</v>
       </c>
       <c r="B1" t="s">
         <v>61</v>
@@ -861,7 +871,7 @@
         <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H3" t="s">
         <v>3</v>
@@ -887,7 +897,7 @@
         <v>43881</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H4" t="s">
         <v>3</v>
@@ -913,7 +923,7 @@
         <v>43880</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H5" t="s">
         <v>3</v>
@@ -939,7 +949,7 @@
         <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H6" t="s">
         <v>3</v>
@@ -965,7 +975,7 @@
         <v>43883</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H7" t="s">
         <v>3</v>
@@ -991,7 +1001,7 @@
         <v>43885</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H8" t="s">
         <v>3</v>
@@ -1017,7 +1027,7 @@
         <v>43884</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H9" t="s">
         <v>3</v>
@@ -1043,7 +1053,7 @@
         <v>43887</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H10" t="s">
         <v>3</v>
@@ -1069,7 +1079,7 @@
         <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H11" t="s">
         <v>3</v>
@@ -1095,7 +1105,7 @@
         <v>43884</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H12" t="s">
         <v>3</v>
@@ -1121,7 +1131,7 @@
         <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H13" t="s">
         <v>3</v>
@@ -1147,7 +1157,7 @@
         <v>43881</v>
       </c>
       <c r="G14" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H14" t="s">
         <v>3</v>
@@ -1173,7 +1183,7 @@
         <v>43886</v>
       </c>
       <c r="G15" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H15" t="s">
         <v>3</v>
@@ -1199,7 +1209,7 @@
         <v>43894</v>
       </c>
       <c r="G16" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s">
         <v>3</v>
@@ -1225,7 +1235,7 @@
         <v>43884</v>
       </c>
       <c r="G17" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H17" t="s">
         <v>3</v>
@@ -1251,7 +1261,7 @@
         <v>43889</v>
       </c>
       <c r="G18" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H18" t="s">
         <v>3</v>
@@ -1303,7 +1313,7 @@
         <v>14</v>
       </c>
       <c r="G20" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H20" t="s">
         <v>3</v>
@@ -1329,7 +1339,7 @@
         <v>43884</v>
       </c>
       <c r="G21" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H21" t="s">
         <v>3</v>
@@ -1355,7 +1365,7 @@
         <v>43884</v>
       </c>
       <c r="G22" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H22" t="s">
         <v>3</v>
@@ -1381,7 +1391,7 @@
         <v>43887</v>
       </c>
       <c r="G23" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H23" t="s">
         <v>3</v>
@@ -1407,7 +1417,7 @@
         <v>43883</v>
       </c>
       <c r="G24" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H24" t="s">
         <v>3</v>
@@ -1433,7 +1443,7 @@
         <v>43893</v>
       </c>
       <c r="G25" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H25" t="s">
         <v>3</v>
@@ -1459,7 +1469,7 @@
         <v>14</v>
       </c>
       <c r="G26" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H26" t="s">
         <v>3</v>
@@ -1485,7 +1495,7 @@
         <v>14</v>
       </c>
       <c r="G27" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H27" t="s">
         <v>3</v>
@@ -1511,7 +1521,7 @@
         <v>43886</v>
       </c>
       <c r="G28" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H28" t="s">
         <v>3</v>
@@ -1537,7 +1547,7 @@
         <v>43884</v>
       </c>
       <c r="G29" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H29" t="s">
         <v>3</v>
@@ -1563,7 +1573,7 @@
         <v>43887</v>
       </c>
       <c r="G30" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H30" t="s">
         <v>3</v>
@@ -1589,7 +1599,7 @@
         <v>14</v>
       </c>
       <c r="G31" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H31" t="s">
         <v>3</v>
@@ -1615,7 +1625,7 @@
         <v>14</v>
       </c>
       <c r="G32" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H32" t="s">
         <v>3</v>
@@ -1641,7 +1651,7 @@
         <v>14</v>
       </c>
       <c r="G33" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H33" t="s">
         <v>3</v>
@@ -1667,7 +1677,7 @@
         <v>43882</v>
       </c>
       <c r="G34" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H34" t="s">
         <v>3</v>
@@ -1693,7 +1703,7 @@
         <v>14</v>
       </c>
       <c r="G35" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H35" t="s">
         <v>3</v>
@@ -1719,7 +1729,7 @@
         <v>14</v>
       </c>
       <c r="G36" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H36" t="s">
         <v>3</v>
@@ -1745,7 +1755,7 @@
         <v>14</v>
       </c>
       <c r="G37" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H37" t="s">
         <v>3</v>
@@ -1771,7 +1781,7 @@
         <v>43886</v>
       </c>
       <c r="G38" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H38" t="s">
         <v>3</v>
@@ -1797,7 +1807,7 @@
         <v>14</v>
       </c>
       <c r="G39" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H39" t="s">
         <v>3</v>
@@ -1823,7 +1833,7 @@
         <v>43886</v>
       </c>
       <c r="G40" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H40" t="s">
         <v>3</v>
@@ -1849,7 +1859,7 @@
         <v>43883</v>
       </c>
       <c r="G41" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H41" t="s">
         <v>3</v>
@@ -1875,7 +1885,7 @@
         <v>43883</v>
       </c>
       <c r="G42" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H42" t="s">
         <v>3</v>
@@ -1901,7 +1911,7 @@
         <v>43890</v>
       </c>
       <c r="G43" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H43" t="s">
         <v>3</v>
@@ -1927,7 +1937,7 @@
         <v>43884</v>
       </c>
       <c r="G44" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H44" t="s">
         <v>3</v>
@@ -1953,7 +1963,7 @@
         <v>43890</v>
       </c>
       <c r="G45" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H45" t="s">
         <v>3</v>
@@ -1979,7 +1989,7 @@
         <v>43886</v>
       </c>
       <c r="G46" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H46" t="s">
         <v>3</v>
@@ -2005,7 +2015,7 @@
         <v>14</v>
       </c>
       <c r="G47" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H47" t="s">
         <v>3</v>
@@ -2031,7 +2041,7 @@
         <v>43886</v>
       </c>
       <c r="G48" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H48" t="s">
         <v>3</v>
@@ -2057,7 +2067,7 @@
         <v>41</v>
       </c>
       <c r="G49" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H49" t="s">
         <v>3</v>
@@ -2083,7 +2093,7 @@
         <v>43881</v>
       </c>
       <c r="G50" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H50" t="s">
         <v>3</v>
@@ -2109,7 +2119,7 @@
         <v>14</v>
       </c>
       <c r="G51" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H51" t="s">
         <v>3</v>
@@ -2135,7 +2145,7 @@
         <v>43891</v>
       </c>
       <c r="G52" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H52" t="s">
         <v>3</v>
@@ -2213,7 +2223,7 @@
         <v>43891</v>
       </c>
       <c r="G55" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H55" t="s">
         <v>3</v>
@@ -2239,7 +2249,7 @@
         <v>43890</v>
       </c>
       <c r="G56" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H56" t="s">
         <v>3</v>
@@ -2265,7 +2275,7 @@
         <v>43896</v>
       </c>
       <c r="G57" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H57" t="s">
         <v>3</v>
@@ -2291,7 +2301,7 @@
         <v>43895</v>
       </c>
       <c r="G58" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H58" t="s">
         <v>3</v>
@@ -2343,7 +2353,7 @@
         <v>14</v>
       </c>
       <c r="G60" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H60" t="s">
         <v>3</v>
@@ -2369,7 +2379,7 @@
         <v>43893</v>
       </c>
       <c r="G61" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H61" t="s">
         <v>3</v>
@@ -2395,7 +2405,7 @@
         <v>43895</v>
       </c>
       <c r="G62" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H62" t="s">
         <v>3</v>
@@ -2421,7 +2431,7 @@
         <v>43895</v>
       </c>
       <c r="G63" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H63" t="s">
         <v>3</v>
@@ -2447,7 +2457,7 @@
         <v>43892</v>
       </c>
       <c r="G64" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H64" t="s">
         <v>3</v>
@@ -2473,7 +2483,7 @@
         <v>43893</v>
       </c>
       <c r="G65" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H65" t="s">
         <v>3</v>
@@ -2499,7 +2509,7 @@
         <v>14</v>
       </c>
       <c r="G66" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H66" t="s">
         <v>3</v>
@@ -2525,7 +2535,7 @@
         <v>43897</v>
       </c>
       <c r="G67" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H67" t="s">
         <v>5</v>
@@ -2577,7 +2587,7 @@
         <v>43889</v>
       </c>
       <c r="G69" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H69" t="s">
         <v>3</v>
@@ -2603,7 +2613,7 @@
         <v>43888</v>
       </c>
       <c r="G70" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H70" t="s">
         <v>3</v>
@@ -2629,7 +2639,7 @@
         <v>43893</v>
       </c>
       <c r="G71" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H71" t="s">
         <v>3</v>
@@ -2655,7 +2665,7 @@
         <v>43894</v>
       </c>
       <c r="G72" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H72" t="s">
         <v>3</v>
@@ -2681,7 +2691,7 @@
         <v>43894</v>
       </c>
       <c r="G73" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H73" t="s">
         <v>3</v>
@@ -2733,7 +2743,7 @@
         <v>43891</v>
       </c>
       <c r="G75" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H75" t="s">
         <v>3</v>
@@ -2759,7 +2769,7 @@
         <v>43891</v>
       </c>
       <c r="G76" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H76" t="s">
         <v>3</v>
@@ -2785,7 +2795,7 @@
         <v>43894</v>
       </c>
       <c r="G77" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H77" t="s">
         <v>3</v>
@@ -2811,7 +2821,7 @@
         <v>14</v>
       </c>
       <c r="G78" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H78" t="s">
         <v>3</v>
@@ -2837,7 +2847,7 @@
         <v>43897</v>
       </c>
       <c r="G79" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H79" t="s">
         <v>3</v>
@@ -2863,7 +2873,7 @@
         <v>43892</v>
       </c>
       <c r="G80" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H80" t="s">
         <v>3</v>
@@ -2889,7 +2899,7 @@
         <v>43893</v>
       </c>
       <c r="G81" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H81" t="s">
         <v>3</v>
@@ -2941,7 +2951,7 @@
         <v>43893</v>
       </c>
       <c r="G83" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H83" t="s">
         <v>3</v>
@@ -2993,7 +3003,7 @@
         <v>43901</v>
       </c>
       <c r="G85" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H85" t="s">
         <v>3</v>
@@ -3045,7 +3055,7 @@
         <v>43889</v>
       </c>
       <c r="G87" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H87" t="s">
         <v>3</v>
@@ -3071,7 +3081,7 @@
         <v>43894</v>
       </c>
       <c r="G88" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H88" t="s">
         <v>3</v>
@@ -3097,7 +3107,7 @@
         <v>43895</v>
       </c>
       <c r="G89" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H89" t="s">
         <v>3</v>
@@ -3123,7 +3133,7 @@
         <v>43898</v>
       </c>
       <c r="G90" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H90" t="s">
         <v>3</v>
@@ -3149,7 +3159,7 @@
         <v>43890</v>
       </c>
       <c r="G91" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H91" t="s">
         <v>3</v>
@@ -3175,7 +3185,7 @@
         <v>43894</v>
       </c>
       <c r="G92" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H92" t="s">
         <v>3</v>
@@ -3201,7 +3211,7 @@
         <v>43900</v>
       </c>
       <c r="G93" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H93" t="s">
         <v>3</v>
@@ -3305,10 +3315,10 @@
         <v>43899</v>
       </c>
       <c r="G97" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="H97" t="s">
-        <v>77</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.4">
@@ -3331,7 +3341,7 @@
         <v>43903</v>
       </c>
       <c r="G98" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H98" t="s">
         <v>3</v>
@@ -3357,7 +3367,7 @@
         <v>43891</v>
       </c>
       <c r="G99" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H99" t="s">
         <v>3</v>
@@ -3409,7 +3419,7 @@
         <v>43902</v>
       </c>
       <c r="G101" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H101" t="s">
         <v>3</v>
@@ -3435,7 +3445,7 @@
         <v>14</v>
       </c>
       <c r="G102" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H102" t="s">
         <v>3</v>
@@ -3461,7 +3471,7 @@
         <v>43894</v>
       </c>
       <c r="G103" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H103" t="s">
         <v>3</v>
@@ -3487,7 +3497,7 @@
         <v>43899</v>
       </c>
       <c r="G104" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H104" t="s">
         <v>3</v>
@@ -3513,7 +3523,7 @@
         <v>43904</v>
       </c>
       <c r="G105" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H105" t="s">
         <v>3</v>
@@ -3539,7 +3549,7 @@
         <v>43902</v>
       </c>
       <c r="G106" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H106" t="s">
         <v>3</v>
@@ -3565,7 +3575,7 @@
         <v>47</v>
       </c>
       <c r="G107" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H107" t="s">
         <v>3</v>
@@ -3591,7 +3601,7 @@
         <v>43903</v>
       </c>
       <c r="G108" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H108" t="s">
         <v>3</v>
@@ -3617,7 +3627,7 @@
         <v>43904</v>
       </c>
       <c r="G109" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H109" t="s">
         <v>3</v>
@@ -3643,7 +3653,7 @@
         <v>43901</v>
       </c>
       <c r="G110" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H110" t="s">
         <v>3</v>
@@ -3669,7 +3679,7 @@
         <v>47</v>
       </c>
       <c r="G111" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H111" t="s">
         <v>3</v>
@@ -3695,7 +3705,7 @@
         <v>43899</v>
       </c>
       <c r="G112" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H112" t="s">
         <v>3</v>
@@ -3747,7 +3757,7 @@
         <v>43905</v>
       </c>
       <c r="G114" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H114" t="s">
         <v>3</v>
@@ -3773,7 +3783,7 @@
         <v>43903</v>
       </c>
       <c r="G115" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H115" t="s">
         <v>3</v>
@@ -3799,7 +3809,7 @@
         <v>43896</v>
       </c>
       <c r="G116" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H116" t="s">
         <v>3</v>
@@ -3825,7 +3835,7 @@
         <v>43897</v>
       </c>
       <c r="G117" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H117" t="s">
         <v>3</v>
@@ -3851,7 +3861,7 @@
         <v>43902</v>
       </c>
       <c r="G118" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H118" t="s">
         <v>3</v>
@@ -3877,7 +3887,7 @@
         <v>43898</v>
       </c>
       <c r="G119" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H119" t="s">
         <v>3</v>
@@ -3929,7 +3939,7 @@
         <v>43898</v>
       </c>
       <c r="G121" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H121" t="s">
         <v>3</v>
@@ -4007,7 +4017,7 @@
         <v>43905</v>
       </c>
       <c r="G124" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H124" t="s">
         <v>3</v>
@@ -4033,7 +4043,7 @@
         <v>43906</v>
       </c>
       <c r="G125" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H125" t="s">
         <v>3</v>
@@ -4059,7 +4069,7 @@
         <v>43895</v>
       </c>
       <c r="G126" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H126" t="s">
         <v>3</v>
@@ -4085,7 +4095,7 @@
         <v>43898</v>
       </c>
       <c r="G127" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H127" t="s">
         <v>3</v>
@@ -4137,7 +4147,7 @@
         <v>43909</v>
       </c>
       <c r="G129" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H129" t="s">
         <v>3</v>
@@ -4166,7 +4176,7 @@
         <v>10</v>
       </c>
       <c r="H130" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.4">
@@ -4192,7 +4202,7 @@
         <v>10</v>
       </c>
       <c r="H131" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.4">
@@ -4218,7 +4228,7 @@
         <v>12</v>
       </c>
       <c r="H132" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.4">
@@ -4241,10 +4251,10 @@
         <v>43904</v>
       </c>
       <c r="G133" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H133" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.4">
@@ -4293,7 +4303,7 @@
         <v>43900</v>
       </c>
       <c r="G135" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H135" t="s">
         <v>3</v>
@@ -4319,7 +4329,7 @@
         <v>43897</v>
       </c>
       <c r="G136" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H136" t="s">
         <v>3</v>
@@ -4397,7 +4407,7 @@
         <v>43909</v>
       </c>
       <c r="G139" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H139" t="s">
         <v>3</v>
@@ -4452,7 +4462,7 @@
         <v>10</v>
       </c>
       <c r="H141" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.4">
@@ -4478,7 +4488,7 @@
         <v>10</v>
       </c>
       <c r="H142" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.4">
@@ -4501,7 +4511,7 @@
         <v>43907</v>
       </c>
       <c r="G143" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H143" t="s">
         <v>3</v>
@@ -4527,7 +4537,7 @@
         <v>14</v>
       </c>
       <c r="G144" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H144" t="s">
         <v>3</v>
@@ -4553,7 +4563,7 @@
         <v>43905</v>
       </c>
       <c r="G145" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H145" t="s">
         <v>3</v>
@@ -4634,7 +4644,7 @@
         <v>10</v>
       </c>
       <c r="H148" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.4">
@@ -4657,7 +4667,7 @@
         <v>47</v>
       </c>
       <c r="G149" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H149" t="s">
         <v>3</v>
@@ -4709,7 +4719,7 @@
         <v>43914</v>
       </c>
       <c r="G151" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H151" t="s">
         <v>3</v>
@@ -4735,7 +4745,7 @@
         <v>43910</v>
       </c>
       <c r="G152" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H152" t="s">
         <v>3</v>
@@ -4786,11 +4796,11 @@
       <c r="F154" s="1">
         <v>43909</v>
       </c>
-      <c r="G154" t="s">
-        <v>14</v>
+      <c r="G154">
+        <v>0</v>
       </c>
       <c r="H154" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.4">
@@ -4865,7 +4875,7 @@
         <v>43911</v>
       </c>
       <c r="G157" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H157" t="s">
         <v>3</v>
@@ -4891,7 +4901,7 @@
         <v>43911</v>
       </c>
       <c r="G158" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H158" t="s">
         <v>3</v>
@@ -4943,7 +4953,7 @@
         <v>43911</v>
       </c>
       <c r="G160" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H160" t="s">
         <v>3</v>
@@ -4969,7 +4979,7 @@
         <v>43912</v>
       </c>
       <c r="G161" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H161" t="s">
         <v>3</v>
@@ -5021,7 +5031,7 @@
         <v>43914</v>
       </c>
       <c r="G163" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H163" t="s">
         <v>3</v>
@@ -5073,7 +5083,7 @@
         <v>43912</v>
       </c>
       <c r="G165" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H165" t="s">
         <v>3</v>
@@ -5151,7 +5161,7 @@
         <v>43909</v>
       </c>
       <c r="G168" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H168" t="s">
         <v>3</v>
@@ -5229,7 +5239,7 @@
         <v>43905</v>
       </c>
       <c r="G171" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H171" t="s">
         <v>3</v>
@@ -5255,7 +5265,7 @@
         <v>43912</v>
       </c>
       <c r="G172" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H172" t="s">
         <v>3</v>
@@ -5307,7 +5317,7 @@
         <v>43909</v>
       </c>
       <c r="G174" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H174" t="s">
         <v>3</v>
@@ -5333,7 +5343,7 @@
         <v>43915</v>
       </c>
       <c r="G175" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H175" t="s">
         <v>3</v>
@@ -5359,7 +5369,7 @@
         <v>43912</v>
       </c>
       <c r="G176" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="H176" t="s">
         <v>4</v>
@@ -5385,7 +5395,7 @@
         <v>43902</v>
       </c>
       <c r="G177" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="H177" t="s">
         <v>4</v>
@@ -5411,7 +5421,7 @@
         <v>43907</v>
       </c>
       <c r="G178" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="H178" t="s">
         <v>4</v>
@@ -5541,7 +5551,7 @@
         <v>43913</v>
       </c>
       <c r="G183" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H183" t="s">
         <v>3</v>
@@ -5567,7 +5577,7 @@
         <v>43913</v>
       </c>
       <c r="G184" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H184" t="s">
         <v>3</v>
@@ -5593,7 +5603,7 @@
         <v>43910</v>
       </c>
       <c r="G185" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H185" t="s">
         <v>3</v>
@@ -5619,7 +5629,7 @@
         <v>43899</v>
       </c>
       <c r="G186" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H186" t="s">
         <v>3</v>
@@ -5671,10 +5681,10 @@
         <v>43901</v>
       </c>
       <c r="G188" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H188" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.4">
@@ -5697,7 +5707,7 @@
         <v>43910</v>
       </c>
       <c r="G189" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H189" t="s">
         <v>3</v>
@@ -5723,7 +5733,7 @@
         <v>14</v>
       </c>
       <c r="G190" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H190" t="s">
         <v>3</v>
@@ -5775,7 +5785,7 @@
         <v>41</v>
       </c>
       <c r="G192" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H192" t="s">
         <v>3</v>
@@ -5801,7 +5811,7 @@
         <v>43907</v>
       </c>
       <c r="G193" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H193" t="s">
         <v>3</v>
@@ -5826,11 +5836,11 @@
       <c r="F194" s="1">
         <v>43918</v>
       </c>
-      <c r="G194" t="s">
-        <v>10</v>
+      <c r="G194">
+        <v>0</v>
       </c>
       <c r="H194" t="s">
-        <v>77</v>
+        <v>4</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.4">
@@ -5853,7 +5863,7 @@
         <v>14</v>
       </c>
       <c r="G195" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H195" t="s">
         <v>3</v>
@@ -5957,7 +5967,7 @@
         <v>43917</v>
       </c>
       <c r="G199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H199" t="s">
         <v>4</v>
@@ -5983,7 +5993,7 @@
         <v>43909</v>
       </c>
       <c r="G200" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H200" t="s">
         <v>3</v>
@@ -6012,7 +6022,7 @@
         <v>10</v>
       </c>
       <c r="H201" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.4">
@@ -6035,7 +6045,7 @@
         <v>43913</v>
       </c>
       <c r="G202" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H202" t="s">
         <v>3</v>
@@ -6061,7 +6071,7 @@
         <v>43908</v>
       </c>
       <c r="G203" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H203" t="s">
         <v>3</v>
@@ -6113,7 +6123,7 @@
         <v>43913</v>
       </c>
       <c r="G205" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H205" t="s">
         <v>4</v>
@@ -6139,7 +6149,7 @@
         <v>43918</v>
       </c>
       <c r="G206" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H206" t="s">
         <v>3</v>
@@ -6165,7 +6175,7 @@
         <v>43911</v>
       </c>
       <c r="G207" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H207" t="s">
         <v>3</v>
@@ -6194,7 +6204,7 @@
         <v>10</v>
       </c>
       <c r="H208" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.4">
@@ -6217,7 +6227,7 @@
         <v>43911</v>
       </c>
       <c r="G209" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H209" t="s">
         <v>3</v>
@@ -6268,11 +6278,11 @@
       <c r="F211" s="1">
         <v>43918</v>
       </c>
-      <c r="G211" t="s">
-        <v>10</v>
+      <c r="G211">
+        <v>0</v>
       </c>
       <c r="H211" t="s">
-        <v>77</v>
+        <v>4</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.4">
@@ -6294,11 +6304,11 @@
       <c r="F212" s="1">
         <v>43915</v>
       </c>
-      <c r="G212" t="s">
-        <v>10</v>
+      <c r="G212">
+        <v>0</v>
       </c>
       <c r="H212" t="s">
-        <v>77</v>
+        <v>4</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.4">
@@ -6373,7 +6383,7 @@
         <v>43910</v>
       </c>
       <c r="G215" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H215" t="s">
         <v>3</v>
@@ -6399,7 +6409,7 @@
         <v>43901</v>
       </c>
       <c r="G216" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H216" t="s">
         <v>3</v>
@@ -6425,7 +6435,7 @@
         <v>43917</v>
       </c>
       <c r="G217" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H217" t="s">
         <v>3</v>
@@ -6451,7 +6461,7 @@
         <v>57</v>
       </c>
       <c r="G218" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H218" t="s">
         <v>3</v>
@@ -6503,7 +6513,7 @@
         <v>43907</v>
       </c>
       <c r="G220" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="H220" t="s">
         <v>4</v>
@@ -6529,7 +6539,7 @@
         <v>43909</v>
       </c>
       <c r="G221" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H221" t="s">
         <v>3</v>
@@ -6555,10 +6565,10 @@
         <v>43913</v>
       </c>
       <c r="G222" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="H222" t="s">
-        <v>77</v>
+        <v>4</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.4">
@@ -6606,11 +6616,11 @@
       <c r="F224" s="1">
         <v>43919</v>
       </c>
-      <c r="G224" t="s">
-        <v>14</v>
+      <c r="G224">
+        <v>0</v>
       </c>
       <c r="H224" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.4">
@@ -6658,11 +6668,11 @@
       <c r="F226" s="1">
         <v>43906</v>
       </c>
-      <c r="G226" t="s">
-        <v>14</v>
+      <c r="G226">
+        <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.4">
@@ -6684,11 +6694,11 @@
       <c r="F227" s="1">
         <v>43911</v>
       </c>
-      <c r="G227" t="s">
-        <v>14</v>
+      <c r="G227">
+        <v>0</v>
       </c>
       <c r="H227" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.4">
@@ -6737,7 +6747,7 @@
         <v>43908</v>
       </c>
       <c r="G229" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H229" t="s">
         <v>3</v>
@@ -6763,7 +6773,7 @@
         <v>43915</v>
       </c>
       <c r="G230" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H230" t="s">
         <v>3</v>
@@ -6814,11 +6824,11 @@
       <c r="F232" s="1">
         <v>43917</v>
       </c>
-      <c r="G232" t="s">
-        <v>14</v>
+      <c r="G232">
+        <v>0</v>
       </c>
       <c r="H232" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.4">
@@ -6867,10 +6877,10 @@
         <v>47</v>
       </c>
       <c r="G234" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H234" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.4">
@@ -6896,7 +6906,7 @@
         <v>10</v>
       </c>
       <c r="H235" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.4">
@@ -6997,10 +7007,10 @@
         <v>43917</v>
       </c>
       <c r="G239" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="H239" t="s">
-        <v>77</v>
+        <v>4</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.4">
@@ -7026,7 +7036,7 @@
         <v>10</v>
       </c>
       <c r="H240" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.4">
@@ -7075,10 +7085,10 @@
         <v>43916</v>
       </c>
       <c r="G242" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="H242" t="s">
-        <v>77</v>
+        <v>3</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.4">
@@ -7101,10 +7111,10 @@
         <v>43912</v>
       </c>
       <c r="G243" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="H243" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.4">
@@ -7127,7 +7137,7 @@
         <v>43916</v>
       </c>
       <c r="G244" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H244" t="s">
         <v>3</v>
@@ -7153,7 +7163,7 @@
         <v>43915</v>
       </c>
       <c r="G245" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H245" t="s">
         <v>3</v>
@@ -7179,7 +7189,7 @@
         <v>43920</v>
       </c>
       <c r="G246" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="H246" t="s">
         <v>4</v>
@@ -7257,10 +7267,10 @@
         <v>43917</v>
       </c>
       <c r="G249" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H249" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.4">
@@ -7334,11 +7344,11 @@
       <c r="F252" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G252" t="s">
-        <v>12</v>
+      <c r="G252">
+        <v>0</v>
       </c>
       <c r="H252" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.4">
@@ -7361,7 +7371,7 @@
         <v>57</v>
       </c>
       <c r="G253" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H253" t="s">
         <v>3</v>
@@ -7386,11 +7396,11 @@
       <c r="F254" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G254" t="s">
-        <v>12</v>
+      <c r="G254">
+        <v>0</v>
       </c>
       <c r="H254" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.4">
@@ -7413,10 +7423,10 @@
         <v>57</v>
       </c>
       <c r="G255" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H255" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.4">
@@ -7438,11 +7448,11 @@
       <c r="F256" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G256" t="s">
-        <v>12</v>
+      <c r="G256">
+        <v>0</v>
       </c>
       <c r="H256" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.4">
@@ -7465,7 +7475,7 @@
         <v>57</v>
       </c>
       <c r="G257" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H257" t="s">
         <v>3</v>
@@ -7491,10 +7501,10 @@
         <v>57</v>
       </c>
       <c r="G258" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H258" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.4">
@@ -7516,11 +7526,11 @@
       <c r="F259" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G259" t="s">
-        <v>14</v>
+      <c r="G259">
+        <v>0</v>
       </c>
       <c r="H259" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.4">
@@ -7543,10 +7553,10 @@
         <v>57</v>
       </c>
       <c r="G260" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H260" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.4">
@@ -7569,10 +7579,10 @@
         <v>57</v>
       </c>
       <c r="G261" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H261" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.4">
@@ -7595,10 +7605,10 @@
         <v>57</v>
       </c>
       <c r="G262" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H262" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.4">
@@ -7621,10 +7631,10 @@
         <v>57</v>
       </c>
       <c r="G263" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H263" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.4">
@@ -7647,10 +7657,10 @@
         <v>57</v>
       </c>
       <c r="G264" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H264" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.4">
@@ -7673,10 +7683,10 @@
         <v>57</v>
       </c>
       <c r="G265" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H265" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.4">
@@ -7699,10 +7709,10 @@
         <v>57</v>
       </c>
       <c r="G266" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H266" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.4">
@@ -7725,10 +7735,10 @@
         <v>57</v>
       </c>
       <c r="G267" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H267" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.4">
@@ -7829,10 +7839,10 @@
         <v>43910</v>
       </c>
       <c r="G271" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H271" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.4">
@@ -7854,11 +7864,11 @@
       <c r="F272" s="1">
         <v>43915</v>
       </c>
-      <c r="G272" t="s">
-        <v>14</v>
+      <c r="G272">
+        <v>0</v>
       </c>
       <c r="H272" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.4">
@@ -7933,10 +7943,10 @@
         <v>43919</v>
       </c>
       <c r="G275" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H275" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.4">
@@ -7985,7 +7995,7 @@
         <v>43915</v>
       </c>
       <c r="G277" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H277" t="s">
         <v>3</v>
@@ -8011,7 +8021,7 @@
         <v>43913</v>
       </c>
       <c r="G278" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H278" t="s">
         <v>3</v>
@@ -8037,7 +8047,7 @@
         <v>43914</v>
       </c>
       <c r="G279" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H279" t="s">
         <v>3</v>
@@ -8063,10 +8073,10 @@
         <v>43913</v>
       </c>
       <c r="G280" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="H280" t="s">
-        <v>77</v>
+        <v>4</v>
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.4">
@@ -8088,8 +8098,8 @@
       <c r="F281" s="1">
         <v>43921</v>
       </c>
-      <c r="G281" t="s">
-        <v>14</v>
+      <c r="G281">
+        <v>0</v>
       </c>
       <c r="H281" t="s">
         <v>3</v>
@@ -8114,11 +8124,11 @@
       <c r="F282" s="1">
         <v>43921</v>
       </c>
-      <c r="G282" t="s">
-        <v>10</v>
+      <c r="G282">
+        <v>0</v>
       </c>
       <c r="H282" t="s">
-        <v>77</v>
+        <v>4</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.4">
@@ -8166,8 +8176,8 @@
       <c r="F284" s="1">
         <v>43916</v>
       </c>
-      <c r="G284" t="s">
-        <v>10</v>
+      <c r="G284">
+        <v>0</v>
       </c>
       <c r="H284" t="s">
         <v>4</v>
@@ -8245,7 +8255,7 @@
         <v>43915</v>
       </c>
       <c r="G287" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H287" t="s">
         <v>3</v>
@@ -8297,7 +8307,7 @@
         <v>43919</v>
       </c>
       <c r="G289" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H289" t="s">
         <v>3</v>
@@ -8456,7 +8466,7 @@
         <v>10</v>
       </c>
       <c r="H295" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.4">
@@ -8479,7 +8489,7 @@
         <v>43923</v>
       </c>
       <c r="G296" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="H296" t="s">
         <v>4</v>
@@ -8505,7 +8515,7 @@
         <v>57</v>
       </c>
       <c r="G297" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H297" t="s">
         <v>3</v>
@@ -8531,7 +8541,7 @@
         <v>43916</v>
       </c>
       <c r="G298" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H298" t="s">
         <v>3</v>
@@ -8557,7 +8567,7 @@
         <v>43916</v>
       </c>
       <c r="G299" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H299" t="s">
         <v>3</v>
@@ -8583,10 +8593,10 @@
         <v>43918</v>
       </c>
       <c r="G300" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="H300" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.4">
@@ -8609,7 +8619,7 @@
         <v>43911</v>
       </c>
       <c r="G301" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H301" t="s">
         <v>3</v>
@@ -8713,7 +8723,7 @@
         <v>43916</v>
       </c>
       <c r="G305" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H305" t="s">
         <v>3</v>
@@ -8742,7 +8752,7 @@
         <v>10</v>
       </c>
       <c r="H306" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.4">
@@ -8764,11 +8774,11 @@
       <c r="F307" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G307" t="s">
-        <v>14</v>
+      <c r="G307">
+        <v>0</v>
       </c>
       <c r="H307" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.4">
@@ -8950,7 +8960,7 @@
         <v>10</v>
       </c>
       <c r="H314" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.4">
@@ -8976,7 +8986,7 @@
         <v>10</v>
       </c>
       <c r="H315" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.4">
@@ -9028,7 +9038,7 @@
         <v>10</v>
       </c>
       <c r="H317" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.4">
@@ -9054,7 +9064,7 @@
         <v>10</v>
       </c>
       <c r="H318" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.4">
@@ -9132,7 +9142,7 @@
         <v>10</v>
       </c>
       <c r="H321" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.4">
@@ -9158,7 +9168,7 @@
         <v>10</v>
       </c>
       <c r="H322" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.4">
@@ -9184,7 +9194,7 @@
         <v>10</v>
       </c>
       <c r="H323" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.4">
@@ -9236,7 +9246,7 @@
         <v>10</v>
       </c>
       <c r="H325" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.4">
@@ -9340,7 +9350,7 @@
         <v>10</v>
       </c>
       <c r="H329" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.4">
@@ -9366,7 +9376,7 @@
         <v>10</v>
       </c>
       <c r="H330" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.4">
@@ -9392,7 +9402,7 @@
         <v>10</v>
       </c>
       <c r="H331" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.4">
@@ -9444,7 +9454,7 @@
         <v>10</v>
       </c>
       <c r="H333" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.4">
@@ -9467,10 +9477,10 @@
         <v>43918</v>
       </c>
       <c r="G334" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="H334" t="s">
-        <v>77</v>
+        <v>4</v>
       </c>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.4">
@@ -9493,7 +9503,7 @@
         <v>43921</v>
       </c>
       <c r="G335" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H335" t="s">
         <v>3</v>
@@ -9519,7 +9529,7 @@
         <v>43921</v>
       </c>
       <c r="G336" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H336" t="s">
         <v>3</v>
@@ -9545,10 +9555,10 @@
         <v>43919</v>
       </c>
       <c r="G337" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="H337" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.4">
@@ -9597,10 +9607,10 @@
         <v>43919</v>
       </c>
       <c r="G339" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="H339" t="s">
-        <v>77</v>
+        <v>4</v>
       </c>
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.4">
@@ -9623,10 +9633,10 @@
         <v>43922</v>
       </c>
       <c r="G340" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="H340" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.4">
@@ -9857,7 +9867,7 @@
         <v>43900</v>
       </c>
       <c r="G349" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H349" t="s">
         <v>3</v>
@@ -9912,7 +9922,7 @@
         <v>10</v>
       </c>
       <c r="H351" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.4">
@@ -9938,7 +9948,7 @@
         <v>10</v>
       </c>
       <c r="H352" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.4">
@@ -10038,11 +10048,11 @@
       <c r="F356" s="1">
         <v>43917</v>
       </c>
-      <c r="G356" t="s">
-        <v>14</v>
+      <c r="G356">
+        <v>0</v>
       </c>
       <c r="H356" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.4">
@@ -10120,7 +10130,7 @@
         <v>10</v>
       </c>
       <c r="H359" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.4">
@@ -10172,7 +10182,7 @@
         <v>10</v>
       </c>
       <c r="H361" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.4">
@@ -10195,7 +10205,7 @@
         <v>47</v>
       </c>
       <c r="G362" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H362" t="s">
         <v>3</v>
@@ -10221,10 +10231,10 @@
         <v>43908</v>
       </c>
       <c r="G363" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="H363" t="s">
-        <v>77</v>
+        <v>4</v>
       </c>
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.4">
@@ -10302,7 +10312,7 @@
         <v>10</v>
       </c>
       <c r="H366" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.4">
@@ -10328,7 +10338,7 @@
         <v>10</v>
       </c>
       <c r="H367" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.4">
@@ -10354,7 +10364,7 @@
         <v>10</v>
       </c>
       <c r="H368" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.4">
@@ -10380,7 +10390,7 @@
         <v>10</v>
       </c>
       <c r="H369" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.4">
@@ -10458,7 +10468,7 @@
         <v>10</v>
       </c>
       <c r="H372" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.4">
@@ -10510,7 +10520,7 @@
         <v>10</v>
       </c>
       <c r="H374" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.4">
@@ -10533,10 +10543,10 @@
         <v>43920</v>
       </c>
       <c r="G375" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="H375" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.4">
@@ -10559,10 +10569,10 @@
         <v>43920</v>
       </c>
       <c r="G376" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H376" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.4">
@@ -10585,7 +10595,7 @@
         <v>43917</v>
       </c>
       <c r="G377" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H377" t="s">
         <v>3</v>
@@ -10611,7 +10621,7 @@
         <v>47</v>
       </c>
       <c r="G378" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H378" t="s">
         <v>3</v>
@@ -10637,10 +10647,10 @@
         <v>47</v>
       </c>
       <c r="G379" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="H379" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.4">
@@ -10689,7 +10699,7 @@
         <v>43921</v>
       </c>
       <c r="G381" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="H381" t="s">
         <v>5</v>
@@ -10871,7 +10881,7 @@
         <v>43915</v>
       </c>
       <c r="G388" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H388" t="s">
         <v>3</v>
@@ -10926,7 +10936,7 @@
         <v>10</v>
       </c>
       <c r="H390" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.4">
@@ -10949,7 +10959,7 @@
         <v>43916</v>
       </c>
       <c r="G391" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H391" t="s">
         <v>3</v>
@@ -11021,7 +11031,7 @@
         <v>26</v>
       </c>
       <c r="E394" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F394" s="1">
         <v>43921</v>
@@ -11056,7 +11066,7 @@
         <v>10</v>
       </c>
       <c r="H395" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.4">
@@ -11108,7 +11118,7 @@
         <v>10</v>
       </c>
       <c r="H397" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.4">
@@ -11160,7 +11170,7 @@
         <v>10</v>
       </c>
       <c r="H399" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.4">
@@ -11316,7 +11326,7 @@
         <v>10</v>
       </c>
       <c r="H405" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.4">
@@ -11368,7 +11378,7 @@
         <v>10</v>
       </c>
       <c r="H407" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.4">
@@ -11417,7 +11427,7 @@
         <v>43921</v>
       </c>
       <c r="G409" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H409" t="s">
         <v>4</v>
@@ -11443,10 +11453,10 @@
         <v>43921</v>
       </c>
       <c r="G410" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="H410" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="411" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11498,7 +11508,7 @@
         <v>10</v>
       </c>
       <c r="H412" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="413" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11550,7 +11560,7 @@
         <v>10</v>
       </c>
       <c r="H414" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="415" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11654,7 +11664,7 @@
         <v>10</v>
       </c>
       <c r="H418" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="419" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11703,10 +11713,10 @@
         <v>43922</v>
       </c>
       <c r="G420" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H420" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="421" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11729,10 +11739,10 @@
         <v>43920</v>
       </c>
       <c r="G421" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H421" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="422" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11807,7 +11817,7 @@
         <v>43921</v>
       </c>
       <c r="G424" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H424" t="s">
         <v>3</v>
@@ -11859,7 +11869,7 @@
         <v>43927</v>
       </c>
       <c r="G426" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="H426" t="s">
         <v>4</v>
@@ -11885,10 +11895,10 @@
         <v>43914</v>
       </c>
       <c r="G427" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="H427" t="s">
-        <v>77</v>
+        <v>4</v>
       </c>
     </row>
     <row r="428" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11966,7 +11976,7 @@
         <v>10</v>
       </c>
       <c r="H430" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="431" spans="1:8" x14ac:dyDescent="0.4">
@@ -12119,7 +12129,7 @@
         <v>43920</v>
       </c>
       <c r="G436" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H436" t="s">
         <v>3</v>
@@ -12564,7 +12574,7 @@
         <v>10</v>
       </c>
       <c r="H453" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="454" spans="1:8" x14ac:dyDescent="0.4">
@@ -12587,7 +12597,7 @@
         <v>43918</v>
       </c>
       <c r="G454" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H454" t="s">
         <v>3</v>
@@ -12639,10 +12649,10 @@
         <v>43915</v>
       </c>
       <c r="G456" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="H456" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.4">
@@ -12665,7 +12675,7 @@
         <v>43924</v>
       </c>
       <c r="G457" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H457" t="s">
         <v>3</v>
@@ -12691,10 +12701,10 @@
         <v>43918</v>
       </c>
       <c r="G458" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="H458" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.4">
@@ -12720,7 +12730,7 @@
         <v>12</v>
       </c>
       <c r="H459" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.4">
@@ -12743,10 +12753,10 @@
         <v>43917</v>
       </c>
       <c r="G460" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="H460" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.4">
@@ -12821,7 +12831,7 @@
         <v>43920</v>
       </c>
       <c r="G463" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H463" t="s">
         <v>4</v>
@@ -12850,7 +12860,7 @@
         <v>10</v>
       </c>
       <c r="H464" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="465" spans="1:8" x14ac:dyDescent="0.4">
@@ -12876,7 +12886,7 @@
         <v>10</v>
       </c>
       <c r="H465" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="466" spans="1:8" x14ac:dyDescent="0.4">
@@ -12902,7 +12912,7 @@
         <v>10</v>
       </c>
       <c r="H466" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="467" spans="1:8" x14ac:dyDescent="0.4">
@@ -12928,7 +12938,7 @@
         <v>10</v>
       </c>
       <c r="H467" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="468" spans="1:8" x14ac:dyDescent="0.4">
@@ -12951,7 +12961,7 @@
         <v>43919</v>
       </c>
       <c r="G468" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H468" t="s">
         <v>3</v>
@@ -13029,10 +13039,10 @@
         <v>43920</v>
       </c>
       <c r="G471" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="H471" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="472" spans="1:8" x14ac:dyDescent="0.4">
@@ -13058,7 +13068,7 @@
         <v>10</v>
       </c>
       <c r="H472" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="473" spans="1:8" x14ac:dyDescent="0.4">
@@ -13081,7 +13091,7 @@
         <v>43920</v>
       </c>
       <c r="G473" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H473" t="s">
         <v>3</v>
@@ -13136,7 +13146,7 @@
         <v>10</v>
       </c>
       <c r="H475" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="476" spans="1:8" x14ac:dyDescent="0.4">
@@ -13211,7 +13221,7 @@
         <v>57</v>
       </c>
       <c r="G478" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H478" t="s">
         <v>5</v>
@@ -13448,7 +13458,7 @@
         <v>10</v>
       </c>
       <c r="H487" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="488" spans="1:8" x14ac:dyDescent="0.4">
@@ -13630,7 +13640,7 @@
         <v>10</v>
       </c>
       <c r="H494" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="495" spans="1:8" x14ac:dyDescent="0.4">
@@ -13656,7 +13666,7 @@
         <v>10</v>
       </c>
       <c r="H495" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="496" spans="1:8" x14ac:dyDescent="0.4">
@@ -14098,7 +14108,7 @@
         <v>10</v>
       </c>
       <c r="H512" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="513" spans="1:8" x14ac:dyDescent="0.4">
@@ -14124,7 +14134,7 @@
         <v>10</v>
       </c>
       <c r="H513" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="514" spans="1:8" x14ac:dyDescent="0.4">
@@ -14147,7 +14157,7 @@
         <v>43924</v>
       </c>
       <c r="G514" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H514" t="s">
         <v>3</v>
@@ -14176,7 +14186,7 @@
         <v>10</v>
       </c>
       <c r="H515" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="516" spans="1:8" x14ac:dyDescent="0.4">
@@ -14228,7 +14238,7 @@
         <v>10</v>
       </c>
       <c r="H517" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="518" spans="1:8" x14ac:dyDescent="0.4">
@@ -14280,7 +14290,7 @@
         <v>10</v>
       </c>
       <c r="H519" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="520" spans="1:8" x14ac:dyDescent="0.4">
@@ -14329,7 +14339,7 @@
         <v>47</v>
       </c>
       <c r="G521" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H521" t="s">
         <v>3</v>
@@ -14355,10 +14365,10 @@
         <v>43920</v>
       </c>
       <c r="G522" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="H522" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="523" spans="1:8" x14ac:dyDescent="0.4">
@@ -14436,7 +14446,7 @@
         <v>10</v>
       </c>
       <c r="H525" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="526" spans="1:8" x14ac:dyDescent="0.4">
@@ -14459,10 +14469,10 @@
         <v>43922</v>
       </c>
       <c r="G526" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H526" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="527" spans="1:8" x14ac:dyDescent="0.4">
@@ -14485,7 +14495,7 @@
         <v>43929</v>
       </c>
       <c r="G527" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H527" t="s">
         <v>4</v>
@@ -14745,10 +14755,10 @@
         <v>43918</v>
       </c>
       <c r="G537" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="H537" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="538" spans="1:8" x14ac:dyDescent="0.4">
@@ -14771,10 +14781,10 @@
         <v>57</v>
       </c>
       <c r="G538" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H538" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="539" spans="1:8" x14ac:dyDescent="0.4">
@@ -14826,7 +14836,7 @@
         <v>10</v>
       </c>
       <c r="H540" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="541" spans="1:8" x14ac:dyDescent="0.4">
@@ -14852,7 +14862,7 @@
         <v>10</v>
       </c>
       <c r="H541" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="542" spans="1:8" x14ac:dyDescent="0.4">
@@ -14982,7 +14992,7 @@
         <v>10</v>
       </c>
       <c r="H546" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="547" spans="1:8" x14ac:dyDescent="0.4">
@@ -15239,7 +15249,7 @@
         <v>43926</v>
       </c>
       <c r="G556" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H556" t="s">
         <v>4</v>
@@ -15395,10 +15405,10 @@
         <v>43921</v>
       </c>
       <c r="G562" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H562" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="563" spans="1:8" x14ac:dyDescent="0.4">
@@ -15450,7 +15460,7 @@
         <v>10</v>
       </c>
       <c r="H564" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="565" spans="1:8" x14ac:dyDescent="0.4">
@@ -15476,7 +15486,7 @@
         <v>10</v>
       </c>
       <c r="H565" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="566" spans="1:8" x14ac:dyDescent="0.4">
@@ -15502,7 +15512,7 @@
         <v>10</v>
       </c>
       <c r="H566" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="567" spans="1:8" x14ac:dyDescent="0.4">
@@ -15528,7 +15538,7 @@
         <v>10</v>
       </c>
       <c r="H567" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="568" spans="1:8" x14ac:dyDescent="0.4">
@@ -15554,7 +15564,7 @@
         <v>10</v>
       </c>
       <c r="H568" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="569" spans="1:8" x14ac:dyDescent="0.4">
@@ -15629,7 +15639,7 @@
         <v>43927</v>
       </c>
       <c r="G571" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H571" t="s">
         <v>3</v>
@@ -15736,7 +15746,7 @@
         <v>10</v>
       </c>
       <c r="H575" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="576" spans="1:8" x14ac:dyDescent="0.4">
@@ -15785,10 +15795,10 @@
         <v>43917</v>
       </c>
       <c r="G577" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H577" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="578" spans="1:8" x14ac:dyDescent="0.4">
@@ -16048,7 +16058,7 @@
         <v>10</v>
       </c>
       <c r="H587" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="588" spans="1:8" x14ac:dyDescent="0.4">
@@ -16074,7 +16084,7 @@
         <v>10</v>
       </c>
       <c r="H588" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="589" spans="1:8" x14ac:dyDescent="0.4">
@@ -16097,10 +16107,10 @@
         <v>43924</v>
       </c>
       <c r="G589" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="H589" t="s">
-        <v>77</v>
+        <v>3</v>
       </c>
     </row>
     <row r="590" spans="1:8" x14ac:dyDescent="0.4">
@@ -16386,7 +16396,7 @@
         <v>10</v>
       </c>
       <c r="H600" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="601" spans="1:8" x14ac:dyDescent="0.4">
@@ -16461,7 +16471,7 @@
         <v>43928</v>
       </c>
       <c r="G603" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="H603" t="s">
         <v>3</v>
@@ -16487,10 +16497,10 @@
         <v>43926</v>
       </c>
       <c r="G604" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H604" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="605" spans="1:8" x14ac:dyDescent="0.4">
@@ -16565,10 +16575,10 @@
         <v>43924</v>
       </c>
       <c r="G607" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H607" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="608" spans="1:8" x14ac:dyDescent="0.4">
@@ -16594,7 +16604,7 @@
         <v>10</v>
       </c>
       <c r="H608" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="609" spans="1:8" x14ac:dyDescent="0.4">
@@ -16617,10 +16627,10 @@
         <v>43924</v>
       </c>
       <c r="G609" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H609" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="610" spans="1:8" x14ac:dyDescent="0.4">
@@ -16643,10 +16653,10 @@
         <v>43923</v>
       </c>
       <c r="G610" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H610" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="611" spans="1:8" x14ac:dyDescent="0.4">
@@ -16672,7 +16682,7 @@
         <v>10</v>
       </c>
       <c r="H611" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="612" spans="1:8" x14ac:dyDescent="0.4">
@@ -16802,7 +16812,7 @@
         <v>10</v>
       </c>
       <c r="H616" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="617" spans="1:8" x14ac:dyDescent="0.4">
@@ -16984,7 +16994,7 @@
         <v>10</v>
       </c>
       <c r="H623" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="624" spans="1:8" x14ac:dyDescent="0.4">
@@ -17010,7 +17020,7 @@
         <v>10</v>
       </c>
       <c r="H624" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="625" spans="1:8" x14ac:dyDescent="0.4">
@@ -17114,7 +17124,7 @@
         <v>10</v>
       </c>
       <c r="H628" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="629" spans="1:8" x14ac:dyDescent="0.4">
@@ -17137,10 +17147,10 @@
         <v>43921</v>
       </c>
       <c r="G629" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="H629" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="630" spans="1:8" x14ac:dyDescent="0.4">
@@ -17192,7 +17202,7 @@
         <v>10</v>
       </c>
       <c r="H631" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="632" spans="1:8" x14ac:dyDescent="0.4">
@@ -17605,7 +17615,7 @@
         <v>43925</v>
       </c>
       <c r="G647" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H647" t="s">
         <v>3</v>
@@ -18258,7 +18268,7 @@
         <v>10</v>
       </c>
       <c r="H672" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="673" spans="1:8" x14ac:dyDescent="0.4">
@@ -18284,7 +18294,7 @@
         <v>10</v>
       </c>
       <c r="H673" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="674" spans="1:8" x14ac:dyDescent="0.4">
@@ -18310,7 +18320,7 @@
         <v>10</v>
       </c>
       <c r="H674" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="675" spans="1:8" x14ac:dyDescent="0.4">
@@ -18336,7 +18346,7 @@
         <v>10</v>
       </c>
       <c r="H675" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="676" spans="1:8" x14ac:dyDescent="0.4">
@@ -18362,7 +18372,7 @@
         <v>10</v>
       </c>
       <c r="H676" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="677" spans="1:8" x14ac:dyDescent="0.4">
@@ -18440,7 +18450,7 @@
         <v>10</v>
       </c>
       <c r="H679" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="680" spans="1:8" x14ac:dyDescent="0.4">
@@ -18492,7 +18502,7 @@
         <v>10</v>
       </c>
       <c r="H681" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="682" spans="1:8" x14ac:dyDescent="0.4">
@@ -18518,7 +18528,7 @@
         <v>10</v>
       </c>
       <c r="H682" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="683" spans="1:8" x14ac:dyDescent="0.4">
@@ -18544,7 +18554,7 @@
         <v>10</v>
       </c>
       <c r="H683" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="684" spans="1:8" x14ac:dyDescent="0.4">
@@ -18567,10 +18577,10 @@
         <v>43927</v>
       </c>
       <c r="G684" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="H684" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="685" spans="1:8" x14ac:dyDescent="0.4">
@@ -18593,7 +18603,7 @@
         <v>43922</v>
       </c>
       <c r="G685" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H685" t="s">
         <v>4</v>
@@ -18622,7 +18632,7 @@
         <v>10</v>
       </c>
       <c r="H686" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="687" spans="1:8" x14ac:dyDescent="0.4">
@@ -18645,10 +18655,10 @@
         <v>47</v>
       </c>
       <c r="G687" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="H687" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="688" spans="1:8" x14ac:dyDescent="0.4">
@@ -18671,7 +18681,7 @@
         <v>47</v>
       </c>
       <c r="G688" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="H688" t="s">
         <v>4</v>
@@ -18697,10 +18707,10 @@
         <v>47</v>
       </c>
       <c r="G689" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="H689" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="690" spans="1:8" x14ac:dyDescent="0.4">
@@ -18723,10 +18733,10 @@
         <v>47</v>
       </c>
       <c r="G690" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="H690" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="691" spans="1:8" x14ac:dyDescent="0.4">
@@ -18749,7 +18759,7 @@
         <v>47</v>
       </c>
       <c r="G691" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="H691" t="s">
         <v>5</v>
@@ -18801,10 +18811,10 @@
         <v>47</v>
       </c>
       <c r="G693" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="H693" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="694" spans="1:8" x14ac:dyDescent="0.4">
@@ -18853,10 +18863,10 @@
         <v>47</v>
       </c>
       <c r="G695" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="H695" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="696" spans="1:8" x14ac:dyDescent="0.4">
@@ -18882,7 +18892,7 @@
         <v>47</v>
       </c>
       <c r="H696" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="697" spans="1:8" x14ac:dyDescent="0.4">
@@ -19116,7 +19126,7 @@
         <v>10</v>
       </c>
       <c r="H705" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="706" spans="1:8" x14ac:dyDescent="0.4">
@@ -19272,7 +19282,7 @@
         <v>10</v>
       </c>
       <c r="H711" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="712" spans="1:8" x14ac:dyDescent="0.4">
@@ -19295,10 +19305,10 @@
         <v>43927</v>
       </c>
       <c r="G712" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="H712" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="713" spans="1:8" x14ac:dyDescent="0.4">
@@ -19350,7 +19360,7 @@
         <v>10</v>
       </c>
       <c r="H714" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="715" spans="1:8" x14ac:dyDescent="0.4">
@@ -19376,7 +19386,7 @@
         <v>10</v>
       </c>
       <c r="H715" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="716" spans="1:8" x14ac:dyDescent="0.4">
@@ -19532,7 +19542,7 @@
         <v>10</v>
       </c>
       <c r="H721" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="722" spans="1:8" x14ac:dyDescent="0.4">
@@ -19558,7 +19568,7 @@
         <v>10</v>
       </c>
       <c r="H722" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="723" spans="1:8" x14ac:dyDescent="0.4">
@@ -19584,7 +19594,7 @@
         <v>10</v>
       </c>
       <c r="H723" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="724" spans="1:8" x14ac:dyDescent="0.4">
@@ -19710,11 +19720,11 @@
       <c r="F728" s="1">
         <v>43927</v>
       </c>
-      <c r="G728" t="s">
-        <v>10</v>
+      <c r="G728">
+        <v>0</v>
       </c>
       <c r="H728" t="s">
-        <v>77</v>
+        <v>4</v>
       </c>
     </row>
     <row r="729" spans="1:8" x14ac:dyDescent="0.4">
@@ -20026,7 +20036,7 @@
         <v>10</v>
       </c>
       <c r="H740" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="741" spans="1:8" x14ac:dyDescent="0.4">
@@ -20052,7 +20062,7 @@
         <v>10</v>
       </c>
       <c r="H741" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="742" spans="1:8" x14ac:dyDescent="0.4">
@@ -20101,7 +20111,7 @@
         <v>43917</v>
       </c>
       <c r="G743" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H743" t="s">
         <v>3</v>
@@ -20205,10 +20215,10 @@
         <v>43926</v>
       </c>
       <c r="G747" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="H747" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="748" spans="1:8" x14ac:dyDescent="0.4">
@@ -20257,7 +20267,7 @@
         <v>43930</v>
       </c>
       <c r="G749" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H749" t="s">
         <v>4</v>
@@ -20283,7 +20293,7 @@
         <v>43925</v>
       </c>
       <c r="G750" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H750" t="s">
         <v>4</v>
@@ -20312,7 +20322,7 @@
         <v>10</v>
       </c>
       <c r="H751" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="752" spans="1:8" x14ac:dyDescent="0.4">
@@ -20364,7 +20374,7 @@
         <v>13</v>
       </c>
       <c r="H753" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="754" spans="1:8" x14ac:dyDescent="0.4">
@@ -20390,7 +20400,7 @@
         <v>10</v>
       </c>
       <c r="H754" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="755" spans="1:8" x14ac:dyDescent="0.4">
@@ -20413,10 +20423,10 @@
         <v>43926</v>
       </c>
       <c r="G755" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="H755" t="s">
-        <v>77</v>
+        <v>4</v>
       </c>
     </row>
     <row r="756" spans="1:8" x14ac:dyDescent="0.4">
@@ -20494,7 +20504,7 @@
         <v>10</v>
       </c>
       <c r="H758" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="759" spans="1:8" x14ac:dyDescent="0.4">
@@ -20598,7 +20608,7 @@
         <v>10</v>
       </c>
       <c r="H762" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="763" spans="1:8" x14ac:dyDescent="0.4">
@@ -20624,7 +20634,7 @@
         <v>10</v>
       </c>
       <c r="H763" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="764" spans="1:8" x14ac:dyDescent="0.4">
@@ -20673,10 +20683,10 @@
         <v>47</v>
       </c>
       <c r="G765" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="H765" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="766" spans="1:8" x14ac:dyDescent="0.4">
@@ -20728,7 +20738,7 @@
         <v>10</v>
       </c>
       <c r="H767" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="768" spans="1:8" x14ac:dyDescent="0.4">
@@ -20754,7 +20764,7 @@
         <v>10</v>
       </c>
       <c r="H768" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="769" spans="1:8" x14ac:dyDescent="0.4">
@@ -20780,7 +20790,7 @@
         <v>10</v>
       </c>
       <c r="H769" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="770" spans="1:8" x14ac:dyDescent="0.4">
@@ -20806,7 +20816,7 @@
         <v>10</v>
       </c>
       <c r="H770" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="771" spans="1:8" x14ac:dyDescent="0.4">
@@ -20884,7 +20894,7 @@
         <v>10</v>
       </c>
       <c r="H773" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="774" spans="1:8" x14ac:dyDescent="0.4">
@@ -20936,7 +20946,7 @@
         <v>10</v>
       </c>
       <c r="H775" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="776" spans="1:8" x14ac:dyDescent="0.4">
@@ -20962,7 +20972,7 @@
         <v>12</v>
       </c>
       <c r="H776" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="777" spans="1:8" x14ac:dyDescent="0.4">
@@ -20988,7 +20998,7 @@
         <v>10</v>
       </c>
       <c r="H777" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="778" spans="1:8" x14ac:dyDescent="0.4">
@@ -21115,10 +21125,10 @@
         <v>43923</v>
       </c>
       <c r="G782" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="H782" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="783" spans="1:8" x14ac:dyDescent="0.4">
@@ -21508,7 +21518,7 @@
         <v>10</v>
       </c>
       <c r="H797" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="798" spans="1:8" x14ac:dyDescent="0.4">
@@ -22002,7 +22012,7 @@
         <v>10</v>
       </c>
       <c r="H816" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="817" spans="1:8" x14ac:dyDescent="0.4">
@@ -22028,7 +22038,7 @@
         <v>10</v>
       </c>
       <c r="H817" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="818" spans="1:8" x14ac:dyDescent="0.4">
@@ -22080,7 +22090,7 @@
         <v>10</v>
       </c>
       <c r="H819" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="820" spans="1:8" x14ac:dyDescent="0.4">
@@ -22132,7 +22142,7 @@
         <v>10</v>
       </c>
       <c r="H821" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="822" spans="1:8" x14ac:dyDescent="0.4">
@@ -22158,7 +22168,7 @@
         <v>10</v>
       </c>
       <c r="H822" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="823" spans="1:8" x14ac:dyDescent="0.4">
@@ -22204,7 +22214,7 @@
         <v>25</v>
       </c>
       <c r="F824" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G824" t="s">
         <v>11</v>
@@ -22288,7 +22298,7 @@
         <v>10</v>
       </c>
       <c r="H827" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="828" spans="1:8" x14ac:dyDescent="0.4">
@@ -22340,7 +22350,7 @@
         <v>10</v>
       </c>
       <c r="H829" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="830" spans="1:8" x14ac:dyDescent="0.4">
@@ -22363,10 +22373,10 @@
         <v>43921</v>
       </c>
       <c r="G830" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="H830" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="831" spans="1:8" x14ac:dyDescent="0.4">
@@ -22389,10 +22399,10 @@
         <v>43921</v>
       </c>
       <c r="G831" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="H831" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="832" spans="1:8" x14ac:dyDescent="0.4">
@@ -22467,7 +22477,7 @@
         <v>43931</v>
       </c>
       <c r="G834" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H834" t="s">
         <v>4</v>
@@ -22522,7 +22532,7 @@
         <v>10</v>
       </c>
       <c r="H836" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="837" spans="1:8" x14ac:dyDescent="0.4">
@@ -22854,7 +22864,7 @@
         <v>25</v>
       </c>
       <c r="F849" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G849" t="s">
         <v>10</v>
@@ -22990,7 +23000,7 @@
         <v>10</v>
       </c>
       <c r="H854" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="855" spans="1:8" x14ac:dyDescent="0.4">
@@ -23042,7 +23052,7 @@
         <v>10</v>
       </c>
       <c r="H856" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="857" spans="1:8" x14ac:dyDescent="0.4">
@@ -23068,7 +23078,7 @@
         <v>10</v>
       </c>
       <c r="H857" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="858" spans="1:8" x14ac:dyDescent="0.4">
@@ -23117,10 +23127,10 @@
         <v>43931</v>
       </c>
       <c r="G859" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="H859" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="860" spans="1:8" x14ac:dyDescent="0.4">
@@ -23143,10 +23153,10 @@
         <v>43925</v>
       </c>
       <c r="G860" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="H860" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="861" spans="1:8" x14ac:dyDescent="0.4">
@@ -23172,7 +23182,7 @@
         <v>10</v>
       </c>
       <c r="H861" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="862" spans="1:8" x14ac:dyDescent="0.4">
@@ -23224,7 +23234,7 @@
         <v>47</v>
       </c>
       <c r="H863" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="864" spans="1:8" x14ac:dyDescent="0.4">
@@ -23631,10 +23641,10 @@
         <v>26</v>
       </c>
       <c r="E879" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F879" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G879" t="s">
         <v>11</v>
@@ -23692,7 +23702,7 @@
         <v>10</v>
       </c>
       <c r="H881" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="882" spans="1:8" x14ac:dyDescent="0.4">
@@ -23718,7 +23728,7 @@
         <v>10</v>
       </c>
       <c r="H882" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="883" spans="1:8" x14ac:dyDescent="0.4">
@@ -23744,7 +23754,7 @@
         <v>10</v>
       </c>
       <c r="H883" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="884" spans="1:8" x14ac:dyDescent="0.4">
@@ -23770,7 +23780,7 @@
         <v>10</v>
       </c>
       <c r="H884" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="885" spans="1:8" x14ac:dyDescent="0.4">
@@ -23796,7 +23806,7 @@
         <v>10</v>
       </c>
       <c r="H885" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="886" spans="1:8" x14ac:dyDescent="0.4">
@@ -23822,7 +23832,7 @@
         <v>10</v>
       </c>
       <c r="H886" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="887" spans="1:8" x14ac:dyDescent="0.4">
@@ -23848,7 +23858,7 @@
         <v>10</v>
       </c>
       <c r="H887" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="888" spans="1:8" x14ac:dyDescent="0.4">
@@ -23900,7 +23910,7 @@
         <v>10</v>
       </c>
       <c r="H889" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="890" spans="1:8" x14ac:dyDescent="0.4">
@@ -23975,10 +23985,10 @@
         <v>43927</v>
       </c>
       <c r="G892" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="H892" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="893" spans="1:8" x14ac:dyDescent="0.4">
@@ -24079,10 +24089,10 @@
         <v>57</v>
       </c>
       <c r="G896" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H896" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="897" spans="1:8" x14ac:dyDescent="0.4">
@@ -24134,7 +24144,7 @@
         <v>10</v>
       </c>
       <c r="H898" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="899" spans="1:8" x14ac:dyDescent="0.4">
@@ -24157,10 +24167,10 @@
         <v>43929</v>
       </c>
       <c r="G899" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H899" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="900" spans="1:8" x14ac:dyDescent="0.4">
@@ -24312,8 +24322,8 @@
       <c r="F905" s="1">
         <v>43932</v>
       </c>
-      <c r="G905" t="s">
-        <v>10</v>
+      <c r="G905">
+        <v>0</v>
       </c>
       <c r="H905" t="s">
         <v>4</v>
@@ -24420,7 +24430,7 @@
         <v>10</v>
       </c>
       <c r="H909" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="910" spans="1:8" x14ac:dyDescent="0.4">
@@ -24446,7 +24456,7 @@
         <v>10</v>
       </c>
       <c r="H910" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="911" spans="1:8" x14ac:dyDescent="0.4">
@@ -24472,7 +24482,7 @@
         <v>10</v>
       </c>
       <c r="H911" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="912" spans="1:8" x14ac:dyDescent="0.4">
@@ -24576,7 +24586,7 @@
         <v>10</v>
       </c>
       <c r="H915" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="916" spans="1:8" x14ac:dyDescent="0.4">
@@ -24593,7 +24603,7 @@
         <v>24</v>
       </c>
       <c r="E916" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F916" s="1">
         <v>43927</v>
@@ -24628,7 +24638,7 @@
         <v>10</v>
       </c>
       <c r="H917" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="918" spans="1:8" x14ac:dyDescent="0.4">
@@ -24836,7 +24846,7 @@
         <v>10</v>
       </c>
       <c r="H925" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="926" spans="1:8" x14ac:dyDescent="0.4">
@@ -24862,7 +24872,7 @@
         <v>10</v>
       </c>
       <c r="H926" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="927" spans="1:8" x14ac:dyDescent="0.4">
@@ -24888,7 +24898,7 @@
         <v>10</v>
       </c>
       <c r="H927" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="928" spans="1:8" x14ac:dyDescent="0.4">
@@ -24914,7 +24924,7 @@
         <v>10</v>
       </c>
       <c r="H928" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="929" spans="1:8" x14ac:dyDescent="0.4">
@@ -24940,7 +24950,7 @@
         <v>10</v>
       </c>
       <c r="H929" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="930" spans="1:8" x14ac:dyDescent="0.4">
@@ -24966,7 +24976,7 @@
         <v>10</v>
       </c>
       <c r="H930" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="931" spans="1:8" x14ac:dyDescent="0.4">
@@ -24992,7 +25002,7 @@
         <v>10</v>
       </c>
       <c r="H931" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="932" spans="1:8" x14ac:dyDescent="0.4">
@@ -25018,7 +25028,7 @@
         <v>10</v>
       </c>
       <c r="H932" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
     </row>
     <row r="933" spans="1:8" x14ac:dyDescent="0.4">
@@ -25070,7 +25080,7 @@
         <v>10</v>
       </c>
       <c r="H934" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="935" spans="1:8" x14ac:dyDescent="0.4">
@@ -25096,7 +25106,7 @@
         <v>10</v>
       </c>
       <c r="H935" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="936" spans="1:8" x14ac:dyDescent="0.4">
@@ -25226,7 +25236,7 @@
         <v>10</v>
       </c>
       <c r="H940" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="941" spans="1:8" x14ac:dyDescent="0.4">
@@ -25353,10 +25363,10 @@
         <v>43931</v>
       </c>
       <c r="G945" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="H945" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
     </row>
     <row r="946" spans="1:8" x14ac:dyDescent="0.4">
@@ -25408,7 +25418,7 @@
         <v>10</v>
       </c>
       <c r="H947" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="948" spans="1:8" x14ac:dyDescent="0.4">
@@ -25486,7 +25496,7 @@
         <v>10</v>
       </c>
       <c r="H950" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="951" spans="1:8" x14ac:dyDescent="0.4">
@@ -25616,7 +25626,7 @@
         <v>12</v>
       </c>
       <c r="H955" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="956" spans="1:8" x14ac:dyDescent="0.4">
@@ -25668,7 +25678,7 @@
         <v>10</v>
       </c>
       <c r="H957" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="958" spans="1:8" x14ac:dyDescent="0.4">
@@ -25694,7 +25704,7 @@
         <v>10</v>
       </c>
       <c r="H958" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="959" spans="1:8" x14ac:dyDescent="0.4">
@@ -25720,7 +25730,7 @@
         <v>10</v>
       </c>
       <c r="H959" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="960" spans="1:8" x14ac:dyDescent="0.4">
@@ -25746,7 +25756,7 @@
         <v>10</v>
       </c>
       <c r="H960" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="961" spans="1:8" x14ac:dyDescent="0.4">
@@ -25763,7 +25773,7 @@
         <v>26</v>
       </c>
       <c r="E961" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F961" s="1">
         <v>43931</v>
@@ -25772,7 +25782,7 @@
         <v>10</v>
       </c>
       <c r="H961" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="962" spans="1:8" x14ac:dyDescent="0.4">
@@ -25795,10 +25805,10 @@
         <v>43929</v>
       </c>
       <c r="G962" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="H962" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="963" spans="1:8" x14ac:dyDescent="0.4">
@@ -25902,7 +25912,7 @@
         <v>10</v>
       </c>
       <c r="H966" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="967" spans="1:8" x14ac:dyDescent="0.4">
@@ -25928,7 +25938,7 @@
         <v>10</v>
       </c>
       <c r="H967" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="968" spans="1:8" x14ac:dyDescent="0.4">
@@ -25954,7 +25964,7 @@
         <v>10</v>
       </c>
       <c r="H968" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="969" spans="1:8" x14ac:dyDescent="0.4">
@@ -25980,7 +25990,7 @@
         <v>10</v>
       </c>
       <c r="H969" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="970" spans="1:8" x14ac:dyDescent="0.4">
@@ -26084,7 +26094,7 @@
         <v>10</v>
       </c>
       <c r="H973" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="974" spans="1:8" x14ac:dyDescent="0.4">
@@ -26136,7 +26146,7 @@
         <v>10</v>
       </c>
       <c r="H975" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="976" spans="1:8" x14ac:dyDescent="0.4">
@@ -26162,7 +26172,7 @@
         <v>10</v>
       </c>
       <c r="H976" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="977" spans="1:8" x14ac:dyDescent="0.4">
@@ -26266,7 +26276,7 @@
         <v>10</v>
       </c>
       <c r="H980" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="981" spans="1:8" x14ac:dyDescent="0.4">
@@ -26283,7 +26293,7 @@
         <v>26</v>
       </c>
       <c r="E981" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F981" s="1">
         <v>43929</v>
@@ -26292,7 +26302,7 @@
         <v>10</v>
       </c>
       <c r="H981" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="982" spans="1:8" x14ac:dyDescent="0.4">
@@ -26396,7 +26406,7 @@
         <v>10</v>
       </c>
       <c r="H985" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="986" spans="1:8" x14ac:dyDescent="0.4">
@@ -26422,7 +26432,7 @@
         <v>10</v>
       </c>
       <c r="H986" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="987" spans="1:8" x14ac:dyDescent="0.4">
@@ -26526,7 +26536,7 @@
         <v>10</v>
       </c>
       <c r="H990" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="991" spans="1:8" x14ac:dyDescent="0.4">
@@ -26552,7 +26562,7 @@
         <v>47</v>
       </c>
       <c r="H991" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="992" spans="1:8" x14ac:dyDescent="0.4">
@@ -26682,7 +26692,7 @@
         <v>10</v>
       </c>
       <c r="H996" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="997" spans="1:8" x14ac:dyDescent="0.4">
@@ -26942,7 +26952,7 @@
         <v>10</v>
       </c>
       <c r="H1006" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1007" spans="1:8" x14ac:dyDescent="0.4">
@@ -26968,7 +26978,7 @@
         <v>10</v>
       </c>
       <c r="H1007" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1008" spans="1:8" x14ac:dyDescent="0.4">
@@ -27046,7 +27056,7 @@
         <v>10</v>
       </c>
       <c r="H1010" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1011" spans="1:8" x14ac:dyDescent="0.4">
@@ -27098,7 +27108,7 @@
         <v>10</v>
       </c>
       <c r="H1012" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1013" spans="1:8" x14ac:dyDescent="0.4">
@@ -27150,7 +27160,7 @@
         <v>10</v>
       </c>
       <c r="H1014" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1015" spans="1:8" x14ac:dyDescent="0.4">
@@ -27254,7 +27264,7 @@
         <v>10</v>
       </c>
       <c r="H1018" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1019" spans="1:8" x14ac:dyDescent="0.4">
@@ -27280,7 +27290,7 @@
         <v>10</v>
       </c>
       <c r="H1019" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1020" spans="1:8" x14ac:dyDescent="0.4">
@@ -27306,7 +27316,7 @@
         <v>10</v>
       </c>
       <c r="H1020" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1021" spans="1:8" x14ac:dyDescent="0.4">
@@ -27332,7 +27342,7 @@
         <v>10</v>
       </c>
       <c r="H1021" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1022" spans="1:8" x14ac:dyDescent="0.4">
@@ -27358,7 +27368,7 @@
         <v>10</v>
       </c>
       <c r="H1022" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1023" spans="1:8" x14ac:dyDescent="0.4">
@@ -27618,7 +27628,7 @@
         <v>10</v>
       </c>
       <c r="H1032" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1033" spans="1:8" x14ac:dyDescent="0.4">
@@ -27739,7 +27749,7 @@
         <v>26</v>
       </c>
       <c r="E1037" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F1037" s="1">
         <v>43928</v>
@@ -27771,10 +27781,10 @@
         <v>43927</v>
       </c>
       <c r="G1038" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H1038" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1039" spans="1:8" x14ac:dyDescent="0.4">
@@ -28337,7 +28347,7 @@
         <v>26</v>
       </c>
       <c r="E1060" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F1060" s="1" t="s">
         <v>47</v>
@@ -28791,18 +28801,2309 @@
         <v>5</v>
       </c>
     </row>
+    <row r="1078" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1078">
+        <v>1076</v>
+      </c>
+      <c r="B1078">
+        <v>43939</v>
+      </c>
+      <c r="C1078">
+        <v>70</v>
+      </c>
+      <c r="D1078" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1078" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1078">
+        <v>43934</v>
+      </c>
+      <c r="G1078" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1078" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1079">
+        <v>1077</v>
+      </c>
+      <c r="B1079">
+        <v>43939</v>
+      </c>
+      <c r="C1079">
+        <v>50</v>
+      </c>
+      <c r="D1079" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1079" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1079">
+        <v>43936</v>
+      </c>
+      <c r="G1079" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1079" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1080">
+        <v>1078</v>
+      </c>
+      <c r="B1080">
+        <v>43939</v>
+      </c>
+      <c r="C1080">
+        <v>80</v>
+      </c>
+      <c r="D1080" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1080" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1080">
+        <v>43932</v>
+      </c>
+      <c r="G1080" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1080" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1081">
+        <v>1079</v>
+      </c>
+      <c r="B1081">
+        <v>43939</v>
+      </c>
+      <c r="C1081">
+        <v>50</v>
+      </c>
+      <c r="D1081" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1081" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1081">
+        <v>43928</v>
+      </c>
+      <c r="G1081" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1081" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1082">
+        <v>1080</v>
+      </c>
+      <c r="B1082">
+        <v>43939</v>
+      </c>
+      <c r="C1082">
+        <v>20</v>
+      </c>
+      <c r="D1082" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1082" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1082" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1082" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1082" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1083">
+        <v>1081</v>
+      </c>
+      <c r="B1083">
+        <v>43939</v>
+      </c>
+      <c r="C1083">
+        <v>40</v>
+      </c>
+      <c r="D1083" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1083" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1083" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1083" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1083" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1084">
+        <v>1082</v>
+      </c>
+      <c r="B1084">
+        <v>43939</v>
+      </c>
+      <c r="C1084">
+        <v>80</v>
+      </c>
+      <c r="D1084" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1084" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1084">
+        <v>43937</v>
+      </c>
+      <c r="G1084" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1084" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1085">
+        <v>1083</v>
+      </c>
+      <c r="B1085">
+        <v>43939</v>
+      </c>
+      <c r="C1085">
+        <v>20</v>
+      </c>
+      <c r="D1085" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1085" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1085">
+        <v>43934</v>
+      </c>
+      <c r="G1085" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1085" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1086">
+        <v>1084</v>
+      </c>
+      <c r="B1086">
+        <v>43939</v>
+      </c>
+      <c r="C1086">
+        <v>20</v>
+      </c>
+      <c r="D1086" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1086" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1086">
+        <v>43937</v>
+      </c>
+      <c r="G1086" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1086" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1087">
+        <v>1085</v>
+      </c>
+      <c r="B1087">
+        <v>43939</v>
+      </c>
+      <c r="C1087">
+        <v>40</v>
+      </c>
+      <c r="D1087" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1087" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1087">
+        <v>43926</v>
+      </c>
+      <c r="G1087" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1087" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1088">
+        <v>1086</v>
+      </c>
+      <c r="B1088">
+        <v>43939</v>
+      </c>
+      <c r="C1088">
+        <v>20</v>
+      </c>
+      <c r="D1088" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1088" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1088">
+        <v>43930</v>
+      </c>
+      <c r="G1088" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1088" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1089">
+        <v>1087</v>
+      </c>
+      <c r="B1089">
+        <v>43939</v>
+      </c>
+      <c r="C1089">
+        <v>50</v>
+      </c>
+      <c r="D1089" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1089" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1089">
+        <v>43936</v>
+      </c>
+      <c r="G1089" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1089" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1090">
+        <v>1088</v>
+      </c>
+      <c r="B1090">
+        <v>43939</v>
+      </c>
+      <c r="C1090">
+        <v>100</v>
+      </c>
+      <c r="D1090" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1090" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1090">
+        <v>43929</v>
+      </c>
+      <c r="G1090" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1090" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1091">
+        <v>1089</v>
+      </c>
+      <c r="B1091">
+        <v>43939</v>
+      </c>
+      <c r="C1091">
+        <v>90</v>
+      </c>
+      <c r="D1091" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1091" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1091">
+        <v>43932</v>
+      </c>
+      <c r="G1091" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1091" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1092">
+        <v>1090</v>
+      </c>
+      <c r="B1092">
+        <v>43939</v>
+      </c>
+      <c r="C1092">
+        <v>80</v>
+      </c>
+      <c r="D1092" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1092" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1092">
+        <v>43935</v>
+      </c>
+      <c r="G1092" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1092" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1093">
+        <v>1091</v>
+      </c>
+      <c r="B1093">
+        <v>43939</v>
+      </c>
+      <c r="C1093">
+        <v>20</v>
+      </c>
+      <c r="D1093" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1093" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1093">
+        <v>43927</v>
+      </c>
+      <c r="G1093" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1093" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1094">
+        <v>1092</v>
+      </c>
+      <c r="B1094">
+        <v>43939</v>
+      </c>
+      <c r="C1094">
+        <v>40</v>
+      </c>
+      <c r="D1094" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1094" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1094">
+        <v>43931</v>
+      </c>
+      <c r="G1094" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1094" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1095">
+        <v>1093</v>
+      </c>
+      <c r="B1095">
+        <v>43939</v>
+      </c>
+      <c r="C1095">
+        <v>60</v>
+      </c>
+      <c r="D1095" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1095" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1095">
+        <v>43930</v>
+      </c>
+      <c r="G1095" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1095" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1096">
+        <v>1094</v>
+      </c>
+      <c r="B1096">
+        <v>43939</v>
+      </c>
+      <c r="C1096">
+        <v>20</v>
+      </c>
+      <c r="D1096" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1096" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1096">
+        <v>43927</v>
+      </c>
+      <c r="G1096" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1096" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1097">
+        <v>1095</v>
+      </c>
+      <c r="B1097">
+        <v>43939</v>
+      </c>
+      <c r="C1097">
+        <v>10</v>
+      </c>
+      <c r="D1097" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1097" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1097">
+        <v>43927</v>
+      </c>
+      <c r="G1097" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1097" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1098">
+        <v>1096</v>
+      </c>
+      <c r="B1098">
+        <v>43939</v>
+      </c>
+      <c r="C1098">
+        <v>40</v>
+      </c>
+      <c r="D1098" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1098" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1098">
+        <v>43917</v>
+      </c>
+      <c r="G1098" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1098" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1099">
+        <v>1097</v>
+      </c>
+      <c r="B1099">
+        <v>43939</v>
+      </c>
+      <c r="C1099">
+        <v>80</v>
+      </c>
+      <c r="D1099" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1099" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1099" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1099" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1099" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1100">
+        <v>1098</v>
+      </c>
+      <c r="B1100">
+        <v>43939</v>
+      </c>
+      <c r="C1100">
+        <v>20</v>
+      </c>
+      <c r="D1100" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1100" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1100">
+        <v>43934</v>
+      </c>
+      <c r="G1100" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1100" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1101">
+        <v>1099</v>
+      </c>
+      <c r="B1101">
+        <v>43939</v>
+      </c>
+      <c r="C1101">
+        <v>70</v>
+      </c>
+      <c r="D1101" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1101" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1101">
+        <v>43927</v>
+      </c>
+      <c r="G1101" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1101" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1102">
+        <v>1100</v>
+      </c>
+      <c r="B1102">
+        <v>43939</v>
+      </c>
+      <c r="C1102">
+        <v>40</v>
+      </c>
+      <c r="D1102" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1102" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1102">
+        <v>43930</v>
+      </c>
+      <c r="G1102" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1102" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1103">
+        <v>1101</v>
+      </c>
+      <c r="B1103">
+        <v>43939</v>
+      </c>
+      <c r="C1103">
+        <v>30</v>
+      </c>
+      <c r="D1103" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1103" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1103">
+        <v>43934</v>
+      </c>
+      <c r="G1103" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1103" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1104">
+        <v>1102</v>
+      </c>
+      <c r="B1104">
+        <v>43939</v>
+      </c>
+      <c r="C1104">
+        <v>30</v>
+      </c>
+      <c r="D1104" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1104" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1104">
+        <v>43929</v>
+      </c>
+      <c r="G1104" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1104" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1105">
+        <v>1103</v>
+      </c>
+      <c r="B1105">
+        <v>43939</v>
+      </c>
+      <c r="C1105">
+        <v>20</v>
+      </c>
+      <c r="D1105" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1105" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1105">
+        <v>43929</v>
+      </c>
+      <c r="G1105" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1105" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1106">
+        <v>1104</v>
+      </c>
+      <c r="B1106">
+        <v>43939</v>
+      </c>
+      <c r="C1106">
+        <v>20</v>
+      </c>
+      <c r="D1106" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1106" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1106">
+        <v>43923</v>
+      </c>
+      <c r="G1106" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1106" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1107">
+        <v>1105</v>
+      </c>
+      <c r="B1107">
+        <v>43939</v>
+      </c>
+      <c r="C1107">
+        <v>20</v>
+      </c>
+      <c r="D1107" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1107" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1107">
+        <v>43923</v>
+      </c>
+      <c r="G1107" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1107" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1108">
+        <v>1106</v>
+      </c>
+      <c r="B1108">
+        <v>43939</v>
+      </c>
+      <c r="C1108">
+        <v>20</v>
+      </c>
+      <c r="D1108" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1108" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1108">
+        <v>43924</v>
+      </c>
+      <c r="G1108" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1108" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1109">
+        <v>1107</v>
+      </c>
+      <c r="B1109">
+        <v>43939</v>
+      </c>
+      <c r="C1109">
+        <v>60</v>
+      </c>
+      <c r="D1109" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1109" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1109">
+        <v>43932</v>
+      </c>
+      <c r="G1109" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1109" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1110">
+        <v>1108</v>
+      </c>
+      <c r="B1110">
+        <v>43939</v>
+      </c>
+      <c r="C1110">
+        <v>50</v>
+      </c>
+      <c r="D1110" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1110" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1110">
+        <v>43929</v>
+      </c>
+      <c r="G1110" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1110" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1111">
+        <v>1109</v>
+      </c>
+      <c r="B1111">
+        <v>43939</v>
+      </c>
+      <c r="C1111">
+        <v>20</v>
+      </c>
+      <c r="D1111" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1111" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1111">
+        <v>43935</v>
+      </c>
+      <c r="G1111" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1111" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1112">
+        <v>1110</v>
+      </c>
+      <c r="B1112">
+        <v>43939</v>
+      </c>
+      <c r="C1112">
+        <v>60</v>
+      </c>
+      <c r="D1112" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1112" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1112">
+        <v>43923</v>
+      </c>
+      <c r="G1112" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1112" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1113">
+        <v>1111</v>
+      </c>
+      <c r="B1113">
+        <v>43939</v>
+      </c>
+      <c r="C1113">
+        <v>20</v>
+      </c>
+      <c r="D1113" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1113" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1113">
+        <v>43924</v>
+      </c>
+      <c r="G1113" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1113" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1114">
+        <v>1112</v>
+      </c>
+      <c r="B1114">
+        <v>43939</v>
+      </c>
+      <c r="C1114">
+        <v>50</v>
+      </c>
+      <c r="D1114" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1114" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1114">
+        <v>43924</v>
+      </c>
+      <c r="G1114" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1114" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1115">
+        <v>1113</v>
+      </c>
+      <c r="B1115">
+        <v>43939</v>
+      </c>
+      <c r="C1115">
+        <v>70</v>
+      </c>
+      <c r="D1115" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1115" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1115" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1115" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1115" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1116">
+        <v>1114</v>
+      </c>
+      <c r="B1116">
+        <v>43939</v>
+      </c>
+      <c r="C1116">
+        <v>20</v>
+      </c>
+      <c r="D1116" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1116" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1116">
+        <v>43928</v>
+      </c>
+      <c r="G1116" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1116" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1117">
+        <v>1115</v>
+      </c>
+      <c r="B1117">
+        <v>43939</v>
+      </c>
+      <c r="C1117">
+        <v>10</v>
+      </c>
+      <c r="D1117" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1117" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1117">
+        <v>43934</v>
+      </c>
+      <c r="G1117" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1117" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1118">
+        <v>1116</v>
+      </c>
+      <c r="B1118">
+        <v>43939</v>
+      </c>
+      <c r="C1118">
+        <v>50</v>
+      </c>
+      <c r="D1118" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1118" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1118">
+        <v>43934</v>
+      </c>
+      <c r="G1118" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1118" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1119">
+        <v>1117</v>
+      </c>
+      <c r="B1119">
+        <v>43939</v>
+      </c>
+      <c r="C1119">
+        <v>40</v>
+      </c>
+      <c r="D1119" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1119" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1119">
+        <v>43934</v>
+      </c>
+      <c r="G1119" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1119" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1120">
+        <v>1118</v>
+      </c>
+      <c r="B1120">
+        <v>43939</v>
+      </c>
+      <c r="C1120">
+        <v>50</v>
+      </c>
+      <c r="D1120" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1120" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1120">
+        <v>43929</v>
+      </c>
+      <c r="G1120" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1120" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1121">
+        <v>1119</v>
+      </c>
+      <c r="B1121">
+        <v>43939</v>
+      </c>
+      <c r="C1121">
+        <v>60</v>
+      </c>
+      <c r="D1121" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1121" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1121">
+        <v>43929</v>
+      </c>
+      <c r="G1121" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1121" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1122">
+        <v>1120</v>
+      </c>
+      <c r="B1122">
+        <v>43939</v>
+      </c>
+      <c r="C1122">
+        <v>50</v>
+      </c>
+      <c r="D1122" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1122" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1122">
+        <v>43935</v>
+      </c>
+      <c r="G1122" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1122" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1123">
+        <v>1121</v>
+      </c>
+      <c r="B1123">
+        <v>43939</v>
+      </c>
+      <c r="C1123">
+        <v>20</v>
+      </c>
+      <c r="D1123" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1123" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1123">
+        <v>43935</v>
+      </c>
+      <c r="G1123" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1123" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1124">
+        <v>1122</v>
+      </c>
+      <c r="B1124">
+        <v>43939</v>
+      </c>
+      <c r="C1124">
+        <v>10</v>
+      </c>
+      <c r="D1124" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1124" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1124">
+        <v>43936</v>
+      </c>
+      <c r="G1124" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1124" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1125">
+        <v>1123</v>
+      </c>
+      <c r="B1125">
+        <v>43939</v>
+      </c>
+      <c r="C1125">
+        <v>40</v>
+      </c>
+      <c r="D1125" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1125" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1125" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1125" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1125" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1126">
+        <v>1124</v>
+      </c>
+      <c r="B1126">
+        <v>43939</v>
+      </c>
+      <c r="C1126">
+        <v>80</v>
+      </c>
+      <c r="D1126" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1126" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1126" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1126" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1126" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1127">
+        <v>1125</v>
+      </c>
+      <c r="B1127">
+        <v>43939</v>
+      </c>
+      <c r="C1127">
+        <v>40</v>
+      </c>
+      <c r="D1127" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1127" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1127" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1127" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1127" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1128">
+        <v>1126</v>
+      </c>
+      <c r="B1128">
+        <v>43939</v>
+      </c>
+      <c r="C1128">
+        <v>50</v>
+      </c>
+      <c r="D1128" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1128" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1128" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1128" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1128" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1129">
+        <v>1127</v>
+      </c>
+      <c r="B1129">
+        <v>43939</v>
+      </c>
+      <c r="C1129">
+        <v>70</v>
+      </c>
+      <c r="D1129" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1129" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1129" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1129" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1129" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1130">
+        <v>1128</v>
+      </c>
+      <c r="B1130">
+        <v>43939</v>
+      </c>
+      <c r="C1130">
+        <v>70</v>
+      </c>
+      <c r="D1130" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1130" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1130" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1130" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1130" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1131">
+        <v>1129</v>
+      </c>
+      <c r="B1131">
+        <v>43939</v>
+      </c>
+      <c r="C1131">
+        <v>70</v>
+      </c>
+      <c r="D1131" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1131" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1131" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1131" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1131" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1132">
+        <v>1130</v>
+      </c>
+      <c r="B1132">
+        <v>43939</v>
+      </c>
+      <c r="C1132">
+        <v>80</v>
+      </c>
+      <c r="D1132" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1132" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1132" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1132" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1132" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1133">
+        <v>1131</v>
+      </c>
+      <c r="B1133">
+        <v>43939</v>
+      </c>
+      <c r="C1133">
+        <v>70</v>
+      </c>
+      <c r="D1133" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1133" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1133" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1133" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1133" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1134">
+        <v>1132</v>
+      </c>
+      <c r="B1134">
+        <v>43939</v>
+      </c>
+      <c r="C1134">
+        <v>50</v>
+      </c>
+      <c r="D1134" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1134" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1134" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1134" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1134" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1135">
+        <v>1133</v>
+      </c>
+      <c r="B1135">
+        <v>43939</v>
+      </c>
+      <c r="C1135">
+        <v>70</v>
+      </c>
+      <c r="D1135" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1135" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1135" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1135" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1135" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1136">
+        <v>1134</v>
+      </c>
+      <c r="B1136">
+        <v>43939</v>
+      </c>
+      <c r="C1136">
+        <v>50</v>
+      </c>
+      <c r="D1136" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1136" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1136" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1136" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1136" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1137">
+        <v>1135</v>
+      </c>
+      <c r="B1137">
+        <v>43939</v>
+      </c>
+      <c r="C1137">
+        <v>70</v>
+      </c>
+      <c r="D1137" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1137" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1137" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1137" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1137" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1138">
+        <v>1136</v>
+      </c>
+      <c r="B1138">
+        <v>43939</v>
+      </c>
+      <c r="C1138">
+        <v>80</v>
+      </c>
+      <c r="D1138" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1138" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1138" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1138" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1138" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1139">
+        <v>1137</v>
+      </c>
+      <c r="B1139">
+        <v>43939</v>
+      </c>
+      <c r="C1139">
+        <v>70</v>
+      </c>
+      <c r="D1139" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1139" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1139" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1139" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1139" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1140">
+        <v>1138</v>
+      </c>
+      <c r="B1140">
+        <v>43939</v>
+      </c>
+      <c r="C1140">
+        <v>60</v>
+      </c>
+      <c r="D1140" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1140" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1140" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1140" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1140" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1141">
+        <v>1139</v>
+      </c>
+      <c r="B1141">
+        <v>43939</v>
+      </c>
+      <c r="C1141">
+        <v>60</v>
+      </c>
+      <c r="D1141" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1141" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1141" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1141" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1141" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1142">
+        <v>1140</v>
+      </c>
+      <c r="B1142">
+        <v>43939</v>
+      </c>
+      <c r="C1142">
+        <v>80</v>
+      </c>
+      <c r="D1142" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1142" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1142" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1142" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1142" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1143">
+        <v>1141</v>
+      </c>
+      <c r="B1143">
+        <v>43939</v>
+      </c>
+      <c r="C1143">
+        <v>90</v>
+      </c>
+      <c r="D1143" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1143" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1143" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1143" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1143" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1144">
+        <v>1142</v>
+      </c>
+      <c r="B1144">
+        <v>43939</v>
+      </c>
+      <c r="C1144">
+        <v>60</v>
+      </c>
+      <c r="D1144" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1144" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1144" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1144" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1144" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1145">
+        <v>1143</v>
+      </c>
+      <c r="B1145">
+        <v>43939</v>
+      </c>
+      <c r="C1145">
+        <v>90</v>
+      </c>
+      <c r="D1145" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1145" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1145" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1145" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1145" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1146">
+        <v>1144</v>
+      </c>
+      <c r="B1146">
+        <v>43939</v>
+      </c>
+      <c r="C1146">
+        <v>80</v>
+      </c>
+      <c r="D1146" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1146" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1146" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1146" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1146" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1147">
+        <v>1145</v>
+      </c>
+      <c r="B1147">
+        <v>43939</v>
+      </c>
+      <c r="C1147">
+        <v>80</v>
+      </c>
+      <c r="D1147" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1147" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1147" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1147" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1147" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1148">
+        <v>1146</v>
+      </c>
+      <c r="B1148">
+        <v>43939</v>
+      </c>
+      <c r="C1148">
+        <v>70</v>
+      </c>
+      <c r="D1148" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1148" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1148" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1148" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1148" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1149">
+        <v>1147</v>
+      </c>
+      <c r="B1149">
+        <v>43939</v>
+      </c>
+      <c r="C1149">
+        <v>50</v>
+      </c>
+      <c r="D1149" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1149" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1149" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1149" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1149" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1150">
+        <v>1148</v>
+      </c>
+      <c r="B1150">
+        <v>43939</v>
+      </c>
+      <c r="C1150">
+        <v>80</v>
+      </c>
+      <c r="D1150" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1150" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1150" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1150" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1150" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1151">
+        <v>1149</v>
+      </c>
+      <c r="B1151">
+        <v>43939</v>
+      </c>
+      <c r="C1151">
+        <v>30</v>
+      </c>
+      <c r="D1151" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1151" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1151" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1151" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1151" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1152">
+        <v>1150</v>
+      </c>
+      <c r="B1152">
+        <v>43939</v>
+      </c>
+      <c r="C1152">
+        <v>80</v>
+      </c>
+      <c r="D1152" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1152" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1152" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1152" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1152" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1153">
+        <v>1151</v>
+      </c>
+      <c r="B1153">
+        <v>43939</v>
+      </c>
+      <c r="C1153">
+        <v>70</v>
+      </c>
+      <c r="D1153" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1153" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1153" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1153" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1153" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1154">
+        <v>1152</v>
+      </c>
+      <c r="B1154">
+        <v>43939</v>
+      </c>
+      <c r="C1154">
+        <v>20</v>
+      </c>
+      <c r="D1154" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1154" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1154" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1154" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1154" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1155">
+        <v>1153</v>
+      </c>
+      <c r="B1155">
+        <v>43939</v>
+      </c>
+      <c r="C1155">
+        <v>30</v>
+      </c>
+      <c r="D1155" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1155" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1155" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1155" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1155" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1156">
+        <v>1154</v>
+      </c>
+      <c r="B1156">
+        <v>43939</v>
+      </c>
+      <c r="C1156">
+        <v>20</v>
+      </c>
+      <c r="D1156" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1156" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1156" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1156" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1156" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1157">
+        <v>1155</v>
+      </c>
+      <c r="B1157">
+        <v>43939</v>
+      </c>
+      <c r="C1157">
+        <v>30</v>
+      </c>
+      <c r="D1157" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1157" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1157" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1157" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1157" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1158">
+        <v>1156</v>
+      </c>
+      <c r="B1158">
+        <v>43939</v>
+      </c>
+      <c r="C1158">
+        <v>30</v>
+      </c>
+      <c r="D1158" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1158" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1158" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1158" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1158" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1159">
+        <v>1157</v>
+      </c>
+      <c r="B1159">
+        <v>43939</v>
+      </c>
+      <c r="C1159">
+        <v>30</v>
+      </c>
+      <c r="D1159" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1159" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1159" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1159" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1159" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1160">
+        <v>1158</v>
+      </c>
+      <c r="B1160">
+        <v>43939</v>
+      </c>
+      <c r="C1160">
+        <v>80</v>
+      </c>
+      <c r="D1160" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1160" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1160" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1160" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1160" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1161">
+        <v>1159</v>
+      </c>
+      <c r="B1161">
+        <v>43939</v>
+      </c>
+      <c r="C1161">
+        <v>80</v>
+      </c>
+      <c r="D1161" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1161" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1161" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1161" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1161" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1162">
+        <v>1160</v>
+      </c>
+      <c r="B1162">
+        <v>43939</v>
+      </c>
+      <c r="C1162">
+        <v>70</v>
+      </c>
+      <c r="D1162" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1162" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1162" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1162" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1162" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1163">
+        <v>1161</v>
+      </c>
+      <c r="B1163">
+        <v>43939</v>
+      </c>
+      <c r="C1163">
+        <v>70</v>
+      </c>
+      <c r="D1163" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1163" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1163" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1163" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1163" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1164">
+        <v>1162</v>
+      </c>
+      <c r="B1164">
+        <v>43939</v>
+      </c>
+      <c r="C1164">
+        <v>80</v>
+      </c>
+      <c r="D1164" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1164" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1164" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1164" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1164" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1165">
+        <v>1163</v>
+      </c>
+      <c r="B1165">
+        <v>43939</v>
+      </c>
+      <c r="C1165">
+        <v>70</v>
+      </c>
+      <c r="D1165" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1165" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1165" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1165" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1165" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:H1077"/>
+  <autoFilter ref="A2:H1165"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J86"/>
+  <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -28811,7 +31112,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="3">
-        <v>43938</v>
+        <v>43939</v>
       </c>
       <c r="B1" t="s">
         <v>61</v>
@@ -31504,23 +33805,55 @@
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A86" s="4" t="s">
+      <c r="A86" s="2">
+        <v>43939</v>
+      </c>
+      <c r="B86">
+        <v>604</v>
+      </c>
+      <c r="C86">
+        <v>88</v>
+      </c>
+      <c r="D86">
+        <v>1163</v>
+      </c>
+      <c r="E86">
+        <v>953</v>
+      </c>
+      <c r="F86">
+        <v>2</v>
+      </c>
+      <c r="G86">
+        <v>215</v>
+      </c>
+      <c r="H86">
+        <v>14</v>
+      </c>
+      <c r="I86">
+        <v>227</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A87" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B86">
-        <v>9517</v>
-      </c>
-      <c r="C86">
-        <v>1075</v>
-      </c>
-      <c r="F86">
-        <v>213</v>
-      </c>
-      <c r="H86">
-        <v>213</v>
-      </c>
-      <c r="J86">
-        <v>9</v>
+      <c r="B87">
+        <v>10121</v>
+      </c>
+      <c r="C87">
+        <v>1163</v>
+      </c>
+      <c r="F87">
+        <v>215</v>
+      </c>
+      <c r="H87">
+        <v>227</v>
+      </c>
+      <c r="J87">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data/patients_and_inspections.xlsx
+++ b/data/patients_and_inspections.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.19.161.23\kansen_fol\03防疫L（移行済）\06　中国武漢市肺炎（新型コロナウイルス）\検査の状況(HP更新)\陽性者入院状況\コロナサイト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\コロナ対策サイト\0421\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2010" yWindow="465" windowWidth="33000" windowHeight="19155" activeTab="2"/>
+    <workbookView xWindow="4020" yWindow="465" windowWidth="33000" windowHeight="19155" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="【公開OK】ピポット集計" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="【公開OK】コロナサイト用（日付ベース）" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'【公開OK】府HP用(陽性者ベース)'!$A$2:$H$1213</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'【公開OK】府HP用(陽性者ベース)'!$A$2:$H$1297</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5149" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5482" uniqueCount="98">
   <si>
     <t>（1）入退院の状況</t>
   </si>
@@ -285,43 +285,62 @@
     <t>河南町</t>
   </si>
   <si>
-    <t>東大阪</t>
+    <t>退院</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>府外</t>
+    <t>ー</t>
   </si>
   <si>
-    <t>岸和田</t>
+    <t>羽曳野</t>
   </si>
   <si>
-    <t>70</t>
+    <t>退院</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>50</t>
+    <t>退院</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>20</t>
+    <t>退院</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>40</t>
+    <t>退院</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>80</t>
+    <t>退院</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>30</t>
+    <t>退院</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>90</t>
+    <t>退院</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>60</t>
+    <t>退院</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>10</t>
+    <t>退院</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>100</t>
+    <t>退院</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>退院</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>退院</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>退院</t>
@@ -706,7 +725,7 @@
   <dimension ref="A2:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -729,7 +748,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>237</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -737,7 +756,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>318</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
@@ -745,7 +764,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>644</v>
+        <v>669</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
@@ -753,7 +772,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
@@ -761,7 +780,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1211</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
@@ -782,7 +801,7 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <v>892</v>
+        <v>928</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
@@ -798,7 +817,7 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
@@ -806,7 +825,7 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
@@ -814,7 +833,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>211</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
@@ -822,7 +841,7 @@
         <v>7</v>
       </c>
       <c r="B18">
-        <v>1211</v>
+        <v>1295</v>
       </c>
     </row>
   </sheetData>
@@ -834,9 +853,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1213"/>
+  <dimension ref="A1:H1297"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -845,7 +864,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="3">
-        <v>43940</v>
+        <v>43941</v>
       </c>
       <c r="B1" t="s">
         <v>60</v>
@@ -874,7 +893,7 @@
         <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
@@ -4280,7 +4299,7 @@
         <v>14</v>
       </c>
       <c r="H133" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.4">
@@ -4644,7 +4663,7 @@
         <v>10</v>
       </c>
       <c r="H147" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.4">
@@ -4748,7 +4767,7 @@
         <v>14</v>
       </c>
       <c r="H151" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.4">
@@ -5710,7 +5729,7 @@
         <v>14</v>
       </c>
       <c r="H188" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.4">
@@ -5788,7 +5807,7 @@
         <v>10</v>
       </c>
       <c r="H191" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.4">
@@ -6516,7 +6535,7 @@
         <v>10</v>
       </c>
       <c r="H219" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.4">
@@ -6646,7 +6665,7 @@
         <v>14</v>
       </c>
       <c r="H224" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.4">
@@ -6724,7 +6743,7 @@
         <v>14</v>
       </c>
       <c r="H227" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.4">
@@ -7010,7 +7029,7 @@
         <v>10</v>
       </c>
       <c r="H238" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.4">
@@ -7088,7 +7107,7 @@
         <v>10</v>
       </c>
       <c r="H241" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.4">
@@ -7114,7 +7133,7 @@
         <v>10</v>
       </c>
       <c r="H242" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.4">
@@ -7452,7 +7471,7 @@
         <v>14</v>
       </c>
       <c r="H255" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.4">
@@ -7530,7 +7549,7 @@
         <v>14</v>
       </c>
       <c r="H258" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.4">
@@ -7582,7 +7601,7 @@
         <v>14</v>
       </c>
       <c r="H260" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.4">
@@ -7608,7 +7627,7 @@
         <v>14</v>
       </c>
       <c r="H261" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.4">
@@ -7634,7 +7653,7 @@
         <v>14</v>
       </c>
       <c r="H262" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.4">
@@ -7660,7 +7679,7 @@
         <v>14</v>
       </c>
       <c r="H263" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.4">
@@ -7686,7 +7705,7 @@
         <v>14</v>
       </c>
       <c r="H264" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.4">
@@ -7712,7 +7731,7 @@
         <v>14</v>
       </c>
       <c r="H265" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.4">
@@ -7738,7 +7757,7 @@
         <v>14</v>
       </c>
       <c r="H266" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.4">
@@ -7764,7 +7783,7 @@
         <v>14</v>
       </c>
       <c r="H267" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.4">
@@ -7972,7 +7991,7 @@
         <v>14</v>
       </c>
       <c r="H275" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.4">
@@ -8804,7 +8823,7 @@
         <v>14</v>
       </c>
       <c r="H307" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.4">
@@ -8986,7 +9005,7 @@
         <v>10</v>
       </c>
       <c r="H314" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.4">
@@ -9012,7 +9031,7 @@
         <v>10</v>
       </c>
       <c r="H315" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.4">
@@ -9064,7 +9083,7 @@
         <v>10</v>
       </c>
       <c r="H317" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.4">
@@ -9090,7 +9109,7 @@
         <v>10</v>
       </c>
       <c r="H318" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.4">
@@ -9168,7 +9187,7 @@
         <v>10</v>
       </c>
       <c r="H321" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.4">
@@ -9194,7 +9213,7 @@
         <v>10</v>
       </c>
       <c r="H322" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.4">
@@ -9220,7 +9239,7 @@
         <v>10</v>
       </c>
       <c r="H323" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.4">
@@ -9272,7 +9291,7 @@
         <v>10</v>
       </c>
       <c r="H325" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.4">
@@ -9350,7 +9369,7 @@
         <v>10</v>
       </c>
       <c r="H328" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.4">
@@ -9376,7 +9395,7 @@
         <v>10</v>
       </c>
       <c r="H329" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.4">
@@ -9402,7 +9421,7 @@
         <v>10</v>
       </c>
       <c r="H330" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.4">
@@ -9428,7 +9447,7 @@
         <v>10</v>
       </c>
       <c r="H331" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.4">
@@ -9870,7 +9889,7 @@
         <v>11</v>
       </c>
       <c r="H348" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.4">
@@ -9948,7 +9967,7 @@
         <v>10</v>
       </c>
       <c r="H351" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.4">
@@ -9974,7 +9993,7 @@
         <v>10</v>
       </c>
       <c r="H352" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.4">
@@ -10208,7 +10227,7 @@
         <v>10</v>
       </c>
       <c r="H361" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.4">
@@ -10338,7 +10357,7 @@
         <v>10</v>
       </c>
       <c r="H366" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.4">
@@ -10390,7 +10409,7 @@
         <v>10</v>
       </c>
       <c r="H368" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.4">
@@ -10416,7 +10435,7 @@
         <v>10</v>
       </c>
       <c r="H369" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.4">
@@ -11092,7 +11111,7 @@
         <v>10</v>
       </c>
       <c r="H395" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.4">
@@ -11118,7 +11137,7 @@
         <v>10</v>
       </c>
       <c r="H396" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.4">
@@ -11196,7 +11215,7 @@
         <v>10</v>
       </c>
       <c r="H399" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.4">
@@ -11352,7 +11371,7 @@
         <v>10</v>
       </c>
       <c r="H405" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.4">
@@ -11404,7 +11423,7 @@
         <v>10</v>
       </c>
       <c r="H407" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.4">
@@ -12002,7 +12021,7 @@
         <v>10</v>
       </c>
       <c r="H430" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
     </row>
     <row r="431" spans="1:8" x14ac:dyDescent="0.4">
@@ -12080,7 +12099,7 @@
         <v>10</v>
       </c>
       <c r="H433" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.4">
@@ -12210,7 +12229,7 @@
         <v>10</v>
       </c>
       <c r="H438" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="439" spans="1:8" x14ac:dyDescent="0.4">
@@ -12236,7 +12255,7 @@
         <v>10</v>
       </c>
       <c r="H439" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="440" spans="1:8" x14ac:dyDescent="0.4">
@@ -12262,7 +12281,7 @@
         <v>10</v>
       </c>
       <c r="H440" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.4">
@@ -12366,7 +12385,7 @@
         <v>10</v>
       </c>
       <c r="H444" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="445" spans="1:8" x14ac:dyDescent="0.4">
@@ -12418,7 +12437,7 @@
         <v>10</v>
       </c>
       <c r="H446" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="447" spans="1:8" x14ac:dyDescent="0.4">
@@ -12548,7 +12567,7 @@
         <v>10</v>
       </c>
       <c r="H451" t="s">
-        <v>4</v>
+        <v>74</v>
       </c>
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.4">
@@ -12652,7 +12671,7 @@
         <v>10</v>
       </c>
       <c r="H455" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.4">
@@ -12912,7 +12931,7 @@
         <v>10</v>
       </c>
       <c r="H465" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
     </row>
     <row r="466" spans="1:8" x14ac:dyDescent="0.4">
@@ -12964,7 +12983,7 @@
         <v>10</v>
       </c>
       <c r="H467" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="468" spans="1:8" x14ac:dyDescent="0.4">
@@ -13016,7 +13035,7 @@
         <v>10</v>
       </c>
       <c r="H469" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
     </row>
     <row r="470" spans="1:8" x14ac:dyDescent="0.4">
@@ -13172,7 +13191,7 @@
         <v>10</v>
       </c>
       <c r="H475" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
     </row>
     <row r="476" spans="1:8" x14ac:dyDescent="0.4">
@@ -13354,7 +13373,7 @@
         <v>10</v>
       </c>
       <c r="H482" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="483" spans="1:8" x14ac:dyDescent="0.4">
@@ -13458,7 +13477,7 @@
         <v>10</v>
       </c>
       <c r="H486" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="487" spans="1:8" x14ac:dyDescent="0.4">
@@ -13562,7 +13581,7 @@
         <v>10</v>
       </c>
       <c r="H490" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="491" spans="1:8" x14ac:dyDescent="0.4">
@@ -13588,7 +13607,7 @@
         <v>10</v>
       </c>
       <c r="H491" t="s">
-        <v>4</v>
+        <v>74</v>
       </c>
     </row>
     <row r="492" spans="1:8" x14ac:dyDescent="0.4">
@@ -13614,7 +13633,7 @@
         <v>12</v>
       </c>
       <c r="H492" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="493" spans="1:8" x14ac:dyDescent="0.4">
@@ -13744,7 +13763,7 @@
         <v>10</v>
       </c>
       <c r="H497" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="498" spans="1:8" x14ac:dyDescent="0.4">
@@ -13770,7 +13789,7 @@
         <v>10</v>
       </c>
       <c r="H498" t="s">
-        <v>4</v>
+        <v>74</v>
       </c>
     </row>
     <row r="499" spans="1:8" x14ac:dyDescent="0.4">
@@ -13822,7 +13841,7 @@
         <v>10</v>
       </c>
       <c r="H500" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="501" spans="1:8" x14ac:dyDescent="0.4">
@@ -13848,7 +13867,7 @@
         <v>10</v>
       </c>
       <c r="H501" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="502" spans="1:8" x14ac:dyDescent="0.4">
@@ -13874,7 +13893,7 @@
         <v>10</v>
       </c>
       <c r="H502" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="503" spans="1:8" x14ac:dyDescent="0.4">
@@ -13900,7 +13919,7 @@
         <v>10</v>
       </c>
       <c r="H503" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="504" spans="1:8" x14ac:dyDescent="0.4">
@@ -13926,7 +13945,7 @@
         <v>10</v>
       </c>
       <c r="H504" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="505" spans="1:8" x14ac:dyDescent="0.4">
@@ -13952,7 +13971,7 @@
         <v>10</v>
       </c>
       <c r="H505" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="506" spans="1:8" x14ac:dyDescent="0.4">
@@ -13978,7 +13997,7 @@
         <v>10</v>
       </c>
       <c r="H506" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="507" spans="1:8" x14ac:dyDescent="0.4">
@@ -14004,7 +14023,7 @@
         <v>10</v>
       </c>
       <c r="H507" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="508" spans="1:8" x14ac:dyDescent="0.4">
@@ -14030,7 +14049,7 @@
         <v>10</v>
       </c>
       <c r="H508" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="509" spans="1:8" x14ac:dyDescent="0.4">
@@ -14082,7 +14101,7 @@
         <v>10</v>
       </c>
       <c r="H510" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="511" spans="1:8" x14ac:dyDescent="0.4">
@@ -14264,7 +14283,7 @@
         <v>10</v>
       </c>
       <c r="H517" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="518" spans="1:8" x14ac:dyDescent="0.4">
@@ -14290,7 +14309,7 @@
         <v>10</v>
       </c>
       <c r="H518" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="519" spans="1:8" x14ac:dyDescent="0.4">
@@ -14316,7 +14335,7 @@
         <v>10</v>
       </c>
       <c r="H519" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
     </row>
     <row r="520" spans="1:8" x14ac:dyDescent="0.4">
@@ -14758,7 +14777,7 @@
         <v>10</v>
       </c>
       <c r="H536" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="537" spans="1:8" x14ac:dyDescent="0.4">
@@ -15538,7 +15557,7 @@
         <v>10</v>
       </c>
       <c r="H566" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="567" spans="1:8" x14ac:dyDescent="0.4">
@@ -15642,7 +15661,7 @@
         <v>10</v>
       </c>
       <c r="H570" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
     </row>
     <row r="571" spans="1:8" x14ac:dyDescent="0.4">
@@ -16136,7 +16155,7 @@
         <v>10</v>
       </c>
       <c r="H589" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="590" spans="1:8" x14ac:dyDescent="0.4">
@@ -16838,7 +16857,7 @@
         <v>10</v>
       </c>
       <c r="H616" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
     </row>
     <row r="617" spans="1:8" x14ac:dyDescent="0.4">
@@ -17589,10 +17608,10 @@
         <v>43926</v>
       </c>
       <c r="G645" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H645" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="646" spans="1:8" x14ac:dyDescent="0.4">
@@ -18242,7 +18261,7 @@
         <v>10</v>
       </c>
       <c r="H670" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="671" spans="1:8" x14ac:dyDescent="0.4">
@@ -18554,7 +18573,7 @@
         <v>10</v>
       </c>
       <c r="H682" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
     </row>
     <row r="683" spans="1:8" x14ac:dyDescent="0.4">
@@ -18658,7 +18677,7 @@
         <v>10</v>
       </c>
       <c r="H686" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
     </row>
     <row r="687" spans="1:8" x14ac:dyDescent="0.4">
@@ -19490,7 +19509,7 @@
         <v>10</v>
       </c>
       <c r="H718" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="719" spans="1:8" x14ac:dyDescent="0.4">
@@ -20088,7 +20107,7 @@
         <v>10</v>
       </c>
       <c r="H741" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
     </row>
     <row r="742" spans="1:8" x14ac:dyDescent="0.4">
@@ -20530,7 +20549,7 @@
         <v>10</v>
       </c>
       <c r="H758" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
     </row>
     <row r="759" spans="1:8" x14ac:dyDescent="0.4">
@@ -20582,7 +20601,7 @@
         <v>10</v>
       </c>
       <c r="H760" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="761" spans="1:8" x14ac:dyDescent="0.4">
@@ -20608,7 +20627,7 @@
         <v>10</v>
       </c>
       <c r="H761" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="762" spans="1:8" x14ac:dyDescent="0.4">
@@ -21102,7 +21121,7 @@
         <v>10</v>
       </c>
       <c r="H780" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="781" spans="1:8" x14ac:dyDescent="0.4">
@@ -21128,7 +21147,7 @@
         <v>10</v>
       </c>
       <c r="H781" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="782" spans="1:8" x14ac:dyDescent="0.4">
@@ -22090,7 +22109,7 @@
         <v>10</v>
       </c>
       <c r="H818" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="819" spans="1:8" x14ac:dyDescent="0.4">
@@ -23702,7 +23721,7 @@
         <v>10</v>
       </c>
       <c r="H880" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="881" spans="1:8" x14ac:dyDescent="0.4">
@@ -24768,7 +24787,7 @@
         <v>10</v>
       </c>
       <c r="H921" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
     </row>
     <row r="922" spans="1:8" x14ac:dyDescent="0.4">
@@ -24950,7 +24969,7 @@
         <v>10</v>
       </c>
       <c r="H928" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
     </row>
     <row r="929" spans="1:8" x14ac:dyDescent="0.4">
@@ -25418,7 +25437,7 @@
         <v>10</v>
       </c>
       <c r="H946" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
     </row>
     <row r="947" spans="1:8" x14ac:dyDescent="0.4">
@@ -25860,7 +25879,7 @@
         <v>10</v>
       </c>
       <c r="H963" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="964" spans="1:8" x14ac:dyDescent="0.4">
@@ -25990,7 +26009,7 @@
         <v>10</v>
       </c>
       <c r="H968" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="969" spans="1:8" x14ac:dyDescent="0.4">
@@ -26302,7 +26321,7 @@
         <v>10</v>
       </c>
       <c r="H980" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="981" spans="1:8" x14ac:dyDescent="0.4">
@@ -27056,7 +27075,7 @@
         <v>10</v>
       </c>
       <c r="H1009" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1010" spans="1:8" x14ac:dyDescent="0.4">
@@ -27316,7 +27335,7 @@
         <v>10</v>
       </c>
       <c r="H1019" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
     </row>
     <row r="1020" spans="1:8" x14ac:dyDescent="0.4">
@@ -27836,7 +27855,7 @@
         <v>10</v>
       </c>
       <c r="H1039" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
     </row>
     <row r="1040" spans="1:8" x14ac:dyDescent="0.4">
@@ -28434,7 +28453,7 @@
         <v>10</v>
       </c>
       <c r="H1062" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
     </row>
     <row r="1063" spans="1:8" x14ac:dyDescent="0.4">
@@ -28512,7 +28531,7 @@
         <v>10</v>
       </c>
       <c r="H1065" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="1066" spans="1:8" x14ac:dyDescent="0.4">
@@ -28538,7 +28557,7 @@
         <v>10</v>
       </c>
       <c r="H1066" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="1067" spans="1:8" x14ac:dyDescent="0.4">
@@ -28564,7 +28583,7 @@
         <v>10</v>
       </c>
       <c r="H1067" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
     </row>
     <row r="1068" spans="1:8" x14ac:dyDescent="0.4">
@@ -28798,7 +28817,7 @@
         <v>10</v>
       </c>
       <c r="H1076" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
     </row>
     <row r="1077" spans="1:8" x14ac:dyDescent="0.4">
@@ -28850,7 +28869,7 @@
         <v>10</v>
       </c>
       <c r="H1078" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="1079" spans="1:8" x14ac:dyDescent="0.4">
@@ -28919,7 +28938,7 @@
         <v>23</v>
       </c>
       <c r="E1081" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="F1081" s="1">
         <v>43928</v>
@@ -29127,7 +29146,7 @@
         <v>23</v>
       </c>
       <c r="E1089" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="F1089" s="1">
         <v>43936</v>
@@ -29231,7 +29250,7 @@
         <v>23</v>
       </c>
       <c r="E1093" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="F1093" s="1">
         <v>43927</v>
@@ -29257,7 +29276,7 @@
         <v>25</v>
       </c>
       <c r="E1094" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="F1094" s="1">
         <v>43931</v>
@@ -31122,8 +31141,8 @@
       <c r="B1166" s="2">
         <v>43940</v>
       </c>
-      <c r="C1166" t="s">
-        <v>85</v>
+      <c r="C1166">
+        <v>70</v>
       </c>
       <c r="D1166" t="s">
         <v>25</v>
@@ -31148,8 +31167,8 @@
       <c r="B1167" s="2">
         <v>43940</v>
       </c>
-      <c r="C1167" t="s">
-        <v>86</v>
+      <c r="C1167">
+        <v>50</v>
       </c>
       <c r="D1167" t="s">
         <v>25</v>
@@ -31164,7 +31183,7 @@
         <v>10</v>
       </c>
       <c r="H1167" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="1168" spans="1:8" x14ac:dyDescent="0.4">
@@ -31174,8 +31193,8 @@
       <c r="B1168" s="2">
         <v>43940</v>
       </c>
-      <c r="C1168" t="s">
-        <v>87</v>
+      <c r="C1168">
+        <v>20</v>
       </c>
       <c r="D1168" t="s">
         <v>25</v>
@@ -31190,7 +31209,7 @@
         <v>10</v>
       </c>
       <c r="H1168" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
     </row>
     <row r="1169" spans="1:8" x14ac:dyDescent="0.4">
@@ -31200,8 +31219,8 @@
       <c r="B1169" s="2">
         <v>43940</v>
       </c>
-      <c r="C1169" t="s">
-        <v>88</v>
+      <c r="C1169">
+        <v>40</v>
       </c>
       <c r="D1169" t="s">
         <v>23</v>
@@ -31226,8 +31245,8 @@
       <c r="B1170" s="2">
         <v>43940</v>
       </c>
-      <c r="C1170" t="s">
-        <v>87</v>
+      <c r="C1170">
+        <v>20</v>
       </c>
       <c r="D1170" t="s">
         <v>23</v>
@@ -31252,8 +31271,8 @@
       <c r="B1171" s="2">
         <v>43940</v>
       </c>
-      <c r="C1171" t="s">
-        <v>85</v>
+      <c r="C1171">
+        <v>70</v>
       </c>
       <c r="D1171" t="s">
         <v>23</v>
@@ -31278,8 +31297,8 @@
       <c r="B1172" s="2">
         <v>43940</v>
       </c>
-      <c r="C1172" t="s">
-        <v>89</v>
+      <c r="C1172">
+        <v>80</v>
       </c>
       <c r="D1172" t="s">
         <v>25</v>
@@ -31304,8 +31323,8 @@
       <c r="B1173" s="2">
         <v>43940</v>
       </c>
-      <c r="C1173" t="s">
-        <v>90</v>
+      <c r="C1173">
+        <v>30</v>
       </c>
       <c r="D1173" t="s">
         <v>25</v>
@@ -31330,8 +31349,8 @@
       <c r="B1174" s="2">
         <v>43940</v>
       </c>
-      <c r="C1174" t="s">
-        <v>86</v>
+      <c r="C1174">
+        <v>50</v>
       </c>
       <c r="D1174" t="s">
         <v>25</v>
@@ -31356,8 +31375,8 @@
       <c r="B1175" s="2">
         <v>43940</v>
       </c>
-      <c r="C1175" t="s">
-        <v>88</v>
+      <c r="C1175">
+        <v>40</v>
       </c>
       <c r="D1175" t="s">
         <v>23</v>
@@ -31382,8 +31401,8 @@
       <c r="B1176" s="2">
         <v>43940</v>
       </c>
-      <c r="C1176" t="s">
-        <v>88</v>
+      <c r="C1176">
+        <v>40</v>
       </c>
       <c r="D1176" t="s">
         <v>25</v>
@@ -31408,8 +31427,8 @@
       <c r="B1177" s="2">
         <v>43940</v>
       </c>
-      <c r="C1177" t="s">
-        <v>85</v>
+      <c r="C1177">
+        <v>70</v>
       </c>
       <c r="D1177" t="s">
         <v>25</v>
@@ -31434,8 +31453,8 @@
       <c r="B1178" s="2">
         <v>43940</v>
       </c>
-      <c r="C1178" t="s">
-        <v>88</v>
+      <c r="C1178">
+        <v>40</v>
       </c>
       <c r="D1178" t="s">
         <v>23</v>
@@ -31486,8 +31505,8 @@
       <c r="B1180" s="2">
         <v>43940</v>
       </c>
-      <c r="C1180" t="s">
-        <v>87</v>
+      <c r="C1180">
+        <v>20</v>
       </c>
       <c r="D1180" t="s">
         <v>23</v>
@@ -31512,8 +31531,8 @@
       <c r="B1181" s="2">
         <v>43940</v>
       </c>
-      <c r="C1181" t="s">
-        <v>87</v>
+      <c r="C1181">
+        <v>20</v>
       </c>
       <c r="D1181" t="s">
         <v>23</v>
@@ -31538,8 +31557,8 @@
       <c r="B1182" s="2">
         <v>43940</v>
       </c>
-      <c r="C1182" t="s">
-        <v>90</v>
+      <c r="C1182">
+        <v>30</v>
       </c>
       <c r="D1182" t="s">
         <v>23</v>
@@ -31564,8 +31583,8 @@
       <c r="B1183" s="2">
         <v>43940</v>
       </c>
-      <c r="C1183" t="s">
-        <v>88</v>
+      <c r="C1183">
+        <v>40</v>
       </c>
       <c r="D1183" t="s">
         <v>25</v>
@@ -31590,8 +31609,8 @@
       <c r="B1184" s="2">
         <v>43940</v>
       </c>
-      <c r="C1184" t="s">
-        <v>88</v>
+      <c r="C1184">
+        <v>40</v>
       </c>
       <c r="D1184" t="s">
         <v>23</v>
@@ -31616,8 +31635,8 @@
       <c r="B1185" s="2">
         <v>43940</v>
       </c>
-      <c r="C1185" t="s">
-        <v>88</v>
+      <c r="C1185">
+        <v>40</v>
       </c>
       <c r="D1185" t="s">
         <v>23</v>
@@ -31642,8 +31661,8 @@
       <c r="B1186" s="2">
         <v>43940</v>
       </c>
-      <c r="C1186" t="s">
-        <v>91</v>
+      <c r="C1186">
+        <v>90</v>
       </c>
       <c r="D1186" t="s">
         <v>23</v>
@@ -31668,8 +31687,8 @@
       <c r="B1187" s="2">
         <v>43940</v>
       </c>
-      <c r="C1187" t="s">
-        <v>85</v>
+      <c r="C1187">
+        <v>70</v>
       </c>
       <c r="D1187" t="s">
         <v>23</v>
@@ -31694,8 +31713,8 @@
       <c r="B1188" s="2">
         <v>43940</v>
       </c>
-      <c r="C1188" t="s">
-        <v>92</v>
+      <c r="C1188">
+        <v>60</v>
       </c>
       <c r="D1188" t="s">
         <v>23</v>
@@ -31720,8 +31739,8 @@
       <c r="B1189" s="2">
         <v>43940</v>
       </c>
-      <c r="C1189" t="s">
-        <v>90</v>
+      <c r="C1189">
+        <v>30</v>
       </c>
       <c r="D1189" t="s">
         <v>25</v>
@@ -31746,8 +31765,8 @@
       <c r="B1190" s="2">
         <v>43940</v>
       </c>
-      <c r="C1190" t="s">
-        <v>87</v>
+      <c r="C1190">
+        <v>20</v>
       </c>
       <c r="D1190" t="s">
         <v>23</v>
@@ -31772,8 +31791,8 @@
       <c r="B1191" s="2">
         <v>43940</v>
       </c>
-      <c r="C1191" t="s">
-        <v>85</v>
+      <c r="C1191">
+        <v>70</v>
       </c>
       <c r="D1191" t="s">
         <v>25</v>
@@ -31798,8 +31817,8 @@
       <c r="B1192" s="2">
         <v>43940</v>
       </c>
-      <c r="C1192" t="s">
-        <v>87</v>
+      <c r="C1192">
+        <v>20</v>
       </c>
       <c r="D1192" t="s">
         <v>23</v>
@@ -31824,8 +31843,8 @@
       <c r="B1193" s="2">
         <v>43940</v>
       </c>
-      <c r="C1193" t="s">
-        <v>93</v>
+      <c r="C1193">
+        <v>10</v>
       </c>
       <c r="D1193" t="s">
         <v>23</v>
@@ -31850,8 +31869,8 @@
       <c r="B1194" s="2">
         <v>43940</v>
       </c>
-      <c r="C1194" t="s">
-        <v>87</v>
+      <c r="C1194">
+        <v>20</v>
       </c>
       <c r="D1194" t="s">
         <v>23</v>
@@ -31876,8 +31895,8 @@
       <c r="B1195" s="2">
         <v>43940</v>
       </c>
-      <c r="C1195" t="s">
-        <v>90</v>
+      <c r="C1195">
+        <v>30</v>
       </c>
       <c r="D1195" t="s">
         <v>23</v>
@@ -31902,8 +31921,8 @@
       <c r="B1196" s="2">
         <v>43940</v>
       </c>
-      <c r="C1196" t="s">
-        <v>90</v>
+      <c r="C1196">
+        <v>30</v>
       </c>
       <c r="D1196" t="s">
         <v>23</v>
@@ -31928,8 +31947,8 @@
       <c r="B1197" s="2">
         <v>43940</v>
       </c>
-      <c r="C1197" t="s">
-        <v>87</v>
+      <c r="C1197">
+        <v>20</v>
       </c>
       <c r="D1197" t="s">
         <v>23</v>
@@ -31954,8 +31973,8 @@
       <c r="B1198" s="2">
         <v>43940</v>
       </c>
-      <c r="C1198" t="s">
-        <v>87</v>
+      <c r="C1198">
+        <v>20</v>
       </c>
       <c r="D1198" t="s">
         <v>23</v>
@@ -31980,8 +31999,8 @@
       <c r="B1199" s="2">
         <v>43940</v>
       </c>
-      <c r="C1199" t="s">
-        <v>87</v>
+      <c r="C1199">
+        <v>20</v>
       </c>
       <c r="D1199" t="s">
         <v>23</v>
@@ -32006,8 +32025,8 @@
       <c r="B1200" s="2">
         <v>43940</v>
       </c>
-      <c r="C1200" t="s">
-        <v>85</v>
+      <c r="C1200">
+        <v>70</v>
       </c>
       <c r="D1200" t="s">
         <v>23</v>
@@ -32032,8 +32051,8 @@
       <c r="B1201" s="2">
         <v>43940</v>
       </c>
-      <c r="C1201" t="s">
-        <v>92</v>
+      <c r="C1201">
+        <v>60</v>
       </c>
       <c r="D1201" t="s">
         <v>25</v>
@@ -32058,8 +32077,8 @@
       <c r="B1202" s="2">
         <v>43940</v>
       </c>
-      <c r="C1202" t="s">
-        <v>86</v>
+      <c r="C1202">
+        <v>50</v>
       </c>
       <c r="D1202" t="s">
         <v>25</v>
@@ -32084,8 +32103,8 @@
       <c r="B1203" s="2">
         <v>43940</v>
       </c>
-      <c r="C1203" t="s">
-        <v>90</v>
+      <c r="C1203">
+        <v>30</v>
       </c>
       <c r="D1203" t="s">
         <v>25</v>
@@ -32110,8 +32129,8 @@
       <c r="B1204" s="2">
         <v>43940</v>
       </c>
-      <c r="C1204" t="s">
-        <v>87</v>
+      <c r="C1204">
+        <v>20</v>
       </c>
       <c r="D1204" t="s">
         <v>25</v>
@@ -32136,8 +32155,8 @@
       <c r="B1205" s="2">
         <v>43940</v>
       </c>
-      <c r="C1205" t="s">
-        <v>86</v>
+      <c r="C1205">
+        <v>50</v>
       </c>
       <c r="D1205" t="s">
         <v>25</v>
@@ -32162,8 +32181,8 @@
       <c r="B1206" s="2">
         <v>43940</v>
       </c>
-      <c r="C1206" t="s">
-        <v>93</v>
+      <c r="C1206">
+        <v>10</v>
       </c>
       <c r="D1206" t="s">
         <v>23</v>
@@ -32188,8 +32207,8 @@
       <c r="B1207" s="2">
         <v>43940</v>
       </c>
-      <c r="C1207" t="s">
-        <v>88</v>
+      <c r="C1207">
+        <v>40</v>
       </c>
       <c r="D1207" t="s">
         <v>25</v>
@@ -32214,8 +32233,8 @@
       <c r="B1208" s="2">
         <v>43940</v>
       </c>
-      <c r="C1208" t="s">
-        <v>88</v>
+      <c r="C1208">
+        <v>40</v>
       </c>
       <c r="D1208" t="s">
         <v>25</v>
@@ -32240,8 +32259,8 @@
       <c r="B1209" s="2">
         <v>43940</v>
       </c>
-      <c r="C1209" t="s">
-        <v>92</v>
+      <c r="C1209">
+        <v>60</v>
       </c>
       <c r="D1209" t="s">
         <v>25</v>
@@ -32266,8 +32285,8 @@
       <c r="B1210" s="2">
         <v>43940</v>
       </c>
-      <c r="C1210" t="s">
-        <v>89</v>
+      <c r="C1210">
+        <v>80</v>
       </c>
       <c r="D1210" t="s">
         <v>23</v>
@@ -32292,8 +32311,8 @@
       <c r="B1211" s="2">
         <v>43940</v>
       </c>
-      <c r="C1211" t="s">
-        <v>87</v>
+      <c r="C1211">
+        <v>20</v>
       </c>
       <c r="D1211" t="s">
         <v>23</v>
@@ -32318,8 +32337,8 @@
       <c r="B1212" s="2">
         <v>43940</v>
       </c>
-      <c r="C1212" t="s">
-        <v>94</v>
+      <c r="C1212">
+        <v>100</v>
       </c>
       <c r="D1212" t="s">
         <v>23</v>
@@ -32344,8 +32363,8 @@
       <c r="B1213" s="2">
         <v>43940</v>
       </c>
-      <c r="C1213" t="s">
-        <v>87</v>
+      <c r="C1213">
+        <v>20</v>
       </c>
       <c r="D1213" t="s">
         <v>23</v>
@@ -32360,11 +32379,2195 @@
         <v>10</v>
       </c>
       <c r="H1213" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1214">
+        <v>1212</v>
+      </c>
+      <c r="B1214" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1214">
+        <v>80</v>
+      </c>
+      <c r="D1214" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1214" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1214" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1214" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1214" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1215">
+        <v>1213</v>
+      </c>
+      <c r="B1215" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1215">
+        <v>70</v>
+      </c>
+      <c r="D1215" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1215" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1215" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1215" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1215" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1216">
+        <v>1214</v>
+      </c>
+      <c r="B1216" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1216">
+        <v>50</v>
+      </c>
+      <c r="D1216" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1216" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1216" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1216" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1216" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1217">
+        <v>1215</v>
+      </c>
+      <c r="B1217" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1217">
+        <v>80</v>
+      </c>
+      <c r="D1217" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1217" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1217" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1217" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1217" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1218">
+        <v>1216</v>
+      </c>
+      <c r="B1218" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1218">
+        <v>80</v>
+      </c>
+      <c r="D1218" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1218" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1218" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1218" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1218" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1219">
+        <v>1217</v>
+      </c>
+      <c r="B1219" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1219">
+        <v>50</v>
+      </c>
+      <c r="D1219" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1219" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1219" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1219" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1219" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1220">
+        <v>1218</v>
+      </c>
+      <c r="B1220" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1220">
+        <v>70</v>
+      </c>
+      <c r="D1220" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1220" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1220" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1220" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1220" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1221">
+        <v>1219</v>
+      </c>
+      <c r="B1221" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1221">
+        <v>80</v>
+      </c>
+      <c r="D1221" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1221" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1221" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1221" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1221" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1222">
+        <v>1220</v>
+      </c>
+      <c r="B1222" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1222">
+        <v>70</v>
+      </c>
+      <c r="D1222" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1222" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1222" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1222" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1222" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1223">
+        <v>1221</v>
+      </c>
+      <c r="B1223" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1223">
+        <v>70</v>
+      </c>
+      <c r="D1223" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1223" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1223" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1223" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1223" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1224">
+        <v>1222</v>
+      </c>
+      <c r="B1224" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1224">
+        <v>80</v>
+      </c>
+      <c r="D1224" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1224" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1224" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1224" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1224" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1225">
+        <v>1223</v>
+      </c>
+      <c r="B1225" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1225">
+        <v>80</v>
+      </c>
+      <c r="D1225" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1225" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1225" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1225" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1225" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1226">
+        <v>1224</v>
+      </c>
+      <c r="B1226" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1226">
+        <v>60</v>
+      </c>
+      <c r="D1226" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1226" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1226" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1226" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1226" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1227">
+        <v>1225</v>
+      </c>
+      <c r="B1227" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1227">
+        <v>20</v>
+      </c>
+      <c r="D1227" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1227" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1227" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1227" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1227" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1228">
+        <v>1226</v>
+      </c>
+      <c r="B1228" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1228">
+        <v>30</v>
+      </c>
+      <c r="D1228" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1228" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1228" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1228" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1228" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1229">
+        <v>1227</v>
+      </c>
+      <c r="B1229" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1229">
+        <v>20</v>
+      </c>
+      <c r="D1229" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1229" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1229" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1229" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1229" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1230">
+        <v>1228</v>
+      </c>
+      <c r="B1230" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1230">
+        <v>20</v>
+      </c>
+      <c r="D1230" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1230" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1230" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1230" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1230" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1231">
+        <v>1229</v>
+      </c>
+      <c r="B1231" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1231">
+        <v>30</v>
+      </c>
+      <c r="D1231" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1231" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1231" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1231" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1231" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1232">
+        <v>1230</v>
+      </c>
+      <c r="B1232" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1232">
+        <v>20</v>
+      </c>
+      <c r="D1232" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1232" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1232" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1232" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1232" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1233">
+        <v>1231</v>
+      </c>
+      <c r="B1233" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1233">
+        <v>20</v>
+      </c>
+      <c r="D1233" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1233" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1233" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1233" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1233" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1234">
+        <v>1232</v>
+      </c>
+      <c r="B1234" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1234">
+        <v>20</v>
+      </c>
+      <c r="D1234" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1234" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1234" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1234" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1234" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1235">
+        <v>1233</v>
+      </c>
+      <c r="B1235" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1235">
+        <v>20</v>
+      </c>
+      <c r="D1235" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1235" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1235" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1235" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1235" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1236">
+        <v>1234</v>
+      </c>
+      <c r="B1236" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1236">
+        <v>20</v>
+      </c>
+      <c r="D1236" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1236" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1236" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1236" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1236" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1237">
+        <v>1235</v>
+      </c>
+      <c r="B1237" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1237">
+        <v>20</v>
+      </c>
+      <c r="D1237" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1237" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1237" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1237" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1237" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1238">
+        <v>1236</v>
+      </c>
+      <c r="B1238" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1238">
+        <v>40</v>
+      </c>
+      <c r="D1238" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1238" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1238" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1238" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1238" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1239">
+        <v>1237</v>
+      </c>
+      <c r="B1239" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1239">
+        <v>20</v>
+      </c>
+      <c r="D1239" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1239" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1239" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1239" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1239" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1240">
+        <v>1238</v>
+      </c>
+      <c r="B1240" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1240">
+        <v>20</v>
+      </c>
+      <c r="D1240" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1240" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1240" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1240" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1240" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1241">
+        <v>1239</v>
+      </c>
+      <c r="B1241" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1241">
+        <v>30</v>
+      </c>
+      <c r="D1241" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1241" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1241" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1241" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1241" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1242">
+        <v>1240</v>
+      </c>
+      <c r="B1242" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1242">
+        <v>20</v>
+      </c>
+      <c r="D1242" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1242" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1242" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1242" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1242" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1243">
+        <v>1241</v>
+      </c>
+      <c r="B1243" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1243">
+        <v>20</v>
+      </c>
+      <c r="D1243" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1243" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1243" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1243" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1243" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1244">
+        <v>1242</v>
+      </c>
+      <c r="B1244" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1244">
+        <v>30</v>
+      </c>
+      <c r="D1244" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1244" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1244" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1244" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1244" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1245">
+        <v>1243</v>
+      </c>
+      <c r="B1245" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1245">
+        <v>30</v>
+      </c>
+      <c r="D1245" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1245" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1245" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1245" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1245" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1246">
+        <v>1244</v>
+      </c>
+      <c r="B1246" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1246">
+        <v>40</v>
+      </c>
+      <c r="D1246" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1246" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1246" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1246" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1246" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1247">
+        <v>1245</v>
+      </c>
+      <c r="B1247" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1247">
+        <v>40</v>
+      </c>
+      <c r="D1247" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1247" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1247" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1247" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1247" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1248">
+        <v>1246</v>
+      </c>
+      <c r="B1248" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1248">
+        <v>40</v>
+      </c>
+      <c r="D1248" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1248" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1248" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1248" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1248" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1249">
+        <v>1247</v>
+      </c>
+      <c r="B1249" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1249">
+        <v>20</v>
+      </c>
+      <c r="D1249" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1249" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1249" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1249" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1249" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1250">
+        <v>1248</v>
+      </c>
+      <c r="B1250" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1250">
+        <v>20</v>
+      </c>
+      <c r="D1250" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1250" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1250" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1250" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1250" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1251">
+        <v>1249</v>
+      </c>
+      <c r="B1251" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1251">
+        <v>50</v>
+      </c>
+      <c r="D1251" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1251" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1251" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1251" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1251" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1252">
+        <v>1250</v>
+      </c>
+      <c r="B1252" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1252">
+        <v>50</v>
+      </c>
+      <c r="D1252" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1252" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1252" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1252" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1252" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1253">
+        <v>1251</v>
+      </c>
+      <c r="B1253" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1253">
+        <v>30</v>
+      </c>
+      <c r="D1253" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1253" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1253" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1253" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1253" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1254">
+        <v>1252</v>
+      </c>
+      <c r="B1254" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1254">
+        <v>40</v>
+      </c>
+      <c r="D1254" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1254" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1254" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1254" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1254" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1255">
+        <v>1253</v>
+      </c>
+      <c r="B1255" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1255">
+        <v>40</v>
+      </c>
+      <c r="D1255" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1255" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1255" s="1">
+        <v>43937</v>
+      </c>
+      <c r="G1255" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1255" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1256">
+        <v>1254</v>
+      </c>
+      <c r="B1256" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1256">
+        <v>30</v>
+      </c>
+      <c r="D1256" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1256" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1256" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1256" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1256" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1257">
+        <v>1255</v>
+      </c>
+      <c r="B1257" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1257">
+        <v>20</v>
+      </c>
+      <c r="D1257" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1257" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1257" s="1">
+        <v>43936</v>
+      </c>
+      <c r="G1257" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1257" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1258">
+        <v>1256</v>
+      </c>
+      <c r="B1258" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1258">
+        <v>40</v>
+      </c>
+      <c r="D1258" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1258" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1258" s="1">
+        <v>43933</v>
+      </c>
+      <c r="G1258" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1258" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1259">
+        <v>1257</v>
+      </c>
+      <c r="B1259" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1259">
+        <v>20</v>
+      </c>
+      <c r="D1259" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1259" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1259" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1259" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1259" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1260">
+        <v>1258</v>
+      </c>
+      <c r="B1260" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1260">
+        <v>40</v>
+      </c>
+      <c r="D1260" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1260" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1260" s="1">
+        <v>43939</v>
+      </c>
+      <c r="G1260" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1260" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1261">
+        <v>1259</v>
+      </c>
+      <c r="B1261" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1261">
+        <v>30</v>
+      </c>
+      <c r="D1261" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1261" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1261" s="1">
+        <v>43939</v>
+      </c>
+      <c r="G1261" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1261" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1262">
+        <v>1260</v>
+      </c>
+      <c r="B1262" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1262">
+        <v>30</v>
+      </c>
+      <c r="D1262" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1262" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1262" s="1">
+        <v>43938</v>
+      </c>
+      <c r="G1262" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1262" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1263">
+        <v>1261</v>
+      </c>
+      <c r="B1263" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1263">
+        <v>50</v>
+      </c>
+      <c r="D1263" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1263" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1263" s="1">
+        <v>43936</v>
+      </c>
+      <c r="G1263" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1263" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1264">
+        <v>1262</v>
+      </c>
+      <c r="B1264" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1264">
+        <v>80</v>
+      </c>
+      <c r="D1264" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1264" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1264" s="1">
+        <v>43939</v>
+      </c>
+      <c r="G1264" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1264" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1265">
+        <v>1263</v>
+      </c>
+      <c r="B1265" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1265">
+        <v>80</v>
+      </c>
+      <c r="D1265" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1265" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1265" s="1">
+        <v>43935</v>
+      </c>
+      <c r="G1265" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1265" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1266">
+        <v>1264</v>
+      </c>
+      <c r="B1266" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1266">
+        <v>70</v>
+      </c>
+      <c r="D1266" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1266" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1266" s="1">
+        <v>43932</v>
+      </c>
+      <c r="G1266" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1266" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1267">
+        <v>1265</v>
+      </c>
+      <c r="B1267" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1267">
+        <v>80</v>
+      </c>
+      <c r="D1267" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1267" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1267" s="1">
+        <v>43939</v>
+      </c>
+      <c r="G1267" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1267" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1268">
+        <v>1266</v>
+      </c>
+      <c r="B1268" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1268">
+        <v>80</v>
+      </c>
+      <c r="D1268" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1268" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1268" s="1">
+        <v>43940</v>
+      </c>
+      <c r="G1268" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1268" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1269">
+        <v>1267</v>
+      </c>
+      <c r="B1269" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1269">
+        <v>90</v>
+      </c>
+      <c r="D1269" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1269" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1269" s="1">
+        <v>43932</v>
+      </c>
+      <c r="G1269" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1269" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1270">
+        <v>1268</v>
+      </c>
+      <c r="B1270" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1270">
+        <v>90</v>
+      </c>
+      <c r="D1270" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1270" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1270" s="1">
+        <v>43939</v>
+      </c>
+      <c r="G1270" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1270" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1271">
+        <v>1269</v>
+      </c>
+      <c r="B1271" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1271">
+        <v>80</v>
+      </c>
+      <c r="D1271" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1271" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1271" s="1">
+        <v>43932</v>
+      </c>
+      <c r="G1271" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1271" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1272">
+        <v>1270</v>
+      </c>
+      <c r="B1272" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1272">
+        <v>70</v>
+      </c>
+      <c r="D1272" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1272" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1272" s="1">
+        <v>43929</v>
+      </c>
+      <c r="G1272" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1272" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1273">
+        <v>1271</v>
+      </c>
+      <c r="B1273" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1273">
+        <v>90</v>
+      </c>
+      <c r="D1273" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1273" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1273" s="1">
+        <v>43926</v>
+      </c>
+      <c r="G1273" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1273" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1274">
+        <v>1272</v>
+      </c>
+      <c r="B1274" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1274">
+        <v>80</v>
+      </c>
+      <c r="D1274" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1274" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1274" s="1">
+        <v>43932</v>
+      </c>
+      <c r="G1274" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1274" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1275">
+        <v>1273</v>
+      </c>
+      <c r="B1275" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1275">
+        <v>90</v>
+      </c>
+      <c r="D1275" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1275" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1275" s="1">
+        <v>43936</v>
+      </c>
+      <c r="G1275" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1275" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1276">
+        <v>1274</v>
+      </c>
+      <c r="B1276" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1276">
+        <v>90</v>
+      </c>
+      <c r="D1276" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1276" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1276" s="1">
+        <v>43935</v>
+      </c>
+      <c r="G1276" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1276" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1277">
+        <v>1275</v>
+      </c>
+      <c r="B1277" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1277">
+        <v>70</v>
+      </c>
+      <c r="D1277" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1277" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1277" s="1">
+        <v>43940</v>
+      </c>
+      <c r="G1277" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1277" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1278">
+        <v>1276</v>
+      </c>
+      <c r="B1278" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1278">
+        <v>90</v>
+      </c>
+      <c r="D1278" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1278" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1278" s="1">
+        <v>43930</v>
+      </c>
+      <c r="G1278" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1278" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1279">
+        <v>1277</v>
+      </c>
+      <c r="B1279" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1279">
+        <v>80</v>
+      </c>
+      <c r="D1279" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1279" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1279" s="1">
+        <v>43931</v>
+      </c>
+      <c r="G1279" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1279" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1280">
+        <v>1278</v>
+      </c>
+      <c r="B1280" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1280">
+        <v>80</v>
+      </c>
+      <c r="D1280" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1280" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1280" s="1">
+        <v>43930</v>
+      </c>
+      <c r="G1280" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1280" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1281">
+        <v>1279</v>
+      </c>
+      <c r="B1281" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1281">
+        <v>80</v>
+      </c>
+      <c r="D1281" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1281" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1281" s="1">
+        <v>43932</v>
+      </c>
+      <c r="G1281" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1281" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1282">
+        <v>1280</v>
+      </c>
+      <c r="B1282" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1282">
+        <v>40</v>
+      </c>
+      <c r="D1282" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1282" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1282" s="1">
+        <v>43934</v>
+      </c>
+      <c r="G1282" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1282" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1283">
+        <v>1281</v>
+      </c>
+      <c r="B1283" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1283">
+        <v>30</v>
+      </c>
+      <c r="D1283" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1283" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1283" s="1">
+        <v>43928</v>
+      </c>
+      <c r="G1283" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1283" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1284">
+        <v>1282</v>
+      </c>
+      <c r="B1284" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1284">
+        <v>50</v>
+      </c>
+      <c r="D1284" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1284" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1284" s="1">
+        <v>43931</v>
+      </c>
+      <c r="G1284" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1284" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1285">
+        <v>1283</v>
+      </c>
+      <c r="B1285" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1285">
+        <v>40</v>
+      </c>
+      <c r="D1285" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1285" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1285" s="1">
+        <v>43939</v>
+      </c>
+      <c r="G1285" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1285" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1286">
+        <v>1284</v>
+      </c>
+      <c r="B1286" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1286">
+        <v>50</v>
+      </c>
+      <c r="D1286" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1286" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1286" s="1">
+        <v>43939</v>
+      </c>
+      <c r="G1286" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1286" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1287">
+        <v>1285</v>
+      </c>
+      <c r="B1287" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1287" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1287" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1287" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1287" s="1">
+        <v>43940</v>
+      </c>
+      <c r="G1287" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1287" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1288">
+        <v>1286</v>
+      </c>
+      <c r="B1288" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1288">
+        <v>80</v>
+      </c>
+      <c r="D1288" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1288" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1288" s="1">
+        <v>43939</v>
+      </c>
+      <c r="G1288" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1288" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1289">
+        <v>1287</v>
+      </c>
+      <c r="B1289" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1289">
+        <v>40</v>
+      </c>
+      <c r="D1289" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1289" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1289" s="1">
+        <v>43927</v>
+      </c>
+      <c r="G1289" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1289" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1290">
+        <v>1288</v>
+      </c>
+      <c r="B1290" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1290">
+        <v>20</v>
+      </c>
+      <c r="D1290" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1290" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1290" s="1">
+        <v>43936</v>
+      </c>
+      <c r="G1290" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1290" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1291">
+        <v>1289</v>
+      </c>
+      <c r="B1291" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1291">
+        <v>40</v>
+      </c>
+      <c r="D1291" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1291" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1291" s="1">
+        <v>43934</v>
+      </c>
+      <c r="G1291" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1291" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1292">
+        <v>1290</v>
+      </c>
+      <c r="B1292" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1292">
+        <v>70</v>
+      </c>
+      <c r="D1292" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1292" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1292" s="1">
+        <v>43938</v>
+      </c>
+      <c r="G1292" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1292" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1293">
+        <v>1291</v>
+      </c>
+      <c r="B1293" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1293">
+        <v>40</v>
+      </c>
+      <c r="D1293" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1293" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1293" s="1">
+        <v>43937</v>
+      </c>
+      <c r="G1293" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1293" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1294">
+        <v>1292</v>
+      </c>
+      <c r="B1294" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1294">
+        <v>20</v>
+      </c>
+      <c r="D1294" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1294" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1294" s="1">
+        <v>43939</v>
+      </c>
+      <c r="G1294" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1294" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1295">
+        <v>1293</v>
+      </c>
+      <c r="B1295" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1295">
+        <v>50</v>
+      </c>
+      <c r="D1295" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1295" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1295" s="1">
+        <v>43929</v>
+      </c>
+      <c r="G1295" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1295" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1296">
+        <v>1294</v>
+      </c>
+      <c r="B1296" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1296">
+        <v>50</v>
+      </c>
+      <c r="D1296" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1296" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1296" s="1">
+        <v>43933</v>
+      </c>
+      <c r="G1296" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1296" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1297">
+        <v>1295</v>
+      </c>
+      <c r="B1297" s="2">
+        <v>43941</v>
+      </c>
+      <c r="C1297">
+        <v>40</v>
+      </c>
+      <c r="D1297" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1297" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1297" s="1">
+        <v>43928</v>
+      </c>
+      <c r="G1297" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1297" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H1213"/>
+  <autoFilter ref="A2:H1297"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -32372,9 +34575,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J88"/>
+  <dimension ref="A1:J89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="F90" sqref="F90"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -32383,7 +34588,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="3">
-        <v>43940</v>
+        <v>43941</v>
       </c>
       <c r="B1" t="s">
         <v>60</v>
@@ -35140,23 +37345,55 @@
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A88" s="4" t="s">
+      <c r="A88" s="2">
+        <v>43941</v>
+      </c>
+      <c r="B88">
+        <v>465</v>
+      </c>
+      <c r="C88">
+        <v>84</v>
+      </c>
+      <c r="D88">
+        <v>1295</v>
+      </c>
+      <c r="E88">
+        <v>1026</v>
+      </c>
+      <c r="F88">
+        <v>20</v>
+      </c>
+      <c r="G88">
+        <v>256</v>
+      </c>
+      <c r="H88">
+        <v>19</v>
+      </c>
+      <c r="I88">
+        <v>256</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A89" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B88">
-        <v>10567</v>
-      </c>
-      <c r="C88">
-        <v>1211</v>
-      </c>
-      <c r="F88">
-        <v>237</v>
-      </c>
-      <c r="H88">
-        <v>237</v>
-      </c>
-      <c r="J88">
-        <v>12</v>
+      <c r="B89">
+        <v>11032</v>
+      </c>
+      <c r="C89">
+        <v>1295</v>
+      </c>
+      <c r="F89">
+        <v>256</v>
+      </c>
+      <c r="H89">
+        <v>256</v>
+      </c>
+      <c r="J89">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/patients_and_inspections.xlsx
+++ b/data/patients_and_inspections.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\コロナ対策サイト\0421\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\コロナ対策サイト\0422\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="465" windowWidth="33000" windowHeight="19155" activeTab="1"/>
+    <workbookView xWindow="4020" yWindow="465" windowWidth="33000" windowHeight="19155" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="【公開OK】ピポット集計" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="【公開OK】コロナサイト用（日付ベース）" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'【公開OK】府HP用(陽性者ベース)'!$A$2:$H$1297</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'【公開OK】府HP用(陽性者ベース)'!$A$2:$H$1351</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5482" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5724" uniqueCount="88">
   <si>
     <t>（1）入退院の状況</t>
   </si>
@@ -292,58 +292,31 @@
     <t>ー</t>
   </si>
   <si>
-    <t>羽曳野</t>
+    <t>リンク不明者</t>
+    <rPh sb="3" eb="6">
+      <t>フメイシャ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>リンク不明者累計</t>
+    <rPh sb="3" eb="5">
+      <t>フメイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ルイケイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>退院</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>退院</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>退院</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>退院</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>退院</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>退院</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>退院</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>退院</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>退院</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>退院</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>退院</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>退院</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>退院</t>
+    <t>就学児</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -354,7 +327,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -388,6 +361,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -724,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -748,7 +728,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>256</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -756,7 +736,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
@@ -764,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>669</v>
+        <v>707</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
@@ -772,7 +752,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
@@ -780,7 +760,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1295</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
@@ -801,7 +781,7 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <v>928</v>
+        <v>963</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
@@ -825,7 +805,7 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
@@ -833,7 +813,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>256</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
@@ -841,7 +821,7 @@
         <v>7</v>
       </c>
       <c r="B18">
-        <v>1295</v>
+        <v>1349</v>
       </c>
     </row>
   </sheetData>
@@ -853,9 +833,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1297"/>
+  <dimension ref="A1:H1351"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1213" sqref="D1213"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -864,7 +846,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="3">
-        <v>43941</v>
+        <v>43942</v>
       </c>
       <c r="B1" t="s">
         <v>60</v>
@@ -4299,7 +4281,7 @@
         <v>14</v>
       </c>
       <c r="H133" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.4">
@@ -6249,7 +6231,7 @@
         <v>10</v>
       </c>
       <c r="H208" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.4">
@@ -6665,7 +6647,7 @@
         <v>14</v>
       </c>
       <c r="H224" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.4">
@@ -7133,7 +7115,7 @@
         <v>10</v>
       </c>
       <c r="H242" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.4">
@@ -7471,7 +7453,7 @@
         <v>14</v>
       </c>
       <c r="H255" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.4">
@@ -7549,7 +7531,7 @@
         <v>14</v>
       </c>
       <c r="H258" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.4">
@@ -7601,7 +7583,7 @@
         <v>14</v>
       </c>
       <c r="H260" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.4">
@@ -7627,7 +7609,7 @@
         <v>14</v>
       </c>
       <c r="H261" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.4">
@@ -7679,7 +7661,7 @@
         <v>14</v>
       </c>
       <c r="H263" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.4">
@@ -7705,7 +7687,7 @@
         <v>14</v>
       </c>
       <c r="H264" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.4">
@@ -7731,7 +7713,7 @@
         <v>14</v>
       </c>
       <c r="H265" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.4">
@@ -7757,7 +7739,7 @@
         <v>14</v>
       </c>
       <c r="H266" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.4">
@@ -7783,7 +7765,7 @@
         <v>14</v>
       </c>
       <c r="H267" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.4">
@@ -8537,7 +8519,7 @@
         <v>10</v>
       </c>
       <c r="H296" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.4">
@@ -8693,7 +8675,7 @@
         <v>10</v>
       </c>
       <c r="H302" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.4">
@@ -8823,7 +8805,7 @@
         <v>14</v>
       </c>
       <c r="H307" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.4">
@@ -9005,7 +8987,7 @@
         <v>10</v>
       </c>
       <c r="H314" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.4">
@@ -9031,7 +9013,7 @@
         <v>10</v>
       </c>
       <c r="H315" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.4">
@@ -9109,7 +9091,7 @@
         <v>10</v>
       </c>
       <c r="H318" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.4">
@@ -9187,7 +9169,7 @@
         <v>10</v>
       </c>
       <c r="H321" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.4">
@@ -9213,7 +9195,7 @@
         <v>10</v>
       </c>
       <c r="H322" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.4">
@@ -9239,7 +9221,7 @@
         <v>10</v>
       </c>
       <c r="H323" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.4">
@@ -9291,7 +9273,7 @@
         <v>10</v>
       </c>
       <c r="H325" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.4">
@@ -9317,7 +9299,7 @@
         <v>11</v>
       </c>
       <c r="H326" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.4">
@@ -9369,7 +9351,7 @@
         <v>10</v>
       </c>
       <c r="H328" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.4">
@@ -9395,7 +9377,7 @@
         <v>10</v>
       </c>
       <c r="H329" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.4">
@@ -9447,7 +9429,7 @@
         <v>10</v>
       </c>
       <c r="H331" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.4">
@@ -9967,7 +9949,7 @@
         <v>10</v>
       </c>
       <c r="H351" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.4">
@@ -9993,7 +9975,7 @@
         <v>10</v>
       </c>
       <c r="H352" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.4">
@@ -10227,7 +10209,7 @@
         <v>10</v>
       </c>
       <c r="H361" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.4">
@@ -10357,7 +10339,7 @@
         <v>10</v>
       </c>
       <c r="H366" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.4">
@@ -10383,7 +10365,7 @@
         <v>10</v>
       </c>
       <c r="H367" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.4">
@@ -10409,7 +10391,7 @@
         <v>10</v>
       </c>
       <c r="H368" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.4">
@@ -10435,7 +10417,7 @@
         <v>10</v>
       </c>
       <c r="H369" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.4">
@@ -10617,7 +10599,7 @@
         <v>14</v>
       </c>
       <c r="H376" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.4">
@@ -11215,7 +11197,7 @@
         <v>10</v>
       </c>
       <c r="H399" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.4">
@@ -11371,7 +11353,7 @@
         <v>10</v>
       </c>
       <c r="H405" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.4">
@@ -11449,7 +11431,7 @@
         <v>10</v>
       </c>
       <c r="H408" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="409" spans="1:8" x14ac:dyDescent="0.4">
@@ -11553,7 +11535,7 @@
         <v>10</v>
       </c>
       <c r="H412" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="413" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11605,7 +11587,7 @@
         <v>10</v>
       </c>
       <c r="H414" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="415" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12307,7 +12289,7 @@
         <v>10</v>
       </c>
       <c r="H441" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="442" spans="1:8" x14ac:dyDescent="0.4">
@@ -12957,7 +12939,7 @@
         <v>10</v>
       </c>
       <c r="H466" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="467" spans="1:8" x14ac:dyDescent="0.4">
@@ -14491,7 +14473,7 @@
         <v>10</v>
       </c>
       <c r="H525" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="526" spans="1:8" x14ac:dyDescent="0.4">
@@ -14543,7 +14525,7 @@
         <v>10</v>
       </c>
       <c r="H527" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="528" spans="1:8" x14ac:dyDescent="0.4">
@@ -15505,7 +15487,7 @@
         <v>10</v>
       </c>
       <c r="H564" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="565" spans="1:8" x14ac:dyDescent="0.4">
@@ -16155,7 +16137,7 @@
         <v>10</v>
       </c>
       <c r="H589" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="590" spans="1:8" x14ac:dyDescent="0.4">
@@ -17039,7 +17021,7 @@
         <v>10</v>
       </c>
       <c r="H623" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="624" spans="1:8" x14ac:dyDescent="0.4">
@@ -17065,7 +17047,7 @@
         <v>10</v>
       </c>
       <c r="H624" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="625" spans="1:8" x14ac:dyDescent="0.4">
@@ -18599,7 +18581,7 @@
         <v>10</v>
       </c>
       <c r="H683" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="684" spans="1:8" x14ac:dyDescent="0.4">
@@ -18781,7 +18763,7 @@
         <v>46</v>
       </c>
       <c r="H690" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="691" spans="1:8" x14ac:dyDescent="0.4">
@@ -19220,10 +19202,10 @@
         <v>46</v>
       </c>
       <c r="G707" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H707" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="708" spans="1:8" x14ac:dyDescent="0.4">
@@ -20705,7 +20687,7 @@
         <v>10</v>
       </c>
       <c r="H764" t="s">
-        <v>4</v>
+        <v>74</v>
       </c>
     </row>
     <row r="765" spans="1:8" x14ac:dyDescent="0.4">
@@ -22473,7 +22455,7 @@
         <v>10</v>
       </c>
       <c r="H832" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="833" spans="1:8" x14ac:dyDescent="0.4">
@@ -22525,7 +22507,7 @@
         <v>10</v>
       </c>
       <c r="H834" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="835" spans="1:8" x14ac:dyDescent="0.4">
@@ -25255,7 +25237,7 @@
         <v>10</v>
       </c>
       <c r="H939" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="940" spans="1:8" x14ac:dyDescent="0.4">
@@ -25281,7 +25263,7 @@
         <v>10</v>
       </c>
       <c r="H940" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="941" spans="1:8" x14ac:dyDescent="0.4">
@@ -25411,7 +25393,7 @@
         <v>10</v>
       </c>
       <c r="H945" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="946" spans="1:8" x14ac:dyDescent="0.4">
@@ -26243,7 +26225,7 @@
         <v>10</v>
       </c>
       <c r="H977" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="978" spans="1:8" x14ac:dyDescent="0.4">
@@ -26295,7 +26277,7 @@
         <v>10</v>
       </c>
       <c r="H979" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="980" spans="1:8" x14ac:dyDescent="0.4">
@@ -27566,10 +27548,10 @@
         <v>43920</v>
       </c>
       <c r="G1028" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H1028" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1029" spans="1:8" x14ac:dyDescent="0.4">
@@ -28557,7 +28539,7 @@
         <v>10</v>
       </c>
       <c r="H1066" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1067" spans="1:8" x14ac:dyDescent="0.4">
@@ -31183,7 +31165,7 @@
         <v>10</v>
       </c>
       <c r="H1167" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="1168" spans="1:8" x14ac:dyDescent="0.4">
@@ -31480,7 +31462,7 @@
         <v>43940</v>
       </c>
       <c r="C1179" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="D1179" t="s">
         <v>25</v>
@@ -33644,7 +33626,7 @@
         <v>23</v>
       </c>
       <c r="E1262" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="F1262" s="1">
         <v>43938</v>
@@ -33670,7 +33652,7 @@
         <v>23</v>
       </c>
       <c r="E1263" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="F1263" s="1">
         <v>43936</v>
@@ -34355,7 +34337,7 @@
         <v>10</v>
       </c>
       <c r="H1289" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
     </row>
     <row r="1290" spans="1:8" x14ac:dyDescent="0.4">
@@ -34566,8 +34548,1412 @@
         <v>5</v>
       </c>
     </row>
+    <row r="1298" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1298">
+        <v>1296</v>
+      </c>
+      <c r="B1298" s="2">
+        <v>43942</v>
+      </c>
+      <c r="C1298">
+        <v>60</v>
+      </c>
+      <c r="D1298" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1298" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1298" s="1">
+        <v>43932</v>
+      </c>
+      <c r="G1298" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1298" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1299">
+        <v>1297</v>
+      </c>
+      <c r="B1299" s="2">
+        <v>43942</v>
+      </c>
+      <c r="C1299">
+        <v>50</v>
+      </c>
+      <c r="D1299" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1299" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1299" s="1">
+        <v>43939</v>
+      </c>
+      <c r="G1299" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1299" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1300">
+        <v>1298</v>
+      </c>
+      <c r="B1300" s="2">
+        <v>43942</v>
+      </c>
+      <c r="C1300">
+        <v>20</v>
+      </c>
+      <c r="D1300" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1300" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1300" s="1">
+        <v>43932</v>
+      </c>
+      <c r="G1300" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1300" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1301">
+        <v>1299</v>
+      </c>
+      <c r="B1301" s="2">
+        <v>43942</v>
+      </c>
+      <c r="C1301">
+        <v>70</v>
+      </c>
+      <c r="D1301" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1301" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1301" s="1">
+        <v>43931</v>
+      </c>
+      <c r="G1301" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1301" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1302">
+        <v>1300</v>
+      </c>
+      <c r="B1302" s="2">
+        <v>43942</v>
+      </c>
+      <c r="C1302">
+        <v>70</v>
+      </c>
+      <c r="D1302" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1302" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1302" s="1">
+        <v>43933</v>
+      </c>
+      <c r="G1302" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1302" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1303">
+        <v>1301</v>
+      </c>
+      <c r="B1303" s="2">
+        <v>43942</v>
+      </c>
+      <c r="C1303">
+        <v>80</v>
+      </c>
+      <c r="D1303" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1303" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1303" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1303" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1303" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1304">
+        <v>1302</v>
+      </c>
+      <c r="B1304" s="2">
+        <v>43942</v>
+      </c>
+      <c r="C1304">
+        <v>20</v>
+      </c>
+      <c r="D1304" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1304" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1304" s="1">
+        <v>43938</v>
+      </c>
+      <c r="G1304" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1304" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1305">
+        <v>1303</v>
+      </c>
+      <c r="B1305" s="2">
+        <v>43942</v>
+      </c>
+      <c r="C1305">
+        <v>70</v>
+      </c>
+      <c r="D1305" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1305" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1305" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1305" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1305" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1306">
+        <v>1304</v>
+      </c>
+      <c r="B1306" s="2">
+        <v>43942</v>
+      </c>
+      <c r="C1306">
+        <v>30</v>
+      </c>
+      <c r="D1306" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1306" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1306" s="1">
+        <v>43929</v>
+      </c>
+      <c r="G1306" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1306" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1307">
+        <v>1305</v>
+      </c>
+      <c r="B1307" s="2">
+        <v>43942</v>
+      </c>
+      <c r="C1307">
+        <v>60</v>
+      </c>
+      <c r="D1307" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1307" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1307" s="1">
+        <v>43932</v>
+      </c>
+      <c r="G1307" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1307" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1308">
+        <v>1306</v>
+      </c>
+      <c r="B1308" s="2">
+        <v>43942</v>
+      </c>
+      <c r="C1308">
+        <v>10</v>
+      </c>
+      <c r="D1308" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1308" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1308" s="1">
+        <v>43934</v>
+      </c>
+      <c r="G1308" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1308" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1309">
+        <v>1307</v>
+      </c>
+      <c r="B1309" s="2">
+        <v>43942</v>
+      </c>
+      <c r="C1309">
+        <v>60</v>
+      </c>
+      <c r="D1309" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1309" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1309" s="1">
+        <v>43938</v>
+      </c>
+      <c r="G1309" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1309" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1310">
+        <v>1308</v>
+      </c>
+      <c r="B1310" s="2">
+        <v>43942</v>
+      </c>
+      <c r="C1310">
+        <v>30</v>
+      </c>
+      <c r="D1310" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1310" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1310" s="1">
+        <v>43939</v>
+      </c>
+      <c r="G1310" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1310" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1311">
+        <v>1309</v>
+      </c>
+      <c r="B1311" s="2">
+        <v>43942</v>
+      </c>
+      <c r="C1311">
+        <v>40</v>
+      </c>
+      <c r="D1311" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1311" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1311" s="1">
+        <v>43938</v>
+      </c>
+      <c r="G1311" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1311" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1312">
+        <v>1310</v>
+      </c>
+      <c r="B1312" s="2">
+        <v>43942</v>
+      </c>
+      <c r="C1312">
+        <v>60</v>
+      </c>
+      <c r="D1312" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1312" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1312" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1312" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1312" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1313">
+        <v>1311</v>
+      </c>
+      <c r="B1313" s="2">
+        <v>43942</v>
+      </c>
+      <c r="C1313">
+        <v>20</v>
+      </c>
+      <c r="D1313" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1313" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1313" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1313" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1313" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1314">
+        <v>1312</v>
+      </c>
+      <c r="B1314" s="2">
+        <v>43942</v>
+      </c>
+      <c r="C1314">
+        <v>20</v>
+      </c>
+      <c r="D1314" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1314" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1314" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1314" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1314" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1315">
+        <v>1313</v>
+      </c>
+      <c r="B1315" s="2">
+        <v>43942</v>
+      </c>
+      <c r="C1315">
+        <v>30</v>
+      </c>
+      <c r="D1315" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1315" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1315" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1315" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1315" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1316">
+        <v>1314</v>
+      </c>
+      <c r="B1316" s="2">
+        <v>43942</v>
+      </c>
+      <c r="C1316">
+        <v>20</v>
+      </c>
+      <c r="D1316" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1316" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1316" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1316" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1316" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1317">
+        <v>1315</v>
+      </c>
+      <c r="B1317" s="2">
+        <v>43942</v>
+      </c>
+      <c r="C1317">
+        <v>20</v>
+      </c>
+      <c r="D1317" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1317" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1317" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1317" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1317" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1318">
+        <v>1316</v>
+      </c>
+      <c r="B1318" s="2">
+        <v>43942</v>
+      </c>
+      <c r="C1318">
+        <v>20</v>
+      </c>
+      <c r="D1318" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1318" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1318" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1318" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1318" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1319">
+        <v>1317</v>
+      </c>
+      <c r="B1319" s="2">
+        <v>43942</v>
+      </c>
+      <c r="C1319">
+        <v>20</v>
+      </c>
+      <c r="D1319" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1319" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1319" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1319" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1319" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1320">
+        <v>1318</v>
+      </c>
+      <c r="B1320" s="2">
+        <v>43942</v>
+      </c>
+      <c r="C1320">
+        <v>30</v>
+      </c>
+      <c r="D1320" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1320" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1320" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1320" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1320" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1321">
+        <v>1319</v>
+      </c>
+      <c r="B1321" s="2">
+        <v>43942</v>
+      </c>
+      <c r="C1321">
+        <v>20</v>
+      </c>
+      <c r="D1321" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1321" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1321" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1321" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1321" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1322">
+        <v>1320</v>
+      </c>
+      <c r="B1322" s="2">
+        <v>43942</v>
+      </c>
+      <c r="C1322">
+        <v>20</v>
+      </c>
+      <c r="D1322" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1322" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1322" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1322" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1322" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1323">
+        <v>1321</v>
+      </c>
+      <c r="B1323" s="2">
+        <v>43942</v>
+      </c>
+      <c r="C1323">
+        <v>20</v>
+      </c>
+      <c r="D1323" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1323" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1323" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1323" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1323" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1324">
+        <v>1322</v>
+      </c>
+      <c r="B1324" s="2">
+        <v>43942</v>
+      </c>
+      <c r="C1324">
+        <v>20</v>
+      </c>
+      <c r="D1324" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1324" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1324" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1324" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1324" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1325">
+        <v>1323</v>
+      </c>
+      <c r="B1325" s="2">
+        <v>43942</v>
+      </c>
+      <c r="C1325">
+        <v>20</v>
+      </c>
+      <c r="D1325" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1325" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1325" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1325" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1325" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1326">
+        <v>1324</v>
+      </c>
+      <c r="B1326" s="2">
+        <v>43942</v>
+      </c>
+      <c r="C1326">
+        <v>20</v>
+      </c>
+      <c r="D1326" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1326" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1326" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1326" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1326" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1327">
+        <v>1325</v>
+      </c>
+      <c r="B1327" s="2">
+        <v>43942</v>
+      </c>
+      <c r="C1327">
+        <v>20</v>
+      </c>
+      <c r="D1327" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1327" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1327" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1327" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1327" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1328">
+        <v>1326</v>
+      </c>
+      <c r="B1328" s="2">
+        <v>43942</v>
+      </c>
+      <c r="C1328">
+        <v>30</v>
+      </c>
+      <c r="D1328" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1328" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1328" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1328" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1328" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1329">
+        <v>1327</v>
+      </c>
+      <c r="B1329" s="2">
+        <v>43942</v>
+      </c>
+      <c r="C1329">
+        <v>30</v>
+      </c>
+      <c r="D1329" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1329" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1329" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1329" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1329" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1330">
+        <v>1328</v>
+      </c>
+      <c r="B1330" s="2">
+        <v>43942</v>
+      </c>
+      <c r="C1330">
+        <v>50</v>
+      </c>
+      <c r="D1330" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1330" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1330" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1330" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1330" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1331">
+        <v>1329</v>
+      </c>
+      <c r="B1331" s="2">
+        <v>43942</v>
+      </c>
+      <c r="C1331">
+        <v>20</v>
+      </c>
+      <c r="D1331" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1331" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1331" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1331" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1331" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1332">
+        <v>1330</v>
+      </c>
+      <c r="B1332" s="2">
+        <v>43942</v>
+      </c>
+      <c r="C1332">
+        <v>70</v>
+      </c>
+      <c r="D1332" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1332" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1332" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1332" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1332" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1333">
+        <v>1331</v>
+      </c>
+      <c r="B1333" s="2">
+        <v>43942</v>
+      </c>
+      <c r="C1333">
+        <v>70</v>
+      </c>
+      <c r="D1333" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1333" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1333" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1333" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1333" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1334">
+        <v>1332</v>
+      </c>
+      <c r="B1334" s="2">
+        <v>43942</v>
+      </c>
+      <c r="C1334">
+        <v>50</v>
+      </c>
+      <c r="D1334" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1334" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1334" s="1">
+        <v>43937</v>
+      </c>
+      <c r="G1334" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1334" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1335">
+        <v>1333</v>
+      </c>
+      <c r="B1335" s="2">
+        <v>43942</v>
+      </c>
+      <c r="C1335">
+        <v>50</v>
+      </c>
+      <c r="D1335" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1335" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1335" s="1">
+        <v>43930</v>
+      </c>
+      <c r="G1335" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1335" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1336">
+        <v>1334</v>
+      </c>
+      <c r="B1336" s="2">
+        <v>43942</v>
+      </c>
+      <c r="C1336">
+        <v>50</v>
+      </c>
+      <c r="D1336" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1336" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1336" s="1">
+        <v>43936</v>
+      </c>
+      <c r="G1336" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1336" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1337">
+        <v>1335</v>
+      </c>
+      <c r="B1337" s="2">
+        <v>43942</v>
+      </c>
+      <c r="C1337">
+        <v>50</v>
+      </c>
+      <c r="D1337" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1337" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1337" s="1">
+        <v>43938</v>
+      </c>
+      <c r="G1337" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1337" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1338">
+        <v>1336</v>
+      </c>
+      <c r="B1338" s="2">
+        <v>43942</v>
+      </c>
+      <c r="C1338">
+        <v>30</v>
+      </c>
+      <c r="D1338" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1338" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1338" s="1">
+        <v>43932</v>
+      </c>
+      <c r="G1338" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1338" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1339">
+        <v>1337</v>
+      </c>
+      <c r="B1339" s="2">
+        <v>43942</v>
+      </c>
+      <c r="C1339">
+        <v>60</v>
+      </c>
+      <c r="D1339" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1339" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1339" s="1">
+        <v>43931</v>
+      </c>
+      <c r="G1339" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1339" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1340">
+        <v>1338</v>
+      </c>
+      <c r="B1340" s="2">
+        <v>43942</v>
+      </c>
+      <c r="C1340">
+        <v>50</v>
+      </c>
+      <c r="D1340" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1340" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1340" s="1">
+        <v>43934</v>
+      </c>
+      <c r="G1340" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1340" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1341">
+        <v>1339</v>
+      </c>
+      <c r="B1341" s="2">
+        <v>43942</v>
+      </c>
+      <c r="C1341">
+        <v>60</v>
+      </c>
+      <c r="D1341" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1341" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1341" s="1">
+        <v>43934</v>
+      </c>
+      <c r="G1341" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1341" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1342">
+        <v>1340</v>
+      </c>
+      <c r="B1342" s="2">
+        <v>43942</v>
+      </c>
+      <c r="C1342">
+        <v>50</v>
+      </c>
+      <c r="D1342" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1342" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1342" s="1">
+        <v>43936</v>
+      </c>
+      <c r="G1342" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1342" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1343">
+        <v>1341</v>
+      </c>
+      <c r="B1343" s="2">
+        <v>43942</v>
+      </c>
+      <c r="C1343">
+        <v>60</v>
+      </c>
+      <c r="D1343" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1343" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1343" s="1">
+        <v>43933</v>
+      </c>
+      <c r="G1343" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1343" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1344">
+        <v>1342</v>
+      </c>
+      <c r="B1344" s="2">
+        <v>43942</v>
+      </c>
+      <c r="C1344">
+        <v>50</v>
+      </c>
+      <c r="D1344" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1344" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1344" s="1">
+        <v>43937</v>
+      </c>
+      <c r="G1344" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1344" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1345">
+        <v>1343</v>
+      </c>
+      <c r="B1345" s="2">
+        <v>43942</v>
+      </c>
+      <c r="C1345">
+        <v>50</v>
+      </c>
+      <c r="D1345" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1345" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1345" s="1">
+        <v>43940</v>
+      </c>
+      <c r="G1345" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1345" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1346">
+        <v>1344</v>
+      </c>
+      <c r="B1346" s="2">
+        <v>43942</v>
+      </c>
+      <c r="C1346">
+        <v>40</v>
+      </c>
+      <c r="D1346" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1346" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1346" s="1">
+        <v>43939</v>
+      </c>
+      <c r="G1346" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1346" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1347">
+        <v>1345</v>
+      </c>
+      <c r="B1347" s="2">
+        <v>43942</v>
+      </c>
+      <c r="C1347">
+        <v>60</v>
+      </c>
+      <c r="D1347" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1347" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1347" s="1">
+        <v>43932</v>
+      </c>
+      <c r="G1347" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1347" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1348">
+        <v>1346</v>
+      </c>
+      <c r="B1348" s="2">
+        <v>43942</v>
+      </c>
+      <c r="C1348">
+        <v>40</v>
+      </c>
+      <c r="D1348" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1348" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1348" s="1">
+        <v>43929</v>
+      </c>
+      <c r="G1348" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1348" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1349">
+        <v>1347</v>
+      </c>
+      <c r="B1349" s="2">
+        <v>43942</v>
+      </c>
+      <c r="C1349">
+        <v>30</v>
+      </c>
+      <c r="D1349" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1349" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1349" s="1">
+        <v>43932</v>
+      </c>
+      <c r="G1349" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1349" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1350">
+        <v>1348</v>
+      </c>
+      <c r="B1350" s="2">
+        <v>43942</v>
+      </c>
+      <c r="C1350">
+        <v>30</v>
+      </c>
+      <c r="D1350" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1350" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1350" s="1">
+        <v>43936</v>
+      </c>
+      <c r="G1350" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1350" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1351">
+        <v>1349</v>
+      </c>
+      <c r="B1351" s="2">
+        <v>43942</v>
+      </c>
+      <c r="C1351">
+        <v>50</v>
+      </c>
+      <c r="D1351" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1351" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1351" s="1">
+        <v>43920</v>
+      </c>
+      <c r="G1351" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1351" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:H1297"/>
+  <autoFilter ref="A2:H1351"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -34575,10 +35961,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J89"/>
+  <dimension ref="A1:L90"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="F90" sqref="F90"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K60" sqref="K60:K61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -34586,15 +35972,15 @@
     <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="3">
-        <v>43941</v>
+        <v>43942</v>
       </c>
       <c r="B1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="4"/>
       <c r="B2" t="s">
         <v>61</v>
@@ -34623,8 +36009,14 @@
       <c r="J2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>43856</v>
       </c>
@@ -34655,8 +36047,14 @@
       <c r="J3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>43857</v>
       </c>
@@ -34687,8 +36085,14 @@
       <c r="J4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>43858</v>
       </c>
@@ -34719,8 +36123,14 @@
       <c r="J5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>43859</v>
       </c>
@@ -34751,8 +36161,14 @@
       <c r="J6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>43860</v>
       </c>
@@ -34783,8 +36199,14 @@
       <c r="J7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>43861</v>
       </c>
@@ -34815,8 +36237,14 @@
       <c r="J8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>43862</v>
       </c>
@@ -34847,8 +36275,14 @@
       <c r="J9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>43863</v>
       </c>
@@ -34879,8 +36313,14 @@
       <c r="J10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>43864</v>
       </c>
@@ -34911,8 +36351,14 @@
       <c r="J11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>43865</v>
       </c>
@@ -34943,8 +36389,14 @@
       <c r="J12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>43866</v>
       </c>
@@ -34975,8 +36427,14 @@
       <c r="J13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>43867</v>
       </c>
@@ -35007,8 +36465,14 @@
       <c r="J14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>43868</v>
       </c>
@@ -35039,8 +36503,14 @@
       <c r="J15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>43869</v>
       </c>
@@ -35071,8 +36541,14 @@
       <c r="J16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>43870</v>
       </c>
@@ -35103,8 +36579,14 @@
       <c r="J17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>43871</v>
       </c>
@@ -35135,8 +36617,14 @@
       <c r="J18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>43872</v>
       </c>
@@ -35167,8 +36655,14 @@
       <c r="J19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>43873</v>
       </c>
@@ -35199,8 +36693,14 @@
       <c r="J20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>43874</v>
       </c>
@@ -35231,8 +36731,14 @@
       <c r="J21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>43875</v>
       </c>
@@ -35263,8 +36769,14 @@
       <c r="J22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>43876</v>
       </c>
@@ -35295,8 +36807,14 @@
       <c r="J23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>43877</v>
       </c>
@@ -35327,8 +36845,14 @@
       <c r="J24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>43878</v>
       </c>
@@ -35359,8 +36883,14 @@
       <c r="J25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>43879</v>
       </c>
@@ -35391,8 +36921,14 @@
       <c r="J26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>43880</v>
       </c>
@@ -35423,8 +36959,14 @@
       <c r="J27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>43881</v>
       </c>
@@ -35455,8 +36997,14 @@
       <c r="J28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>43882</v>
       </c>
@@ -35487,8 +37035,14 @@
       <c r="J29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <v>43883</v>
       </c>
@@ -35519,8 +37073,14 @@
       <c r="J30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>43884</v>
       </c>
@@ -35551,8 +37111,14 @@
       <c r="J31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <v>43885</v>
       </c>
@@ -35583,8 +37149,14 @@
       <c r="J32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <v>43886</v>
       </c>
@@ -35615,8 +37187,14 @@
       <c r="J33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
         <v>43887</v>
       </c>
@@ -35647,8 +37225,14 @@
       <c r="J34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A35" s="2">
         <v>43888</v>
       </c>
@@ -35679,8 +37263,14 @@
       <c r="J35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A36" s="2">
         <v>43889</v>
       </c>
@@ -35711,8 +37301,14 @@
       <c r="J36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A37" s="2">
         <v>43890</v>
       </c>
@@ -35743,8 +37339,14 @@
       <c r="J37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A38" s="2">
         <v>43891</v>
       </c>
@@ -35775,8 +37377,14 @@
       <c r="J38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A39" s="2">
         <v>43892</v>
       </c>
@@ -35807,8 +37415,14 @@
       <c r="J39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A40" s="2">
         <v>43893</v>
       </c>
@@ -35839,8 +37453,14 @@
       <c r="J40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A41" s="2">
         <v>43894</v>
       </c>
@@ -35871,8 +37491,14 @@
       <c r="J41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A42" s="2">
         <v>43895</v>
       </c>
@@ -35903,8 +37529,14 @@
       <c r="J42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A43" s="2">
         <v>43896</v>
       </c>
@@ -35935,8 +37567,14 @@
       <c r="J43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A44" s="2">
         <v>43897</v>
       </c>
@@ -35967,8 +37605,14 @@
       <c r="J44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A45" s="2">
         <v>43898</v>
       </c>
@@ -35999,8 +37643,14 @@
       <c r="J45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K45">
+        <v>2</v>
+      </c>
+      <c r="L45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A46" s="2">
         <v>43899</v>
       </c>
@@ -36031,8 +37681,14 @@
       <c r="J46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A47" s="2">
         <v>43900</v>
       </c>
@@ -36063,8 +37719,14 @@
       <c r="J47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K47">
+        <v>8</v>
+      </c>
+      <c r="L47">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A48" s="2">
         <v>43901</v>
       </c>
@@ -36095,8 +37757,14 @@
       <c r="J48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K48">
+        <v>2</v>
+      </c>
+      <c r="L48">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A49" s="2">
         <v>43902</v>
       </c>
@@ -36127,8 +37795,14 @@
       <c r="J49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K49">
+        <v>4</v>
+      </c>
+      <c r="L49">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A50" s="2">
         <v>43903</v>
       </c>
@@ -36159,8 +37833,14 @@
       <c r="J50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K50">
+        <v>2</v>
+      </c>
+      <c r="L50">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A51" s="2">
         <v>43904</v>
       </c>
@@ -36191,8 +37871,14 @@
       <c r="J51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K51">
+        <v>7</v>
+      </c>
+      <c r="L51">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A52" s="2">
         <v>43905</v>
       </c>
@@ -36223,8 +37909,14 @@
       <c r="J52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A53" s="2">
         <v>43906</v>
       </c>
@@ -36255,8 +37947,14 @@
       <c r="J53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A54" s="2">
         <v>43907</v>
       </c>
@@ -36287,8 +37985,14 @@
       <c r="J54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A55" s="2">
         <v>43908</v>
       </c>
@@ -36319,8 +38023,14 @@
       <c r="J55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K55">
+        <v>4</v>
+      </c>
+      <c r="L55">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A56" s="2">
         <v>43909</v>
       </c>
@@ -36351,8 +38061,14 @@
       <c r="J56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A57" s="2">
         <v>43910</v>
       </c>
@@ -36383,8 +38099,14 @@
       <c r="J57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K57">
+        <v>2</v>
+      </c>
+      <c r="L57">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A58" s="2">
         <v>43911</v>
       </c>
@@ -36415,8 +38137,14 @@
       <c r="J58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K58">
+        <v>2</v>
+      </c>
+      <c r="L58">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A59" s="2">
         <v>43912</v>
       </c>
@@ -36447,8 +38175,14 @@
       <c r="J59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K59">
+        <v>3</v>
+      </c>
+      <c r="L59">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A60" s="2">
         <v>43913</v>
       </c>
@@ -36479,8 +38213,14 @@
       <c r="J60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A61" s="2">
         <v>43914</v>
       </c>
@@ -36511,8 +38251,14 @@
       <c r="J61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K61">
+        <v>5</v>
+      </c>
+      <c r="L61">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A62" s="2">
         <v>43915</v>
       </c>
@@ -36543,8 +38289,14 @@
       <c r="J62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K62">
+        <v>3</v>
+      </c>
+      <c r="L62">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A63" s="2">
         <v>43916</v>
       </c>
@@ -36575,8 +38327,14 @@
       <c r="J63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K63">
+        <v>5</v>
+      </c>
+      <c r="L63">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A64" s="2">
         <v>43917</v>
       </c>
@@ -36607,8 +38365,14 @@
       <c r="J64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K64">
+        <v>15</v>
+      </c>
+      <c r="L64">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A65" s="2">
         <v>43918</v>
       </c>
@@ -36639,8 +38403,14 @@
       <c r="J65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K65">
+        <v>3</v>
+      </c>
+      <c r="L65">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A66" s="2">
         <v>43919</v>
       </c>
@@ -36671,8 +38441,14 @@
       <c r="J66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K66">
+        <v>4</v>
+      </c>
+      <c r="L66">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A67" s="2">
         <v>43920</v>
       </c>
@@ -36703,8 +38479,14 @@
       <c r="J67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A68" s="2">
         <v>43921</v>
       </c>
@@ -36735,8 +38517,14 @@
       <c r="J68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K68">
+        <v>10</v>
+      </c>
+      <c r="L68">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A69" s="2">
         <v>43922</v>
       </c>
@@ -36767,8 +38555,14 @@
       <c r="J69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K69">
+        <v>10</v>
+      </c>
+      <c r="L69">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A70" s="2">
         <v>43923</v>
       </c>
@@ -36799,8 +38593,14 @@
       <c r="J70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="K70">
+        <v>20</v>
+      </c>
+      <c r="L70">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A71" s="2">
         <v>43924</v>
       </c>
@@ -36831,8 +38631,14 @@
       <c r="J71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="K71">
+        <v>23</v>
+      </c>
+      <c r="L71">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A72" s="2">
         <v>43925</v>
       </c>
@@ -36863,8 +38669,14 @@
       <c r="J72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="K72">
+        <v>32</v>
+      </c>
+      <c r="L72">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A73" s="2">
         <v>43926</v>
       </c>
@@ -36895,8 +38707,14 @@
       <c r="J73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="K73">
+        <v>15</v>
+      </c>
+      <c r="L73">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A74" s="2">
         <v>43927</v>
       </c>
@@ -36927,8 +38745,14 @@
       <c r="J74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="K74">
+        <v>16</v>
+      </c>
+      <c r="L74">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A75" s="2">
         <v>43928</v>
       </c>
@@ -36959,8 +38783,14 @@
       <c r="J75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="K75">
+        <v>40</v>
+      </c>
+      <c r="L75">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A76" s="2">
         <v>43929</v>
       </c>
@@ -36991,8 +38821,14 @@
       <c r="J76">
         <v>2</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="K76">
+        <v>33</v>
+      </c>
+      <c r="L76">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A77" s="2">
         <v>43930</v>
       </c>
@@ -37023,8 +38859,14 @@
       <c r="J77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="K77">
+        <v>70</v>
+      </c>
+      <c r="L77">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A78" s="2">
         <v>43931</v>
       </c>
@@ -37055,8 +38897,14 @@
       <c r="J78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="K78">
+        <v>71</v>
+      </c>
+      <c r="L78">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A79" s="2">
         <v>43932</v>
       </c>
@@ -37087,8 +38935,14 @@
       <c r="J79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="K79">
+        <v>51</v>
+      </c>
+      <c r="L79">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A80" s="2">
         <v>43933</v>
       </c>
@@ -37119,8 +38973,14 @@
       <c r="J80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="K80">
+        <v>30</v>
+      </c>
+      <c r="L80">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A81" s="2">
         <v>43934</v>
       </c>
@@ -37151,8 +39011,14 @@
       <c r="J81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K81">
+        <v>20</v>
+      </c>
+      <c r="L81">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A82" s="2">
         <v>43935</v>
       </c>
@@ -37166,13 +39032,13 @@
         <v>894</v>
       </c>
       <c r="E82">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="F82">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G82">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H82">
         <v>17</v>
@@ -37183,8 +39049,14 @@
       <c r="J82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K82">
+        <v>36</v>
+      </c>
+      <c r="L82">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A83" s="2">
         <v>43936</v>
       </c>
@@ -37198,13 +39070,13 @@
         <v>968</v>
       </c>
       <c r="E83">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="F83">
         <v>8</v>
       </c>
       <c r="G83">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H83">
         <v>4</v>
@@ -37215,8 +39087,14 @@
       <c r="J83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K83">
+        <v>54</v>
+      </c>
+      <c r="L83">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A84" s="2">
         <v>43937</v>
       </c>
@@ -37230,13 +39108,13 @@
         <v>1020</v>
       </c>
       <c r="E84">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="F84">
         <v>23</v>
       </c>
       <c r="G84">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H84">
         <v>15</v>
@@ -37247,8 +39125,14 @@
       <c r="J84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K84">
+        <v>32</v>
+      </c>
+      <c r="L84">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A85" s="2">
         <v>43938</v>
       </c>
@@ -37265,7 +39149,7 @@
         <v>853</v>
       </c>
       <c r="F85">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G85">
         <v>213</v>
@@ -37279,8 +39163,14 @@
       <c r="J85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K85">
+        <v>31</v>
+      </c>
+      <c r="L85">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A86" s="2">
         <v>43939</v>
       </c>
@@ -37294,13 +39184,13 @@
         <v>1163</v>
       </c>
       <c r="E86">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="F86">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G86">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H86">
         <v>14</v>
@@ -37309,10 +39199,16 @@
         <v>227</v>
       </c>
       <c r="J86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+      <c r="K86">
+        <v>33</v>
+      </c>
+      <c r="L86">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A87" s="2">
         <v>43940</v>
       </c>
@@ -37326,13 +39222,13 @@
         <v>1211</v>
       </c>
       <c r="E87">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="F87">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G87">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="H87">
         <v>10</v>
@@ -37343,8 +39239,14 @@
       <c r="J87">
         <v>2</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K87">
+        <v>24</v>
+      </c>
+      <c r="L87">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A88" s="2">
         <v>43941</v>
       </c>
@@ -37358,13 +39260,13 @@
         <v>1295</v>
       </c>
       <c r="E88">
-        <v>1026</v>
+        <v>1018</v>
       </c>
       <c r="F88">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G88">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="H88">
         <v>19</v>
@@ -37375,25 +39277,69 @@
       <c r="J88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A89" s="4" t="s">
+      <c r="K88">
+        <v>7</v>
+      </c>
+      <c r="L88">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A89" s="2">
+        <v>43942</v>
+      </c>
+      <c r="B89">
+        <v>481</v>
+      </c>
+      <c r="C89">
+        <v>54</v>
+      </c>
+      <c r="D89">
+        <v>1349</v>
+      </c>
+      <c r="E89">
+        <v>1061</v>
+      </c>
+      <c r="F89">
+        <v>10</v>
+      </c>
+      <c r="G89">
+        <v>273</v>
+      </c>
+      <c r="H89">
+        <v>17</v>
+      </c>
+      <c r="I89">
+        <v>273</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89">
+        <v>21</v>
+      </c>
+      <c r="L89">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A90" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B89">
-        <v>11032</v>
-      </c>
-      <c r="C89">
-        <v>1295</v>
-      </c>
-      <c r="F89">
-        <v>256</v>
-      </c>
-      <c r="H89">
-        <v>256</v>
-      </c>
-      <c r="J89">
-        <v>13</v>
+      <c r="B90">
+        <v>11513</v>
+      </c>
+      <c r="C90">
+        <v>1349</v>
+      </c>
+      <c r="F90">
+        <v>273</v>
+      </c>
+      <c r="H90">
+        <v>273</v>
+      </c>
+      <c r="J90">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/data/patients_and_inspections.xlsx
+++ b/data/patients_and_inspections.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\コロナ対策サイト\0422\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.19.163.21\share\企画\020_部局・各課懸案\新型コロナ肺炎\コロナサイト立ち上げ\更新用データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="465" windowWidth="33000" windowHeight="19155" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="4020" yWindow="465" windowWidth="33000" windowHeight="19155"/>
   </bookViews>
   <sheets>
     <sheet name="【公開OK】ピポット集計" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="【公開OK】コロナサイト用（日付ベース）" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'【公開OK】府HP用(陽性者ベース)'!$A$2:$H$1351</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'【公開OK】府HP用(陽性者ベース)'!$A$2:$H$1386</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5724" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5872" uniqueCount="91">
   <si>
     <t>（1）入退院の状況</t>
   </si>
@@ -312,11 +312,20 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>退院</t>
+    <t>就学児</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>就学児</t>
+    <t>男</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>府外</t>
+  </si>
+  <si>
+    <t>退院</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -704,8 +713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -728,7 +737,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>273</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -736,7 +745,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>354</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
@@ -744,7 +753,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>707</v>
+        <v>728</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
@@ -752,7 +761,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
@@ -760,7 +769,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1349</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
@@ -781,7 +790,7 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <v>963</v>
+        <v>978</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
@@ -789,7 +798,7 @@
         <v>11</v>
       </c>
       <c r="B14">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
@@ -805,7 +814,7 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
@@ -813,7 +822,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>273</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
@@ -821,7 +830,7 @@
         <v>7</v>
       </c>
       <c r="B18">
-        <v>1349</v>
+        <v>1380</v>
       </c>
     </row>
   </sheetData>
@@ -833,10 +842,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1351"/>
+  <dimension ref="A1:H1386"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1213" sqref="D1213"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -846,7 +855,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="3">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="B1" t="s">
         <v>60</v>
@@ -4281,7 +4290,7 @@
         <v>14</v>
       </c>
       <c r="H133" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.4">
@@ -4463,7 +4472,7 @@
         <v>11</v>
       </c>
       <c r="H140" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.4">
@@ -5165,7 +5174,7 @@
         <v>10</v>
       </c>
       <c r="H167" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.4">
@@ -5711,7 +5720,7 @@
         <v>14</v>
       </c>
       <c r="H188" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.4">
@@ -6647,7 +6656,7 @@
         <v>14</v>
       </c>
       <c r="H224" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.4">
@@ -6725,7 +6734,7 @@
         <v>14</v>
       </c>
       <c r="H227" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.4">
@@ -6748,7 +6757,7 @@
         <v>43912</v>
       </c>
       <c r="G228" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H228" t="s">
         <v>4</v>
@@ -7115,7 +7124,7 @@
         <v>10</v>
       </c>
       <c r="H242" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.4">
@@ -7453,7 +7462,7 @@
         <v>14</v>
       </c>
       <c r="H255" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.4">
@@ -7531,7 +7540,7 @@
         <v>14</v>
       </c>
       <c r="H258" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.4">
@@ -7583,7 +7592,7 @@
         <v>14</v>
       </c>
       <c r="H260" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.4">
@@ -7609,7 +7618,7 @@
         <v>14</v>
       </c>
       <c r="H261" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.4">
@@ -7635,7 +7644,7 @@
         <v>14</v>
       </c>
       <c r="H262" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.4">
@@ -7661,7 +7670,7 @@
         <v>14</v>
       </c>
       <c r="H263" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.4">
@@ -7687,7 +7696,7 @@
         <v>14</v>
       </c>
       <c r="H264" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.4">
@@ -7713,7 +7722,7 @@
         <v>14</v>
       </c>
       <c r="H265" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.4">
@@ -7739,7 +7748,7 @@
         <v>14</v>
       </c>
       <c r="H266" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.4">
@@ -7765,7 +7774,7 @@
         <v>14</v>
       </c>
       <c r="H267" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.4">
@@ -7973,7 +7982,7 @@
         <v>14</v>
       </c>
       <c r="H275" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.4">
@@ -8805,7 +8814,7 @@
         <v>14</v>
       </c>
       <c r="H307" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.4">
@@ -8987,7 +8996,7 @@
         <v>10</v>
       </c>
       <c r="H314" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.4">
@@ -9013,7 +9022,7 @@
         <v>10</v>
       </c>
       <c r="H315" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.4">
@@ -9065,7 +9074,7 @@
         <v>10</v>
       </c>
       <c r="H317" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.4">
@@ -9091,7 +9100,7 @@
         <v>10</v>
       </c>
       <c r="H318" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.4">
@@ -9169,7 +9178,7 @@
         <v>10</v>
       </c>
       <c r="H321" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.4">
@@ -9195,7 +9204,7 @@
         <v>10</v>
       </c>
       <c r="H322" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.4">
@@ -9221,7 +9230,7 @@
         <v>10</v>
       </c>
       <c r="H323" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.4">
@@ -9273,7 +9282,7 @@
         <v>10</v>
       </c>
       <c r="H325" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.4">
@@ -9296,7 +9305,7 @@
         <v>43913</v>
       </c>
       <c r="G326" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H326" t="s">
         <v>3</v>
@@ -9351,7 +9360,7 @@
         <v>10</v>
       </c>
       <c r="H328" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.4">
@@ -9377,7 +9386,7 @@
         <v>10</v>
       </c>
       <c r="H329" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.4">
@@ -9403,7 +9412,7 @@
         <v>10</v>
       </c>
       <c r="H330" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.4">
@@ -9429,7 +9438,7 @@
         <v>10</v>
       </c>
       <c r="H331" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.4">
@@ -9949,7 +9958,7 @@
         <v>10</v>
       </c>
       <c r="H351" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.4">
@@ -9975,7 +9984,7 @@
         <v>10</v>
       </c>
       <c r="H352" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.4">
@@ -10102,7 +10111,7 @@
         <v>43921</v>
       </c>
       <c r="G357" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H357" t="s">
         <v>4</v>
@@ -10209,7 +10218,7 @@
         <v>10</v>
       </c>
       <c r="H361" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.4">
@@ -10339,7 +10348,7 @@
         <v>10</v>
       </c>
       <c r="H366" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.4">
@@ -10365,7 +10374,7 @@
         <v>10</v>
       </c>
       <c r="H367" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.4">
@@ -10391,7 +10400,7 @@
         <v>10</v>
       </c>
       <c r="H368" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.4">
@@ -10417,7 +10426,7 @@
         <v>10</v>
       </c>
       <c r="H369" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.4">
@@ -10599,7 +10608,7 @@
         <v>14</v>
       </c>
       <c r="H376" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.4">
@@ -11093,7 +11102,7 @@
         <v>10</v>
       </c>
       <c r="H395" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.4">
@@ -11119,7 +11128,7 @@
         <v>10</v>
       </c>
       <c r="H396" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.4">
@@ -11197,7 +11206,7 @@
         <v>10</v>
       </c>
       <c r="H399" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.4">
@@ -11246,10 +11255,10 @@
         <v>43918</v>
       </c>
       <c r="G401" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H401" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.4">
@@ -11327,7 +11336,7 @@
         <v>10</v>
       </c>
       <c r="H404" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="405" spans="1:8" x14ac:dyDescent="0.4">
@@ -11353,7 +11362,7 @@
         <v>10</v>
       </c>
       <c r="H405" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.4">
@@ -11405,7 +11414,7 @@
         <v>10</v>
       </c>
       <c r="H407" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.4">
@@ -11535,7 +11544,7 @@
         <v>10</v>
       </c>
       <c r="H412" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="413" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11587,7 +11596,7 @@
         <v>10</v>
       </c>
       <c r="H414" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="415" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12081,7 +12090,7 @@
         <v>10</v>
       </c>
       <c r="H433" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.4">
@@ -12133,7 +12142,7 @@
         <v>10</v>
       </c>
       <c r="H435" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="436" spans="1:8" x14ac:dyDescent="0.4">
@@ -12289,7 +12298,7 @@
         <v>10</v>
       </c>
       <c r="H441" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
     </row>
     <row r="442" spans="1:8" x14ac:dyDescent="0.4">
@@ -12312,7 +12321,7 @@
         <v>43921</v>
       </c>
       <c r="G442" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H442" t="s">
         <v>4</v>
@@ -12367,7 +12376,7 @@
         <v>10</v>
       </c>
       <c r="H444" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
     </row>
     <row r="445" spans="1:8" x14ac:dyDescent="0.4">
@@ -12419,7 +12428,7 @@
         <v>10</v>
       </c>
       <c r="H446" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
     </row>
     <row r="447" spans="1:8" x14ac:dyDescent="0.4">
@@ -13095,7 +13104,7 @@
         <v>10</v>
       </c>
       <c r="H472" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="473" spans="1:8" x14ac:dyDescent="0.4">
@@ -13381,7 +13390,7 @@
         <v>10</v>
       </c>
       <c r="H483" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="484" spans="1:8" x14ac:dyDescent="0.4">
@@ -13745,7 +13754,7 @@
         <v>10</v>
       </c>
       <c r="H497" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
     </row>
     <row r="498" spans="1:8" x14ac:dyDescent="0.4">
@@ -14213,7 +14222,7 @@
         <v>10</v>
       </c>
       <c r="H515" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="516" spans="1:8" x14ac:dyDescent="0.4">
@@ -15019,7 +15028,7 @@
         <v>10</v>
       </c>
       <c r="H546" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="547" spans="1:8" x14ac:dyDescent="0.4">
@@ -15773,7 +15782,7 @@
         <v>10</v>
       </c>
       <c r="H575" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="576" spans="1:8" x14ac:dyDescent="0.4">
@@ -16137,7 +16146,7 @@
         <v>10</v>
       </c>
       <c r="H589" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="590" spans="1:8" x14ac:dyDescent="0.4">
@@ -23934,10 +23943,10 @@
         <v>46</v>
       </c>
       <c r="G889" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H889" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="890" spans="1:8" x14ac:dyDescent="0.4">
@@ -24457,7 +24466,7 @@
         <v>10</v>
       </c>
       <c r="H909" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="910" spans="1:8" x14ac:dyDescent="0.4">
@@ -25393,7 +25402,7 @@
         <v>10</v>
       </c>
       <c r="H945" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="946" spans="1:8" x14ac:dyDescent="0.4">
@@ -26329,7 +26338,7 @@
         <v>10</v>
       </c>
       <c r="H981" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="982" spans="1:8" x14ac:dyDescent="0.4">
@@ -27005,7 +27014,7 @@
         <v>10</v>
       </c>
       <c r="H1007" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1008" spans="1:8" x14ac:dyDescent="0.4">
@@ -30616,10 +30625,10 @@
         <v>46</v>
       </c>
       <c r="G1146" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="H1146" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1147" spans="1:8" x14ac:dyDescent="0.4">
@@ -31462,7 +31471,7 @@
         <v>43940</v>
       </c>
       <c r="C1179" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D1179" t="s">
         <v>25</v>
@@ -35952,8 +35961,918 @@
         <v>5</v>
       </c>
     </row>
+    <row r="1352" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1352">
+        <v>1350</v>
+      </c>
+      <c r="B1352" s="2">
+        <v>43943</v>
+      </c>
+      <c r="C1352">
+        <v>30</v>
+      </c>
+      <c r="D1352" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1352" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1352" s="1">
+        <v>43937</v>
+      </c>
+      <c r="G1352" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1352" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1353">
+        <v>1351</v>
+      </c>
+      <c r="B1353" s="2">
+        <v>43943</v>
+      </c>
+      <c r="C1353">
+        <v>30</v>
+      </c>
+      <c r="D1353" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1353" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1353" s="1">
+        <v>43936</v>
+      </c>
+      <c r="G1353" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1353" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1354">
+        <v>1352</v>
+      </c>
+      <c r="B1354" s="2">
+        <v>43943</v>
+      </c>
+      <c r="C1354">
+        <v>50</v>
+      </c>
+      <c r="D1354" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1354" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1354" s="1">
+        <v>43940</v>
+      </c>
+      <c r="G1354" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1354" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1355">
+        <v>1353</v>
+      </c>
+      <c r="B1355" s="2">
+        <v>43943</v>
+      </c>
+      <c r="C1355">
+        <v>20</v>
+      </c>
+      <c r="D1355" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1355" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1355" s="1">
+        <v>43939</v>
+      </c>
+      <c r="G1355" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1355" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1356">
+        <v>1350</v>
+      </c>
+      <c r="B1356" s="2">
+        <v>43943</v>
+      </c>
+      <c r="C1356">
+        <v>30</v>
+      </c>
+      <c r="D1356" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1356" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1356" s="1">
+        <v>43937</v>
+      </c>
+      <c r="G1356" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1356" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1357">
+        <v>1351</v>
+      </c>
+      <c r="B1357" s="2">
+        <v>43943</v>
+      </c>
+      <c r="C1357">
+        <v>30</v>
+      </c>
+      <c r="D1357" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1357" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1357" s="1">
+        <v>43936</v>
+      </c>
+      <c r="G1357" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1357" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1358">
+        <v>1352</v>
+      </c>
+      <c r="B1358" s="2">
+        <v>43943</v>
+      </c>
+      <c r="C1358">
+        <v>50</v>
+      </c>
+      <c r="D1358" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1358" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1358" s="1">
+        <v>43940</v>
+      </c>
+      <c r="G1358" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1358" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1359">
+        <v>1353</v>
+      </c>
+      <c r="B1359" s="2">
+        <v>43943</v>
+      </c>
+      <c r="C1359">
+        <v>20</v>
+      </c>
+      <c r="D1359" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1359" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1359" s="1">
+        <v>43939</v>
+      </c>
+      <c r="G1359" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1359" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1360">
+        <v>1354</v>
+      </c>
+      <c r="B1360" s="2">
+        <v>43943</v>
+      </c>
+      <c r="C1360">
+        <v>60</v>
+      </c>
+      <c r="D1360" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1360" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1360" s="1">
+        <v>43934</v>
+      </c>
+      <c r="G1360" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1360" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1361">
+        <v>1355</v>
+      </c>
+      <c r="B1361" s="2">
+        <v>43943</v>
+      </c>
+      <c r="C1361">
+        <v>50</v>
+      </c>
+      <c r="D1361" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1361" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1361" s="1">
+        <v>43935</v>
+      </c>
+      <c r="G1361" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1361" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1362">
+        <v>1356</v>
+      </c>
+      <c r="B1362" s="2">
+        <v>43943</v>
+      </c>
+      <c r="C1362">
+        <v>20</v>
+      </c>
+      <c r="D1362" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1362" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1362" s="1">
+        <v>43934</v>
+      </c>
+      <c r="G1362" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1362" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1363">
+        <v>1357</v>
+      </c>
+      <c r="B1363" s="2">
+        <v>43943</v>
+      </c>
+      <c r="C1363" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1363" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1363" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1363" s="1">
+        <v>43929</v>
+      </c>
+      <c r="G1363" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1363" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1364">
+        <v>1358</v>
+      </c>
+      <c r="B1364" s="2">
+        <v>43943</v>
+      </c>
+      <c r="C1364">
+        <v>30</v>
+      </c>
+      <c r="D1364" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1364" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1364" s="1">
+        <v>43932</v>
+      </c>
+      <c r="G1364" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1364" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1365">
+        <v>1359</v>
+      </c>
+      <c r="B1365" s="2">
+        <v>43943</v>
+      </c>
+      <c r="C1365" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1365" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1365" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1365" s="1">
+        <v>43928</v>
+      </c>
+      <c r="G1365" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1365" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1366">
+        <v>1360</v>
+      </c>
+      <c r="B1366" s="2">
+        <v>43943</v>
+      </c>
+      <c r="C1366">
+        <v>70</v>
+      </c>
+      <c r="D1366" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1366" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1366" s="1">
+        <v>43934</v>
+      </c>
+      <c r="G1366" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1366" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1367">
+        <v>1361</v>
+      </c>
+      <c r="B1367" s="2">
+        <v>43943</v>
+      </c>
+      <c r="C1367">
+        <v>20</v>
+      </c>
+      <c r="D1367" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1367" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1367" s="1">
+        <v>43927</v>
+      </c>
+      <c r="G1367" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1367" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1368">
+        <v>1362</v>
+      </c>
+      <c r="B1368" s="2">
+        <v>43943</v>
+      </c>
+      <c r="C1368">
+        <v>50</v>
+      </c>
+      <c r="D1368" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1368" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1368" s="1">
+        <v>43937</v>
+      </c>
+      <c r="G1368" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1368" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1369">
+        <v>1363</v>
+      </c>
+      <c r="B1369" s="2">
+        <v>43943</v>
+      </c>
+      <c r="C1369">
+        <v>70</v>
+      </c>
+      <c r="D1369" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1369" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1369" s="1">
+        <v>43941</v>
+      </c>
+      <c r="G1369" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1369" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1370">
+        <v>1364</v>
+      </c>
+      <c r="B1370" s="2">
+        <v>43943</v>
+      </c>
+      <c r="C1370">
+        <v>30</v>
+      </c>
+      <c r="D1370" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1370" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1370" s="1">
+        <v>43934</v>
+      </c>
+      <c r="G1370" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1370" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1371">
+        <v>1365</v>
+      </c>
+      <c r="B1371" s="2">
+        <v>43943</v>
+      </c>
+      <c r="C1371" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1371" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1371" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1371" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1371" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1371" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1372">
+        <v>1366</v>
+      </c>
+      <c r="B1372" s="2">
+        <v>43943</v>
+      </c>
+      <c r="C1372" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1372" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1372" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1372" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1372" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1372" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1373">
+        <v>1367</v>
+      </c>
+      <c r="B1373" s="2">
+        <v>43943</v>
+      </c>
+      <c r="C1373" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1373" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1373" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1373" s="1">
+        <v>43930</v>
+      </c>
+      <c r="G1373" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1373" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1374">
+        <v>1368</v>
+      </c>
+      <c r="B1374" s="2">
+        <v>43943</v>
+      </c>
+      <c r="C1374">
+        <v>40</v>
+      </c>
+      <c r="D1374" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1374" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1374" s="1">
+        <v>43931</v>
+      </c>
+      <c r="G1374" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1374" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1375">
+        <v>1369</v>
+      </c>
+      <c r="B1375" s="2">
+        <v>43943</v>
+      </c>
+      <c r="C1375">
+        <v>20</v>
+      </c>
+      <c r="D1375" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1375" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1375" s="1">
+        <v>43929</v>
+      </c>
+      <c r="G1375" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1375" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1376">
+        <v>1370</v>
+      </c>
+      <c r="B1376" s="2">
+        <v>43943</v>
+      </c>
+      <c r="C1376">
+        <v>50</v>
+      </c>
+      <c r="D1376" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1376" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1376" s="1">
+        <v>43927</v>
+      </c>
+      <c r="G1376" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1376" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1377">
+        <v>1371</v>
+      </c>
+      <c r="B1377" s="2">
+        <v>43943</v>
+      </c>
+      <c r="C1377">
+        <v>80</v>
+      </c>
+      <c r="D1377" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1377" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1377" s="1">
+        <v>43935</v>
+      </c>
+      <c r="G1377" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1377" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1378">
+        <v>1372</v>
+      </c>
+      <c r="B1378" s="2">
+        <v>43943</v>
+      </c>
+      <c r="C1378">
+        <v>50</v>
+      </c>
+      <c r="D1378" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1378" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1378" s="1">
+        <v>43928</v>
+      </c>
+      <c r="G1378" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1378" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1379">
+        <v>1373</v>
+      </c>
+      <c r="B1379" s="2">
+        <v>43943</v>
+      </c>
+      <c r="C1379">
+        <v>60</v>
+      </c>
+      <c r="D1379" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1379" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1379" s="1">
+        <v>43936</v>
+      </c>
+      <c r="G1379" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1379" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1380">
+        <v>1374</v>
+      </c>
+      <c r="B1380" s="2">
+        <v>43943</v>
+      </c>
+      <c r="C1380">
+        <v>20</v>
+      </c>
+      <c r="D1380" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1380" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1380" s="1">
+        <v>43938</v>
+      </c>
+      <c r="G1380" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1380" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1381">
+        <v>1375</v>
+      </c>
+      <c r="B1381" s="2">
+        <v>43943</v>
+      </c>
+      <c r="C1381">
+        <v>60</v>
+      </c>
+      <c r="D1381" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1381" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1381" s="1">
+        <v>43937</v>
+      </c>
+      <c r="G1381" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1381" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1382">
+        <v>1376</v>
+      </c>
+      <c r="B1382" s="2">
+        <v>43943</v>
+      </c>
+      <c r="C1382">
+        <v>40</v>
+      </c>
+      <c r="D1382" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1382" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1382" s="1">
+        <v>43933</v>
+      </c>
+      <c r="G1382" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1382" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1383">
+        <v>1377</v>
+      </c>
+      <c r="B1383" s="2">
+        <v>43943</v>
+      </c>
+      <c r="C1383">
+        <v>50</v>
+      </c>
+      <c r="D1383" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1383" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1383" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1383" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1383" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1384">
+        <v>1378</v>
+      </c>
+      <c r="B1384" s="2">
+        <v>43943</v>
+      </c>
+      <c r="C1384">
+        <v>20</v>
+      </c>
+      <c r="D1384" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1384" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1384" s="1">
+        <v>43939</v>
+      </c>
+      <c r="G1384" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1384" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1385">
+        <v>1379</v>
+      </c>
+      <c r="B1385" s="2">
+        <v>43943</v>
+      </c>
+      <c r="C1385">
+        <v>70</v>
+      </c>
+      <c r="D1385" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1385" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1385" s="1">
+        <v>43935</v>
+      </c>
+      <c r="G1385" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1385" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1386">
+        <v>1380</v>
+      </c>
+      <c r="B1386" s="2">
+        <v>43943</v>
+      </c>
+      <c r="C1386">
+        <v>70</v>
+      </c>
+      <c r="D1386" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1386" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1386" s="1">
+        <v>43937</v>
+      </c>
+      <c r="G1386" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1386" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:H1351"/>
+  <autoFilter ref="A2:H1386"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -35961,10 +36880,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L90"/>
+  <dimension ref="A1:L91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K60" sqref="K60:K61"/>
+      <selection activeCell="O94" sqref="O94:P94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -35974,7 +36893,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="3">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="B1" t="s">
         <v>60</v>
@@ -38959,10 +39878,10 @@
         <v>657</v>
       </c>
       <c r="F80">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G80">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H80">
         <v>7</v>
@@ -39000,7 +39919,7 @@
         <v>4</v>
       </c>
       <c r="G81">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H81">
         <v>4</v>
@@ -39038,7 +39957,7 @@
         <v>18</v>
       </c>
       <c r="G82">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H82">
         <v>17</v>
@@ -39076,7 +39995,7 @@
         <v>8</v>
       </c>
       <c r="G83">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H83">
         <v>4</v>
@@ -39114,7 +40033,7 @@
         <v>23</v>
       </c>
       <c r="G84">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H84">
         <v>15</v>
@@ -39152,7 +40071,7 @@
         <v>12</v>
       </c>
       <c r="G85">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H85">
         <v>29</v>
@@ -39190,7 +40109,7 @@
         <v>17</v>
       </c>
       <c r="G86">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H86">
         <v>14</v>
@@ -39228,7 +40147,7 @@
         <v>12</v>
       </c>
       <c r="G87">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H87">
         <v>10</v>
@@ -39266,7 +40185,7 @@
         <v>21</v>
       </c>
       <c r="G88">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H88">
         <v>19</v>
@@ -39301,10 +40220,10 @@
         <v>1061</v>
       </c>
       <c r="F89">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G89">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H89">
         <v>17</v>
@@ -39323,23 +40242,61 @@
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A90" s="4" t="s">
+      <c r="A90" s="2">
+        <v>43943</v>
+      </c>
+      <c r="B90">
+        <v>592</v>
+      </c>
+      <c r="C90">
+        <v>31</v>
+      </c>
+      <c r="D90">
+        <v>1380</v>
+      </c>
+      <c r="E90">
+        <v>1071</v>
+      </c>
+      <c r="F90">
+        <v>16</v>
+      </c>
+      <c r="G90">
+        <v>291</v>
+      </c>
+      <c r="H90">
+        <v>18</v>
+      </c>
+      <c r="I90">
+        <v>291</v>
+      </c>
+      <c r="J90">
+        <v>3</v>
+      </c>
+      <c r="K90">
+        <v>11</v>
+      </c>
+      <c r="L90">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A91" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B90">
-        <v>11513</v>
-      </c>
-      <c r="C90">
-        <v>1349</v>
-      </c>
-      <c r="F90">
-        <v>273</v>
-      </c>
-      <c r="H90">
-        <v>273</v>
-      </c>
-      <c r="J90">
-        <v>15</v>
+      <c r="B91">
+        <v>12105</v>
+      </c>
+      <c r="C91">
+        <v>1380</v>
+      </c>
+      <c r="F91">
+        <v>291</v>
+      </c>
+      <c r="H91">
+        <v>291</v>
+      </c>
+      <c r="J91">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/data/patients_and_inspections.xlsx
+++ b/data/patients_and_inspections.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hasse\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1926484C-8603-46A2-BB60-F046406C1405}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6BBCA5-34BE-4FB4-B346-66452F8F332E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="【公開OK】ピポット集計" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6251" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6254" uniqueCount="93">
   <si>
     <t>（1）入退院の状況</t>
   </si>
@@ -286,10 +286,6 @@
     <t>河南町</t>
   </si>
   <si>
-    <t>退院</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ー</t>
   </si>
   <si>
@@ -300,7 +296,54 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>自宅療養</t>
+    <rPh sb="0" eb="2">
+      <t>ジタク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リョウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宿泊療養</t>
+    <rPh sb="0" eb="2">
+      <t>シュクハク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リョウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>療養等調整中</t>
+    <rPh sb="0" eb="6">
+      <t>リョウヨウトウチョウセイチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>退院</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>退院</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>退院</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>退院</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>退院</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>就学児</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -682,9 +725,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:B18"/>
+  <dimension ref="A2:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -714,7 +759,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>904</v>
+        <v>450</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
@@ -722,7 +767,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
@@ -800,6 +845,30 @@
       </c>
       <c r="B18">
         <v>1475</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -813,7 +882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H1477"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -853,7 +922,7 @@
         <v>22</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
@@ -4259,7 +4328,7 @@
         <v>14</v>
       </c>
       <c r="H133" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.4">
@@ -5689,7 +5758,7 @@
         <v>14</v>
       </c>
       <c r="H188" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.4">
@@ -6625,7 +6694,7 @@
         <v>14</v>
       </c>
       <c r="H224" s="7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.4">
@@ -6703,7 +6772,7 @@
         <v>14</v>
       </c>
       <c r="H227" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.4">
@@ -7093,7 +7162,7 @@
         <v>14</v>
       </c>
       <c r="H242" s="7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.4">
@@ -7431,7 +7500,7 @@
         <v>14</v>
       </c>
       <c r="H255" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.4">
@@ -7509,7 +7578,7 @@
         <v>14</v>
       </c>
       <c r="H258" s="7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.4">
@@ -7561,7 +7630,7 @@
         <v>14</v>
       </c>
       <c r="H260" s="7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.4">
@@ -7587,7 +7656,7 @@
         <v>14</v>
       </c>
       <c r="H261" s="7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.4">
@@ -7613,7 +7682,7 @@
         <v>14</v>
       </c>
       <c r="H262" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.4">
@@ -7639,7 +7708,7 @@
         <v>14</v>
       </c>
       <c r="H263" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.4">
@@ -7665,7 +7734,7 @@
         <v>14</v>
       </c>
       <c r="H264" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.4">
@@ -7691,7 +7760,7 @@
         <v>14</v>
       </c>
       <c r="H265" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.4">
@@ -7717,7 +7786,7 @@
         <v>14</v>
       </c>
       <c r="H266" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.4">
@@ -7743,7 +7812,7 @@
         <v>14</v>
       </c>
       <c r="H267" s="7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.4">
@@ -7951,7 +8020,7 @@
         <v>14</v>
       </c>
       <c r="H275" s="7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.4">
@@ -8783,7 +8852,7 @@
         <v>14</v>
       </c>
       <c r="H307" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.4">
@@ -8965,7 +9034,7 @@
         <v>14</v>
       </c>
       <c r="H314" s="7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.4">
@@ -8991,7 +9060,7 @@
         <v>14</v>
       </c>
       <c r="H315" s="7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.4">
@@ -9043,7 +9112,7 @@
         <v>14</v>
       </c>
       <c r="H317" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.4">
@@ -9069,7 +9138,7 @@
         <v>14</v>
       </c>
       <c r="H318" s="7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.4">
@@ -9147,7 +9216,7 @@
         <v>14</v>
       </c>
       <c r="H321" s="7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.4">
@@ -9173,7 +9242,7 @@
         <v>14</v>
       </c>
       <c r="H322" s="7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.4">
@@ -9199,7 +9268,7 @@
         <v>14</v>
       </c>
       <c r="H323" s="7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.4">
@@ -9251,7 +9320,7 @@
         <v>14</v>
       </c>
       <c r="H325" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.4">
@@ -9329,7 +9398,7 @@
         <v>14</v>
       </c>
       <c r="H328" s="7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.4">
@@ -9355,7 +9424,7 @@
         <v>14</v>
       </c>
       <c r="H329" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.4">
@@ -9381,7 +9450,7 @@
         <v>14</v>
       </c>
       <c r="H330" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.4">
@@ -9407,7 +9476,7 @@
         <v>14</v>
       </c>
       <c r="H331" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.4">
@@ -9927,7 +9996,7 @@
         <v>14</v>
       </c>
       <c r="H351" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.4">
@@ -9953,7 +10022,7 @@
         <v>14</v>
       </c>
       <c r="H352" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.4">
@@ -10187,7 +10256,7 @@
         <v>14</v>
       </c>
       <c r="H361" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.4">
@@ -10317,7 +10386,7 @@
         <v>14</v>
       </c>
       <c r="H366" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.4">
@@ -10343,7 +10412,7 @@
         <v>14</v>
       </c>
       <c r="H367" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.4">
@@ -10369,7 +10438,7 @@
         <v>14</v>
       </c>
       <c r="H368" s="7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.4">
@@ -10395,7 +10464,7 @@
         <v>14</v>
       </c>
       <c r="H369" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.4">
@@ -10577,7 +10646,7 @@
         <v>14</v>
       </c>
       <c r="H376" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.4">
@@ -11071,7 +11140,7 @@
         <v>14</v>
       </c>
       <c r="H395" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.4">
@@ -11097,7 +11166,7 @@
         <v>14</v>
       </c>
       <c r="H396" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.4">
@@ -11175,7 +11244,7 @@
         <v>14</v>
       </c>
       <c r="H399" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.4">
@@ -11331,7 +11400,7 @@
         <v>14</v>
       </c>
       <c r="H405" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.4">
@@ -11383,7 +11452,7 @@
         <v>14</v>
       </c>
       <c r="H407" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.4">
@@ -11461,7 +11530,7 @@
         <v>14</v>
       </c>
       <c r="H410" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="411" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11513,7 +11582,7 @@
         <v>14</v>
       </c>
       <c r="H412" s="7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="413" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11565,7 +11634,7 @@
         <v>14</v>
       </c>
       <c r="H414" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="415" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12059,7 +12128,7 @@
         <v>14</v>
       </c>
       <c r="H433" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.4">
@@ -12267,7 +12336,7 @@
         <v>14</v>
       </c>
       <c r="H441" s="7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="442" spans="1:8" x14ac:dyDescent="0.4">
@@ -12345,7 +12414,7 @@
         <v>14</v>
       </c>
       <c r="H444" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="445" spans="1:8" x14ac:dyDescent="0.4">
@@ -12397,7 +12466,7 @@
         <v>14</v>
       </c>
       <c r="H446" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="447" spans="1:8" x14ac:dyDescent="0.4">
@@ -13567,7 +13636,7 @@
         <v>14</v>
       </c>
       <c r="H491" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="492" spans="1:8" x14ac:dyDescent="0.4">
@@ -13723,7 +13792,7 @@
         <v>14</v>
       </c>
       <c r="H497" s="7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="498" spans="1:8" x14ac:dyDescent="0.4">
@@ -16115,7 +16184,7 @@
         <v>14</v>
       </c>
       <c r="H589" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="590" spans="1:8" x14ac:dyDescent="0.4">
@@ -17207,7 +17276,7 @@
         <v>14</v>
       </c>
       <c r="H631" s="7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="632" spans="1:8" x14ac:dyDescent="0.4">
@@ -25371,7 +25440,7 @@
         <v>14</v>
       </c>
       <c r="H945" s="7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="946" spans="1:8" x14ac:dyDescent="0.4">
@@ -31440,7 +31509,7 @@
         <v>43940</v>
       </c>
       <c r="C1179" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="D1179" t="s">
         <v>25</v>
@@ -33451,7 +33520,7 @@
         <v>24</v>
       </c>
       <c r="F1256" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G1256" t="s">
         <v>12</v>
@@ -33529,7 +33598,7 @@
         <v>32</v>
       </c>
       <c r="F1259" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G1259" t="s">
         <v>12</v>
@@ -37611,7 +37680,7 @@
         <v>30</v>
       </c>
       <c r="F1416" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G1416" t="s">
         <v>12</v>
@@ -38313,7 +38382,7 @@
         <v>24</v>
       </c>
       <c r="F1443" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G1443" t="s">
         <v>12</v>
@@ -38602,7 +38671,7 @@
         <v>43941</v>
       </c>
       <c r="G1454" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H1454" s="7" t="s">
         <v>5</v>
@@ -39263,7 +39332,7 @@
         <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">

--- a/data/patients_and_inspections.xlsx
+++ b/data/patients_and_inspections.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hasse\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\コロナ対策サイト\0427\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6BBCA5-34BE-4FB4-B346-66452F8F332E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6030" yWindow="465" windowWidth="33000" windowHeight="19155" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="【公開OK】ピポット集計" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="【公開OK】コロナサイト用（日付ベース）" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'【公開OK】府HP用(陽性者ベース)'!$A$2:$H$1477</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'【公開OK】府HP用(陽性者ベース)'!$A$2:$H$1493</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6254" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6320" uniqueCount="90">
   <si>
     <t>（1）入退院の状況</t>
   </si>
@@ -244,9 +243,6 @@
     <t>退院判明累計</t>
   </si>
   <si>
-    <t>計</t>
-  </si>
-  <si>
     <t>四條畷市</t>
   </si>
   <si>
@@ -286,6 +282,10 @@
     <t>河南町</t>
   </si>
   <si>
+    <t>退院</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>ー</t>
   </si>
   <si>
@@ -294,6 +294,13 @@
       <t>フメイシャ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>計</t>
+    <rPh sb="0" eb="1">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>自宅療養</t>
@@ -327,22 +334,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>退院</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>退院</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>退院</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>退院</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>就学児</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -350,11 +341,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -390,6 +381,15 @@
       <sz val="11"/>
       <name val="游ゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -447,7 +447,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -724,10 +724,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -751,7 +751,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>404</v>
+        <v>424</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -759,7 +759,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>450</v>
+        <v>417</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
@@ -767,7 +767,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>133</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
@@ -775,7 +775,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
@@ -783,7 +783,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1475</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
@@ -804,7 +804,7 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <v>953</v>
+        <v>945</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
@@ -812,7 +812,7 @@
         <v>11</v>
       </c>
       <c r="B14">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
@@ -820,7 +820,7 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
@@ -828,7 +828,7 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
@@ -836,7 +836,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>404</v>
+        <v>424</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
@@ -849,23 +849,23 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B20">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B21">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B22">
         <v>6</v>
@@ -879,10 +879,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H1477"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H1493"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A1476" workbookViewId="0">
+      <selection activeCell="B1476" sqref="B1476"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -893,7 +895,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="3">
-        <v>43946</v>
+        <v>43947</v>
       </c>
       <c r="B1" t="s">
         <v>60</v>
@@ -922,7 +924,7 @@
         <v>22</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
@@ -3392,7 +3394,7 @@
         <v>10</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.4">
@@ -4663,10 +4665,10 @@
         <v>43912</v>
       </c>
       <c r="G146" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H146" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.4">
@@ -4692,7 +4694,7 @@
         <v>10</v>
       </c>
       <c r="H147" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.4">
@@ -5758,7 +5760,7 @@
         <v>14</v>
       </c>
       <c r="H188" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.4">
@@ -5914,7 +5916,7 @@
         <v>10</v>
       </c>
       <c r="H194" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.4">
@@ -6041,10 +6043,10 @@
         <v>43917</v>
       </c>
       <c r="G199" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H199" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.4">
@@ -6171,10 +6173,10 @@
         <v>43917</v>
       </c>
       <c r="G204" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H204" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.4">
@@ -6356,7 +6358,7 @@
         <v>10</v>
       </c>
       <c r="H211" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.4">
@@ -6382,7 +6384,7 @@
         <v>10</v>
       </c>
       <c r="H212" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.4">
@@ -6564,7 +6566,7 @@
         <v>10</v>
       </c>
       <c r="H219" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.4">
@@ -6642,7 +6644,7 @@
         <v>10</v>
       </c>
       <c r="H222" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.4">
@@ -6694,7 +6696,7 @@
         <v>14</v>
       </c>
       <c r="H224" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.4">
@@ -6772,7 +6774,7 @@
         <v>14</v>
       </c>
       <c r="H227" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.4">
@@ -7084,7 +7086,7 @@
         <v>10</v>
       </c>
       <c r="H239" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.4">
@@ -7162,7 +7164,7 @@
         <v>14</v>
       </c>
       <c r="H242" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.4">
@@ -7188,7 +7190,7 @@
         <v>10</v>
       </c>
       <c r="H243" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.4">
@@ -7422,7 +7424,7 @@
         <v>12</v>
       </c>
       <c r="H252" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.4">
@@ -7474,7 +7476,7 @@
         <v>12</v>
       </c>
       <c r="H254" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.4">
@@ -7500,7 +7502,7 @@
         <v>14</v>
       </c>
       <c r="H255" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.4">
@@ -7526,7 +7528,7 @@
         <v>12</v>
       </c>
       <c r="H256" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.4">
@@ -7578,7 +7580,7 @@
         <v>14</v>
       </c>
       <c r="H258" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.4">
@@ -7630,7 +7632,7 @@
         <v>14</v>
       </c>
       <c r="H260" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.4">
@@ -7656,7 +7658,7 @@
         <v>14</v>
       </c>
       <c r="H261" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.4">
@@ -7682,7 +7684,7 @@
         <v>14</v>
       </c>
       <c r="H262" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.4">
@@ -7708,7 +7710,7 @@
         <v>14</v>
       </c>
       <c r="H263" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.4">
@@ -7812,7 +7814,7 @@
         <v>14</v>
       </c>
       <c r="H267" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.4">
@@ -8020,7 +8022,7 @@
         <v>14</v>
       </c>
       <c r="H275" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.4">
@@ -8150,7 +8152,7 @@
         <v>10</v>
       </c>
       <c r="H280" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.4">
@@ -8202,7 +8204,7 @@
         <v>10</v>
       </c>
       <c r="H282" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.4">
@@ -8670,7 +8672,7 @@
         <v>10</v>
       </c>
       <c r="H300" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.4">
@@ -8852,7 +8854,7 @@
         <v>14</v>
       </c>
       <c r="H307" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.4">
@@ -9034,7 +9036,7 @@
         <v>14</v>
       </c>
       <c r="H314" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.4">
@@ -9060,7 +9062,7 @@
         <v>14</v>
       </c>
       <c r="H315" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.4">
@@ -9138,7 +9140,7 @@
         <v>14</v>
       </c>
       <c r="H318" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.4">
@@ -9216,7 +9218,7 @@
         <v>14</v>
       </c>
       <c r="H321" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.4">
@@ -9242,7 +9244,7 @@
         <v>14</v>
       </c>
       <c r="H322" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.4">
@@ -9268,7 +9270,7 @@
         <v>14</v>
       </c>
       <c r="H323" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.4">
@@ -9320,7 +9322,7 @@
         <v>14</v>
       </c>
       <c r="H325" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.4">
@@ -9398,7 +9400,7 @@
         <v>14</v>
       </c>
       <c r="H328" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.4">
@@ -9424,7 +9426,7 @@
         <v>14</v>
       </c>
       <c r="H329" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.4">
@@ -9450,7 +9452,7 @@
         <v>14</v>
       </c>
       <c r="H330" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.4">
@@ -9476,7 +9478,7 @@
         <v>14</v>
       </c>
       <c r="H331" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.4">
@@ -9554,7 +9556,7 @@
         <v>10</v>
       </c>
       <c r="H334" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.4">
@@ -9632,7 +9634,7 @@
         <v>10</v>
       </c>
       <c r="H337" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.4">
@@ -9684,7 +9686,7 @@
         <v>10</v>
       </c>
       <c r="H339" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.4">
@@ -9710,7 +9712,7 @@
         <v>10</v>
       </c>
       <c r="H340" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.4">
@@ -10308,7 +10310,7 @@
         <v>10</v>
       </c>
       <c r="H363" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.4">
@@ -10386,7 +10388,7 @@
         <v>14</v>
       </c>
       <c r="H366" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.4">
@@ -10438,7 +10440,7 @@
         <v>14</v>
       </c>
       <c r="H368" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.4">
@@ -10464,7 +10466,7 @@
         <v>14</v>
       </c>
       <c r="H369" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.4">
@@ -10620,7 +10622,7 @@
         <v>10</v>
       </c>
       <c r="H375" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.4">
@@ -10724,7 +10726,7 @@
         <v>10</v>
       </c>
       <c r="H379" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.4">
@@ -10767,7 +10769,7 @@
         <v>25</v>
       </c>
       <c r="E381" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F381" s="1">
         <v>43921</v>
@@ -11105,7 +11107,7 @@
         <v>25</v>
       </c>
       <c r="E394" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F394" s="1">
         <v>43921</v>
@@ -11244,7 +11246,7 @@
         <v>14</v>
       </c>
       <c r="H399" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.4">
@@ -11400,7 +11402,7 @@
         <v>14</v>
       </c>
       <c r="H405" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.4">
@@ -11452,7 +11454,7 @@
         <v>14</v>
       </c>
       <c r="H407" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.4">
@@ -11530,7 +11532,7 @@
         <v>14</v>
       </c>
       <c r="H410" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="411" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11582,7 +11584,7 @@
         <v>14</v>
       </c>
       <c r="H412" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="413" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11634,7 +11636,7 @@
         <v>14</v>
       </c>
       <c r="H414" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="415" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11816,7 +11818,7 @@
         <v>10</v>
       </c>
       <c r="H421" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="422" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11963,7 +11965,7 @@
         <v>23</v>
       </c>
       <c r="E427" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F427" s="6">
         <v>43914</v>
@@ -11972,7 +11974,7 @@
         <v>10</v>
       </c>
       <c r="H427" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="428" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11995,10 +11997,10 @@
         <v>43920</v>
       </c>
       <c r="G428" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H428" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="429" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12050,7 +12052,7 @@
         <v>10</v>
       </c>
       <c r="H430" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="431" spans="1:8" x14ac:dyDescent="0.4">
@@ -12128,7 +12130,7 @@
         <v>14</v>
       </c>
       <c r="H433" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.4">
@@ -12258,7 +12260,7 @@
         <v>10</v>
       </c>
       <c r="H438" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="439" spans="1:8" x14ac:dyDescent="0.4">
@@ -12284,7 +12286,7 @@
         <v>10</v>
       </c>
       <c r="H439" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="440" spans="1:8" x14ac:dyDescent="0.4">
@@ -12310,7 +12312,7 @@
         <v>10</v>
       </c>
       <c r="H440" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.4">
@@ -12336,7 +12338,7 @@
         <v>14</v>
       </c>
       <c r="H441" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="442" spans="1:8" x14ac:dyDescent="0.4">
@@ -12414,7 +12416,7 @@
         <v>14</v>
       </c>
       <c r="H444" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="445" spans="1:8" x14ac:dyDescent="0.4">
@@ -12466,7 +12468,7 @@
         <v>14</v>
       </c>
       <c r="H446" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="447" spans="1:8" x14ac:dyDescent="0.4">
@@ -12596,7 +12598,7 @@
         <v>10</v>
       </c>
       <c r="H451" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.4">
@@ -12726,7 +12728,7 @@
         <v>10</v>
       </c>
       <c r="H456" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.4">
@@ -12778,7 +12780,7 @@
         <v>10</v>
       </c>
       <c r="H458" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.4">
@@ -12830,7 +12832,7 @@
         <v>10</v>
       </c>
       <c r="H460" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.4">
@@ -12960,7 +12962,7 @@
         <v>10</v>
       </c>
       <c r="H465" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="466" spans="1:8" x14ac:dyDescent="0.4">
@@ -13064,7 +13066,7 @@
         <v>10</v>
       </c>
       <c r="H469" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="470" spans="1:8" x14ac:dyDescent="0.4">
@@ -13116,7 +13118,7 @@
         <v>10</v>
       </c>
       <c r="H471" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="472" spans="1:8" x14ac:dyDescent="0.4">
@@ -13220,7 +13222,7 @@
         <v>10</v>
       </c>
       <c r="H475" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="476" spans="1:8" x14ac:dyDescent="0.4">
@@ -13321,10 +13323,10 @@
         <v>43923</v>
       </c>
       <c r="G479" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H479" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="480" spans="1:8" x14ac:dyDescent="0.4">
@@ -13506,7 +13508,7 @@
         <v>10</v>
       </c>
       <c r="H486" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="487" spans="1:8" x14ac:dyDescent="0.4">
@@ -13610,7 +13612,7 @@
         <v>10</v>
       </c>
       <c r="H490" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="491" spans="1:8" x14ac:dyDescent="0.4">
@@ -13662,7 +13664,7 @@
         <v>12</v>
       </c>
       <c r="H492" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="493" spans="1:8" x14ac:dyDescent="0.4">
@@ -13705,7 +13707,7 @@
         <v>23</v>
       </c>
       <c r="E494" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F494" s="1">
         <v>43921</v>
@@ -13731,7 +13733,7 @@
         <v>25</v>
       </c>
       <c r="E495" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F495" s="1">
         <v>43925</v>
@@ -13792,7 +13794,7 @@
         <v>14</v>
       </c>
       <c r="H497" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="498" spans="1:8" x14ac:dyDescent="0.4">
@@ -13818,7 +13820,7 @@
         <v>10</v>
       </c>
       <c r="H498" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="499" spans="1:8" x14ac:dyDescent="0.4">
@@ -13870,7 +13872,7 @@
         <v>10</v>
       </c>
       <c r="H500" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="501" spans="1:8" x14ac:dyDescent="0.4">
@@ -13896,7 +13898,7 @@
         <v>10</v>
       </c>
       <c r="H501" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="502" spans="1:8" x14ac:dyDescent="0.4">
@@ -13922,7 +13924,7 @@
         <v>10</v>
       </c>
       <c r="H502" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="503" spans="1:8" x14ac:dyDescent="0.4">
@@ -13948,7 +13950,7 @@
         <v>10</v>
       </c>
       <c r="H503" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="504" spans="1:8" x14ac:dyDescent="0.4">
@@ -13974,7 +13976,7 @@
         <v>10</v>
       </c>
       <c r="H504" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="505" spans="1:8" x14ac:dyDescent="0.4">
@@ -14000,7 +14002,7 @@
         <v>10</v>
       </c>
       <c r="H505" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="506" spans="1:8" x14ac:dyDescent="0.4">
@@ -14026,7 +14028,7 @@
         <v>10</v>
       </c>
       <c r="H506" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="507" spans="1:8" x14ac:dyDescent="0.4">
@@ -14052,7 +14054,7 @@
         <v>10</v>
       </c>
       <c r="H507" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="508" spans="1:8" x14ac:dyDescent="0.4">
@@ -14078,7 +14080,7 @@
         <v>10</v>
       </c>
       <c r="H508" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="509" spans="1:8" x14ac:dyDescent="0.4">
@@ -14130,7 +14132,7 @@
         <v>10</v>
       </c>
       <c r="H510" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="511" spans="1:8" x14ac:dyDescent="0.4">
@@ -14338,7 +14340,7 @@
         <v>10</v>
       </c>
       <c r="H518" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="519" spans="1:8" x14ac:dyDescent="0.4">
@@ -14364,7 +14366,7 @@
         <v>10</v>
       </c>
       <c r="H519" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="520" spans="1:8" x14ac:dyDescent="0.4">
@@ -14442,7 +14444,7 @@
         <v>10</v>
       </c>
       <c r="H522" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="523" spans="1:8" x14ac:dyDescent="0.4">
@@ -14465,10 +14467,10 @@
         <v>43920</v>
       </c>
       <c r="G523" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H523" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="524" spans="1:8" x14ac:dyDescent="0.4">
@@ -14485,7 +14487,7 @@
         <v>25</v>
       </c>
       <c r="E524" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F524" s="1">
         <v>43920</v>
@@ -14832,7 +14834,7 @@
         <v>10</v>
       </c>
       <c r="H537" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="538" spans="1:8" x14ac:dyDescent="0.4">
@@ -14933,10 +14935,10 @@
         <v>43920</v>
       </c>
       <c r="G541" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H541" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="542" spans="1:8" x14ac:dyDescent="0.4">
@@ -15609,10 +15611,10 @@
         <v>43926</v>
       </c>
       <c r="G567" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H567" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="568" spans="1:8" x14ac:dyDescent="0.4">
@@ -15690,7 +15692,7 @@
         <v>10</v>
       </c>
       <c r="H570" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="571" spans="1:8" x14ac:dyDescent="0.4">
@@ -15739,10 +15741,10 @@
         <v>43927</v>
       </c>
       <c r="G572" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H572" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="573" spans="1:8" x14ac:dyDescent="0.4">
@@ -16184,7 +16186,7 @@
         <v>14</v>
       </c>
       <c r="H589" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="590" spans="1:8" x14ac:dyDescent="0.4">
@@ -16678,7 +16680,7 @@
         <v>10</v>
       </c>
       <c r="H608" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="609" spans="1:8" x14ac:dyDescent="0.4">
@@ -16857,10 +16859,10 @@
         <v>43925</v>
       </c>
       <c r="G615" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H615" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="616" spans="1:8" x14ac:dyDescent="0.4">
@@ -16886,7 +16888,7 @@
         <v>10</v>
       </c>
       <c r="H616" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="617" spans="1:8" x14ac:dyDescent="0.4">
@@ -16935,10 +16937,10 @@
         <v>43929</v>
       </c>
       <c r="G618" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H618" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="619" spans="1:8" x14ac:dyDescent="0.4">
@@ -17059,7 +17061,7 @@
         <v>23</v>
       </c>
       <c r="E623" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F623" s="1">
         <v>43925</v>
@@ -17094,7 +17096,7 @@
         <v>10</v>
       </c>
       <c r="H624" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="625" spans="1:8" x14ac:dyDescent="0.4">
@@ -17163,7 +17165,7 @@
         <v>25</v>
       </c>
       <c r="E627" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F627" s="1">
         <v>43925</v>
@@ -17189,7 +17191,7 @@
         <v>25</v>
       </c>
       <c r="E628" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F628" s="1">
         <v>43922</v>
@@ -17224,7 +17226,7 @@
         <v>10</v>
       </c>
       <c r="H629" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="630" spans="1:8" x14ac:dyDescent="0.4">
@@ -17276,7 +17278,7 @@
         <v>14</v>
       </c>
       <c r="H631" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="632" spans="1:8" x14ac:dyDescent="0.4">
@@ -18290,7 +18292,7 @@
         <v>10</v>
       </c>
       <c r="H670" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="671" spans="1:8" x14ac:dyDescent="0.4">
@@ -18521,10 +18523,10 @@
         <v>43924</v>
       </c>
       <c r="G679" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H679" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="680" spans="1:8" x14ac:dyDescent="0.4">
@@ -18541,7 +18543,7 @@
         <v>23</v>
       </c>
       <c r="E680" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F680" s="1">
         <v>43930</v>
@@ -18602,7 +18604,7 @@
         <v>10</v>
       </c>
       <c r="H682" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="683" spans="1:8" x14ac:dyDescent="0.4">
@@ -18654,7 +18656,7 @@
         <v>10</v>
       </c>
       <c r="H684" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="685" spans="1:8" x14ac:dyDescent="0.4">
@@ -18706,7 +18708,7 @@
         <v>10</v>
       </c>
       <c r="H686" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="687" spans="1:8" x14ac:dyDescent="0.4">
@@ -19382,7 +19384,7 @@
         <v>10</v>
       </c>
       <c r="H712" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="713" spans="1:8" x14ac:dyDescent="0.4">
@@ -19798,7 +19800,7 @@
         <v>10</v>
       </c>
       <c r="H728" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="729" spans="1:8" x14ac:dyDescent="0.4">
@@ -20136,7 +20138,7 @@
         <v>10</v>
       </c>
       <c r="H741" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="742" spans="1:8" x14ac:dyDescent="0.4">
@@ -20292,7 +20294,7 @@
         <v>10</v>
       </c>
       <c r="H747" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="748" spans="1:8" x14ac:dyDescent="0.4">
@@ -20500,7 +20502,7 @@
         <v>10</v>
       </c>
       <c r="H755" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="756" spans="1:8" x14ac:dyDescent="0.4">
@@ -20578,7 +20580,7 @@
         <v>10</v>
       </c>
       <c r="H758" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="759" spans="1:8" x14ac:dyDescent="0.4">
@@ -20630,7 +20632,7 @@
         <v>10</v>
       </c>
       <c r="H760" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="761" spans="1:8" x14ac:dyDescent="0.4">
@@ -20656,7 +20658,7 @@
         <v>10</v>
       </c>
       <c r="H761" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="762" spans="1:8" x14ac:dyDescent="0.4">
@@ -20699,7 +20701,7 @@
         <v>25</v>
       </c>
       <c r="E763" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F763" s="1">
         <v>43925</v>
@@ -20734,7 +20736,7 @@
         <v>10</v>
       </c>
       <c r="H764" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="765" spans="1:8" x14ac:dyDescent="0.4">
@@ -21150,7 +21152,7 @@
         <v>10</v>
       </c>
       <c r="H780" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="781" spans="1:8" x14ac:dyDescent="0.4">
@@ -21176,7 +21178,7 @@
         <v>10</v>
       </c>
       <c r="H781" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="782" spans="1:8" x14ac:dyDescent="0.4">
@@ -21202,7 +21204,7 @@
         <v>10</v>
       </c>
       <c r="H782" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="783" spans="1:8" x14ac:dyDescent="0.4">
@@ -22129,7 +22131,7 @@
         <v>23</v>
       </c>
       <c r="E818" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F818" s="1">
         <v>43932</v>
@@ -22288,7 +22290,7 @@
         <v>24</v>
       </c>
       <c r="F824" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G824" t="s">
         <v>11</v>
@@ -22450,7 +22452,7 @@
         <v>10</v>
       </c>
       <c r="H830" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="831" spans="1:8" x14ac:dyDescent="0.4">
@@ -22476,7 +22478,7 @@
         <v>10</v>
       </c>
       <c r="H831" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="832" spans="1:8" x14ac:dyDescent="0.4">
@@ -22502,7 +22504,7 @@
         <v>10</v>
       </c>
       <c r="H832" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="833" spans="1:8" x14ac:dyDescent="0.4">
@@ -22938,7 +22940,7 @@
         <v>24</v>
       </c>
       <c r="F849" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G849" t="s">
         <v>10</v>
@@ -23204,7 +23206,7 @@
         <v>10</v>
       </c>
       <c r="H859" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="860" spans="1:8" x14ac:dyDescent="0.4">
@@ -23230,7 +23232,7 @@
         <v>10</v>
       </c>
       <c r="H860" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="861" spans="1:8" x14ac:dyDescent="0.4">
@@ -23715,10 +23717,10 @@
         <v>25</v>
       </c>
       <c r="E879" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F879" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G879" t="s">
         <v>14</v>
@@ -23750,7 +23752,7 @@
         <v>10</v>
       </c>
       <c r="H880" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="881" spans="1:8" x14ac:dyDescent="0.4">
@@ -23799,10 +23801,10 @@
         <v>43930</v>
       </c>
       <c r="G882" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H882" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="883" spans="1:8" x14ac:dyDescent="0.4">
@@ -24677,7 +24679,7 @@
         <v>23</v>
       </c>
       <c r="E916" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F916" s="1">
         <v>43927</v>
@@ -24703,7 +24705,7 @@
         <v>23</v>
       </c>
       <c r="E917" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F917" s="1">
         <v>43929</v>
@@ -24816,7 +24818,7 @@
         <v>10</v>
       </c>
       <c r="H921" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="922" spans="1:8" x14ac:dyDescent="0.4">
@@ -24998,7 +25000,7 @@
         <v>10</v>
       </c>
       <c r="H928" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="929" spans="1:8" x14ac:dyDescent="0.4">
@@ -25284,7 +25286,7 @@
         <v>10</v>
       </c>
       <c r="H939" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="940" spans="1:8" x14ac:dyDescent="0.4">
@@ -25310,7 +25312,7 @@
         <v>10</v>
       </c>
       <c r="H940" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="941" spans="1:8" x14ac:dyDescent="0.4">
@@ -25440,7 +25442,7 @@
         <v>14</v>
       </c>
       <c r="H945" s="7" t="s">
-        <v>90</v>
+        <v>4</v>
       </c>
     </row>
     <row r="946" spans="1:8" x14ac:dyDescent="0.4">
@@ -25466,7 +25468,7 @@
         <v>10</v>
       </c>
       <c r="H946" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="947" spans="1:8" x14ac:dyDescent="0.4">
@@ -25593,10 +25595,10 @@
         <v>43930</v>
       </c>
       <c r="G951" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H951" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="952" spans="1:8" x14ac:dyDescent="0.4">
@@ -25847,7 +25849,7 @@
         <v>25</v>
       </c>
       <c r="E961" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F961" s="1">
         <v>43931</v>
@@ -25908,7 +25910,7 @@
         <v>10</v>
       </c>
       <c r="H963" s="7" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
     </row>
     <row r="964" spans="1:8" x14ac:dyDescent="0.4">
@@ -26272,7 +26274,7 @@
         <v>10</v>
       </c>
       <c r="H977" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="978" spans="1:8" x14ac:dyDescent="0.4">
@@ -26324,7 +26326,7 @@
         <v>10</v>
       </c>
       <c r="H979" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="980" spans="1:8" x14ac:dyDescent="0.4">
@@ -26367,7 +26369,7 @@
         <v>25</v>
       </c>
       <c r="E981" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F981" s="1">
         <v>43929</v>
@@ -26659,10 +26661,10 @@
         <v>43936</v>
       </c>
       <c r="G992" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H992" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="993" spans="1:8" x14ac:dyDescent="0.4">
@@ -27364,7 +27366,7 @@
         <v>10</v>
       </c>
       <c r="H1019" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1020" spans="1:8" x14ac:dyDescent="0.4">
@@ -27702,7 +27704,7 @@
         <v>10</v>
       </c>
       <c r="H1032" s="7" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1033" spans="1:8" x14ac:dyDescent="0.4">
@@ -27823,7 +27825,7 @@
         <v>25</v>
       </c>
       <c r="E1037" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F1037" s="1">
         <v>43928</v>
@@ -27884,7 +27886,7 @@
         <v>10</v>
       </c>
       <c r="H1039" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1040" spans="1:8" x14ac:dyDescent="0.4">
@@ -28369,7 +28371,7 @@
         <v>25</v>
       </c>
       <c r="E1058" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F1058" s="1">
         <v>43929</v>
@@ -28421,7 +28423,7 @@
         <v>25</v>
       </c>
       <c r="E1060" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F1060" s="1" t="s">
         <v>46</v>
@@ -28482,7 +28484,7 @@
         <v>10</v>
       </c>
       <c r="H1062" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1063" spans="1:8" x14ac:dyDescent="0.4">
@@ -28560,7 +28562,7 @@
         <v>10</v>
       </c>
       <c r="H1065" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1066" spans="1:8" x14ac:dyDescent="0.4">
@@ -28612,7 +28614,7 @@
         <v>10</v>
       </c>
       <c r="H1067" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1068" spans="1:8" x14ac:dyDescent="0.4">
@@ -28739,10 +28741,10 @@
         <v>43931</v>
       </c>
       <c r="G1072" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H1072" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1073" spans="1:8" x14ac:dyDescent="0.4">
@@ -28846,7 +28848,7 @@
         <v>10</v>
       </c>
       <c r="H1076" s="7" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1077" spans="1:8" x14ac:dyDescent="0.4">
@@ -28898,7 +28900,7 @@
         <v>10</v>
       </c>
       <c r="H1078" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1079" spans="1:8" x14ac:dyDescent="0.4">
@@ -29438,7 +29440,7 @@
         <v>46</v>
       </c>
       <c r="F1099" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G1099" t="s">
         <v>10</v>
@@ -29938,7 +29940,7 @@
         <v>10</v>
       </c>
       <c r="H1118" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1119" spans="1:8" x14ac:dyDescent="0.4">
@@ -29990,7 +29992,7 @@
         <v>10</v>
       </c>
       <c r="H1120" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1121" spans="1:8" x14ac:dyDescent="0.4">
@@ -30978,7 +30980,7 @@
         <v>46</v>
       </c>
       <c r="H1158" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1159" spans="1:8" x14ac:dyDescent="0.4">
@@ -31212,7 +31214,7 @@
         <v>10</v>
       </c>
       <c r="H1167" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1168" spans="1:8" x14ac:dyDescent="0.4">
@@ -31238,7 +31240,7 @@
         <v>10</v>
       </c>
       <c r="H1168" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1169" spans="1:8" x14ac:dyDescent="0.4">
@@ -31509,7 +31511,7 @@
         <v>43940</v>
       </c>
       <c r="C1179" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D1179" t="s">
         <v>25</v>
@@ -32408,7 +32410,7 @@
         <v>10</v>
       </c>
       <c r="H1213" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1214" spans="1:8" x14ac:dyDescent="0.4">
@@ -34384,7 +34386,7 @@
         <v>10</v>
       </c>
       <c r="H1289" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1290" spans="1:8" x14ac:dyDescent="0.4">
@@ -35571,7 +35573,7 @@
         <v>25</v>
       </c>
       <c r="E1335" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F1335" s="1">
         <v>43930</v>
@@ -36871,7 +36873,7 @@
         <v>23</v>
       </c>
       <c r="E1385" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F1385" s="1">
         <v>43940</v>
@@ -37365,7 +37367,7 @@
         <v>23</v>
       </c>
       <c r="E1404" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F1404" s="1">
         <v>43936</v>
@@ -38671,10 +38673,10 @@
         <v>43941</v>
       </c>
       <c r="G1454" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="H1454" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1455" spans="1:8" x14ac:dyDescent="0.4">
@@ -39275,8 +39277,424 @@
         <v>5</v>
       </c>
     </row>
+    <row r="1478" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1478">
+        <v>1476</v>
+      </c>
+      <c r="B1478" s="2">
+        <v>43947</v>
+      </c>
+      <c r="C1478">
+        <v>20</v>
+      </c>
+      <c r="D1478" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1478" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1478" s="1">
+        <v>43940</v>
+      </c>
+      <c r="G1478" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1478" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1479">
+        <v>1477</v>
+      </c>
+      <c r="B1479" s="2">
+        <v>43947</v>
+      </c>
+      <c r="C1479">
+        <v>70</v>
+      </c>
+      <c r="D1479" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1479" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1479" s="1">
+        <v>43936</v>
+      </c>
+      <c r="G1479" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1479" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1480">
+        <v>1478</v>
+      </c>
+      <c r="B1480" s="2">
+        <v>43947</v>
+      </c>
+      <c r="C1480">
+        <v>50</v>
+      </c>
+      <c r="D1480" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1480" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1480" s="1">
+        <v>43934</v>
+      </c>
+      <c r="G1480" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1480" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1481">
+        <v>1479</v>
+      </c>
+      <c r="B1481" s="2">
+        <v>43947</v>
+      </c>
+      <c r="C1481">
+        <v>70</v>
+      </c>
+      <c r="D1481" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1481" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1481" s="1">
+        <v>43944</v>
+      </c>
+      <c r="G1481" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1481" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1482">
+        <v>1480</v>
+      </c>
+      <c r="B1482" s="2">
+        <v>43947</v>
+      </c>
+      <c r="C1482">
+        <v>20</v>
+      </c>
+      <c r="D1482" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1482" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1482" s="1">
+        <v>43944</v>
+      </c>
+      <c r="G1482" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1482" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1483">
+        <v>1481</v>
+      </c>
+      <c r="B1483" s="2">
+        <v>43947</v>
+      </c>
+      <c r="C1483">
+        <v>90</v>
+      </c>
+      <c r="D1483" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1483" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1483" s="1">
+        <v>43942</v>
+      </c>
+      <c r="G1483" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1483" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1484">
+        <v>1482</v>
+      </c>
+      <c r="B1484" s="2">
+        <v>43947</v>
+      </c>
+      <c r="C1484">
+        <v>80</v>
+      </c>
+      <c r="D1484" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1484" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1484" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1484" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1484" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1485">
+        <v>1483</v>
+      </c>
+      <c r="B1485" s="2">
+        <v>43947</v>
+      </c>
+      <c r="C1485">
+        <v>50</v>
+      </c>
+      <c r="D1485" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1485" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1485" s="1">
+        <v>43937</v>
+      </c>
+      <c r="G1485" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1485" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1486">
+        <v>1484</v>
+      </c>
+      <c r="B1486" s="2">
+        <v>43947</v>
+      </c>
+      <c r="C1486">
+        <v>20</v>
+      </c>
+      <c r="D1486" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1486" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1486" s="1">
+        <v>43943</v>
+      </c>
+      <c r="G1486" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1486" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1487">
+        <v>1485</v>
+      </c>
+      <c r="B1487" s="2">
+        <v>43947</v>
+      </c>
+      <c r="C1487">
+        <v>60</v>
+      </c>
+      <c r="D1487" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1487" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1487" s="1">
+        <v>43937</v>
+      </c>
+      <c r="G1487" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1487" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1488">
+        <v>1486</v>
+      </c>
+      <c r="B1488" s="2">
+        <v>43947</v>
+      </c>
+      <c r="C1488">
+        <v>80</v>
+      </c>
+      <c r="D1488" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1488" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1488" s="1">
+        <v>43936</v>
+      </c>
+      <c r="G1488" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1488" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1489">
+        <v>1487</v>
+      </c>
+      <c r="B1489" s="2">
+        <v>43947</v>
+      </c>
+      <c r="C1489">
+        <v>50</v>
+      </c>
+      <c r="D1489" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1489" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1489" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1489" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1489" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1490">
+        <v>1488</v>
+      </c>
+      <c r="B1490" s="2">
+        <v>43947</v>
+      </c>
+      <c r="C1490">
+        <v>50</v>
+      </c>
+      <c r="D1490" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1490" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1490" s="1">
+        <v>43931</v>
+      </c>
+      <c r="G1490" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1490" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1491">
+        <v>1489</v>
+      </c>
+      <c r="B1491" s="2">
+        <v>43947</v>
+      </c>
+      <c r="C1491">
+        <v>70</v>
+      </c>
+      <c r="D1491" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1491" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1491" s="1">
+        <v>43939</v>
+      </c>
+      <c r="G1491" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1491" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1492">
+        <v>1490</v>
+      </c>
+      <c r="B1492" s="2">
+        <v>43947</v>
+      </c>
+      <c r="C1492">
+        <v>40</v>
+      </c>
+      <c r="D1492" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1492" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1492" s="1">
+        <v>43941</v>
+      </c>
+      <c r="G1492" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1492" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1493">
+        <v>1491</v>
+      </c>
+      <c r="B1493" s="2">
+        <v>43947</v>
+      </c>
+      <c r="C1493">
+        <v>30</v>
+      </c>
+      <c r="D1493" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1493" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1493" s="1">
+        <v>43941</v>
+      </c>
+      <c r="G1493" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1493" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:H1477" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A2:H1493"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -39284,8 +39702,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K94"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K95"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -39296,7 +39714,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="3">
-        <v>43946</v>
+        <v>43947</v>
       </c>
       <c r="B1" t="s">
         <v>60</v>
@@ -42521,26 +42939,61 @@
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A94" s="4" t="s">
-        <v>68</v>
+      <c r="A94" s="2">
+        <v>43947</v>
       </c>
       <c r="B94">
-        <v>13667</v>
+        <v>163</v>
       </c>
       <c r="C94">
-        <v>1475</v>
+        <v>16</v>
+      </c>
+      <c r="D94">
+        <v>1491</v>
+      </c>
+      <c r="E94">
+        <v>1037</v>
       </c>
       <c r="F94">
-        <v>404</v>
+        <v>20</v>
+      </c>
+      <c r="G94">
+        <v>424</v>
       </c>
       <c r="H94">
-        <v>404</v>
+        <v>20</v>
+      </c>
+      <c r="I94">
+        <v>424</v>
       </c>
       <c r="J94">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="K94">
-        <v>800</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A95" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B95">
+        <v>13830</v>
+      </c>
+      <c r="C95">
+        <v>1491</v>
+      </c>
+      <c r="F95">
+        <v>424</v>
+      </c>
+      <c r="H95">
+        <v>424</v>
+      </c>
+      <c r="J95">
+        <v>30</v>
+      </c>
+      <c r="K95">
+        <v>805</v>
       </c>
     </row>
   </sheetData>

--- a/data/patients_and_inspections.xlsx
+++ b/data/patients_and_inspections.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\コロナ対策サイト\0427\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.19.161.23\kansen_fol\03防疫L（移行済）\06　中国武漢市肺炎（新型コロナウイルス）\検査の状況(HP更新)\陽性者入院状況\コロナサイト\0428（0427のデータ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6030" yWindow="465" windowWidth="33000" windowHeight="19155" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="2010" yWindow="465" windowWidth="33000" windowHeight="19155"/>
   </bookViews>
   <sheets>
     <sheet name="【公開OK】ピポット集計" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="【公開OK】コロナサイト用（日付ベース）" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'【公開OK】府HP用(陽性者ベース)'!$A$2:$H$1493</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'【公開OK】府HP用(陽性者ベース)'!$A$2:$H$1523</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6320" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6447" uniqueCount="90">
   <si>
     <t>（1）入退院の状況</t>
   </si>
@@ -330,11 +330,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>退院</t>
+    <t>就学児</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>就学児</t>
+    <t>退院</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -727,7 +727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -751,7 +751,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>424</v>
+        <v>442</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -759,7 +759,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>417</v>
+        <v>421</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
@@ -767,7 +767,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
@@ -775,7 +775,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
@@ -783,7 +783,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1491</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
@@ -804,7 +804,7 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <v>945</v>
+        <v>955</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
@@ -828,7 +828,7 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
@@ -836,7 +836,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>424</v>
+        <v>442</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
@@ -844,7 +844,7 @@
         <v>7</v>
       </c>
       <c r="B18">
-        <v>1475</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
@@ -852,7 +852,7 @@
         <v>85</v>
       </c>
       <c r="B20">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
@@ -860,7 +860,7 @@
         <v>86</v>
       </c>
       <c r="B21">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
@@ -880,11 +880,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1493"/>
+  <dimension ref="A1:H1523"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1476" workbookViewId="0">
-      <selection activeCell="B1476" sqref="B1476"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -895,7 +893,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="3">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="B1" t="s">
         <v>60</v>
@@ -4330,7 +4328,7 @@
         <v>14</v>
       </c>
       <c r="H133" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.4">
@@ -5604,7 +5602,7 @@
         <v>11</v>
       </c>
       <c r="H182" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.4">
@@ -5760,7 +5758,7 @@
         <v>14</v>
       </c>
       <c r="H188" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.4">
@@ -6696,7 +6694,7 @@
         <v>14</v>
       </c>
       <c r="H224" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.4">
@@ -6774,7 +6772,7 @@
         <v>14</v>
       </c>
       <c r="H227" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.4">
@@ -7164,7 +7162,7 @@
         <v>14</v>
       </c>
       <c r="H242" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.4">
@@ -7502,7 +7500,7 @@
         <v>14</v>
       </c>
       <c r="H255" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.4">
@@ -7580,7 +7578,7 @@
         <v>14</v>
       </c>
       <c r="H258" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.4">
@@ -7632,7 +7630,7 @@
         <v>14</v>
       </c>
       <c r="H260" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.4">
@@ -7658,7 +7656,7 @@
         <v>14</v>
       </c>
       <c r="H261" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.4">
@@ -7684,7 +7682,7 @@
         <v>14</v>
       </c>
       <c r="H262" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.4">
@@ -7710,7 +7708,7 @@
         <v>14</v>
       </c>
       <c r="H263" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.4">
@@ -7736,7 +7734,7 @@
         <v>14</v>
       </c>
       <c r="H264" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.4">
@@ -7762,7 +7760,7 @@
         <v>14</v>
       </c>
       <c r="H265" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.4">
@@ -7788,7 +7786,7 @@
         <v>14</v>
       </c>
       <c r="H266" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.4">
@@ -7814,7 +7812,7 @@
         <v>14</v>
       </c>
       <c r="H267" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.4">
@@ -8022,7 +8020,7 @@
         <v>14</v>
       </c>
       <c r="H275" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.4">
@@ -8854,7 +8852,7 @@
         <v>14</v>
       </c>
       <c r="H307" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.4">
@@ -9036,7 +9034,7 @@
         <v>14</v>
       </c>
       <c r="H314" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.4">
@@ -9062,7 +9060,7 @@
         <v>14</v>
       </c>
       <c r="H315" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.4">
@@ -9114,7 +9112,7 @@
         <v>14</v>
       </c>
       <c r="H317" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.4">
@@ -9140,7 +9138,7 @@
         <v>14</v>
       </c>
       <c r="H318" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.4">
@@ -9218,7 +9216,7 @@
         <v>14</v>
       </c>
       <c r="H321" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.4">
@@ -9244,7 +9242,7 @@
         <v>14</v>
       </c>
       <c r="H322" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.4">
@@ -9270,7 +9268,7 @@
         <v>14</v>
       </c>
       <c r="H323" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.4">
@@ -9322,7 +9320,7 @@
         <v>14</v>
       </c>
       <c r="H325" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.4">
@@ -9400,7 +9398,7 @@
         <v>14</v>
       </c>
       <c r="H328" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.4">
@@ -9426,7 +9424,7 @@
         <v>14</v>
       </c>
       <c r="H329" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.4">
@@ -9452,7 +9450,7 @@
         <v>14</v>
       </c>
       <c r="H330" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.4">
@@ -9478,7 +9476,7 @@
         <v>14</v>
       </c>
       <c r="H331" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.4">
@@ -9660,7 +9658,7 @@
         <v>10</v>
       </c>
       <c r="H338" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.4">
@@ -9998,7 +9996,7 @@
         <v>14</v>
       </c>
       <c r="H351" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.4">
@@ -10024,7 +10022,7 @@
         <v>14</v>
       </c>
       <c r="H352" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.4">
@@ -10258,7 +10256,7 @@
         <v>14</v>
       </c>
       <c r="H361" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.4">
@@ -10388,7 +10386,7 @@
         <v>14</v>
       </c>
       <c r="H366" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.4">
@@ -10414,7 +10412,7 @@
         <v>14</v>
       </c>
       <c r="H367" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.4">
@@ -10440,7 +10438,7 @@
         <v>14</v>
       </c>
       <c r="H368" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.4">
@@ -10466,7 +10464,7 @@
         <v>14</v>
       </c>
       <c r="H369" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.4">
@@ -10648,7 +10646,7 @@
         <v>14</v>
       </c>
       <c r="H376" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.4">
@@ -11090,7 +11088,7 @@
         <v>10</v>
       </c>
       <c r="H393" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.4">
@@ -11142,7 +11140,7 @@
         <v>14</v>
       </c>
       <c r="H395" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.4">
@@ -11168,7 +11166,7 @@
         <v>14</v>
       </c>
       <c r="H396" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.4">
@@ -11246,7 +11244,7 @@
         <v>14</v>
       </c>
       <c r="H399" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.4">
@@ -11402,7 +11400,7 @@
         <v>14</v>
       </c>
       <c r="H405" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.4">
@@ -11454,7 +11452,7 @@
         <v>14</v>
       </c>
       <c r="H407" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.4">
@@ -11532,7 +11530,7 @@
         <v>14</v>
       </c>
       <c r="H410" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="411" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11584,7 +11582,7 @@
         <v>14</v>
       </c>
       <c r="H412" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="413" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11636,7 +11634,7 @@
         <v>14</v>
       </c>
       <c r="H414" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="415" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12000,7 +11998,7 @@
         <v>14</v>
       </c>
       <c r="H428" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="429" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12130,7 +12128,7 @@
         <v>14</v>
       </c>
       <c r="H433" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.4">
@@ -12338,7 +12336,7 @@
         <v>14</v>
       </c>
       <c r="H441" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="442" spans="1:8" x14ac:dyDescent="0.4">
@@ -12416,7 +12414,7 @@
         <v>14</v>
       </c>
       <c r="H444" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="445" spans="1:8" x14ac:dyDescent="0.4">
@@ -12468,7 +12466,7 @@
         <v>14</v>
       </c>
       <c r="H446" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="447" spans="1:8" x14ac:dyDescent="0.4">
@@ -13326,7 +13324,7 @@
         <v>14</v>
       </c>
       <c r="H479" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="480" spans="1:8" x14ac:dyDescent="0.4">
@@ -13638,7 +13636,7 @@
         <v>14</v>
       </c>
       <c r="H491" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="492" spans="1:8" x14ac:dyDescent="0.4">
@@ -13794,7 +13792,7 @@
         <v>14</v>
       </c>
       <c r="H497" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="498" spans="1:8" x14ac:dyDescent="0.4">
@@ -15302,7 +15300,7 @@
         <v>10</v>
       </c>
       <c r="H555" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="556" spans="1:8" x14ac:dyDescent="0.4">
@@ -16186,7 +16184,7 @@
         <v>14</v>
       </c>
       <c r="H589" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="590" spans="1:8" x14ac:dyDescent="0.4">
@@ -16862,7 +16860,7 @@
         <v>14</v>
       </c>
       <c r="H615" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="616" spans="1:8" x14ac:dyDescent="0.4">
@@ -16940,7 +16938,7 @@
         <v>14</v>
       </c>
       <c r="H618" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="619" spans="1:8" x14ac:dyDescent="0.4">
@@ -17278,7 +17276,7 @@
         <v>14</v>
       </c>
       <c r="H631" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="632" spans="1:8" x14ac:dyDescent="0.4">
@@ -20502,7 +20500,7 @@
         <v>10</v>
       </c>
       <c r="H755" s="7" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="756" spans="1:8" x14ac:dyDescent="0.4">
@@ -20710,7 +20708,7 @@
         <v>10</v>
       </c>
       <c r="H763" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="764" spans="1:8" x14ac:dyDescent="0.4">
@@ -23128,7 +23126,7 @@
         <v>10</v>
       </c>
       <c r="H856" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="857" spans="1:8" x14ac:dyDescent="0.4">
@@ -24610,7 +24608,7 @@
         <v>10</v>
       </c>
       <c r="H913" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="914" spans="1:8" x14ac:dyDescent="0.4">
@@ -30561,10 +30559,10 @@
         <v>46</v>
       </c>
       <c r="G1142" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="H1142" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1143" spans="1:8" x14ac:dyDescent="0.4">
@@ -31471,10 +31469,10 @@
         <v>46</v>
       </c>
       <c r="G1177" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H1177" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1178" spans="1:8" x14ac:dyDescent="0.4">
@@ -31511,7 +31509,7 @@
         <v>43940</v>
       </c>
       <c r="C1179" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D1179" t="s">
         <v>25</v>
@@ -34412,7 +34410,7 @@
         <v>10</v>
       </c>
       <c r="H1290" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1291" spans="1:8" x14ac:dyDescent="0.4">
@@ -35790,7 +35788,7 @@
         <v>10</v>
       </c>
       <c r="H1343" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1344" spans="1:8" x14ac:dyDescent="0.4">
@@ -36326,7 +36324,7 @@
       <c r="D1364" t="s">
         <v>25</v>
       </c>
-      <c r="E1364" t="s">
+      <c r="E1364" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F1364" s="1">
@@ -37889,7 +37887,7 @@
       <c r="E1424" t="s">
         <v>24</v>
       </c>
-      <c r="F1424" t="s">
+      <c r="F1424" s="1" t="s">
         <v>46</v>
       </c>
       <c r="G1424" t="s">
@@ -39693,8 +39691,788 @@
         <v>5</v>
       </c>
     </row>
+    <row r="1494" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1494">
+        <v>1492</v>
+      </c>
+      <c r="B1494" s="2">
+        <v>43948</v>
+      </c>
+      <c r="C1494">
+        <v>30</v>
+      </c>
+      <c r="D1494" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1494" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1494" s="1">
+        <v>43941</v>
+      </c>
+      <c r="G1494" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1494" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1495">
+        <v>1493</v>
+      </c>
+      <c r="B1495" s="2">
+        <v>43948</v>
+      </c>
+      <c r="C1495">
+        <v>50</v>
+      </c>
+      <c r="D1495" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1495" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1495" s="1">
+        <v>43933</v>
+      </c>
+      <c r="G1495" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1495" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1496">
+        <v>1494</v>
+      </c>
+      <c r="B1496" s="2">
+        <v>43948</v>
+      </c>
+      <c r="C1496">
+        <v>40</v>
+      </c>
+      <c r="D1496" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1496" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1496" s="1">
+        <v>43940</v>
+      </c>
+      <c r="G1496" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1496" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1497">
+        <v>1495</v>
+      </c>
+      <c r="B1497" s="2">
+        <v>43948</v>
+      </c>
+      <c r="C1497">
+        <v>30</v>
+      </c>
+      <c r="D1497" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1497" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1497" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1497" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1497" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1498">
+        <v>1496</v>
+      </c>
+      <c r="B1498" s="2">
+        <v>43948</v>
+      </c>
+      <c r="C1498">
+        <v>40</v>
+      </c>
+      <c r="D1498" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1498" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1498" s="1">
+        <v>43937</v>
+      </c>
+      <c r="G1498" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1498" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1499">
+        <v>1497</v>
+      </c>
+      <c r="B1499" s="2">
+        <v>43948</v>
+      </c>
+      <c r="C1499">
+        <v>80</v>
+      </c>
+      <c r="D1499" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1499" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1499" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1499" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1499" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1500">
+        <v>1498</v>
+      </c>
+      <c r="B1500" s="2">
+        <v>43948</v>
+      </c>
+      <c r="C1500">
+        <v>30</v>
+      </c>
+      <c r="D1500" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1500" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1500" s="1">
+        <v>43942</v>
+      </c>
+      <c r="G1500" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1500" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1501">
+        <v>1499</v>
+      </c>
+      <c r="B1501" s="2">
+        <v>43948</v>
+      </c>
+      <c r="C1501">
+        <v>30</v>
+      </c>
+      <c r="D1501" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1501" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1501" s="1">
+        <v>43935</v>
+      </c>
+      <c r="G1501" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1501" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1502">
+        <v>1500</v>
+      </c>
+      <c r="B1502" s="2">
+        <v>43948</v>
+      </c>
+      <c r="C1502">
+        <v>70</v>
+      </c>
+      <c r="D1502" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1502" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1502" s="1">
+        <v>43945</v>
+      </c>
+      <c r="G1502" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1502" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1503">
+        <v>1501</v>
+      </c>
+      <c r="B1503" s="2">
+        <v>43948</v>
+      </c>
+      <c r="C1503">
+        <v>50</v>
+      </c>
+      <c r="D1503" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1503" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1503" s="1">
+        <v>43945</v>
+      </c>
+      <c r="G1503" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1503" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1504">
+        <v>1502</v>
+      </c>
+      <c r="B1504" s="2">
+        <v>43948</v>
+      </c>
+      <c r="C1504">
+        <v>70</v>
+      </c>
+      <c r="D1504" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1504" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1504" s="1">
+        <v>43937</v>
+      </c>
+      <c r="G1504" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1504" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1505">
+        <v>1503</v>
+      </c>
+      <c r="B1505" s="2">
+        <v>43948</v>
+      </c>
+      <c r="C1505">
+        <v>80</v>
+      </c>
+      <c r="D1505" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1505" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1505" s="1">
+        <v>43944</v>
+      </c>
+      <c r="G1505" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1505" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1506">
+        <v>1504</v>
+      </c>
+      <c r="B1506" s="2">
+        <v>43948</v>
+      </c>
+      <c r="C1506">
+        <v>20</v>
+      </c>
+      <c r="D1506" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1506" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1506" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1506" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1506" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1507">
+        <v>1505</v>
+      </c>
+      <c r="B1507" s="2">
+        <v>43948</v>
+      </c>
+      <c r="C1507">
+        <v>20</v>
+      </c>
+      <c r="D1507" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1507" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1507" s="1">
+        <v>43941</v>
+      </c>
+      <c r="G1507" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1507" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1508">
+        <v>1506</v>
+      </c>
+      <c r="B1508" s="2">
+        <v>43948</v>
+      </c>
+      <c r="C1508">
+        <v>60</v>
+      </c>
+      <c r="D1508" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1508" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1508" s="1">
+        <v>43942</v>
+      </c>
+      <c r="G1508" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1508" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1509">
+        <v>1507</v>
+      </c>
+      <c r="B1509" s="2">
+        <v>43948</v>
+      </c>
+      <c r="C1509">
+        <v>50</v>
+      </c>
+      <c r="D1509" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1509" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1509" s="1">
+        <v>43943</v>
+      </c>
+      <c r="G1509" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1509" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1510">
+        <v>1508</v>
+      </c>
+      <c r="B1510" s="2">
+        <v>43948</v>
+      </c>
+      <c r="C1510">
+        <v>70</v>
+      </c>
+      <c r="D1510" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1510" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1510" s="1">
+        <v>43936</v>
+      </c>
+      <c r="G1510" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1510" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1511">
+        <v>1509</v>
+      </c>
+      <c r="B1511" s="2">
+        <v>43948</v>
+      </c>
+      <c r="C1511">
+        <v>30</v>
+      </c>
+      <c r="D1511" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1511" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1511" s="1">
+        <v>43938</v>
+      </c>
+      <c r="G1511" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1511" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1512">
+        <v>1510</v>
+      </c>
+      <c r="B1512" s="2">
+        <v>43948</v>
+      </c>
+      <c r="C1512">
+        <v>30</v>
+      </c>
+      <c r="D1512" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1512" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1512" s="1">
+        <v>43929</v>
+      </c>
+      <c r="G1512" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1512" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1513">
+        <v>1511</v>
+      </c>
+      <c r="B1513" s="2">
+        <v>43948</v>
+      </c>
+      <c r="C1513">
+        <v>30</v>
+      </c>
+      <c r="D1513" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1513" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1513" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1513" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1513" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1514">
+        <v>1512</v>
+      </c>
+      <c r="B1514" s="2">
+        <v>43948</v>
+      </c>
+      <c r="C1514">
+        <v>80</v>
+      </c>
+      <c r="D1514" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1514" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1514" s="1">
+        <v>43931</v>
+      </c>
+      <c r="G1514" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1514" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1515">
+        <v>1513</v>
+      </c>
+      <c r="B1515" s="2">
+        <v>43948</v>
+      </c>
+      <c r="C1515">
+        <v>20</v>
+      </c>
+      <c r="D1515" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1515" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1515" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1515" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1515" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1516">
+        <v>1514</v>
+      </c>
+      <c r="B1516" s="2">
+        <v>43948</v>
+      </c>
+      <c r="C1516">
+        <v>20</v>
+      </c>
+      <c r="D1516" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1516" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1516" s="1">
+        <v>43928</v>
+      </c>
+      <c r="G1516" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1516" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1517">
+        <v>1515</v>
+      </c>
+      <c r="B1517" s="2">
+        <v>43948</v>
+      </c>
+      <c r="C1517">
+        <v>40</v>
+      </c>
+      <c r="D1517" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1517" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1517" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1517" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1517" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1518">
+        <v>1516</v>
+      </c>
+      <c r="B1518" s="2">
+        <v>43948</v>
+      </c>
+      <c r="C1518">
+        <v>30</v>
+      </c>
+      <c r="D1518" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1518" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1518" s="1">
+        <v>43922</v>
+      </c>
+      <c r="G1518" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1518" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1519">
+        <v>1517</v>
+      </c>
+      <c r="B1519" s="2">
+        <v>43948</v>
+      </c>
+      <c r="C1519">
+        <v>30</v>
+      </c>
+      <c r="D1519" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1519" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1519" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1519" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1519" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1520">
+        <v>1518</v>
+      </c>
+      <c r="B1520" s="2">
+        <v>43948</v>
+      </c>
+      <c r="C1520">
+        <v>50</v>
+      </c>
+      <c r="D1520" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1520" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1520" s="1">
+        <v>43938</v>
+      </c>
+      <c r="G1520" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1520" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1521">
+        <v>1519</v>
+      </c>
+      <c r="B1521" s="2">
+        <v>43948</v>
+      </c>
+      <c r="C1521">
+        <v>20</v>
+      </c>
+      <c r="D1521" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1521" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1521" s="1">
+        <v>43926</v>
+      </c>
+      <c r="G1521" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1521" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1522">
+        <v>1520</v>
+      </c>
+      <c r="B1522" s="2">
+        <v>43948</v>
+      </c>
+      <c r="C1522">
+        <v>20</v>
+      </c>
+      <c r="D1522" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1522" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1522" s="1">
+        <v>43940</v>
+      </c>
+      <c r="G1522" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1522" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1523">
+        <v>1521</v>
+      </c>
+      <c r="B1523" s="2">
+        <v>43948</v>
+      </c>
+      <c r="C1523">
+        <v>70</v>
+      </c>
+      <c r="D1523" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1523" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1523" s="1">
+        <v>43933</v>
+      </c>
+      <c r="G1523" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1523" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:H1493"/>
+  <autoFilter ref="A2:H1523"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -39703,7 +40481,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K95"/>
+  <dimension ref="A1:K96"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -39714,7 +40492,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="3">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="B1" t="s">
         <v>60</v>
@@ -42974,26 +43752,61 @@
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A95" s="4" t="s">
+      <c r="A95" s="2">
+        <v>43948</v>
+      </c>
+      <c r="B95">
+        <v>392</v>
+      </c>
+      <c r="C95">
+        <v>30</v>
+      </c>
+      <c r="D95">
+        <v>1521</v>
+      </c>
+      <c r="E95">
+        <v>1047</v>
+      </c>
+      <c r="F95">
+        <v>18</v>
+      </c>
+      <c r="G95">
+        <v>442</v>
+      </c>
+      <c r="H95">
+        <v>18</v>
+      </c>
+      <c r="I95">
+        <v>442</v>
+      </c>
+      <c r="J95">
+        <v>2</v>
+      </c>
+      <c r="K95">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A96" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B95">
-        <v>13830</v>
-      </c>
-      <c r="C95">
-        <v>1491</v>
-      </c>
-      <c r="F95">
-        <v>424</v>
-      </c>
-      <c r="H95">
-        <v>424</v>
-      </c>
-      <c r="J95">
-        <v>30</v>
-      </c>
-      <c r="K95">
-        <v>805</v>
+      <c r="B96">
+        <v>14222</v>
+      </c>
+      <c r="C96">
+        <v>1521</v>
+      </c>
+      <c r="F96">
+        <v>442</v>
+      </c>
+      <c r="H96">
+        <v>442</v>
+      </c>
+      <c r="J96">
+        <v>32</v>
+      </c>
+      <c r="K96">
+        <v>823</v>
       </c>
     </row>
   </sheetData>

--- a/data/patients_and_inspections.xlsx
+++ b/data/patients_and_inspections.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.19.161.23\kansen_fol\03防疫L（移行済）\06　中国武漢市肺炎（新型コロナウイルス）\検査の状況(HP更新)\陽性者入院状況\コロナサイト\0428（0427のデータ）\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.19.161.23\kansen_fol\03防疫L（移行済）\06　中国武漢市肺炎（新型コロナウイルス）\検査の状況(HP更新)\陽性者入院状況\コロナサイト\0429（0428のデータ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
     <sheet name="【公開OK】コロナサイト用（日付ベース）" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'【公開OK】府HP用(陽性者ベース)'!$A$2:$H$1523</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'【公開OK】府HP用(陽性者ベース)'!$A$2:$H$1555</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6447" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6580" uniqueCount="95">
   <si>
     <t>（1）入退院の状況</t>
   </si>
@@ -330,11 +330,25 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>就学児</t>
-    <phoneticPr fontId="1"/>
+    <t>自宅療養解除</t>
   </si>
   <si>
-    <t>退院</t>
+    <t>府外</t>
+  </si>
+  <si>
+    <t>宿泊療養解除</t>
+  </si>
+  <si>
+    <t>自宅療養調整中</t>
+  </si>
+  <si>
+    <t>確認中</t>
+  </si>
+  <si>
+    <t>宿泊療養調整中</t>
+  </si>
+  <si>
+    <t>就学児</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -751,7 +765,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>442</v>
+        <v>573</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -759,7 +773,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>421</v>
+        <v>450</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
@@ -767,7 +781,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>153</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
@@ -775,7 +789,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
@@ -804,7 +818,7 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <v>955</v>
+        <v>848</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
@@ -812,7 +826,7 @@
         <v>11</v>
       </c>
       <c r="B14">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
@@ -820,7 +834,7 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
@@ -828,7 +842,7 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
@@ -836,7 +850,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>442</v>
+        <v>573</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
@@ -852,7 +866,7 @@
         <v>85</v>
       </c>
       <c r="B20">
-        <v>332</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
@@ -860,7 +874,7 @@
         <v>86</v>
       </c>
       <c r="B21">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
@@ -868,7 +882,7 @@
         <v>87</v>
       </c>
       <c r="B22">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -880,7 +894,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1523"/>
+  <dimension ref="A1:H1555"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -893,7 +907,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="3">
-        <v>43948</v>
+        <v>43949</v>
       </c>
       <c r="B1" t="s">
         <v>60</v>
@@ -1364,7 +1378,7 @@
         <v>13</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
@@ -2404,7 +2418,7 @@
         <v>13</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.4">
@@ -2612,7 +2626,7 @@
         <v>10</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.4">
@@ -2638,7 +2652,7 @@
         <v>13</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.4">
@@ -2794,7 +2808,7 @@
         <v>12</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.4">
@@ -3002,7 +3016,7 @@
         <v>12</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.4">
@@ -3366,7 +3380,7 @@
         <v>13</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.4">
@@ -4250,7 +4264,7 @@
         <v>10</v>
       </c>
       <c r="H130" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.4">
@@ -4276,7 +4290,7 @@
         <v>10</v>
       </c>
       <c r="H131" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.4">
@@ -4302,7 +4316,7 @@
         <v>12</v>
       </c>
       <c r="H132" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.4">
@@ -4328,7 +4342,7 @@
         <v>14</v>
       </c>
       <c r="H133" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.4">
@@ -4562,7 +4576,7 @@
         <v>10</v>
       </c>
       <c r="H142" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.4">
@@ -4718,7 +4732,7 @@
         <v>10</v>
       </c>
       <c r="H148" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.4">
@@ -4796,7 +4810,7 @@
         <v>14</v>
       </c>
       <c r="H151" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.4">
@@ -4900,7 +4914,7 @@
         <v>10</v>
       </c>
       <c r="H155" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.4">
@@ -4926,7 +4940,7 @@
         <v>10</v>
       </c>
       <c r="H156" s="7" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.4">
@@ -5004,7 +5018,7 @@
         <v>10</v>
       </c>
       <c r="H159" s="7" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.4">
@@ -5186,7 +5200,7 @@
         <v>10</v>
       </c>
       <c r="H166" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.4">
@@ -5290,7 +5304,7 @@
         <v>13</v>
       </c>
       <c r="H170" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.4">
@@ -5446,7 +5460,7 @@
         <v>10</v>
       </c>
       <c r="H176" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.4">
@@ -5498,7 +5512,7 @@
         <v>10</v>
       </c>
       <c r="H178" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.4">
@@ -5599,7 +5613,7 @@
         <v>43914</v>
       </c>
       <c r="G182" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H182" s="7" t="s">
         <v>3</v>
@@ -5758,7 +5772,7 @@
         <v>14</v>
       </c>
       <c r="H188" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.4">
@@ -5914,7 +5928,7 @@
         <v>10</v>
       </c>
       <c r="H194" s="7" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.4">
@@ -6382,7 +6396,7 @@
         <v>10</v>
       </c>
       <c r="H212" s="7" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.4">
@@ -6642,7 +6656,7 @@
         <v>10</v>
       </c>
       <c r="H222" s="7" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.4">
@@ -6668,7 +6682,7 @@
         <v>10</v>
       </c>
       <c r="H223" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.4">
@@ -6694,7 +6708,7 @@
         <v>14</v>
       </c>
       <c r="H224" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.4">
@@ -6772,7 +6786,7 @@
         <v>14</v>
       </c>
       <c r="H227" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.4">
@@ -7084,7 +7098,7 @@
         <v>10</v>
       </c>
       <c r="H239" s="7" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.4">
@@ -7110,7 +7124,7 @@
         <v>10</v>
       </c>
       <c r="H240" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.4">
@@ -7162,7 +7176,7 @@
         <v>14</v>
       </c>
       <c r="H242" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.4">
@@ -7188,7 +7202,7 @@
         <v>10</v>
       </c>
       <c r="H243" s="7" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.4">
@@ -7396,7 +7410,7 @@
         <v>12</v>
       </c>
       <c r="H251" s="7" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.4">
@@ -7500,7 +7514,7 @@
         <v>14</v>
       </c>
       <c r="H255" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.4">
@@ -7578,7 +7592,7 @@
         <v>14</v>
       </c>
       <c r="H258" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.4">
@@ -7630,7 +7644,7 @@
         <v>14</v>
       </c>
       <c r="H260" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.4">
@@ -7656,7 +7670,7 @@
         <v>14</v>
       </c>
       <c r="H261" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.4">
@@ -7682,7 +7696,7 @@
         <v>14</v>
       </c>
       <c r="H262" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.4">
@@ -7708,7 +7722,7 @@
         <v>14</v>
       </c>
       <c r="H263" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.4">
@@ -7734,7 +7748,7 @@
         <v>14</v>
       </c>
       <c r="H264" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.4">
@@ -7760,7 +7774,7 @@
         <v>14</v>
       </c>
       <c r="H265" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.4">
@@ -7786,7 +7800,7 @@
         <v>14</v>
       </c>
       <c r="H266" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.4">
@@ -7812,7 +7826,7 @@
         <v>14</v>
       </c>
       <c r="H267" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.4">
@@ -7838,7 +7852,7 @@
         <v>10</v>
       </c>
       <c r="H268" s="7" t="s">
-        <v>4</v>
+        <v>88</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.4">
@@ -7994,7 +8008,7 @@
         <v>10</v>
       </c>
       <c r="H274" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.4">
@@ -8020,7 +8034,7 @@
         <v>14</v>
       </c>
       <c r="H275" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.4">
@@ -8046,7 +8060,7 @@
         <v>10</v>
       </c>
       <c r="H276" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.4">
@@ -8514,7 +8528,7 @@
         <v>10</v>
       </c>
       <c r="H294" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.4">
@@ -8670,7 +8684,7 @@
         <v>10</v>
       </c>
       <c r="H300" s="7" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.4">
@@ -8748,7 +8762,7 @@
         <v>13</v>
       </c>
       <c r="H303" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.4">
@@ -8774,7 +8788,7 @@
         <v>13</v>
       </c>
       <c r="H304" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.4">
@@ -8852,7 +8866,7 @@
         <v>14</v>
       </c>
       <c r="H307" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.4">
@@ -8878,7 +8892,7 @@
         <v>10</v>
       </c>
       <c r="H308" s="7" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.4">
@@ -8930,7 +8944,7 @@
         <v>14</v>
       </c>
       <c r="H310" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.4">
@@ -8956,7 +8970,7 @@
         <v>10</v>
       </c>
       <c r="H311" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.4">
@@ -9034,7 +9048,7 @@
         <v>14</v>
       </c>
       <c r="H314" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.4">
@@ -9060,7 +9074,7 @@
         <v>14</v>
       </c>
       <c r="H315" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.4">
@@ -9112,7 +9126,7 @@
         <v>14</v>
       </c>
       <c r="H317" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.4">
@@ -9138,7 +9152,7 @@
         <v>14</v>
       </c>
       <c r="H318" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.4">
@@ -9164,7 +9178,7 @@
         <v>10</v>
       </c>
       <c r="H319" s="7" t="s">
-        <v>4</v>
+        <v>88</v>
       </c>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.4">
@@ -9190,7 +9204,7 @@
         <v>10</v>
       </c>
       <c r="H320" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.4">
@@ -9216,7 +9230,7 @@
         <v>14</v>
       </c>
       <c r="H321" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.4">
@@ -9242,7 +9256,7 @@
         <v>14</v>
       </c>
       <c r="H322" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.4">
@@ -9268,7 +9282,7 @@
         <v>14</v>
       </c>
       <c r="H323" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.4">
@@ -9320,7 +9334,7 @@
         <v>14</v>
       </c>
       <c r="H325" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.4">
@@ -9398,7 +9412,7 @@
         <v>14</v>
       </c>
       <c r="H328" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.4">
@@ -9424,7 +9438,7 @@
         <v>14</v>
       </c>
       <c r="H329" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.4">
@@ -9450,7 +9464,7 @@
         <v>14</v>
       </c>
       <c r="H330" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.4">
@@ -9476,7 +9490,7 @@
         <v>14</v>
       </c>
       <c r="H331" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.4">
@@ -9502,7 +9516,7 @@
         <v>10</v>
       </c>
       <c r="H332" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.4">
@@ -9658,7 +9672,7 @@
         <v>10</v>
       </c>
       <c r="H338" s="7" t="s">
-        <v>3</v>
+        <v>88</v>
       </c>
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.4">
@@ -9684,7 +9698,7 @@
         <v>10</v>
       </c>
       <c r="H339" s="7" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.4">
@@ -9788,7 +9802,7 @@
         <v>10</v>
       </c>
       <c r="H343" s="7" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.4">
@@ -9840,7 +9854,7 @@
         <v>14</v>
       </c>
       <c r="H345" s="7" t="s">
-        <v>3</v>
+        <v>88</v>
       </c>
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.4">
@@ -9996,7 +10010,7 @@
         <v>14</v>
       </c>
       <c r="H351" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.4">
@@ -10022,7 +10036,7 @@
         <v>14</v>
       </c>
       <c r="H352" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.4">
@@ -10178,7 +10192,7 @@
         <v>11</v>
       </c>
       <c r="H358" s="7" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.4">
@@ -10204,7 +10218,7 @@
         <v>10</v>
       </c>
       <c r="H359" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.4">
@@ -10256,7 +10270,7 @@
         <v>14</v>
       </c>
       <c r="H361" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.4">
@@ -10334,7 +10348,7 @@
         <v>14</v>
       </c>
       <c r="H364" s="7" t="s">
-        <v>3</v>
+        <v>88</v>
       </c>
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.4">
@@ -10360,7 +10374,7 @@
         <v>13</v>
       </c>
       <c r="H365" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.4">
@@ -10386,7 +10400,7 @@
         <v>14</v>
       </c>
       <c r="H366" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.4">
@@ -10412,7 +10426,7 @@
         <v>14</v>
       </c>
       <c r="H367" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.4">
@@ -10438,7 +10452,7 @@
         <v>14</v>
       </c>
       <c r="H368" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.4">
@@ -10464,7 +10478,7 @@
         <v>14</v>
       </c>
       <c r="H369" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.4">
@@ -10490,7 +10504,7 @@
         <v>10</v>
       </c>
       <c r="H370" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.4">
@@ -10516,7 +10530,7 @@
         <v>10</v>
       </c>
       <c r="H371" s="7" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.4">
@@ -10542,7 +10556,7 @@
         <v>10</v>
       </c>
       <c r="H372" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.4">
@@ -10594,7 +10608,7 @@
         <v>10</v>
       </c>
       <c r="H374" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.4">
@@ -10646,7 +10660,7 @@
         <v>14</v>
       </c>
       <c r="H376" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.4">
@@ -10724,7 +10738,7 @@
         <v>10</v>
       </c>
       <c r="H379" s="7" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.4">
@@ -10776,7 +10790,7 @@
         <v>10</v>
       </c>
       <c r="H381" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.4">
@@ -10802,7 +10816,7 @@
         <v>10</v>
       </c>
       <c r="H382" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.4">
@@ -10854,7 +10868,7 @@
         <v>10</v>
       </c>
       <c r="H384" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.4">
@@ -10958,7 +10972,7 @@
         <v>14</v>
       </c>
       <c r="H388" s="7" t="s">
-        <v>3</v>
+        <v>88</v>
       </c>
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.4">
@@ -10984,7 +10998,7 @@
         <v>10</v>
       </c>
       <c r="H389" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.4">
@@ -11114,7 +11128,7 @@
         <v>10</v>
       </c>
       <c r="H394" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.4">
@@ -11140,7 +11154,7 @@
         <v>14</v>
       </c>
       <c r="H395" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.4">
@@ -11166,7 +11180,7 @@
         <v>14</v>
       </c>
       <c r="H396" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.4">
@@ -11192,7 +11206,7 @@
         <v>10</v>
       </c>
       <c r="H397" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.4">
@@ -11218,7 +11232,7 @@
         <v>10</v>
       </c>
       <c r="H398" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.4">
@@ -11244,7 +11258,7 @@
         <v>14</v>
       </c>
       <c r="H399" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.4">
@@ -11296,7 +11310,7 @@
         <v>13</v>
       </c>
       <c r="H401" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.4">
@@ -11400,7 +11414,7 @@
         <v>14</v>
       </c>
       <c r="H405" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.4">
@@ -11426,7 +11440,7 @@
         <v>10</v>
       </c>
       <c r="H406" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="407" spans="1:8" x14ac:dyDescent="0.4">
@@ -11452,7 +11466,7 @@
         <v>14</v>
       </c>
       <c r="H407" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.4">
@@ -11478,7 +11492,7 @@
         <v>14</v>
       </c>
       <c r="H408" s="7" t="s">
-        <v>3</v>
+        <v>88</v>
       </c>
     </row>
     <row r="409" spans="1:8" x14ac:dyDescent="0.4">
@@ -11530,7 +11544,7 @@
         <v>14</v>
       </c>
       <c r="H410" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="411" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11582,7 +11596,7 @@
         <v>14</v>
       </c>
       <c r="H412" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="413" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11634,7 +11648,7 @@
         <v>14</v>
       </c>
       <c r="H414" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="415" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11660,7 +11674,7 @@
         <v>10</v>
       </c>
       <c r="H415" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="416" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11712,7 +11726,7 @@
         <v>12</v>
       </c>
       <c r="H417" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="418" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11738,7 +11752,7 @@
         <v>10</v>
       </c>
       <c r="H418" s="7" t="s">
-        <v>4</v>
+        <v>88</v>
       </c>
     </row>
     <row r="419" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11790,7 +11804,7 @@
         <v>10</v>
       </c>
       <c r="H420" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="421" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11868,7 +11882,7 @@
         <v>10</v>
       </c>
       <c r="H423" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="424" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11894,7 +11908,7 @@
         <v>14</v>
       </c>
       <c r="H424" s="7" t="s">
-        <v>3</v>
+        <v>88</v>
       </c>
     </row>
     <row r="425" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11946,7 +11960,7 @@
         <v>10</v>
       </c>
       <c r="H426" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="427" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11972,7 +11986,7 @@
         <v>10</v>
       </c>
       <c r="H427" s="7" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="428" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11998,7 +12012,7 @@
         <v>14</v>
       </c>
       <c r="H428" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="429" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12024,7 +12038,7 @@
         <v>10</v>
       </c>
       <c r="H429" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="430" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12102,7 +12116,7 @@
         <v>10</v>
       </c>
       <c r="H432" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="433" spans="1:8" x14ac:dyDescent="0.4">
@@ -12128,7 +12142,7 @@
         <v>14</v>
       </c>
       <c r="H433" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.4">
@@ -12154,7 +12168,7 @@
         <v>10</v>
       </c>
       <c r="H434" s="7" t="s">
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="435" spans="1:8" x14ac:dyDescent="0.4">
@@ -12258,7 +12272,7 @@
         <v>10</v>
       </c>
       <c r="H438" s="7" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="439" spans="1:8" x14ac:dyDescent="0.4">
@@ -12284,7 +12298,7 @@
         <v>10</v>
       </c>
       <c r="H439" s="7" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="440" spans="1:8" x14ac:dyDescent="0.4">
@@ -12310,7 +12324,7 @@
         <v>10</v>
       </c>
       <c r="H440" s="7" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.4">
@@ -12336,7 +12350,7 @@
         <v>14</v>
       </c>
       <c r="H441" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="442" spans="1:8" x14ac:dyDescent="0.4">
@@ -12388,7 +12402,7 @@
         <v>10</v>
       </c>
       <c r="H443" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="444" spans="1:8" x14ac:dyDescent="0.4">
@@ -12414,7 +12428,7 @@
         <v>14</v>
       </c>
       <c r="H444" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="445" spans="1:8" x14ac:dyDescent="0.4">
@@ -12440,7 +12454,7 @@
         <v>10</v>
       </c>
       <c r="H445" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="446" spans="1:8" x14ac:dyDescent="0.4">
@@ -12466,7 +12480,7 @@
         <v>14</v>
       </c>
       <c r="H446" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="447" spans="1:8" x14ac:dyDescent="0.4">
@@ -12518,7 +12532,7 @@
         <v>10</v>
       </c>
       <c r="H448" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.4">
@@ -12596,7 +12610,7 @@
         <v>10</v>
       </c>
       <c r="H451" s="7" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.4">
@@ -12674,7 +12688,7 @@
         <v>14</v>
       </c>
       <c r="H454" s="7" t="s">
-        <v>3</v>
+        <v>88</v>
       </c>
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.4">
@@ -12726,7 +12740,7 @@
         <v>10</v>
       </c>
       <c r="H456" s="7" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.4">
@@ -12804,7 +12818,7 @@
         <v>12</v>
       </c>
       <c r="H459" s="7" t="s">
-        <v>4</v>
+        <v>88</v>
       </c>
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.4">
@@ -12856,7 +12870,7 @@
         <v>10</v>
       </c>
       <c r="H461" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.4">
@@ -12934,7 +12948,7 @@
         <v>10</v>
       </c>
       <c r="H464" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="465" spans="1:8" x14ac:dyDescent="0.4">
@@ -13038,7 +13052,7 @@
         <v>14</v>
       </c>
       <c r="H468" s="7" t="s">
-        <v>3</v>
+        <v>88</v>
       </c>
     </row>
     <row r="469" spans="1:8" x14ac:dyDescent="0.4">
@@ -13090,7 +13104,7 @@
         <v>10</v>
       </c>
       <c r="H470" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="471" spans="1:8" x14ac:dyDescent="0.4">
@@ -13142,7 +13156,7 @@
         <v>14</v>
       </c>
       <c r="H472" s="7" t="s">
-        <v>3</v>
+        <v>88</v>
       </c>
     </row>
     <row r="473" spans="1:8" x14ac:dyDescent="0.4">
@@ -13246,7 +13260,7 @@
         <v>10</v>
       </c>
       <c r="H476" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="477" spans="1:8" x14ac:dyDescent="0.4">
@@ -13272,7 +13286,7 @@
         <v>13</v>
       </c>
       <c r="H477" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="478" spans="1:8" x14ac:dyDescent="0.4">
@@ -13298,7 +13312,7 @@
         <v>12</v>
       </c>
       <c r="H478" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="479" spans="1:8" x14ac:dyDescent="0.4">
@@ -13324,7 +13338,7 @@
         <v>14</v>
       </c>
       <c r="H479" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="480" spans="1:8" x14ac:dyDescent="0.4">
@@ -13376,7 +13390,7 @@
         <v>10</v>
       </c>
       <c r="H481" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="482" spans="1:8" x14ac:dyDescent="0.4">
@@ -13454,7 +13468,7 @@
         <v>10</v>
       </c>
       <c r="H484" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="485" spans="1:8" x14ac:dyDescent="0.4">
@@ -13480,7 +13494,7 @@
         <v>10</v>
       </c>
       <c r="H485" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="486" spans="1:8" x14ac:dyDescent="0.4">
@@ -13506,7 +13520,7 @@
         <v>10</v>
       </c>
       <c r="H486" s="7" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="487" spans="1:8" x14ac:dyDescent="0.4">
@@ -13532,7 +13546,7 @@
         <v>10</v>
       </c>
       <c r="H487" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="488" spans="1:8" x14ac:dyDescent="0.4">
@@ -13610,7 +13624,7 @@
         <v>10</v>
       </c>
       <c r="H490" s="7" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="491" spans="1:8" x14ac:dyDescent="0.4">
@@ -13636,7 +13650,7 @@
         <v>14</v>
       </c>
       <c r="H491" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="492" spans="1:8" x14ac:dyDescent="0.4">
@@ -13662,7 +13676,7 @@
         <v>12</v>
       </c>
       <c r="H492" s="7" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="493" spans="1:8" x14ac:dyDescent="0.4">
@@ -13714,7 +13728,7 @@
         <v>10</v>
       </c>
       <c r="H494" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="495" spans="1:8" x14ac:dyDescent="0.4">
@@ -13740,7 +13754,7 @@
         <v>10</v>
       </c>
       <c r="H495" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="496" spans="1:8" x14ac:dyDescent="0.4">
@@ -13792,7 +13806,7 @@
         <v>14</v>
       </c>
       <c r="H497" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="498" spans="1:8" x14ac:dyDescent="0.4">
@@ -13818,7 +13832,7 @@
         <v>10</v>
       </c>
       <c r="H498" s="7" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="499" spans="1:8" x14ac:dyDescent="0.4">
@@ -13844,7 +13858,7 @@
         <v>10</v>
       </c>
       <c r="H499" s="7" t="s">
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="500" spans="1:8" x14ac:dyDescent="0.4">
@@ -13870,7 +13884,7 @@
         <v>10</v>
       </c>
       <c r="H500" s="7" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="501" spans="1:8" x14ac:dyDescent="0.4">
@@ -13896,7 +13910,7 @@
         <v>10</v>
       </c>
       <c r="H501" s="7" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="502" spans="1:8" x14ac:dyDescent="0.4">
@@ -13922,7 +13936,7 @@
         <v>10</v>
       </c>
       <c r="H502" s="7" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="503" spans="1:8" x14ac:dyDescent="0.4">
@@ -13948,7 +13962,7 @@
         <v>10</v>
       </c>
       <c r="H503" s="7" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="504" spans="1:8" x14ac:dyDescent="0.4">
@@ -13974,7 +13988,7 @@
         <v>10</v>
       </c>
       <c r="H504" s="7" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="505" spans="1:8" x14ac:dyDescent="0.4">
@@ -14000,7 +14014,7 @@
         <v>10</v>
       </c>
       <c r="H505" s="7" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="506" spans="1:8" x14ac:dyDescent="0.4">
@@ -14026,7 +14040,7 @@
         <v>10</v>
       </c>
       <c r="H506" s="7" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="507" spans="1:8" x14ac:dyDescent="0.4">
@@ -14052,7 +14066,7 @@
         <v>10</v>
       </c>
       <c r="H507" s="7" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="508" spans="1:8" x14ac:dyDescent="0.4">
@@ -14078,7 +14092,7 @@
         <v>10</v>
       </c>
       <c r="H508" s="7" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="509" spans="1:8" x14ac:dyDescent="0.4">
@@ -14104,7 +14118,7 @@
         <v>10</v>
       </c>
       <c r="H509" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="510" spans="1:8" x14ac:dyDescent="0.4">
@@ -14156,7 +14170,7 @@
         <v>10</v>
       </c>
       <c r="H511" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="512" spans="1:8" x14ac:dyDescent="0.4">
@@ -14182,7 +14196,7 @@
         <v>10</v>
       </c>
       <c r="H512" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="513" spans="1:8" x14ac:dyDescent="0.4">
@@ -14208,7 +14222,7 @@
         <v>10</v>
       </c>
       <c r="H513" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="514" spans="1:8" x14ac:dyDescent="0.4">
@@ -14234,7 +14248,7 @@
         <v>14</v>
       </c>
       <c r="H514" s="7" t="s">
-        <v>3</v>
+        <v>88</v>
       </c>
     </row>
     <row r="515" spans="1:8" x14ac:dyDescent="0.4">
@@ -14468,7 +14482,7 @@
         <v>14</v>
       </c>
       <c r="H523" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="524" spans="1:8" x14ac:dyDescent="0.4">
@@ -14494,7 +14508,7 @@
         <v>10</v>
       </c>
       <c r="H524" s="7" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
     </row>
     <row r="525" spans="1:8" x14ac:dyDescent="0.4">
@@ -14546,7 +14560,7 @@
         <v>10</v>
       </c>
       <c r="H526" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="527" spans="1:8" x14ac:dyDescent="0.4">
@@ -14598,7 +14612,7 @@
         <v>10</v>
       </c>
       <c r="H528" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="529" spans="1:8" x14ac:dyDescent="0.4">
@@ -14624,7 +14638,7 @@
         <v>10</v>
       </c>
       <c r="H529" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="530" spans="1:8" x14ac:dyDescent="0.4">
@@ -14676,7 +14690,7 @@
         <v>10</v>
       </c>
       <c r="H531" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="532" spans="1:8" x14ac:dyDescent="0.4">
@@ -14702,7 +14716,7 @@
         <v>10</v>
       </c>
       <c r="H532" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="533" spans="1:8" x14ac:dyDescent="0.4">
@@ -14728,7 +14742,7 @@
         <v>10</v>
       </c>
       <c r="H533" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="534" spans="1:8" x14ac:dyDescent="0.4">
@@ -14754,7 +14768,7 @@
         <v>10</v>
       </c>
       <c r="H534" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="535" spans="1:8" x14ac:dyDescent="0.4">
@@ -14780,7 +14794,7 @@
         <v>10</v>
       </c>
       <c r="H535" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="536" spans="1:8" x14ac:dyDescent="0.4">
@@ -14858,7 +14872,7 @@
         <v>12</v>
       </c>
       <c r="H538" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="539" spans="1:8" x14ac:dyDescent="0.4">
@@ -14962,7 +14976,7 @@
         <v>10</v>
       </c>
       <c r="H542" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="543" spans="1:8" x14ac:dyDescent="0.4">
@@ -14988,7 +15002,7 @@
         <v>10</v>
       </c>
       <c r="H543" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="544" spans="1:8" x14ac:dyDescent="0.4">
@@ -15014,7 +15028,7 @@
         <v>10</v>
       </c>
       <c r="H544" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="545" spans="1:8" x14ac:dyDescent="0.4">
@@ -15040,7 +15054,7 @@
         <v>10</v>
       </c>
       <c r="H545" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="546" spans="1:8" x14ac:dyDescent="0.4">
@@ -15092,7 +15106,7 @@
         <v>10</v>
       </c>
       <c r="H547" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="548" spans="1:8" x14ac:dyDescent="0.4">
@@ -15144,7 +15158,7 @@
         <v>10</v>
       </c>
       <c r="H549" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="550" spans="1:8" x14ac:dyDescent="0.4">
@@ -15196,7 +15210,7 @@
         <v>10</v>
       </c>
       <c r="H551" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="552" spans="1:8" x14ac:dyDescent="0.4">
@@ -15274,7 +15288,7 @@
         <v>10</v>
       </c>
       <c r="H554" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="555" spans="1:8" x14ac:dyDescent="0.4">
@@ -15326,7 +15340,7 @@
         <v>13</v>
       </c>
       <c r="H556" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="557" spans="1:8" x14ac:dyDescent="0.4">
@@ -15352,7 +15366,7 @@
         <v>10</v>
       </c>
       <c r="H557" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="558" spans="1:8" x14ac:dyDescent="0.4">
@@ -15378,7 +15392,7 @@
         <v>10</v>
       </c>
       <c r="H558" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="559" spans="1:8" x14ac:dyDescent="0.4">
@@ -15404,7 +15418,7 @@
         <v>10</v>
       </c>
       <c r="H559" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="560" spans="1:8" x14ac:dyDescent="0.4">
@@ -15430,7 +15444,7 @@
         <v>10</v>
       </c>
       <c r="H560" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="561" spans="1:8" x14ac:dyDescent="0.4">
@@ -15508,7 +15522,7 @@
         <v>10</v>
       </c>
       <c r="H563" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="564" spans="1:8" x14ac:dyDescent="0.4">
@@ -15612,7 +15626,7 @@
         <v>14</v>
       </c>
       <c r="H567" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="568" spans="1:8" x14ac:dyDescent="0.4">
@@ -15638,7 +15652,7 @@
         <v>10</v>
       </c>
       <c r="H568" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="569" spans="1:8" x14ac:dyDescent="0.4">
@@ -15664,7 +15678,7 @@
         <v>12</v>
       </c>
       <c r="H569" s="7" t="s">
-        <v>4</v>
+        <v>88</v>
       </c>
     </row>
     <row r="570" spans="1:8" x14ac:dyDescent="0.4">
@@ -15794,7 +15808,7 @@
         <v>10</v>
       </c>
       <c r="H574" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="575" spans="1:8" x14ac:dyDescent="0.4">
@@ -15843,10 +15857,10 @@
         <v>43926</v>
       </c>
       <c r="G576" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H576" s="7" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="577" spans="1:8" x14ac:dyDescent="0.4">
@@ -15872,7 +15886,7 @@
         <v>14</v>
       </c>
       <c r="H577" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="578" spans="1:8" x14ac:dyDescent="0.4">
@@ -15898,7 +15912,7 @@
         <v>10</v>
       </c>
       <c r="H578" s="7" t="s">
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="579" spans="1:8" x14ac:dyDescent="0.4">
@@ -15924,7 +15938,7 @@
         <v>10</v>
       </c>
       <c r="H579" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="580" spans="1:8" x14ac:dyDescent="0.4">
@@ -15950,7 +15964,7 @@
         <v>10</v>
       </c>
       <c r="H580" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="581" spans="1:8" x14ac:dyDescent="0.4">
@@ -15976,7 +15990,7 @@
         <v>10</v>
       </c>
       <c r="H581" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="582" spans="1:8" x14ac:dyDescent="0.4">
@@ -16002,7 +16016,7 @@
         <v>10</v>
       </c>
       <c r="H582" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="583" spans="1:8" x14ac:dyDescent="0.4">
@@ -16028,7 +16042,7 @@
         <v>10</v>
       </c>
       <c r="H583" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="584" spans="1:8" x14ac:dyDescent="0.4">
@@ -16054,7 +16068,7 @@
         <v>12</v>
       </c>
       <c r="H584" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="585" spans="1:8" x14ac:dyDescent="0.4">
@@ -16080,7 +16094,7 @@
         <v>10</v>
       </c>
       <c r="H585" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="586" spans="1:8" x14ac:dyDescent="0.4">
@@ -16132,7 +16146,7 @@
         <v>10</v>
       </c>
       <c r="H587" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="588" spans="1:8" x14ac:dyDescent="0.4">
@@ -16158,7 +16172,7 @@
         <v>10</v>
       </c>
       <c r="H588" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="589" spans="1:8" x14ac:dyDescent="0.4">
@@ -16184,7 +16198,7 @@
         <v>14</v>
       </c>
       <c r="H589" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="590" spans="1:8" x14ac:dyDescent="0.4">
@@ -16210,7 +16224,7 @@
         <v>12</v>
       </c>
       <c r="H590" s="7" t="s">
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="591" spans="1:8" x14ac:dyDescent="0.4">
@@ -16236,7 +16250,7 @@
         <v>10</v>
       </c>
       <c r="H591" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="592" spans="1:8" x14ac:dyDescent="0.4">
@@ -16262,7 +16276,7 @@
         <v>10</v>
       </c>
       <c r="H592" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="593" spans="1:8" x14ac:dyDescent="0.4">
@@ -16288,7 +16302,7 @@
         <v>10</v>
       </c>
       <c r="H593" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="594" spans="1:8" x14ac:dyDescent="0.4">
@@ -16314,7 +16328,7 @@
         <v>10</v>
       </c>
       <c r="H594" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="595" spans="1:8" x14ac:dyDescent="0.4">
@@ -16340,7 +16354,7 @@
         <v>10</v>
       </c>
       <c r="H595" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="596" spans="1:8" x14ac:dyDescent="0.4">
@@ -16366,7 +16380,7 @@
         <v>46</v>
       </c>
       <c r="H596" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="597" spans="1:8" x14ac:dyDescent="0.4">
@@ -16392,7 +16406,7 @@
         <v>46</v>
       </c>
       <c r="H597" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="598" spans="1:8" x14ac:dyDescent="0.4">
@@ -16444,7 +16458,7 @@
         <v>10</v>
       </c>
       <c r="H599" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="600" spans="1:8" x14ac:dyDescent="0.4">
@@ -16470,7 +16484,7 @@
         <v>10</v>
       </c>
       <c r="H600" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="601" spans="1:8" x14ac:dyDescent="0.4">
@@ -16496,7 +16510,7 @@
         <v>10</v>
       </c>
       <c r="H601" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="602" spans="1:8" x14ac:dyDescent="0.4">
@@ -16522,7 +16536,7 @@
         <v>12</v>
       </c>
       <c r="H602" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="603" spans="1:8" x14ac:dyDescent="0.4">
@@ -16574,7 +16588,7 @@
         <v>10</v>
       </c>
       <c r="H604" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="605" spans="1:8" x14ac:dyDescent="0.4">
@@ -16600,7 +16614,7 @@
         <v>10</v>
       </c>
       <c r="H605" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="606" spans="1:8" x14ac:dyDescent="0.4">
@@ -16626,7 +16640,7 @@
         <v>10</v>
       </c>
       <c r="H606" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="607" spans="1:8" x14ac:dyDescent="0.4">
@@ -16652,7 +16666,7 @@
         <v>10</v>
       </c>
       <c r="H607" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="608" spans="1:8" x14ac:dyDescent="0.4">
@@ -16756,7 +16770,7 @@
         <v>10</v>
       </c>
       <c r="H611" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="612" spans="1:8" x14ac:dyDescent="0.4">
@@ -16782,7 +16796,7 @@
         <v>10</v>
       </c>
       <c r="H612" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="613" spans="1:8" x14ac:dyDescent="0.4">
@@ -16808,7 +16822,7 @@
         <v>10</v>
       </c>
       <c r="H613" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="614" spans="1:8" x14ac:dyDescent="0.4">
@@ -16834,7 +16848,7 @@
         <v>10</v>
       </c>
       <c r="H614" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="615" spans="1:8" x14ac:dyDescent="0.4">
@@ -16860,7 +16874,7 @@
         <v>14</v>
       </c>
       <c r="H615" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="616" spans="1:8" x14ac:dyDescent="0.4">
@@ -16912,7 +16926,7 @@
         <v>10</v>
       </c>
       <c r="H617" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="618" spans="1:8" x14ac:dyDescent="0.4">
@@ -16938,7 +16952,7 @@
         <v>14</v>
       </c>
       <c r="H618" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="619" spans="1:8" x14ac:dyDescent="0.4">
@@ -16964,7 +16978,7 @@
         <v>10</v>
       </c>
       <c r="H619" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="620" spans="1:8" x14ac:dyDescent="0.4">
@@ -16990,7 +17004,7 @@
         <v>10</v>
       </c>
       <c r="H620" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="621" spans="1:8" x14ac:dyDescent="0.4">
@@ -17016,7 +17030,7 @@
         <v>10</v>
       </c>
       <c r="H621" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="622" spans="1:8" x14ac:dyDescent="0.4">
@@ -17042,7 +17056,7 @@
         <v>10</v>
       </c>
       <c r="H622" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="623" spans="1:8" x14ac:dyDescent="0.4">
@@ -17198,7 +17212,7 @@
         <v>10</v>
       </c>
       <c r="H628" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="629" spans="1:8" x14ac:dyDescent="0.4">
@@ -17276,7 +17290,7 @@
         <v>14</v>
       </c>
       <c r="H631" s="7" t="s">
-        <v>89</v>
+        <v>3</v>
       </c>
     </row>
     <row r="632" spans="1:8" x14ac:dyDescent="0.4">
@@ -17302,7 +17316,7 @@
         <v>10</v>
       </c>
       <c r="H632" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="633" spans="1:8" x14ac:dyDescent="0.4">
@@ -17328,7 +17342,7 @@
         <v>10</v>
       </c>
       <c r="H633" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="634" spans="1:8" x14ac:dyDescent="0.4">
@@ -17354,7 +17368,7 @@
         <v>12</v>
       </c>
       <c r="H634" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="635" spans="1:8" x14ac:dyDescent="0.4">
@@ -17380,7 +17394,7 @@
         <v>12</v>
       </c>
       <c r="H635" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="636" spans="1:8" x14ac:dyDescent="0.4">
@@ -17406,7 +17420,7 @@
         <v>12</v>
       </c>
       <c r="H636" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="637" spans="1:8" x14ac:dyDescent="0.4">
@@ -17432,7 +17446,7 @@
         <v>10</v>
       </c>
       <c r="H637" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="638" spans="1:8" x14ac:dyDescent="0.4">
@@ -17458,7 +17472,7 @@
         <v>10</v>
       </c>
       <c r="H638" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="639" spans="1:8" x14ac:dyDescent="0.4">
@@ -17510,7 +17524,7 @@
         <v>10</v>
       </c>
       <c r="H640" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="641" spans="1:8" x14ac:dyDescent="0.4">
@@ -17536,7 +17550,7 @@
         <v>10</v>
       </c>
       <c r="H641" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="642" spans="1:8" x14ac:dyDescent="0.4">
@@ -17562,7 +17576,7 @@
         <v>10</v>
       </c>
       <c r="H642" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="643" spans="1:8" x14ac:dyDescent="0.4">
@@ -17588,7 +17602,7 @@
         <v>10</v>
       </c>
       <c r="H643" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="644" spans="1:8" x14ac:dyDescent="0.4">
@@ -17640,7 +17654,7 @@
         <v>13</v>
       </c>
       <c r="H645" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="646" spans="1:8" x14ac:dyDescent="0.4">
@@ -17692,7 +17706,7 @@
         <v>14</v>
       </c>
       <c r="H647" s="7" t="s">
-        <v>3</v>
+        <v>88</v>
       </c>
     </row>
     <row r="648" spans="1:8" x14ac:dyDescent="0.4">
@@ -17715,7 +17729,7 @@
         <v>43925</v>
       </c>
       <c r="G648" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H648" s="7" t="s">
         <v>4</v>
@@ -17770,7 +17784,7 @@
         <v>10</v>
       </c>
       <c r="H650" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="651" spans="1:8" x14ac:dyDescent="0.4">
@@ -17796,7 +17810,7 @@
         <v>10</v>
       </c>
       <c r="H651" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="652" spans="1:8" x14ac:dyDescent="0.4">
@@ -17822,7 +17836,7 @@
         <v>10</v>
       </c>
       <c r="H652" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="653" spans="1:8" x14ac:dyDescent="0.4">
@@ -17848,7 +17862,7 @@
         <v>10</v>
       </c>
       <c r="H653" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="654" spans="1:8" x14ac:dyDescent="0.4">
@@ -17874,7 +17888,7 @@
         <v>10</v>
       </c>
       <c r="H654" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="655" spans="1:8" x14ac:dyDescent="0.4">
@@ -17900,7 +17914,7 @@
         <v>10</v>
       </c>
       <c r="H655" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="656" spans="1:8" x14ac:dyDescent="0.4">
@@ -17926,7 +17940,7 @@
         <v>13</v>
       </c>
       <c r="H656" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="657" spans="1:8" x14ac:dyDescent="0.4">
@@ -17952,7 +17966,7 @@
         <v>10</v>
       </c>
       <c r="H657" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="658" spans="1:8" x14ac:dyDescent="0.4">
@@ -17978,7 +17992,7 @@
         <v>10</v>
       </c>
       <c r="H658" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="659" spans="1:8" x14ac:dyDescent="0.4">
@@ -18056,7 +18070,7 @@
         <v>10</v>
       </c>
       <c r="H661" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="662" spans="1:8" x14ac:dyDescent="0.4">
@@ -18108,7 +18122,7 @@
         <v>10</v>
       </c>
       <c r="H663" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="664" spans="1:8" x14ac:dyDescent="0.4">
@@ -18134,7 +18148,7 @@
         <v>10</v>
       </c>
       <c r="H664" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="665" spans="1:8" x14ac:dyDescent="0.4">
@@ -18160,7 +18174,7 @@
         <v>10</v>
       </c>
       <c r="H665" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="666" spans="1:8" x14ac:dyDescent="0.4">
@@ -18186,7 +18200,7 @@
         <v>10</v>
       </c>
       <c r="H666" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="667" spans="1:8" x14ac:dyDescent="0.4">
@@ -18212,7 +18226,7 @@
         <v>10</v>
       </c>
       <c r="H667" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="668" spans="1:8" x14ac:dyDescent="0.4">
@@ -18238,7 +18252,7 @@
         <v>10</v>
       </c>
       <c r="H668" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="669" spans="1:8" x14ac:dyDescent="0.4">
@@ -18264,7 +18278,7 @@
         <v>10</v>
       </c>
       <c r="H669" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="670" spans="1:8" x14ac:dyDescent="0.4">
@@ -18290,7 +18304,7 @@
         <v>10</v>
       </c>
       <c r="H670" s="7" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="671" spans="1:8" x14ac:dyDescent="0.4">
@@ -18316,7 +18330,7 @@
         <v>10</v>
       </c>
       <c r="H671" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="672" spans="1:8" x14ac:dyDescent="0.4">
@@ -18342,7 +18356,7 @@
         <v>10</v>
       </c>
       <c r="H672" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="673" spans="1:8" x14ac:dyDescent="0.4">
@@ -18368,7 +18382,7 @@
         <v>10</v>
       </c>
       <c r="H673" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="674" spans="1:8" x14ac:dyDescent="0.4">
@@ -18394,7 +18408,7 @@
         <v>10</v>
       </c>
       <c r="H674" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="675" spans="1:8" x14ac:dyDescent="0.4">
@@ -18420,7 +18434,7 @@
         <v>10</v>
       </c>
       <c r="H675" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="676" spans="1:8" x14ac:dyDescent="0.4">
@@ -18446,7 +18460,7 @@
         <v>10</v>
       </c>
       <c r="H676" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="677" spans="1:8" x14ac:dyDescent="0.4">
@@ -18472,7 +18486,7 @@
         <v>10</v>
       </c>
       <c r="H677" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="678" spans="1:8" x14ac:dyDescent="0.4">
@@ -18498,7 +18512,7 @@
         <v>10</v>
       </c>
       <c r="H678" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="679" spans="1:8" x14ac:dyDescent="0.4">
@@ -18576,7 +18590,7 @@
         <v>10</v>
       </c>
       <c r="H681" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="682" spans="1:8" x14ac:dyDescent="0.4">
@@ -18732,7 +18746,7 @@
         <v>46</v>
       </c>
       <c r="H687" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="688" spans="1:8" x14ac:dyDescent="0.4">
@@ -18758,7 +18772,7 @@
         <v>46</v>
       </c>
       <c r="H688" s="7" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
     </row>
     <row r="689" spans="1:8" x14ac:dyDescent="0.4">
@@ -18784,7 +18798,7 @@
         <v>46</v>
       </c>
       <c r="H689" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="690" spans="1:8" x14ac:dyDescent="0.4">
@@ -18836,7 +18850,7 @@
         <v>46</v>
       </c>
       <c r="H691" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="692" spans="1:8" x14ac:dyDescent="0.4">
@@ -18862,7 +18876,7 @@
         <v>46</v>
       </c>
       <c r="H692" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="693" spans="1:8" x14ac:dyDescent="0.4">
@@ -18888,7 +18902,7 @@
         <v>46</v>
       </c>
       <c r="H693" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="694" spans="1:8" x14ac:dyDescent="0.4">
@@ -18940,7 +18954,7 @@
         <v>46</v>
       </c>
       <c r="H695" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="696" spans="1:8" x14ac:dyDescent="0.4">
@@ -18966,7 +18980,7 @@
         <v>46</v>
       </c>
       <c r="H696" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="697" spans="1:8" x14ac:dyDescent="0.4">
@@ -18992,7 +19006,7 @@
         <v>10</v>
       </c>
       <c r="H697" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="698" spans="1:8" x14ac:dyDescent="0.4">
@@ -19018,7 +19032,7 @@
         <v>10</v>
       </c>
       <c r="H698" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="699" spans="1:8" x14ac:dyDescent="0.4">
@@ -19044,7 +19058,7 @@
         <v>10</v>
       </c>
       <c r="H699" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="700" spans="1:8" x14ac:dyDescent="0.4">
@@ -19070,7 +19084,7 @@
         <v>10</v>
       </c>
       <c r="H700" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="701" spans="1:8" x14ac:dyDescent="0.4">
@@ -19096,7 +19110,7 @@
         <v>10</v>
       </c>
       <c r="H701" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="702" spans="1:8" x14ac:dyDescent="0.4">
@@ -19122,7 +19136,7 @@
         <v>10</v>
       </c>
       <c r="H702" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="703" spans="1:8" x14ac:dyDescent="0.4">
@@ -19148,7 +19162,7 @@
         <v>10</v>
       </c>
       <c r="H703" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="704" spans="1:8" x14ac:dyDescent="0.4">
@@ -19174,7 +19188,7 @@
         <v>10</v>
       </c>
       <c r="H704" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="705" spans="1:8" x14ac:dyDescent="0.4">
@@ -19200,7 +19214,7 @@
         <v>10</v>
       </c>
       <c r="H705" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="706" spans="1:8" x14ac:dyDescent="0.4">
@@ -19226,7 +19240,7 @@
         <v>10</v>
       </c>
       <c r="H706" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="707" spans="1:8" x14ac:dyDescent="0.4">
@@ -19252,7 +19266,7 @@
         <v>13</v>
       </c>
       <c r="H707" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="708" spans="1:8" x14ac:dyDescent="0.4">
@@ -19330,7 +19344,7 @@
         <v>10</v>
       </c>
       <c r="H710" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="711" spans="1:8" x14ac:dyDescent="0.4">
@@ -19408,7 +19422,7 @@
         <v>10</v>
       </c>
       <c r="H713" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="714" spans="1:8" x14ac:dyDescent="0.4">
@@ -19460,7 +19474,7 @@
         <v>10</v>
       </c>
       <c r="H715" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="716" spans="1:8" x14ac:dyDescent="0.4">
@@ -19486,7 +19500,7 @@
         <v>10</v>
       </c>
       <c r="H716" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="717" spans="1:8" x14ac:dyDescent="0.4">
@@ -19512,7 +19526,7 @@
         <v>10</v>
       </c>
       <c r="H717" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="718" spans="1:8" x14ac:dyDescent="0.4">
@@ -19564,7 +19578,7 @@
         <v>10</v>
       </c>
       <c r="H719" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="720" spans="1:8" x14ac:dyDescent="0.4">
@@ -19590,7 +19604,7 @@
         <v>10</v>
       </c>
       <c r="H720" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="721" spans="1:8" x14ac:dyDescent="0.4">
@@ -19616,7 +19630,7 @@
         <v>10</v>
       </c>
       <c r="H721" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="722" spans="1:8" x14ac:dyDescent="0.4">
@@ -19642,7 +19656,7 @@
         <v>10</v>
       </c>
       <c r="H722" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="723" spans="1:8" x14ac:dyDescent="0.4">
@@ -19668,7 +19682,7 @@
         <v>10</v>
       </c>
       <c r="H723" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="724" spans="1:8" x14ac:dyDescent="0.4">
@@ -19694,7 +19708,7 @@
         <v>10</v>
       </c>
       <c r="H724" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="725" spans="1:8" x14ac:dyDescent="0.4">
@@ -19720,7 +19734,7 @@
         <v>10</v>
       </c>
       <c r="H725" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="726" spans="1:8" x14ac:dyDescent="0.4">
@@ -19746,7 +19760,7 @@
         <v>10</v>
       </c>
       <c r="H726" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="727" spans="1:8" x14ac:dyDescent="0.4">
@@ -19772,7 +19786,7 @@
         <v>10</v>
       </c>
       <c r="H727" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="728" spans="1:8" x14ac:dyDescent="0.4">
@@ -19824,7 +19838,7 @@
         <v>10</v>
       </c>
       <c r="H729" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="730" spans="1:8" x14ac:dyDescent="0.4">
@@ -19850,7 +19864,7 @@
         <v>10</v>
       </c>
       <c r="H730" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="731" spans="1:8" x14ac:dyDescent="0.4">
@@ -19876,7 +19890,7 @@
         <v>10</v>
       </c>
       <c r="H731" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="732" spans="1:8" x14ac:dyDescent="0.4">
@@ -19902,7 +19916,7 @@
         <v>10</v>
       </c>
       <c r="H732" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="733" spans="1:8" x14ac:dyDescent="0.4">
@@ -19928,7 +19942,7 @@
         <v>10</v>
       </c>
       <c r="H733" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="734" spans="1:8" x14ac:dyDescent="0.4">
@@ -19980,7 +19994,7 @@
         <v>10</v>
       </c>
       <c r="H735" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="736" spans="1:8" x14ac:dyDescent="0.4">
@@ -20006,7 +20020,7 @@
         <v>10</v>
       </c>
       <c r="H736" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="737" spans="1:8" x14ac:dyDescent="0.4">
@@ -20032,7 +20046,7 @@
         <v>10</v>
       </c>
       <c r="H737" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="738" spans="1:8" x14ac:dyDescent="0.4">
@@ -20058,7 +20072,7 @@
         <v>10</v>
       </c>
       <c r="H738" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="739" spans="1:8" x14ac:dyDescent="0.4">
@@ -20084,7 +20098,7 @@
         <v>10</v>
       </c>
       <c r="H739" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="740" spans="1:8" x14ac:dyDescent="0.4">
@@ -20110,7 +20124,7 @@
         <v>10</v>
       </c>
       <c r="H740" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="741" spans="1:8" x14ac:dyDescent="0.4">
@@ -20162,7 +20176,7 @@
         <v>10</v>
       </c>
       <c r="H742" s="7" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
     </row>
     <row r="743" spans="1:8" x14ac:dyDescent="0.4">
@@ -20214,7 +20228,7 @@
         <v>10</v>
       </c>
       <c r="H744" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="745" spans="1:8" x14ac:dyDescent="0.4">
@@ -20240,7 +20254,7 @@
         <v>10</v>
       </c>
       <c r="H745" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="746" spans="1:8" x14ac:dyDescent="0.4">
@@ -20318,7 +20332,7 @@
         <v>10</v>
       </c>
       <c r="H748" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="749" spans="1:8" x14ac:dyDescent="0.4">
@@ -20344,7 +20358,7 @@
         <v>13</v>
       </c>
       <c r="H749" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="750" spans="1:8" x14ac:dyDescent="0.4">
@@ -20396,7 +20410,7 @@
         <v>10</v>
       </c>
       <c r="H751" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="752" spans="1:8" x14ac:dyDescent="0.4">
@@ -20448,7 +20462,7 @@
         <v>13</v>
       </c>
       <c r="H753" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="754" spans="1:8" x14ac:dyDescent="0.4">
@@ -20474,7 +20488,7 @@
         <v>10</v>
       </c>
       <c r="H754" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="755" spans="1:8" x14ac:dyDescent="0.4">
@@ -20500,7 +20514,7 @@
         <v>10</v>
       </c>
       <c r="H755" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="756" spans="1:8" x14ac:dyDescent="0.4">
@@ -20630,7 +20644,7 @@
         <v>10</v>
       </c>
       <c r="H760" s="7" t="s">
-        <v>73</v>
+        <v>4</v>
       </c>
     </row>
     <row r="761" spans="1:8" x14ac:dyDescent="0.4">
@@ -20656,7 +20670,7 @@
         <v>10</v>
       </c>
       <c r="H761" s="7" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="762" spans="1:8" x14ac:dyDescent="0.4">
@@ -20682,7 +20696,7 @@
         <v>10</v>
       </c>
       <c r="H762" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="763" spans="1:8" x14ac:dyDescent="0.4">
@@ -20786,7 +20800,7 @@
         <v>10</v>
       </c>
       <c r="H766" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="767" spans="1:8" x14ac:dyDescent="0.4">
@@ -20812,7 +20826,7 @@
         <v>10</v>
       </c>
       <c r="H767" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="768" spans="1:8" x14ac:dyDescent="0.4">
@@ -20838,7 +20852,7 @@
         <v>10</v>
       </c>
       <c r="H768" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="769" spans="1:8" x14ac:dyDescent="0.4">
@@ -20916,7 +20930,7 @@
         <v>10</v>
       </c>
       <c r="H771" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="772" spans="1:8" x14ac:dyDescent="0.4">
@@ -20942,7 +20956,7 @@
         <v>10</v>
       </c>
       <c r="H772" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="773" spans="1:8" x14ac:dyDescent="0.4">
@@ -20968,7 +20982,7 @@
         <v>10</v>
       </c>
       <c r="H773" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="774" spans="1:8" x14ac:dyDescent="0.4">
@@ -20994,7 +21008,7 @@
         <v>10</v>
       </c>
       <c r="H774" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="775" spans="1:8" x14ac:dyDescent="0.4">
@@ -21020,7 +21034,7 @@
         <v>10</v>
       </c>
       <c r="H775" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="776" spans="1:8" x14ac:dyDescent="0.4">
@@ -21046,7 +21060,7 @@
         <v>12</v>
       </c>
       <c r="H776" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="777" spans="1:8" x14ac:dyDescent="0.4">
@@ -21072,7 +21086,7 @@
         <v>10</v>
       </c>
       <c r="H777" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="778" spans="1:8" x14ac:dyDescent="0.4">
@@ -21098,7 +21112,7 @@
         <v>10</v>
       </c>
       <c r="H778" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="779" spans="1:8" x14ac:dyDescent="0.4">
@@ -21124,7 +21138,7 @@
         <v>10</v>
       </c>
       <c r="H779" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="780" spans="1:8" x14ac:dyDescent="0.4">
@@ -21150,7 +21164,7 @@
         <v>10</v>
       </c>
       <c r="H780" s="7" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="781" spans="1:8" x14ac:dyDescent="0.4">
@@ -21176,7 +21190,7 @@
         <v>10</v>
       </c>
       <c r="H781" s="7" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="782" spans="1:8" x14ac:dyDescent="0.4">
@@ -21228,7 +21242,7 @@
         <v>10</v>
       </c>
       <c r="H783" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="784" spans="1:8" x14ac:dyDescent="0.4">
@@ -21254,7 +21268,7 @@
         <v>10</v>
       </c>
       <c r="H784" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="785" spans="1:8" x14ac:dyDescent="0.4">
@@ -21306,7 +21320,7 @@
         <v>10</v>
       </c>
       <c r="H786" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="787" spans="1:8" x14ac:dyDescent="0.4">
@@ -21332,7 +21346,7 @@
         <v>10</v>
       </c>
       <c r="H787" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="788" spans="1:8" x14ac:dyDescent="0.4">
@@ -21358,7 +21372,7 @@
         <v>10</v>
       </c>
       <c r="H788" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="789" spans="1:8" x14ac:dyDescent="0.4">
@@ -21384,7 +21398,7 @@
         <v>10</v>
       </c>
       <c r="H789" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="790" spans="1:8" x14ac:dyDescent="0.4">
@@ -21410,7 +21424,7 @@
         <v>10</v>
       </c>
       <c r="H790" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="791" spans="1:8" x14ac:dyDescent="0.4">
@@ -21436,7 +21450,7 @@
         <v>10</v>
       </c>
       <c r="H791" s="7" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
     </row>
     <row r="792" spans="1:8" x14ac:dyDescent="0.4">
@@ -21462,7 +21476,7 @@
         <v>10</v>
       </c>
       <c r="H792" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="793" spans="1:8" x14ac:dyDescent="0.4">
@@ -21488,7 +21502,7 @@
         <v>10</v>
       </c>
       <c r="H793" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="794" spans="1:8" x14ac:dyDescent="0.4">
@@ -21514,7 +21528,7 @@
         <v>10</v>
       </c>
       <c r="H794" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="795" spans="1:8" x14ac:dyDescent="0.4">
@@ -21566,7 +21580,7 @@
         <v>10</v>
       </c>
       <c r="H796" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="797" spans="1:8" x14ac:dyDescent="0.4">
@@ -21592,7 +21606,7 @@
         <v>10</v>
       </c>
       <c r="H797" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="798" spans="1:8" x14ac:dyDescent="0.4">
@@ -21618,7 +21632,7 @@
         <v>10</v>
       </c>
       <c r="H798" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="799" spans="1:8" x14ac:dyDescent="0.4">
@@ -21644,7 +21658,7 @@
         <v>10</v>
       </c>
       <c r="H799" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="800" spans="1:8" x14ac:dyDescent="0.4">
@@ -21670,7 +21684,7 @@
         <v>10</v>
       </c>
       <c r="H800" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="801" spans="1:8" x14ac:dyDescent="0.4">
@@ -21696,7 +21710,7 @@
         <v>10</v>
       </c>
       <c r="H801" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="802" spans="1:8" x14ac:dyDescent="0.4">
@@ -21800,7 +21814,7 @@
         <v>10</v>
       </c>
       <c r="H805" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="806" spans="1:8" x14ac:dyDescent="0.4">
@@ -21826,7 +21840,7 @@
         <v>10</v>
       </c>
       <c r="H806" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="807" spans="1:8" x14ac:dyDescent="0.4">
@@ -21852,7 +21866,7 @@
         <v>10</v>
       </c>
       <c r="H807" s="7" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
     </row>
     <row r="808" spans="1:8" x14ac:dyDescent="0.4">
@@ -21878,7 +21892,7 @@
         <v>10</v>
       </c>
       <c r="H808" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="809" spans="1:8" x14ac:dyDescent="0.4">
@@ -21930,7 +21944,7 @@
         <v>10</v>
       </c>
       <c r="H810" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="811" spans="1:8" x14ac:dyDescent="0.4">
@@ -21956,7 +21970,7 @@
         <v>10</v>
       </c>
       <c r="H811" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="812" spans="1:8" x14ac:dyDescent="0.4">
@@ -21982,7 +21996,7 @@
         <v>10</v>
       </c>
       <c r="H812" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="813" spans="1:8" x14ac:dyDescent="0.4">
@@ -22060,7 +22074,7 @@
         <v>10</v>
       </c>
       <c r="H815" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="816" spans="1:8" x14ac:dyDescent="0.4">
@@ -22086,7 +22100,7 @@
         <v>10</v>
       </c>
       <c r="H816" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="817" spans="1:8" x14ac:dyDescent="0.4">
@@ -22112,7 +22126,7 @@
         <v>10</v>
       </c>
       <c r="H817" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="818" spans="1:8" x14ac:dyDescent="0.4">
@@ -22164,7 +22178,7 @@
         <v>10</v>
       </c>
       <c r="H819" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="820" spans="1:8" x14ac:dyDescent="0.4">
@@ -22216,7 +22230,7 @@
         <v>10</v>
       </c>
       <c r="H821" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="822" spans="1:8" x14ac:dyDescent="0.4">
@@ -22242,7 +22256,7 @@
         <v>10</v>
       </c>
       <c r="H822" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="823" spans="1:8" x14ac:dyDescent="0.4">
@@ -22346,7 +22360,7 @@
         <v>10</v>
       </c>
       <c r="H826" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="827" spans="1:8" x14ac:dyDescent="0.4">
@@ -22372,7 +22386,7 @@
         <v>10</v>
       </c>
       <c r="H827" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="828" spans="1:8" x14ac:dyDescent="0.4">
@@ -22395,7 +22409,7 @@
         <v>43925</v>
       </c>
       <c r="G828" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H828" s="7" t="s">
         <v>4</v>
@@ -22424,7 +22438,7 @@
         <v>10</v>
       </c>
       <c r="H829" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="830" spans="1:8" x14ac:dyDescent="0.4">
@@ -22528,7 +22542,7 @@
         <v>10</v>
       </c>
       <c r="H833" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="834" spans="1:8" x14ac:dyDescent="0.4">
@@ -22606,7 +22620,7 @@
         <v>10</v>
       </c>
       <c r="H836" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="837" spans="1:8" x14ac:dyDescent="0.4">
@@ -22658,7 +22672,7 @@
         <v>10</v>
       </c>
       <c r="H838" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="839" spans="1:8" x14ac:dyDescent="0.4">
@@ -22684,7 +22698,7 @@
         <v>10</v>
       </c>
       <c r="H839" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="840" spans="1:8" x14ac:dyDescent="0.4">
@@ -22710,7 +22724,7 @@
         <v>10</v>
       </c>
       <c r="H840" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="841" spans="1:8" x14ac:dyDescent="0.4">
@@ -22736,7 +22750,7 @@
         <v>10</v>
       </c>
       <c r="H841" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="842" spans="1:8" x14ac:dyDescent="0.4">
@@ -22814,7 +22828,7 @@
         <v>10</v>
       </c>
       <c r="H844" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="845" spans="1:8" x14ac:dyDescent="0.4">
@@ -22840,7 +22854,7 @@
         <v>10</v>
       </c>
       <c r="H845" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="846" spans="1:8" x14ac:dyDescent="0.4">
@@ -22892,7 +22906,7 @@
         <v>10</v>
       </c>
       <c r="H847" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="848" spans="1:8" x14ac:dyDescent="0.4">
@@ -22918,7 +22932,7 @@
         <v>10</v>
       </c>
       <c r="H848" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="849" spans="1:8" x14ac:dyDescent="0.4">
@@ -22944,7 +22958,7 @@
         <v>10</v>
       </c>
       <c r="H849" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="850" spans="1:8" x14ac:dyDescent="0.4">
@@ -22970,7 +22984,7 @@
         <v>10</v>
       </c>
       <c r="H850" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="851" spans="1:8" x14ac:dyDescent="0.4">
@@ -23022,7 +23036,7 @@
         <v>10</v>
       </c>
       <c r="H852" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="853" spans="1:8" x14ac:dyDescent="0.4">
@@ -23048,7 +23062,7 @@
         <v>10</v>
       </c>
       <c r="H853" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="854" spans="1:8" x14ac:dyDescent="0.4">
@@ -23074,7 +23088,7 @@
         <v>10</v>
       </c>
       <c r="H854" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="855" spans="1:8" x14ac:dyDescent="0.4">
@@ -23100,7 +23114,7 @@
         <v>13</v>
       </c>
       <c r="H855" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="856" spans="1:8" x14ac:dyDescent="0.4">
@@ -23152,7 +23166,7 @@
         <v>10</v>
       </c>
       <c r="H857" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="858" spans="1:8" x14ac:dyDescent="0.4">
@@ -23256,7 +23270,7 @@
         <v>10</v>
       </c>
       <c r="H861" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="862" spans="1:8" x14ac:dyDescent="0.4">
@@ -23282,7 +23296,7 @@
         <v>10</v>
       </c>
       <c r="H862" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="863" spans="1:8" x14ac:dyDescent="0.4">
@@ -23308,7 +23322,7 @@
         <v>46</v>
       </c>
       <c r="H863" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="864" spans="1:8" x14ac:dyDescent="0.4">
@@ -23334,7 +23348,7 @@
         <v>46</v>
       </c>
       <c r="H864" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="865" spans="1:8" x14ac:dyDescent="0.4">
@@ -23386,7 +23400,7 @@
         <v>10</v>
       </c>
       <c r="H866" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="867" spans="1:8" x14ac:dyDescent="0.4">
@@ -23412,7 +23426,7 @@
         <v>10</v>
       </c>
       <c r="H867" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="868" spans="1:8" x14ac:dyDescent="0.4">
@@ -23490,7 +23504,7 @@
         <v>10</v>
       </c>
       <c r="H870" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="871" spans="1:8" x14ac:dyDescent="0.4">
@@ -23516,7 +23530,7 @@
         <v>10</v>
       </c>
       <c r="H871" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="872" spans="1:8" x14ac:dyDescent="0.4">
@@ -23568,7 +23582,7 @@
         <v>10</v>
       </c>
       <c r="H873" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="874" spans="1:8" x14ac:dyDescent="0.4">
@@ -23646,7 +23660,7 @@
         <v>13</v>
       </c>
       <c r="H876" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="877" spans="1:8" x14ac:dyDescent="0.4">
@@ -23672,7 +23686,7 @@
         <v>10</v>
       </c>
       <c r="H877" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="878" spans="1:8" x14ac:dyDescent="0.4">
@@ -23698,7 +23712,7 @@
         <v>10</v>
       </c>
       <c r="H878" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="879" spans="1:8" x14ac:dyDescent="0.4">
@@ -23776,7 +23790,7 @@
         <v>10</v>
       </c>
       <c r="H881" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="882" spans="1:8" x14ac:dyDescent="0.4">
@@ -23802,7 +23816,7 @@
         <v>14</v>
       </c>
       <c r="H882" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="883" spans="1:8" x14ac:dyDescent="0.4">
@@ -23828,7 +23842,7 @@
         <v>10</v>
       </c>
       <c r="H883" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="884" spans="1:8" x14ac:dyDescent="0.4">
@@ -23854,7 +23868,7 @@
         <v>10</v>
       </c>
       <c r="H884" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="885" spans="1:8" x14ac:dyDescent="0.4">
@@ -23880,7 +23894,7 @@
         <v>10</v>
       </c>
       <c r="H885" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="886" spans="1:8" x14ac:dyDescent="0.4">
@@ -23906,7 +23920,7 @@
         <v>10</v>
       </c>
       <c r="H886" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="887" spans="1:8" x14ac:dyDescent="0.4">
@@ -23932,7 +23946,7 @@
         <v>10</v>
       </c>
       <c r="H887" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="888" spans="1:8" x14ac:dyDescent="0.4">
@@ -23958,7 +23972,7 @@
         <v>12</v>
       </c>
       <c r="H888" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="889" spans="1:8" x14ac:dyDescent="0.4">
@@ -23984,7 +23998,7 @@
         <v>13</v>
       </c>
       <c r="H889" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="890" spans="1:8" x14ac:dyDescent="0.4">
@@ -24010,7 +24024,7 @@
         <v>10</v>
       </c>
       <c r="H890" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="891" spans="1:8" x14ac:dyDescent="0.4">
@@ -24036,7 +24050,7 @@
         <v>10</v>
       </c>
       <c r="H891" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="892" spans="1:8" x14ac:dyDescent="0.4">
@@ -24062,7 +24076,7 @@
         <v>10</v>
       </c>
       <c r="H892" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="893" spans="1:8" x14ac:dyDescent="0.4">
@@ -24166,7 +24180,7 @@
         <v>12</v>
       </c>
       <c r="H896" s="7" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
     </row>
     <row r="897" spans="1:8" x14ac:dyDescent="0.4">
@@ -24218,7 +24232,7 @@
         <v>10</v>
       </c>
       <c r="H898" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="899" spans="1:8" x14ac:dyDescent="0.4">
@@ -24270,7 +24284,7 @@
         <v>10</v>
       </c>
       <c r="H900" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="901" spans="1:8" x14ac:dyDescent="0.4">
@@ -24296,7 +24310,7 @@
         <v>10</v>
       </c>
       <c r="H901" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="902" spans="1:8" x14ac:dyDescent="0.4">
@@ -24322,7 +24336,7 @@
         <v>10</v>
       </c>
       <c r="H902" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="903" spans="1:8" x14ac:dyDescent="0.4">
@@ -24348,7 +24362,7 @@
         <v>10</v>
       </c>
       <c r="H903" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="904" spans="1:8" x14ac:dyDescent="0.4">
@@ -24374,7 +24388,7 @@
         <v>10</v>
       </c>
       <c r="H904" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="905" spans="1:8" x14ac:dyDescent="0.4">
@@ -24449,10 +24463,10 @@
         <v>43932</v>
       </c>
       <c r="G907" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H907" s="7" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="908" spans="1:8" x14ac:dyDescent="0.4">
@@ -24478,7 +24492,7 @@
         <v>10</v>
       </c>
       <c r="H908" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="909" spans="1:8" x14ac:dyDescent="0.4">
@@ -24530,7 +24544,7 @@
         <v>10</v>
       </c>
       <c r="H910" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="911" spans="1:8" x14ac:dyDescent="0.4">
@@ -24556,7 +24570,7 @@
         <v>10</v>
       </c>
       <c r="H911" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="912" spans="1:8" x14ac:dyDescent="0.4">
@@ -24582,7 +24596,7 @@
         <v>10</v>
       </c>
       <c r="H912" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="913" spans="1:8" x14ac:dyDescent="0.4">
@@ -24608,7 +24622,7 @@
         <v>10</v>
       </c>
       <c r="H913" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="914" spans="1:8" x14ac:dyDescent="0.4">
@@ -24634,7 +24648,7 @@
         <v>10</v>
       </c>
       <c r="H914" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="915" spans="1:8" x14ac:dyDescent="0.4">
@@ -24660,7 +24674,7 @@
         <v>10</v>
       </c>
       <c r="H915" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="916" spans="1:8" x14ac:dyDescent="0.4">
@@ -24686,7 +24700,7 @@
         <v>10</v>
       </c>
       <c r="H916" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="917" spans="1:8" x14ac:dyDescent="0.4">
@@ -24712,7 +24726,7 @@
         <v>10</v>
       </c>
       <c r="H917" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="918" spans="1:8" x14ac:dyDescent="0.4">
@@ -24738,7 +24752,7 @@
         <v>10</v>
       </c>
       <c r="H918" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="919" spans="1:8" x14ac:dyDescent="0.4">
@@ -24764,7 +24778,7 @@
         <v>10</v>
       </c>
       <c r="H919" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="920" spans="1:8" x14ac:dyDescent="0.4">
@@ -24790,7 +24804,7 @@
         <v>10</v>
       </c>
       <c r="H920" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="921" spans="1:8" x14ac:dyDescent="0.4">
@@ -24842,7 +24856,7 @@
         <v>10</v>
       </c>
       <c r="H922" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="923" spans="1:8" x14ac:dyDescent="0.4">
@@ -24894,7 +24908,7 @@
         <v>10</v>
       </c>
       <c r="H924" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="925" spans="1:8" x14ac:dyDescent="0.4">
@@ -24920,7 +24934,7 @@
         <v>10</v>
       </c>
       <c r="H925" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="926" spans="1:8" x14ac:dyDescent="0.4">
@@ -24946,7 +24960,7 @@
         <v>10</v>
       </c>
       <c r="H926" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="927" spans="1:8" x14ac:dyDescent="0.4">
@@ -24972,7 +24986,7 @@
         <v>10</v>
       </c>
       <c r="H927" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="928" spans="1:8" x14ac:dyDescent="0.4">
@@ -25050,7 +25064,7 @@
         <v>10</v>
       </c>
       <c r="H930" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="931" spans="1:8" x14ac:dyDescent="0.4">
@@ -25076,7 +25090,7 @@
         <v>10</v>
       </c>
       <c r="H931" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="932" spans="1:8" x14ac:dyDescent="0.4">
@@ -25102,7 +25116,7 @@
         <v>10</v>
       </c>
       <c r="H932" s="7" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
     </row>
     <row r="933" spans="1:8" x14ac:dyDescent="0.4">
@@ -25154,7 +25168,7 @@
         <v>10</v>
       </c>
       <c r="H934" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="935" spans="1:8" x14ac:dyDescent="0.4">
@@ -25180,7 +25194,7 @@
         <v>10</v>
       </c>
       <c r="H935" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="936" spans="1:8" x14ac:dyDescent="0.4">
@@ -25206,7 +25220,7 @@
         <v>10</v>
       </c>
       <c r="H936" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="937" spans="1:8" x14ac:dyDescent="0.4">
@@ -25232,7 +25246,7 @@
         <v>10</v>
       </c>
       <c r="H937" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="938" spans="1:8" x14ac:dyDescent="0.4">
@@ -25258,7 +25272,7 @@
         <v>10</v>
       </c>
       <c r="H938" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="939" spans="1:8" x14ac:dyDescent="0.4">
@@ -25336,7 +25350,7 @@
         <v>46</v>
       </c>
       <c r="H941" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="942" spans="1:8" x14ac:dyDescent="0.4">
@@ -25362,7 +25376,7 @@
         <v>10</v>
       </c>
       <c r="H942" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="943" spans="1:8" x14ac:dyDescent="0.4">
@@ -25388,7 +25402,7 @@
         <v>12</v>
       </c>
       <c r="H943" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="944" spans="1:8" x14ac:dyDescent="0.4">
@@ -25492,7 +25506,7 @@
         <v>10</v>
       </c>
       <c r="H947" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="948" spans="1:8" x14ac:dyDescent="0.4">
@@ -25518,7 +25532,7 @@
         <v>10</v>
       </c>
       <c r="H948" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="949" spans="1:8" x14ac:dyDescent="0.4">
@@ -25544,7 +25558,7 @@
         <v>10</v>
       </c>
       <c r="H949" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="950" spans="1:8" x14ac:dyDescent="0.4">
@@ -25570,7 +25584,7 @@
         <v>10</v>
       </c>
       <c r="H950" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="951" spans="1:8" x14ac:dyDescent="0.4">
@@ -25596,7 +25610,7 @@
         <v>14</v>
       </c>
       <c r="H951" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="952" spans="1:8" x14ac:dyDescent="0.4">
@@ -25622,7 +25636,7 @@
         <v>10</v>
       </c>
       <c r="H952" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="953" spans="1:8" x14ac:dyDescent="0.4">
@@ -25648,7 +25662,7 @@
         <v>12</v>
       </c>
       <c r="H953" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="954" spans="1:8" x14ac:dyDescent="0.4">
@@ -25674,7 +25688,7 @@
         <v>10</v>
       </c>
       <c r="H954" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="955" spans="1:8" x14ac:dyDescent="0.4">
@@ -25700,7 +25714,7 @@
         <v>12</v>
       </c>
       <c r="H955" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="956" spans="1:8" x14ac:dyDescent="0.4">
@@ -25726,7 +25740,7 @@
         <v>10</v>
       </c>
       <c r="H956" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="957" spans="1:8" x14ac:dyDescent="0.4">
@@ -25752,7 +25766,7 @@
         <v>10</v>
       </c>
       <c r="H957" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="958" spans="1:8" x14ac:dyDescent="0.4">
@@ -25778,7 +25792,7 @@
         <v>14</v>
       </c>
       <c r="H958" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="959" spans="1:8" x14ac:dyDescent="0.4">
@@ -25801,10 +25815,10 @@
         <v>43931</v>
       </c>
       <c r="G959" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H959" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="960" spans="1:8" x14ac:dyDescent="0.4">
@@ -25830,7 +25844,7 @@
         <v>10</v>
       </c>
       <c r="H960" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="961" spans="1:8" x14ac:dyDescent="0.4">
@@ -25856,7 +25870,7 @@
         <v>10</v>
       </c>
       <c r="H961" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="962" spans="1:8" x14ac:dyDescent="0.4">
@@ -25882,7 +25896,7 @@
         <v>10</v>
       </c>
       <c r="H962" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="963" spans="1:8" x14ac:dyDescent="0.4">
@@ -25934,7 +25948,7 @@
         <v>10</v>
       </c>
       <c r="H964" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="965" spans="1:8" x14ac:dyDescent="0.4">
@@ -25960,7 +25974,7 @@
         <v>10</v>
       </c>
       <c r="H965" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="966" spans="1:8" x14ac:dyDescent="0.4">
@@ -25986,7 +26000,7 @@
         <v>10</v>
       </c>
       <c r="H966" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="967" spans="1:8" x14ac:dyDescent="0.4">
@@ -26012,7 +26026,7 @@
         <v>10</v>
       </c>
       <c r="H967" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="968" spans="1:8" x14ac:dyDescent="0.4">
@@ -26064,7 +26078,7 @@
         <v>10</v>
       </c>
       <c r="H969" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="970" spans="1:8" x14ac:dyDescent="0.4">
@@ -26090,7 +26104,7 @@
         <v>10</v>
       </c>
       <c r="H970" s="7" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
     </row>
     <row r="971" spans="1:8" x14ac:dyDescent="0.4">
@@ -26116,7 +26130,7 @@
         <v>10</v>
       </c>
       <c r="H971" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="972" spans="1:8" x14ac:dyDescent="0.4">
@@ -26142,7 +26156,7 @@
         <v>10</v>
       </c>
       <c r="H972" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="973" spans="1:8" x14ac:dyDescent="0.4">
@@ -26168,7 +26182,7 @@
         <v>10</v>
       </c>
       <c r="H973" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="974" spans="1:8" x14ac:dyDescent="0.4">
@@ -26194,7 +26208,7 @@
         <v>10</v>
       </c>
       <c r="H974" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="975" spans="1:8" x14ac:dyDescent="0.4">
@@ -26220,7 +26234,7 @@
         <v>10</v>
       </c>
       <c r="H975" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="976" spans="1:8" x14ac:dyDescent="0.4">
@@ -26246,7 +26260,7 @@
         <v>10</v>
       </c>
       <c r="H976" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="977" spans="1:8" x14ac:dyDescent="0.4">
@@ -26402,7 +26416,7 @@
         <v>10</v>
       </c>
       <c r="H982" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="983" spans="1:8" x14ac:dyDescent="0.4">
@@ -26428,7 +26442,7 @@
         <v>10</v>
       </c>
       <c r="H983" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="984" spans="1:8" x14ac:dyDescent="0.4">
@@ -26454,7 +26468,7 @@
         <v>10</v>
       </c>
       <c r="H984" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="985" spans="1:8" x14ac:dyDescent="0.4">
@@ -26480,7 +26494,7 @@
         <v>10</v>
       </c>
       <c r="H985" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="986" spans="1:8" x14ac:dyDescent="0.4">
@@ -26506,7 +26520,7 @@
         <v>10</v>
       </c>
       <c r="H986" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="987" spans="1:8" x14ac:dyDescent="0.4">
@@ -26532,7 +26546,7 @@
         <v>10</v>
       </c>
       <c r="H987" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="988" spans="1:8" x14ac:dyDescent="0.4">
@@ -26558,7 +26572,7 @@
         <v>10</v>
       </c>
       <c r="H988" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="989" spans="1:8" x14ac:dyDescent="0.4">
@@ -26584,7 +26598,7 @@
         <v>10</v>
       </c>
       <c r="H989" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="990" spans="1:8" x14ac:dyDescent="0.4">
@@ -26610,7 +26624,7 @@
         <v>10</v>
       </c>
       <c r="H990" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="991" spans="1:8" x14ac:dyDescent="0.4">
@@ -26636,7 +26650,7 @@
         <v>46</v>
       </c>
       <c r="H991" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="992" spans="1:8" x14ac:dyDescent="0.4">
@@ -26662,7 +26676,7 @@
         <v>13</v>
       </c>
       <c r="H992" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="993" spans="1:8" x14ac:dyDescent="0.4">
@@ -26688,7 +26702,7 @@
         <v>10</v>
       </c>
       <c r="H993" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="994" spans="1:8" x14ac:dyDescent="0.4">
@@ -26714,7 +26728,7 @@
         <v>10</v>
       </c>
       <c r="H994" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="995" spans="1:8" x14ac:dyDescent="0.4">
@@ -26740,7 +26754,7 @@
         <v>10</v>
       </c>
       <c r="H995" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="996" spans="1:8" x14ac:dyDescent="0.4">
@@ -26766,7 +26780,7 @@
         <v>10</v>
       </c>
       <c r="H996" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="997" spans="1:8" x14ac:dyDescent="0.4">
@@ -26792,7 +26806,7 @@
         <v>10</v>
       </c>
       <c r="H997" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="998" spans="1:8" x14ac:dyDescent="0.4">
@@ -26818,7 +26832,7 @@
         <v>10</v>
       </c>
       <c r="H998" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="999" spans="1:8" x14ac:dyDescent="0.4">
@@ -26844,7 +26858,7 @@
         <v>10</v>
       </c>
       <c r="H999" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1000" spans="1:8" x14ac:dyDescent="0.4">
@@ -26870,7 +26884,7 @@
         <v>10</v>
       </c>
       <c r="H1000" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1001" spans="1:8" x14ac:dyDescent="0.4">
@@ -26896,7 +26910,7 @@
         <v>10</v>
       </c>
       <c r="H1001" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1002" spans="1:8" x14ac:dyDescent="0.4">
@@ -26922,7 +26936,7 @@
         <v>10</v>
       </c>
       <c r="H1002" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1003" spans="1:8" x14ac:dyDescent="0.4">
@@ -26948,7 +26962,7 @@
         <v>10</v>
       </c>
       <c r="H1003" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1004" spans="1:8" x14ac:dyDescent="0.4">
@@ -26974,7 +26988,7 @@
         <v>10</v>
       </c>
       <c r="H1004" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1005" spans="1:8" x14ac:dyDescent="0.4">
@@ -27000,7 +27014,7 @@
         <v>10</v>
       </c>
       <c r="H1005" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1006" spans="1:8" x14ac:dyDescent="0.4">
@@ -27026,7 +27040,7 @@
         <v>10</v>
       </c>
       <c r="H1006" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1007" spans="1:8" x14ac:dyDescent="0.4">
@@ -27078,7 +27092,7 @@
         <v>10</v>
       </c>
       <c r="H1008" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1009" spans="1:8" x14ac:dyDescent="0.4">
@@ -27156,7 +27170,7 @@
         <v>10</v>
       </c>
       <c r="H1011" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1012" spans="1:8" x14ac:dyDescent="0.4">
@@ -27182,7 +27196,7 @@
         <v>10</v>
       </c>
       <c r="H1012" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1013" spans="1:8" x14ac:dyDescent="0.4">
@@ -27208,7 +27222,7 @@
         <v>10</v>
       </c>
       <c r="H1013" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1014" spans="1:8" x14ac:dyDescent="0.4">
@@ -27234,7 +27248,7 @@
         <v>10</v>
       </c>
       <c r="H1014" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1015" spans="1:8" x14ac:dyDescent="0.4">
@@ -27286,7 +27300,7 @@
         <v>10</v>
       </c>
       <c r="H1016" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1017" spans="1:8" x14ac:dyDescent="0.4">
@@ -27312,7 +27326,7 @@
         <v>10</v>
       </c>
       <c r="H1017" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1018" spans="1:8" x14ac:dyDescent="0.4">
@@ -27338,7 +27352,7 @@
         <v>10</v>
       </c>
       <c r="H1018" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1019" spans="1:8" x14ac:dyDescent="0.4">
@@ -27390,7 +27404,7 @@
         <v>10</v>
       </c>
       <c r="H1020" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1021" spans="1:8" x14ac:dyDescent="0.4">
@@ -27416,7 +27430,7 @@
         <v>10</v>
       </c>
       <c r="H1021" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1022" spans="1:8" x14ac:dyDescent="0.4">
@@ -27442,7 +27456,7 @@
         <v>10</v>
       </c>
       <c r="H1022" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1023" spans="1:8" x14ac:dyDescent="0.4">
@@ -27468,7 +27482,7 @@
         <v>10</v>
       </c>
       <c r="H1023" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1024" spans="1:8" x14ac:dyDescent="0.4">
@@ -27494,7 +27508,7 @@
         <v>10</v>
       </c>
       <c r="H1024" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1025" spans="1:8" x14ac:dyDescent="0.4">
@@ -27520,7 +27534,7 @@
         <v>12</v>
       </c>
       <c r="H1025" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1026" spans="1:8" x14ac:dyDescent="0.4">
@@ -27546,7 +27560,7 @@
         <v>10</v>
       </c>
       <c r="H1026" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1027" spans="1:8" x14ac:dyDescent="0.4">
@@ -27598,7 +27612,7 @@
         <v>13</v>
       </c>
       <c r="H1028" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1029" spans="1:8" x14ac:dyDescent="0.4">
@@ -27624,7 +27638,7 @@
         <v>12</v>
       </c>
       <c r="H1029" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1030" spans="1:8" x14ac:dyDescent="0.4">
@@ -27650,7 +27664,7 @@
         <v>10</v>
       </c>
       <c r="H1030" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1031" spans="1:8" x14ac:dyDescent="0.4">
@@ -27676,7 +27690,7 @@
         <v>10</v>
       </c>
       <c r="H1031" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1032" spans="1:8" x14ac:dyDescent="0.4">
@@ -27728,7 +27742,7 @@
         <v>10</v>
       </c>
       <c r="H1033" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1034" spans="1:8" x14ac:dyDescent="0.4">
@@ -27780,7 +27794,7 @@
         <v>10</v>
       </c>
       <c r="H1035" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1036" spans="1:8" x14ac:dyDescent="0.4">
@@ -27806,7 +27820,7 @@
         <v>10</v>
       </c>
       <c r="H1036" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1037" spans="1:8" x14ac:dyDescent="0.4">
@@ -27832,7 +27846,7 @@
         <v>10</v>
       </c>
       <c r="H1037" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1038" spans="1:8" x14ac:dyDescent="0.4">
@@ -27858,7 +27872,7 @@
         <v>13</v>
       </c>
       <c r="H1038" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1039" spans="1:8" x14ac:dyDescent="0.4">
@@ -27910,7 +27924,7 @@
         <v>10</v>
       </c>
       <c r="H1040" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1041" spans="1:8" x14ac:dyDescent="0.4">
@@ -27936,7 +27950,7 @@
         <v>10</v>
       </c>
       <c r="H1041" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1042" spans="1:8" x14ac:dyDescent="0.4">
@@ -27962,7 +27976,7 @@
         <v>10</v>
       </c>
       <c r="H1042" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1043" spans="1:8" x14ac:dyDescent="0.4">
@@ -27988,7 +28002,7 @@
         <v>10</v>
       </c>
       <c r="H1043" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1044" spans="1:8" x14ac:dyDescent="0.4">
@@ -28014,7 +28028,7 @@
         <v>10</v>
       </c>
       <c r="H1044" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1045" spans="1:8" x14ac:dyDescent="0.4">
@@ -28040,7 +28054,7 @@
         <v>10</v>
       </c>
       <c r="H1045" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1046" spans="1:8" x14ac:dyDescent="0.4">
@@ -28066,7 +28080,7 @@
         <v>10</v>
       </c>
       <c r="H1046" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1047" spans="1:8" x14ac:dyDescent="0.4">
@@ -28092,7 +28106,7 @@
         <v>10</v>
       </c>
       <c r="H1047" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1048" spans="1:8" x14ac:dyDescent="0.4">
@@ -28118,7 +28132,7 @@
         <v>10</v>
       </c>
       <c r="H1048" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1049" spans="1:8" x14ac:dyDescent="0.4">
@@ -28144,7 +28158,7 @@
         <v>10</v>
       </c>
       <c r="H1049" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1050" spans="1:8" x14ac:dyDescent="0.4">
@@ -28170,7 +28184,7 @@
         <v>10</v>
       </c>
       <c r="H1050" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1051" spans="1:8" x14ac:dyDescent="0.4">
@@ -28196,7 +28210,7 @@
         <v>10</v>
       </c>
       <c r="H1051" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1052" spans="1:8" x14ac:dyDescent="0.4">
@@ -28222,7 +28236,7 @@
         <v>10</v>
       </c>
       <c r="H1052" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1053" spans="1:8" x14ac:dyDescent="0.4">
@@ -28248,7 +28262,7 @@
         <v>10</v>
       </c>
       <c r="H1053" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1054" spans="1:8" x14ac:dyDescent="0.4">
@@ -28274,7 +28288,7 @@
         <v>10</v>
       </c>
       <c r="H1054" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1055" spans="1:8" x14ac:dyDescent="0.4">
@@ -28300,7 +28314,7 @@
         <v>10</v>
       </c>
       <c r="H1055" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1056" spans="1:8" x14ac:dyDescent="0.4">
@@ -28326,7 +28340,7 @@
         <v>10</v>
       </c>
       <c r="H1056" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1057" spans="1:8" x14ac:dyDescent="0.4">
@@ -28378,7 +28392,7 @@
         <v>10</v>
       </c>
       <c r="H1058" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1059" spans="1:8" x14ac:dyDescent="0.4">
@@ -28404,7 +28418,7 @@
         <v>10</v>
       </c>
       <c r="H1059" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1060" spans="1:8" x14ac:dyDescent="0.4">
@@ -28430,7 +28444,7 @@
         <v>10</v>
       </c>
       <c r="H1060" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1061" spans="1:8" x14ac:dyDescent="0.4">
@@ -28456,7 +28470,7 @@
         <v>10</v>
       </c>
       <c r="H1061" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="1062" spans="1:8" x14ac:dyDescent="0.4">
@@ -28508,7 +28522,7 @@
         <v>10</v>
       </c>
       <c r="H1063" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1064" spans="1:8" x14ac:dyDescent="0.4">
@@ -28534,7 +28548,7 @@
         <v>11</v>
       </c>
       <c r="H1064" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1065" spans="1:8" x14ac:dyDescent="0.4">
@@ -28638,7 +28652,7 @@
         <v>10</v>
       </c>
       <c r="H1068" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1069" spans="1:8" x14ac:dyDescent="0.4">
@@ -28664,7 +28678,7 @@
         <v>10</v>
       </c>
       <c r="H1069" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1070" spans="1:8" x14ac:dyDescent="0.4">
@@ -28690,7 +28704,7 @@
         <v>10</v>
       </c>
       <c r="H1070" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1071" spans="1:8" x14ac:dyDescent="0.4">
@@ -28716,7 +28730,7 @@
         <v>10</v>
       </c>
       <c r="H1071" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1072" spans="1:8" x14ac:dyDescent="0.4">
@@ -28742,7 +28756,7 @@
         <v>14</v>
       </c>
       <c r="H1072" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1073" spans="1:8" x14ac:dyDescent="0.4">
@@ -28768,7 +28782,7 @@
         <v>10</v>
       </c>
       <c r="H1073" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1074" spans="1:8" x14ac:dyDescent="0.4">
@@ -28794,7 +28808,7 @@
         <v>10</v>
       </c>
       <c r="H1074" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1075" spans="1:8" x14ac:dyDescent="0.4">
@@ -28820,7 +28834,7 @@
         <v>11</v>
       </c>
       <c r="H1075" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1076" spans="1:8" x14ac:dyDescent="0.4">
@@ -28872,7 +28886,7 @@
         <v>10</v>
       </c>
       <c r="H1077" s="7" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
     </row>
     <row r="1078" spans="1:8" x14ac:dyDescent="0.4">
@@ -28924,7 +28938,7 @@
         <v>10</v>
       </c>
       <c r="H1079" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1080" spans="1:8" x14ac:dyDescent="0.4">
@@ -28950,7 +28964,7 @@
         <v>10</v>
       </c>
       <c r="H1080" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1081" spans="1:8" x14ac:dyDescent="0.4">
@@ -28976,7 +28990,7 @@
         <v>10</v>
       </c>
       <c r="H1081" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1082" spans="1:8" x14ac:dyDescent="0.4">
@@ -29002,7 +29016,7 @@
         <v>10</v>
       </c>
       <c r="H1082" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1083" spans="1:8" x14ac:dyDescent="0.4">
@@ -29028,7 +29042,7 @@
         <v>10</v>
       </c>
       <c r="H1083" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1084" spans="1:8" x14ac:dyDescent="0.4">
@@ -29051,10 +29065,10 @@
         <v>43937</v>
       </c>
       <c r="G1084" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H1084" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1085" spans="1:8" x14ac:dyDescent="0.4">
@@ -29080,7 +29094,7 @@
         <v>10</v>
       </c>
       <c r="H1085" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1086" spans="1:8" x14ac:dyDescent="0.4">
@@ -29106,7 +29120,7 @@
         <v>10</v>
       </c>
       <c r="H1086" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1087" spans="1:8" x14ac:dyDescent="0.4">
@@ -29132,7 +29146,7 @@
         <v>10</v>
       </c>
       <c r="H1087" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1088" spans="1:8" x14ac:dyDescent="0.4">
@@ -29158,7 +29172,7 @@
         <v>10</v>
       </c>
       <c r="H1088" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1089" spans="1:8" x14ac:dyDescent="0.4">
@@ -29210,7 +29224,7 @@
         <v>10</v>
       </c>
       <c r="H1090" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1091" spans="1:8" x14ac:dyDescent="0.4">
@@ -29236,7 +29250,7 @@
         <v>10</v>
       </c>
       <c r="H1091" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1092" spans="1:8" x14ac:dyDescent="0.4">
@@ -29262,7 +29276,7 @@
         <v>10</v>
       </c>
       <c r="H1092" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1093" spans="1:8" x14ac:dyDescent="0.4">
@@ -29288,7 +29302,7 @@
         <v>10</v>
       </c>
       <c r="H1093" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1094" spans="1:8" x14ac:dyDescent="0.4">
@@ -29314,7 +29328,7 @@
         <v>10</v>
       </c>
       <c r="H1094" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1095" spans="1:8" x14ac:dyDescent="0.4">
@@ -29340,7 +29354,7 @@
         <v>10</v>
       </c>
       <c r="H1095" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1096" spans="1:8" x14ac:dyDescent="0.4">
@@ -29366,7 +29380,7 @@
         <v>10</v>
       </c>
       <c r="H1096" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1097" spans="1:8" x14ac:dyDescent="0.4">
@@ -29392,7 +29406,7 @@
         <v>10</v>
       </c>
       <c r="H1097" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1098" spans="1:8" x14ac:dyDescent="0.4">
@@ -29418,7 +29432,7 @@
         <v>10</v>
       </c>
       <c r="H1098" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1099" spans="1:8" x14ac:dyDescent="0.4">
@@ -29444,7 +29458,7 @@
         <v>10</v>
       </c>
       <c r="H1099" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1100" spans="1:8" x14ac:dyDescent="0.4">
@@ -29470,7 +29484,7 @@
         <v>10</v>
       </c>
       <c r="H1100" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1101" spans="1:8" x14ac:dyDescent="0.4">
@@ -29496,7 +29510,7 @@
         <v>11</v>
       </c>
       <c r="H1101" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1102" spans="1:8" x14ac:dyDescent="0.4">
@@ -29522,7 +29536,7 @@
         <v>10</v>
       </c>
       <c r="H1102" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1103" spans="1:8" x14ac:dyDescent="0.4">
@@ -29548,7 +29562,7 @@
         <v>10</v>
       </c>
       <c r="H1103" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1104" spans="1:8" x14ac:dyDescent="0.4">
@@ -29574,7 +29588,7 @@
         <v>10</v>
       </c>
       <c r="H1104" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1105" spans="1:8" x14ac:dyDescent="0.4">
@@ -29600,7 +29614,7 @@
         <v>10</v>
       </c>
       <c r="H1105" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1106" spans="1:8" x14ac:dyDescent="0.4">
@@ -29626,7 +29640,7 @@
         <v>10</v>
       </c>
       <c r="H1106" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1107" spans="1:8" x14ac:dyDescent="0.4">
@@ -29652,7 +29666,7 @@
         <v>10</v>
       </c>
       <c r="H1107" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1108" spans="1:8" x14ac:dyDescent="0.4">
@@ -29678,7 +29692,7 @@
         <v>10</v>
       </c>
       <c r="H1108" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1109" spans="1:8" x14ac:dyDescent="0.4">
@@ -29704,7 +29718,7 @@
         <v>10</v>
       </c>
       <c r="H1109" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1110" spans="1:8" x14ac:dyDescent="0.4">
@@ -29730,7 +29744,7 @@
         <v>10</v>
       </c>
       <c r="H1110" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1111" spans="1:8" x14ac:dyDescent="0.4">
@@ -29756,7 +29770,7 @@
         <v>10</v>
       </c>
       <c r="H1111" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1112" spans="1:8" x14ac:dyDescent="0.4">
@@ -29782,7 +29796,7 @@
         <v>10</v>
       </c>
       <c r="H1112" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1113" spans="1:8" x14ac:dyDescent="0.4">
@@ -29808,7 +29822,7 @@
         <v>10</v>
       </c>
       <c r="H1113" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1114" spans="1:8" x14ac:dyDescent="0.4">
@@ -29834,7 +29848,7 @@
         <v>10</v>
       </c>
       <c r="H1114" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1115" spans="1:8" x14ac:dyDescent="0.4">
@@ -29860,7 +29874,7 @@
         <v>10</v>
       </c>
       <c r="H1115" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1116" spans="1:8" x14ac:dyDescent="0.4">
@@ -29886,7 +29900,7 @@
         <v>10</v>
       </c>
       <c r="H1116" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1117" spans="1:8" x14ac:dyDescent="0.4">
@@ -29912,7 +29926,7 @@
         <v>10</v>
       </c>
       <c r="H1117" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1118" spans="1:8" x14ac:dyDescent="0.4">
@@ -29964,7 +29978,7 @@
         <v>11</v>
       </c>
       <c r="H1119" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1120" spans="1:8" x14ac:dyDescent="0.4">
@@ -30016,7 +30030,7 @@
         <v>10</v>
       </c>
       <c r="H1121" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1122" spans="1:8" x14ac:dyDescent="0.4">
@@ -30042,7 +30056,7 @@
         <v>10</v>
       </c>
       <c r="H1122" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1123" spans="1:8" x14ac:dyDescent="0.4">
@@ -30068,7 +30082,7 @@
         <v>10</v>
       </c>
       <c r="H1123" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1124" spans="1:8" x14ac:dyDescent="0.4">
@@ -30094,7 +30108,7 @@
         <v>10</v>
       </c>
       <c r="H1124" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1125" spans="1:8" x14ac:dyDescent="0.4">
@@ -30120,7 +30134,7 @@
         <v>46</v>
       </c>
       <c r="H1125" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1126" spans="1:8" x14ac:dyDescent="0.4">
@@ -30146,7 +30160,7 @@
         <v>46</v>
       </c>
       <c r="H1126" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1127" spans="1:8" x14ac:dyDescent="0.4">
@@ -30172,7 +30186,7 @@
         <v>46</v>
       </c>
       <c r="H1127" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1128" spans="1:8" x14ac:dyDescent="0.4">
@@ -30198,7 +30212,7 @@
         <v>46</v>
       </c>
       <c r="H1128" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1129" spans="1:8" x14ac:dyDescent="0.4">
@@ -30224,7 +30238,7 @@
         <v>46</v>
       </c>
       <c r="H1129" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1130" spans="1:8" x14ac:dyDescent="0.4">
@@ -30250,7 +30264,7 @@
         <v>46</v>
       </c>
       <c r="H1130" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1131" spans="1:8" x14ac:dyDescent="0.4">
@@ -30276,7 +30290,7 @@
         <v>46</v>
       </c>
       <c r="H1131" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1132" spans="1:8" x14ac:dyDescent="0.4">
@@ -30302,7 +30316,7 @@
         <v>46</v>
       </c>
       <c r="H1132" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1133" spans="1:8" x14ac:dyDescent="0.4">
@@ -30325,10 +30339,10 @@
         <v>46</v>
       </c>
       <c r="G1133" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="H1133" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1134" spans="1:8" x14ac:dyDescent="0.4">
@@ -30351,10 +30365,10 @@
         <v>46</v>
       </c>
       <c r="G1134" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="H1134" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1135" spans="1:8" x14ac:dyDescent="0.4">
@@ -30380,7 +30394,7 @@
         <v>46</v>
       </c>
       <c r="H1135" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1136" spans="1:8" x14ac:dyDescent="0.4">
@@ -30406,7 +30420,7 @@
         <v>46</v>
       </c>
       <c r="H1136" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1137" spans="1:8" x14ac:dyDescent="0.4">
@@ -30432,7 +30446,7 @@
         <v>46</v>
       </c>
       <c r="H1137" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1138" spans="1:8" x14ac:dyDescent="0.4">
@@ -30458,7 +30472,7 @@
         <v>46</v>
       </c>
       <c r="H1138" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1139" spans="1:8" x14ac:dyDescent="0.4">
@@ -30484,7 +30498,7 @@
         <v>46</v>
       </c>
       <c r="H1139" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1140" spans="1:8" x14ac:dyDescent="0.4">
@@ -30510,7 +30524,7 @@
         <v>46</v>
       </c>
       <c r="H1140" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1141" spans="1:8" x14ac:dyDescent="0.4">
@@ -30536,7 +30550,7 @@
         <v>46</v>
       </c>
       <c r="H1141" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1142" spans="1:8" x14ac:dyDescent="0.4">
@@ -30562,7 +30576,7 @@
         <v>13</v>
       </c>
       <c r="H1142" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1143" spans="1:8" x14ac:dyDescent="0.4">
@@ -30588,7 +30602,7 @@
         <v>46</v>
       </c>
       <c r="H1143" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1144" spans="1:8" x14ac:dyDescent="0.4">
@@ -30614,7 +30628,7 @@
         <v>46</v>
       </c>
       <c r="H1144" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1145" spans="1:8" x14ac:dyDescent="0.4">
@@ -30640,7 +30654,7 @@
         <v>46</v>
       </c>
       <c r="H1145" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1146" spans="1:8" x14ac:dyDescent="0.4">
@@ -30666,7 +30680,7 @@
         <v>13</v>
       </c>
       <c r="H1146" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1147" spans="1:8" x14ac:dyDescent="0.4">
@@ -30692,7 +30706,7 @@
         <v>46</v>
       </c>
       <c r="H1147" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1148" spans="1:8" x14ac:dyDescent="0.4">
@@ -30718,7 +30732,7 @@
         <v>46</v>
       </c>
       <c r="H1148" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1149" spans="1:8" x14ac:dyDescent="0.4">
@@ -30744,7 +30758,7 @@
         <v>46</v>
       </c>
       <c r="H1149" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1150" spans="1:8" x14ac:dyDescent="0.4">
@@ -30770,7 +30784,7 @@
         <v>46</v>
       </c>
       <c r="H1150" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1151" spans="1:8" x14ac:dyDescent="0.4">
@@ -30796,7 +30810,7 @@
         <v>46</v>
       </c>
       <c r="H1151" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1152" spans="1:8" x14ac:dyDescent="0.4">
@@ -30819,10 +30833,10 @@
         <v>46</v>
       </c>
       <c r="G1152" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="H1152" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1153" spans="1:8" x14ac:dyDescent="0.4">
@@ -30848,7 +30862,7 @@
         <v>46</v>
       </c>
       <c r="H1153" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1154" spans="1:8" x14ac:dyDescent="0.4">
@@ -30874,7 +30888,7 @@
         <v>46</v>
       </c>
       <c r="H1154" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1155" spans="1:8" x14ac:dyDescent="0.4">
@@ -30900,7 +30914,7 @@
         <v>46</v>
       </c>
       <c r="H1155" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1156" spans="1:8" x14ac:dyDescent="0.4">
@@ -30926,7 +30940,7 @@
         <v>46</v>
       </c>
       <c r="H1156" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1157" spans="1:8" x14ac:dyDescent="0.4">
@@ -30952,7 +30966,7 @@
         <v>46</v>
       </c>
       <c r="H1157" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1158" spans="1:8" x14ac:dyDescent="0.4">
@@ -31004,7 +31018,7 @@
         <v>46</v>
       </c>
       <c r="H1159" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1160" spans="1:8" x14ac:dyDescent="0.4">
@@ -31030,7 +31044,7 @@
         <v>46</v>
       </c>
       <c r="H1160" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1161" spans="1:8" x14ac:dyDescent="0.4">
@@ -31056,7 +31070,7 @@
         <v>46</v>
       </c>
       <c r="H1161" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1162" spans="1:8" x14ac:dyDescent="0.4">
@@ -31082,7 +31096,7 @@
         <v>46</v>
       </c>
       <c r="H1162" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1163" spans="1:8" x14ac:dyDescent="0.4">
@@ -31108,7 +31122,7 @@
         <v>46</v>
       </c>
       <c r="H1163" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1164" spans="1:8" x14ac:dyDescent="0.4">
@@ -31134,7 +31148,7 @@
         <v>46</v>
       </c>
       <c r="H1164" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1165" spans="1:8" x14ac:dyDescent="0.4">
@@ -31160,7 +31174,7 @@
         <v>46</v>
       </c>
       <c r="H1165" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1166" spans="1:8" x14ac:dyDescent="0.4">
@@ -31186,7 +31200,7 @@
         <v>11</v>
       </c>
       <c r="H1166" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1167" spans="1:8" x14ac:dyDescent="0.4">
@@ -31264,7 +31278,7 @@
         <v>10</v>
       </c>
       <c r="H1169" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1170" spans="1:8" x14ac:dyDescent="0.4">
@@ -31290,7 +31304,7 @@
         <v>10</v>
       </c>
       <c r="H1170" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1171" spans="1:8" x14ac:dyDescent="0.4">
@@ -31316,7 +31330,7 @@
         <v>13</v>
       </c>
       <c r="H1171" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1172" spans="1:8" x14ac:dyDescent="0.4">
@@ -31342,7 +31356,7 @@
         <v>10</v>
       </c>
       <c r="H1172" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1173" spans="1:8" x14ac:dyDescent="0.4">
@@ -31368,7 +31382,7 @@
         <v>10</v>
       </c>
       <c r="H1173" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1174" spans="1:8" x14ac:dyDescent="0.4">
@@ -31394,7 +31408,7 @@
         <v>10</v>
       </c>
       <c r="H1174" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1175" spans="1:8" x14ac:dyDescent="0.4">
@@ -31420,7 +31434,7 @@
         <v>46</v>
       </c>
       <c r="H1175" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1176" spans="1:8" x14ac:dyDescent="0.4">
@@ -31446,7 +31460,7 @@
         <v>10</v>
       </c>
       <c r="H1176" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1177" spans="1:8" x14ac:dyDescent="0.4">
@@ -31472,7 +31486,7 @@
         <v>13</v>
       </c>
       <c r="H1177" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1178" spans="1:8" x14ac:dyDescent="0.4">
@@ -31498,7 +31512,7 @@
         <v>10</v>
       </c>
       <c r="H1178" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1179" spans="1:8" x14ac:dyDescent="0.4">
@@ -31509,7 +31523,7 @@
         <v>43940</v>
       </c>
       <c r="C1179" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D1179" t="s">
         <v>25</v>
@@ -31524,7 +31538,7 @@
         <v>10</v>
       </c>
       <c r="H1179" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1180" spans="1:8" x14ac:dyDescent="0.4">
@@ -31550,7 +31564,7 @@
         <v>46</v>
       </c>
       <c r="H1180" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1181" spans="1:8" x14ac:dyDescent="0.4">
@@ -31576,7 +31590,7 @@
         <v>10</v>
       </c>
       <c r="H1181" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1182" spans="1:8" x14ac:dyDescent="0.4">
@@ -31602,7 +31616,7 @@
         <v>10</v>
       </c>
       <c r="H1182" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1183" spans="1:8" x14ac:dyDescent="0.4">
@@ -31628,7 +31642,7 @@
         <v>10</v>
       </c>
       <c r="H1183" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1184" spans="1:8" x14ac:dyDescent="0.4">
@@ -31654,7 +31668,7 @@
         <v>46</v>
       </c>
       <c r="H1184" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1185" spans="1:8" x14ac:dyDescent="0.4">
@@ -31680,7 +31694,7 @@
         <v>10</v>
       </c>
       <c r="H1185" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1186" spans="1:8" x14ac:dyDescent="0.4">
@@ -31706,7 +31720,7 @@
         <v>10</v>
       </c>
       <c r="H1186" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1187" spans="1:8" x14ac:dyDescent="0.4">
@@ -31732,7 +31746,7 @@
         <v>10</v>
       </c>
       <c r="H1187" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1188" spans="1:8" x14ac:dyDescent="0.4">
@@ -31758,7 +31772,7 @@
         <v>46</v>
       </c>
       <c r="H1188" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1189" spans="1:8" x14ac:dyDescent="0.4">
@@ -31784,7 +31798,7 @@
         <v>46</v>
       </c>
       <c r="H1189" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1190" spans="1:8" x14ac:dyDescent="0.4">
@@ -31810,7 +31824,7 @@
         <v>46</v>
       </c>
       <c r="H1190" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1191" spans="1:8" x14ac:dyDescent="0.4">
@@ -31836,7 +31850,7 @@
         <v>46</v>
       </c>
       <c r="H1191" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1192" spans="1:8" x14ac:dyDescent="0.4">
@@ -31862,7 +31876,7 @@
         <v>46</v>
       </c>
       <c r="H1192" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1193" spans="1:8" x14ac:dyDescent="0.4">
@@ -31888,7 +31902,7 @@
         <v>10</v>
       </c>
       <c r="H1193" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1194" spans="1:8" x14ac:dyDescent="0.4">
@@ -31914,7 +31928,7 @@
         <v>46</v>
       </c>
       <c r="H1194" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1195" spans="1:8" x14ac:dyDescent="0.4">
@@ -31940,7 +31954,7 @@
         <v>46</v>
       </c>
       <c r="H1195" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1196" spans="1:8" x14ac:dyDescent="0.4">
@@ -31966,7 +31980,7 @@
         <v>46</v>
       </c>
       <c r="H1196" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1197" spans="1:8" x14ac:dyDescent="0.4">
@@ -31992,7 +32006,7 @@
         <v>46</v>
       </c>
       <c r="H1197" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1198" spans="1:8" x14ac:dyDescent="0.4">
@@ -32018,7 +32032,7 @@
         <v>46</v>
       </c>
       <c r="H1198" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1199" spans="1:8" x14ac:dyDescent="0.4">
@@ -32044,7 +32058,7 @@
         <v>46</v>
       </c>
       <c r="H1199" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1200" spans="1:8" x14ac:dyDescent="0.4">
@@ -32070,7 +32084,7 @@
         <v>46</v>
       </c>
       <c r="H1200" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1201" spans="1:8" x14ac:dyDescent="0.4">
@@ -32096,7 +32110,7 @@
         <v>46</v>
       </c>
       <c r="H1201" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1202" spans="1:8" x14ac:dyDescent="0.4">
@@ -32122,7 +32136,7 @@
         <v>10</v>
       </c>
       <c r="H1202" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1203" spans="1:8" x14ac:dyDescent="0.4">
@@ -32148,7 +32162,7 @@
         <v>10</v>
       </c>
       <c r="H1203" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1204" spans="1:8" x14ac:dyDescent="0.4">
@@ -32174,7 +32188,7 @@
         <v>10</v>
       </c>
       <c r="H1204" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1205" spans="1:8" x14ac:dyDescent="0.4">
@@ -32197,10 +32211,10 @@
         <v>43934</v>
       </c>
       <c r="G1205" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H1205" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1206" spans="1:8" x14ac:dyDescent="0.4">
@@ -32226,7 +32240,7 @@
         <v>10</v>
       </c>
       <c r="H1206" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1207" spans="1:8" x14ac:dyDescent="0.4">
@@ -32252,7 +32266,7 @@
         <v>10</v>
       </c>
       <c r="H1207" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1208" spans="1:8" x14ac:dyDescent="0.4">
@@ -32304,7 +32318,7 @@
         <v>10</v>
       </c>
       <c r="H1209" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1210" spans="1:8" x14ac:dyDescent="0.4">
@@ -32330,7 +32344,7 @@
         <v>11</v>
       </c>
       <c r="H1210" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1211" spans="1:8" x14ac:dyDescent="0.4">
@@ -32356,7 +32370,7 @@
         <v>10</v>
       </c>
       <c r="H1211" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1212" spans="1:8" x14ac:dyDescent="0.4">
@@ -32382,7 +32396,7 @@
         <v>13</v>
       </c>
       <c r="H1212" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1213" spans="1:8" x14ac:dyDescent="0.4">
@@ -32434,7 +32448,7 @@
         <v>46</v>
       </c>
       <c r="H1214" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1215" spans="1:8" x14ac:dyDescent="0.4">
@@ -32460,7 +32474,7 @@
         <v>46</v>
       </c>
       <c r="H1215" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1216" spans="1:8" x14ac:dyDescent="0.4">
@@ -32486,7 +32500,7 @@
         <v>46</v>
       </c>
       <c r="H1216" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1217" spans="1:8" x14ac:dyDescent="0.4">
@@ -32512,7 +32526,7 @@
         <v>46</v>
       </c>
       <c r="H1217" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1218" spans="1:8" x14ac:dyDescent="0.4">
@@ -32538,7 +32552,7 @@
         <v>13</v>
       </c>
       <c r="H1218" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1219" spans="1:8" x14ac:dyDescent="0.4">
@@ -32564,7 +32578,7 @@
         <v>46</v>
       </c>
       <c r="H1219" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1220" spans="1:8" x14ac:dyDescent="0.4">
@@ -32642,7 +32656,7 @@
         <v>46</v>
       </c>
       <c r="H1222" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1223" spans="1:8" x14ac:dyDescent="0.4">
@@ -32668,7 +32682,7 @@
         <v>46</v>
       </c>
       <c r="H1223" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1224" spans="1:8" x14ac:dyDescent="0.4">
@@ -32694,7 +32708,7 @@
         <v>46</v>
       </c>
       <c r="H1224" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1225" spans="1:8" x14ac:dyDescent="0.4">
@@ -32720,7 +32734,7 @@
         <v>46</v>
       </c>
       <c r="H1225" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1226" spans="1:8" x14ac:dyDescent="0.4">
@@ -32746,7 +32760,7 @@
         <v>46</v>
       </c>
       <c r="H1226" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1227" spans="1:8" x14ac:dyDescent="0.4">
@@ -32772,7 +32786,7 @@
         <v>46</v>
       </c>
       <c r="H1227" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1228" spans="1:8" x14ac:dyDescent="0.4">
@@ -32798,7 +32812,7 @@
         <v>46</v>
       </c>
       <c r="H1228" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1229" spans="1:8" x14ac:dyDescent="0.4">
@@ -32824,7 +32838,7 @@
         <v>46</v>
       </c>
       <c r="H1229" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1230" spans="1:8" x14ac:dyDescent="0.4">
@@ -32850,7 +32864,7 @@
         <v>46</v>
       </c>
       <c r="H1230" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1231" spans="1:8" x14ac:dyDescent="0.4">
@@ -32876,7 +32890,7 @@
         <v>46</v>
       </c>
       <c r="H1231" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1232" spans="1:8" x14ac:dyDescent="0.4">
@@ -32902,7 +32916,7 @@
         <v>46</v>
       </c>
       <c r="H1232" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1233" spans="1:8" x14ac:dyDescent="0.4">
@@ -32928,7 +32942,7 @@
         <v>46</v>
       </c>
       <c r="H1233" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1234" spans="1:8" x14ac:dyDescent="0.4">
@@ -32954,7 +32968,7 @@
         <v>46</v>
       </c>
       <c r="H1234" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1235" spans="1:8" x14ac:dyDescent="0.4">
@@ -32980,7 +32994,7 @@
         <v>46</v>
       </c>
       <c r="H1235" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1236" spans="1:8" x14ac:dyDescent="0.4">
@@ -33006,7 +33020,7 @@
         <v>46</v>
       </c>
       <c r="H1236" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1237" spans="1:8" x14ac:dyDescent="0.4">
@@ -33032,7 +33046,7 @@
         <v>46</v>
       </c>
       <c r="H1237" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1238" spans="1:8" x14ac:dyDescent="0.4">
@@ -33058,7 +33072,7 @@
         <v>46</v>
       </c>
       <c r="H1238" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1239" spans="1:8" x14ac:dyDescent="0.4">
@@ -33084,7 +33098,7 @@
         <v>46</v>
       </c>
       <c r="H1239" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1240" spans="1:8" x14ac:dyDescent="0.4">
@@ -33110,7 +33124,7 @@
         <v>46</v>
       </c>
       <c r="H1240" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1241" spans="1:8" x14ac:dyDescent="0.4">
@@ -33136,7 +33150,7 @@
         <v>46</v>
       </c>
       <c r="H1241" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1242" spans="1:8" x14ac:dyDescent="0.4">
@@ -33162,7 +33176,7 @@
         <v>46</v>
       </c>
       <c r="H1242" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1243" spans="1:8" x14ac:dyDescent="0.4">
@@ -33188,7 +33202,7 @@
         <v>46</v>
       </c>
       <c r="H1243" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1244" spans="1:8" x14ac:dyDescent="0.4">
@@ -33214,7 +33228,7 @@
         <v>46</v>
       </c>
       <c r="H1244" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1245" spans="1:8" x14ac:dyDescent="0.4">
@@ -33240,7 +33254,7 @@
         <v>46</v>
       </c>
       <c r="H1245" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1246" spans="1:8" x14ac:dyDescent="0.4">
@@ -33266,7 +33280,7 @@
         <v>46</v>
       </c>
       <c r="H1246" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1247" spans="1:8" x14ac:dyDescent="0.4">
@@ -33292,7 +33306,7 @@
         <v>46</v>
       </c>
       <c r="H1247" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1248" spans="1:8" x14ac:dyDescent="0.4">
@@ -33318,7 +33332,7 @@
         <v>46</v>
       </c>
       <c r="H1248" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1249" spans="1:8" x14ac:dyDescent="0.4">
@@ -33344,7 +33358,7 @@
         <v>46</v>
       </c>
       <c r="H1249" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1250" spans="1:8" x14ac:dyDescent="0.4">
@@ -33370,7 +33384,7 @@
         <v>46</v>
       </c>
       <c r="H1250" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1251" spans="1:8" x14ac:dyDescent="0.4">
@@ -33396,7 +33410,7 @@
         <v>46</v>
       </c>
       <c r="H1251" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1252" spans="1:8" x14ac:dyDescent="0.4">
@@ -33422,7 +33436,7 @@
         <v>46</v>
       </c>
       <c r="H1252" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1253" spans="1:8" x14ac:dyDescent="0.4">
@@ -33448,7 +33462,7 @@
         <v>46</v>
       </c>
       <c r="H1253" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1254" spans="1:8" x14ac:dyDescent="0.4">
@@ -33474,7 +33488,7 @@
         <v>46</v>
       </c>
       <c r="H1254" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1255" spans="1:8" x14ac:dyDescent="0.4">
@@ -33500,7 +33514,7 @@
         <v>10</v>
       </c>
       <c r="H1255" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1256" spans="1:8" x14ac:dyDescent="0.4">
@@ -33526,7 +33540,7 @@
         <v>12</v>
       </c>
       <c r="H1256" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1257" spans="1:8" x14ac:dyDescent="0.4">
@@ -33552,7 +33566,7 @@
         <v>10</v>
       </c>
       <c r="H1257" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1258" spans="1:8" x14ac:dyDescent="0.4">
@@ -33578,7 +33592,7 @@
         <v>10</v>
       </c>
       <c r="H1258" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1259" spans="1:8" x14ac:dyDescent="0.4">
@@ -33604,7 +33618,7 @@
         <v>12</v>
       </c>
       <c r="H1259" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1260" spans="1:8" x14ac:dyDescent="0.4">
@@ -33630,7 +33644,7 @@
         <v>10</v>
       </c>
       <c r="H1260" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1261" spans="1:8" x14ac:dyDescent="0.4">
@@ -33656,7 +33670,7 @@
         <v>10</v>
       </c>
       <c r="H1261" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1262" spans="1:8" x14ac:dyDescent="0.4">
@@ -33682,7 +33696,7 @@
         <v>10</v>
       </c>
       <c r="H1262" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1263" spans="1:8" x14ac:dyDescent="0.4">
@@ -33708,7 +33722,7 @@
         <v>10</v>
       </c>
       <c r="H1263" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1264" spans="1:8" x14ac:dyDescent="0.4">
@@ -33734,7 +33748,7 @@
         <v>10</v>
       </c>
       <c r="H1264" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1265" spans="1:8" x14ac:dyDescent="0.4">
@@ -33760,7 +33774,7 @@
         <v>10</v>
       </c>
       <c r="H1265" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1266" spans="1:8" x14ac:dyDescent="0.4">
@@ -33786,7 +33800,7 @@
         <v>10</v>
       </c>
       <c r="H1266" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1267" spans="1:8" x14ac:dyDescent="0.4">
@@ -33812,7 +33826,7 @@
         <v>10</v>
       </c>
       <c r="H1267" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1268" spans="1:8" x14ac:dyDescent="0.4">
@@ -33838,7 +33852,7 @@
         <v>10</v>
       </c>
       <c r="H1268" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1269" spans="1:8" x14ac:dyDescent="0.4">
@@ -33864,7 +33878,7 @@
         <v>10</v>
       </c>
       <c r="H1269" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1270" spans="1:8" x14ac:dyDescent="0.4">
@@ -33890,7 +33904,7 @@
         <v>10</v>
       </c>
       <c r="H1270" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1271" spans="1:8" x14ac:dyDescent="0.4">
@@ -33916,7 +33930,7 @@
         <v>10</v>
       </c>
       <c r="H1271" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1272" spans="1:8" x14ac:dyDescent="0.4">
@@ -33942,7 +33956,7 @@
         <v>10</v>
       </c>
       <c r="H1272" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1273" spans="1:8" x14ac:dyDescent="0.4">
@@ -33968,7 +33982,7 @@
         <v>10</v>
       </c>
       <c r="H1273" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1274" spans="1:8" x14ac:dyDescent="0.4">
@@ -33994,7 +34008,7 @@
         <v>10</v>
       </c>
       <c r="H1274" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1275" spans="1:8" x14ac:dyDescent="0.4">
@@ -34020,7 +34034,7 @@
         <v>10</v>
       </c>
       <c r="H1275" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1276" spans="1:8" x14ac:dyDescent="0.4">
@@ -34046,7 +34060,7 @@
         <v>10</v>
       </c>
       <c r="H1276" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1277" spans="1:8" x14ac:dyDescent="0.4">
@@ -34072,7 +34086,7 @@
         <v>10</v>
       </c>
       <c r="H1277" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1278" spans="1:8" x14ac:dyDescent="0.4">
@@ -34098,7 +34112,7 @@
         <v>10</v>
       </c>
       <c r="H1278" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1279" spans="1:8" x14ac:dyDescent="0.4">
@@ -34124,7 +34138,7 @@
         <v>10</v>
       </c>
       <c r="H1279" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1280" spans="1:8" x14ac:dyDescent="0.4">
@@ -34150,7 +34164,7 @@
         <v>10</v>
       </c>
       <c r="H1280" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1281" spans="1:8" x14ac:dyDescent="0.4">
@@ -34176,7 +34190,7 @@
         <v>10</v>
       </c>
       <c r="H1281" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1282" spans="1:8" x14ac:dyDescent="0.4">
@@ -34202,7 +34216,7 @@
         <v>10</v>
       </c>
       <c r="H1282" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1283" spans="1:8" x14ac:dyDescent="0.4">
@@ -34228,7 +34242,7 @@
         <v>10</v>
       </c>
       <c r="H1283" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1284" spans="1:8" x14ac:dyDescent="0.4">
@@ -34254,7 +34268,7 @@
         <v>10</v>
       </c>
       <c r="H1284" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1285" spans="1:8" x14ac:dyDescent="0.4">
@@ -34280,7 +34294,7 @@
         <v>10</v>
       </c>
       <c r="H1285" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1286" spans="1:8" x14ac:dyDescent="0.4">
@@ -34306,7 +34320,7 @@
         <v>10</v>
       </c>
       <c r="H1286" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1287" spans="1:8" x14ac:dyDescent="0.4">
@@ -34332,7 +34346,7 @@
         <v>10</v>
       </c>
       <c r="H1287" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1288" spans="1:8" x14ac:dyDescent="0.4">
@@ -34358,7 +34372,7 @@
         <v>13</v>
       </c>
       <c r="H1288" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1289" spans="1:8" x14ac:dyDescent="0.4">
@@ -34410,7 +34424,7 @@
         <v>10</v>
       </c>
       <c r="H1290" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1291" spans="1:8" x14ac:dyDescent="0.4">
@@ -34436,7 +34450,7 @@
         <v>10</v>
       </c>
       <c r="H1291" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1292" spans="1:8" x14ac:dyDescent="0.4">
@@ -34462,7 +34476,7 @@
         <v>10</v>
       </c>
       <c r="H1292" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1293" spans="1:8" x14ac:dyDescent="0.4">
@@ -34488,7 +34502,7 @@
         <v>10</v>
       </c>
       <c r="H1293" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1294" spans="1:8" x14ac:dyDescent="0.4">
@@ -34514,7 +34528,7 @@
         <v>10</v>
       </c>
       <c r="H1294" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1295" spans="1:8" x14ac:dyDescent="0.4">
@@ -34540,7 +34554,7 @@
         <v>10</v>
       </c>
       <c r="H1295" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1296" spans="1:8" x14ac:dyDescent="0.4">
@@ -34566,7 +34580,7 @@
         <v>10</v>
       </c>
       <c r="H1296" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1297" spans="1:8" x14ac:dyDescent="0.4">
@@ -34592,7 +34606,7 @@
         <v>10</v>
       </c>
       <c r="H1297" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1298" spans="1:8" x14ac:dyDescent="0.4">
@@ -34618,7 +34632,7 @@
         <v>11</v>
       </c>
       <c r="H1298" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1299" spans="1:8" x14ac:dyDescent="0.4">
@@ -34644,7 +34658,7 @@
         <v>10</v>
       </c>
       <c r="H1299" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1300" spans="1:8" x14ac:dyDescent="0.4">
@@ -34670,7 +34684,7 @@
         <v>10</v>
       </c>
       <c r="H1300" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1301" spans="1:8" x14ac:dyDescent="0.4">
@@ -34696,7 +34710,7 @@
         <v>10</v>
       </c>
       <c r="H1301" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1302" spans="1:8" x14ac:dyDescent="0.4">
@@ -34722,7 +34736,7 @@
         <v>10</v>
       </c>
       <c r="H1302" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1303" spans="1:8" x14ac:dyDescent="0.4">
@@ -34748,7 +34762,7 @@
         <v>10</v>
       </c>
       <c r="H1303" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1304" spans="1:8" x14ac:dyDescent="0.4">
@@ -34826,7 +34840,7 @@
         <v>10</v>
       </c>
       <c r="H1306" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1307" spans="1:8" x14ac:dyDescent="0.4">
@@ -34852,7 +34866,7 @@
         <v>10</v>
       </c>
       <c r="H1307" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1308" spans="1:8" x14ac:dyDescent="0.4">
@@ -34878,7 +34892,7 @@
         <v>10</v>
       </c>
       <c r="H1308" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1309" spans="1:8" x14ac:dyDescent="0.4">
@@ -34904,7 +34918,7 @@
         <v>10</v>
       </c>
       <c r="H1309" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1310" spans="1:8" x14ac:dyDescent="0.4">
@@ -34930,7 +34944,7 @@
         <v>10</v>
       </c>
       <c r="H1310" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1311" spans="1:8" x14ac:dyDescent="0.4">
@@ -34956,7 +34970,7 @@
         <v>10</v>
       </c>
       <c r="H1311" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1312" spans="1:8" x14ac:dyDescent="0.4">
@@ -34982,7 +34996,7 @@
         <v>46</v>
       </c>
       <c r="H1312" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1313" spans="1:8" x14ac:dyDescent="0.4">
@@ -35008,7 +35022,7 @@
         <v>46</v>
       </c>
       <c r="H1313" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1314" spans="1:8" x14ac:dyDescent="0.4">
@@ -35034,7 +35048,7 @@
         <v>46</v>
       </c>
       <c r="H1314" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1315" spans="1:8" x14ac:dyDescent="0.4">
@@ -35060,7 +35074,7 @@
         <v>46</v>
       </c>
       <c r="H1315" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1316" spans="1:8" x14ac:dyDescent="0.4">
@@ -35086,7 +35100,7 @@
         <v>46</v>
       </c>
       <c r="H1316" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1317" spans="1:8" x14ac:dyDescent="0.4">
@@ -35112,7 +35126,7 @@
         <v>46</v>
       </c>
       <c r="H1317" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1318" spans="1:8" x14ac:dyDescent="0.4">
@@ -35138,7 +35152,7 @@
         <v>46</v>
       </c>
       <c r="H1318" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1319" spans="1:8" x14ac:dyDescent="0.4">
@@ -35164,7 +35178,7 @@
         <v>46</v>
       </c>
       <c r="H1319" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1320" spans="1:8" x14ac:dyDescent="0.4">
@@ -35190,7 +35204,7 @@
         <v>46</v>
       </c>
       <c r="H1320" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1321" spans="1:8" x14ac:dyDescent="0.4">
@@ -35216,7 +35230,7 @@
         <v>46</v>
       </c>
       <c r="H1321" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1322" spans="1:8" x14ac:dyDescent="0.4">
@@ -35242,7 +35256,7 @@
         <v>46</v>
       </c>
       <c r="H1322" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1323" spans="1:8" x14ac:dyDescent="0.4">
@@ -35268,7 +35282,7 @@
         <v>46</v>
       </c>
       <c r="H1323" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1324" spans="1:8" x14ac:dyDescent="0.4">
@@ -35294,7 +35308,7 @@
         <v>46</v>
       </c>
       <c r="H1324" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1325" spans="1:8" x14ac:dyDescent="0.4">
@@ -35320,7 +35334,7 @@
         <v>46</v>
       </c>
       <c r="H1325" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1326" spans="1:8" x14ac:dyDescent="0.4">
@@ -35346,7 +35360,7 @@
         <v>46</v>
       </c>
       <c r="H1326" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1327" spans="1:8" x14ac:dyDescent="0.4">
@@ -35372,7 +35386,7 @@
         <v>46</v>
       </c>
       <c r="H1327" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1328" spans="1:8" x14ac:dyDescent="0.4">
@@ -35398,7 +35412,7 @@
         <v>46</v>
       </c>
       <c r="H1328" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1329" spans="1:8" x14ac:dyDescent="0.4">
@@ -35424,7 +35438,7 @@
         <v>46</v>
       </c>
       <c r="H1329" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1330" spans="1:8" x14ac:dyDescent="0.4">
@@ -35450,7 +35464,7 @@
         <v>46</v>
       </c>
       <c r="H1330" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1331" spans="1:8" x14ac:dyDescent="0.4">
@@ -35476,7 +35490,7 @@
         <v>46</v>
       </c>
       <c r="H1331" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1332" spans="1:8" x14ac:dyDescent="0.4">
@@ -35502,7 +35516,7 @@
         <v>46</v>
       </c>
       <c r="H1332" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1333" spans="1:8" x14ac:dyDescent="0.4">
@@ -35528,7 +35542,7 @@
         <v>46</v>
       </c>
       <c r="H1333" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1334" spans="1:8" x14ac:dyDescent="0.4">
@@ -35554,7 +35568,7 @@
         <v>10</v>
       </c>
       <c r="H1334" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1335" spans="1:8" x14ac:dyDescent="0.4">
@@ -35580,7 +35594,7 @@
         <v>10</v>
       </c>
       <c r="H1335" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1336" spans="1:8" x14ac:dyDescent="0.4">
@@ -35606,7 +35620,7 @@
         <v>10</v>
       </c>
       <c r="H1336" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1337" spans="1:8" x14ac:dyDescent="0.4">
@@ -35632,7 +35646,7 @@
         <v>10</v>
       </c>
       <c r="H1337" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1338" spans="1:8" x14ac:dyDescent="0.4">
@@ -35658,7 +35672,7 @@
         <v>10</v>
       </c>
       <c r="H1338" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1339" spans="1:8" x14ac:dyDescent="0.4">
@@ -35684,7 +35698,7 @@
         <v>10</v>
       </c>
       <c r="H1339" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1340" spans="1:8" x14ac:dyDescent="0.4">
@@ -35710,7 +35724,7 @@
         <v>10</v>
       </c>
       <c r="H1340" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1341" spans="1:8" x14ac:dyDescent="0.4">
@@ -35736,7 +35750,7 @@
         <v>11</v>
       </c>
       <c r="H1341" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1342" spans="1:8" x14ac:dyDescent="0.4">
@@ -35762,7 +35776,7 @@
         <v>10</v>
       </c>
       <c r="H1342" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1343" spans="1:8" x14ac:dyDescent="0.4">
@@ -35788,7 +35802,7 @@
         <v>10</v>
       </c>
       <c r="H1343" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1344" spans="1:8" x14ac:dyDescent="0.4">
@@ -35814,7 +35828,7 @@
         <v>10</v>
       </c>
       <c r="H1344" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1345" spans="1:8" x14ac:dyDescent="0.4">
@@ -35840,7 +35854,7 @@
         <v>10</v>
       </c>
       <c r="H1345" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1346" spans="1:8" x14ac:dyDescent="0.4">
@@ -35866,7 +35880,7 @@
         <v>10</v>
       </c>
       <c r="H1346" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1347" spans="1:8" x14ac:dyDescent="0.4">
@@ -35892,7 +35906,7 @@
         <v>10</v>
       </c>
       <c r="H1347" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1348" spans="1:8" x14ac:dyDescent="0.4">
@@ -35918,7 +35932,7 @@
         <v>10</v>
       </c>
       <c r="H1348" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1349" spans="1:8" x14ac:dyDescent="0.4">
@@ -35944,7 +35958,7 @@
         <v>10</v>
       </c>
       <c r="H1349" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1350" spans="1:8" x14ac:dyDescent="0.4">
@@ -35970,7 +35984,7 @@
         <v>10</v>
       </c>
       <c r="H1350" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1351" spans="1:8" x14ac:dyDescent="0.4">
@@ -36022,7 +36036,7 @@
         <v>10</v>
       </c>
       <c r="H1352" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1353" spans="1:8" x14ac:dyDescent="0.4">
@@ -36048,7 +36062,7 @@
         <v>10</v>
       </c>
       <c r="H1353" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1354" spans="1:8" x14ac:dyDescent="0.4">
@@ -36074,7 +36088,7 @@
         <v>10</v>
       </c>
       <c r="H1354" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1355" spans="1:8" x14ac:dyDescent="0.4">
@@ -36100,7 +36114,7 @@
         <v>10</v>
       </c>
       <c r="H1355" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1356" spans="1:8" x14ac:dyDescent="0.4">
@@ -36126,7 +36140,7 @@
         <v>10</v>
       </c>
       <c r="H1356" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1357" spans="1:8" x14ac:dyDescent="0.4">
@@ -36152,7 +36166,7 @@
         <v>10</v>
       </c>
       <c r="H1357" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1358" spans="1:8" x14ac:dyDescent="0.4">
@@ -36178,7 +36192,7 @@
         <v>10</v>
       </c>
       <c r="H1358" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1359" spans="1:8" x14ac:dyDescent="0.4">
@@ -36204,7 +36218,7 @@
         <v>10</v>
       </c>
       <c r="H1359" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1360" spans="1:8" x14ac:dyDescent="0.4">
@@ -36230,7 +36244,7 @@
         <v>10</v>
       </c>
       <c r="H1360" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1361" spans="1:8" x14ac:dyDescent="0.4">
@@ -36256,7 +36270,7 @@
         <v>10</v>
       </c>
       <c r="H1361" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1362" spans="1:8" x14ac:dyDescent="0.4">
@@ -36282,7 +36296,7 @@
         <v>10</v>
       </c>
       <c r="H1362" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1363" spans="1:8" x14ac:dyDescent="0.4">
@@ -36308,7 +36322,7 @@
         <v>10</v>
       </c>
       <c r="H1363" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1364" spans="1:8" x14ac:dyDescent="0.4">
@@ -36334,7 +36348,7 @@
         <v>10</v>
       </c>
       <c r="H1364" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1365" spans="1:8" x14ac:dyDescent="0.4">
@@ -36360,7 +36374,7 @@
         <v>10</v>
       </c>
       <c r="H1365" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1366" spans="1:8" x14ac:dyDescent="0.4">
@@ -36386,7 +36400,7 @@
         <v>10</v>
       </c>
       <c r="H1366" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1367" spans="1:8" x14ac:dyDescent="0.4">
@@ -36412,7 +36426,7 @@
         <v>46</v>
       </c>
       <c r="H1367" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1368" spans="1:8" x14ac:dyDescent="0.4">
@@ -36438,7 +36452,7 @@
         <v>46</v>
       </c>
       <c r="H1368" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1369" spans="1:8" x14ac:dyDescent="0.4">
@@ -36464,7 +36478,7 @@
         <v>10</v>
       </c>
       <c r="H1369" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1370" spans="1:8" x14ac:dyDescent="0.4">
@@ -36490,7 +36504,7 @@
         <v>10</v>
       </c>
       <c r="H1370" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1371" spans="1:8" x14ac:dyDescent="0.4">
@@ -36516,7 +36530,7 @@
         <v>10</v>
       </c>
       <c r="H1371" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1372" spans="1:8" x14ac:dyDescent="0.4">
@@ -36542,7 +36556,7 @@
         <v>10</v>
       </c>
       <c r="H1372" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1373" spans="1:8" x14ac:dyDescent="0.4">
@@ -36568,7 +36582,7 @@
         <v>10</v>
       </c>
       <c r="H1373" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1374" spans="1:8" x14ac:dyDescent="0.4">
@@ -36594,7 +36608,7 @@
         <v>11</v>
       </c>
       <c r="H1374" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1375" spans="1:8" x14ac:dyDescent="0.4">
@@ -36620,7 +36634,7 @@
         <v>10</v>
       </c>
       <c r="H1375" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1376" spans="1:8" x14ac:dyDescent="0.4">
@@ -36646,7 +36660,7 @@
         <v>10</v>
       </c>
       <c r="H1376" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1377" spans="1:8" x14ac:dyDescent="0.4">
@@ -36672,7 +36686,7 @@
         <v>10</v>
       </c>
       <c r="H1377" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1378" spans="1:8" x14ac:dyDescent="0.4">
@@ -36698,7 +36712,7 @@
         <v>10</v>
       </c>
       <c r="H1378" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1379" spans="1:8" x14ac:dyDescent="0.4">
@@ -36724,7 +36738,7 @@
         <v>10</v>
       </c>
       <c r="H1379" s="7" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
     </row>
     <row r="1380" spans="1:8" x14ac:dyDescent="0.4">
@@ -36750,7 +36764,7 @@
         <v>10</v>
       </c>
       <c r="H1380" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1381" spans="1:8" x14ac:dyDescent="0.4">
@@ -36776,7 +36790,7 @@
         <v>10</v>
       </c>
       <c r="H1381" s="7" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
     </row>
     <row r="1382" spans="1:8" x14ac:dyDescent="0.4">
@@ -36802,7 +36816,7 @@
         <v>10</v>
       </c>
       <c r="H1382" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1383" spans="1:8" x14ac:dyDescent="0.4">
@@ -36828,7 +36842,7 @@
         <v>10</v>
       </c>
       <c r="H1383" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1384" spans="1:8" x14ac:dyDescent="0.4">
@@ -36854,7 +36868,7 @@
         <v>10</v>
       </c>
       <c r="H1384" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1385" spans="1:8" x14ac:dyDescent="0.4">
@@ -36880,7 +36894,7 @@
         <v>10</v>
       </c>
       <c r="H1385" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1386" spans="1:8" x14ac:dyDescent="0.4">
@@ -36958,7 +36972,7 @@
         <v>46</v>
       </c>
       <c r="H1388" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1389" spans="1:8" x14ac:dyDescent="0.4">
@@ -36984,7 +36998,7 @@
         <v>46</v>
       </c>
       <c r="H1389" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1390" spans="1:8" x14ac:dyDescent="0.4">
@@ -37010,7 +37024,7 @@
         <v>46</v>
       </c>
       <c r="H1390" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1391" spans="1:8" x14ac:dyDescent="0.4">
@@ -37036,7 +37050,7 @@
         <v>46</v>
       </c>
       <c r="H1391" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1392" spans="1:8" x14ac:dyDescent="0.4">
@@ -37062,7 +37076,7 @@
         <v>46</v>
       </c>
       <c r="H1392" s="7" t="s">
-        <v>5</v>
+        <v>93</v>
       </c>
     </row>
     <row r="1393" spans="1:8" x14ac:dyDescent="0.4">
@@ -37088,7 +37102,7 @@
         <v>10</v>
       </c>
       <c r="H1393" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1394" spans="1:8" x14ac:dyDescent="0.4">
@@ -37114,7 +37128,7 @@
         <v>11</v>
       </c>
       <c r="H1394" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1395" spans="1:8" x14ac:dyDescent="0.4">
@@ -37140,7 +37154,7 @@
         <v>10</v>
       </c>
       <c r="H1395" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1396" spans="1:8" x14ac:dyDescent="0.4">
@@ -37166,7 +37180,7 @@
         <v>10</v>
       </c>
       <c r="H1396" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1397" spans="1:8" x14ac:dyDescent="0.4">
@@ -37192,7 +37206,7 @@
         <v>10</v>
       </c>
       <c r="H1397" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1398" spans="1:8" x14ac:dyDescent="0.4">
@@ -37270,7 +37284,7 @@
         <v>10</v>
       </c>
       <c r="H1400" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1401" spans="1:8" x14ac:dyDescent="0.4">
@@ -37296,7 +37310,7 @@
         <v>10</v>
       </c>
       <c r="H1401" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1402" spans="1:8" x14ac:dyDescent="0.4">
@@ -37322,7 +37336,7 @@
         <v>10</v>
       </c>
       <c r="H1402" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1403" spans="1:8" x14ac:dyDescent="0.4">
@@ -37348,7 +37362,7 @@
         <v>10</v>
       </c>
       <c r="H1403" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1404" spans="1:8" x14ac:dyDescent="0.4">
@@ -37374,7 +37388,7 @@
         <v>10</v>
       </c>
       <c r="H1404" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1405" spans="1:8" x14ac:dyDescent="0.4">
@@ -37400,7 +37414,7 @@
         <v>10</v>
       </c>
       <c r="H1405" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1406" spans="1:8" x14ac:dyDescent="0.4">
@@ -37426,7 +37440,7 @@
         <v>10</v>
       </c>
       <c r="H1406" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1407" spans="1:8" x14ac:dyDescent="0.4">
@@ -37452,7 +37466,7 @@
         <v>10</v>
       </c>
       <c r="H1407" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1408" spans="1:8" x14ac:dyDescent="0.4">
@@ -37478,7 +37492,7 @@
         <v>10</v>
       </c>
       <c r="H1408" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1409" spans="1:8" x14ac:dyDescent="0.4">
@@ -37634,7 +37648,7 @@
         <v>10</v>
       </c>
       <c r="H1414" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1415" spans="1:8" x14ac:dyDescent="0.4">
@@ -37686,7 +37700,7 @@
         <v>12</v>
       </c>
       <c r="H1416" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1417" spans="1:8" x14ac:dyDescent="0.4">
@@ -37712,7 +37726,7 @@
         <v>10</v>
       </c>
       <c r="H1417" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1418" spans="1:8" x14ac:dyDescent="0.4">
@@ -37735,10 +37749,10 @@
         <v>43931</v>
       </c>
       <c r="G1418" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H1418" s="7" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1419" spans="1:8" x14ac:dyDescent="0.4">
@@ -37790,7 +37804,7 @@
         <v>10</v>
       </c>
       <c r="H1420" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1421" spans="1:8" x14ac:dyDescent="0.4">
@@ -37816,7 +37830,7 @@
         <v>10</v>
       </c>
       <c r="H1421" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1422" spans="1:8" x14ac:dyDescent="0.4">
@@ -37842,7 +37856,7 @@
         <v>10</v>
       </c>
       <c r="H1422" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1423" spans="1:8" x14ac:dyDescent="0.4">
@@ -37868,7 +37882,7 @@
         <v>10</v>
       </c>
       <c r="H1423" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1424" spans="1:8" x14ac:dyDescent="0.4">
@@ -37894,7 +37908,7 @@
         <v>46</v>
       </c>
       <c r="H1424" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1425" spans="1:8" x14ac:dyDescent="0.4">
@@ -37920,7 +37934,7 @@
         <v>10</v>
       </c>
       <c r="H1425" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1426" spans="1:8" x14ac:dyDescent="0.4">
@@ -37946,7 +37960,7 @@
         <v>10</v>
       </c>
       <c r="H1426" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1427" spans="1:8" x14ac:dyDescent="0.4">
@@ -37972,7 +37986,7 @@
         <v>11</v>
       </c>
       <c r="H1427" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1428" spans="1:8" x14ac:dyDescent="0.4">
@@ -37998,7 +38012,7 @@
         <v>10</v>
       </c>
       <c r="H1428" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1429" spans="1:8" x14ac:dyDescent="0.4">
@@ -38102,7 +38116,7 @@
         <v>10</v>
       </c>
       <c r="H1432" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1433" spans="1:8" x14ac:dyDescent="0.4">
@@ -38128,7 +38142,7 @@
         <v>10</v>
       </c>
       <c r="H1433" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1434" spans="1:8" x14ac:dyDescent="0.4">
@@ -38154,7 +38168,7 @@
         <v>10</v>
       </c>
       <c r="H1434" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1435" spans="1:8" x14ac:dyDescent="0.4">
@@ -38206,7 +38220,7 @@
         <v>10</v>
       </c>
       <c r="H1436" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1437" spans="1:8" x14ac:dyDescent="0.4">
@@ -38232,7 +38246,7 @@
         <v>10</v>
       </c>
       <c r="H1437" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1438" spans="1:8" x14ac:dyDescent="0.4">
@@ -38258,7 +38272,7 @@
         <v>10</v>
       </c>
       <c r="H1438" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1439" spans="1:8" x14ac:dyDescent="0.4">
@@ -38284,7 +38298,7 @@
         <v>10</v>
       </c>
       <c r="H1439" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1440" spans="1:8" x14ac:dyDescent="0.4">
@@ -38310,7 +38324,7 @@
         <v>10</v>
       </c>
       <c r="H1440" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1441" spans="1:8" x14ac:dyDescent="0.4">
@@ -38336,7 +38350,7 @@
         <v>10</v>
       </c>
       <c r="H1441" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1442" spans="1:8" x14ac:dyDescent="0.4">
@@ -38362,7 +38376,7 @@
         <v>10</v>
       </c>
       <c r="H1442" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1443" spans="1:8" x14ac:dyDescent="0.4">
@@ -38388,7 +38402,7 @@
         <v>12</v>
       </c>
       <c r="H1443" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1444" spans="1:8" x14ac:dyDescent="0.4">
@@ -38414,7 +38428,7 @@
         <v>10</v>
       </c>
       <c r="H1444" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1445" spans="1:8" x14ac:dyDescent="0.4">
@@ -38440,7 +38454,7 @@
         <v>10</v>
       </c>
       <c r="H1445" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1446" spans="1:8" x14ac:dyDescent="0.4">
@@ -38466,7 +38480,7 @@
         <v>10</v>
       </c>
       <c r="H1446" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1447" spans="1:8" x14ac:dyDescent="0.4">
@@ -38492,7 +38506,7 @@
         <v>10</v>
       </c>
       <c r="H1447" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1448" spans="1:8" x14ac:dyDescent="0.4">
@@ -38518,7 +38532,7 @@
         <v>10</v>
       </c>
       <c r="H1448" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1449" spans="1:8" x14ac:dyDescent="0.4">
@@ -38544,7 +38558,7 @@
         <v>10</v>
       </c>
       <c r="H1449" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1450" spans="1:8" x14ac:dyDescent="0.4">
@@ -38570,7 +38584,7 @@
         <v>10</v>
       </c>
       <c r="H1450" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1451" spans="1:8" x14ac:dyDescent="0.4">
@@ -38622,7 +38636,7 @@
         <v>10</v>
       </c>
       <c r="H1452" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1453" spans="1:8" x14ac:dyDescent="0.4">
@@ -38648,7 +38662,7 @@
         <v>10</v>
       </c>
       <c r="H1453" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1454" spans="1:8" x14ac:dyDescent="0.4">
@@ -38674,7 +38688,7 @@
         <v>13</v>
       </c>
       <c r="H1454" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1455" spans="1:8" x14ac:dyDescent="0.4">
@@ -38700,7 +38714,7 @@
         <v>10</v>
       </c>
       <c r="H1455" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1456" spans="1:8" x14ac:dyDescent="0.4">
@@ -38726,7 +38740,7 @@
         <v>10</v>
       </c>
       <c r="H1456" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1457" spans="1:8" x14ac:dyDescent="0.4">
@@ -38752,7 +38766,7 @@
         <v>10</v>
       </c>
       <c r="H1457" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1458" spans="1:8" x14ac:dyDescent="0.4">
@@ -38778,7 +38792,7 @@
         <v>10</v>
       </c>
       <c r="H1458" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1459" spans="1:8" x14ac:dyDescent="0.4">
@@ -38804,7 +38818,7 @@
         <v>10</v>
       </c>
       <c r="H1459" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1460" spans="1:8" x14ac:dyDescent="0.4">
@@ -38830,7 +38844,7 @@
         <v>10</v>
       </c>
       <c r="H1460" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1461" spans="1:8" x14ac:dyDescent="0.4">
@@ -38856,7 +38870,7 @@
         <v>10</v>
       </c>
       <c r="H1461" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1462" spans="1:8" x14ac:dyDescent="0.4">
@@ -38882,7 +38896,7 @@
         <v>10</v>
       </c>
       <c r="H1462" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1463" spans="1:8" x14ac:dyDescent="0.4">
@@ -38908,7 +38922,7 @@
         <v>10</v>
       </c>
       <c r="H1463" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1464" spans="1:8" x14ac:dyDescent="0.4">
@@ -38934,7 +38948,7 @@
         <v>10</v>
       </c>
       <c r="H1464" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1465" spans="1:8" x14ac:dyDescent="0.4">
@@ -38960,7 +38974,7 @@
         <v>10</v>
       </c>
       <c r="H1465" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1466" spans="1:8" x14ac:dyDescent="0.4">
@@ -38986,7 +39000,7 @@
         <v>10</v>
       </c>
       <c r="H1466" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1467" spans="1:8" x14ac:dyDescent="0.4">
@@ -39012,7 +39026,7 @@
         <v>10</v>
       </c>
       <c r="H1467" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1468" spans="1:8" x14ac:dyDescent="0.4">
@@ -39038,7 +39052,7 @@
         <v>10</v>
       </c>
       <c r="H1468" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1469" spans="1:8" x14ac:dyDescent="0.4">
@@ -39064,7 +39078,7 @@
         <v>10</v>
       </c>
       <c r="H1469" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1470" spans="1:8" x14ac:dyDescent="0.4">
@@ -39090,7 +39104,7 @@
         <v>10</v>
       </c>
       <c r="H1470" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1471" spans="1:8" x14ac:dyDescent="0.4">
@@ -39116,7 +39130,7 @@
         <v>10</v>
       </c>
       <c r="H1471" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1472" spans="1:8" x14ac:dyDescent="0.4">
@@ -39142,7 +39156,7 @@
         <v>10</v>
       </c>
       <c r="H1472" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1473" spans="1:8" x14ac:dyDescent="0.4">
@@ -39194,7 +39208,7 @@
         <v>10</v>
       </c>
       <c r="H1474" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1475" spans="1:8" x14ac:dyDescent="0.4">
@@ -39220,7 +39234,7 @@
         <v>10</v>
       </c>
       <c r="H1475" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1476" spans="1:8" x14ac:dyDescent="0.4">
@@ -39246,7 +39260,7 @@
         <v>11</v>
       </c>
       <c r="H1476" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1477" spans="1:8" x14ac:dyDescent="0.4">
@@ -39298,7 +39312,7 @@
         <v>10</v>
       </c>
       <c r="H1478" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1479" spans="1:8" x14ac:dyDescent="0.4">
@@ -39324,7 +39338,7 @@
         <v>10</v>
       </c>
       <c r="H1479" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1480" spans="1:8" x14ac:dyDescent="0.4">
@@ -39350,7 +39364,7 @@
         <v>10</v>
       </c>
       <c r="H1480" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1481" spans="1:8" x14ac:dyDescent="0.4">
@@ -39402,7 +39416,7 @@
         <v>10</v>
       </c>
       <c r="H1482" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1483" spans="1:8" x14ac:dyDescent="0.4">
@@ -39425,10 +39439,10 @@
         <v>43942</v>
       </c>
       <c r="G1483" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H1483" s="7" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1484" spans="1:8" x14ac:dyDescent="0.4">
@@ -39454,7 +39468,7 @@
         <v>12</v>
       </c>
       <c r="H1484" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1485" spans="1:8" x14ac:dyDescent="0.4">
@@ -39480,7 +39494,7 @@
         <v>10</v>
       </c>
       <c r="H1485" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1486" spans="1:8" x14ac:dyDescent="0.4">
@@ -39506,7 +39520,7 @@
         <v>10</v>
       </c>
       <c r="H1486" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1487" spans="1:8" x14ac:dyDescent="0.4">
@@ -39532,7 +39546,7 @@
         <v>11</v>
       </c>
       <c r="H1487" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1488" spans="1:8" x14ac:dyDescent="0.4">
@@ -39555,10 +39569,10 @@
         <v>43936</v>
       </c>
       <c r="G1488" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H1488" s="7" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1489" spans="1:8" x14ac:dyDescent="0.4">
@@ -39610,7 +39624,7 @@
         <v>10</v>
       </c>
       <c r="H1490" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1491" spans="1:8" x14ac:dyDescent="0.4">
@@ -39636,7 +39650,7 @@
         <v>10</v>
       </c>
       <c r="H1491" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1492" spans="1:8" x14ac:dyDescent="0.4">
@@ -39662,7 +39676,7 @@
         <v>11</v>
       </c>
       <c r="H1492" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1493" spans="1:8" x14ac:dyDescent="0.4">
@@ -39688,7 +39702,7 @@
         <v>10</v>
       </c>
       <c r="H1493" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1494" spans="1:8" x14ac:dyDescent="0.4">
@@ -39714,7 +39728,7 @@
         <v>10</v>
       </c>
       <c r="H1494" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1495" spans="1:8" x14ac:dyDescent="0.4">
@@ -39740,7 +39754,7 @@
         <v>10</v>
       </c>
       <c r="H1495" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1496" spans="1:8" x14ac:dyDescent="0.4">
@@ -39766,7 +39780,7 @@
         <v>10</v>
       </c>
       <c r="H1496" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1497" spans="1:8" x14ac:dyDescent="0.4">
@@ -39792,7 +39806,7 @@
         <v>10</v>
       </c>
       <c r="H1497" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1498" spans="1:8" x14ac:dyDescent="0.4">
@@ -39818,7 +39832,7 @@
         <v>10</v>
       </c>
       <c r="H1498" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1499" spans="1:8" x14ac:dyDescent="0.4">
@@ -39870,7 +39884,7 @@
         <v>10</v>
       </c>
       <c r="H1500" s="7" t="s">
-        <v>5</v>
+        <v>93</v>
       </c>
     </row>
     <row r="1501" spans="1:8" x14ac:dyDescent="0.4">
@@ -39896,7 +39910,7 @@
         <v>10</v>
       </c>
       <c r="H1501" s="7" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
     </row>
     <row r="1502" spans="1:8" x14ac:dyDescent="0.4">
@@ -39974,7 +39988,7 @@
         <v>13</v>
       </c>
       <c r="H1504" s="7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1505" spans="1:8" x14ac:dyDescent="0.4">
@@ -40000,7 +40014,7 @@
         <v>10</v>
       </c>
       <c r="H1505" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1506" spans="1:8" x14ac:dyDescent="0.4">
@@ -40052,7 +40066,7 @@
         <v>10</v>
       </c>
       <c r="H1507" s="7" t="s">
-        <v>5</v>
+        <v>93</v>
       </c>
     </row>
     <row r="1508" spans="1:8" x14ac:dyDescent="0.4">
@@ -40078,7 +40092,7 @@
         <v>10</v>
       </c>
       <c r="H1508" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1509" spans="1:8" x14ac:dyDescent="0.4">
@@ -40130,7 +40144,7 @@
         <v>10</v>
       </c>
       <c r="H1510" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1511" spans="1:8" x14ac:dyDescent="0.4">
@@ -40182,7 +40196,7 @@
         <v>10</v>
       </c>
       <c r="H1512" s="7" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
     </row>
     <row r="1513" spans="1:8" x14ac:dyDescent="0.4">
@@ -40208,7 +40222,7 @@
         <v>46</v>
       </c>
       <c r="H1513" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1514" spans="1:8" x14ac:dyDescent="0.4">
@@ -40234,7 +40248,7 @@
         <v>10</v>
       </c>
       <c r="H1514" s="7" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
     </row>
     <row r="1515" spans="1:8" x14ac:dyDescent="0.4">
@@ -40260,7 +40274,7 @@
         <v>10</v>
       </c>
       <c r="H1515" s="7" t="s">
-        <v>5</v>
+        <v>93</v>
       </c>
     </row>
     <row r="1516" spans="1:8" x14ac:dyDescent="0.4">
@@ -40286,7 +40300,7 @@
         <v>10</v>
       </c>
       <c r="H1516" s="7" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
     </row>
     <row r="1517" spans="1:8" x14ac:dyDescent="0.4">
@@ -40312,7 +40326,7 @@
         <v>46</v>
       </c>
       <c r="H1517" s="7" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
     </row>
     <row r="1518" spans="1:8" x14ac:dyDescent="0.4">
@@ -40338,7 +40352,7 @@
         <v>10</v>
       </c>
       <c r="H1518" s="7" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
     </row>
     <row r="1519" spans="1:8" x14ac:dyDescent="0.4">
@@ -40364,7 +40378,7 @@
         <v>46</v>
       </c>
       <c r="H1519" s="7" t="s">
-        <v>5</v>
+        <v>93</v>
       </c>
     </row>
     <row r="1520" spans="1:8" x14ac:dyDescent="0.4">
@@ -40390,7 +40404,7 @@
         <v>10</v>
       </c>
       <c r="H1520" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1521" spans="1:8" x14ac:dyDescent="0.4">
@@ -40442,7 +40456,7 @@
         <v>10</v>
       </c>
       <c r="H1522" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1523" spans="1:8" x14ac:dyDescent="0.4">
@@ -40471,8 +40485,840 @@
         <v>5</v>
       </c>
     </row>
+    <row r="1524" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1524">
+        <v>1522</v>
+      </c>
+      <c r="B1524" s="2">
+        <v>43949</v>
+      </c>
+      <c r="C1524">
+        <v>50</v>
+      </c>
+      <c r="D1524" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1524" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1524" s="1">
+        <v>43944</v>
+      </c>
+      <c r="G1524" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1524" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1525">
+        <v>1523</v>
+      </c>
+      <c r="B1525" s="2">
+        <v>43949</v>
+      </c>
+      <c r="C1525">
+        <v>50</v>
+      </c>
+      <c r="D1525" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1525" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1525" s="1">
+        <v>43936</v>
+      </c>
+      <c r="G1525" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1525" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1526">
+        <v>1524</v>
+      </c>
+      <c r="B1526" s="2">
+        <v>43949</v>
+      </c>
+      <c r="C1526">
+        <v>50</v>
+      </c>
+      <c r="D1526" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1526" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1526" s="1">
+        <v>43941</v>
+      </c>
+      <c r="G1526" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1526" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1527">
+        <v>1525</v>
+      </c>
+      <c r="B1527" s="2">
+        <v>43949</v>
+      </c>
+      <c r="C1527">
+        <v>50</v>
+      </c>
+      <c r="D1527" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1527" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1527" s="1">
+        <v>43937</v>
+      </c>
+      <c r="G1527" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1527" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1528">
+        <v>1526</v>
+      </c>
+      <c r="B1528" s="2">
+        <v>43949</v>
+      </c>
+      <c r="C1528">
+        <v>50</v>
+      </c>
+      <c r="D1528" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1528" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1528" s="1">
+        <v>43945</v>
+      </c>
+      <c r="G1528" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1528" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1529">
+        <v>1527</v>
+      </c>
+      <c r="B1529" s="2">
+        <v>43949</v>
+      </c>
+      <c r="C1529">
+        <v>20</v>
+      </c>
+      <c r="D1529" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1529" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1529" s="1">
+        <v>43946</v>
+      </c>
+      <c r="G1529" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1529" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1530">
+        <v>1528</v>
+      </c>
+      <c r="B1530" s="2">
+        <v>43949</v>
+      </c>
+      <c r="C1530">
+        <v>80</v>
+      </c>
+      <c r="D1530" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1530" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1530" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1530" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1530" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1531">
+        <v>1529</v>
+      </c>
+      <c r="B1531" s="2">
+        <v>43949</v>
+      </c>
+      <c r="C1531">
+        <v>90</v>
+      </c>
+      <c r="D1531" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1531" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1531" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1531" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1531" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1532">
+        <v>1530</v>
+      </c>
+      <c r="B1532" s="2">
+        <v>43949</v>
+      </c>
+      <c r="C1532">
+        <v>30</v>
+      </c>
+      <c r="D1532" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1532" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1532" s="1">
+        <v>43945</v>
+      </c>
+      <c r="G1532" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1532" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1533">
+        <v>1531</v>
+      </c>
+      <c r="B1533" s="2">
+        <v>43949</v>
+      </c>
+      <c r="C1533">
+        <v>80</v>
+      </c>
+      <c r="D1533" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1533" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1533" s="1">
+        <v>43938</v>
+      </c>
+      <c r="G1533" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1533" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1534">
+        <v>1532</v>
+      </c>
+      <c r="B1534" s="2">
+        <v>43949</v>
+      </c>
+      <c r="C1534">
+        <v>40</v>
+      </c>
+      <c r="D1534" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1534" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1534" s="1">
+        <v>43944</v>
+      </c>
+      <c r="G1534" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1534" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1535">
+        <v>1533</v>
+      </c>
+      <c r="B1535" s="2">
+        <v>43949</v>
+      </c>
+      <c r="C1535">
+        <v>20</v>
+      </c>
+      <c r="D1535" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1535" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1535" s="1">
+        <v>43945</v>
+      </c>
+      <c r="G1535" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1535" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1536">
+        <v>1534</v>
+      </c>
+      <c r="B1536" s="2">
+        <v>43949</v>
+      </c>
+      <c r="C1536">
+        <v>20</v>
+      </c>
+      <c r="D1536" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1536" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1536" s="1">
+        <v>43941</v>
+      </c>
+      <c r="G1536" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1536" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1537">
+        <v>1535</v>
+      </c>
+      <c r="B1537" s="2">
+        <v>43949</v>
+      </c>
+      <c r="C1537">
+        <v>30</v>
+      </c>
+      <c r="D1537" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1537" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1537" s="1">
+        <v>43934</v>
+      </c>
+      <c r="G1537" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1537" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1538">
+        <v>1536</v>
+      </c>
+      <c r="B1538" s="2">
+        <v>43949</v>
+      </c>
+      <c r="C1538">
+        <v>60</v>
+      </c>
+      <c r="D1538" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1538" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1538" s="1">
+        <v>43938</v>
+      </c>
+      <c r="G1538" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1538" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1539">
+        <v>1537</v>
+      </c>
+      <c r="B1539" s="2">
+        <v>43949</v>
+      </c>
+      <c r="C1539">
+        <v>40</v>
+      </c>
+      <c r="D1539" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1539" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1539" s="1">
+        <v>43928</v>
+      </c>
+      <c r="G1539" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1539" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1540">
+        <v>1538</v>
+      </c>
+      <c r="B1540" s="2">
+        <v>43949</v>
+      </c>
+      <c r="C1540">
+        <v>50</v>
+      </c>
+      <c r="D1540" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1540" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1540" s="1">
+        <v>43930</v>
+      </c>
+      <c r="G1540" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1540" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1541">
+        <v>1539</v>
+      </c>
+      <c r="B1541" s="2">
+        <v>43949</v>
+      </c>
+      <c r="C1541">
+        <v>40</v>
+      </c>
+      <c r="D1541" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1541" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1541" s="1">
+        <v>43941</v>
+      </c>
+      <c r="G1541" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1541" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1542">
+        <v>1540</v>
+      </c>
+      <c r="B1542" s="2">
+        <v>43949</v>
+      </c>
+      <c r="C1542">
+        <v>20</v>
+      </c>
+      <c r="D1542" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1542" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1542" s="1">
+        <v>43945</v>
+      </c>
+      <c r="G1542" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1542" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1543">
+        <v>1541</v>
+      </c>
+      <c r="B1543" s="2">
+        <v>43949</v>
+      </c>
+      <c r="C1543">
+        <v>20</v>
+      </c>
+      <c r="D1543" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1543" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1543" s="1">
+        <v>43943</v>
+      </c>
+      <c r="G1543" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1543" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1544">
+        <v>1542</v>
+      </c>
+      <c r="B1544" s="2">
+        <v>43949</v>
+      </c>
+      <c r="C1544">
+        <v>40</v>
+      </c>
+      <c r="D1544" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1544" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1544" s="1">
+        <v>43935</v>
+      </c>
+      <c r="G1544" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1544" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1545">
+        <v>1543</v>
+      </c>
+      <c r="B1545" s="2">
+        <v>43949</v>
+      </c>
+      <c r="C1545">
+        <v>10</v>
+      </c>
+      <c r="D1545" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1545" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1545" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1545" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1545" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1546">
+        <v>1544</v>
+      </c>
+      <c r="B1546" s="2">
+        <v>43949</v>
+      </c>
+      <c r="C1546">
+        <v>70</v>
+      </c>
+      <c r="D1546" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1546" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1546" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1546" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1546" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1547">
+        <v>1545</v>
+      </c>
+      <c r="B1547" s="2">
+        <v>43949</v>
+      </c>
+      <c r="C1547">
+        <v>40</v>
+      </c>
+      <c r="D1547" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1547" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1547" s="1">
+        <v>43937</v>
+      </c>
+      <c r="G1547" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1547" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1548">
+        <v>1546</v>
+      </c>
+      <c r="B1548" s="2">
+        <v>43949</v>
+      </c>
+      <c r="C1548">
+        <v>40</v>
+      </c>
+      <c r="D1548" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1548" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1548" s="1">
+        <v>43933</v>
+      </c>
+      <c r="G1548" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1548" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1549">
+        <v>1547</v>
+      </c>
+      <c r="B1549" s="2">
+        <v>43949</v>
+      </c>
+      <c r="C1549">
+        <v>30</v>
+      </c>
+      <c r="D1549" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1549" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1549" s="1">
+        <v>43946</v>
+      </c>
+      <c r="G1549" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1549" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1550">
+        <v>1548</v>
+      </c>
+      <c r="B1550" s="2">
+        <v>43949</v>
+      </c>
+      <c r="C1550">
+        <v>70</v>
+      </c>
+      <c r="D1550" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1550" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1550" s="1">
+        <v>43944</v>
+      </c>
+      <c r="G1550" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1550" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1551">
+        <v>1549</v>
+      </c>
+      <c r="B1551" s="2">
+        <v>43949</v>
+      </c>
+      <c r="C1551">
+        <v>20</v>
+      </c>
+      <c r="D1551" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1551" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1551" s="1">
+        <v>43934</v>
+      </c>
+      <c r="G1551" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1551" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1552">
+        <v>1550</v>
+      </c>
+      <c r="B1552" s="2">
+        <v>43949</v>
+      </c>
+      <c r="C1552">
+        <v>50</v>
+      </c>
+      <c r="D1552" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1552" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1552" s="1">
+        <v>43934</v>
+      </c>
+      <c r="G1552" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1552" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1553">
+        <v>1551</v>
+      </c>
+      <c r="B1553" s="2">
+        <v>43949</v>
+      </c>
+      <c r="C1553">
+        <v>30</v>
+      </c>
+      <c r="D1553" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1553" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1553" s="1">
+        <v>43944</v>
+      </c>
+      <c r="G1553" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1553" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1554">
+        <v>1552</v>
+      </c>
+      <c r="B1554" s="2">
+        <v>43949</v>
+      </c>
+      <c r="C1554">
+        <v>80</v>
+      </c>
+      <c r="D1554" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1554" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1554" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1554" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1554" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1555">
+        <v>1553</v>
+      </c>
+      <c r="B1555" s="2">
+        <v>43949</v>
+      </c>
+      <c r="C1555">
+        <v>70</v>
+      </c>
+      <c r="D1555" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1555" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1555" s="1">
+        <v>43933</v>
+      </c>
+      <c r="G1555" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1555" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:H1523"/>
+  <autoFilter ref="A2:H1555"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -40481,7 +41327,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K96"/>
+  <dimension ref="A1:K97"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -40492,7 +41338,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="3">
-        <v>43948</v>
+        <v>43949</v>
       </c>
       <c r="B1" t="s">
         <v>60</v>
@@ -43787,26 +44633,61 @@
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A96" s="4" t="s">
+      <c r="A96" s="2">
+        <v>43949</v>
+      </c>
+      <c r="B96">
+        <v>503</v>
+      </c>
+      <c r="C96">
+        <v>32</v>
+      </c>
+      <c r="D96">
+        <v>1553</v>
+      </c>
+      <c r="E96">
+        <v>944</v>
+      </c>
+      <c r="F96">
+        <v>131</v>
+      </c>
+      <c r="G96">
+        <v>573</v>
+      </c>
+      <c r="H96">
+        <v>131</v>
+      </c>
+      <c r="I96">
+        <v>573</v>
+      </c>
+      <c r="J96">
+        <v>4</v>
+      </c>
+      <c r="K96">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A97" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B96">
-        <v>14222</v>
-      </c>
-      <c r="C96">
-        <v>1521</v>
-      </c>
-      <c r="F96">
-        <v>442</v>
-      </c>
-      <c r="H96">
-        <v>442</v>
-      </c>
-      <c r="J96">
-        <v>32</v>
-      </c>
-      <c r="K96">
-        <v>823</v>
+      <c r="B97">
+        <v>14725</v>
+      </c>
+      <c r="C97">
+        <v>1553</v>
+      </c>
+      <c r="F97">
+        <v>573</v>
+      </c>
+      <c r="H97">
+        <v>573</v>
+      </c>
+      <c r="J97">
+        <v>36</v>
+      </c>
+      <c r="K97">
+        <v>833</v>
       </c>
     </row>
   </sheetData>

--- a/data/patients_and_inspections.xlsx
+++ b/data/patients_and_inspections.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.19.161.23\kansen_fol\03防疫L（移行済）\06　中国武漢市肺炎（新型コロナウイルス）\検査の状況(HP更新)\陽性者入院状況\コロナサイト\0429（0428のデータ）\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.19.161.23\kansen_fol\03防疫L（移行済）\06　中国武漢市肺炎（新型コロナウイルス）\検査の状況(HP更新)\陽性者入院状況\コロナサイト\0430（0429のデータ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2010" yWindow="465" windowWidth="33000" windowHeight="19155"/>
+    <workbookView xWindow="2010" yWindow="465" windowWidth="33000" windowHeight="19155" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="【公開OK】ピポット集計" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="【公開OK】コロナサイト用（日付ベース）" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'【公開OK】府HP用(陽性者ベース)'!$A$2:$H$1555</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'【公開OK】府HP用(陽性者ベース)'!$A$2:$H$1599</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6580" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6767" uniqueCount="93">
   <si>
     <t>（1）入退院の状況</t>
   </si>
@@ -337,12 +337,6 @@
   </si>
   <si>
     <t>宿泊療養解除</t>
-  </si>
-  <si>
-    <t>自宅療養調整中</t>
-  </si>
-  <si>
-    <t>確認中</t>
   </si>
   <si>
     <t>宿泊療養調整中</t>
@@ -741,7 +735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -765,7 +759,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>573</v>
+        <v>623</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -773,7 +767,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
@@ -781,7 +775,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
@@ -789,7 +783,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
@@ -797,7 +791,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1521</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
@@ -818,7 +812,7 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <v>848</v>
+        <v>837</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
@@ -826,7 +820,7 @@
         <v>11</v>
       </c>
       <c r="B14">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
@@ -842,7 +836,7 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
@@ -850,7 +844,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>573</v>
+        <v>623</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
@@ -858,7 +852,7 @@
         <v>7</v>
       </c>
       <c r="B18">
-        <v>1521</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
@@ -866,7 +860,7 @@
         <v>85</v>
       </c>
       <c r="B20">
-        <v>259</v>
+        <v>244</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
@@ -874,7 +868,7 @@
         <v>86</v>
       </c>
       <c r="B21">
-        <v>144</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
@@ -882,7 +876,7 @@
         <v>87</v>
       </c>
       <c r="B22">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -894,9 +888,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1555"/>
+  <dimension ref="A1:H1599"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -907,7 +901,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="3">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="B1" t="s">
         <v>60</v>
@@ -9152,7 +9146,7 @@
         <v>14</v>
       </c>
       <c r="H318" s="7" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.4">
@@ -10166,7 +10160,7 @@
         <v>10</v>
       </c>
       <c r="H357" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.4">
@@ -12116,7 +12110,7 @@
         <v>10</v>
       </c>
       <c r="H432" s="7" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
     </row>
     <row r="433" spans="1:8" x14ac:dyDescent="0.4">
@@ -12402,7 +12396,7 @@
         <v>10</v>
       </c>
       <c r="H443" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="444" spans="1:8" x14ac:dyDescent="0.4">
@@ -12870,7 +12864,7 @@
         <v>10</v>
       </c>
       <c r="H461" s="7" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.4">
@@ -13208,7 +13202,7 @@
         <v>10</v>
       </c>
       <c r="H474" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="475" spans="1:8" x14ac:dyDescent="0.4">
@@ -13494,7 +13488,7 @@
         <v>10</v>
       </c>
       <c r="H485" s="7" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
     </row>
     <row r="486" spans="1:8" x14ac:dyDescent="0.4">
@@ -14196,7 +14190,7 @@
         <v>10</v>
       </c>
       <c r="H512" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="513" spans="1:8" x14ac:dyDescent="0.4">
@@ -14456,7 +14450,7 @@
         <v>10</v>
       </c>
       <c r="H522" s="7" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="523" spans="1:8" x14ac:dyDescent="0.4">
@@ -14690,7 +14684,7 @@
         <v>10</v>
       </c>
       <c r="H531" s="7" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
     </row>
     <row r="532" spans="1:8" x14ac:dyDescent="0.4">
@@ -14846,7 +14840,7 @@
         <v>10</v>
       </c>
       <c r="H537" s="7" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="538" spans="1:8" x14ac:dyDescent="0.4">
@@ -14872,7 +14866,7 @@
         <v>12</v>
       </c>
       <c r="H538" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="539" spans="1:8" x14ac:dyDescent="0.4">
@@ -15002,7 +14996,7 @@
         <v>10</v>
       </c>
       <c r="H543" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="544" spans="1:8" x14ac:dyDescent="0.4">
@@ -15470,7 +15464,7 @@
         <v>10</v>
       </c>
       <c r="H561" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="562" spans="1:8" x14ac:dyDescent="0.4">
@@ -15626,7 +15620,7 @@
         <v>14</v>
       </c>
       <c r="H567" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="568" spans="1:8" x14ac:dyDescent="0.4">
@@ -16120,7 +16114,7 @@
         <v>11</v>
       </c>
       <c r="H586" s="7" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="587" spans="1:8" x14ac:dyDescent="0.4">
@@ -16250,7 +16244,7 @@
         <v>10</v>
       </c>
       <c r="H591" s="7" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="592" spans="1:8" x14ac:dyDescent="0.4">
@@ -16458,7 +16452,7 @@
         <v>10</v>
       </c>
       <c r="H599" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="600" spans="1:8" x14ac:dyDescent="0.4">
@@ -17108,7 +17102,7 @@
         <v>10</v>
       </c>
       <c r="H624" s="7" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="625" spans="1:8" x14ac:dyDescent="0.4">
@@ -17524,7 +17518,7 @@
         <v>10</v>
       </c>
       <c r="H640" s="7" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="641" spans="1:8" x14ac:dyDescent="0.4">
@@ -17550,7 +17544,7 @@
         <v>10</v>
       </c>
       <c r="H641" s="7" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="642" spans="1:8" x14ac:dyDescent="0.4">
@@ -18018,7 +18012,7 @@
         <v>10</v>
       </c>
       <c r="H659" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="660" spans="1:8" x14ac:dyDescent="0.4">
@@ -18044,7 +18038,7 @@
         <v>10</v>
       </c>
       <c r="H660" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="661" spans="1:8" x14ac:dyDescent="0.4">
@@ -18434,7 +18428,7 @@
         <v>10</v>
       </c>
       <c r="H675" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="676" spans="1:8" x14ac:dyDescent="0.4">
@@ -18876,7 +18870,7 @@
         <v>46</v>
       </c>
       <c r="H692" s="7" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="693" spans="1:8" x14ac:dyDescent="0.4">
@@ -19136,7 +19130,7 @@
         <v>10</v>
       </c>
       <c r="H702" s="7" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="703" spans="1:8" x14ac:dyDescent="0.4">
@@ -19396,7 +19390,7 @@
         <v>10</v>
       </c>
       <c r="H712" s="7" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="713" spans="1:8" x14ac:dyDescent="0.4">
@@ -19422,7 +19416,7 @@
         <v>10</v>
       </c>
       <c r="H713" s="7" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="714" spans="1:8" x14ac:dyDescent="0.4">
@@ -19448,7 +19442,7 @@
         <v>14</v>
       </c>
       <c r="H714" s="7" t="s">
-        <v>3</v>
+        <v>88</v>
       </c>
     </row>
     <row r="715" spans="1:8" x14ac:dyDescent="0.4">
@@ -19682,7 +19676,7 @@
         <v>10</v>
       </c>
       <c r="H723" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="724" spans="1:8" x14ac:dyDescent="0.4">
@@ -19786,7 +19780,7 @@
         <v>10</v>
       </c>
       <c r="H727" s="7" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="728" spans="1:8" x14ac:dyDescent="0.4">
@@ -20176,7 +20170,7 @@
         <v>10</v>
       </c>
       <c r="H742" s="7" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
     </row>
     <row r="743" spans="1:8" x14ac:dyDescent="0.4">
@@ -20228,7 +20222,7 @@
         <v>10</v>
       </c>
       <c r="H744" s="7" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="745" spans="1:8" x14ac:dyDescent="0.4">
@@ -20306,7 +20300,7 @@
         <v>10</v>
       </c>
       <c r="H747" s="7" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="748" spans="1:8" x14ac:dyDescent="0.4">
@@ -20878,7 +20872,7 @@
         <v>14</v>
       </c>
       <c r="H769" s="7" t="s">
-        <v>3</v>
+        <v>88</v>
       </c>
     </row>
     <row r="770" spans="1:8" x14ac:dyDescent="0.4">
@@ -20904,7 +20898,7 @@
         <v>14</v>
       </c>
       <c r="H770" s="7" t="s">
-        <v>3</v>
+        <v>88</v>
       </c>
     </row>
     <row r="771" spans="1:8" x14ac:dyDescent="0.4">
@@ -21008,7 +21002,7 @@
         <v>10</v>
       </c>
       <c r="H774" s="7" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="775" spans="1:8" x14ac:dyDescent="0.4">
@@ -21060,7 +21054,7 @@
         <v>12</v>
       </c>
       <c r="H776" s="7" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="777" spans="1:8" x14ac:dyDescent="0.4">
@@ -21216,7 +21210,7 @@
         <v>10</v>
       </c>
       <c r="H782" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="783" spans="1:8" x14ac:dyDescent="0.4">
@@ -21554,7 +21548,7 @@
         <v>10</v>
       </c>
       <c r="H795" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="796" spans="1:8" x14ac:dyDescent="0.4">
@@ -22126,7 +22120,7 @@
         <v>10</v>
       </c>
       <c r="H817" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="818" spans="1:8" x14ac:dyDescent="0.4">
@@ -22178,7 +22172,7 @@
         <v>10</v>
       </c>
       <c r="H819" s="7" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="820" spans="1:8" x14ac:dyDescent="0.4">
@@ -22282,7 +22276,7 @@
         <v>10</v>
       </c>
       <c r="H823" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="824" spans="1:8" x14ac:dyDescent="0.4">
@@ -22360,7 +22354,7 @@
         <v>10</v>
       </c>
       <c r="H826" s="7" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="827" spans="1:8" x14ac:dyDescent="0.4">
@@ -22464,7 +22458,7 @@
         <v>10</v>
       </c>
       <c r="H830" s="7" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="831" spans="1:8" x14ac:dyDescent="0.4">
@@ -22490,7 +22484,7 @@
         <v>10</v>
       </c>
       <c r="H831" s="7" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="832" spans="1:8" x14ac:dyDescent="0.4">
@@ -22750,7 +22744,7 @@
         <v>10</v>
       </c>
       <c r="H841" s="7" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="842" spans="1:8" x14ac:dyDescent="0.4">
@@ -22828,7 +22822,7 @@
         <v>10</v>
       </c>
       <c r="H844" s="7" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="845" spans="1:8" x14ac:dyDescent="0.4">
@@ -22932,7 +22926,7 @@
         <v>10</v>
       </c>
       <c r="H848" s="7" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="849" spans="1:8" x14ac:dyDescent="0.4">
@@ -23036,7 +23030,7 @@
         <v>10</v>
       </c>
       <c r="H852" s="7" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="853" spans="1:8" x14ac:dyDescent="0.4">
@@ -23296,7 +23290,7 @@
         <v>10</v>
       </c>
       <c r="H862" s="7" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="863" spans="1:8" x14ac:dyDescent="0.4">
@@ -23400,7 +23394,7 @@
         <v>10</v>
       </c>
       <c r="H866" s="7" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="867" spans="1:8" x14ac:dyDescent="0.4">
@@ -23426,7 +23420,7 @@
         <v>10</v>
       </c>
       <c r="H867" s="7" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="868" spans="1:8" x14ac:dyDescent="0.4">
@@ -23946,7 +23940,7 @@
         <v>10</v>
       </c>
       <c r="H887" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="888" spans="1:8" x14ac:dyDescent="0.4">
@@ -23972,7 +23966,7 @@
         <v>12</v>
       </c>
       <c r="H888" s="7" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="889" spans="1:8" x14ac:dyDescent="0.4">
@@ -24154,7 +24148,7 @@
         <v>10</v>
       </c>
       <c r="H895" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="896" spans="1:8" x14ac:dyDescent="0.4">
@@ -24622,7 +24616,7 @@
         <v>10</v>
       </c>
       <c r="H913" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="914" spans="1:8" x14ac:dyDescent="0.4">
@@ -26309,7 +26303,7 @@
         <v>43928</v>
       </c>
       <c r="G978" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H978" s="7" t="s">
         <v>5</v>
@@ -26494,7 +26488,7 @@
         <v>10</v>
       </c>
       <c r="H985" s="7" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="986" spans="1:8" x14ac:dyDescent="0.4">
@@ -26962,7 +26956,7 @@
         <v>10</v>
       </c>
       <c r="H1003" s="7" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="1004" spans="1:8" x14ac:dyDescent="0.4">
@@ -27352,7 +27346,7 @@
         <v>10</v>
       </c>
       <c r="H1018" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1019" spans="1:8" x14ac:dyDescent="0.4">
@@ -27507,8 +27501,8 @@
       <c r="G1024" t="s">
         <v>10</v>
       </c>
-      <c r="H1024" s="7" t="s">
-        <v>75</v>
+      <c r="H1024" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="1025" spans="1:8" x14ac:dyDescent="0.4">
@@ -27768,7 +27762,7 @@
         <v>10</v>
       </c>
       <c r="H1034" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1035" spans="1:8" x14ac:dyDescent="0.4">
@@ -28756,7 +28750,7 @@
         <v>14</v>
       </c>
       <c r="H1072" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1073" spans="1:8" x14ac:dyDescent="0.4">
@@ -28886,7 +28880,7 @@
         <v>10</v>
       </c>
       <c r="H1077" s="7" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1078" spans="1:8" x14ac:dyDescent="0.4">
@@ -29952,7 +29946,7 @@
         <v>10</v>
       </c>
       <c r="H1118" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1119" spans="1:8" x14ac:dyDescent="0.4">
@@ -30784,7 +30778,7 @@
         <v>46</v>
       </c>
       <c r="H1150" s="7" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1151" spans="1:8" x14ac:dyDescent="0.4">
@@ -31523,7 +31517,7 @@
         <v>43940</v>
       </c>
       <c r="C1179" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D1179" t="s">
         <v>25</v>
@@ -31538,7 +31532,7 @@
         <v>10</v>
       </c>
       <c r="H1179" s="7" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
     </row>
     <row r="1180" spans="1:8" x14ac:dyDescent="0.4">
@@ -31564,7 +31558,7 @@
         <v>46</v>
       </c>
       <c r="H1180" s="7" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
     </row>
     <row r="1181" spans="1:8" x14ac:dyDescent="0.4">
@@ -31616,7 +31610,7 @@
         <v>10</v>
       </c>
       <c r="H1182" s="7" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
     </row>
     <row r="1183" spans="1:8" x14ac:dyDescent="0.4">
@@ -32968,7 +32962,7 @@
         <v>46</v>
       </c>
       <c r="H1234" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1235" spans="1:8" x14ac:dyDescent="0.4">
@@ -33150,7 +33144,7 @@
         <v>46</v>
       </c>
       <c r="H1241" s="7" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
     </row>
     <row r="1242" spans="1:8" x14ac:dyDescent="0.4">
@@ -34424,7 +34418,7 @@
         <v>10</v>
       </c>
       <c r="H1290" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1291" spans="1:8" x14ac:dyDescent="0.4">
@@ -34814,7 +34808,7 @@
         <v>10</v>
       </c>
       <c r="H1305" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1306" spans="1:8" x14ac:dyDescent="0.4">
@@ -34996,7 +34990,7 @@
         <v>46</v>
       </c>
       <c r="H1312" s="7" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1313" spans="1:8" x14ac:dyDescent="0.4">
@@ -35074,7 +35068,7 @@
         <v>46</v>
       </c>
       <c r="H1315" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1316" spans="1:8" x14ac:dyDescent="0.4">
@@ -35100,7 +35094,7 @@
         <v>46</v>
       </c>
       <c r="H1316" s="7" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1317" spans="1:8" x14ac:dyDescent="0.4">
@@ -35152,7 +35146,7 @@
         <v>46</v>
       </c>
       <c r="H1318" s="7" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1319" spans="1:8" x14ac:dyDescent="0.4">
@@ -35282,7 +35276,7 @@
         <v>46</v>
       </c>
       <c r="H1323" s="7" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1324" spans="1:8" x14ac:dyDescent="0.4">
@@ -35802,7 +35796,7 @@
         <v>10</v>
       </c>
       <c r="H1343" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1344" spans="1:8" x14ac:dyDescent="0.4">
@@ -36010,7 +36004,7 @@
         <v>10</v>
       </c>
       <c r="H1351" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1352" spans="1:8" x14ac:dyDescent="0.4">
@@ -36686,7 +36680,7 @@
         <v>10</v>
       </c>
       <c r="H1377" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1378" spans="1:8" x14ac:dyDescent="0.4">
@@ -36738,7 +36732,7 @@
         <v>10</v>
       </c>
       <c r="H1379" s="7" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1380" spans="1:8" x14ac:dyDescent="0.4">
@@ -36790,7 +36784,7 @@
         <v>10</v>
       </c>
       <c r="H1381" s="7" t="s">
-        <v>92</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1382" spans="1:8" x14ac:dyDescent="0.4">
@@ -36946,7 +36940,7 @@
         <v>10</v>
       </c>
       <c r="H1387" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1388" spans="1:8" x14ac:dyDescent="0.4">
@@ -37076,7 +37070,7 @@
         <v>46</v>
       </c>
       <c r="H1392" s="7" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1393" spans="1:8" x14ac:dyDescent="0.4">
@@ -37258,7 +37252,7 @@
         <v>10</v>
       </c>
       <c r="H1399" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1400" spans="1:8" x14ac:dyDescent="0.4">
@@ -37544,7 +37538,7 @@
         <v>10</v>
       </c>
       <c r="H1410" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1411" spans="1:8" x14ac:dyDescent="0.4">
@@ -37570,7 +37564,7 @@
         <v>10</v>
       </c>
       <c r="H1411" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1412" spans="1:8" x14ac:dyDescent="0.4">
@@ -37596,7 +37590,7 @@
         <v>10</v>
       </c>
       <c r="H1412" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1413" spans="1:8" x14ac:dyDescent="0.4">
@@ -37778,7 +37772,7 @@
         <v>10</v>
       </c>
       <c r="H1419" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1420" spans="1:8" x14ac:dyDescent="0.4">
@@ -38610,7 +38604,7 @@
         <v>10</v>
       </c>
       <c r="H1451" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1452" spans="1:8" x14ac:dyDescent="0.4">
@@ -39052,7 +39046,7 @@
         <v>10</v>
       </c>
       <c r="H1468" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1469" spans="1:8" x14ac:dyDescent="0.4">
@@ -39182,7 +39176,7 @@
         <v>11</v>
       </c>
       <c r="H1473" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1474" spans="1:8" x14ac:dyDescent="0.4">
@@ -39286,7 +39280,7 @@
         <v>10</v>
       </c>
       <c r="H1477" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1478" spans="1:8" x14ac:dyDescent="0.4">
@@ -39676,7 +39670,7 @@
         <v>11</v>
       </c>
       <c r="H1492" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1493" spans="1:8" x14ac:dyDescent="0.4">
@@ -39754,7 +39748,7 @@
         <v>10</v>
       </c>
       <c r="H1495" s="7" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1496" spans="1:8" x14ac:dyDescent="0.4">
@@ -39884,7 +39878,7 @@
         <v>10</v>
       </c>
       <c r="H1500" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="1501" spans="1:8" x14ac:dyDescent="0.4">
@@ -39910,7 +39904,7 @@
         <v>10</v>
       </c>
       <c r="H1501" s="7" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1502" spans="1:8" x14ac:dyDescent="0.4">
@@ -39933,7 +39927,7 @@
         <v>43945</v>
       </c>
       <c r="G1502" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H1502" s="7" t="s">
         <v>4</v>
@@ -40014,7 +40008,7 @@
         <v>10</v>
       </c>
       <c r="H1505" s="7" t="s">
-        <v>73</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1506" spans="1:8" x14ac:dyDescent="0.4">
@@ -40040,7 +40034,7 @@
         <v>10</v>
       </c>
       <c r="H1506" s="7" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
     </row>
     <row r="1507" spans="1:8" x14ac:dyDescent="0.4">
@@ -40066,7 +40060,7 @@
         <v>10</v>
       </c>
       <c r="H1507" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="1508" spans="1:8" x14ac:dyDescent="0.4">
@@ -40118,7 +40112,7 @@
         <v>10</v>
       </c>
       <c r="H1509" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1510" spans="1:8" x14ac:dyDescent="0.4">
@@ -40170,7 +40164,7 @@
         <v>10</v>
       </c>
       <c r="H1511" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1512" spans="1:8" x14ac:dyDescent="0.4">
@@ -40248,7 +40242,7 @@
         <v>10</v>
       </c>
       <c r="H1514" s="7" t="s">
-        <v>91</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1515" spans="1:8" x14ac:dyDescent="0.4">
@@ -40274,7 +40268,7 @@
         <v>10</v>
       </c>
       <c r="H1515" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="1516" spans="1:8" x14ac:dyDescent="0.4">
@@ -40300,7 +40294,7 @@
         <v>10</v>
       </c>
       <c r="H1516" s="7" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1517" spans="1:8" x14ac:dyDescent="0.4">
@@ -40326,7 +40320,7 @@
         <v>46</v>
       </c>
       <c r="H1517" s="7" t="s">
-        <v>91</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1518" spans="1:8" x14ac:dyDescent="0.4">
@@ -40352,7 +40346,7 @@
         <v>10</v>
       </c>
       <c r="H1518" s="7" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1519" spans="1:8" x14ac:dyDescent="0.4">
@@ -40378,7 +40372,7 @@
         <v>46</v>
       </c>
       <c r="H1519" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="1520" spans="1:8" x14ac:dyDescent="0.4">
@@ -40430,7 +40424,7 @@
         <v>10</v>
       </c>
       <c r="H1521" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1522" spans="1:8" x14ac:dyDescent="0.4">
@@ -40638,7 +40632,7 @@
         <v>10</v>
       </c>
       <c r="H1529" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="1530" spans="1:8" x14ac:dyDescent="0.4">
@@ -40742,7 +40736,7 @@
         <v>10</v>
       </c>
       <c r="H1533" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1534" spans="1:8" x14ac:dyDescent="0.4">
@@ -40768,7 +40762,7 @@
         <v>10</v>
       </c>
       <c r="H1534" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1535" spans="1:8" x14ac:dyDescent="0.4">
@@ -40794,7 +40788,7 @@
         <v>10</v>
       </c>
       <c r="H1535" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1536" spans="1:8" x14ac:dyDescent="0.4">
@@ -40820,7 +40814,7 @@
         <v>10</v>
       </c>
       <c r="H1536" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1537" spans="1:8" x14ac:dyDescent="0.4">
@@ -40846,7 +40840,7 @@
         <v>10</v>
       </c>
       <c r="H1537" s="7" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1538" spans="1:8" x14ac:dyDescent="0.4">
@@ -40898,7 +40892,7 @@
         <v>10</v>
       </c>
       <c r="H1539" s="7" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1540" spans="1:8" x14ac:dyDescent="0.4">
@@ -40924,7 +40918,7 @@
         <v>10</v>
       </c>
       <c r="H1540" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1541" spans="1:8" x14ac:dyDescent="0.4">
@@ -41158,7 +41152,7 @@
         <v>10</v>
       </c>
       <c r="H1549" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1550" spans="1:8" x14ac:dyDescent="0.4">
@@ -41314,11 +41308,1155 @@
         <v>10</v>
       </c>
       <c r="H1555" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1556">
+        <v>1554</v>
+      </c>
+      <c r="B1556" s="2">
+        <v>43950</v>
+      </c>
+      <c r="C1556">
+        <v>70</v>
+      </c>
+      <c r="D1556" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1556" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1556" s="1">
+        <v>43948</v>
+      </c>
+      <c r="G1556" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1556" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1557">
+        <v>1555</v>
+      </c>
+      <c r="B1557" s="2">
+        <v>43950</v>
+      </c>
+      <c r="C1557">
+        <v>40</v>
+      </c>
+      <c r="D1557" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1557" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1557" s="1">
+        <v>43945</v>
+      </c>
+      <c r="G1557" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1557" s="7" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="1558" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1558">
+        <v>1556</v>
+      </c>
+      <c r="B1558" s="2">
+        <v>43950</v>
+      </c>
+      <c r="C1558">
+        <v>30</v>
+      </c>
+      <c r="D1558" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1558" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1558" s="1">
+        <v>43945</v>
+      </c>
+      <c r="G1558" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1558" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1559">
+        <v>1557</v>
+      </c>
+      <c r="B1559" s="2">
+        <v>43950</v>
+      </c>
+      <c r="C1559">
+        <v>60</v>
+      </c>
+      <c r="D1559" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1559" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1559" s="1">
+        <v>43941</v>
+      </c>
+      <c r="G1559" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1559" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1560">
+        <v>1558</v>
+      </c>
+      <c r="B1560" s="2">
+        <v>43950</v>
+      </c>
+      <c r="C1560">
+        <v>80</v>
+      </c>
+      <c r="D1560" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1560" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1560" s="1">
+        <v>43931</v>
+      </c>
+      <c r="G1560" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1560" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1561">
+        <v>1559</v>
+      </c>
+      <c r="B1561" s="2">
+        <v>43950</v>
+      </c>
+      <c r="C1561">
+        <v>70</v>
+      </c>
+      <c r="D1561" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1561" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1561" s="1">
+        <v>43938</v>
+      </c>
+      <c r="G1561" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1561" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1562">
+        <v>1560</v>
+      </c>
+      <c r="B1562" s="2">
+        <v>43950</v>
+      </c>
+      <c r="C1562">
+        <v>70</v>
+      </c>
+      <c r="D1562" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1562" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1562" s="1">
+        <v>43945</v>
+      </c>
+      <c r="G1562" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1562" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1563">
+        <v>1561</v>
+      </c>
+      <c r="B1563" s="2">
+        <v>43950</v>
+      </c>
+      <c r="C1563">
+        <v>60</v>
+      </c>
+      <c r="D1563" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1563" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1563" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1563" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1563" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1564">
+        <v>1562</v>
+      </c>
+      <c r="B1564" s="2">
+        <v>43950</v>
+      </c>
+      <c r="C1564">
+        <v>70</v>
+      </c>
+      <c r="D1564" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1564" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1564" s="1">
+        <v>43942</v>
+      </c>
+      <c r="G1564" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1564" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1565">
+        <v>1563</v>
+      </c>
+      <c r="B1565" s="2">
+        <v>43950</v>
+      </c>
+      <c r="C1565">
+        <v>70</v>
+      </c>
+      <c r="D1565" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1565" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1565" s="1">
+        <v>43929</v>
+      </c>
+      <c r="G1565" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1565" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1566">
+        <v>1564</v>
+      </c>
+      <c r="B1566" s="2">
+        <v>43950</v>
+      </c>
+      <c r="C1566">
+        <v>20</v>
+      </c>
+      <c r="D1566" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1566" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1566" s="1">
+        <v>43947</v>
+      </c>
+      <c r="G1566" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1566" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1567">
+        <v>1565</v>
+      </c>
+      <c r="B1567" s="2">
+        <v>43950</v>
+      </c>
+      <c r="C1567">
+        <v>20</v>
+      </c>
+      <c r="D1567" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1567" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1567" s="1">
+        <v>43945</v>
+      </c>
+      <c r="G1567" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1567" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1568">
+        <v>1566</v>
+      </c>
+      <c r="B1568" s="2">
+        <v>43950</v>
+      </c>
+      <c r="C1568">
+        <v>30</v>
+      </c>
+      <c r="D1568" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1568" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1568" s="1">
+        <v>43947</v>
+      </c>
+      <c r="G1568" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1568" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1569">
+        <v>1567</v>
+      </c>
+      <c r="B1569" s="2">
+        <v>43950</v>
+      </c>
+      <c r="C1569">
+        <v>30</v>
+      </c>
+      <c r="D1569" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1569" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1569" s="1">
+        <v>43947</v>
+      </c>
+      <c r="G1569" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1569" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1570">
+        <v>1568</v>
+      </c>
+      <c r="B1570" s="2">
+        <v>43950</v>
+      </c>
+      <c r="C1570">
+        <v>20</v>
+      </c>
+      <c r="D1570" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1570" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1570" s="1">
+        <v>43946</v>
+      </c>
+      <c r="G1570" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1570" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1571">
+        <v>1569</v>
+      </c>
+      <c r="B1571" s="2">
+        <v>43950</v>
+      </c>
+      <c r="C1571">
+        <v>50</v>
+      </c>
+      <c r="D1571" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1571" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1571" s="1">
+        <v>43941</v>
+      </c>
+      <c r="G1571" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1571" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1572">
+        <v>1570</v>
+      </c>
+      <c r="B1572" s="2">
+        <v>43950</v>
+      </c>
+      <c r="C1572">
+        <v>40</v>
+      </c>
+      <c r="D1572" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1572" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1572" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1572" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1572" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1573">
+        <v>1571</v>
+      </c>
+      <c r="B1573" s="2">
+        <v>43950</v>
+      </c>
+      <c r="C1573">
+        <v>80</v>
+      </c>
+      <c r="D1573" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1573" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1573" s="1">
+        <v>43946</v>
+      </c>
+      <c r="G1573" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1573" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1574">
+        <v>1572</v>
+      </c>
+      <c r="B1574" s="2">
+        <v>43950</v>
+      </c>
+      <c r="C1574">
+        <v>10</v>
+      </c>
+      <c r="D1574" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1574" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1574" s="1">
+        <v>43941</v>
+      </c>
+      <c r="G1574" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1574" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1575">
+        <v>1573</v>
+      </c>
+      <c r="B1575" s="2">
+        <v>43950</v>
+      </c>
+      <c r="C1575">
+        <v>30</v>
+      </c>
+      <c r="D1575" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1575" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1575" s="1">
+        <v>43935</v>
+      </c>
+      <c r="G1575" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1575" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1576">
+        <v>1574</v>
+      </c>
+      <c r="B1576" s="2">
+        <v>43950</v>
+      </c>
+      <c r="C1576">
+        <v>40</v>
+      </c>
+      <c r="D1576" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1576" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1576" s="1">
+        <v>43945</v>
+      </c>
+      <c r="G1576" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1576" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1577">
+        <v>1575</v>
+      </c>
+      <c r="B1577" s="2">
+        <v>43950</v>
+      </c>
+      <c r="C1577">
+        <v>80</v>
+      </c>
+      <c r="D1577" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1577" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1577" s="1">
+        <v>43937</v>
+      </c>
+      <c r="G1577" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1577" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1578">
+        <v>1576</v>
+      </c>
+      <c r="B1578" s="2">
+        <v>43950</v>
+      </c>
+      <c r="C1578">
+        <v>30</v>
+      </c>
+      <c r="D1578" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1578" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1578" s="1">
+        <v>43939</v>
+      </c>
+      <c r="G1578" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1578" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1579">
+        <v>1577</v>
+      </c>
+      <c r="B1579" s="2">
+        <v>43950</v>
+      </c>
+      <c r="C1579">
+        <v>80</v>
+      </c>
+      <c r="D1579" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1579" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1579" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1579" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1579" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1580">
+        <v>1578</v>
+      </c>
+      <c r="B1580" s="2">
+        <v>43950</v>
+      </c>
+      <c r="C1580">
+        <v>60</v>
+      </c>
+      <c r="D1580" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1580" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1580" s="1">
+        <v>43938</v>
+      </c>
+      <c r="G1580" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1580" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1581">
+        <v>1579</v>
+      </c>
+      <c r="B1581" s="2">
+        <v>43950</v>
+      </c>
+      <c r="C1581">
+        <v>40</v>
+      </c>
+      <c r="D1581" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1581" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1581" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1581" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1581" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1582">
+        <v>1580</v>
+      </c>
+      <c r="B1582" s="2">
+        <v>43950</v>
+      </c>
+      <c r="C1582">
+        <v>70</v>
+      </c>
+      <c r="D1582" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1582" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1582" s="1">
+        <v>43945</v>
+      </c>
+      <c r="G1582" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1582" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1583">
+        <v>1581</v>
+      </c>
+      <c r="B1583" s="2">
+        <v>43950</v>
+      </c>
+      <c r="C1583">
+        <v>20</v>
+      </c>
+      <c r="D1583" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1583" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1583" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1583" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1583" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1584">
+        <v>1582</v>
+      </c>
+      <c r="B1584" s="2">
+        <v>43950</v>
+      </c>
+      <c r="C1584">
+        <v>20</v>
+      </c>
+      <c r="D1584" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1584" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1584" s="1">
+        <v>43932</v>
+      </c>
+      <c r="G1584" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1584" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1585">
+        <v>1583</v>
+      </c>
+      <c r="B1585" s="2">
+        <v>43950</v>
+      </c>
+      <c r="C1585">
+        <v>10</v>
+      </c>
+      <c r="D1585" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1585" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1585" s="1">
+        <v>43944</v>
+      </c>
+      <c r="G1585" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1585" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1586">
+        <v>1584</v>
+      </c>
+      <c r="B1586" s="2">
+        <v>43950</v>
+      </c>
+      <c r="C1586">
+        <v>30</v>
+      </c>
+      <c r="D1586" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1586" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1586" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1586" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1586" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1587">
+        <v>1585</v>
+      </c>
+      <c r="B1587" s="2">
+        <v>43950</v>
+      </c>
+      <c r="C1587">
+        <v>30</v>
+      </c>
+      <c r="D1587" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1587" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1587" s="1">
+        <v>43941</v>
+      </c>
+      <c r="G1587" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1587" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1588">
+        <v>1586</v>
+      </c>
+      <c r="B1588" s="2">
+        <v>43950</v>
+      </c>
+      <c r="C1588">
+        <v>40</v>
+      </c>
+      <c r="D1588" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1588" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1588" s="1">
+        <v>43943</v>
+      </c>
+      <c r="G1588" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1588" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1589">
+        <v>1587</v>
+      </c>
+      <c r="B1589" s="2">
+        <v>43950</v>
+      </c>
+      <c r="C1589">
+        <v>40</v>
+      </c>
+      <c r="D1589" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1589" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1589" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1589" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1589" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1590">
+        <v>1588</v>
+      </c>
+      <c r="B1590" s="2">
+        <v>43950</v>
+      </c>
+      <c r="C1590">
+        <v>50</v>
+      </c>
+      <c r="D1590" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1590" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1590" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1590" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1590" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1591">
+        <v>1589</v>
+      </c>
+      <c r="B1591" s="2">
+        <v>43950</v>
+      </c>
+      <c r="C1591">
+        <v>20</v>
+      </c>
+      <c r="D1591" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1591" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1591" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1591" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1591" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1592">
+        <v>1590</v>
+      </c>
+      <c r="B1592" s="2">
+        <v>43950</v>
+      </c>
+      <c r="C1592">
+        <v>20</v>
+      </c>
+      <c r="D1592" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1592" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1592" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1592" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1592" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1593">
+        <v>1591</v>
+      </c>
+      <c r="B1593" s="2">
+        <v>43950</v>
+      </c>
+      <c r="C1593">
+        <v>40</v>
+      </c>
+      <c r="D1593" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1593" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1593" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1593" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1593" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1594">
+        <v>1592</v>
+      </c>
+      <c r="B1594" s="2">
+        <v>43950</v>
+      </c>
+      <c r="C1594">
+        <v>30</v>
+      </c>
+      <c r="D1594" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1594" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1594" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1594" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1594" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1595">
+        <v>1593</v>
+      </c>
+      <c r="B1595" s="2">
+        <v>43950</v>
+      </c>
+      <c r="C1595">
+        <v>40</v>
+      </c>
+      <c r="D1595" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1595" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1595" s="1">
+        <v>43939</v>
+      </c>
+      <c r="G1595" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1595" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1596">
+        <v>1594</v>
+      </c>
+      <c r="B1596" s="2">
+        <v>43950</v>
+      </c>
+      <c r="C1596">
+        <v>20</v>
+      </c>
+      <c r="D1596" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1596" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1596" s="1">
+        <v>43946</v>
+      </c>
+      <c r="G1596" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1596" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1597">
+        <v>1595</v>
+      </c>
+      <c r="B1597" s="2">
+        <v>43950</v>
+      </c>
+      <c r="C1597">
+        <v>60</v>
+      </c>
+      <c r="D1597" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1597" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1597" s="1">
+        <v>43937</v>
+      </c>
+      <c r="G1597" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1597" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1598">
+        <v>1596</v>
+      </c>
+      <c r="B1598" s="2">
+        <v>43950</v>
+      </c>
+      <c r="C1598">
+        <v>60</v>
+      </c>
+      <c r="D1598" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1598" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1598" s="1">
+        <v>43936</v>
+      </c>
+      <c r="G1598" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1598" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1599">
+        <v>1597</v>
+      </c>
+      <c r="B1599" s="2">
+        <v>43950</v>
+      </c>
+      <c r="C1599">
+        <v>80</v>
+      </c>
+      <c r="D1599" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1599" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1599" s="1">
+        <v>43944</v>
+      </c>
+      <c r="G1599" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1599" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:H1555"/>
+  <autoFilter ref="A2:H1599"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -41327,7 +42465,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K97"/>
+  <dimension ref="A1:K98"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -41338,7 +42476,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="3">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="B1" t="s">
         <v>60</v>
@@ -44668,26 +45806,61 @@
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A97" s="4" t="s">
+      <c r="A97" s="2">
+        <v>43950</v>
+      </c>
+      <c r="B97">
+        <v>685</v>
+      </c>
+      <c r="C97">
+        <v>44</v>
+      </c>
+      <c r="D97">
+        <v>1597</v>
+      </c>
+      <c r="E97">
+        <v>935</v>
+      </c>
+      <c r="F97">
+        <v>50</v>
+      </c>
+      <c r="G97">
+        <v>623</v>
+      </c>
+      <c r="H97">
+        <v>50</v>
+      </c>
+      <c r="I97">
+        <v>623</v>
+      </c>
+      <c r="J97">
+        <v>3</v>
+      </c>
+      <c r="K97">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A98" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B97">
-        <v>14725</v>
-      </c>
-      <c r="C97">
-        <v>1553</v>
-      </c>
-      <c r="F97">
-        <v>573</v>
-      </c>
-      <c r="H97">
-        <v>573</v>
-      </c>
-      <c r="J97">
-        <v>36</v>
-      </c>
-      <c r="K97">
-        <v>833</v>
+      <c r="B98">
+        <v>15410</v>
+      </c>
+      <c r="C98">
+        <v>1597</v>
+      </c>
+      <c r="F98">
+        <v>623</v>
+      </c>
+      <c r="H98">
+        <v>623</v>
+      </c>
+      <c r="J98">
+        <v>39</v>
+      </c>
+      <c r="K98">
+        <v>845</v>
       </c>
     </row>
   </sheetData>

--- a/data/patients_and_inspections.xlsx
+++ b/data/patients_and_inspections.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.19.161.23\kansen_fol\03防疫L（移行済）\06　中国武漢市肺炎（新型コロナウイルス）\検査の状況(HP更新)\陽性者入院状況\コロナサイト\0501（0430のデータ）\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hasse\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B8121EE-87A2-4D3D-A759-F7F630E4057E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2010" yWindow="465" windowWidth="33000" windowHeight="19155"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="【公開OK】ピポット集計" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <sheet name="【公開OK】コロナサイト用（日付ベース）" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'【公開OK】府HP用(陽性者ベース)'!$A$2:$H$1627</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'【公開OK】府HP用(陽性者ベース)'!$A$2:$H$1641</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6884" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6942" uniqueCount="95">
   <si>
     <t>（1）入退院の状況</t>
   </si>
@@ -296,13 +297,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>計</t>
-    <rPh sb="0" eb="1">
-      <t>ケイ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>自宅療養</t>
     <rPh sb="0" eb="2">
       <t>ジタク</t>
@@ -346,20 +340,24 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>死亡退院</t>
-    <rPh sb="0" eb="2">
-      <t>シボウ</t>
+    <t>和泉市</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死亡退院退院</t>
+  </si>
+  <si>
+    <t>計</t>
+    <rPh sb="0" eb="1">
+      <t>ケイ</t>
     </rPh>
-    <rPh sb="2" eb="4">
-      <t>タイイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
@@ -404,7 +402,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="游ゴシック"/>
       <family val="2"/>
@@ -465,7 +463,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -742,12 +740,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -769,7 +765,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>640</v>
+        <v>673</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -777,7 +773,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
@@ -785,7 +781,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>82</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
@@ -793,7 +789,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
@@ -801,7 +797,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1625</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
@@ -822,7 +818,7 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <v>841</v>
+        <v>822</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
@@ -830,7 +826,7 @@
         <v>11</v>
       </c>
       <c r="B14">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
@@ -838,7 +834,7 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
@@ -846,7 +842,7 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
@@ -854,7 +850,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>640</v>
+        <v>673</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
@@ -862,31 +858,31 @@
         <v>7</v>
       </c>
       <c r="B18">
-        <v>1625</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B20">
-        <v>224</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B21">
-        <v>180</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B22">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -897,10 +893,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1627"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H1641"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A1634" workbookViewId="0">
+      <selection activeCell="A1631" sqref="A1631"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -911,7 +909,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="3">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="B1" t="s">
         <v>60</v>
@@ -2422,7 +2420,7 @@
         <v>13</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.4">
@@ -2630,7 +2628,7 @@
         <v>10</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.4">
@@ -2656,7 +2654,7 @@
         <v>13</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.4">
@@ -2812,7 +2810,7 @@
         <v>12</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.4">
@@ -2838,7 +2836,7 @@
         <v>14</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.4">
@@ -3384,7 +3382,7 @@
         <v>13</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.4">
@@ -3410,7 +3408,7 @@
         <v>10</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.4">
@@ -4346,7 +4344,7 @@
         <v>14</v>
       </c>
       <c r="H133" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.4">
@@ -5022,7 +5020,7 @@
         <v>10</v>
       </c>
       <c r="H159" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.4">
@@ -5308,7 +5306,7 @@
         <v>13</v>
       </c>
       <c r="H170" s="7" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.4">
@@ -5487,7 +5485,7 @@
         <v>43902</v>
       </c>
       <c r="G177" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H177" s="7" t="s">
         <v>4</v>
@@ -5776,7 +5774,7 @@
         <v>14</v>
       </c>
       <c r="H188" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.4">
@@ -5932,7 +5930,7 @@
         <v>10</v>
       </c>
       <c r="H194" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.4">
@@ -6400,7 +6398,7 @@
         <v>10</v>
       </c>
       <c r="H212" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.4">
@@ -6660,7 +6658,7 @@
         <v>10</v>
       </c>
       <c r="H222" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.4">
@@ -6712,7 +6710,7 @@
         <v>14</v>
       </c>
       <c r="H224" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.4">
@@ -7102,7 +7100,7 @@
         <v>10</v>
       </c>
       <c r="H239" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.4">
@@ -7180,7 +7178,7 @@
         <v>14</v>
       </c>
       <c r="H242" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.4">
@@ -7206,7 +7204,7 @@
         <v>10</v>
       </c>
       <c r="H243" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.4">
@@ -7307,7 +7305,7 @@
         <v>43906</v>
       </c>
       <c r="G247" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H247" s="7" t="s">
         <v>4</v>
@@ -7440,7 +7438,7 @@
         <v>12</v>
       </c>
       <c r="H252" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.4">
@@ -7492,7 +7490,7 @@
         <v>12</v>
       </c>
       <c r="H254" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.4">
@@ -7518,7 +7516,7 @@
         <v>14</v>
       </c>
       <c r="H255" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.4">
@@ -7544,7 +7542,7 @@
         <v>12</v>
       </c>
       <c r="H256" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.4">
@@ -7596,7 +7594,7 @@
         <v>14</v>
       </c>
       <c r="H258" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.4">
@@ -7648,7 +7646,7 @@
         <v>14</v>
       </c>
       <c r="H260" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.4">
@@ -7674,7 +7672,7 @@
         <v>14</v>
       </c>
       <c r="H261" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.4">
@@ -7700,7 +7698,7 @@
         <v>14</v>
       </c>
       <c r="H262" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.4">
@@ -7726,7 +7724,7 @@
         <v>14</v>
       </c>
       <c r="H263" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.4">
@@ -7752,7 +7750,7 @@
         <v>14</v>
       </c>
       <c r="H264" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.4">
@@ -7778,7 +7776,7 @@
         <v>14</v>
       </c>
       <c r="H265" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.4">
@@ -7804,7 +7802,7 @@
         <v>14</v>
       </c>
       <c r="H266" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.4">
@@ -7830,7 +7828,7 @@
         <v>14</v>
       </c>
       <c r="H267" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.4">
@@ -7856,7 +7854,7 @@
         <v>10</v>
       </c>
       <c r="H268" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.4">
@@ -8038,7 +8036,7 @@
         <v>14</v>
       </c>
       <c r="H275" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.4">
@@ -8220,7 +8218,7 @@
         <v>10</v>
       </c>
       <c r="H282" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.4">
@@ -8688,7 +8686,7 @@
         <v>10</v>
       </c>
       <c r="H300" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.4">
@@ -8766,7 +8764,7 @@
         <v>13</v>
       </c>
       <c r="H303" s="7" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.4">
@@ -8792,7 +8790,7 @@
         <v>13</v>
       </c>
       <c r="H304" s="7" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.4">
@@ -8870,7 +8868,7 @@
         <v>14</v>
       </c>
       <c r="H307" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.4">
@@ -9052,7 +9050,7 @@
         <v>14</v>
       </c>
       <c r="H314" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.4">
@@ -9078,7 +9076,7 @@
         <v>14</v>
       </c>
       <c r="H315" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.4">
@@ -9130,7 +9128,7 @@
         <v>14</v>
       </c>
       <c r="H317" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.4">
@@ -9182,7 +9180,7 @@
         <v>10</v>
       </c>
       <c r="H319" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.4">
@@ -9234,7 +9232,7 @@
         <v>14</v>
       </c>
       <c r="H321" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.4">
@@ -9260,7 +9258,7 @@
         <v>14</v>
       </c>
       <c r="H322" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.4">
@@ -9286,7 +9284,7 @@
         <v>14</v>
       </c>
       <c r="H323" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.4">
@@ -9338,7 +9336,7 @@
         <v>14</v>
       </c>
       <c r="H325" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.4">
@@ -9416,7 +9414,7 @@
         <v>14</v>
       </c>
       <c r="H328" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.4">
@@ -9442,7 +9440,7 @@
         <v>14</v>
       </c>
       <c r="H329" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.4">
@@ -9468,7 +9466,7 @@
         <v>14</v>
       </c>
       <c r="H330" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.4">
@@ -9494,7 +9492,7 @@
         <v>14</v>
       </c>
       <c r="H331" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.4">
@@ -9676,7 +9674,7 @@
         <v>10</v>
       </c>
       <c r="H338" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.4">
@@ -9702,7 +9700,7 @@
         <v>10</v>
       </c>
       <c r="H339" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.4">
@@ -9728,7 +9726,7 @@
         <v>10</v>
       </c>
       <c r="H340" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.4">
@@ -9780,7 +9778,7 @@
         <v>10</v>
       </c>
       <c r="H342" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.4">
@@ -9858,7 +9856,7 @@
         <v>14</v>
       </c>
       <c r="H345" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.4">
@@ -9884,7 +9882,7 @@
         <v>10</v>
       </c>
       <c r="H346" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.4">
@@ -10014,7 +10012,7 @@
         <v>14</v>
       </c>
       <c r="H351" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.4">
@@ -10040,7 +10038,7 @@
         <v>14</v>
       </c>
       <c r="H352" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.4">
@@ -10193,7 +10191,7 @@
         <v>43922</v>
       </c>
       <c r="G358" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H358" s="7" t="s">
         <v>75</v>
@@ -10222,7 +10220,7 @@
         <v>10</v>
       </c>
       <c r="H359" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.4">
@@ -10274,7 +10272,7 @@
         <v>14</v>
       </c>
       <c r="H361" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.4">
@@ -10352,7 +10350,7 @@
         <v>14</v>
       </c>
       <c r="H364" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.4">
@@ -10378,7 +10376,7 @@
         <v>13</v>
       </c>
       <c r="H365" s="7" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.4">
@@ -10404,7 +10402,7 @@
         <v>14</v>
       </c>
       <c r="H366" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.4">
@@ -10430,7 +10428,7 @@
         <v>14</v>
       </c>
       <c r="H367" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.4">
@@ -10456,7 +10454,7 @@
         <v>14</v>
       </c>
       <c r="H368" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.4">
@@ -10482,7 +10480,7 @@
         <v>14</v>
       </c>
       <c r="H369" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.4">
@@ -10583,7 +10581,7 @@
         <v>43918</v>
       </c>
       <c r="G373" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H373" s="7" t="s">
         <v>4</v>
@@ -10664,7 +10662,7 @@
         <v>14</v>
       </c>
       <c r="H376" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.4">
@@ -10742,7 +10740,7 @@
         <v>10</v>
       </c>
       <c r="H379" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.4">
@@ -10794,7 +10792,7 @@
         <v>10</v>
       </c>
       <c r="H381" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.4">
@@ -10872,7 +10870,7 @@
         <v>10</v>
       </c>
       <c r="H384" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.4">
@@ -10895,7 +10893,7 @@
         <v>43917</v>
       </c>
       <c r="G385" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H385" s="7" t="s">
         <v>4</v>
@@ -10976,7 +10974,7 @@
         <v>14</v>
       </c>
       <c r="H388" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.4">
@@ -11002,7 +11000,7 @@
         <v>10</v>
       </c>
       <c r="H389" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.4">
@@ -11132,7 +11130,7 @@
         <v>10</v>
       </c>
       <c r="H394" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.4">
@@ -11158,7 +11156,7 @@
         <v>14</v>
       </c>
       <c r="H395" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.4">
@@ -11184,7 +11182,7 @@
         <v>14</v>
       </c>
       <c r="H396" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.4">
@@ -11236,7 +11234,7 @@
         <v>10</v>
       </c>
       <c r="H398" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.4">
@@ -11262,7 +11260,7 @@
         <v>14</v>
       </c>
       <c r="H399" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.4">
@@ -11314,7 +11312,7 @@
         <v>13</v>
       </c>
       <c r="H401" s="7" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.4">
@@ -11418,7 +11416,7 @@
         <v>14</v>
       </c>
       <c r="H405" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.4">
@@ -11444,7 +11442,7 @@
         <v>10</v>
       </c>
       <c r="H406" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="407" spans="1:8" x14ac:dyDescent="0.4">
@@ -11470,7 +11468,7 @@
         <v>14</v>
       </c>
       <c r="H407" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.4">
@@ -11496,7 +11494,7 @@
         <v>14</v>
       </c>
       <c r="H408" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="409" spans="1:8" x14ac:dyDescent="0.4">
@@ -11548,7 +11546,7 @@
         <v>14</v>
       </c>
       <c r="H410" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="411" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11600,7 +11598,7 @@
         <v>14</v>
       </c>
       <c r="H412" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="413" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11652,7 +11650,7 @@
         <v>14</v>
       </c>
       <c r="H414" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="415" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11730,7 +11728,7 @@
         <v>12</v>
       </c>
       <c r="H417" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="418" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11756,7 +11754,7 @@
         <v>10</v>
       </c>
       <c r="H418" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="419" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11857,7 +11855,7 @@
         <v>43922</v>
       </c>
       <c r="G422" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H422" s="7" t="s">
         <v>4</v>
@@ -11886,7 +11884,7 @@
         <v>10</v>
       </c>
       <c r="H423" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="424" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11912,7 +11910,7 @@
         <v>14</v>
       </c>
       <c r="H424" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="425" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11990,7 +11988,7 @@
         <v>10</v>
       </c>
       <c r="H427" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="428" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12016,7 +12014,7 @@
         <v>14</v>
       </c>
       <c r="H428" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="429" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12042,7 +12040,7 @@
         <v>10</v>
       </c>
       <c r="H429" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="430" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12120,7 +12118,7 @@
         <v>10</v>
       </c>
       <c r="H432" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="433" spans="1:8" x14ac:dyDescent="0.4">
@@ -12146,7 +12144,7 @@
         <v>14</v>
       </c>
       <c r="H433" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.4">
@@ -12172,7 +12170,7 @@
         <v>10</v>
       </c>
       <c r="H434" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="435" spans="1:8" x14ac:dyDescent="0.4">
@@ -12276,7 +12274,7 @@
         <v>10</v>
       </c>
       <c r="H438" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="439" spans="1:8" x14ac:dyDescent="0.4">
@@ -12302,7 +12300,7 @@
         <v>10</v>
       </c>
       <c r="H439" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="440" spans="1:8" x14ac:dyDescent="0.4">
@@ -12328,7 +12326,7 @@
         <v>10</v>
       </c>
       <c r="H440" s="7" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.4">
@@ -12354,7 +12352,7 @@
         <v>14</v>
       </c>
       <c r="H441" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="442" spans="1:8" x14ac:dyDescent="0.4">
@@ -12432,7 +12430,7 @@
         <v>14</v>
       </c>
       <c r="H444" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="445" spans="1:8" x14ac:dyDescent="0.4">
@@ -12458,7 +12456,7 @@
         <v>10</v>
       </c>
       <c r="H445" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="446" spans="1:8" x14ac:dyDescent="0.4">
@@ -12484,7 +12482,7 @@
         <v>14</v>
       </c>
       <c r="H446" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="447" spans="1:8" x14ac:dyDescent="0.4">
@@ -12614,7 +12612,7 @@
         <v>10</v>
       </c>
       <c r="H451" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.4">
@@ -12692,7 +12690,7 @@
         <v>14</v>
       </c>
       <c r="H454" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.4">
@@ -12744,7 +12742,7 @@
         <v>10</v>
       </c>
       <c r="H456" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.4">
@@ -12822,7 +12820,7 @@
         <v>12</v>
       </c>
       <c r="H459" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.4">
@@ -12848,7 +12846,7 @@
         <v>10</v>
       </c>
       <c r="H460" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.4">
@@ -12874,7 +12872,7 @@
         <v>10</v>
       </c>
       <c r="H461" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.4">
@@ -12900,7 +12898,7 @@
         <v>10</v>
       </c>
       <c r="H462" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.4">
@@ -12926,7 +12924,7 @@
         <v>10</v>
       </c>
       <c r="H463" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.4">
@@ -13056,7 +13054,7 @@
         <v>14</v>
       </c>
       <c r="H468" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="469" spans="1:8" x14ac:dyDescent="0.4">
@@ -13160,7 +13158,7 @@
         <v>14</v>
       </c>
       <c r="H472" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="473" spans="1:8" x14ac:dyDescent="0.4">
@@ -13264,7 +13262,7 @@
         <v>10</v>
       </c>
       <c r="H476" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="477" spans="1:8" x14ac:dyDescent="0.4">
@@ -13290,7 +13288,7 @@
         <v>13</v>
       </c>
       <c r="H477" s="7" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="478" spans="1:8" x14ac:dyDescent="0.4">
@@ -13316,7 +13314,7 @@
         <v>12</v>
       </c>
       <c r="H478" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="479" spans="1:8" x14ac:dyDescent="0.4">
@@ -13342,7 +13340,7 @@
         <v>14</v>
       </c>
       <c r="H479" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="480" spans="1:8" x14ac:dyDescent="0.4">
@@ -13365,7 +13363,7 @@
         <v>43916</v>
       </c>
       <c r="G480" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H480" s="7" t="s">
         <v>4</v>
@@ -13524,7 +13522,7 @@
         <v>10</v>
       </c>
       <c r="H486" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="487" spans="1:8" x14ac:dyDescent="0.4">
@@ -13628,7 +13626,7 @@
         <v>10</v>
       </c>
       <c r="H490" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="491" spans="1:8" x14ac:dyDescent="0.4">
@@ -13654,7 +13652,7 @@
         <v>14</v>
       </c>
       <c r="H491" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="492" spans="1:8" x14ac:dyDescent="0.4">
@@ -13680,7 +13678,7 @@
         <v>12</v>
       </c>
       <c r="H492" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="493" spans="1:8" x14ac:dyDescent="0.4">
@@ -13810,7 +13808,7 @@
         <v>14</v>
       </c>
       <c r="H497" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="498" spans="1:8" x14ac:dyDescent="0.4">
@@ -13836,7 +13834,7 @@
         <v>10</v>
       </c>
       <c r="H498" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="499" spans="1:8" x14ac:dyDescent="0.4">
@@ -13862,7 +13860,7 @@
         <v>10</v>
       </c>
       <c r="H499" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="500" spans="1:8" x14ac:dyDescent="0.4">
@@ -13888,7 +13886,7 @@
         <v>10</v>
       </c>
       <c r="H500" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="501" spans="1:8" x14ac:dyDescent="0.4">
@@ -13914,7 +13912,7 @@
         <v>10</v>
       </c>
       <c r="H501" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="502" spans="1:8" x14ac:dyDescent="0.4">
@@ -13940,7 +13938,7 @@
         <v>10</v>
       </c>
       <c r="H502" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="503" spans="1:8" x14ac:dyDescent="0.4">
@@ -13966,7 +13964,7 @@
         <v>10</v>
       </c>
       <c r="H503" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="504" spans="1:8" x14ac:dyDescent="0.4">
@@ -13992,7 +13990,7 @@
         <v>10</v>
       </c>
       <c r="H504" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="505" spans="1:8" x14ac:dyDescent="0.4">
@@ -14018,7 +14016,7 @@
         <v>10</v>
       </c>
       <c r="H505" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="506" spans="1:8" x14ac:dyDescent="0.4">
@@ -14044,7 +14042,7 @@
         <v>10</v>
       </c>
       <c r="H506" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="507" spans="1:8" x14ac:dyDescent="0.4">
@@ -14070,7 +14068,7 @@
         <v>10</v>
       </c>
       <c r="H507" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="508" spans="1:8" x14ac:dyDescent="0.4">
@@ -14096,7 +14094,7 @@
         <v>10</v>
       </c>
       <c r="H508" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="509" spans="1:8" x14ac:dyDescent="0.4">
@@ -14122,7 +14120,7 @@
         <v>10</v>
       </c>
       <c r="H509" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="510" spans="1:8" x14ac:dyDescent="0.4">
@@ -14174,7 +14172,7 @@
         <v>10</v>
       </c>
       <c r="H511" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="512" spans="1:8" x14ac:dyDescent="0.4">
@@ -14252,7 +14250,7 @@
         <v>14</v>
       </c>
       <c r="H514" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="515" spans="1:8" x14ac:dyDescent="0.4">
@@ -14278,7 +14276,7 @@
         <v>14</v>
       </c>
       <c r="H515" s="7" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
     </row>
     <row r="516" spans="1:8" x14ac:dyDescent="0.4">
@@ -14460,7 +14458,7 @@
         <v>10</v>
       </c>
       <c r="H522" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="523" spans="1:8" x14ac:dyDescent="0.4">
@@ -14486,7 +14484,7 @@
         <v>14</v>
       </c>
       <c r="H523" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="524" spans="1:8" x14ac:dyDescent="0.4">
@@ -14561,7 +14559,7 @@
         <v>43922</v>
       </c>
       <c r="G526" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H526" s="7" t="s">
         <v>4</v>
@@ -14642,7 +14640,7 @@
         <v>10</v>
       </c>
       <c r="H529" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="530" spans="1:8" x14ac:dyDescent="0.4">
@@ -14694,7 +14692,7 @@
         <v>10</v>
       </c>
       <c r="H531" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="532" spans="1:8" x14ac:dyDescent="0.4">
@@ -14720,7 +14718,7 @@
         <v>10</v>
       </c>
       <c r="H532" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="533" spans="1:8" x14ac:dyDescent="0.4">
@@ -14746,7 +14744,7 @@
         <v>10</v>
       </c>
       <c r="H533" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="534" spans="1:8" x14ac:dyDescent="0.4">
@@ -14772,7 +14770,7 @@
         <v>10</v>
       </c>
       <c r="H534" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="535" spans="1:8" x14ac:dyDescent="0.4">
@@ -14798,7 +14796,7 @@
         <v>10</v>
       </c>
       <c r="H535" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="536" spans="1:8" x14ac:dyDescent="0.4">
@@ -14850,7 +14848,7 @@
         <v>10</v>
       </c>
       <c r="H537" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="538" spans="1:8" x14ac:dyDescent="0.4">
@@ -14980,7 +14978,7 @@
         <v>10</v>
       </c>
       <c r="H542" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="543" spans="1:8" x14ac:dyDescent="0.4">
@@ -15058,7 +15056,7 @@
         <v>10</v>
       </c>
       <c r="H545" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="546" spans="1:8" x14ac:dyDescent="0.4">
@@ -15110,7 +15108,7 @@
         <v>10</v>
       </c>
       <c r="H547" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="548" spans="1:8" x14ac:dyDescent="0.4">
@@ -15214,7 +15212,7 @@
         <v>10</v>
       </c>
       <c r="H551" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="552" spans="1:8" x14ac:dyDescent="0.4">
@@ -15240,7 +15238,7 @@
         <v>10</v>
       </c>
       <c r="H552" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="553" spans="1:8" x14ac:dyDescent="0.4">
@@ -15292,7 +15290,7 @@
         <v>10</v>
       </c>
       <c r="H554" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="555" spans="1:8" x14ac:dyDescent="0.4">
@@ -15344,7 +15342,7 @@
         <v>13</v>
       </c>
       <c r="H556" s="7" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="557" spans="1:8" x14ac:dyDescent="0.4">
@@ -15370,7 +15368,7 @@
         <v>10</v>
       </c>
       <c r="H557" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="558" spans="1:8" x14ac:dyDescent="0.4">
@@ -15396,7 +15394,7 @@
         <v>10</v>
       </c>
       <c r="H558" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="559" spans="1:8" x14ac:dyDescent="0.4">
@@ -15422,7 +15420,7 @@
         <v>10</v>
       </c>
       <c r="H559" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="560" spans="1:8" x14ac:dyDescent="0.4">
@@ -15526,7 +15524,7 @@
         <v>10</v>
       </c>
       <c r="H563" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="564" spans="1:8" x14ac:dyDescent="0.4">
@@ -15682,7 +15680,7 @@
         <v>12</v>
       </c>
       <c r="H569" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="570" spans="1:8" x14ac:dyDescent="0.4">
@@ -15812,7 +15810,7 @@
         <v>10</v>
       </c>
       <c r="H574" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="575" spans="1:8" x14ac:dyDescent="0.4">
@@ -15864,7 +15862,7 @@
         <v>13</v>
       </c>
       <c r="H576" s="7" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="577" spans="1:8" x14ac:dyDescent="0.4">
@@ -15916,7 +15914,7 @@
         <v>10</v>
       </c>
       <c r="H578" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="579" spans="1:8" x14ac:dyDescent="0.4">
@@ -15942,7 +15940,7 @@
         <v>10</v>
       </c>
       <c r="H579" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="580" spans="1:8" x14ac:dyDescent="0.4">
@@ -15968,7 +15966,7 @@
         <v>10</v>
       </c>
       <c r="H580" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="581" spans="1:8" x14ac:dyDescent="0.4">
@@ -15994,7 +15992,7 @@
         <v>10</v>
       </c>
       <c r="H581" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="582" spans="1:8" x14ac:dyDescent="0.4">
@@ -16020,7 +16018,7 @@
         <v>10</v>
       </c>
       <c r="H582" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="583" spans="1:8" x14ac:dyDescent="0.4">
@@ -16046,7 +16044,7 @@
         <v>10</v>
       </c>
       <c r="H583" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="584" spans="1:8" x14ac:dyDescent="0.4">
@@ -16072,7 +16070,7 @@
         <v>12</v>
       </c>
       <c r="H584" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="585" spans="1:8" x14ac:dyDescent="0.4">
@@ -16098,7 +16096,7 @@
         <v>10</v>
       </c>
       <c r="H585" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="586" spans="1:8" x14ac:dyDescent="0.4">
@@ -16124,7 +16122,7 @@
         <v>13</v>
       </c>
       <c r="H586" s="7" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="587" spans="1:8" x14ac:dyDescent="0.4">
@@ -16202,7 +16200,7 @@
         <v>14</v>
       </c>
       <c r="H589" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="590" spans="1:8" x14ac:dyDescent="0.4">
@@ -16228,7 +16226,7 @@
         <v>12</v>
       </c>
       <c r="H590" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="591" spans="1:8" x14ac:dyDescent="0.4">
@@ -16254,7 +16252,7 @@
         <v>10</v>
       </c>
       <c r="H591" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="592" spans="1:8" x14ac:dyDescent="0.4">
@@ -16280,7 +16278,7 @@
         <v>10</v>
       </c>
       <c r="H592" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="593" spans="1:8" x14ac:dyDescent="0.4">
@@ -16306,7 +16304,7 @@
         <v>10</v>
       </c>
       <c r="H593" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="594" spans="1:8" x14ac:dyDescent="0.4">
@@ -16332,7 +16330,7 @@
         <v>10</v>
       </c>
       <c r="H594" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="595" spans="1:8" x14ac:dyDescent="0.4">
@@ -16358,7 +16356,7 @@
         <v>10</v>
       </c>
       <c r="H595" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="596" spans="1:8" x14ac:dyDescent="0.4">
@@ -16384,7 +16382,7 @@
         <v>46</v>
       </c>
       <c r="H596" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="597" spans="1:8" x14ac:dyDescent="0.4">
@@ -16410,7 +16408,7 @@
         <v>46</v>
       </c>
       <c r="H597" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="598" spans="1:8" x14ac:dyDescent="0.4">
@@ -16514,7 +16512,7 @@
         <v>10</v>
       </c>
       <c r="H601" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="602" spans="1:8" x14ac:dyDescent="0.4">
@@ -16592,7 +16590,7 @@
         <v>10</v>
       </c>
       <c r="H604" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="605" spans="1:8" x14ac:dyDescent="0.4">
@@ -16618,7 +16616,7 @@
         <v>10</v>
       </c>
       <c r="H605" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="606" spans="1:8" x14ac:dyDescent="0.4">
@@ -16644,7 +16642,7 @@
         <v>10</v>
       </c>
       <c r="H606" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="607" spans="1:8" x14ac:dyDescent="0.4">
@@ -16800,7 +16798,7 @@
         <v>10</v>
       </c>
       <c r="H612" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="613" spans="1:8" x14ac:dyDescent="0.4">
@@ -16826,7 +16824,7 @@
         <v>10</v>
       </c>
       <c r="H613" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="614" spans="1:8" x14ac:dyDescent="0.4">
@@ -16852,7 +16850,7 @@
         <v>10</v>
       </c>
       <c r="H614" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="615" spans="1:8" x14ac:dyDescent="0.4">
@@ -16878,7 +16876,7 @@
         <v>14</v>
       </c>
       <c r="H615" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="616" spans="1:8" x14ac:dyDescent="0.4">
@@ -16930,7 +16928,7 @@
         <v>10</v>
       </c>
       <c r="H617" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="618" spans="1:8" x14ac:dyDescent="0.4">
@@ -16956,7 +16954,7 @@
         <v>14</v>
       </c>
       <c r="H618" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="619" spans="1:8" x14ac:dyDescent="0.4">
@@ -16982,7 +16980,7 @@
         <v>10</v>
       </c>
       <c r="H619" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="620" spans="1:8" x14ac:dyDescent="0.4">
@@ -17008,7 +17006,7 @@
         <v>10</v>
       </c>
       <c r="H620" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="621" spans="1:8" x14ac:dyDescent="0.4">
@@ -17034,7 +17032,7 @@
         <v>10</v>
       </c>
       <c r="H621" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="622" spans="1:8" x14ac:dyDescent="0.4">
@@ -17060,7 +17058,7 @@
         <v>10</v>
       </c>
       <c r="H622" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="623" spans="1:8" x14ac:dyDescent="0.4">
@@ -17112,7 +17110,7 @@
         <v>10</v>
       </c>
       <c r="H624" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="625" spans="1:8" x14ac:dyDescent="0.4">
@@ -17164,7 +17162,7 @@
         <v>10</v>
       </c>
       <c r="H626" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="627" spans="1:8" x14ac:dyDescent="0.4">
@@ -17187,10 +17185,10 @@
         <v>43925</v>
       </c>
       <c r="G627" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H627" s="7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="628" spans="1:8" x14ac:dyDescent="0.4">
@@ -17320,7 +17318,7 @@
         <v>10</v>
       </c>
       <c r="H632" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="633" spans="1:8" x14ac:dyDescent="0.4">
@@ -17372,7 +17370,7 @@
         <v>12</v>
       </c>
       <c r="H634" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="635" spans="1:8" x14ac:dyDescent="0.4">
@@ -17398,7 +17396,7 @@
         <v>12</v>
       </c>
       <c r="H635" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="636" spans="1:8" x14ac:dyDescent="0.4">
@@ -17424,7 +17422,7 @@
         <v>12</v>
       </c>
       <c r="H636" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="637" spans="1:8" x14ac:dyDescent="0.4">
@@ -17450,7 +17448,7 @@
         <v>10</v>
       </c>
       <c r="H637" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="638" spans="1:8" x14ac:dyDescent="0.4">
@@ -17476,7 +17474,7 @@
         <v>10</v>
       </c>
       <c r="H638" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="639" spans="1:8" x14ac:dyDescent="0.4">
@@ -17528,7 +17526,7 @@
         <v>10</v>
       </c>
       <c r="H640" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="641" spans="1:8" x14ac:dyDescent="0.4">
@@ -17554,7 +17552,7 @@
         <v>10</v>
       </c>
       <c r="H641" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="642" spans="1:8" x14ac:dyDescent="0.4">
@@ -17606,7 +17604,7 @@
         <v>10</v>
       </c>
       <c r="H643" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="644" spans="1:8" x14ac:dyDescent="0.4">
@@ -17658,7 +17656,7 @@
         <v>13</v>
       </c>
       <c r="H645" s="7" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="646" spans="1:8" x14ac:dyDescent="0.4">
@@ -17710,7 +17708,7 @@
         <v>14</v>
       </c>
       <c r="H647" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="648" spans="1:8" x14ac:dyDescent="0.4">
@@ -17814,7 +17812,7 @@
         <v>10</v>
       </c>
       <c r="H651" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="652" spans="1:8" x14ac:dyDescent="0.4">
@@ -17892,7 +17890,7 @@
         <v>10</v>
       </c>
       <c r="H654" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="655" spans="1:8" x14ac:dyDescent="0.4">
@@ -17918,7 +17916,7 @@
         <v>10</v>
       </c>
       <c r="H655" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="656" spans="1:8" x14ac:dyDescent="0.4">
@@ -17944,7 +17942,7 @@
         <v>13</v>
       </c>
       <c r="H656" s="7" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="657" spans="1:8" x14ac:dyDescent="0.4">
@@ -17970,7 +17968,7 @@
         <v>10</v>
       </c>
       <c r="H657" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="658" spans="1:8" x14ac:dyDescent="0.4">
@@ -17996,7 +17994,7 @@
         <v>10</v>
       </c>
       <c r="H658" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="659" spans="1:8" x14ac:dyDescent="0.4">
@@ -18074,7 +18072,7 @@
         <v>10</v>
       </c>
       <c r="H661" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="662" spans="1:8" x14ac:dyDescent="0.4">
@@ -18152,7 +18150,7 @@
         <v>10</v>
       </c>
       <c r="H664" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="665" spans="1:8" x14ac:dyDescent="0.4">
@@ -18178,7 +18176,7 @@
         <v>10</v>
       </c>
       <c r="H665" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="666" spans="1:8" x14ac:dyDescent="0.4">
@@ -18256,7 +18254,7 @@
         <v>10</v>
       </c>
       <c r="H668" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="669" spans="1:8" x14ac:dyDescent="0.4">
@@ -18282,7 +18280,7 @@
         <v>10</v>
       </c>
       <c r="H669" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="670" spans="1:8" x14ac:dyDescent="0.4">
@@ -18308,7 +18306,7 @@
         <v>10</v>
       </c>
       <c r="H670" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="671" spans="1:8" x14ac:dyDescent="0.4">
@@ -18490,7 +18488,7 @@
         <v>10</v>
       </c>
       <c r="H677" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="678" spans="1:8" x14ac:dyDescent="0.4">
@@ -18516,7 +18514,7 @@
         <v>10</v>
       </c>
       <c r="H678" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="679" spans="1:8" x14ac:dyDescent="0.4">
@@ -18854,7 +18852,7 @@
         <v>46</v>
       </c>
       <c r="H691" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="692" spans="1:8" x14ac:dyDescent="0.4">
@@ -18880,7 +18878,7 @@
         <v>46</v>
       </c>
       <c r="H692" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="693" spans="1:8" x14ac:dyDescent="0.4">
@@ -18932,7 +18930,7 @@
         <v>46</v>
       </c>
       <c r="H694" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="695" spans="1:8" x14ac:dyDescent="0.4">
@@ -18955,7 +18953,7 @@
         <v>46</v>
       </c>
       <c r="G695" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="H695" s="7" t="s">
         <v>4</v>
@@ -19010,7 +19008,7 @@
         <v>10</v>
       </c>
       <c r="H697" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="698" spans="1:8" x14ac:dyDescent="0.4">
@@ -19036,7 +19034,7 @@
         <v>10</v>
       </c>
       <c r="H698" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="699" spans="1:8" x14ac:dyDescent="0.4">
@@ -19062,7 +19060,7 @@
         <v>10</v>
       </c>
       <c r="H699" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="700" spans="1:8" x14ac:dyDescent="0.4">
@@ -19088,7 +19086,7 @@
         <v>10</v>
       </c>
       <c r="H700" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="701" spans="1:8" x14ac:dyDescent="0.4">
@@ -19140,7 +19138,7 @@
         <v>10</v>
       </c>
       <c r="H702" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="703" spans="1:8" x14ac:dyDescent="0.4">
@@ -19270,7 +19268,7 @@
         <v>13</v>
       </c>
       <c r="H707" s="7" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="708" spans="1:8" x14ac:dyDescent="0.4">
@@ -19348,7 +19346,7 @@
         <v>10</v>
       </c>
       <c r="H710" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="711" spans="1:8" x14ac:dyDescent="0.4">
@@ -19400,7 +19398,7 @@
         <v>10</v>
       </c>
       <c r="H712" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="713" spans="1:8" x14ac:dyDescent="0.4">
@@ -19426,7 +19424,7 @@
         <v>10</v>
       </c>
       <c r="H713" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="714" spans="1:8" x14ac:dyDescent="0.4">
@@ -19452,7 +19450,7 @@
         <v>14</v>
       </c>
       <c r="H714" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="715" spans="1:8" x14ac:dyDescent="0.4">
@@ -19478,7 +19476,7 @@
         <v>10</v>
       </c>
       <c r="H715" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="716" spans="1:8" x14ac:dyDescent="0.4">
@@ -19504,7 +19502,7 @@
         <v>10</v>
       </c>
       <c r="H716" s="7" t="s">
-        <v>88</v>
+        <v>4</v>
       </c>
     </row>
     <row r="717" spans="1:8" x14ac:dyDescent="0.4">
@@ -19530,7 +19528,7 @@
         <v>10</v>
       </c>
       <c r="H717" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="718" spans="1:8" x14ac:dyDescent="0.4">
@@ -19582,7 +19580,7 @@
         <v>10</v>
       </c>
       <c r="H719" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="720" spans="1:8" x14ac:dyDescent="0.4">
@@ -19712,7 +19710,7 @@
         <v>10</v>
       </c>
       <c r="H724" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="725" spans="1:8" x14ac:dyDescent="0.4">
@@ -19738,7 +19736,7 @@
         <v>10</v>
       </c>
       <c r="H725" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="726" spans="1:8" x14ac:dyDescent="0.4">
@@ -19764,7 +19762,7 @@
         <v>10</v>
       </c>
       <c r="H726" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="727" spans="1:8" x14ac:dyDescent="0.4">
@@ -19790,7 +19788,7 @@
         <v>10</v>
       </c>
       <c r="H727" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="728" spans="1:8" x14ac:dyDescent="0.4">
@@ -19842,7 +19840,7 @@
         <v>10</v>
       </c>
       <c r="H729" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="730" spans="1:8" x14ac:dyDescent="0.4">
@@ -19868,7 +19866,7 @@
         <v>10</v>
       </c>
       <c r="H730" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="731" spans="1:8" x14ac:dyDescent="0.4">
@@ -19894,7 +19892,7 @@
         <v>10</v>
       </c>
       <c r="H731" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="732" spans="1:8" x14ac:dyDescent="0.4">
@@ -19946,7 +19944,7 @@
         <v>10</v>
       </c>
       <c r="H733" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="734" spans="1:8" x14ac:dyDescent="0.4">
@@ -20024,7 +20022,7 @@
         <v>10</v>
       </c>
       <c r="H736" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="737" spans="1:8" x14ac:dyDescent="0.4">
@@ -20050,7 +20048,7 @@
         <v>10</v>
       </c>
       <c r="H737" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="738" spans="1:8" x14ac:dyDescent="0.4">
@@ -20076,7 +20074,7 @@
         <v>10</v>
       </c>
       <c r="H738" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="739" spans="1:8" x14ac:dyDescent="0.4">
@@ -20102,7 +20100,7 @@
         <v>10</v>
       </c>
       <c r="H739" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="740" spans="1:8" x14ac:dyDescent="0.4">
@@ -20232,7 +20230,7 @@
         <v>10</v>
       </c>
       <c r="H744" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="745" spans="1:8" x14ac:dyDescent="0.4">
@@ -20258,7 +20256,7 @@
         <v>10</v>
       </c>
       <c r="H745" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="746" spans="1:8" x14ac:dyDescent="0.4">
@@ -20310,7 +20308,7 @@
         <v>10</v>
       </c>
       <c r="H747" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="748" spans="1:8" x14ac:dyDescent="0.4">
@@ -20336,7 +20334,7 @@
         <v>10</v>
       </c>
       <c r="H748" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="749" spans="1:8" x14ac:dyDescent="0.4">
@@ -20362,7 +20360,7 @@
         <v>13</v>
       </c>
       <c r="H749" s="7" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="750" spans="1:8" x14ac:dyDescent="0.4">
@@ -20388,7 +20386,7 @@
         <v>10</v>
       </c>
       <c r="H750" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="751" spans="1:8" x14ac:dyDescent="0.4">
@@ -20440,7 +20438,7 @@
         <v>10</v>
       </c>
       <c r="H752" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="753" spans="1:8" x14ac:dyDescent="0.4">
@@ -20466,7 +20464,7 @@
         <v>13</v>
       </c>
       <c r="H753" s="7" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="754" spans="1:8" x14ac:dyDescent="0.4">
@@ -20518,7 +20516,7 @@
         <v>10</v>
       </c>
       <c r="H755" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="756" spans="1:8" x14ac:dyDescent="0.4">
@@ -20648,7 +20646,7 @@
         <v>10</v>
       </c>
       <c r="H760" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="761" spans="1:8" x14ac:dyDescent="0.4">
@@ -20674,7 +20672,7 @@
         <v>10</v>
       </c>
       <c r="H761" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="762" spans="1:8" x14ac:dyDescent="0.4">
@@ -20804,7 +20802,7 @@
         <v>10</v>
       </c>
       <c r="H766" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="767" spans="1:8" x14ac:dyDescent="0.4">
@@ -20830,7 +20828,7 @@
         <v>10</v>
       </c>
       <c r="H767" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="768" spans="1:8" x14ac:dyDescent="0.4">
@@ -20882,7 +20880,7 @@
         <v>14</v>
       </c>
       <c r="H769" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="770" spans="1:8" x14ac:dyDescent="0.4">
@@ -20908,7 +20906,7 @@
         <v>14</v>
       </c>
       <c r="H770" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="771" spans="1:8" x14ac:dyDescent="0.4">
@@ -20934,7 +20932,7 @@
         <v>10</v>
       </c>
       <c r="H771" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="772" spans="1:8" x14ac:dyDescent="0.4">
@@ -20960,7 +20958,7 @@
         <v>10</v>
       </c>
       <c r="H772" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="773" spans="1:8" x14ac:dyDescent="0.4">
@@ -21012,7 +21010,7 @@
         <v>10</v>
       </c>
       <c r="H774" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="775" spans="1:8" x14ac:dyDescent="0.4">
@@ -21038,7 +21036,7 @@
         <v>10</v>
       </c>
       <c r="H775" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="776" spans="1:8" x14ac:dyDescent="0.4">
@@ -21064,7 +21062,7 @@
         <v>12</v>
       </c>
       <c r="H776" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="777" spans="1:8" x14ac:dyDescent="0.4">
@@ -21168,7 +21166,7 @@
         <v>10</v>
       </c>
       <c r="H780" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="781" spans="1:8" x14ac:dyDescent="0.4">
@@ -21194,7 +21192,7 @@
         <v>10</v>
       </c>
       <c r="H781" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="782" spans="1:8" x14ac:dyDescent="0.4">
@@ -21272,7 +21270,7 @@
         <v>10</v>
       </c>
       <c r="H784" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="785" spans="1:8" x14ac:dyDescent="0.4">
@@ -21324,7 +21322,7 @@
         <v>10</v>
       </c>
       <c r="H786" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="787" spans="1:8" x14ac:dyDescent="0.4">
@@ -21350,7 +21348,7 @@
         <v>10</v>
       </c>
       <c r="H787" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="788" spans="1:8" x14ac:dyDescent="0.4">
@@ -21376,7 +21374,7 @@
         <v>10</v>
       </c>
       <c r="H788" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="789" spans="1:8" x14ac:dyDescent="0.4">
@@ -21402,7 +21400,7 @@
         <v>10</v>
       </c>
       <c r="H789" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="790" spans="1:8" x14ac:dyDescent="0.4">
@@ -21428,7 +21426,7 @@
         <v>10</v>
       </c>
       <c r="H790" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="791" spans="1:8" x14ac:dyDescent="0.4">
@@ -21480,7 +21478,7 @@
         <v>10</v>
       </c>
       <c r="H792" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="793" spans="1:8" x14ac:dyDescent="0.4">
@@ -21506,7 +21504,7 @@
         <v>10</v>
       </c>
       <c r="H793" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="794" spans="1:8" x14ac:dyDescent="0.4">
@@ -21532,7 +21530,7 @@
         <v>10</v>
       </c>
       <c r="H794" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="795" spans="1:8" x14ac:dyDescent="0.4">
@@ -21584,7 +21582,7 @@
         <v>10</v>
       </c>
       <c r="H796" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="797" spans="1:8" x14ac:dyDescent="0.4">
@@ -21610,7 +21608,7 @@
         <v>10</v>
       </c>
       <c r="H797" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="798" spans="1:8" x14ac:dyDescent="0.4">
@@ -21636,7 +21634,7 @@
         <v>10</v>
       </c>
       <c r="H798" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="799" spans="1:8" x14ac:dyDescent="0.4">
@@ -21662,7 +21660,7 @@
         <v>10</v>
       </c>
       <c r="H799" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="800" spans="1:8" x14ac:dyDescent="0.4">
@@ -21688,7 +21686,7 @@
         <v>10</v>
       </c>
       <c r="H800" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="801" spans="1:8" x14ac:dyDescent="0.4">
@@ -21714,7 +21712,7 @@
         <v>10</v>
       </c>
       <c r="H801" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="802" spans="1:8" x14ac:dyDescent="0.4">
@@ -21896,7 +21894,7 @@
         <v>10</v>
       </c>
       <c r="H808" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="809" spans="1:8" x14ac:dyDescent="0.4">
@@ -21974,7 +21972,7 @@
         <v>10</v>
       </c>
       <c r="H811" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="812" spans="1:8" x14ac:dyDescent="0.4">
@@ -22000,7 +21998,7 @@
         <v>10</v>
       </c>
       <c r="H812" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="813" spans="1:8" x14ac:dyDescent="0.4">
@@ -22182,7 +22180,7 @@
         <v>10</v>
       </c>
       <c r="H819" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="820" spans="1:8" x14ac:dyDescent="0.4">
@@ -22364,7 +22362,7 @@
         <v>10</v>
       </c>
       <c r="H826" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="827" spans="1:8" x14ac:dyDescent="0.4">
@@ -22468,7 +22466,7 @@
         <v>10</v>
       </c>
       <c r="H830" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="831" spans="1:8" x14ac:dyDescent="0.4">
@@ -22494,7 +22492,7 @@
         <v>10</v>
       </c>
       <c r="H831" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="832" spans="1:8" x14ac:dyDescent="0.4">
@@ -22702,7 +22700,7 @@
         <v>10</v>
       </c>
       <c r="H839" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="840" spans="1:8" x14ac:dyDescent="0.4">
@@ -22754,7 +22752,7 @@
         <v>10</v>
       </c>
       <c r="H841" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="842" spans="1:8" x14ac:dyDescent="0.4">
@@ -22832,7 +22830,7 @@
         <v>10</v>
       </c>
       <c r="H844" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="845" spans="1:8" x14ac:dyDescent="0.4">
@@ -22858,7 +22856,7 @@
         <v>10</v>
       </c>
       <c r="H845" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="846" spans="1:8" x14ac:dyDescent="0.4">
@@ -22936,7 +22934,7 @@
         <v>10</v>
       </c>
       <c r="H848" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="849" spans="1:8" x14ac:dyDescent="0.4">
@@ -22988,7 +22986,7 @@
         <v>10</v>
       </c>
       <c r="H850" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="851" spans="1:8" x14ac:dyDescent="0.4">
@@ -23040,7 +23038,7 @@
         <v>10</v>
       </c>
       <c r="H852" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="853" spans="1:8" x14ac:dyDescent="0.4">
@@ -23118,7 +23116,7 @@
         <v>13</v>
       </c>
       <c r="H855" s="7" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="856" spans="1:8" x14ac:dyDescent="0.4">
@@ -23274,7 +23272,7 @@
         <v>10</v>
       </c>
       <c r="H861" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="862" spans="1:8" x14ac:dyDescent="0.4">
@@ -23300,7 +23298,7 @@
         <v>10</v>
       </c>
       <c r="H862" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="863" spans="1:8" x14ac:dyDescent="0.4">
@@ -23404,7 +23402,7 @@
         <v>10</v>
       </c>
       <c r="H866" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="867" spans="1:8" x14ac:dyDescent="0.4">
@@ -23430,7 +23428,7 @@
         <v>10</v>
       </c>
       <c r="H867" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="868" spans="1:8" x14ac:dyDescent="0.4">
@@ -23664,7 +23662,7 @@
         <v>13</v>
       </c>
       <c r="H876" s="7" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="877" spans="1:8" x14ac:dyDescent="0.4">
@@ -23976,7 +23974,7 @@
         <v>12</v>
       </c>
       <c r="H888" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="889" spans="1:8" x14ac:dyDescent="0.4">
@@ -24002,7 +24000,7 @@
         <v>13</v>
       </c>
       <c r="H889" s="7" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="890" spans="1:8" x14ac:dyDescent="0.4">
@@ -24054,7 +24052,7 @@
         <v>10</v>
       </c>
       <c r="H891" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="892" spans="1:8" x14ac:dyDescent="0.4">
@@ -24259,10 +24257,10 @@
         <v>43929</v>
       </c>
       <c r="G899" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H899" s="7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="900" spans="1:8" x14ac:dyDescent="0.4">
@@ -24340,7 +24338,7 @@
         <v>10</v>
       </c>
       <c r="H902" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="903" spans="1:8" x14ac:dyDescent="0.4">
@@ -24366,7 +24364,7 @@
         <v>10</v>
       </c>
       <c r="H903" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="904" spans="1:8" x14ac:dyDescent="0.4">
@@ -24470,7 +24468,7 @@
         <v>13</v>
       </c>
       <c r="H907" s="7" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="908" spans="1:8" x14ac:dyDescent="0.4">
@@ -24496,7 +24494,7 @@
         <v>10</v>
       </c>
       <c r="H908" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="909" spans="1:8" x14ac:dyDescent="0.4">
@@ -24548,7 +24546,7 @@
         <v>10</v>
       </c>
       <c r="H910" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="911" spans="1:8" x14ac:dyDescent="0.4">
@@ -24756,7 +24754,7 @@
         <v>10</v>
       </c>
       <c r="H918" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="919" spans="1:8" x14ac:dyDescent="0.4">
@@ -24808,7 +24806,7 @@
         <v>10</v>
       </c>
       <c r="H920" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="921" spans="1:8" x14ac:dyDescent="0.4">
@@ -25068,7 +25066,7 @@
         <v>10</v>
       </c>
       <c r="H930" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="931" spans="1:8" x14ac:dyDescent="0.4">
@@ -25120,7 +25118,7 @@
         <v>10</v>
       </c>
       <c r="H932" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="933" spans="1:8" x14ac:dyDescent="0.4">
@@ -25276,7 +25274,7 @@
         <v>10</v>
       </c>
       <c r="H938" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="939" spans="1:8" x14ac:dyDescent="0.4">
@@ -25614,7 +25612,7 @@
         <v>14</v>
       </c>
       <c r="H951" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="952" spans="1:8" x14ac:dyDescent="0.4">
@@ -25640,7 +25638,7 @@
         <v>10</v>
       </c>
       <c r="H952" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="953" spans="1:8" x14ac:dyDescent="0.4">
@@ -25666,7 +25664,7 @@
         <v>12</v>
       </c>
       <c r="H953" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="954" spans="1:8" x14ac:dyDescent="0.4">
@@ -25692,7 +25690,7 @@
         <v>10</v>
       </c>
       <c r="H954" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="955" spans="1:8" x14ac:dyDescent="0.4">
@@ -25744,7 +25742,7 @@
         <v>10</v>
       </c>
       <c r="H956" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="957" spans="1:8" x14ac:dyDescent="0.4">
@@ -26082,7 +26080,7 @@
         <v>10</v>
       </c>
       <c r="H969" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="970" spans="1:8" x14ac:dyDescent="0.4">
@@ -26108,7 +26106,7 @@
         <v>10</v>
       </c>
       <c r="H970" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="971" spans="1:8" x14ac:dyDescent="0.4">
@@ -26498,7 +26496,7 @@
         <v>10</v>
       </c>
       <c r="H985" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="986" spans="1:8" x14ac:dyDescent="0.4">
@@ -26680,7 +26678,7 @@
         <v>13</v>
       </c>
       <c r="H992" s="7" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="993" spans="1:8" x14ac:dyDescent="0.4">
@@ -26758,7 +26756,7 @@
         <v>10</v>
       </c>
       <c r="H995" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="996" spans="1:8" x14ac:dyDescent="0.4">
@@ -26966,7 +26964,7 @@
         <v>10</v>
       </c>
       <c r="H1003" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1004" spans="1:8" x14ac:dyDescent="0.4">
@@ -26992,7 +26990,7 @@
         <v>10</v>
       </c>
       <c r="H1004" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1005" spans="1:8" x14ac:dyDescent="0.4">
@@ -27018,7 +27016,7 @@
         <v>10</v>
       </c>
       <c r="H1005" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1006" spans="1:8" x14ac:dyDescent="0.4">
@@ -27304,7 +27302,7 @@
         <v>10</v>
       </c>
       <c r="H1016" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1017" spans="1:8" x14ac:dyDescent="0.4">
@@ -27512,7 +27510,7 @@
         <v>10</v>
       </c>
       <c r="H1024" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1025" spans="1:8" x14ac:dyDescent="0.4">
@@ -27616,7 +27614,7 @@
         <v>13</v>
       </c>
       <c r="H1028" s="7" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1029" spans="1:8" x14ac:dyDescent="0.4">
@@ -27876,7 +27874,7 @@
         <v>13</v>
       </c>
       <c r="H1038" s="7" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1039" spans="1:8" x14ac:dyDescent="0.4">
@@ -28344,7 +28342,7 @@
         <v>10</v>
       </c>
       <c r="H1056" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1057" spans="1:8" x14ac:dyDescent="0.4">
@@ -28474,7 +28472,7 @@
         <v>10</v>
       </c>
       <c r="H1061" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1062" spans="1:8" x14ac:dyDescent="0.4">
@@ -30164,7 +30162,7 @@
         <v>13</v>
       </c>
       <c r="H1126" s="7" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1127" spans="1:8" x14ac:dyDescent="0.4">
@@ -30580,7 +30578,7 @@
         <v>13</v>
       </c>
       <c r="H1142" s="7" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1143" spans="1:8" x14ac:dyDescent="0.4">
@@ -30684,7 +30682,7 @@
         <v>13</v>
       </c>
       <c r="H1146" s="7" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1147" spans="1:8" x14ac:dyDescent="0.4">
@@ -30788,7 +30786,7 @@
         <v>13</v>
       </c>
       <c r="H1150" s="7" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1151" spans="1:8" x14ac:dyDescent="0.4">
@@ -30892,7 +30890,7 @@
         <v>46</v>
       </c>
       <c r="H1154" s="7" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1155" spans="1:8" x14ac:dyDescent="0.4">
@@ -31334,7 +31332,7 @@
         <v>13</v>
       </c>
       <c r="H1171" s="7" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1172" spans="1:8" x14ac:dyDescent="0.4">
@@ -31490,7 +31488,7 @@
         <v>13</v>
       </c>
       <c r="H1177" s="7" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1178" spans="1:8" x14ac:dyDescent="0.4">
@@ -31527,7 +31525,7 @@
         <v>43940</v>
       </c>
       <c r="C1179" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D1179" t="s">
         <v>25</v>
@@ -31646,7 +31644,7 @@
         <v>10</v>
       </c>
       <c r="H1183" s="7" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1184" spans="1:8" x14ac:dyDescent="0.4">
@@ -31958,7 +31956,7 @@
         <v>46</v>
       </c>
       <c r="H1195" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1196" spans="1:8" x14ac:dyDescent="0.4">
@@ -32400,7 +32398,7 @@
         <v>13</v>
       </c>
       <c r="H1212" s="7" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1213" spans="1:8" x14ac:dyDescent="0.4">
@@ -32556,7 +32554,7 @@
         <v>13</v>
       </c>
       <c r="H1218" s="7" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1219" spans="1:8" x14ac:dyDescent="0.4">
@@ -33050,7 +33048,7 @@
         <v>46</v>
       </c>
       <c r="H1237" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1238" spans="1:8" x14ac:dyDescent="0.4">
@@ -34376,7 +34374,7 @@
         <v>13</v>
       </c>
       <c r="H1288" s="7" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1289" spans="1:8" x14ac:dyDescent="0.4">
@@ -34532,7 +34530,7 @@
         <v>10</v>
       </c>
       <c r="H1294" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1295" spans="1:8" x14ac:dyDescent="0.4">
@@ -34766,7 +34764,7 @@
         <v>13</v>
       </c>
       <c r="H1303" s="7" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1304" spans="1:8" x14ac:dyDescent="0.4">
@@ -34919,7 +34917,7 @@
         <v>43938</v>
       </c>
       <c r="G1309" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H1309" s="7" t="s">
         <v>4</v>
@@ -35329,7 +35327,7 @@
         <v>25</v>
       </c>
       <c r="E1325" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="F1325" s="1" t="s">
         <v>46</v>
@@ -35598,7 +35596,7 @@
         <v>10</v>
       </c>
       <c r="H1335" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1336" spans="1:8" x14ac:dyDescent="0.4">
@@ -35699,7 +35697,7 @@
         <v>43931</v>
       </c>
       <c r="G1339" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H1339" s="7" t="s">
         <v>4</v>
@@ -36222,7 +36220,7 @@
         <v>10</v>
       </c>
       <c r="H1359" s="7" t="s">
-        <v>73</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1360" spans="1:8" x14ac:dyDescent="0.4">
@@ -36274,7 +36272,7 @@
         <v>10</v>
       </c>
       <c r="H1361" s="7" t="s">
-        <v>73</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1362" spans="1:8" x14ac:dyDescent="0.4">
@@ -36950,7 +36948,7 @@
         <v>10</v>
       </c>
       <c r="H1387" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1388" spans="1:8" x14ac:dyDescent="0.4">
@@ -37678,7 +37676,7 @@
         <v>10</v>
       </c>
       <c r="H1415" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1416" spans="1:8" x14ac:dyDescent="0.4">
@@ -37756,7 +37754,7 @@
         <v>13</v>
       </c>
       <c r="H1418" s="7" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1419" spans="1:8" x14ac:dyDescent="0.4">
@@ -38094,7 +38092,7 @@
         <v>10</v>
       </c>
       <c r="H1431" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1432" spans="1:8" x14ac:dyDescent="0.4">
@@ -38692,7 +38690,7 @@
         <v>13</v>
       </c>
       <c r="H1454" s="7" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1455" spans="1:8" x14ac:dyDescent="0.4">
@@ -39446,7 +39444,7 @@
         <v>13</v>
       </c>
       <c r="H1483" s="7" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1484" spans="1:8" x14ac:dyDescent="0.4">
@@ -39576,7 +39574,7 @@
         <v>13</v>
       </c>
       <c r="H1488" s="7" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1489" spans="1:8" x14ac:dyDescent="0.4">
@@ -39651,7 +39649,7 @@
         <v>43939</v>
       </c>
       <c r="G1491" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H1491" s="7" t="s">
         <v>4</v>
@@ -39781,7 +39779,7 @@
         <v>43940</v>
       </c>
       <c r="G1496" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H1496" s="7" t="s">
         <v>4</v>
@@ -39992,7 +39990,7 @@
         <v>13</v>
       </c>
       <c r="H1504" s="7" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1505" spans="1:8" x14ac:dyDescent="0.4">
@@ -40200,7 +40198,7 @@
         <v>10</v>
       </c>
       <c r="H1512" s="7" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1513" spans="1:8" x14ac:dyDescent="0.4">
@@ -40278,7 +40276,7 @@
         <v>10</v>
       </c>
       <c r="H1515" s="7" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1516" spans="1:8" x14ac:dyDescent="0.4">
@@ -40642,7 +40640,7 @@
         <v>10</v>
       </c>
       <c r="H1529" s="7" t="s">
-        <v>91</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1530" spans="1:8" x14ac:dyDescent="0.4">
@@ -40850,7 +40848,7 @@
         <v>10</v>
       </c>
       <c r="H1537" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1538" spans="1:8" x14ac:dyDescent="0.4">
@@ -41185,10 +41183,10 @@
         <v>43944</v>
       </c>
       <c r="G1550" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H1550" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1551" spans="1:8" x14ac:dyDescent="0.4">
@@ -41214,7 +41212,7 @@
         <v>10</v>
       </c>
       <c r="H1551" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1552" spans="1:8" x14ac:dyDescent="0.4">
@@ -41240,7 +41238,7 @@
         <v>10</v>
       </c>
       <c r="H1552" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1553" spans="1:8" x14ac:dyDescent="0.4">
@@ -41266,7 +41264,7 @@
         <v>10</v>
       </c>
       <c r="H1553" s="7" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1554" spans="1:8" x14ac:dyDescent="0.4">
@@ -41292,7 +41290,7 @@
         <v>10</v>
       </c>
       <c r="H1554" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1555" spans="1:8" x14ac:dyDescent="0.4">
@@ -41474,7 +41472,7 @@
         <v>10</v>
       </c>
       <c r="H1561" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1562" spans="1:8" x14ac:dyDescent="0.4">
@@ -41500,7 +41498,7 @@
         <v>10</v>
       </c>
       <c r="H1562" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1563" spans="1:8" x14ac:dyDescent="0.4">
@@ -41526,7 +41524,7 @@
         <v>10</v>
       </c>
       <c r="H1563" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1564" spans="1:8" x14ac:dyDescent="0.4">
@@ -41552,7 +41550,7 @@
         <v>11</v>
       </c>
       <c r="H1564" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1565" spans="1:8" x14ac:dyDescent="0.4">
@@ -41604,7 +41602,7 @@
         <v>10</v>
       </c>
       <c r="H1566" s="7" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1567" spans="1:8" x14ac:dyDescent="0.4">
@@ -41630,7 +41628,7 @@
         <v>10</v>
       </c>
       <c r="H1567" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1568" spans="1:8" x14ac:dyDescent="0.4">
@@ -41682,7 +41680,7 @@
         <v>10</v>
       </c>
       <c r="H1569" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1570" spans="1:8" x14ac:dyDescent="0.4">
@@ -41708,7 +41706,7 @@
         <v>10</v>
       </c>
       <c r="H1570" s="7" t="s">
-        <v>91</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1571" spans="1:8" x14ac:dyDescent="0.4">
@@ -41812,7 +41810,7 @@
         <v>10</v>
       </c>
       <c r="H1574" s="7" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1575" spans="1:8" x14ac:dyDescent="0.4">
@@ -41994,7 +41992,7 @@
         <v>46</v>
       </c>
       <c r="H1581" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1582" spans="1:8" x14ac:dyDescent="0.4">
@@ -42072,7 +42070,7 @@
         <v>10</v>
       </c>
       <c r="H1584" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1585" spans="1:8" x14ac:dyDescent="0.4">
@@ -42098,7 +42096,7 @@
         <v>10</v>
       </c>
       <c r="H1585" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1586" spans="1:8" x14ac:dyDescent="0.4">
@@ -42228,7 +42226,7 @@
         <v>46</v>
       </c>
       <c r="H1590" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1591" spans="1:8" x14ac:dyDescent="0.4">
@@ -42306,7 +42304,7 @@
         <v>46</v>
       </c>
       <c r="H1593" s="7" t="s">
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1594" spans="1:8" x14ac:dyDescent="0.4">
@@ -42332,7 +42330,7 @@
         <v>46</v>
       </c>
       <c r="H1594" s="7" t="s">
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1595" spans="1:8" x14ac:dyDescent="0.4">
@@ -42384,7 +42382,7 @@
         <v>10</v>
       </c>
       <c r="H1596" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1597" spans="1:8" x14ac:dyDescent="0.4">
@@ -42488,7 +42486,7 @@
         <v>11</v>
       </c>
       <c r="H1600" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1601" spans="1:8" x14ac:dyDescent="0.4">
@@ -42696,7 +42694,7 @@
         <v>10</v>
       </c>
       <c r="H1608" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1609" spans="1:8" x14ac:dyDescent="0.4">
@@ -42722,7 +42720,7 @@
         <v>10</v>
       </c>
       <c r="H1609" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1610" spans="1:8" x14ac:dyDescent="0.4">
@@ -42748,7 +42746,7 @@
         <v>10</v>
       </c>
       <c r="H1610" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1611" spans="1:8" x14ac:dyDescent="0.4">
@@ -42800,7 +42798,7 @@
         <v>12</v>
       </c>
       <c r="H1612" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1613" spans="1:8" x14ac:dyDescent="0.4">
@@ -42826,7 +42824,7 @@
         <v>10</v>
       </c>
       <c r="H1613" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1614" spans="1:8" x14ac:dyDescent="0.4">
@@ -42904,7 +42902,7 @@
         <v>10</v>
       </c>
       <c r="H1616" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1617" spans="1:8" x14ac:dyDescent="0.4">
@@ -42930,7 +42928,7 @@
         <v>10</v>
       </c>
       <c r="H1617" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1618" spans="1:8" x14ac:dyDescent="0.4">
@@ -42956,7 +42954,7 @@
         <v>10</v>
       </c>
       <c r="H1618" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1619" spans="1:8" x14ac:dyDescent="0.4">
@@ -42982,7 +42980,7 @@
         <v>10</v>
       </c>
       <c r="H1619" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1620" spans="1:8" x14ac:dyDescent="0.4">
@@ -43008,7 +43006,7 @@
         <v>10</v>
       </c>
       <c r="H1620" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1621" spans="1:8" x14ac:dyDescent="0.4">
@@ -43034,7 +43032,7 @@
         <v>10</v>
       </c>
       <c r="H1621" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1622" spans="1:8" x14ac:dyDescent="0.4">
@@ -43112,7 +43110,7 @@
         <v>10</v>
       </c>
       <c r="H1624" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1625" spans="1:8" x14ac:dyDescent="0.4">
@@ -43138,7 +43136,7 @@
         <v>10</v>
       </c>
       <c r="H1625" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1626" spans="1:8" x14ac:dyDescent="0.4">
@@ -43164,7 +43162,7 @@
         <v>10</v>
       </c>
       <c r="H1626" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1627" spans="1:8" x14ac:dyDescent="0.4">
@@ -43190,11 +43188,375 @@
         <v>10</v>
       </c>
       <c r="H1627" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1628">
+        <v>1626</v>
+      </c>
+      <c r="B1628" s="2">
+        <v>43952</v>
+      </c>
+      <c r="C1628">
+        <v>80</v>
+      </c>
+      <c r="D1628" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1628" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1628" s="1">
+        <v>43943</v>
+      </c>
+      <c r="G1628" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1628" s="7" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="1629" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1629">
+        <v>1627</v>
+      </c>
+      <c r="B1629" s="2">
+        <v>43952</v>
+      </c>
+      <c r="C1629">
+        <v>30</v>
+      </c>
+      <c r="D1629" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1629" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1629" s="1">
+        <v>43944</v>
+      </c>
+      <c r="G1629" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1629" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1630">
+        <v>1628</v>
+      </c>
+      <c r="B1630" s="2">
+        <v>43952</v>
+      </c>
+      <c r="C1630">
+        <v>30</v>
+      </c>
+      <c r="D1630" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1630" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1630" s="1">
+        <v>43941</v>
+      </c>
+      <c r="G1630" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1630" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1631">
+        <v>1629</v>
+      </c>
+      <c r="B1631" s="2">
+        <v>43952</v>
+      </c>
+      <c r="C1631">
+        <v>70</v>
+      </c>
+      <c r="D1631" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1631" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1631" s="1">
+        <v>43946</v>
+      </c>
+      <c r="G1631" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1631" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1632">
+        <v>1630</v>
+      </c>
+      <c r="B1632" s="2">
+        <v>43952</v>
+      </c>
+      <c r="C1632">
+        <v>40</v>
+      </c>
+      <c r="D1632" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1632" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1632" s="1">
+        <v>43946</v>
+      </c>
+      <c r="G1632" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1632" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1633">
+        <v>1631</v>
+      </c>
+      <c r="B1633" s="2">
+        <v>43952</v>
+      </c>
+      <c r="C1633">
+        <v>70</v>
+      </c>
+      <c r="D1633" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1633" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1633" s="1">
+        <v>43924</v>
+      </c>
+      <c r="G1633" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1633" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1634">
+        <v>1632</v>
+      </c>
+      <c r="B1634" s="2">
+        <v>43952</v>
+      </c>
+      <c r="C1634">
+        <v>40</v>
+      </c>
+      <c r="D1634" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1634" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1634" s="1">
+        <v>43924</v>
+      </c>
+      <c r="G1634" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1634" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1635">
+        <v>1633</v>
+      </c>
+      <c r="B1635" s="2">
+        <v>43952</v>
+      </c>
+      <c r="C1635">
+        <v>30</v>
+      </c>
+      <c r="D1635" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1635" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1635" s="1">
+        <v>43950</v>
+      </c>
+      <c r="G1635" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1635" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1636">
+        <v>1634</v>
+      </c>
+      <c r="B1636" s="2">
+        <v>43952</v>
+      </c>
+      <c r="C1636">
+        <v>80</v>
+      </c>
+      <c r="D1636" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1636" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1636" s="1">
+        <v>43951</v>
+      </c>
+      <c r="G1636" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1636" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1637">
+        <v>1635</v>
+      </c>
+      <c r="B1637" s="2">
+        <v>43952</v>
+      </c>
+      <c r="C1637">
+        <v>60</v>
+      </c>
+      <c r="D1637" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1637" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1637" s="1">
+        <v>43939</v>
+      </c>
+      <c r="G1637" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1637" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1638">
+        <v>1636</v>
+      </c>
+      <c r="B1638" s="2">
+        <v>43952</v>
+      </c>
+      <c r="C1638">
+        <v>50</v>
+      </c>
+      <c r="D1638" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1638" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1638" s="1">
+        <v>43947</v>
+      </c>
+      <c r="G1638" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1638" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1639">
+        <v>1637</v>
+      </c>
+      <c r="B1639" s="2">
+        <v>43952</v>
+      </c>
+      <c r="C1639">
+        <v>40</v>
+      </c>
+      <c r="D1639" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1639" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1639" s="1">
+        <v>43951</v>
+      </c>
+      <c r="G1639" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1639" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1640">
+        <v>1638</v>
+      </c>
+      <c r="B1640" s="2">
+        <v>43952</v>
+      </c>
+      <c r="C1640" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1640" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1640" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1640" s="1">
+        <v>43942</v>
+      </c>
+      <c r="G1640" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1640" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1641">
+        <v>1639</v>
+      </c>
+      <c r="B1641" s="2">
+        <v>43952</v>
+      </c>
+      <c r="C1641">
+        <v>60</v>
+      </c>
+      <c r="D1641" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1641" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1641" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1641" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1641" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:H1627"/>
+  <autoFilter ref="A2:H1641" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -43202,8 +43564,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K99"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -43214,7 +43576,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="3">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="B1" t="s">
         <v>60</v>
@@ -46614,26 +46976,61 @@
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A99" s="4" t="s">
-        <v>84</v>
+      <c r="A99" s="2">
+        <v>43952</v>
       </c>
       <c r="B99">
-        <v>16049</v>
+        <v>521</v>
       </c>
       <c r="C99">
-        <v>1625</v>
+        <v>14</v>
+      </c>
+      <c r="D99">
+        <v>1639</v>
+      </c>
+      <c r="E99">
+        <v>923</v>
       </c>
       <c r="F99">
-        <v>640</v>
+        <v>33</v>
+      </c>
+      <c r="G99">
+        <v>673</v>
       </c>
       <c r="H99">
-        <v>640</v>
+        <v>33</v>
+      </c>
+      <c r="I99">
+        <v>673</v>
       </c>
       <c r="J99">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="K99">
-        <v>854</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A100" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B100">
+        <v>16570</v>
+      </c>
+      <c r="C100">
+        <v>1639</v>
+      </c>
+      <c r="F100">
+        <v>673</v>
+      </c>
+      <c r="H100">
+        <v>673</v>
+      </c>
+      <c r="J100">
+        <v>43</v>
+      </c>
+      <c r="K100">
+        <v>862</v>
       </c>
     </row>
   </sheetData>

--- a/data/patients_and_inspections.xlsx
+++ b/data/patients_and_inspections.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hasse\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B8121EE-87A2-4D3D-A759-F7F630E4057E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{02D651C4-2D16-46E2-B178-79556F5E5B8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="【公開OK】コロナサイト用（日付ベース）" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'【公開OK】府HP用(陽性者ベース)'!$A$2:$H$1641</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'【公開OK】府HP用(陽性者ベース)'!$A$2:$H$1658</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6942" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7012" uniqueCount="95">
   <si>
     <t>（1）入退院の状況</t>
   </si>
@@ -344,14 +344,21 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>死亡退院退院</t>
-  </si>
-  <si>
     <t>計</t>
     <rPh sb="0" eb="1">
       <t>ケイ</t>
     </rPh>
     <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>死亡退院</t>
+    <rPh sb="0" eb="2">
+      <t>シボウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -743,7 +750,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -765,7 +774,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>673</v>
+        <v>716</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -773,7 +782,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>450</v>
+        <v>432</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
@@ -781,7 +790,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
@@ -789,7 +798,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
@@ -797,7 +806,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1639</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
@@ -818,7 +827,7 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <v>822</v>
+        <v>784</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
@@ -826,7 +835,7 @@
         <v>11</v>
       </c>
       <c r="B14">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
@@ -842,7 +851,7 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
@@ -850,7 +859,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>673</v>
+        <v>716</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
@@ -866,7 +875,7 @@
         <v>84</v>
       </c>
       <c r="B20">
-        <v>212</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
@@ -874,7 +883,7 @@
         <v>85</v>
       </c>
       <c r="B21">
-        <v>195</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
@@ -882,7 +891,7 @@
         <v>86</v>
       </c>
       <c r="B22">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -894,10 +903,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H1641"/>
+  <dimension ref="A1:H1658"/>
   <sheetViews>
-    <sheetView topLeftCell="A1634" workbookViewId="0">
-      <selection activeCell="A1631" sqref="A1631"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1658" sqref="F1658"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -909,7 +918,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="3">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="B1" t="s">
         <v>60</v>
@@ -1380,7 +1389,7 @@
         <v>13</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
@@ -1796,7 +1805,7 @@
         <v>14</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.4">
@@ -2420,7 +2429,7 @@
         <v>13</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.4">
@@ -2654,7 +2663,7 @@
         <v>13</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.4">
@@ -3382,7 +3391,7 @@
         <v>13</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.4">
@@ -3483,10 +3492,10 @@
         <v>43896</v>
       </c>
       <c r="G100" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>4</v>
+        <v>94</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.4">
@@ -4448,7 +4457,7 @@
         <v>11</v>
       </c>
       <c r="H137" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.4">
@@ -4708,7 +4717,7 @@
         <v>10</v>
       </c>
       <c r="H147" s="7" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.4">
@@ -5306,7 +5315,7 @@
         <v>13</v>
       </c>
       <c r="H170" s="7" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.4">
@@ -6814,7 +6823,7 @@
         <v>10</v>
       </c>
       <c r="H228" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.4">
@@ -8764,7 +8773,7 @@
         <v>13</v>
       </c>
       <c r="H303" s="7" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.4">
@@ -8790,7 +8799,7 @@
         <v>13</v>
       </c>
       <c r="H304" s="7" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.4">
@@ -9804,7 +9813,7 @@
         <v>10</v>
       </c>
       <c r="H343" s="7" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.4">
@@ -10376,7 +10385,7 @@
         <v>13</v>
       </c>
       <c r="H365" s="7" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.4">
@@ -10610,7 +10619,7 @@
         <v>10</v>
       </c>
       <c r="H374" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.4">
@@ -11312,7 +11321,7 @@
         <v>13</v>
       </c>
       <c r="H401" s="7" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.4">
@@ -12638,7 +12647,7 @@
         <v>10</v>
       </c>
       <c r="H452" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="453" spans="1:8" x14ac:dyDescent="0.4">
@@ -12794,7 +12803,7 @@
         <v>10</v>
       </c>
       <c r="H458" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.4">
@@ -13288,7 +13297,7 @@
         <v>13</v>
       </c>
       <c r="H477" s="7" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="478" spans="1:8" x14ac:dyDescent="0.4">
@@ -13704,7 +13713,7 @@
         <v>10</v>
       </c>
       <c r="H493" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="494" spans="1:8" x14ac:dyDescent="0.4">
@@ -14224,7 +14233,7 @@
         <v>10</v>
       </c>
       <c r="H513" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="514" spans="1:8" x14ac:dyDescent="0.4">
@@ -14354,7 +14363,7 @@
         <v>10</v>
       </c>
       <c r="H518" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="519" spans="1:8" x14ac:dyDescent="0.4">
@@ -15342,7 +15351,7 @@
         <v>13</v>
       </c>
       <c r="H556" s="7" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="557" spans="1:8" x14ac:dyDescent="0.4">
@@ -15862,7 +15871,7 @@
         <v>13</v>
       </c>
       <c r="H576" s="7" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="577" spans="1:8" x14ac:dyDescent="0.4">
@@ -15914,7 +15923,7 @@
         <v>10</v>
       </c>
       <c r="H578" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="579" spans="1:8" x14ac:dyDescent="0.4">
@@ -16122,7 +16131,7 @@
         <v>13</v>
       </c>
       <c r="H586" s="7" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="587" spans="1:8" x14ac:dyDescent="0.4">
@@ -16174,7 +16183,7 @@
         <v>10</v>
       </c>
       <c r="H588" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="589" spans="1:8" x14ac:dyDescent="0.4">
@@ -16226,7 +16235,7 @@
         <v>12</v>
       </c>
       <c r="H590" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="591" spans="1:8" x14ac:dyDescent="0.4">
@@ -17188,7 +17197,7 @@
         <v>13</v>
       </c>
       <c r="H627" s="7" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="628" spans="1:8" x14ac:dyDescent="0.4">
@@ -17656,7 +17665,7 @@
         <v>13</v>
       </c>
       <c r="H645" s="7" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="646" spans="1:8" x14ac:dyDescent="0.4">
@@ -17838,7 +17847,7 @@
         <v>10</v>
       </c>
       <c r="H652" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="653" spans="1:8" x14ac:dyDescent="0.4">
@@ -17942,7 +17951,7 @@
         <v>13</v>
       </c>
       <c r="H656" s="7" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="657" spans="1:8" x14ac:dyDescent="0.4">
@@ -18670,7 +18679,7 @@
         <v>10</v>
       </c>
       <c r="H684" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="685" spans="1:8" x14ac:dyDescent="0.4">
@@ -19268,7 +19277,7 @@
         <v>13</v>
       </c>
       <c r="H707" s="7" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="708" spans="1:8" x14ac:dyDescent="0.4">
@@ -19658,7 +19667,7 @@
         <v>10</v>
       </c>
       <c r="H722" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="723" spans="1:8" x14ac:dyDescent="0.4">
@@ -19996,7 +20005,7 @@
         <v>10</v>
       </c>
       <c r="H735" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="736" spans="1:8" x14ac:dyDescent="0.4">
@@ -20178,7 +20187,7 @@
         <v>10</v>
       </c>
       <c r="H742" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="743" spans="1:8" x14ac:dyDescent="0.4">
@@ -20360,7 +20369,7 @@
         <v>13</v>
       </c>
       <c r="H749" s="7" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="750" spans="1:8" x14ac:dyDescent="0.4">
@@ -20412,7 +20421,7 @@
         <v>10</v>
       </c>
       <c r="H751" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="752" spans="1:8" x14ac:dyDescent="0.4">
@@ -20464,7 +20473,7 @@
         <v>13</v>
       </c>
       <c r="H753" s="7" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="754" spans="1:8" x14ac:dyDescent="0.4">
@@ -21088,7 +21097,7 @@
         <v>10</v>
       </c>
       <c r="H777" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="778" spans="1:8" x14ac:dyDescent="0.4">
@@ -22414,7 +22423,7 @@
         <v>10</v>
       </c>
       <c r="H828" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="829" spans="1:8" x14ac:dyDescent="0.4">
@@ -23116,7 +23125,7 @@
         <v>13</v>
       </c>
       <c r="H855" s="7" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="856" spans="1:8" x14ac:dyDescent="0.4">
@@ -23220,7 +23229,7 @@
         <v>10</v>
       </c>
       <c r="H859" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="860" spans="1:8" x14ac:dyDescent="0.4">
@@ -23246,7 +23255,7 @@
         <v>10</v>
       </c>
       <c r="H860" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="861" spans="1:8" x14ac:dyDescent="0.4">
@@ -23662,7 +23671,7 @@
         <v>13</v>
       </c>
       <c r="H876" s="7" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="877" spans="1:8" x14ac:dyDescent="0.4">
@@ -23714,7 +23723,7 @@
         <v>10</v>
       </c>
       <c r="H878" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="879" spans="1:8" x14ac:dyDescent="0.4">
@@ -23766,7 +23775,7 @@
         <v>10</v>
       </c>
       <c r="H880" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="881" spans="1:8" x14ac:dyDescent="0.4">
@@ -23792,7 +23801,7 @@
         <v>10</v>
       </c>
       <c r="H881" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="882" spans="1:8" x14ac:dyDescent="0.4">
@@ -23896,7 +23905,7 @@
         <v>10</v>
       </c>
       <c r="H885" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="886" spans="1:8" x14ac:dyDescent="0.4">
@@ -23922,7 +23931,7 @@
         <v>10</v>
       </c>
       <c r="H886" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="887" spans="1:8" x14ac:dyDescent="0.4">
@@ -24000,7 +24009,7 @@
         <v>13</v>
       </c>
       <c r="H889" s="7" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="890" spans="1:8" x14ac:dyDescent="0.4">
@@ -24260,7 +24269,7 @@
         <v>13</v>
       </c>
       <c r="H899" s="7" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="900" spans="1:8" x14ac:dyDescent="0.4">
@@ -24286,7 +24295,7 @@
         <v>10</v>
       </c>
       <c r="H900" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="901" spans="1:8" x14ac:dyDescent="0.4">
@@ -24442,7 +24451,7 @@
         <v>10</v>
       </c>
       <c r="H906" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="907" spans="1:8" x14ac:dyDescent="0.4">
@@ -24468,7 +24477,7 @@
         <v>13</v>
       </c>
       <c r="H907" s="7" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="908" spans="1:8" x14ac:dyDescent="0.4">
@@ -24650,7 +24659,7 @@
         <v>10</v>
       </c>
       <c r="H914" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="915" spans="1:8" x14ac:dyDescent="0.4">
@@ -24676,7 +24685,7 @@
         <v>10</v>
       </c>
       <c r="H915" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="916" spans="1:8" x14ac:dyDescent="0.4">
@@ -24988,7 +24997,7 @@
         <v>10</v>
       </c>
       <c r="H927" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="928" spans="1:8" x14ac:dyDescent="0.4">
@@ -25092,7 +25101,7 @@
         <v>10</v>
       </c>
       <c r="H931" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="932" spans="1:8" x14ac:dyDescent="0.4">
@@ -25167,7 +25176,7 @@
         <v>43927</v>
       </c>
       <c r="G934" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H934" s="7" t="s">
         <v>4</v>
@@ -25872,7 +25881,7 @@
         <v>10</v>
       </c>
       <c r="H961" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="962" spans="1:8" x14ac:dyDescent="0.4">
@@ -25924,7 +25933,7 @@
         <v>10</v>
       </c>
       <c r="H963" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="964" spans="1:8" x14ac:dyDescent="0.4">
@@ -26340,7 +26349,7 @@
         <v>10</v>
       </c>
       <c r="H979" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="980" spans="1:8" x14ac:dyDescent="0.4">
@@ -26574,7 +26583,7 @@
         <v>10</v>
       </c>
       <c r="H988" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="989" spans="1:8" x14ac:dyDescent="0.4">
@@ -26678,7 +26687,7 @@
         <v>13</v>
       </c>
       <c r="H992" s="7" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="993" spans="1:8" x14ac:dyDescent="0.4">
@@ -26704,7 +26713,7 @@
         <v>10</v>
       </c>
       <c r="H993" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="994" spans="1:8" x14ac:dyDescent="0.4">
@@ -27614,7 +27623,7 @@
         <v>13</v>
       </c>
       <c r="H1028" s="7" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="1029" spans="1:8" x14ac:dyDescent="0.4">
@@ -27874,7 +27883,7 @@
         <v>13</v>
       </c>
       <c r="H1038" s="7" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="1039" spans="1:8" x14ac:dyDescent="0.4">
@@ -28654,7 +28663,7 @@
         <v>10</v>
       </c>
       <c r="H1068" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1069" spans="1:8" x14ac:dyDescent="0.4">
@@ -28914,7 +28923,7 @@
         <v>10</v>
       </c>
       <c r="H1078" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1079" spans="1:8" x14ac:dyDescent="0.4">
@@ -29122,7 +29131,7 @@
         <v>10</v>
       </c>
       <c r="H1086" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1087" spans="1:8" x14ac:dyDescent="0.4">
@@ -30162,7 +30171,7 @@
         <v>13</v>
       </c>
       <c r="H1126" s="7" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="1127" spans="1:8" x14ac:dyDescent="0.4">
@@ -30578,7 +30587,7 @@
         <v>13</v>
       </c>
       <c r="H1142" s="7" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="1143" spans="1:8" x14ac:dyDescent="0.4">
@@ -30682,7 +30691,7 @@
         <v>13</v>
       </c>
       <c r="H1146" s="7" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="1147" spans="1:8" x14ac:dyDescent="0.4">
@@ -30786,7 +30795,7 @@
         <v>13</v>
       </c>
       <c r="H1150" s="7" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="1151" spans="1:8" x14ac:dyDescent="0.4">
@@ -31332,7 +31341,7 @@
         <v>13</v>
       </c>
       <c r="H1171" s="7" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="1172" spans="1:8" x14ac:dyDescent="0.4">
@@ -31488,7 +31497,7 @@
         <v>13</v>
       </c>
       <c r="H1177" s="7" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="1178" spans="1:8" x14ac:dyDescent="0.4">
@@ -31956,7 +31965,7 @@
         <v>46</v>
       </c>
       <c r="H1195" s="7" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1196" spans="1:8" x14ac:dyDescent="0.4">
@@ -32398,7 +32407,7 @@
         <v>13</v>
       </c>
       <c r="H1212" s="7" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="1213" spans="1:8" x14ac:dyDescent="0.4">
@@ -32554,7 +32563,7 @@
         <v>13</v>
       </c>
       <c r="H1218" s="7" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="1219" spans="1:8" x14ac:dyDescent="0.4">
@@ -34374,7 +34383,7 @@
         <v>13</v>
       </c>
       <c r="H1288" s="7" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="1289" spans="1:8" x14ac:dyDescent="0.4">
@@ -34631,7 +34640,7 @@
         <v>43932</v>
       </c>
       <c r="G1298" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1298" s="7" t="s">
         <v>4</v>
@@ -34764,7 +34773,7 @@
         <v>13</v>
       </c>
       <c r="H1303" s="7" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="1304" spans="1:8" x14ac:dyDescent="0.4">
@@ -37208,7 +37217,7 @@
         <v>10</v>
       </c>
       <c r="H1397" s="7" t="s">
-        <v>73</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1398" spans="1:8" x14ac:dyDescent="0.4">
@@ -37312,7 +37321,7 @@
         <v>10</v>
       </c>
       <c r="H1401" s="7" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1402" spans="1:8" x14ac:dyDescent="0.4">
@@ -37442,7 +37451,7 @@
         <v>10</v>
       </c>
       <c r="H1406" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1407" spans="1:8" x14ac:dyDescent="0.4">
@@ -37754,7 +37763,7 @@
         <v>13</v>
       </c>
       <c r="H1418" s="7" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="1419" spans="1:8" x14ac:dyDescent="0.4">
@@ -37780,7 +37789,7 @@
         <v>10</v>
       </c>
       <c r="H1419" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1420" spans="1:8" x14ac:dyDescent="0.4">
@@ -38609,10 +38618,10 @@
         <v>43939</v>
       </c>
       <c r="G1451" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H1451" s="7" t="s">
-        <v>4</v>
+        <v>94</v>
       </c>
     </row>
     <row r="1452" spans="1:8" x14ac:dyDescent="0.4">
@@ -38690,7 +38699,7 @@
         <v>13</v>
       </c>
       <c r="H1454" s="7" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="1455" spans="1:8" x14ac:dyDescent="0.4">
@@ -39444,7 +39453,7 @@
         <v>13</v>
       </c>
       <c r="H1483" s="7" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="1484" spans="1:8" x14ac:dyDescent="0.4">
@@ -39522,7 +39531,7 @@
         <v>10</v>
       </c>
       <c r="H1486" s="7" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1487" spans="1:8" x14ac:dyDescent="0.4">
@@ -39574,7 +39583,7 @@
         <v>13</v>
       </c>
       <c r="H1488" s="7" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="1489" spans="1:8" x14ac:dyDescent="0.4">
@@ -39990,7 +39999,7 @@
         <v>13</v>
       </c>
       <c r="H1504" s="7" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
     </row>
     <row r="1505" spans="1:8" x14ac:dyDescent="0.4">
@@ -40068,7 +40077,7 @@
         <v>10</v>
       </c>
       <c r="H1507" s="7" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1508" spans="1:8" x14ac:dyDescent="0.4">
@@ -41212,7 +41221,7 @@
         <v>10</v>
       </c>
       <c r="H1551" s="7" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1552" spans="1:8" x14ac:dyDescent="0.4">
@@ -41238,7 +41247,7 @@
         <v>10</v>
       </c>
       <c r="H1552" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1553" spans="1:8" x14ac:dyDescent="0.4">
@@ -41524,7 +41533,7 @@
         <v>10</v>
       </c>
       <c r="H1563" s="7" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1564" spans="1:8" x14ac:dyDescent="0.4">
@@ -41628,7 +41637,7 @@
         <v>10</v>
       </c>
       <c r="H1567" s="7" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1568" spans="1:8" x14ac:dyDescent="0.4">
@@ -41758,7 +41767,7 @@
         <v>13</v>
       </c>
       <c r="H1572" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="1573" spans="1:8" x14ac:dyDescent="0.4">
@@ -41992,7 +42001,7 @@
         <v>46</v>
       </c>
       <c r="H1581" s="7" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1582" spans="1:8" x14ac:dyDescent="0.4">
@@ -42148,7 +42157,7 @@
         <v>10</v>
       </c>
       <c r="H1587" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1588" spans="1:8" x14ac:dyDescent="0.4">
@@ -42200,7 +42209,7 @@
         <v>46</v>
       </c>
       <c r="H1589" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1590" spans="1:8" x14ac:dyDescent="0.4">
@@ -42252,7 +42261,7 @@
         <v>46</v>
       </c>
       <c r="H1591" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1592" spans="1:8" x14ac:dyDescent="0.4">
@@ -42408,7 +42417,7 @@
         <v>10</v>
       </c>
       <c r="H1597" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1598" spans="1:8" x14ac:dyDescent="0.4">
@@ -42564,7 +42573,7 @@
         <v>12</v>
       </c>
       <c r="H1603" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1604" spans="1:8" x14ac:dyDescent="0.4">
@@ -42590,7 +42599,7 @@
         <v>12</v>
       </c>
       <c r="H1604" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1605" spans="1:8" x14ac:dyDescent="0.4">
@@ -42769,10 +42778,10 @@
         <v>43950</v>
       </c>
       <c r="G1611" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H1611" s="7" t="s">
-        <v>4</v>
+        <v>94</v>
       </c>
     </row>
     <row r="1612" spans="1:8" x14ac:dyDescent="0.4">
@@ -42798,7 +42807,7 @@
         <v>12</v>
       </c>
       <c r="H1612" s="7" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1613" spans="1:8" x14ac:dyDescent="0.4">
@@ -43136,7 +43145,7 @@
         <v>10</v>
       </c>
       <c r="H1625" s="7" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1626" spans="1:8" x14ac:dyDescent="0.4">
@@ -43240,7 +43249,7 @@
         <v>10</v>
       </c>
       <c r="H1629" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1630" spans="1:8" x14ac:dyDescent="0.4">
@@ -43266,7 +43275,7 @@
         <v>10</v>
       </c>
       <c r="H1630" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1631" spans="1:8" x14ac:dyDescent="0.4">
@@ -43318,7 +43327,7 @@
         <v>10</v>
       </c>
       <c r="H1632" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1633" spans="1:8" x14ac:dyDescent="0.4">
@@ -43474,7 +43483,7 @@
         <v>10</v>
       </c>
       <c r="H1638" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1639" spans="1:8" x14ac:dyDescent="0.4">
@@ -43526,7 +43535,7 @@
         <v>10</v>
       </c>
       <c r="H1640" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1641" spans="1:8" x14ac:dyDescent="0.4">
@@ -43555,8 +43564,450 @@
         <v>5</v>
       </c>
     </row>
+    <row r="1642" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1642">
+        <v>1640</v>
+      </c>
+      <c r="B1642" s="2">
+        <v>43953</v>
+      </c>
+      <c r="C1642">
+        <v>60</v>
+      </c>
+      <c r="D1642" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1642" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1642" s="1">
+        <v>43950</v>
+      </c>
+      <c r="G1642" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1642" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1643">
+        <v>1641</v>
+      </c>
+      <c r="B1643" s="2">
+        <v>43953</v>
+      </c>
+      <c r="C1643">
+        <v>40</v>
+      </c>
+      <c r="D1643" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1643" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1643" s="1">
+        <v>43947</v>
+      </c>
+      <c r="G1643" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1643" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1644">
+        <v>1642</v>
+      </c>
+      <c r="B1644" s="2">
+        <v>43953</v>
+      </c>
+      <c r="C1644">
+        <v>10</v>
+      </c>
+      <c r="D1644" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1644" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1644" s="1">
+        <v>43949</v>
+      </c>
+      <c r="G1644" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1644" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1645">
+        <v>1643</v>
+      </c>
+      <c r="B1645" s="2">
+        <v>43953</v>
+      </c>
+      <c r="C1645">
+        <v>60</v>
+      </c>
+      <c r="D1645" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1645" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1645" s="1">
+        <v>43943</v>
+      </c>
+      <c r="G1645" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1645" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1646">
+        <v>1644</v>
+      </c>
+      <c r="B1646" s="2">
+        <v>43953</v>
+      </c>
+      <c r="C1646">
+        <v>20</v>
+      </c>
+      <c r="D1646" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1646" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1646" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1646" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1646" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1647">
+        <v>1645</v>
+      </c>
+      <c r="B1647" s="2">
+        <v>43953</v>
+      </c>
+      <c r="C1647">
+        <v>60</v>
+      </c>
+      <c r="D1647" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1647" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1647" s="1">
+        <v>43931</v>
+      </c>
+      <c r="G1647" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1647" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1648">
+        <v>1646</v>
+      </c>
+      <c r="B1648" s="2">
+        <v>43953</v>
+      </c>
+      <c r="C1648">
+        <v>40</v>
+      </c>
+      <c r="D1648" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1648" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1648" s="1">
+        <v>43946</v>
+      </c>
+      <c r="G1648" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1648" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1649">
+        <v>1647</v>
+      </c>
+      <c r="B1649" s="2">
+        <v>43953</v>
+      </c>
+      <c r="C1649" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1649" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1649" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1649" s="1">
+        <v>43947</v>
+      </c>
+      <c r="G1649" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1649" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1650">
+        <v>1648</v>
+      </c>
+      <c r="B1650" s="2">
+        <v>43953</v>
+      </c>
+      <c r="C1650">
+        <v>40</v>
+      </c>
+      <c r="D1650" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1650" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1650" s="1">
+        <v>43929</v>
+      </c>
+      <c r="G1650" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1650" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1651">
+        <v>1649</v>
+      </c>
+      <c r="B1651" s="2">
+        <v>43953</v>
+      </c>
+      <c r="C1651">
+        <v>40</v>
+      </c>
+      <c r="D1651" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1651" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1651" s="1">
+        <v>43944</v>
+      </c>
+      <c r="G1651" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1651" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1652">
+        <v>1650</v>
+      </c>
+      <c r="B1652" s="2">
+        <v>43953</v>
+      </c>
+      <c r="C1652">
+        <v>60</v>
+      </c>
+      <c r="D1652" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1652" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1652" s="1">
+        <v>43938</v>
+      </c>
+      <c r="G1652" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1652" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1653">
+        <v>1651</v>
+      </c>
+      <c r="B1653" s="2">
+        <v>43953</v>
+      </c>
+      <c r="C1653">
+        <v>50</v>
+      </c>
+      <c r="D1653" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1653" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1653" s="1">
+        <v>43946</v>
+      </c>
+      <c r="G1653" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1653" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1654">
+        <v>1652</v>
+      </c>
+      <c r="B1654" s="2">
+        <v>43953</v>
+      </c>
+      <c r="C1654">
+        <v>20</v>
+      </c>
+      <c r="D1654" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1654" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1654" s="1">
+        <v>43948</v>
+      </c>
+      <c r="G1654" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1654" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1655">
+        <v>1653</v>
+      </c>
+      <c r="B1655" s="2">
+        <v>43953</v>
+      </c>
+      <c r="C1655">
+        <v>20</v>
+      </c>
+      <c r="D1655" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1655" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1655" s="1">
+        <v>43941</v>
+      </c>
+      <c r="G1655" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1655" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1656">
+        <v>1654</v>
+      </c>
+      <c r="B1656" s="2">
+        <v>43953</v>
+      </c>
+      <c r="C1656">
+        <v>10</v>
+      </c>
+      <c r="D1656" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1656" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1656" s="1">
+        <v>43947</v>
+      </c>
+      <c r="G1656" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1656" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1657">
+        <v>1655</v>
+      </c>
+      <c r="B1657" s="2">
+        <v>43953</v>
+      </c>
+      <c r="C1657">
+        <v>60</v>
+      </c>
+      <c r="D1657" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1657" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1657" s="1">
+        <v>43944</v>
+      </c>
+      <c r="G1657" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1657" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1658">
+        <v>1656</v>
+      </c>
+      <c r="B1658" s="2">
+        <v>43953</v>
+      </c>
+      <c r="C1658">
+        <v>50</v>
+      </c>
+      <c r="D1658" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1658" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1658" s="1">
+        <v>43937</v>
+      </c>
+      <c r="G1658" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1658" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:H1641" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A2:H1658" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -43565,7 +44016,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K100"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -43576,7 +44027,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="3">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="B1" t="s">
         <v>60</v>
@@ -47011,26 +47462,61 @@
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A100" s="4" t="s">
-        <v>94</v>
+      <c r="A100" s="2">
+        <v>43953</v>
       </c>
       <c r="B100">
-        <v>16570</v>
+        <v>663</v>
       </c>
       <c r="C100">
-        <v>1639</v>
+        <v>17</v>
+      </c>
+      <c r="D100">
+        <v>1656</v>
+      </c>
+      <c r="E100">
+        <v>894</v>
       </c>
       <c r="F100">
-        <v>673</v>
+        <v>43</v>
+      </c>
+      <c r="G100">
+        <v>716</v>
       </c>
       <c r="H100">
-        <v>673</v>
+        <v>43</v>
+      </c>
+      <c r="I100">
+        <v>716</v>
       </c>
       <c r="J100">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="K100">
-        <v>862</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A101" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B101">
+        <v>17233</v>
+      </c>
+      <c r="C101">
+        <v>1656</v>
+      </c>
+      <c r="F101">
+        <v>716</v>
+      </c>
+      <c r="H101">
+        <v>716</v>
+      </c>
+      <c r="J101">
+        <v>46</v>
+      </c>
+      <c r="K101">
+        <v>867</v>
       </c>
     </row>
   </sheetData>

--- a/data/patients_and_inspections.xlsx
+++ b/data/patients_and_inspections.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hasse\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.19.161.23\kansen_fol\03防疫L（移行済）\06　中国武漢市肺炎（新型コロナウイルス）\検査の状況(HP更新)\陽性者入院状況\コロナサイト\0504（0503のデータ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02D651C4-2D16-46E2-B178-79556F5E5B8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2010" yWindow="465" windowWidth="33000" windowHeight="19155"/>
   </bookViews>
   <sheets>
     <sheet name="【公開OK】ピポット集計" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="【公開OK】コロナサイト用（日付ベース）" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'【公開OK】府HP用(陽性者ベース)'!$A$2:$H$1658</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'【公開OK】府HP用(陽性者ベース)'!$A$2:$H$1668</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7012" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7052" uniqueCount="95">
   <si>
     <t>（1）入退院の状況</t>
   </si>
@@ -351,20 +350,13 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>死亡退院</t>
-    <rPh sb="0" eb="2">
-      <t>シボウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>タイイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+    <t>確認中</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
@@ -470,7 +462,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -747,7 +739,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -774,7 +766,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>716</v>
+        <v>744</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -782,7 +774,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
@@ -790,7 +782,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
@@ -798,7 +790,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
@@ -806,7 +798,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1656</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
@@ -827,7 +819,7 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <v>784</v>
+        <v>771</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
@@ -835,7 +827,7 @@
         <v>11</v>
       </c>
       <c r="B14">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
@@ -851,7 +843,7 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
@@ -859,7 +851,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>716</v>
+        <v>744</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
@@ -867,7 +859,7 @@
         <v>7</v>
       </c>
       <c r="B18">
-        <v>1639</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
@@ -875,7 +867,7 @@
         <v>84</v>
       </c>
       <c r="B20">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
@@ -883,7 +875,7 @@
         <v>85</v>
       </c>
       <c r="B21">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
@@ -891,7 +883,7 @@
         <v>86</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -902,12 +894,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H1658"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H1668"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1658" sqref="F1658"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -918,7 +908,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="3">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="B1" t="s">
         <v>60</v>
@@ -1389,7 +1379,7 @@
         <v>13</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
@@ -2429,7 +2419,7 @@
         <v>13</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.4">
@@ -2663,7 +2653,7 @@
         <v>13</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.4">
@@ -3391,7 +3381,7 @@
         <v>13</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.4">
@@ -3495,7 +3485,7 @@
         <v>13</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.4">
@@ -4717,7 +4707,7 @@
         <v>10</v>
       </c>
       <c r="H147" s="7" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.4">
@@ -4873,7 +4863,7 @@
         <v>10</v>
       </c>
       <c r="H153" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.4">
@@ -5315,7 +5305,7 @@
         <v>13</v>
       </c>
       <c r="H170" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.4">
@@ -6225,7 +6215,7 @@
         <v>10</v>
       </c>
       <c r="H205" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.4">
@@ -8773,7 +8763,7 @@
         <v>13</v>
       </c>
       <c r="H303" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.4">
@@ -8799,7 +8789,7 @@
         <v>13</v>
       </c>
       <c r="H304" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.4">
@@ -10385,7 +10375,7 @@
         <v>13</v>
       </c>
       <c r="H365" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.4">
@@ -10801,7 +10791,7 @@
         <v>10</v>
       </c>
       <c r="H381" s="7" t="s">
-        <v>87</v>
+        <v>4</v>
       </c>
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.4">
@@ -11321,7 +11311,7 @@
         <v>13</v>
       </c>
       <c r="H401" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.4">
@@ -12075,7 +12065,7 @@
         <v>10</v>
       </c>
       <c r="H430" s="7" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="431" spans="1:8" x14ac:dyDescent="0.4">
@@ -12179,7 +12169,7 @@
         <v>10</v>
       </c>
       <c r="H434" s="7" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="435" spans="1:8" x14ac:dyDescent="0.4">
@@ -12543,7 +12533,7 @@
         <v>10</v>
       </c>
       <c r="H448" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.4">
@@ -13245,7 +13235,7 @@
         <v>10</v>
       </c>
       <c r="H475" s="7" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="476" spans="1:8" x14ac:dyDescent="0.4">
@@ -13297,7 +13287,7 @@
         <v>13</v>
       </c>
       <c r="H477" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
     </row>
     <row r="478" spans="1:8" x14ac:dyDescent="0.4">
@@ -13557,7 +13547,7 @@
         <v>10</v>
       </c>
       <c r="H487" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="488" spans="1:8" x14ac:dyDescent="0.4">
@@ -13869,7 +13859,7 @@
         <v>10</v>
       </c>
       <c r="H499" s="7" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="500" spans="1:8" x14ac:dyDescent="0.4">
@@ -15351,7 +15341,7 @@
         <v>13</v>
       </c>
       <c r="H556" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
     </row>
     <row r="557" spans="1:8" x14ac:dyDescent="0.4">
@@ -15663,7 +15653,7 @@
         <v>10</v>
       </c>
       <c r="H568" s="7" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="569" spans="1:8" x14ac:dyDescent="0.4">
@@ -15715,7 +15705,7 @@
         <v>10</v>
       </c>
       <c r="H570" s="7" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="571" spans="1:8" x14ac:dyDescent="0.4">
@@ -15871,7 +15861,7 @@
         <v>13</v>
       </c>
       <c r="H576" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
     </row>
     <row r="577" spans="1:8" x14ac:dyDescent="0.4">
@@ -16131,7 +16121,7 @@
         <v>13</v>
       </c>
       <c r="H586" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
     </row>
     <row r="587" spans="1:8" x14ac:dyDescent="0.4">
@@ -16911,7 +16901,7 @@
         <v>10</v>
       </c>
       <c r="H616" s="7" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="617" spans="1:8" x14ac:dyDescent="0.4">
@@ -16989,7 +16979,7 @@
         <v>10</v>
       </c>
       <c r="H619" s="7" t="s">
-        <v>87</v>
+        <v>5</v>
       </c>
     </row>
     <row r="620" spans="1:8" x14ac:dyDescent="0.4">
@@ -17197,7 +17187,7 @@
         <v>13</v>
       </c>
       <c r="H627" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
     </row>
     <row r="628" spans="1:8" x14ac:dyDescent="0.4">
@@ -17275,7 +17265,7 @@
         <v>10</v>
       </c>
       <c r="H630" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="631" spans="1:8" x14ac:dyDescent="0.4">
@@ -17665,7 +17655,7 @@
         <v>13</v>
       </c>
       <c r="H645" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
     </row>
     <row r="646" spans="1:8" x14ac:dyDescent="0.4">
@@ -17899,7 +17889,7 @@
         <v>10</v>
       </c>
       <c r="H654" s="7" t="s">
-        <v>87</v>
+        <v>4</v>
       </c>
     </row>
     <row r="655" spans="1:8" x14ac:dyDescent="0.4">
@@ -17951,7 +17941,7 @@
         <v>13</v>
       </c>
       <c r="H656" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
     </row>
     <row r="657" spans="1:8" x14ac:dyDescent="0.4">
@@ -18731,7 +18721,7 @@
         <v>10</v>
       </c>
       <c r="H686" s="7" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="687" spans="1:8" x14ac:dyDescent="0.4">
@@ -18783,7 +18773,7 @@
         <v>46</v>
       </c>
       <c r="H688" s="7" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="689" spans="1:8" x14ac:dyDescent="0.4">
@@ -19277,7 +19267,7 @@
         <v>13</v>
       </c>
       <c r="H707" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
     </row>
     <row r="708" spans="1:8" x14ac:dyDescent="0.4">
@@ -20161,7 +20151,7 @@
         <v>10</v>
       </c>
       <c r="H741" s="7" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="742" spans="1:8" x14ac:dyDescent="0.4">
@@ -20369,7 +20359,7 @@
         <v>13</v>
       </c>
       <c r="H749" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
     </row>
     <row r="750" spans="1:8" x14ac:dyDescent="0.4">
@@ -20473,7 +20463,7 @@
         <v>13</v>
       </c>
       <c r="H753" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
     </row>
     <row r="754" spans="1:8" x14ac:dyDescent="0.4">
@@ -22735,7 +22725,7 @@
         <v>10</v>
       </c>
       <c r="H840" s="7" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="841" spans="1:8" x14ac:dyDescent="0.4">
@@ -22917,7 +22907,7 @@
         <v>10</v>
       </c>
       <c r="H847" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="848" spans="1:8" x14ac:dyDescent="0.4">
@@ -23125,7 +23115,7 @@
         <v>13</v>
       </c>
       <c r="H855" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
     </row>
     <row r="856" spans="1:8" x14ac:dyDescent="0.4">
@@ -23671,7 +23661,7 @@
         <v>13</v>
       </c>
       <c r="H876" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
     </row>
     <row r="877" spans="1:8" x14ac:dyDescent="0.4">
@@ -24009,7 +23999,7 @@
         <v>13</v>
       </c>
       <c r="H889" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
     </row>
     <row r="890" spans="1:8" x14ac:dyDescent="0.4">
@@ -24061,7 +24051,7 @@
         <v>10</v>
       </c>
       <c r="H891" s="7" t="s">
-        <v>87</v>
+        <v>5</v>
       </c>
     </row>
     <row r="892" spans="1:8" x14ac:dyDescent="0.4">
@@ -24269,7 +24259,7 @@
         <v>13</v>
       </c>
       <c r="H899" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
     </row>
     <row r="900" spans="1:8" x14ac:dyDescent="0.4">
@@ -24477,7 +24467,7 @@
         <v>13</v>
       </c>
       <c r="H907" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
     </row>
     <row r="908" spans="1:8" x14ac:dyDescent="0.4">
@@ -25491,7 +25481,7 @@
         <v>10</v>
       </c>
       <c r="H946" s="7" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="947" spans="1:8" x14ac:dyDescent="0.4">
@@ -26427,7 +26417,7 @@
         <v>10</v>
       </c>
       <c r="H982" s="7" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="983" spans="1:8" x14ac:dyDescent="0.4">
@@ -26687,7 +26677,7 @@
         <v>13</v>
       </c>
       <c r="H992" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
     </row>
     <row r="993" spans="1:8" x14ac:dyDescent="0.4">
@@ -26739,7 +26729,7 @@
         <v>10</v>
       </c>
       <c r="H994" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="995" spans="1:8" x14ac:dyDescent="0.4">
@@ -26843,7 +26833,7 @@
         <v>10</v>
       </c>
       <c r="H998" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="999" spans="1:8" x14ac:dyDescent="0.4">
@@ -27103,7 +27093,7 @@
         <v>10</v>
       </c>
       <c r="H1008" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1009" spans="1:8" x14ac:dyDescent="0.4">
@@ -27571,7 +27561,7 @@
         <v>10</v>
       </c>
       <c r="H1026" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1027" spans="1:8" x14ac:dyDescent="0.4">
@@ -27623,7 +27613,7 @@
         <v>13</v>
       </c>
       <c r="H1028" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1029" spans="1:8" x14ac:dyDescent="0.4">
@@ -27675,7 +27665,7 @@
         <v>10</v>
       </c>
       <c r="H1030" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1031" spans="1:8" x14ac:dyDescent="0.4">
@@ -27779,7 +27769,7 @@
         <v>10</v>
       </c>
       <c r="H1034" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1035" spans="1:8" x14ac:dyDescent="0.4">
@@ -27883,7 +27873,7 @@
         <v>13</v>
       </c>
       <c r="H1038" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1039" spans="1:8" x14ac:dyDescent="0.4">
@@ -28117,7 +28107,7 @@
         <v>10</v>
       </c>
       <c r="H1047" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1048" spans="1:8" x14ac:dyDescent="0.4">
@@ -28143,7 +28133,7 @@
         <v>10</v>
       </c>
       <c r="H1048" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1049" spans="1:8" x14ac:dyDescent="0.4">
@@ -28195,7 +28185,7 @@
         <v>10</v>
       </c>
       <c r="H1050" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1051" spans="1:8" x14ac:dyDescent="0.4">
@@ -28247,7 +28237,7 @@
         <v>10</v>
       </c>
       <c r="H1052" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1053" spans="1:8" x14ac:dyDescent="0.4">
@@ -28273,7 +28263,7 @@
         <v>10</v>
       </c>
       <c r="H1053" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1054" spans="1:8" x14ac:dyDescent="0.4">
@@ -28637,7 +28627,7 @@
         <v>10</v>
       </c>
       <c r="H1067" s="7" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="1068" spans="1:8" x14ac:dyDescent="0.4">
@@ -29703,7 +29693,7 @@
         <v>10</v>
       </c>
       <c r="H1108" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1109" spans="1:8" x14ac:dyDescent="0.4">
@@ -29729,7 +29719,7 @@
         <v>10</v>
       </c>
       <c r="H1109" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1110" spans="1:8" x14ac:dyDescent="0.4">
@@ -30171,7 +30161,7 @@
         <v>13</v>
       </c>
       <c r="H1126" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1127" spans="1:8" x14ac:dyDescent="0.4">
@@ -30587,7 +30577,7 @@
         <v>13</v>
       </c>
       <c r="H1142" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1143" spans="1:8" x14ac:dyDescent="0.4">
@@ -30691,7 +30681,7 @@
         <v>13</v>
       </c>
       <c r="H1146" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1147" spans="1:8" x14ac:dyDescent="0.4">
@@ -30795,7 +30785,7 @@
         <v>13</v>
       </c>
       <c r="H1150" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1151" spans="1:8" x14ac:dyDescent="0.4">
@@ -31341,7 +31331,7 @@
         <v>13</v>
       </c>
       <c r="H1171" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1172" spans="1:8" x14ac:dyDescent="0.4">
@@ -31497,7 +31487,7 @@
         <v>13</v>
       </c>
       <c r="H1177" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1178" spans="1:8" x14ac:dyDescent="0.4">
@@ -32407,7 +32397,7 @@
         <v>13</v>
       </c>
       <c r="H1212" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1213" spans="1:8" x14ac:dyDescent="0.4">
@@ -32563,7 +32553,7 @@
         <v>13</v>
       </c>
       <c r="H1218" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1219" spans="1:8" x14ac:dyDescent="0.4">
@@ -33990,10 +33980,10 @@
         <v>43926</v>
       </c>
       <c r="G1273" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H1273" s="7" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1274" spans="1:8" x14ac:dyDescent="0.4">
@@ -34068,10 +34058,10 @@
         <v>43935</v>
       </c>
       <c r="G1276" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H1276" s="7" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1277" spans="1:8" x14ac:dyDescent="0.4">
@@ -34383,7 +34373,7 @@
         <v>13</v>
       </c>
       <c r="H1288" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1289" spans="1:8" x14ac:dyDescent="0.4">
@@ -34773,7 +34763,7 @@
         <v>13</v>
       </c>
       <c r="H1303" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1304" spans="1:8" x14ac:dyDescent="0.4">
@@ -36021,7 +36011,7 @@
         <v>10</v>
       </c>
       <c r="H1351" s="7" t="s">
-        <v>73</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1352" spans="1:8" x14ac:dyDescent="0.4">
@@ -37113,7 +37103,7 @@
         <v>10</v>
       </c>
       <c r="H1393" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1394" spans="1:8" x14ac:dyDescent="0.4">
@@ -37763,7 +37753,7 @@
         <v>13</v>
       </c>
       <c r="H1418" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1419" spans="1:8" x14ac:dyDescent="0.4">
@@ -38621,7 +38611,7 @@
         <v>13</v>
       </c>
       <c r="H1451" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1452" spans="1:8" x14ac:dyDescent="0.4">
@@ -38699,7 +38689,7 @@
         <v>13</v>
       </c>
       <c r="H1454" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1455" spans="1:8" x14ac:dyDescent="0.4">
@@ -39141,7 +39131,7 @@
         <v>10</v>
       </c>
       <c r="H1471" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1472" spans="1:8" x14ac:dyDescent="0.4">
@@ -39323,7 +39313,7 @@
         <v>10</v>
       </c>
       <c r="H1478" s="7" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1479" spans="1:8" x14ac:dyDescent="0.4">
@@ -39453,7 +39443,7 @@
         <v>13</v>
       </c>
       <c r="H1483" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1484" spans="1:8" x14ac:dyDescent="0.4">
@@ -39583,7 +39573,7 @@
         <v>13</v>
       </c>
       <c r="H1488" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1489" spans="1:8" x14ac:dyDescent="0.4">
@@ -39999,7 +39989,7 @@
         <v>13</v>
       </c>
       <c r="H1504" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1505" spans="1:8" x14ac:dyDescent="0.4">
@@ -41767,7 +41757,7 @@
         <v>13</v>
       </c>
       <c r="H1572" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1573" spans="1:8" x14ac:dyDescent="0.4">
@@ -41790,10 +41780,10 @@
         <v>43946</v>
       </c>
       <c r="G1573" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H1573" s="7" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1574" spans="1:8" x14ac:dyDescent="0.4">
@@ -42209,7 +42199,7 @@
         <v>46</v>
       </c>
       <c r="H1589" s="7" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
     </row>
     <row r="1590" spans="1:8" x14ac:dyDescent="0.4">
@@ -42313,7 +42303,7 @@
         <v>46</v>
       </c>
       <c r="H1593" s="7" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1594" spans="1:8" x14ac:dyDescent="0.4">
@@ -42339,7 +42329,7 @@
         <v>46</v>
       </c>
       <c r="H1594" s="7" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1595" spans="1:8" x14ac:dyDescent="0.4">
@@ -42781,7 +42771,7 @@
         <v>13</v>
       </c>
       <c r="H1611" s="7" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1612" spans="1:8" x14ac:dyDescent="0.4">
@@ -42934,10 +42924,10 @@
         <v>43948</v>
       </c>
       <c r="G1617" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H1617" s="7" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1618" spans="1:8" x14ac:dyDescent="0.4">
@@ -43561,7 +43551,7 @@
         <v>12</v>
       </c>
       <c r="H1641" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1642" spans="1:8" x14ac:dyDescent="0.4">
@@ -43639,7 +43629,7 @@
         <v>10</v>
       </c>
       <c r="H1644" s="7" t="s">
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1645" spans="1:8" x14ac:dyDescent="0.4">
@@ -43899,7 +43889,7 @@
         <v>10</v>
       </c>
       <c r="H1654" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1655" spans="1:8" x14ac:dyDescent="0.4">
@@ -43925,7 +43915,7 @@
         <v>10</v>
       </c>
       <c r="H1655" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1656" spans="1:8" x14ac:dyDescent="0.4">
@@ -44003,11 +43993,271 @@
         <v>10</v>
       </c>
       <c r="H1658" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1659">
+        <v>1657</v>
+      </c>
+      <c r="B1659" s="2">
+        <v>43954</v>
+      </c>
+      <c r="C1659">
+        <v>20</v>
+      </c>
+      <c r="D1659" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1659" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1659" s="1">
+        <v>43950</v>
+      </c>
+      <c r="G1659" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1659" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1660">
+        <v>1658</v>
+      </c>
+      <c r="B1660" s="2">
+        <v>43954</v>
+      </c>
+      <c r="C1660">
+        <v>50</v>
+      </c>
+      <c r="D1660" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1660" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1660" s="1">
+        <v>43950</v>
+      </c>
+      <c r="G1660" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1660" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1661">
+        <v>1659</v>
+      </c>
+      <c r="B1661" s="2">
+        <v>43954</v>
+      </c>
+      <c r="C1661">
+        <v>30</v>
+      </c>
+      <c r="D1661" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1661" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1661" s="1">
+        <v>43942</v>
+      </c>
+      <c r="G1661" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1661" s="7" t="s">
         <v>73</v>
       </c>
     </row>
+    <row r="1662" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1662">
+        <v>1660</v>
+      </c>
+      <c r="B1662" s="2">
+        <v>43954</v>
+      </c>
+      <c r="C1662">
+        <v>40</v>
+      </c>
+      <c r="D1662" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1662" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1662" s="1">
+        <v>43947</v>
+      </c>
+      <c r="G1662" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1662" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1663">
+        <v>1661</v>
+      </c>
+      <c r="B1663" s="2">
+        <v>43954</v>
+      </c>
+      <c r="C1663">
+        <v>50</v>
+      </c>
+      <c r="D1663" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1663" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1663" s="1">
+        <v>43952</v>
+      </c>
+      <c r="G1663" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1663" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1664">
+        <v>1662</v>
+      </c>
+      <c r="B1664" s="2">
+        <v>43954</v>
+      </c>
+      <c r="C1664">
+        <v>60</v>
+      </c>
+      <c r="D1664" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1664" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1664" s="1">
+        <v>43946</v>
+      </c>
+      <c r="G1664" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1664" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1665">
+        <v>1663</v>
+      </c>
+      <c r="B1665" s="2">
+        <v>43954</v>
+      </c>
+      <c r="C1665">
+        <v>70</v>
+      </c>
+      <c r="D1665" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1665" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1665" s="1">
+        <v>43951</v>
+      </c>
+      <c r="G1665" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1665" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1666">
+        <v>1664</v>
+      </c>
+      <c r="B1666" s="2">
+        <v>43954</v>
+      </c>
+      <c r="C1666">
+        <v>70</v>
+      </c>
+      <c r="D1666" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1666" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1666" s="1">
+        <v>43938</v>
+      </c>
+      <c r="G1666" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1666" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1667">
+        <v>1665</v>
+      </c>
+      <c r="B1667" s="2">
+        <v>43954</v>
+      </c>
+      <c r="C1667">
+        <v>40</v>
+      </c>
+      <c r="D1667" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1667" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1667" s="1">
+        <v>43948</v>
+      </c>
+      <c r="G1667" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1667" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1668">
+        <v>1666</v>
+      </c>
+      <c r="B1668" s="2">
+        <v>43954</v>
+      </c>
+      <c r="C1668">
+        <v>10</v>
+      </c>
+      <c r="D1668" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1668" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1668" s="1">
+        <v>43944</v>
+      </c>
+      <c r="G1668" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1668" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:H1658" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A2:H1668"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -44015,8 +44265,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K102"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -44027,7 +44277,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="3">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="B1" t="s">
         <v>60</v>
@@ -47497,26 +47747,61 @@
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A101" s="4" t="s">
+      <c r="A101" s="2">
+        <v>43954</v>
+      </c>
+      <c r="B101">
+        <v>607</v>
+      </c>
+      <c r="C101">
+        <v>10</v>
+      </c>
+      <c r="D101">
+        <v>1666</v>
+      </c>
+      <c r="E101">
+        <v>872</v>
+      </c>
+      <c r="F101">
+        <v>28</v>
+      </c>
+      <c r="G101">
+        <v>744</v>
+      </c>
+      <c r="H101">
+        <v>28</v>
+      </c>
+      <c r="I101">
+        <v>744</v>
+      </c>
+      <c r="J101">
+        <v>4</v>
+      </c>
+      <c r="K101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A102" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B101">
-        <v>17233</v>
-      </c>
-      <c r="C101">
-        <v>1656</v>
-      </c>
-      <c r="F101">
-        <v>716</v>
-      </c>
-      <c r="H101">
-        <v>716</v>
-      </c>
-      <c r="J101">
-        <v>46</v>
-      </c>
-      <c r="K101">
-        <v>867</v>
+      <c r="B102">
+        <v>17840</v>
+      </c>
+      <c r="C102">
+        <v>1666</v>
+      </c>
+      <c r="F102">
+        <v>744</v>
+      </c>
+      <c r="H102">
+        <v>744</v>
+      </c>
+      <c r="J102">
+        <v>50</v>
+      </c>
+      <c r="K102">
+        <v>870</v>
       </c>
     </row>
   </sheetData>

--- a/data/patients_and_inspections.xlsx
+++ b/data/patients_and_inspections.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.19.161.23\kansen_fol\03防疫L（移行済）\06　中国武漢市肺炎（新型コロナウイルス）\検査の状況(HP更新)\陽性者入院状況\コロナサイト\0504（0503のデータ）\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.19.161.23\kansen_fol\03防疫L（移行済）\06　中国武漢市肺炎（新型コロナウイルス）\検査の状況(HP更新)\陽性者入院状況\コロナサイト\0505（0504のデータ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
     <sheet name="【公開OK】コロナサイト用（日付ベース）" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'【公開OK】府HP用(陽性者ベース)'!$A$2:$H$1668</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'【公開OK】府HP用(陽性者ベース)'!$A$2:$H$1681</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7052" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7107" uniqueCount="96">
   <si>
     <t>（1）入退院の状況</t>
   </si>
@@ -350,7 +350,18 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>確認中</t>
+    <t>入院調整中</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死亡退院</t>
+    <rPh sb="0" eb="2">
+      <t>シボウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -766,7 +777,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>744</v>
+        <v>811</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -774,15 +785,15 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>94</v>
       </c>
       <c r="B6">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
@@ -790,7 +801,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
@@ -798,7 +809,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1666</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
@@ -819,7 +830,7 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <v>771</v>
+        <v>713</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
@@ -827,7 +838,7 @@
         <v>11</v>
       </c>
       <c r="B14">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
@@ -843,7 +854,7 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
@@ -851,7 +862,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>744</v>
+        <v>811</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
@@ -859,7 +870,7 @@
         <v>7</v>
       </c>
       <c r="B18">
-        <v>1666</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
@@ -867,7 +878,7 @@
         <v>84</v>
       </c>
       <c r="B20">
-        <v>179</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
@@ -875,7 +886,7 @@
         <v>85</v>
       </c>
       <c r="B21">
-        <v>203</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
@@ -883,7 +894,7 @@
         <v>86</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -895,7 +906,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1668"/>
+  <dimension ref="A1:H1681"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -908,7 +919,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="3">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="B1" t="s">
         <v>60</v>
@@ -1379,7 +1390,7 @@
         <v>13</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
@@ -2419,7 +2430,7 @@
         <v>13</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.4">
@@ -2653,7 +2664,7 @@
         <v>13</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.4">
@@ -3381,7 +3392,7 @@
         <v>13</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.4">
@@ -3485,7 +3496,7 @@
         <v>13</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.4">
@@ -4707,7 +4718,7 @@
         <v>10</v>
       </c>
       <c r="H147" s="7" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.4">
@@ -5305,7 +5316,7 @@
         <v>13</v>
       </c>
       <c r="H170" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.4">
@@ -8165,7 +8176,7 @@
         <v>10</v>
       </c>
       <c r="H280" s="7" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.4">
@@ -8763,7 +8774,7 @@
         <v>13</v>
       </c>
       <c r="H303" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.4">
@@ -8789,7 +8800,7 @@
         <v>13</v>
       </c>
       <c r="H304" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.4">
@@ -8893,7 +8904,7 @@
         <v>10</v>
       </c>
       <c r="H308" s="7" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.4">
@@ -9153,7 +9164,7 @@
         <v>14</v>
       </c>
       <c r="H318" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.4">
@@ -9205,7 +9216,7 @@
         <v>10</v>
       </c>
       <c r="H320" s="7" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.4">
@@ -9569,7 +9580,7 @@
         <v>10</v>
       </c>
       <c r="H334" s="7" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.4">
@@ -10193,7 +10204,7 @@
         <v>10</v>
       </c>
       <c r="H358" s="7" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.4">
@@ -10375,7 +10386,7 @@
         <v>13</v>
       </c>
       <c r="H365" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.4">
@@ -10505,7 +10516,7 @@
         <v>10</v>
       </c>
       <c r="H370" s="7" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.4">
@@ -11311,7 +11322,7 @@
         <v>13</v>
       </c>
       <c r="H401" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.4">
@@ -12169,7 +12180,7 @@
         <v>10</v>
       </c>
       <c r="H434" s="7" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="435" spans="1:8" x14ac:dyDescent="0.4">
@@ -12975,7 +12986,7 @@
         <v>10</v>
       </c>
       <c r="H465" s="7" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="466" spans="1:8" x14ac:dyDescent="0.4">
@@ -13079,7 +13090,7 @@
         <v>10</v>
       </c>
       <c r="H469" s="7" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="470" spans="1:8" x14ac:dyDescent="0.4">
@@ -13131,7 +13142,7 @@
         <v>10</v>
       </c>
       <c r="H471" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="472" spans="1:8" x14ac:dyDescent="0.4">
@@ -13287,7 +13298,7 @@
         <v>13</v>
       </c>
       <c r="H477" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
     </row>
     <row r="478" spans="1:8" x14ac:dyDescent="0.4">
@@ -13859,7 +13870,7 @@
         <v>10</v>
       </c>
       <c r="H499" s="7" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="500" spans="1:8" x14ac:dyDescent="0.4">
@@ -14298,7 +14309,7 @@
         <v>43923</v>
       </c>
       <c r="G516" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H516" s="7" t="s">
         <v>4</v>
@@ -15159,7 +15170,7 @@
         <v>10</v>
       </c>
       <c r="H549" s="7" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="550" spans="1:8" x14ac:dyDescent="0.4">
@@ -15341,7 +15352,7 @@
         <v>13</v>
       </c>
       <c r="H556" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
     </row>
     <row r="557" spans="1:8" x14ac:dyDescent="0.4">
@@ -15861,7 +15872,7 @@
         <v>13</v>
       </c>
       <c r="H576" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
     </row>
     <row r="577" spans="1:8" x14ac:dyDescent="0.4">
@@ -16121,7 +16132,7 @@
         <v>13</v>
       </c>
       <c r="H586" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
     </row>
     <row r="587" spans="1:8" x14ac:dyDescent="0.4">
@@ -16979,7 +16990,7 @@
         <v>10</v>
       </c>
       <c r="H619" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="620" spans="1:8" x14ac:dyDescent="0.4">
@@ -17187,7 +17198,7 @@
         <v>13</v>
       </c>
       <c r="H627" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
     </row>
     <row r="628" spans="1:8" x14ac:dyDescent="0.4">
@@ -17343,7 +17354,7 @@
         <v>10</v>
       </c>
       <c r="H633" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="634" spans="1:8" x14ac:dyDescent="0.4">
@@ -17655,7 +17666,7 @@
         <v>13</v>
       </c>
       <c r="H645" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
     </row>
     <row r="646" spans="1:8" x14ac:dyDescent="0.4">
@@ -17678,7 +17689,7 @@
         <v>43928</v>
       </c>
       <c r="G646" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H646" s="7" t="s">
         <v>4</v>
@@ -17863,7 +17874,7 @@
         <v>10</v>
       </c>
       <c r="H653" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="654" spans="1:8" x14ac:dyDescent="0.4">
@@ -17941,7 +17952,7 @@
         <v>13</v>
       </c>
       <c r="H656" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
     </row>
     <row r="657" spans="1:8" x14ac:dyDescent="0.4">
@@ -18227,7 +18238,7 @@
         <v>10</v>
       </c>
       <c r="H667" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="668" spans="1:8" x14ac:dyDescent="0.4">
@@ -18331,7 +18342,7 @@
         <v>10</v>
       </c>
       <c r="H671" s="7" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="672" spans="1:8" x14ac:dyDescent="0.4">
@@ -19111,7 +19122,7 @@
         <v>10</v>
       </c>
       <c r="H701" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="702" spans="1:8" x14ac:dyDescent="0.4">
@@ -19215,7 +19226,7 @@
         <v>10</v>
       </c>
       <c r="H705" s="7" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="706" spans="1:8" x14ac:dyDescent="0.4">
@@ -19241,7 +19252,7 @@
         <v>10</v>
       </c>
       <c r="H706" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="707" spans="1:8" x14ac:dyDescent="0.4">
@@ -19267,7 +19278,7 @@
         <v>13</v>
       </c>
       <c r="H707" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
     </row>
     <row r="708" spans="1:8" x14ac:dyDescent="0.4">
@@ -19813,7 +19824,7 @@
         <v>10</v>
       </c>
       <c r="H728" s="7" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="729" spans="1:8" x14ac:dyDescent="0.4">
@@ -20359,7 +20370,7 @@
         <v>13</v>
       </c>
       <c r="H749" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
     </row>
     <row r="750" spans="1:8" x14ac:dyDescent="0.4">
@@ -20463,7 +20474,7 @@
         <v>13</v>
       </c>
       <c r="H753" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
     </row>
     <row r="754" spans="1:8" x14ac:dyDescent="0.4">
@@ -20593,7 +20604,7 @@
         <v>10</v>
       </c>
       <c r="H758" s="7" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="759" spans="1:8" x14ac:dyDescent="0.4">
@@ -22439,7 +22450,7 @@
         <v>10</v>
       </c>
       <c r="H829" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="830" spans="1:8" x14ac:dyDescent="0.4">
@@ -23063,7 +23074,7 @@
         <v>10</v>
       </c>
       <c r="H853" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="854" spans="1:8" x14ac:dyDescent="0.4">
@@ -23115,7 +23126,7 @@
         <v>13</v>
       </c>
       <c r="H855" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
     </row>
     <row r="856" spans="1:8" x14ac:dyDescent="0.4">
@@ -23479,7 +23490,7 @@
         <v>10</v>
       </c>
       <c r="H869" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="870" spans="1:8" x14ac:dyDescent="0.4">
@@ -23661,7 +23672,7 @@
         <v>13</v>
       </c>
       <c r="H876" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
     </row>
     <row r="877" spans="1:8" x14ac:dyDescent="0.4">
@@ -23869,7 +23880,7 @@
         <v>10</v>
       </c>
       <c r="H884" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="885" spans="1:8" x14ac:dyDescent="0.4">
@@ -23999,7 +24010,7 @@
         <v>13</v>
       </c>
       <c r="H889" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
     </row>
     <row r="890" spans="1:8" x14ac:dyDescent="0.4">
@@ -24051,7 +24062,7 @@
         <v>10</v>
       </c>
       <c r="H891" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="892" spans="1:8" x14ac:dyDescent="0.4">
@@ -24259,7 +24270,7 @@
         <v>13</v>
       </c>
       <c r="H899" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
     </row>
     <row r="900" spans="1:8" x14ac:dyDescent="0.4">
@@ -24311,7 +24322,7 @@
         <v>10</v>
       </c>
       <c r="H901" s="7" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="902" spans="1:8" x14ac:dyDescent="0.4">
@@ -24467,7 +24478,7 @@
         <v>13</v>
       </c>
       <c r="H907" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
     </row>
     <row r="908" spans="1:8" x14ac:dyDescent="0.4">
@@ -24932,7 +24943,7 @@
         <v>46</v>
       </c>
       <c r="G925" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H925" s="7" t="s">
         <v>4</v>
@@ -25351,7 +25362,7 @@
         <v>46</v>
       </c>
       <c r="H941" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="942" spans="1:8" x14ac:dyDescent="0.4">
@@ -25585,7 +25596,7 @@
         <v>10</v>
       </c>
       <c r="H950" s="7" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="951" spans="1:8" x14ac:dyDescent="0.4">
@@ -25949,7 +25960,7 @@
         <v>10</v>
       </c>
       <c r="H964" s="7" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="965" spans="1:8" x14ac:dyDescent="0.4">
@@ -26677,7 +26688,7 @@
         <v>13</v>
       </c>
       <c r="H992" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
     </row>
     <row r="993" spans="1:8" x14ac:dyDescent="0.4">
@@ -26937,7 +26948,7 @@
         <v>10</v>
       </c>
       <c r="H1002" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1003" spans="1:8" x14ac:dyDescent="0.4">
@@ -27041,7 +27052,7 @@
         <v>10</v>
       </c>
       <c r="H1006" s="7" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="1007" spans="1:8" x14ac:dyDescent="0.4">
@@ -27327,7 +27338,7 @@
         <v>10</v>
       </c>
       <c r="H1017" s="7" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="1018" spans="1:8" x14ac:dyDescent="0.4">
@@ -27535,7 +27546,7 @@
         <v>12</v>
       </c>
       <c r="H1025" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1026" spans="1:8" x14ac:dyDescent="0.4">
@@ -27613,7 +27624,7 @@
         <v>13</v>
       </c>
       <c r="H1028" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
     </row>
     <row r="1029" spans="1:8" x14ac:dyDescent="0.4">
@@ -27639,7 +27650,7 @@
         <v>12</v>
       </c>
       <c r="H1029" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1030" spans="1:8" x14ac:dyDescent="0.4">
@@ -27873,7 +27884,7 @@
         <v>13</v>
       </c>
       <c r="H1038" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
     </row>
     <row r="1039" spans="1:8" x14ac:dyDescent="0.4">
@@ -27925,7 +27936,7 @@
         <v>10</v>
       </c>
       <c r="H1040" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1041" spans="1:8" x14ac:dyDescent="0.4">
@@ -28081,7 +28092,7 @@
         <v>10</v>
       </c>
       <c r="H1046" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1047" spans="1:8" x14ac:dyDescent="0.4">
@@ -28159,7 +28170,7 @@
         <v>10</v>
       </c>
       <c r="H1049" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1050" spans="1:8" x14ac:dyDescent="0.4">
@@ -28211,7 +28222,7 @@
         <v>10</v>
       </c>
       <c r="H1051" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1052" spans="1:8" x14ac:dyDescent="0.4">
@@ -28289,7 +28300,7 @@
         <v>10</v>
       </c>
       <c r="H1054" s="7" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="1055" spans="1:8" x14ac:dyDescent="0.4">
@@ -28546,7 +28557,7 @@
         <v>43933</v>
       </c>
       <c r="G1064" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1064" s="7" t="s">
         <v>4</v>
@@ -28887,7 +28898,7 @@
         <v>10</v>
       </c>
       <c r="H1077" s="7" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="1078" spans="1:8" x14ac:dyDescent="0.4">
@@ -28939,7 +28950,7 @@
         <v>10</v>
       </c>
       <c r="H1079" s="7" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="1080" spans="1:8" x14ac:dyDescent="0.4">
@@ -29043,7 +29054,7 @@
         <v>10</v>
       </c>
       <c r="H1083" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1084" spans="1:8" x14ac:dyDescent="0.4">
@@ -29095,7 +29106,7 @@
         <v>10</v>
       </c>
       <c r="H1085" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1086" spans="1:8" x14ac:dyDescent="0.4">
@@ -29173,7 +29184,7 @@
         <v>10</v>
       </c>
       <c r="H1088" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1089" spans="1:8" x14ac:dyDescent="0.4">
@@ -29303,7 +29314,7 @@
         <v>10</v>
       </c>
       <c r="H1093" s="7" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="1094" spans="1:8" x14ac:dyDescent="0.4">
@@ -29615,7 +29626,7 @@
         <v>10</v>
       </c>
       <c r="H1105" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1106" spans="1:8" x14ac:dyDescent="0.4">
@@ -29797,7 +29808,7 @@
         <v>10</v>
       </c>
       <c r="H1112" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1113" spans="1:8" x14ac:dyDescent="0.4">
@@ -29823,7 +29834,7 @@
         <v>10</v>
       </c>
       <c r="H1113" s="7" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
     </row>
     <row r="1114" spans="1:8" x14ac:dyDescent="0.4">
@@ -29849,7 +29860,7 @@
         <v>10</v>
       </c>
       <c r="H1114" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1115" spans="1:8" x14ac:dyDescent="0.4">
@@ -29927,7 +29938,7 @@
         <v>10</v>
       </c>
       <c r="H1117" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1118" spans="1:8" x14ac:dyDescent="0.4">
@@ -30161,7 +30172,7 @@
         <v>13</v>
       </c>
       <c r="H1126" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
     </row>
     <row r="1127" spans="1:8" x14ac:dyDescent="0.4">
@@ -30392,10 +30403,10 @@
         <v>46</v>
       </c>
       <c r="G1135" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="H1135" s="7" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
     </row>
     <row r="1136" spans="1:8" x14ac:dyDescent="0.4">
@@ -30577,7 +30588,7 @@
         <v>13</v>
       </c>
       <c r="H1142" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
     </row>
     <row r="1143" spans="1:8" x14ac:dyDescent="0.4">
@@ -30681,7 +30692,7 @@
         <v>13</v>
       </c>
       <c r="H1146" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
     </row>
     <row r="1147" spans="1:8" x14ac:dyDescent="0.4">
@@ -30785,7 +30796,7 @@
         <v>13</v>
       </c>
       <c r="H1150" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
     </row>
     <row r="1151" spans="1:8" x14ac:dyDescent="0.4">
@@ -30915,7 +30926,7 @@
         <v>46</v>
       </c>
       <c r="H1155" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1156" spans="1:8" x14ac:dyDescent="0.4">
@@ -31019,7 +31030,7 @@
         <v>46</v>
       </c>
       <c r="H1159" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1160" spans="1:8" x14ac:dyDescent="0.4">
@@ -31042,10 +31053,10 @@
         <v>46</v>
       </c>
       <c r="G1160" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="H1160" s="7" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
     </row>
     <row r="1161" spans="1:8" x14ac:dyDescent="0.4">
@@ -31227,7 +31238,7 @@
         <v>10</v>
       </c>
       <c r="H1167" s="7" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="1168" spans="1:8" x14ac:dyDescent="0.4">
@@ -31305,7 +31316,7 @@
         <v>10</v>
       </c>
       <c r="H1170" s="7" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="1171" spans="1:8" x14ac:dyDescent="0.4">
@@ -31331,7 +31342,7 @@
         <v>13</v>
       </c>
       <c r="H1171" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
     </row>
     <row r="1172" spans="1:8" x14ac:dyDescent="0.4">
@@ -31354,7 +31365,7 @@
         <v>43937</v>
       </c>
       <c r="G1172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H1172" s="7" t="s">
         <v>4</v>
@@ -31383,7 +31394,7 @@
         <v>10</v>
       </c>
       <c r="H1173" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1174" spans="1:8" x14ac:dyDescent="0.4">
@@ -31487,7 +31498,7 @@
         <v>13</v>
       </c>
       <c r="H1177" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
     </row>
     <row r="1178" spans="1:8" x14ac:dyDescent="0.4">
@@ -31773,7 +31784,7 @@
         <v>46</v>
       </c>
       <c r="H1188" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1189" spans="1:8" x14ac:dyDescent="0.4">
@@ -31799,7 +31810,7 @@
         <v>46</v>
       </c>
       <c r="H1189" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1190" spans="1:8" x14ac:dyDescent="0.4">
@@ -31825,7 +31836,7 @@
         <v>46</v>
       </c>
       <c r="H1190" s="7" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
     </row>
     <row r="1191" spans="1:8" x14ac:dyDescent="0.4">
@@ -31877,7 +31888,7 @@
         <v>46</v>
       </c>
       <c r="H1192" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1193" spans="1:8" x14ac:dyDescent="0.4">
@@ -32137,7 +32148,7 @@
         <v>10</v>
       </c>
       <c r="H1202" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1203" spans="1:8" x14ac:dyDescent="0.4">
@@ -32189,7 +32200,7 @@
         <v>10</v>
       </c>
       <c r="H1204" s="7" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="1205" spans="1:8" x14ac:dyDescent="0.4">
@@ -32397,7 +32408,7 @@
         <v>13</v>
       </c>
       <c r="H1212" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
     </row>
     <row r="1213" spans="1:8" x14ac:dyDescent="0.4">
@@ -32553,7 +32564,7 @@
         <v>13</v>
       </c>
       <c r="H1218" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
     </row>
     <row r="1219" spans="1:8" x14ac:dyDescent="0.4">
@@ -33359,7 +33370,7 @@
         <v>46</v>
       </c>
       <c r="H1249" s="7" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="1250" spans="1:8" x14ac:dyDescent="0.4">
@@ -33593,7 +33604,7 @@
         <v>10</v>
       </c>
       <c r="H1258" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1259" spans="1:8" x14ac:dyDescent="0.4">
@@ -33902,10 +33913,10 @@
         <v>43939</v>
       </c>
       <c r="G1270" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H1270" s="7" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
     </row>
     <row r="1271" spans="1:8" x14ac:dyDescent="0.4">
@@ -33983,7 +33994,7 @@
         <v>13</v>
       </c>
       <c r="H1273" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
     </row>
     <row r="1274" spans="1:8" x14ac:dyDescent="0.4">
@@ -34061,7 +34072,7 @@
         <v>13</v>
       </c>
       <c r="H1276" s="7" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1277" spans="1:8" x14ac:dyDescent="0.4">
@@ -34243,7 +34254,7 @@
         <v>10</v>
       </c>
       <c r="H1283" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1284" spans="1:8" x14ac:dyDescent="0.4">
@@ -34347,7 +34358,7 @@
         <v>10</v>
       </c>
       <c r="H1287" s="7" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="1288" spans="1:8" x14ac:dyDescent="0.4">
@@ -34373,7 +34384,7 @@
         <v>13</v>
       </c>
       <c r="H1288" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
     </row>
     <row r="1289" spans="1:8" x14ac:dyDescent="0.4">
@@ -34607,7 +34618,7 @@
         <v>10</v>
       </c>
       <c r="H1297" s="7" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="1298" spans="1:8" x14ac:dyDescent="0.4">
@@ -34763,7 +34774,7 @@
         <v>13</v>
       </c>
       <c r="H1303" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
     </row>
     <row r="1304" spans="1:8" x14ac:dyDescent="0.4">
@@ -35257,7 +35268,7 @@
         <v>46</v>
       </c>
       <c r="H1322" s="7" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="1323" spans="1:8" x14ac:dyDescent="0.4">
@@ -35647,7 +35658,7 @@
         <v>10</v>
       </c>
       <c r="H1337" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1338" spans="1:8" x14ac:dyDescent="0.4">
@@ -35777,7 +35788,7 @@
         <v>10</v>
       </c>
       <c r="H1342" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1343" spans="1:8" x14ac:dyDescent="0.4">
@@ -37181,7 +37192,7 @@
         <v>10</v>
       </c>
       <c r="H1396" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1397" spans="1:8" x14ac:dyDescent="0.4">
@@ -37415,7 +37426,7 @@
         <v>10</v>
       </c>
       <c r="H1405" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1406" spans="1:8" x14ac:dyDescent="0.4">
@@ -37753,7 +37764,7 @@
         <v>13</v>
       </c>
       <c r="H1418" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
     </row>
     <row r="1419" spans="1:8" x14ac:dyDescent="0.4">
@@ -38039,7 +38050,7 @@
         <v>10</v>
       </c>
       <c r="H1429" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1430" spans="1:8" x14ac:dyDescent="0.4">
@@ -38065,7 +38076,7 @@
         <v>10</v>
       </c>
       <c r="H1430" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1431" spans="1:8" x14ac:dyDescent="0.4">
@@ -38611,7 +38622,7 @@
         <v>13</v>
       </c>
       <c r="H1451" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
     </row>
     <row r="1452" spans="1:8" x14ac:dyDescent="0.4">
@@ -38689,7 +38700,7 @@
         <v>13</v>
       </c>
       <c r="H1454" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
     </row>
     <row r="1455" spans="1:8" x14ac:dyDescent="0.4">
@@ -39443,7 +39454,7 @@
         <v>13</v>
       </c>
       <c r="H1483" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
     </row>
     <row r="1484" spans="1:8" x14ac:dyDescent="0.4">
@@ -39573,7 +39584,7 @@
         <v>13</v>
       </c>
       <c r="H1488" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
     </row>
     <row r="1489" spans="1:8" x14ac:dyDescent="0.4">
@@ -39989,7 +40000,7 @@
         <v>13</v>
       </c>
       <c r="H1504" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
     </row>
     <row r="1505" spans="1:8" x14ac:dyDescent="0.4">
@@ -40093,7 +40104,7 @@
         <v>10</v>
       </c>
       <c r="H1508" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1509" spans="1:8" x14ac:dyDescent="0.4">
@@ -41757,7 +41768,7 @@
         <v>13</v>
       </c>
       <c r="H1572" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
     </row>
     <row r="1573" spans="1:8" x14ac:dyDescent="0.4">
@@ -41783,7 +41794,7 @@
         <v>13</v>
       </c>
       <c r="H1573" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
     </row>
     <row r="1574" spans="1:8" x14ac:dyDescent="0.4">
@@ -41861,7 +41872,7 @@
         <v>10</v>
       </c>
       <c r="H1576" s="7" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1577" spans="1:8" x14ac:dyDescent="0.4">
@@ -41913,7 +41924,7 @@
         <v>10</v>
       </c>
       <c r="H1578" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1579" spans="1:8" x14ac:dyDescent="0.4">
@@ -42095,7 +42106,7 @@
         <v>10</v>
       </c>
       <c r="H1585" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1586" spans="1:8" x14ac:dyDescent="0.4">
@@ -42199,7 +42210,7 @@
         <v>46</v>
       </c>
       <c r="H1589" s="7" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1590" spans="1:8" x14ac:dyDescent="0.4">
@@ -42225,7 +42236,7 @@
         <v>46</v>
       </c>
       <c r="H1590" s="7" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1591" spans="1:8" x14ac:dyDescent="0.4">
@@ -42433,7 +42444,7 @@
         <v>10</v>
       </c>
       <c r="H1598" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1599" spans="1:8" x14ac:dyDescent="0.4">
@@ -42771,7 +42782,7 @@
         <v>13</v>
       </c>
       <c r="H1611" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
     </row>
     <row r="1612" spans="1:8" x14ac:dyDescent="0.4">
@@ -42927,7 +42938,7 @@
         <v>13</v>
       </c>
       <c r="H1617" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
     </row>
     <row r="1618" spans="1:8" x14ac:dyDescent="0.4">
@@ -43213,7 +43224,7 @@
         <v>11</v>
       </c>
       <c r="H1628" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1629" spans="1:8" x14ac:dyDescent="0.4">
@@ -43629,7 +43640,7 @@
         <v>10</v>
       </c>
       <c r="H1644" s="7" t="s">
-        <v>90</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1645" spans="1:8" x14ac:dyDescent="0.4">
@@ -43837,7 +43848,7 @@
         <v>10</v>
       </c>
       <c r="H1652" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1653" spans="1:8" x14ac:dyDescent="0.4">
@@ -43941,7 +43952,7 @@
         <v>10</v>
       </c>
       <c r="H1656" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1657" spans="1:8" x14ac:dyDescent="0.4">
@@ -44019,7 +44030,7 @@
         <v>10</v>
       </c>
       <c r="H1659" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1660" spans="1:8" x14ac:dyDescent="0.4">
@@ -44227,7 +44238,7 @@
         <v>10</v>
       </c>
       <c r="H1667" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1668" spans="1:8" x14ac:dyDescent="0.4">
@@ -44256,8 +44267,346 @@
         <v>4</v>
       </c>
     </row>
+    <row r="1669" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1669">
+        <v>1667</v>
+      </c>
+      <c r="B1669" s="2">
+        <v>43955</v>
+      </c>
+      <c r="C1669">
+        <v>40</v>
+      </c>
+      <c r="D1669" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1669" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1669" s="1">
+        <v>43947</v>
+      </c>
+      <c r="G1669" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1669" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1670">
+        <v>1668</v>
+      </c>
+      <c r="B1670" s="2">
+        <v>43955</v>
+      </c>
+      <c r="C1670">
+        <v>30</v>
+      </c>
+      <c r="D1670" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1670" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1670" s="1">
+        <v>43947</v>
+      </c>
+      <c r="G1670" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1670" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1671">
+        <v>1669</v>
+      </c>
+      <c r="B1671" s="2">
+        <v>43955</v>
+      </c>
+      <c r="C1671">
+        <v>50</v>
+      </c>
+      <c r="D1671" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1671" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1671" s="1">
+        <v>43944</v>
+      </c>
+      <c r="G1671" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1671" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1672">
+        <v>1670</v>
+      </c>
+      <c r="B1672" s="2">
+        <v>43955</v>
+      </c>
+      <c r="C1672">
+        <v>40</v>
+      </c>
+      <c r="D1672" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1672" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1672" s="1">
+        <v>43951</v>
+      </c>
+      <c r="G1672" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1672" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1673">
+        <v>1671</v>
+      </c>
+      <c r="B1673" s="2">
+        <v>43955</v>
+      </c>
+      <c r="C1673">
+        <v>30</v>
+      </c>
+      <c r="D1673" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1673" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1673" s="1">
+        <v>43949</v>
+      </c>
+      <c r="G1673" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1673" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1674">
+        <v>1672</v>
+      </c>
+      <c r="B1674" s="2">
+        <v>43955</v>
+      </c>
+      <c r="C1674">
+        <v>90</v>
+      </c>
+      <c r="D1674" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1674" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1674" s="1">
+        <v>43950</v>
+      </c>
+      <c r="G1674" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1674" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1675">
+        <v>1673</v>
+      </c>
+      <c r="B1675" s="2">
+        <v>43955</v>
+      </c>
+      <c r="C1675">
+        <v>90</v>
+      </c>
+      <c r="D1675" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1675" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1675" s="1">
+        <v>43946</v>
+      </c>
+      <c r="G1675" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1675" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1676">
+        <v>1674</v>
+      </c>
+      <c r="B1676" s="2">
+        <v>43955</v>
+      </c>
+      <c r="C1676" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1676" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1676" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1676" s="1">
+        <v>43953</v>
+      </c>
+      <c r="G1676" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1676" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1677">
+        <v>1675</v>
+      </c>
+      <c r="B1677" s="2">
+        <v>43955</v>
+      </c>
+      <c r="C1677">
+        <v>90</v>
+      </c>
+      <c r="D1677" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1677" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1677" s="1">
+        <v>43952</v>
+      </c>
+      <c r="G1677" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1677" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1678">
+        <v>1676</v>
+      </c>
+      <c r="B1678" s="2">
+        <v>43955</v>
+      </c>
+      <c r="C1678">
+        <v>30</v>
+      </c>
+      <c r="D1678" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1678" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1678" s="1">
+        <v>43949</v>
+      </c>
+      <c r="G1678" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1678" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1679">
+        <v>1677</v>
+      </c>
+      <c r="B1679" s="2">
+        <v>43955</v>
+      </c>
+      <c r="C1679">
+        <v>60</v>
+      </c>
+      <c r="D1679" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1679" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1679" s="1">
+        <v>43951</v>
+      </c>
+      <c r="G1679" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1679" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1680">
+        <v>1678</v>
+      </c>
+      <c r="B1680" s="2">
+        <v>43955</v>
+      </c>
+      <c r="C1680">
+        <v>80</v>
+      </c>
+      <c r="D1680" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1680" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1680" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1680" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1680" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1681">
+        <v>1679</v>
+      </c>
+      <c r="B1681" s="2">
+        <v>43955</v>
+      </c>
+      <c r="C1681">
+        <v>20</v>
+      </c>
+      <c r="D1681" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1681" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1681" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1681" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1681" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:H1668"/>
+  <autoFilter ref="A2:H1681"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -44266,7 +44615,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K102"/>
+  <dimension ref="A1:K103"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -44277,7 +44626,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="3">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="B1" t="s">
         <v>60</v>
@@ -47782,26 +48131,61 @@
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A102" s="4" t="s">
+      <c r="A102" s="2">
+        <v>43955</v>
+      </c>
+      <c r="B102">
+        <v>521</v>
+      </c>
+      <c r="C102">
+        <v>13</v>
+      </c>
+      <c r="D102">
+        <v>1679</v>
+      </c>
+      <c r="E102">
+        <v>815</v>
+      </c>
+      <c r="F102">
+        <v>67</v>
+      </c>
+      <c r="G102">
+        <v>811</v>
+      </c>
+      <c r="H102">
+        <v>67</v>
+      </c>
+      <c r="I102">
+        <v>811</v>
+      </c>
+      <c r="J102">
+        <v>3</v>
+      </c>
+      <c r="K102">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A103" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B102">
-        <v>17840</v>
-      </c>
-      <c r="C102">
-        <v>1666</v>
-      </c>
-      <c r="F102">
-        <v>744</v>
-      </c>
-      <c r="H102">
-        <v>744</v>
-      </c>
-      <c r="J102">
-        <v>50</v>
-      </c>
-      <c r="K102">
-        <v>870</v>
+      <c r="B103">
+        <v>18361</v>
+      </c>
+      <c r="C103">
+        <v>1679</v>
+      </c>
+      <c r="F103">
+        <v>811</v>
+      </c>
+      <c r="H103">
+        <v>811</v>
+      </c>
+      <c r="J103">
+        <v>53</v>
+      </c>
+      <c r="K103">
+        <v>875</v>
       </c>
     </row>
   </sheetData>

--- a/data/patients_and_inspections.xlsx
+++ b/data/patients_and_inspections.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hasse\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.19.161.23\kansen_fol\03防疫L（移行済）\06　中国武漢市肺炎（新型コロナウイルス）\検査の状況(HP更新)\陽性者入院状況\コロナサイト\0508（0507のデータ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D61268D-7372-4614-BD0E-DA1F856CEB65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2010" yWindow="465" windowWidth="33000" windowHeight="19155"/>
   </bookViews>
   <sheets>
     <sheet name="【公開OK】ピポット集計" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="【公開OK】コロナサイト用（日付ベース）" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'【公開OK】府HP用(陽性者ベース)'!$A$2:$H$1700</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'【公開OK】府HP用(陽性者ベース)'!$A$2:$H$1708</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7192" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7225" uniqueCount="104">
   <si>
     <t>（1）入退院の状況</t>
   </si>
@@ -355,106 +354,36 @@
     <rPh sb="2" eb="3">
       <t>シ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="0"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>宿泊療養調整中</t>
-  </si>
-  <si>
-    <t>無症状</t>
-    <rPh sb="0" eb="3">
-      <t>ムショウジョウ</t>
-    </rPh>
-    <phoneticPr fontId="0"/>
   </si>
   <si>
     <t>藤井寺市</t>
     <rPh sb="0" eb="4">
       <t>フジイデラシ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>堺市</t>
     <rPh sb="0" eb="2">
       <t>サカイシ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>東大阪市</t>
     <rPh sb="0" eb="4">
       <t>ヒガシオオサカシ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>高槻市</t>
     <rPh sb="0" eb="3">
       <t>タカツキシ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>調査中</t>
-    <rPh sb="0" eb="3">
-      <t>チョウサチュウ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>大阪市</t>
-    <rPh sb="0" eb="3">
-      <t>オオサカシ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>豊中市</t>
-    <rPh sb="0" eb="3">
-      <t>トヨナカシ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>死亡</t>
-    <rPh sb="0" eb="2">
-      <t>シボウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>重症</t>
-    <rPh sb="0" eb="1">
-      <t>ジュウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>重症</t>
-    <rPh sb="0" eb="2">
-      <t>ジュウショウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>無症状</t>
-    <rPh sb="0" eb="3">
-      <t>ムショウジョウ</t>
     </rPh>
     <phoneticPr fontId="6"/>
   </si>
@@ -466,70 +395,38 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>調査中</t>
+    <t>大阪市</t>
     <rPh sb="0" eb="3">
-      <t>チョウサチュウ</t>
+      <t>オオサカシ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>死亡</t>
+    <t>豊中市</t>
+    <rPh sb="0" eb="3">
+      <t>トヨナカシ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>死亡退院</t>
     <rPh sb="0" eb="2">
       <t>シボウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
+    <rPh sb="2" eb="4">
+      <t>タイイン</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無症状</t>
-    <rPh sb="0" eb="3">
-      <t>ムショウジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>重症</t>
-    <rPh sb="0" eb="2">
-      <t>ジュウショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
-    <t>重症</t>
-    <rPh sb="0" eb="2">
-      <t>ジュウショウ</t>
-    </rPh>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
-    <t>調査中</t>
-    <rPh sb="0" eb="3">
-      <t>チョウサチュウ</t>
-    </rPh>
-    <phoneticPr fontId="0"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -577,14 +474,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
       <family val="2"/>
@@ -617,7 +506,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -666,10 +555,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -946,11 +838,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -973,7 +865,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>900</v>
+        <v>921</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -981,7 +873,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>403</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
@@ -989,7 +881,7 @@
         <v>92</v>
       </c>
       <c r="B6">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
@@ -997,7 +889,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
@@ -1005,7 +897,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1698</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
@@ -1026,7 +918,7 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <v>635</v>
+        <v>620</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
@@ -1034,7 +926,7 @@
         <v>11</v>
       </c>
       <c r="B14">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
@@ -1042,7 +934,7 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
@@ -1050,7 +942,7 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
@@ -1058,7 +950,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>900</v>
+        <v>921</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
@@ -1066,7 +958,7 @@
         <v>7</v>
       </c>
       <c r="B18">
-        <v>1698</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
@@ -1074,7 +966,7 @@
         <v>84</v>
       </c>
       <c r="B20">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
@@ -1082,7 +974,7 @@
         <v>85</v>
       </c>
       <c r="B21">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
@@ -1090,7 +982,7 @@
         <v>86</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1101,8 +993,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H1700"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H1708"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1115,7 +1007,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="3">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="B1" t="s">
         <v>60</v>
@@ -1583,10 +1475,10 @@
         <v>43878</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
@@ -2623,10 +2515,10 @@
         <v>43895</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="H59" s="13" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.4">
@@ -2857,10 +2749,10 @@
         <v>43896</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="H68" s="13" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.4">
@@ -3585,10 +3477,10 @@
         <v>43898</v>
       </c>
       <c r="G96" s="11" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="H96" s="13" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
@@ -3692,7 +3584,7 @@
         <v>13</v>
       </c>
       <c r="H100" s="13" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.4">
@@ -5018,7 +4910,7 @@
         <v>14</v>
       </c>
       <c r="H151" s="13" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.4">
@@ -5486,7 +5378,7 @@
         <v>10</v>
       </c>
       <c r="H169" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.4">
@@ -5509,10 +5401,10 @@
         <v>43911</v>
       </c>
       <c r="G170" s="11" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="H170" s="13" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.4">
@@ -6971,7 +6863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A227">
         <v>225</v>
       </c>
@@ -6994,7 +6886,7 @@
         <v>14</v>
       </c>
       <c r="H227" s="13" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.4">
@@ -7930,7 +7822,7 @@
         <v>14</v>
       </c>
       <c r="H263" s="13" t="s">
-        <v>5</v>
+        <v>87</v>
       </c>
     </row>
     <row r="264" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
@@ -7956,7 +7848,7 @@
         <v>14</v>
       </c>
       <c r="H264" s="13" t="s">
-        <v>5</v>
+        <v>95</v>
       </c>
     </row>
     <row r="265" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
@@ -8008,7 +7900,7 @@
         <v>14</v>
       </c>
       <c r="H266" s="13" t="s">
-        <v>5</v>
+        <v>95</v>
       </c>
     </row>
     <row r="267" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
@@ -8034,7 +7926,7 @@
         <v>14</v>
       </c>
       <c r="H267" s="13" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="268" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
@@ -8967,10 +8859,10 @@
         <v>43920</v>
       </c>
       <c r="G303" s="11" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="H303" s="13" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.4">
@@ -8993,10 +8885,10 @@
         <v>43922</v>
       </c>
       <c r="G304" s="11" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="H304" s="13" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.4">
@@ -9204,7 +9096,7 @@
         <v>10</v>
       </c>
       <c r="H312" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.4">
@@ -10579,10 +10471,10 @@
         <v>43924</v>
       </c>
       <c r="G365" s="12" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="H365" s="13" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.35">
@@ -10764,7 +10656,7 @@
         <v>10</v>
       </c>
       <c r="H372" s="14" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.35">
@@ -10969,7 +10861,7 @@
         <v>46</v>
       </c>
       <c r="G380" s="12" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="H380" s="14" t="s">
         <v>4</v>
@@ -11047,7 +10939,7 @@
         <v>43922</v>
       </c>
       <c r="G383" s="12" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="H383" s="14" t="s">
         <v>4</v>
@@ -11099,10 +10991,10 @@
         <v>43917</v>
       </c>
       <c r="G385" s="12" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="H385" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.35">
@@ -11515,10 +11407,10 @@
         <v>43918</v>
       </c>
       <c r="G401" s="12" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="H401" s="13" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.35">
@@ -11544,7 +11436,7 @@
         <v>10</v>
       </c>
       <c r="H402" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.35">
@@ -11567,10 +11459,10 @@
         <v>43919</v>
       </c>
       <c r="G403" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H403" s="14" t="s">
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="H403" s="13" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.35">
@@ -11827,7 +11719,7 @@
         <v>43918</v>
       </c>
       <c r="G413" s="12" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="H413" s="14" t="s">
         <v>4</v>
@@ -11931,7 +11823,7 @@
         <v>56</v>
       </c>
       <c r="G417" s="12" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="H417" s="14" t="s">
         <v>87</v>
@@ -11983,7 +11875,7 @@
         <v>43925</v>
       </c>
       <c r="G419" s="12" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="H419" s="14" t="s">
         <v>4</v>
@@ -12012,7 +11904,7 @@
         <v>10</v>
       </c>
       <c r="H420" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="421" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12061,7 +11953,7 @@
         <v>43922</v>
       </c>
       <c r="G422" s="12" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="H422" s="14" t="s">
         <v>4</v>
@@ -12295,7 +12187,7 @@
         <v>43921</v>
       </c>
       <c r="G431" s="12" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="H431" s="14" t="s">
         <v>4</v>
@@ -12376,7 +12268,7 @@
         <v>10</v>
       </c>
       <c r="H434" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="435" spans="1:8" x14ac:dyDescent="0.35">
@@ -12789,7 +12681,7 @@
         <v>43924</v>
       </c>
       <c r="G450" s="12" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="H450" s="14" t="s">
         <v>4</v>
@@ -13023,7 +12915,7 @@
         <v>56</v>
       </c>
       <c r="G459" s="12" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="H459" s="14" t="s">
         <v>87</v>
@@ -13156,7 +13048,7 @@
         <v>10</v>
       </c>
       <c r="H464" s="14" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
     </row>
     <row r="465" spans="1:8" x14ac:dyDescent="0.35">
@@ -13491,10 +13383,10 @@
         <v>43916</v>
       </c>
       <c r="G477" s="12" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="H477" s="13" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
     </row>
     <row r="478" spans="1:8" x14ac:dyDescent="0.35">
@@ -13517,7 +13409,7 @@
         <v>56</v>
       </c>
       <c r="G478" s="12" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="H478" s="14" t="s">
         <v>87</v>
@@ -13569,7 +13461,7 @@
         <v>43916</v>
       </c>
       <c r="G480" s="12" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="H480" s="14" t="s">
         <v>4</v>
@@ -13881,7 +13773,7 @@
         <v>56</v>
       </c>
       <c r="G492" s="12" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="H492" s="14" t="s">
         <v>87</v>
@@ -14066,7 +13958,7 @@
         <v>10</v>
       </c>
       <c r="H499" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="500" spans="1:8" x14ac:dyDescent="0.35">
@@ -14352,7 +14244,7 @@
         <v>10</v>
       </c>
       <c r="H510" s="14" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="511" spans="1:8" x14ac:dyDescent="0.35">
@@ -14505,7 +14397,7 @@
         <v>43923</v>
       </c>
       <c r="G516" s="12" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="H516" s="14" t="s">
         <v>3</v>
@@ -14765,7 +14657,7 @@
         <v>43922</v>
       </c>
       <c r="G526" s="12" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="H526" s="14" t="s">
         <v>4</v>
@@ -15077,7 +14969,7 @@
         <v>56</v>
       </c>
       <c r="G538" s="12" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="H538" s="14" t="s">
         <v>3</v>
@@ -15103,7 +14995,7 @@
         <v>43917</v>
       </c>
       <c r="G539" s="12" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="H539" s="14" t="s">
         <v>4</v>
@@ -15337,7 +15229,7 @@
         <v>43923</v>
       </c>
       <c r="G548" s="12" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="H548" s="14" t="s">
         <v>4</v>
@@ -15545,10 +15437,10 @@
         <v>43926</v>
       </c>
       <c r="G556" s="12" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="H556" s="13" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
     </row>
     <row r="557" spans="1:8" x14ac:dyDescent="0.35">
@@ -15883,7 +15775,7 @@
         <v>56</v>
       </c>
       <c r="G569" s="12" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="H569" s="14" t="s">
         <v>87</v>
@@ -16065,10 +15957,10 @@
         <v>43926</v>
       </c>
       <c r="G576" s="12" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="H576" s="13" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
     </row>
     <row r="577" spans="1:8" x14ac:dyDescent="0.35">
@@ -16273,7 +16165,7 @@
         <v>46</v>
       </c>
       <c r="G584" s="12" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="H584" s="14" t="s">
         <v>87</v>
@@ -16325,10 +16217,10 @@
         <v>43924</v>
       </c>
       <c r="G586" s="12" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="H586" s="13" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
     </row>
     <row r="587" spans="1:8" x14ac:dyDescent="0.35">
@@ -16429,7 +16321,7 @@
         <v>46</v>
       </c>
       <c r="G590" s="12" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="H590" s="14" t="s">
         <v>87</v>
@@ -16585,7 +16477,7 @@
         <v>46</v>
       </c>
       <c r="G596" s="12" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="H596" s="14" t="s">
         <v>87</v>
@@ -16611,7 +16503,7 @@
         <v>46</v>
       </c>
       <c r="G597" s="12" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="H597" s="14" t="s">
         <v>87</v>
@@ -16640,7 +16532,7 @@
         <v>10</v>
       </c>
       <c r="H598" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="599" spans="1:8" x14ac:dyDescent="0.35">
@@ -16741,7 +16633,7 @@
         <v>56</v>
       </c>
       <c r="G602" s="12" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="H602" s="14" t="s">
         <v>73</v>
@@ -16900,7 +16792,7 @@
         <v>10</v>
       </c>
       <c r="H608" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="609" spans="1:8" x14ac:dyDescent="0.35">
@@ -17391,10 +17283,10 @@
         <v>43925</v>
       </c>
       <c r="G627" s="12" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="H627" s="13" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
     </row>
     <row r="628" spans="1:8" x14ac:dyDescent="0.35">
@@ -17573,7 +17465,7 @@
         <v>56</v>
       </c>
       <c r="G634" s="12" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="H634" s="14" t="s">
         <v>87</v>
@@ -17599,7 +17491,7 @@
         <v>56</v>
       </c>
       <c r="G635" s="12" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="H635" s="14" t="s">
         <v>87</v>
@@ -17625,7 +17517,7 @@
         <v>56</v>
       </c>
       <c r="G636" s="12" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="H636" s="14" t="s">
         <v>87</v>
@@ -17833,10 +17725,10 @@
         <v>43927</v>
       </c>
       <c r="G644" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H644" s="14" t="s">
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="H644" s="13" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="645" spans="1:8" x14ac:dyDescent="0.35">
@@ -17859,10 +17751,10 @@
         <v>43926</v>
       </c>
       <c r="G645" s="12" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="H645" s="13" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
     </row>
     <row r="646" spans="1:8" x14ac:dyDescent="0.35">
@@ -17885,7 +17777,7 @@
         <v>43928</v>
       </c>
       <c r="G646" s="12" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="H646" s="14" t="s">
         <v>4</v>
@@ -17937,7 +17829,7 @@
         <v>43925</v>
       </c>
       <c r="G648" s="12" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="H648" s="14" t="s">
         <v>4</v>
@@ -18145,10 +18037,10 @@
         <v>43926</v>
       </c>
       <c r="G656" s="12" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="H656" s="13" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
     </row>
     <row r="657" spans="1:8" x14ac:dyDescent="0.35">
@@ -18769,7 +18661,7 @@
         <v>43930</v>
       </c>
       <c r="G680" s="12" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="H680" s="14" t="s">
         <v>4</v>
@@ -18951,7 +18843,7 @@
         <v>46</v>
       </c>
       <c r="G687" s="12" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="H687" s="14" t="s">
         <v>4</v>
@@ -18977,7 +18869,7 @@
         <v>46</v>
       </c>
       <c r="G688" s="12" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="H688" s="14" t="s">
         <v>89</v>
@@ -19003,7 +18895,7 @@
         <v>46</v>
       </c>
       <c r="G689" s="12" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="H689" s="14" t="s">
         <v>3</v>
@@ -19055,7 +18947,7 @@
         <v>46</v>
       </c>
       <c r="G691" s="12" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="H691" s="14" t="s">
         <v>87</v>
@@ -19081,7 +18973,7 @@
         <v>46</v>
       </c>
       <c r="G692" s="12" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="H692" s="14" t="s">
         <v>87</v>
@@ -19107,7 +18999,7 @@
         <v>46</v>
       </c>
       <c r="G693" s="12" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="H693" s="14" t="s">
         <v>73</v>
@@ -19133,7 +19025,7 @@
         <v>46</v>
       </c>
       <c r="G694" s="12" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="H694" s="14" t="s">
         <v>3</v>
@@ -19159,7 +19051,7 @@
         <v>46</v>
       </c>
       <c r="G695" s="12" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="H695" s="14" t="s">
         <v>4</v>
@@ -19185,7 +19077,7 @@
         <v>46</v>
       </c>
       <c r="G696" s="12" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="H696" s="14" t="s">
         <v>4</v>
@@ -19471,10 +19363,10 @@
         <v>46</v>
       </c>
       <c r="G707" s="12" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="H707" s="13" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
     </row>
     <row r="708" spans="1:8" x14ac:dyDescent="0.35">
@@ -19497,7 +19389,7 @@
         <v>43926</v>
       </c>
       <c r="G708" s="12" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="H708" s="14" t="s">
         <v>4</v>
@@ -20563,10 +20455,10 @@
         <v>43930</v>
       </c>
       <c r="G749" s="12" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="H749" s="13" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
     </row>
     <row r="750" spans="1:8" x14ac:dyDescent="0.35">
@@ -20667,10 +20559,10 @@
         <v>43926</v>
       </c>
       <c r="G753" s="12" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="H753" s="13" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
     </row>
     <row r="754" spans="1:8" x14ac:dyDescent="0.35">
@@ -20956,7 +20848,7 @@
         <v>10</v>
       </c>
       <c r="H764" s="14" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="765" spans="1:8" x14ac:dyDescent="0.35">
@@ -21265,7 +21157,7 @@
         <v>56</v>
       </c>
       <c r="G776" s="12" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="H776" s="14" t="s">
         <v>87</v>
@@ -21499,7 +21391,7 @@
         <v>43925</v>
       </c>
       <c r="G785" s="12" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="H785" s="14" t="s">
         <v>4</v>
@@ -21944,7 +21836,7 @@
         <v>10</v>
       </c>
       <c r="H802" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="803" spans="1:8" x14ac:dyDescent="0.35">
@@ -22123,7 +22015,7 @@
         <v>43922</v>
       </c>
       <c r="G809" s="12" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="H809" s="14" t="s">
         <v>4</v>
@@ -22617,7 +22509,7 @@
         <v>43925</v>
       </c>
       <c r="G828" s="12" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="H828" s="14" t="s">
         <v>3</v>
@@ -22724,7 +22616,7 @@
         <v>10</v>
       </c>
       <c r="H832" s="14" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="833" spans="1:8" x14ac:dyDescent="0.35">
@@ -22799,7 +22691,7 @@
         <v>43924</v>
       </c>
       <c r="G835" s="12" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="H835" s="14" t="s">
         <v>4</v>
@@ -23085,7 +22977,7 @@
         <v>43921</v>
       </c>
       <c r="G846" s="12" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="H846" s="14" t="s">
         <v>4</v>
@@ -23218,7 +23110,7 @@
         <v>10</v>
       </c>
       <c r="H851" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="852" spans="1:8" x14ac:dyDescent="0.35">
@@ -23319,10 +23211,10 @@
         <v>43933</v>
       </c>
       <c r="G855" s="12" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="H855" s="13" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
     </row>
     <row r="856" spans="1:8" x14ac:dyDescent="0.35">
@@ -23527,7 +23419,7 @@
         <v>46</v>
       </c>
       <c r="G863" s="12" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="H863" s="14" t="s">
         <v>4</v>
@@ -23553,7 +23445,7 @@
         <v>46</v>
       </c>
       <c r="G864" s="12" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="H864" s="14" t="s">
         <v>87</v>
@@ -23738,7 +23630,7 @@
         <v>10</v>
       </c>
       <c r="H871" s="14" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="872" spans="1:8" x14ac:dyDescent="0.35">
@@ -23865,10 +23757,10 @@
         <v>43931</v>
       </c>
       <c r="G876" s="12" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="H876" s="13" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
     </row>
     <row r="877" spans="1:8" x14ac:dyDescent="0.35">
@@ -23943,7 +23835,7 @@
         <v>76</v>
       </c>
       <c r="G879" s="12" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="H879" s="14" t="s">
         <v>3</v>
@@ -24177,7 +24069,7 @@
         <v>56</v>
       </c>
       <c r="G888" s="12" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="H888" s="14" t="s">
         <v>87</v>
@@ -24203,10 +24095,10 @@
         <v>46</v>
       </c>
       <c r="G889" s="12" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="H889" s="13" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
     </row>
     <row r="890" spans="1:8" x14ac:dyDescent="0.35">
@@ -24284,7 +24176,7 @@
         <v>10</v>
       </c>
       <c r="H892" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="893" spans="1:8" x14ac:dyDescent="0.35">
@@ -24385,7 +24277,7 @@
         <v>56</v>
       </c>
       <c r="G896" s="12" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="H896" s="14" t="s">
         <v>73</v>
@@ -24411,7 +24303,7 @@
         <v>43926</v>
       </c>
       <c r="G897" s="12" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="H897" s="14" t="s">
         <v>4</v>
@@ -24463,10 +24355,10 @@
         <v>43929</v>
       </c>
       <c r="G899" s="12" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="H899" s="13" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
     </row>
     <row r="900" spans="1:8" x14ac:dyDescent="0.35">
@@ -24671,10 +24563,10 @@
         <v>43932</v>
       </c>
       <c r="G907" s="12" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="H907" s="13" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
     </row>
     <row r="908" spans="1:8" x14ac:dyDescent="0.35">
@@ -25139,7 +25031,7 @@
         <v>46</v>
       </c>
       <c r="G925" s="12" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="H925" s="14" t="s">
         <v>4</v>
@@ -25373,7 +25265,7 @@
         <v>43927</v>
       </c>
       <c r="G934" s="12" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="H934" s="14" t="s">
         <v>4</v>
@@ -25506,7 +25398,7 @@
         <v>10</v>
       </c>
       <c r="H939" s="14" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="940" spans="1:8" x14ac:dyDescent="0.35">
@@ -25532,7 +25424,7 @@
         <v>10</v>
       </c>
       <c r="H940" s="14" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="941" spans="1:8" x14ac:dyDescent="0.35">
@@ -25555,7 +25447,7 @@
         <v>46</v>
       </c>
       <c r="G941" s="12" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="H941" s="14" t="s">
         <v>87</v>
@@ -25607,7 +25499,7 @@
         <v>56</v>
       </c>
       <c r="G943" s="12" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="H943" s="14" t="s">
         <v>87</v>
@@ -25633,7 +25525,7 @@
         <v>43927</v>
       </c>
       <c r="G944" s="12" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="H944" s="14" t="s">
         <v>4</v>
@@ -25867,7 +25759,7 @@
         <v>56</v>
       </c>
       <c r="G953" s="12" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="H953" s="14" t="s">
         <v>87</v>
@@ -25919,7 +25811,7 @@
         <v>56</v>
       </c>
       <c r="G955" s="12" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="H955" s="14" t="s">
         <v>4</v>
@@ -26023,7 +25915,7 @@
         <v>43931</v>
       </c>
       <c r="G959" s="12" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="H959" s="14" t="s">
         <v>4</v>
@@ -26104,7 +25996,7 @@
         <v>10</v>
       </c>
       <c r="H962" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="963" spans="1:8" x14ac:dyDescent="0.35">
@@ -26517,7 +26409,7 @@
         <v>43928</v>
       </c>
       <c r="G978" s="12" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="H978" s="14" t="s">
         <v>5</v>
@@ -26806,7 +26698,7 @@
         <v>10</v>
       </c>
       <c r="H989" s="14" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="990" spans="1:8" x14ac:dyDescent="0.35">
@@ -26855,7 +26747,7 @@
         <v>46</v>
       </c>
       <c r="G991" s="12" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="H991" s="14" t="s">
         <v>4</v>
@@ -26881,10 +26773,10 @@
         <v>43936</v>
       </c>
       <c r="G992" s="12" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="H992" s="13" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
     </row>
     <row r="993" spans="1:8" x14ac:dyDescent="0.35">
@@ -27326,7 +27218,7 @@
         <v>10</v>
       </c>
       <c r="H1009" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1010" spans="1:8" x14ac:dyDescent="0.35">
@@ -27482,7 +27374,7 @@
         <v>10</v>
       </c>
       <c r="H1015" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1016" spans="1:8" x14ac:dyDescent="0.35">
@@ -27739,7 +27631,7 @@
         <v>56</v>
       </c>
       <c r="G1025" s="12" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="H1025" s="14" t="s">
         <v>87</v>
@@ -27791,7 +27683,7 @@
         <v>56</v>
       </c>
       <c r="G1027" s="12" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="H1027" s="14" t="s">
         <v>5</v>
@@ -27817,10 +27709,10 @@
         <v>43920</v>
       </c>
       <c r="G1028" s="12" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="H1028" s="13" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
     </row>
     <row r="1029" spans="1:8" x14ac:dyDescent="0.35">
@@ -27843,7 +27735,7 @@
         <v>56</v>
       </c>
       <c r="G1029" s="12" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="H1029" s="14" t="s">
         <v>87</v>
@@ -28077,10 +27969,10 @@
         <v>43927</v>
       </c>
       <c r="G1038" s="12" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="H1038" s="13" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
     </row>
     <row r="1039" spans="1:8" x14ac:dyDescent="0.35">
@@ -28158,7 +28050,7 @@
         <v>10</v>
       </c>
       <c r="H1041" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1042" spans="1:8" x14ac:dyDescent="0.35">
@@ -28753,7 +28645,7 @@
         <v>43933</v>
       </c>
       <c r="G1064" s="12" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="H1064" s="14" t="s">
         <v>4</v>
@@ -29039,7 +28931,7 @@
         <v>43929</v>
       </c>
       <c r="G1075" s="12" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="H1075" s="14" t="s">
         <v>4</v>
@@ -29224,7 +29116,7 @@
         <v>10</v>
       </c>
       <c r="H1082" s="14" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1083" spans="1:8" x14ac:dyDescent="0.35">
@@ -29273,7 +29165,7 @@
         <v>43937</v>
       </c>
       <c r="G1084" s="12" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="H1084" s="14" t="s">
         <v>4</v>
@@ -29614,7 +29506,7 @@
         <v>10</v>
       </c>
       <c r="H1097" s="14" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1098" spans="1:8" x14ac:dyDescent="0.35">
@@ -29715,7 +29607,7 @@
         <v>43927</v>
       </c>
       <c r="G1101" s="12" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="H1101" s="14" t="s">
         <v>4</v>
@@ -30108,7 +30000,7 @@
         <v>10</v>
       </c>
       <c r="H1116" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1117" spans="1:8" x14ac:dyDescent="0.35">
@@ -30183,7 +30075,7 @@
         <v>43934</v>
       </c>
       <c r="G1119" s="12" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="H1119" s="14" t="s">
         <v>4</v>
@@ -30339,7 +30231,7 @@
         <v>46</v>
       </c>
       <c r="G1125" s="12" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="H1125" s="14" t="s">
         <v>4</v>
@@ -30365,10 +30257,10 @@
         <v>46</v>
       </c>
       <c r="G1126" s="12" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="H1126" s="13" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
     </row>
     <row r="1127" spans="1:8" x14ac:dyDescent="0.35">
@@ -30391,7 +30283,7 @@
         <v>46</v>
       </c>
       <c r="G1127" s="12" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="H1127" s="14" t="s">
         <v>4</v>
@@ -30417,7 +30309,7 @@
         <v>46</v>
       </c>
       <c r="G1128" s="12" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="H1128" s="14" t="s">
         <v>4</v>
@@ -30443,7 +30335,7 @@
         <v>46</v>
       </c>
       <c r="G1129" s="12" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="H1129" s="14" t="s">
         <v>4</v>
@@ -30469,7 +30361,7 @@
         <v>46</v>
       </c>
       <c r="G1130" s="12" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="H1130" s="14" t="s">
         <v>4</v>
@@ -30495,7 +30387,7 @@
         <v>46</v>
       </c>
       <c r="G1131" s="12" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="H1131" s="14" t="s">
         <v>4</v>
@@ -30521,7 +30413,7 @@
         <v>46</v>
       </c>
       <c r="G1132" s="12" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="H1132" s="14" t="s">
         <v>4</v>
@@ -30547,7 +30439,7 @@
         <v>46</v>
       </c>
       <c r="G1133" s="12" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="H1133" s="14" t="s">
         <v>4</v>
@@ -30573,7 +30465,7 @@
         <v>46</v>
       </c>
       <c r="G1134" s="12" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="H1134" s="14" t="s">
         <v>4</v>
@@ -30602,7 +30494,7 @@
         <v>13</v>
       </c>
       <c r="H1135" s="13" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
     </row>
     <row r="1136" spans="1:8" x14ac:dyDescent="0.35">
@@ -30625,7 +30517,7 @@
         <v>46</v>
       </c>
       <c r="G1136" s="12" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="H1136" s="14" t="s">
         <v>4</v>
@@ -30651,7 +30543,7 @@
         <v>46</v>
       </c>
       <c r="G1137" s="12" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="H1137" s="14" t="s">
         <v>4</v>
@@ -30677,7 +30569,7 @@
         <v>46</v>
       </c>
       <c r="G1138" s="12" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="H1138" s="14" t="s">
         <v>4</v>
@@ -30703,7 +30595,7 @@
         <v>46</v>
       </c>
       <c r="G1139" s="12" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="H1139" s="14" t="s">
         <v>4</v>
@@ -30729,7 +30621,7 @@
         <v>46</v>
       </c>
       <c r="G1140" s="12" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="H1140" s="14" t="s">
         <v>4</v>
@@ -30755,7 +30647,7 @@
         <v>46</v>
       </c>
       <c r="G1141" s="12" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="H1141" s="14" t="s">
         <v>4</v>
@@ -30781,10 +30673,10 @@
         <v>46</v>
       </c>
       <c r="G1142" s="12" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="H1142" s="13" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
     </row>
     <row r="1143" spans="1:8" x14ac:dyDescent="0.35">
@@ -30807,7 +30699,7 @@
         <v>46</v>
       </c>
       <c r="G1143" s="12" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="H1143" s="14" t="s">
         <v>4</v>
@@ -30833,7 +30725,7 @@
         <v>46</v>
       </c>
       <c r="G1144" s="12" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="H1144" s="14" t="s">
         <v>4</v>
@@ -30859,7 +30751,7 @@
         <v>46</v>
       </c>
       <c r="G1145" s="12" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="H1145" s="14" t="s">
         <v>4</v>
@@ -30885,10 +30777,10 @@
         <v>46</v>
       </c>
       <c r="G1146" s="12" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="H1146" s="13" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
     </row>
     <row r="1147" spans="1:8" x14ac:dyDescent="0.35">
@@ -30911,7 +30803,7 @@
         <v>46</v>
       </c>
       <c r="G1147" s="12" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="H1147" s="14" t="s">
         <v>4</v>
@@ -30937,7 +30829,7 @@
         <v>46</v>
       </c>
       <c r="G1148" s="12" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="H1148" s="14" t="s">
         <v>4</v>
@@ -30963,7 +30855,7 @@
         <v>46</v>
       </c>
       <c r="G1149" s="12" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="H1149" s="14" t="s">
         <v>4</v>
@@ -30989,10 +30881,10 @@
         <v>46</v>
       </c>
       <c r="G1150" s="12" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="H1150" s="13" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
     </row>
     <row r="1151" spans="1:8" x14ac:dyDescent="0.35">
@@ -31015,7 +30907,7 @@
         <v>46</v>
       </c>
       <c r="G1151" s="12" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="H1151" s="14" t="s">
         <v>4</v>
@@ -31041,7 +30933,7 @@
         <v>46</v>
       </c>
       <c r="G1152" s="12" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="H1152" s="14" t="s">
         <v>4</v>
@@ -31067,7 +30959,7 @@
         <v>46</v>
       </c>
       <c r="G1153" s="12" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="H1153" s="14" t="s">
         <v>4</v>
@@ -31093,7 +30985,7 @@
         <v>46</v>
       </c>
       <c r="G1154" s="12" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="H1154" s="14" t="s">
         <v>75</v>
@@ -31119,7 +31011,7 @@
         <v>46</v>
       </c>
       <c r="G1155" s="12" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="H1155" s="14" t="s">
         <v>87</v>
@@ -31145,10 +31037,10 @@
         <v>46</v>
       </c>
       <c r="G1156" s="12" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="H1156" s="14" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1157" spans="1:8" x14ac:dyDescent="0.35">
@@ -31171,7 +31063,7 @@
         <v>46</v>
       </c>
       <c r="G1157" s="12" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="H1157" s="14" t="s">
         <v>4</v>
@@ -31197,7 +31089,7 @@
         <v>46</v>
       </c>
       <c r="G1158" s="12" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="H1158" s="14" t="s">
         <v>4</v>
@@ -31223,7 +31115,7 @@
         <v>46</v>
       </c>
       <c r="G1159" s="12" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="H1159" s="14" t="s">
         <v>87</v>
@@ -31252,7 +31144,7 @@
         <v>13</v>
       </c>
       <c r="H1160" s="13" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
     </row>
     <row r="1161" spans="1:8" x14ac:dyDescent="0.35">
@@ -31275,7 +31167,7 @@
         <v>46</v>
       </c>
       <c r="G1161" s="12" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="H1161" s="14" t="s">
         <v>4</v>
@@ -31301,7 +31193,7 @@
         <v>46</v>
       </c>
       <c r="G1162" s="12" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="H1162" s="14" t="s">
         <v>4</v>
@@ -31327,7 +31219,7 @@
         <v>46</v>
       </c>
       <c r="G1163" s="12" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="H1163" s="14" t="s">
         <v>4</v>
@@ -31353,7 +31245,7 @@
         <v>46</v>
       </c>
       <c r="G1164" s="12" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="H1164" s="14" t="s">
         <v>4</v>
@@ -31379,7 +31271,7 @@
         <v>46</v>
       </c>
       <c r="G1165" s="12" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="H1165" s="14" t="s">
         <v>4</v>
@@ -31405,7 +31297,7 @@
         <v>43938</v>
       </c>
       <c r="G1166" s="12" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="H1166" s="14" t="s">
         <v>4</v>
@@ -31535,10 +31427,10 @@
         <v>43923</v>
       </c>
       <c r="G1171" s="12" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="H1171" s="13" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
     </row>
     <row r="1172" spans="1:8" x14ac:dyDescent="0.35">
@@ -31561,7 +31453,7 @@
         <v>43937</v>
       </c>
       <c r="G1172" s="12" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="H1172" s="14" t="s">
         <v>4</v>
@@ -31639,7 +31531,7 @@
         <v>43937</v>
       </c>
       <c r="G1175" s="12" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="H1175" s="14" t="s">
         <v>4</v>
@@ -31691,10 +31583,10 @@
         <v>46</v>
       </c>
       <c r="G1177" s="12" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="H1177" s="13" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
     </row>
     <row r="1178" spans="1:8" x14ac:dyDescent="0.35">
@@ -31769,7 +31661,7 @@
         <v>43936</v>
       </c>
       <c r="G1180" s="12" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="H1180" s="14" t="s">
         <v>75</v>
@@ -31873,10 +31765,10 @@
         <v>43938</v>
       </c>
       <c r="G1184" s="12" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="H1184" s="14" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1185" spans="1:8" x14ac:dyDescent="0.35">
@@ -31954,7 +31846,7 @@
         <v>10</v>
       </c>
       <c r="H1187" s="14" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1188" spans="1:8" x14ac:dyDescent="0.35">
@@ -31977,7 +31869,7 @@
         <v>46</v>
       </c>
       <c r="G1188" s="12" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="H1188" s="14" t="s">
         <v>87</v>
@@ -32003,7 +31895,7 @@
         <v>46</v>
       </c>
       <c r="G1189" s="12" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="H1189" s="14" t="s">
         <v>87</v>
@@ -32029,7 +31921,7 @@
         <v>46</v>
       </c>
       <c r="G1190" s="12" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="H1190" s="14" t="s">
         <v>87</v>
@@ -32055,7 +31947,7 @@
         <v>46</v>
       </c>
       <c r="G1191" s="12" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="H1191" s="14" t="s">
         <v>75</v>
@@ -32081,7 +31973,7 @@
         <v>46</v>
       </c>
       <c r="G1192" s="12" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="H1192" s="14" t="s">
         <v>87</v>
@@ -32110,7 +32002,7 @@
         <v>10</v>
       </c>
       <c r="H1193" s="14" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1194" spans="1:8" x14ac:dyDescent="0.35">
@@ -32133,10 +32025,10 @@
         <v>46</v>
       </c>
       <c r="G1194" s="12" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="H1194" s="14" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1195" spans="1:8" x14ac:dyDescent="0.35">
@@ -32159,7 +32051,7 @@
         <v>46</v>
       </c>
       <c r="G1195" s="12" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="H1195" s="14" t="s">
         <v>75</v>
@@ -32185,10 +32077,10 @@
         <v>46</v>
       </c>
       <c r="G1196" s="12" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="H1196" s="14" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1197" spans="1:8" x14ac:dyDescent="0.35">
@@ -32211,7 +32103,7 @@
         <v>46</v>
       </c>
       <c r="G1197" s="12" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="H1197" s="14" t="s">
         <v>87</v>
@@ -32237,7 +32129,7 @@
         <v>46</v>
       </c>
       <c r="G1198" s="12" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="H1198" s="14" t="s">
         <v>4</v>
@@ -32263,7 +32155,7 @@
         <v>46</v>
       </c>
       <c r="G1199" s="12" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="H1199" s="14" t="s">
         <v>75</v>
@@ -32289,7 +32181,7 @@
         <v>46</v>
       </c>
       <c r="G1200" s="12" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="H1200" s="14" t="s">
         <v>4</v>
@@ -32315,7 +32207,7 @@
         <v>46</v>
       </c>
       <c r="G1201" s="12" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="H1201" s="14" t="s">
         <v>4</v>
@@ -32549,7 +32441,7 @@
         <v>43929</v>
       </c>
       <c r="G1210" s="12" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="H1210" s="14" t="s">
         <v>4</v>
@@ -32601,10 +32493,10 @@
         <v>43931</v>
       </c>
       <c r="G1212" s="12" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="H1212" s="13" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
     </row>
     <row r="1213" spans="1:8" x14ac:dyDescent="0.35">
@@ -32627,7 +32519,7 @@
         <v>43929</v>
       </c>
       <c r="G1213" s="12" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="H1213" s="14" t="s">
         <v>73</v>
@@ -32653,7 +32545,7 @@
         <v>46</v>
       </c>
       <c r="G1214" s="12" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="H1214" s="14" t="s">
         <v>4</v>
@@ -32679,7 +32571,7 @@
         <v>46</v>
       </c>
       <c r="G1215" s="12" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="H1215" s="14" t="s">
         <v>4</v>
@@ -32705,7 +32597,7 @@
         <v>46</v>
       </c>
       <c r="G1216" s="12" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="H1216" s="14" t="s">
         <v>4</v>
@@ -32731,7 +32623,7 @@
         <v>46</v>
       </c>
       <c r="G1217" s="12" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="H1217" s="14" t="s">
         <v>4</v>
@@ -32757,10 +32649,10 @@
         <v>46</v>
       </c>
       <c r="G1218" s="12" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="H1218" s="13" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
     </row>
     <row r="1219" spans="1:8" x14ac:dyDescent="0.35">
@@ -32783,7 +32675,7 @@
         <v>46</v>
       </c>
       <c r="G1219" s="12" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="H1219" s="14" t="s">
         <v>4</v>
@@ -32809,7 +32701,7 @@
         <v>46</v>
       </c>
       <c r="G1220" s="12" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="H1220" s="14" t="s">
         <v>5</v>
@@ -32835,7 +32727,7 @@
         <v>46</v>
       </c>
       <c r="G1221" s="12" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="H1221" s="14" t="s">
         <v>5</v>
@@ -32861,7 +32753,7 @@
         <v>46</v>
       </c>
       <c r="G1222" s="12" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="H1222" s="14" t="s">
         <v>4</v>
@@ -32887,7 +32779,7 @@
         <v>46</v>
       </c>
       <c r="G1223" s="12" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="H1223" s="14" t="s">
         <v>4</v>
@@ -32913,7 +32805,7 @@
         <v>46</v>
       </c>
       <c r="G1224" s="12" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="H1224" s="14" t="s">
         <v>4</v>
@@ -32939,7 +32831,7 @@
         <v>46</v>
       </c>
       <c r="G1225" s="12" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="H1225" s="14" t="s">
         <v>4</v>
@@ -32965,10 +32857,10 @@
         <v>46</v>
       </c>
       <c r="G1226" s="12" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="H1226" s="14" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1227" spans="1:8" x14ac:dyDescent="0.35">
@@ -32991,7 +32883,7 @@
         <v>46</v>
       </c>
       <c r="G1227" s="12" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="H1227" s="14" t="s">
         <v>75</v>
@@ -33017,7 +32909,7 @@
         <v>46</v>
       </c>
       <c r="G1228" s="12" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="H1228" s="14" t="s">
         <v>75</v>
@@ -33043,10 +32935,10 @@
         <v>46</v>
       </c>
       <c r="G1229" s="12" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="H1229" s="14" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1230" spans="1:8" x14ac:dyDescent="0.35">
@@ -33069,10 +32961,10 @@
         <v>46</v>
       </c>
       <c r="G1230" s="12" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="H1230" s="14" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1231" spans="1:8" x14ac:dyDescent="0.35">
@@ -33095,7 +32987,7 @@
         <v>46</v>
       </c>
       <c r="G1231" s="12" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="H1231" s="14" t="s">
         <v>87</v>
@@ -33121,10 +33013,10 @@
         <v>46</v>
       </c>
       <c r="G1232" s="12" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="H1232" s="14" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1233" spans="1:8" x14ac:dyDescent="0.35">
@@ -33147,10 +33039,10 @@
         <v>46</v>
       </c>
       <c r="G1233" s="12" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="H1233" s="14" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1234" spans="1:8" x14ac:dyDescent="0.35">
@@ -33173,7 +33065,7 @@
         <v>46</v>
       </c>
       <c r="G1234" s="12" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="H1234" s="14" t="s">
         <v>75</v>
@@ -33199,10 +33091,10 @@
         <v>46</v>
       </c>
       <c r="G1235" s="12" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="H1235" s="14" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1236" spans="1:8" x14ac:dyDescent="0.35">
@@ -33225,7 +33117,7 @@
         <v>46</v>
       </c>
       <c r="G1236" s="12" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="H1236" s="14" t="s">
         <v>87</v>
@@ -33251,7 +33143,7 @@
         <v>46</v>
       </c>
       <c r="G1237" s="12" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="H1237" s="14" t="s">
         <v>75</v>
@@ -33277,7 +33169,7 @@
         <v>46</v>
       </c>
       <c r="G1238" s="12" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="H1238" s="14" t="s">
         <v>87</v>
@@ -33303,7 +33195,7 @@
         <v>46</v>
       </c>
       <c r="G1239" s="12" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="H1239" s="14" t="s">
         <v>75</v>
@@ -33329,10 +33221,10 @@
         <v>46</v>
       </c>
       <c r="G1240" s="12" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="H1240" s="14" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1241" spans="1:8" x14ac:dyDescent="0.35">
@@ -33355,7 +33247,7 @@
         <v>46</v>
       </c>
       <c r="G1241" s="12" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="H1241" s="14" t="s">
         <v>75</v>
@@ -33381,10 +33273,10 @@
         <v>46</v>
       </c>
       <c r="G1242" s="12" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="H1242" s="14" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1243" spans="1:8" x14ac:dyDescent="0.35">
@@ -33407,7 +33299,7 @@
         <v>46</v>
       </c>
       <c r="G1243" s="12" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="H1243" s="14" t="s">
         <v>4</v>
@@ -33433,7 +33325,7 @@
         <v>46</v>
       </c>
       <c r="G1244" s="12" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="H1244" s="14" t="s">
         <v>73</v>
@@ -33459,7 +33351,7 @@
         <v>46</v>
       </c>
       <c r="G1245" s="12" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="H1245" s="14" t="s">
         <v>4</v>
@@ -33485,7 +33377,7 @@
         <v>46</v>
       </c>
       <c r="G1246" s="12" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="H1246" s="14" t="s">
         <v>4</v>
@@ -33511,7 +33403,7 @@
         <v>46</v>
       </c>
       <c r="G1247" s="12" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="H1247" s="14" t="s">
         <v>75</v>
@@ -33537,10 +33429,10 @@
         <v>46</v>
       </c>
       <c r="G1248" s="12" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="H1248" s="14" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="1249" spans="1:8" x14ac:dyDescent="0.35">
@@ -33563,10 +33455,10 @@
         <v>46</v>
       </c>
       <c r="G1249" s="12" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="H1249" s="14" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1250" spans="1:8" x14ac:dyDescent="0.35">
@@ -33589,7 +33481,7 @@
         <v>46</v>
       </c>
       <c r="G1250" s="12" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="H1250" s="14" t="s">
         <v>73</v>
@@ -33615,10 +33507,10 @@
         <v>46</v>
       </c>
       <c r="G1251" s="12" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="H1251" s="14" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1252" spans="1:8" x14ac:dyDescent="0.35">
@@ -33641,7 +33533,7 @@
         <v>46</v>
       </c>
       <c r="G1252" s="12" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="H1252" s="14" t="s">
         <v>73</v>
@@ -33667,10 +33559,10 @@
         <v>46</v>
       </c>
       <c r="G1253" s="12" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="H1253" s="14" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1254" spans="1:8" x14ac:dyDescent="0.35">
@@ -33693,7 +33585,7 @@
         <v>46</v>
       </c>
       <c r="G1254" s="12" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="H1254" s="14" t="s">
         <v>4</v>
@@ -33719,7 +33611,7 @@
         <v>43937</v>
       </c>
       <c r="G1255" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1255" s="14" t="s">
         <v>75</v>
@@ -33745,7 +33637,7 @@
         <v>82</v>
       </c>
       <c r="G1256" s="12" t="s">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="H1256" s="14" t="s">
         <v>75</v>
@@ -33771,7 +33663,7 @@
         <v>43936</v>
       </c>
       <c r="G1257" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1257" s="14" t="s">
         <v>75</v>
@@ -33797,7 +33689,7 @@
         <v>43933</v>
       </c>
       <c r="G1258" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1258" s="14" t="s">
         <v>3</v>
@@ -33823,7 +33715,7 @@
         <v>82</v>
       </c>
       <c r="G1259" s="12" t="s">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="H1259" s="14" t="s">
         <v>75</v>
@@ -33849,7 +33741,7 @@
         <v>43939</v>
       </c>
       <c r="G1260" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1260" s="14" t="s">
         <v>4</v>
@@ -33875,7 +33767,7 @@
         <v>43939</v>
       </c>
       <c r="G1261" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1261" s="14" t="s">
         <v>75</v>
@@ -33901,7 +33793,7 @@
         <v>43938</v>
       </c>
       <c r="G1262" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1262" s="14" t="s">
         <v>75</v>
@@ -33927,7 +33819,7 @@
         <v>43936</v>
       </c>
       <c r="G1263" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1263" s="14" t="s">
         <v>73</v>
@@ -33953,7 +33845,7 @@
         <v>43939</v>
       </c>
       <c r="G1264" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1264" s="14" t="s">
         <v>4</v>
@@ -33979,7 +33871,7 @@
         <v>43935</v>
       </c>
       <c r="G1265" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1265" s="14" t="s">
         <v>4</v>
@@ -34005,7 +33897,7 @@
         <v>43932</v>
       </c>
       <c r="G1266" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1266" s="14" t="s">
         <v>4</v>
@@ -34031,7 +33923,7 @@
         <v>43939</v>
       </c>
       <c r="G1267" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1267" s="14" t="s">
         <v>4</v>
@@ -34057,7 +33949,7 @@
         <v>43940</v>
       </c>
       <c r="G1268" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1268" s="14" t="s">
         <v>4</v>
@@ -34083,7 +33975,7 @@
         <v>43932</v>
       </c>
       <c r="G1269" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1269" s="14" t="s">
         <v>4</v>
@@ -34112,7 +34004,7 @@
         <v>13</v>
       </c>
       <c r="H1270" s="13" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
     </row>
     <row r="1271" spans="1:8" x14ac:dyDescent="0.35">
@@ -34135,7 +34027,7 @@
         <v>43932</v>
       </c>
       <c r="G1271" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1271" s="14" t="s">
         <v>4</v>
@@ -34161,7 +34053,7 @@
         <v>43929</v>
       </c>
       <c r="G1272" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1272" s="14" t="s">
         <v>4</v>
@@ -34190,7 +34082,7 @@
         <v>13</v>
       </c>
       <c r="H1273" s="13" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
     </row>
     <row r="1274" spans="1:8" x14ac:dyDescent="0.35">
@@ -34213,7 +34105,7 @@
         <v>43932</v>
       </c>
       <c r="G1274" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1274" s="14" t="s">
         <v>4</v>
@@ -34239,7 +34131,7 @@
         <v>43936</v>
       </c>
       <c r="G1275" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1275" s="14" t="s">
         <v>4</v>
@@ -34267,8 +34159,8 @@
       <c r="G1276" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H1276" s="14" t="s">
-        <v>6</v>
+      <c r="H1276" s="13" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="1277" spans="1:8" x14ac:dyDescent="0.35">
@@ -34291,7 +34183,7 @@
         <v>43940</v>
       </c>
       <c r="G1277" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1277" s="14" t="s">
         <v>4</v>
@@ -34317,7 +34209,7 @@
         <v>43930</v>
       </c>
       <c r="G1278" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1278" s="14" t="s">
         <v>4</v>
@@ -34343,7 +34235,7 @@
         <v>43931</v>
       </c>
       <c r="G1279" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1279" s="14" t="s">
         <v>4</v>
@@ -34369,7 +34261,7 @@
         <v>43930</v>
       </c>
       <c r="G1280" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1280" s="14" t="s">
         <v>4</v>
@@ -34395,7 +34287,7 @@
         <v>43932</v>
       </c>
       <c r="G1281" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1281" s="14" t="s">
         <v>4</v>
@@ -34421,7 +34313,7 @@
         <v>43934</v>
       </c>
       <c r="G1282" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1282" s="14" t="s">
         <v>75</v>
@@ -34447,7 +34339,7 @@
         <v>43928</v>
       </c>
       <c r="G1283" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1283" s="14" t="s">
         <v>87</v>
@@ -34473,7 +34365,7 @@
         <v>43931</v>
       </c>
       <c r="G1284" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1284" s="14" t="s">
         <v>4</v>
@@ -34499,7 +34391,7 @@
         <v>43939</v>
       </c>
       <c r="G1285" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1285" s="14" t="s">
         <v>4</v>
@@ -34525,7 +34417,7 @@
         <v>43939</v>
       </c>
       <c r="G1286" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1286" s="14" t="s">
         <v>4</v>
@@ -34551,7 +34443,7 @@
         <v>43940</v>
       </c>
       <c r="G1287" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1287" s="14" t="s">
         <v>89</v>
@@ -34577,10 +34469,10 @@
         <v>43939</v>
       </c>
       <c r="G1288" s="12" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="H1288" s="13" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
     </row>
     <row r="1289" spans="1:8" x14ac:dyDescent="0.35">
@@ -34603,7 +34495,7 @@
         <v>43927</v>
       </c>
       <c r="G1289" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1289" s="14" t="s">
         <v>73</v>
@@ -34629,7 +34521,7 @@
         <v>43936</v>
       </c>
       <c r="G1290" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1290" s="14" t="s">
         <v>3</v>
@@ -34655,7 +34547,7 @@
         <v>43934</v>
       </c>
       <c r="G1291" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1291" s="14" t="s">
         <v>4</v>
@@ -34681,7 +34573,7 @@
         <v>43938</v>
       </c>
       <c r="G1292" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1292" s="14" t="s">
         <v>4</v>
@@ -34707,7 +34599,7 @@
         <v>43937</v>
       </c>
       <c r="G1293" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1293" s="14" t="s">
         <v>3</v>
@@ -34733,7 +34625,7 @@
         <v>43939</v>
       </c>
       <c r="G1294" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1294" s="14" t="s">
         <v>3</v>
@@ -34759,10 +34651,10 @@
         <v>43929</v>
       </c>
       <c r="G1295" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1295" s="14" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="1296" spans="1:8" x14ac:dyDescent="0.35">
@@ -34785,7 +34677,7 @@
         <v>43933</v>
       </c>
       <c r="G1296" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1296" s="14" t="s">
         <v>4</v>
@@ -34811,7 +34703,7 @@
         <v>43928</v>
       </c>
       <c r="G1297" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1297" s="14" t="s">
         <v>89</v>
@@ -34837,7 +34729,7 @@
         <v>43932</v>
       </c>
       <c r="G1298" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1298" s="14" t="s">
         <v>4</v>
@@ -34863,7 +34755,7 @@
         <v>43939</v>
       </c>
       <c r="G1299" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1299" s="14" t="s">
         <v>75</v>
@@ -34889,7 +34781,7 @@
         <v>43932</v>
       </c>
       <c r="G1300" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1300" s="14" t="s">
         <v>75</v>
@@ -34915,7 +34807,7 @@
         <v>43931</v>
       </c>
       <c r="G1301" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1301" s="14" t="s">
         <v>4</v>
@@ -34941,7 +34833,7 @@
         <v>43933</v>
       </c>
       <c r="G1302" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1302" s="14" t="s">
         <v>4</v>
@@ -34967,10 +34859,10 @@
         <v>46</v>
       </c>
       <c r="G1303" s="12" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="H1303" s="13" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
     </row>
     <row r="1304" spans="1:8" x14ac:dyDescent="0.35">
@@ -34993,7 +34885,7 @@
         <v>43938</v>
       </c>
       <c r="G1304" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1304" s="14" t="s">
         <v>75</v>
@@ -35019,7 +34911,7 @@
         <v>46</v>
       </c>
       <c r="G1305" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1305" s="14" t="s">
         <v>4</v>
@@ -35045,7 +34937,7 @@
         <v>43929</v>
       </c>
       <c r="G1306" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1306" s="14" t="s">
         <v>87</v>
@@ -35071,7 +34963,7 @@
         <v>43932</v>
       </c>
       <c r="G1307" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1307" s="14" t="s">
         <v>75</v>
@@ -35097,7 +34989,7 @@
         <v>43934</v>
       </c>
       <c r="G1308" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1308" s="14" t="s">
         <v>87</v>
@@ -35123,10 +35015,10 @@
         <v>43938</v>
       </c>
       <c r="G1309" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="H1309" s="14" t="s">
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="H1309" s="13" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="1310" spans="1:8" x14ac:dyDescent="0.35">
@@ -35149,7 +35041,7 @@
         <v>43939</v>
       </c>
       <c r="G1310" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1310" s="14" t="s">
         <v>75</v>
@@ -35175,10 +35067,10 @@
         <v>43938</v>
       </c>
       <c r="G1311" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1311" s="14" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="1312" spans="1:8" x14ac:dyDescent="0.35">
@@ -35201,7 +35093,7 @@
         <v>46</v>
       </c>
       <c r="G1312" s="12" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="H1312" s="14" t="s">
         <v>4</v>
@@ -35227,7 +35119,7 @@
         <v>46</v>
       </c>
       <c r="G1313" s="12" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="H1313" s="14" t="s">
         <v>4</v>
@@ -35253,7 +35145,7 @@
         <v>46</v>
       </c>
       <c r="G1314" s="12" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="H1314" s="14" t="s">
         <v>75</v>
@@ -35279,7 +35171,7 @@
         <v>46</v>
       </c>
       <c r="G1315" s="12" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="H1315" s="14" t="s">
         <v>75</v>
@@ -35305,10 +35197,10 @@
         <v>46</v>
       </c>
       <c r="G1316" s="12" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="H1316" s="14" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1317" spans="1:8" x14ac:dyDescent="0.35">
@@ -35331,7 +35223,7 @@
         <v>46</v>
       </c>
       <c r="G1317" s="12" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="H1317" s="14" t="s">
         <v>75</v>
@@ -35357,10 +35249,10 @@
         <v>46</v>
       </c>
       <c r="G1318" s="12" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="H1318" s="14" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1319" spans="1:8" x14ac:dyDescent="0.35">
@@ -35383,7 +35275,7 @@
         <v>46</v>
       </c>
       <c r="G1319" s="12" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="H1319" s="14" t="s">
         <v>73</v>
@@ -35409,7 +35301,7 @@
         <v>46</v>
       </c>
       <c r="G1320" s="12" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="H1320" s="14" t="s">
         <v>4</v>
@@ -35435,7 +35327,7 @@
         <v>46</v>
       </c>
       <c r="G1321" s="12" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="H1321" s="14" t="s">
         <v>89</v>
@@ -35461,7 +35353,7 @@
         <v>46</v>
       </c>
       <c r="G1322" s="12" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="H1322" s="14" t="s">
         <v>89</v>
@@ -35487,7 +35379,7 @@
         <v>46</v>
       </c>
       <c r="G1323" s="12" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="H1323" s="14" t="s">
         <v>87</v>
@@ -35513,10 +35405,10 @@
         <v>46</v>
       </c>
       <c r="G1324" s="12" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="H1324" s="14" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="1325" spans="1:8" x14ac:dyDescent="0.35">
@@ -35539,10 +35431,10 @@
         <v>46</v>
       </c>
       <c r="G1325" s="12" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="H1325" s="14" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1326" spans="1:8" x14ac:dyDescent="0.35">
@@ -35565,7 +35457,7 @@
         <v>46</v>
       </c>
       <c r="G1326" s="12" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="H1326" s="14" t="s">
         <v>75</v>
@@ -35591,7 +35483,7 @@
         <v>46</v>
       </c>
       <c r="G1327" s="12" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="H1327" s="14" t="s">
         <v>75</v>
@@ -35617,7 +35509,7 @@
         <v>46</v>
       </c>
       <c r="G1328" s="12" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="H1328" s="14" t="s">
         <v>4</v>
@@ -35643,7 +35535,7 @@
         <v>46</v>
       </c>
       <c r="G1329" s="12" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="H1329" s="14" t="s">
         <v>75</v>
@@ -35669,7 +35561,7 @@
         <v>46</v>
       </c>
       <c r="G1330" s="12" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="H1330" s="14" t="s">
         <v>75</v>
@@ -35695,7 +35587,7 @@
         <v>46</v>
       </c>
       <c r="G1331" s="12" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="H1331" s="14" t="s">
         <v>75</v>
@@ -35721,7 +35613,7 @@
         <v>46</v>
       </c>
       <c r="G1332" s="12" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="H1332" s="14" t="s">
         <v>4</v>
@@ -35747,7 +35639,7 @@
         <v>46</v>
       </c>
       <c r="G1333" s="12" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="H1333" s="14" t="s">
         <v>4</v>
@@ -35773,7 +35665,7 @@
         <v>43937</v>
       </c>
       <c r="G1334" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1334" s="14" t="s">
         <v>3</v>
@@ -35799,7 +35691,7 @@
         <v>43930</v>
       </c>
       <c r="G1335" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1335" s="14" t="s">
         <v>3</v>
@@ -35825,7 +35717,7 @@
         <v>43936</v>
       </c>
       <c r="G1336" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1336" s="14" t="s">
         <v>75</v>
@@ -35851,7 +35743,7 @@
         <v>43938</v>
       </c>
       <c r="G1337" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1337" s="14" t="s">
         <v>3</v>
@@ -35877,7 +35769,7 @@
         <v>43932</v>
       </c>
       <c r="G1338" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1338" s="14" t="s">
         <v>75</v>
@@ -35903,7 +35795,7 @@
         <v>43931</v>
       </c>
       <c r="G1339" s="12" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="H1339" s="14" t="s">
         <v>4</v>
@@ -35929,7 +35821,7 @@
         <v>43934</v>
       </c>
       <c r="G1340" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1340" s="14" t="s">
         <v>3</v>
@@ -35955,7 +35847,7 @@
         <v>43934</v>
       </c>
       <c r="G1341" s="12" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="H1341" s="14" t="s">
         <v>3</v>
@@ -35981,7 +35873,7 @@
         <v>43936</v>
       </c>
       <c r="G1342" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1342" s="14" t="s">
         <v>3</v>
@@ -36007,7 +35899,7 @@
         <v>43933</v>
       </c>
       <c r="G1343" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1343" s="14" t="s">
         <v>3</v>
@@ -36033,7 +35925,7 @@
         <v>43937</v>
       </c>
       <c r="G1344" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1344" s="14" t="s">
         <v>4</v>
@@ -36059,7 +35951,7 @@
         <v>43940</v>
       </c>
       <c r="G1345" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1345" s="14" t="s">
         <v>75</v>
@@ -36085,10 +35977,10 @@
         <v>43939</v>
       </c>
       <c r="G1346" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1346" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1347" spans="1:8" x14ac:dyDescent="0.35">
@@ -36111,7 +36003,7 @@
         <v>43932</v>
       </c>
       <c r="G1347" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1347" s="14" t="s">
         <v>4</v>
@@ -36137,7 +36029,7 @@
         <v>43929</v>
       </c>
       <c r="G1348" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1348" s="14" t="s">
         <v>87</v>
@@ -36163,7 +36055,7 @@
         <v>43932</v>
       </c>
       <c r="G1349" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1349" s="14" t="s">
         <v>75</v>
@@ -36189,10 +36081,10 @@
         <v>43936</v>
       </c>
       <c r="G1350" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1350" s="14" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1351" spans="1:8" x14ac:dyDescent="0.35">
@@ -36215,7 +36107,7 @@
         <v>43920</v>
       </c>
       <c r="G1351" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1351" s="14" t="s">
         <v>4</v>
@@ -36241,7 +36133,7 @@
         <v>43937</v>
       </c>
       <c r="G1352" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1352" s="14" t="s">
         <v>4</v>
@@ -36267,7 +36159,7 @@
         <v>43936</v>
       </c>
       <c r="G1353" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1353" s="14" t="s">
         <v>75</v>
@@ -36293,10 +36185,10 @@
         <v>43940</v>
       </c>
       <c r="G1354" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1354" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1355" spans="1:8" x14ac:dyDescent="0.35">
@@ -36319,7 +36211,7 @@
         <v>43939</v>
       </c>
       <c r="G1355" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1355" s="14" t="s">
         <v>73</v>
@@ -36345,7 +36237,7 @@
         <v>43934</v>
       </c>
       <c r="G1356" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1356" s="14" t="s">
         <v>3</v>
@@ -36371,7 +36263,7 @@
         <v>43935</v>
       </c>
       <c r="G1357" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1357" s="14" t="s">
         <v>75</v>
@@ -36397,7 +36289,7 @@
         <v>43934</v>
       </c>
       <c r="G1358" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1358" s="14" t="s">
         <v>73</v>
@@ -36423,7 +36315,7 @@
         <v>43929</v>
       </c>
       <c r="G1359" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1359" s="14" t="s">
         <v>3</v>
@@ -36449,7 +36341,7 @@
         <v>43932</v>
       </c>
       <c r="G1360" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1360" s="14" t="s">
         <v>73</v>
@@ -36475,7 +36367,7 @@
         <v>43928</v>
       </c>
       <c r="G1361" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1361" s="14" t="s">
         <v>3</v>
@@ -36501,7 +36393,7 @@
         <v>43934</v>
       </c>
       <c r="G1362" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1362" s="14" t="s">
         <v>73</v>
@@ -36527,7 +36419,7 @@
         <v>43927</v>
       </c>
       <c r="G1363" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1363" s="14" t="s">
         <v>4</v>
@@ -36553,10 +36445,10 @@
         <v>43937</v>
       </c>
       <c r="G1364" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1364" s="14" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1365" spans="1:8" x14ac:dyDescent="0.35">
@@ -36579,10 +36471,10 @@
         <v>43941</v>
       </c>
       <c r="G1365" s="12" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="H1365" s="13" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
     </row>
     <row r="1366" spans="1:8" x14ac:dyDescent="0.35">
@@ -36605,7 +36497,7 @@
         <v>43934</v>
       </c>
       <c r="G1366" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1366" s="14" t="s">
         <v>73</v>
@@ -36631,7 +36523,7 @@
         <v>46</v>
       </c>
       <c r="G1367" s="12" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="H1367" s="14" t="s">
         <v>73</v>
@@ -36657,7 +36549,7 @@
         <v>46</v>
       </c>
       <c r="G1368" s="12" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="H1368" s="14" t="s">
         <v>73</v>
@@ -36683,7 +36575,7 @@
         <v>43930</v>
       </c>
       <c r="G1369" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1369" s="14" t="s">
         <v>73</v>
@@ -36709,7 +36601,7 @@
         <v>43931</v>
       </c>
       <c r="G1370" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1370" s="14" t="s">
         <v>4</v>
@@ -36735,7 +36627,7 @@
         <v>43929</v>
       </c>
       <c r="G1371" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1371" s="14" t="s">
         <v>73</v>
@@ -36761,7 +36653,7 @@
         <v>43927</v>
       </c>
       <c r="G1372" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1372" s="14" t="s">
         <v>89</v>
@@ -36787,7 +36679,7 @@
         <v>43935</v>
       </c>
       <c r="G1373" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1373" s="14" t="s">
         <v>4</v>
@@ -36813,7 +36705,7 @@
         <v>43928</v>
       </c>
       <c r="G1374" s="12" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="H1374" s="14" t="s">
         <v>4</v>
@@ -36839,7 +36731,7 @@
         <v>43936</v>
       </c>
       <c r="G1375" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1375" s="14" t="s">
         <v>75</v>
@@ -36865,7 +36757,7 @@
         <v>43938</v>
       </c>
       <c r="G1376" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1376" s="14" t="s">
         <v>75</v>
@@ -36891,10 +36783,10 @@
         <v>43937</v>
       </c>
       <c r="G1377" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1377" s="14" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="1378" spans="1:8" x14ac:dyDescent="0.35">
@@ -36917,7 +36809,7 @@
         <v>43933</v>
       </c>
       <c r="G1378" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1378" s="14" t="s">
         <v>4</v>
@@ -36943,7 +36835,7 @@
         <v>46</v>
       </c>
       <c r="G1379" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1379" s="14" t="s">
         <v>73</v>
@@ -36969,7 +36861,7 @@
         <v>43939</v>
       </c>
       <c r="G1380" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1380" s="14" t="s">
         <v>73</v>
@@ -36995,7 +36887,7 @@
         <v>43935</v>
       </c>
       <c r="G1381" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1381" s="14" t="s">
         <v>4</v>
@@ -37021,7 +36913,7 @@
         <v>43937</v>
       </c>
       <c r="G1382" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1382" s="14" t="s">
         <v>4</v>
@@ -37047,7 +36939,7 @@
         <v>43939</v>
       </c>
       <c r="G1383" s="12" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="H1383" s="14" t="s">
         <v>3</v>
@@ -37073,7 +36965,7 @@
         <v>43942</v>
       </c>
       <c r="G1384" s="12" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="H1384" s="14" t="s">
         <v>4</v>
@@ -37099,7 +36991,7 @@
         <v>43940</v>
       </c>
       <c r="G1385" s="12" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="H1385" s="14" t="s">
         <v>4</v>
@@ -37125,7 +37017,7 @@
         <v>43941</v>
       </c>
       <c r="G1386" s="12" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="H1386" s="14" t="s">
         <v>5</v>
@@ -37151,7 +37043,7 @@
         <v>43941</v>
       </c>
       <c r="G1387" s="12" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="H1387" s="14" t="s">
         <v>75</v>
@@ -37177,7 +37069,7 @@
         <v>46</v>
       </c>
       <c r="G1388" s="12" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="H1388" s="14" t="s">
         <v>4</v>
@@ -37203,7 +37095,7 @@
         <v>46</v>
       </c>
       <c r="G1389" s="12" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="H1389" s="14" t="s">
         <v>4</v>
@@ -37229,7 +37121,7 @@
         <v>46</v>
       </c>
       <c r="G1390" s="12" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="H1390" s="14" t="s">
         <v>75</v>
@@ -37255,7 +37147,7 @@
         <v>46</v>
       </c>
       <c r="G1391" s="12" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="H1391" s="14" t="s">
         <v>75</v>
@@ -37281,7 +37173,7 @@
         <v>46</v>
       </c>
       <c r="G1392" s="12" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="H1392" s="14" t="s">
         <v>73</v>
@@ -37307,7 +37199,7 @@
         <v>43938</v>
       </c>
       <c r="G1393" s="12" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="H1393" s="14" t="s">
         <v>3</v>
@@ -37333,7 +37225,7 @@
         <v>43933</v>
       </c>
       <c r="G1394" s="12" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="H1394" s="14" t="s">
         <v>4</v>
@@ -37359,7 +37251,7 @@
         <v>43931</v>
       </c>
       <c r="G1395" s="12" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="H1395" s="14" t="s">
         <v>3</v>
@@ -37385,7 +37277,7 @@
         <v>43936</v>
       </c>
       <c r="G1396" s="12" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="H1396" s="14" t="s">
         <v>4</v>
@@ -37411,7 +37303,7 @@
         <v>43917</v>
       </c>
       <c r="G1397" s="12" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="H1397" s="14" t="s">
         <v>4</v>
@@ -37437,7 +37329,7 @@
         <v>43941</v>
       </c>
       <c r="G1398" s="12" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="H1398" s="14" t="s">
         <v>5</v>
@@ -37463,7 +37355,7 @@
         <v>43937</v>
       </c>
       <c r="G1399" s="12" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="H1399" s="14" t="s">
         <v>4</v>
@@ -37489,7 +37381,7 @@
         <v>43942</v>
       </c>
       <c r="G1400" s="12" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="H1400" s="14" t="s">
         <v>4</v>
@@ -37515,7 +37407,7 @@
         <v>43938</v>
       </c>
       <c r="G1401" s="12" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="H1401" s="14" t="s">
         <v>75</v>
@@ -37541,7 +37433,7 @@
         <v>46</v>
       </c>
       <c r="G1402" s="12" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="H1402" s="14" t="s">
         <v>4</v>
@@ -37567,7 +37459,7 @@
         <v>43932</v>
       </c>
       <c r="G1403" s="12" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="H1403" s="14" t="s">
         <v>3</v>
@@ -37593,7 +37485,7 @@
         <v>43936</v>
       </c>
       <c r="G1404" s="12" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="H1404" s="14" t="s">
         <v>75</v>
@@ -37619,7 +37511,7 @@
         <v>43941</v>
       </c>
       <c r="G1405" s="12" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="H1405" s="14" t="s">
         <v>3</v>
@@ -37645,7 +37537,7 @@
         <v>43931</v>
       </c>
       <c r="G1406" s="12" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="H1406" s="14" t="s">
         <v>3</v>
@@ -37671,7 +37563,7 @@
         <v>43934</v>
       </c>
       <c r="G1407" s="12" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="H1407" s="14" t="s">
         <v>4</v>
@@ -37697,7 +37589,7 @@
         <v>43932</v>
       </c>
       <c r="G1408" s="12" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="H1408" s="14" t="s">
         <v>73</v>
@@ -37723,10 +37615,10 @@
         <v>46</v>
       </c>
       <c r="G1409" s="12" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="H1409" s="13" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
     </row>
     <row r="1410" spans="1:8" x14ac:dyDescent="0.35">
@@ -37749,7 +37641,7 @@
         <v>46</v>
       </c>
       <c r="G1410" s="12" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="H1410" s="14" t="s">
         <v>73</v>
@@ -37775,7 +37667,7 @@
         <v>43927</v>
       </c>
       <c r="G1411" s="12" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="H1411" s="14" t="s">
         <v>73</v>
@@ -37801,7 +37693,7 @@
         <v>43941</v>
       </c>
       <c r="G1412" s="12" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="H1412" s="14" t="s">
         <v>4</v>
@@ -37827,7 +37719,7 @@
         <v>43935</v>
       </c>
       <c r="G1413" s="12" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="H1413" s="14" t="s">
         <v>5</v>
@@ -37853,7 +37745,7 @@
         <v>43940</v>
       </c>
       <c r="G1414" s="12" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="H1414" s="14" t="s">
         <v>4</v>
@@ -37879,7 +37771,7 @@
         <v>43930</v>
       </c>
       <c r="G1415" s="12" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="H1415" s="14" t="s">
         <v>4</v>
@@ -37905,7 +37797,7 @@
         <v>82</v>
       </c>
       <c r="G1416" s="12" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="H1416" s="14" t="s">
         <v>4</v>
@@ -37931,7 +37823,7 @@
         <v>43941</v>
       </c>
       <c r="G1417" s="12" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="H1417" s="14" t="s">
         <v>75</v>
@@ -37957,10 +37849,10 @@
         <v>43931</v>
       </c>
       <c r="G1418" s="12" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="H1418" s="13" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
     </row>
     <row r="1419" spans="1:8" x14ac:dyDescent="0.35">
@@ -37983,7 +37875,7 @@
         <v>43938</v>
       </c>
       <c r="G1419" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1419" s="14" t="s">
         <v>3</v>
@@ -38009,7 +37901,7 @@
         <v>43938</v>
       </c>
       <c r="G1420" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1420" s="14" t="s">
         <v>4</v>
@@ -38035,7 +37927,7 @@
         <v>43932</v>
       </c>
       <c r="G1421" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1421" s="14" t="s">
         <v>75</v>
@@ -38061,7 +37953,7 @@
         <v>43942</v>
       </c>
       <c r="G1422" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1422" s="14" t="s">
         <v>73</v>
@@ -38087,7 +37979,7 @@
         <v>43933</v>
       </c>
       <c r="G1423" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1423" s="14" t="s">
         <v>4</v>
@@ -38113,7 +38005,7 @@
         <v>46</v>
       </c>
       <c r="G1424" s="12" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="H1424" s="14" t="s">
         <v>4</v>
@@ -38139,10 +38031,10 @@
         <v>43934</v>
       </c>
       <c r="G1425" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1425" s="14" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="1426" spans="1:8" x14ac:dyDescent="0.35">
@@ -38165,7 +38057,7 @@
         <v>43940</v>
       </c>
       <c r="G1426" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1426" s="14" t="s">
         <v>73</v>
@@ -38191,7 +38083,7 @@
         <v>43939</v>
       </c>
       <c r="G1427" s="12" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="H1427" s="14" t="s">
         <v>4</v>
@@ -38217,7 +38109,7 @@
         <v>43937</v>
       </c>
       <c r="G1428" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1428" s="14" t="s">
         <v>73</v>
@@ -38243,7 +38135,7 @@
         <v>43939</v>
       </c>
       <c r="G1429" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1429" s="14" t="s">
         <v>4</v>
@@ -38269,7 +38161,7 @@
         <v>43934</v>
       </c>
       <c r="G1430" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1430" s="14" t="s">
         <v>4</v>
@@ -38295,7 +38187,7 @@
         <v>43942</v>
       </c>
       <c r="G1431" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1431" s="14" t="s">
         <v>4</v>
@@ -38321,7 +38213,7 @@
         <v>43936</v>
       </c>
       <c r="G1432" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1432" s="14" t="s">
         <v>75</v>
@@ -38347,7 +38239,7 @@
         <v>43937</v>
       </c>
       <c r="G1433" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1433" s="14" t="s">
         <v>3</v>
@@ -38373,7 +38265,7 @@
         <v>43943</v>
       </c>
       <c r="G1434" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1434" s="14" t="s">
         <v>4</v>
@@ -38399,7 +38291,7 @@
         <v>43939</v>
       </c>
       <c r="G1435" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1435" s="14" t="s">
         <v>5</v>
@@ -38425,7 +38317,7 @@
         <v>43939</v>
       </c>
       <c r="G1436" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1436" s="14" t="s">
         <v>75</v>
@@ -38451,7 +38343,7 @@
         <v>43930</v>
       </c>
       <c r="G1437" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1437" s="14" t="s">
         <v>73</v>
@@ -38477,7 +38369,7 @@
         <v>43934</v>
       </c>
       <c r="G1438" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1438" s="14" t="s">
         <v>75</v>
@@ -38503,7 +38395,7 @@
         <v>43937</v>
       </c>
       <c r="G1439" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1439" s="14" t="s">
         <v>4</v>
@@ -38529,7 +38421,7 @@
         <v>43929</v>
       </c>
       <c r="G1440" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1440" s="14" t="s">
         <v>73</v>
@@ -38555,7 +38447,7 @@
         <v>43939</v>
       </c>
       <c r="G1441" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1441" s="14" t="s">
         <v>73</v>
@@ -38581,7 +38473,7 @@
         <v>43942</v>
       </c>
       <c r="G1442" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1442" s="14" t="s">
         <v>73</v>
@@ -38607,7 +38499,7 @@
         <v>82</v>
       </c>
       <c r="G1443" s="12" t="s">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="H1443" s="14" t="s">
         <v>73</v>
@@ -38633,7 +38525,7 @@
         <v>43937</v>
       </c>
       <c r="G1444" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1444" s="14" t="s">
         <v>75</v>
@@ -38659,7 +38551,7 @@
         <v>43942</v>
       </c>
       <c r="G1445" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1445" s="14" t="s">
         <v>4</v>
@@ -38685,7 +38577,7 @@
         <v>43943</v>
       </c>
       <c r="G1446" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1446" s="14" t="s">
         <v>75</v>
@@ -38711,7 +38603,7 @@
         <v>43932</v>
       </c>
       <c r="G1447" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1447" s="14" t="s">
         <v>73</v>
@@ -38737,7 +38629,7 @@
         <v>43929</v>
       </c>
       <c r="G1448" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1448" s="14" t="s">
         <v>73</v>
@@ -38763,7 +38655,7 @@
         <v>43938</v>
       </c>
       <c r="G1449" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1449" s="14" t="s">
         <v>4</v>
@@ -38789,10 +38681,10 @@
         <v>43943</v>
       </c>
       <c r="G1450" s="12" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="H1450" s="13" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
     </row>
     <row r="1451" spans="1:8" x14ac:dyDescent="0.35">
@@ -38818,7 +38710,7 @@
         <v>13</v>
       </c>
       <c r="H1451" s="13" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
     </row>
     <row r="1452" spans="1:8" x14ac:dyDescent="0.35">
@@ -38841,7 +38733,7 @@
         <v>43943</v>
       </c>
       <c r="G1452" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1452" s="14" t="s">
         <v>4</v>
@@ -38867,7 +38759,7 @@
         <v>43938</v>
       </c>
       <c r="G1453" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1453" s="14" t="s">
         <v>4</v>
@@ -38893,10 +38785,10 @@
         <v>43941</v>
       </c>
       <c r="G1454" s="12" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="H1454" s="13" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
     </row>
     <row r="1455" spans="1:8" x14ac:dyDescent="0.35">
@@ -38919,7 +38811,7 @@
         <v>46</v>
       </c>
       <c r="G1455" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1455" s="14" t="s">
         <v>73</v>
@@ -38945,7 +38837,7 @@
         <v>43935</v>
       </c>
       <c r="G1456" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1456" s="14" t="s">
         <v>73</v>
@@ -38971,7 +38863,7 @@
         <v>43939</v>
       </c>
       <c r="G1457" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1457" s="14" t="s">
         <v>4</v>
@@ -38997,7 +38889,7 @@
         <v>43937</v>
       </c>
       <c r="G1458" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1458" s="14" t="s">
         <v>4</v>
@@ -39023,7 +38915,7 @@
         <v>43941</v>
       </c>
       <c r="G1459" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1459" s="14" t="s">
         <v>73</v>
@@ -39049,7 +38941,7 @@
         <v>43935</v>
       </c>
       <c r="G1460" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1460" s="14" t="s">
         <v>73</v>
@@ -39075,7 +38967,7 @@
         <v>43930</v>
       </c>
       <c r="G1461" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1461" s="14" t="s">
         <v>73</v>
@@ -39101,7 +38993,7 @@
         <v>43931</v>
       </c>
       <c r="G1462" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1462" s="14" t="s">
         <v>73</v>
@@ -39127,7 +39019,7 @@
         <v>43933</v>
       </c>
       <c r="G1463" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1463" s="14" t="s">
         <v>75</v>
@@ -39153,7 +39045,7 @@
         <v>43941</v>
       </c>
       <c r="G1464" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1464" s="14" t="s">
         <v>75</v>
@@ -39179,7 +39071,7 @@
         <v>43918</v>
       </c>
       <c r="G1465" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1465" s="14" t="s">
         <v>75</v>
@@ -39205,7 +39097,7 @@
         <v>43938</v>
       </c>
       <c r="G1466" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1466" s="14" t="s">
         <v>75</v>
@@ -39231,7 +39123,7 @@
         <v>43942</v>
       </c>
       <c r="G1467" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1467" s="14" t="s">
         <v>4</v>
@@ -39257,7 +39149,7 @@
         <v>43940</v>
       </c>
       <c r="G1468" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1468" s="14" t="s">
         <v>75</v>
@@ -39283,7 +39175,7 @@
         <v>43930</v>
       </c>
       <c r="G1469" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1469" s="14" t="s">
         <v>75</v>
@@ -39309,7 +39201,7 @@
         <v>43937</v>
       </c>
       <c r="G1470" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1470" s="14" t="s">
         <v>75</v>
@@ -39335,7 +39227,7 @@
         <v>43943</v>
       </c>
       <c r="G1471" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1471" s="14" t="s">
         <v>3</v>
@@ -39361,7 +39253,7 @@
         <v>43929</v>
       </c>
       <c r="G1472" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1472" s="14" t="s">
         <v>75</v>
@@ -39387,7 +39279,7 @@
         <v>43937</v>
       </c>
       <c r="G1473" s="12" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="H1473" s="14" t="s">
         <v>4</v>
@@ -39413,7 +39305,7 @@
         <v>43931</v>
       </c>
       <c r="G1474" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1474" s="14" t="s">
         <v>3</v>
@@ -39439,7 +39331,7 @@
         <v>43940</v>
       </c>
       <c r="G1475" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1475" s="14" t="s">
         <v>4</v>
@@ -39465,7 +39357,7 @@
         <v>43944</v>
       </c>
       <c r="G1476" s="12" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="H1476" s="14" t="s">
         <v>4</v>
@@ -39491,7 +39383,7 @@
         <v>43938</v>
       </c>
       <c r="G1477" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1477" s="14" t="s">
         <v>75</v>
@@ -39647,10 +39539,10 @@
         <v>43942</v>
       </c>
       <c r="G1483" s="12" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="H1483" s="13" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
     </row>
     <row r="1484" spans="1:8" x14ac:dyDescent="0.35">
@@ -39702,7 +39594,7 @@
         <v>10</v>
       </c>
       <c r="H1485" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1486" spans="1:8" x14ac:dyDescent="0.35">
@@ -39777,10 +39669,10 @@
         <v>43936</v>
       </c>
       <c r="G1488" s="12" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="H1488" s="13" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
     </row>
     <row r="1489" spans="1:8" x14ac:dyDescent="0.35">
@@ -39855,7 +39747,7 @@
         <v>43939</v>
       </c>
       <c r="G1491" s="12" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="H1491" s="14" t="s">
         <v>4</v>
@@ -39962,7 +39854,7 @@
         <v>10</v>
       </c>
       <c r="H1495" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1496" spans="1:8" x14ac:dyDescent="0.35">
@@ -39985,7 +39877,7 @@
         <v>43940</v>
       </c>
       <c r="G1496" s="12" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="H1496" s="14" t="s">
         <v>4</v>
@@ -40141,7 +40033,7 @@
         <v>43945</v>
       </c>
       <c r="G1502" s="12" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="H1502" s="14" t="s">
         <v>4</v>
@@ -40193,10 +40085,10 @@
         <v>43937</v>
       </c>
       <c r="G1504" s="12" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="H1504" s="13" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
     </row>
     <row r="1505" spans="1:8" x14ac:dyDescent="0.35">
@@ -40430,7 +40322,7 @@
         <v>46</v>
       </c>
       <c r="H1513" s="14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1514" spans="1:8" x14ac:dyDescent="0.35">
@@ -40638,7 +40530,7 @@
         <v>10</v>
       </c>
       <c r="H1521" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1522" spans="1:8" x14ac:dyDescent="0.35">
@@ -40713,7 +40605,7 @@
         <v>43944</v>
       </c>
       <c r="G1524" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1524" s="14" t="s">
         <v>4</v>
@@ -40739,7 +40631,7 @@
         <v>43936</v>
       </c>
       <c r="G1525" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1525" s="14" t="s">
         <v>4</v>
@@ -40765,7 +40657,7 @@
         <v>43941</v>
       </c>
       <c r="G1526" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1526" s="14" t="s">
         <v>75</v>
@@ -40791,7 +40683,7 @@
         <v>43937</v>
       </c>
       <c r="G1527" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1527" s="14" t="s">
         <v>4</v>
@@ -40817,7 +40709,7 @@
         <v>43945</v>
       </c>
       <c r="G1528" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1528" s="14" t="s">
         <v>4</v>
@@ -40843,7 +40735,7 @@
         <v>43946</v>
       </c>
       <c r="G1529" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1529" s="14" t="s">
         <v>4</v>
@@ -40869,7 +40761,7 @@
         <v>82</v>
       </c>
       <c r="G1530" s="12" t="s">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="H1530" s="14" t="s">
         <v>4</v>
@@ -40895,7 +40787,7 @@
         <v>82</v>
       </c>
       <c r="G1531" s="12" t="s">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="H1531" s="14" t="s">
         <v>4</v>
@@ -40921,7 +40813,7 @@
         <v>43945</v>
       </c>
       <c r="G1532" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1532" s="14" t="s">
         <v>4</v>
@@ -40947,7 +40839,7 @@
         <v>43938</v>
       </c>
       <c r="G1533" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1533" s="14" t="s">
         <v>4</v>
@@ -40973,7 +40865,7 @@
         <v>43944</v>
       </c>
       <c r="G1534" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1534" s="14" t="s">
         <v>73</v>
@@ -40999,7 +40891,7 @@
         <v>43945</v>
       </c>
       <c r="G1535" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1535" s="14" t="s">
         <v>73</v>
@@ -41025,7 +40917,7 @@
         <v>43941</v>
       </c>
       <c r="G1536" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1536" s="14" t="s">
         <v>73</v>
@@ -41051,7 +40943,7 @@
         <v>43934</v>
       </c>
       <c r="G1537" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1537" s="14" t="s">
         <v>75</v>
@@ -41077,7 +40969,7 @@
         <v>43938</v>
       </c>
       <c r="G1538" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1538" s="14" t="s">
         <v>73</v>
@@ -41103,7 +40995,7 @@
         <v>43928</v>
       </c>
       <c r="G1539" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1539" s="14" t="s">
         <v>73</v>
@@ -41129,7 +41021,7 @@
         <v>43930</v>
       </c>
       <c r="G1540" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1540" s="14" t="s">
         <v>75</v>
@@ -41155,7 +41047,7 @@
         <v>43941</v>
       </c>
       <c r="G1541" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1541" s="14" t="s">
         <v>73</v>
@@ -41181,7 +41073,7 @@
         <v>43945</v>
       </c>
       <c r="G1542" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1542" s="14" t="s">
         <v>4</v>
@@ -41207,7 +41099,7 @@
         <v>43943</v>
       </c>
       <c r="G1543" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1543" s="14" t="s">
         <v>4</v>
@@ -41233,7 +41125,7 @@
         <v>43935</v>
       </c>
       <c r="G1544" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1544" s="14" t="s">
         <v>75</v>
@@ -41259,7 +41151,7 @@
         <v>82</v>
       </c>
       <c r="G1545" s="12" t="s">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="H1545" s="14" t="s">
         <v>75</v>
@@ -41285,7 +41177,7 @@
         <v>46</v>
       </c>
       <c r="G1546" s="12" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="H1546" s="14" t="s">
         <v>5</v>
@@ -41311,7 +41203,7 @@
         <v>43937</v>
       </c>
       <c r="G1547" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1547" s="14" t="s">
         <v>4</v>
@@ -41337,7 +41229,7 @@
         <v>43933</v>
       </c>
       <c r="G1548" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1548" s="14" t="s">
         <v>75</v>
@@ -41363,7 +41255,7 @@
         <v>43946</v>
       </c>
       <c r="G1549" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1549" s="14" t="s">
         <v>4</v>
@@ -41389,7 +41281,7 @@
         <v>43944</v>
       </c>
       <c r="G1550" s="12" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="H1550" s="14" t="s">
         <v>4</v>
@@ -41415,7 +41307,7 @@
         <v>43934</v>
       </c>
       <c r="G1551" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1551" s="14" t="s">
         <v>75</v>
@@ -41441,7 +41333,7 @@
         <v>43934</v>
       </c>
       <c r="G1552" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1552" s="14" t="s">
         <v>75</v>
@@ -41467,7 +41359,7 @@
         <v>43944</v>
       </c>
       <c r="G1553" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1553" s="14" t="s">
         <v>73</v>
@@ -41493,7 +41385,7 @@
         <v>46</v>
       </c>
       <c r="G1554" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1554" s="14" t="s">
         <v>4</v>
@@ -41519,7 +41411,7 @@
         <v>43933</v>
       </c>
       <c r="G1555" s="12" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="H1555" s="14" t="s">
         <v>4</v>
@@ -41545,7 +41437,7 @@
         <v>43948</v>
       </c>
       <c r="G1556" s="12" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="H1556" s="14" t="s">
         <v>4</v>
@@ -41571,7 +41463,7 @@
         <v>43945</v>
       </c>
       <c r="G1557" s="12" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="H1557" s="14" t="s">
         <v>5</v>
@@ -41597,7 +41489,7 @@
         <v>43945</v>
       </c>
       <c r="G1558" s="12" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="H1558" s="14" t="s">
         <v>5</v>
@@ -41623,7 +41515,7 @@
         <v>43941</v>
       </c>
       <c r="G1559" s="12" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="H1559" s="14" t="s">
         <v>5</v>
@@ -41649,7 +41541,7 @@
         <v>43931</v>
       </c>
       <c r="G1560" s="12" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="H1560" s="14" t="s">
         <v>4</v>
@@ -41675,7 +41567,7 @@
         <v>43938</v>
       </c>
       <c r="G1561" s="12" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="H1561" s="14" t="s">
         <v>4</v>
@@ -41701,7 +41593,7 @@
         <v>43945</v>
       </c>
       <c r="G1562" s="12" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="H1562" s="14" t="s">
         <v>4</v>
@@ -41727,7 +41619,7 @@
         <v>46</v>
       </c>
       <c r="G1563" s="12" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="H1563" s="14" t="s">
         <v>75</v>
@@ -41753,7 +41645,7 @@
         <v>43942</v>
       </c>
       <c r="G1564" s="12" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="H1564" s="14" t="s">
         <v>4</v>
@@ -41779,7 +41671,7 @@
         <v>43929</v>
       </c>
       <c r="G1565" s="12" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="H1565" s="14" t="s">
         <v>4</v>
@@ -41805,7 +41697,7 @@
         <v>43947</v>
       </c>
       <c r="G1566" s="12" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="H1566" s="14" t="s">
         <v>75</v>
@@ -41831,7 +41723,7 @@
         <v>43945</v>
       </c>
       <c r="G1567" s="12" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="H1567" s="14" t="s">
         <v>75</v>
@@ -41857,7 +41749,7 @@
         <v>43947</v>
       </c>
       <c r="G1568" s="12" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="H1568" s="14" t="s">
         <v>4</v>
@@ -41883,7 +41775,7 @@
         <v>43947</v>
       </c>
       <c r="G1569" s="12" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="H1569" s="14" t="s">
         <v>73</v>
@@ -41909,7 +41801,7 @@
         <v>43946</v>
       </c>
       <c r="G1570" s="12" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="H1570" s="14" t="s">
         <v>4</v>
@@ -41935,7 +41827,7 @@
         <v>43941</v>
       </c>
       <c r="G1571" s="12" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="H1571" s="14" t="s">
         <v>75</v>
@@ -41961,10 +41853,10 @@
         <v>46</v>
       </c>
       <c r="G1572" s="12" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="H1572" s="13" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
     </row>
     <row r="1573" spans="1:8" x14ac:dyDescent="0.35">
@@ -41990,7 +41882,7 @@
         <v>13</v>
       </c>
       <c r="H1573" s="13" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
     </row>
     <row r="1574" spans="1:8" x14ac:dyDescent="0.35">
@@ -42013,7 +41905,7 @@
         <v>43941</v>
       </c>
       <c r="G1574" s="12" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="H1574" s="14" t="s">
         <v>75</v>
@@ -42039,7 +41931,7 @@
         <v>43935</v>
       </c>
       <c r="G1575" s="12" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="H1575" s="14" t="s">
         <v>75</v>
@@ -42065,7 +41957,7 @@
         <v>43945</v>
       </c>
       <c r="G1576" s="12" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="H1576" s="14" t="s">
         <v>4</v>
@@ -42091,7 +41983,7 @@
         <v>43937</v>
       </c>
       <c r="G1577" s="12" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="H1577" s="14" t="s">
         <v>4</v>
@@ -42117,7 +42009,7 @@
         <v>43939</v>
       </c>
       <c r="G1578" s="12" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="H1578" s="14" t="s">
         <v>3</v>
@@ -42143,7 +42035,7 @@
         <v>46</v>
       </c>
       <c r="G1579" s="12" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="H1579" s="14" t="s">
         <v>4</v>
@@ -42169,7 +42061,7 @@
         <v>43938</v>
       </c>
       <c r="G1580" s="12" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="H1580" s="14" t="s">
         <v>4</v>
@@ -42195,7 +42087,7 @@
         <v>46</v>
       </c>
       <c r="G1581" s="12" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="H1581" s="14" t="s">
         <v>75</v>
@@ -42221,7 +42113,7 @@
         <v>43945</v>
       </c>
       <c r="G1582" s="12" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="H1582" s="14" t="s">
         <v>4</v>
@@ -42247,7 +42139,7 @@
         <v>46</v>
       </c>
       <c r="G1583" s="12" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="H1583" s="14" t="s">
         <v>4</v>
@@ -42273,7 +42165,7 @@
         <v>43932</v>
       </c>
       <c r="G1584" s="12" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="H1584" s="14" t="s">
         <v>73</v>
@@ -42299,7 +42191,7 @@
         <v>43944</v>
       </c>
       <c r="G1585" s="12" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="H1585" s="14" t="s">
         <v>75</v>
@@ -42325,7 +42217,7 @@
         <v>46</v>
       </c>
       <c r="G1586" s="12" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="H1586" s="14" t="s">
         <v>3</v>
@@ -42351,7 +42243,7 @@
         <v>43941</v>
       </c>
       <c r="G1587" s="12" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="H1587" s="14" t="s">
         <v>75</v>
@@ -42377,7 +42269,7 @@
         <v>43943</v>
       </c>
       <c r="G1588" s="12" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="H1588" s="14" t="s">
         <v>4</v>
@@ -42403,7 +42295,7 @@
         <v>46</v>
       </c>
       <c r="G1589" s="12" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="H1589" s="14" t="s">
         <v>73</v>
@@ -42429,7 +42321,7 @@
         <v>46</v>
       </c>
       <c r="G1590" s="12" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="H1590" s="14" t="s">
         <v>4</v>
@@ -42455,7 +42347,7 @@
         <v>46</v>
       </c>
       <c r="G1591" s="12" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="H1591" s="14" t="s">
         <v>75</v>
@@ -42481,7 +42373,7 @@
         <v>46</v>
       </c>
       <c r="G1592" s="12" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="H1592" s="14" t="s">
         <v>5</v>
@@ -42507,7 +42399,7 @@
         <v>46</v>
       </c>
       <c r="G1593" s="12" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="H1593" s="14" t="s">
         <v>75</v>
@@ -42533,7 +42425,7 @@
         <v>46</v>
       </c>
       <c r="G1594" s="12" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="H1594" s="14" t="s">
         <v>75</v>
@@ -42559,7 +42451,7 @@
         <v>43939</v>
       </c>
       <c r="G1595" s="12" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="H1595" s="14" t="s">
         <v>4</v>
@@ -42585,7 +42477,7 @@
         <v>43946</v>
       </c>
       <c r="G1596" s="12" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="H1596" s="14" t="s">
         <v>75</v>
@@ -42611,7 +42503,7 @@
         <v>43937</v>
       </c>
       <c r="G1597" s="12" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="H1597" s="14" t="s">
         <v>3</v>
@@ -42637,7 +42529,7 @@
         <v>43936</v>
       </c>
       <c r="G1598" s="12" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="H1598" s="14" t="s">
         <v>4</v>
@@ -42663,7 +42555,7 @@
         <v>43944</v>
       </c>
       <c r="G1599" s="12" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="H1599" s="14" t="s">
         <v>4</v>
@@ -42689,7 +42581,7 @@
         <v>43949</v>
       </c>
       <c r="G1600" s="12" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="H1600" s="14" t="s">
         <v>4</v>
@@ -42715,7 +42607,7 @@
         <v>43945</v>
       </c>
       <c r="G1601" s="12" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="H1601" s="14" t="s">
         <v>4</v>
@@ -42741,7 +42633,7 @@
         <v>43943</v>
       </c>
       <c r="G1602" s="12" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="H1602" s="14" t="s">
         <v>5</v>
@@ -42767,7 +42659,7 @@
         <v>82</v>
       </c>
       <c r="G1603" s="12" t="s">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="H1603" s="14" t="s">
         <v>75</v>
@@ -42793,7 +42685,7 @@
         <v>82</v>
       </c>
       <c r="G1604" s="12" t="s">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="H1604" s="14" t="s">
         <v>75</v>
@@ -42819,7 +42711,7 @@
         <v>43944</v>
       </c>
       <c r="G1605" s="12" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="H1605" s="14" t="s">
         <v>5</v>
@@ -42845,7 +42737,7 @@
         <v>43948</v>
       </c>
       <c r="G1606" s="12" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="H1606" s="14" t="s">
         <v>5</v>
@@ -42871,10 +42763,10 @@
         <v>43947</v>
       </c>
       <c r="G1607" s="12" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="H1607" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1608" spans="1:8" x14ac:dyDescent="0.35">
@@ -42897,7 +42789,7 @@
         <v>43948</v>
       </c>
       <c r="G1608" s="12" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="H1608" s="14" t="s">
         <v>75</v>
@@ -42923,7 +42815,7 @@
         <v>43936</v>
       </c>
       <c r="G1609" s="12" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="H1609" s="14" t="s">
         <v>73</v>
@@ -42949,7 +42841,7 @@
         <v>43936</v>
       </c>
       <c r="G1610" s="12" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="H1610" s="14" t="s">
         <v>4</v>
@@ -42978,7 +42870,7 @@
         <v>13</v>
       </c>
       <c r="H1611" s="13" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
     </row>
     <row r="1612" spans="1:8" x14ac:dyDescent="0.35">
@@ -43001,7 +42893,7 @@
         <v>82</v>
       </c>
       <c r="G1612" s="12" t="s">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="H1612" s="14" t="s">
         <v>75</v>
@@ -43027,7 +42919,7 @@
         <v>43941</v>
       </c>
       <c r="G1613" s="12" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="H1613" s="14" t="s">
         <v>4</v>
@@ -43053,7 +42945,7 @@
         <v>43938</v>
       </c>
       <c r="G1614" s="12" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="H1614" s="14" t="s">
         <v>5</v>
@@ -43079,7 +42971,7 @@
         <v>46</v>
       </c>
       <c r="G1615" s="12" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="H1615" s="14" t="s">
         <v>4</v>
@@ -43105,7 +42997,7 @@
         <v>43947</v>
       </c>
       <c r="G1616" s="12" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="H1616" s="14" t="s">
         <v>4</v>
@@ -43134,7 +43026,7 @@
         <v>13</v>
       </c>
       <c r="H1617" s="13" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
     </row>
     <row r="1618" spans="1:8" x14ac:dyDescent="0.35">
@@ -43157,7 +43049,7 @@
         <v>43941</v>
       </c>
       <c r="G1618" s="12" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="H1618" s="14" t="s">
         <v>75</v>
@@ -43183,7 +43075,7 @@
         <v>43939</v>
       </c>
       <c r="G1619" s="12" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="H1619" s="14" t="s">
         <v>4</v>
@@ -43209,7 +43101,7 @@
         <v>43941</v>
       </c>
       <c r="G1620" s="12" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="H1620" s="14" t="s">
         <v>4</v>
@@ -43235,7 +43127,7 @@
         <v>43945</v>
       </c>
       <c r="G1621" s="12" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="H1621" s="14" t="s">
         <v>73</v>
@@ -43261,7 +43153,7 @@
         <v>43943</v>
       </c>
       <c r="G1622" s="12" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="H1622" s="14" t="s">
         <v>5</v>
@@ -43287,7 +43179,7 @@
         <v>43942</v>
       </c>
       <c r="G1623" s="12" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="H1623" s="14" t="s">
         <v>5</v>
@@ -43313,7 +43205,7 @@
         <v>43944</v>
       </c>
       <c r="G1624" s="12" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="H1624" s="14" t="s">
         <v>4</v>
@@ -43339,7 +43231,7 @@
         <v>43945</v>
       </c>
       <c r="G1625" s="12" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="H1625" s="14" t="s">
         <v>4</v>
@@ -43365,7 +43257,7 @@
         <v>43943</v>
       </c>
       <c r="G1626" s="12" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="H1626" s="14" t="s">
         <v>4</v>
@@ -43391,7 +43283,7 @@
         <v>43941</v>
       </c>
       <c r="G1627" s="12" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="H1627" s="14" t="s">
         <v>4</v>
@@ -43706,7 +43598,7 @@
         <v>10</v>
       </c>
       <c r="H1639" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1640" spans="1:8" x14ac:dyDescent="0.35">
@@ -45003,7 +44895,7 @@
         <v>43953</v>
       </c>
       <c r="G1689" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="H1689" t="s">
         <v>4</v>
@@ -45029,10 +44921,10 @@
         <v>82</v>
       </c>
       <c r="G1690" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="H1690" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1691" spans="1:8" x14ac:dyDescent="0.4">
@@ -45049,16 +44941,16 @@
         <v>23</v>
       </c>
       <c r="E1691" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F1691" s="1" t="s">
         <v>82</v>
       </c>
       <c r="G1691" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="H1691" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1692" spans="1:8" x14ac:dyDescent="0.4">
@@ -45075,16 +44967,16 @@
         <v>23</v>
       </c>
       <c r="E1692" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F1692" s="1" t="s">
         <v>82</v>
       </c>
       <c r="G1692" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="H1692" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1693" spans="1:8" x14ac:dyDescent="0.4">
@@ -45107,10 +44999,10 @@
         <v>43951</v>
       </c>
       <c r="G1693" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="H1693" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1694" spans="1:8" x14ac:dyDescent="0.4">
@@ -45127,13 +45019,13 @@
         <v>25</v>
       </c>
       <c r="E1694" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F1694" s="1">
         <v>43953</v>
       </c>
       <c r="G1694" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="H1694" t="s">
         <v>5</v>
@@ -45153,13 +45045,13 @@
         <v>25</v>
       </c>
       <c r="E1695" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F1695" s="1">
         <v>43943</v>
       </c>
       <c r="G1695" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="H1695" t="s">
         <v>5</v>
@@ -45179,13 +45071,13 @@
         <v>23</v>
       </c>
       <c r="E1696" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F1696" s="1">
         <v>43954</v>
       </c>
       <c r="G1696" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="H1696" t="s">
         <v>5</v>
@@ -45205,13 +45097,13 @@
         <v>23</v>
       </c>
       <c r="E1697" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F1697" s="1">
         <v>43945</v>
       </c>
       <c r="G1697" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="H1697" t="s">
         <v>5</v>
@@ -45231,16 +45123,16 @@
         <v>25</v>
       </c>
       <c r="E1698" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F1698" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G1698" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="H1698" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1699" spans="1:8" x14ac:dyDescent="0.4">
@@ -45257,13 +45149,13 @@
         <v>23</v>
       </c>
       <c r="E1699" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F1699" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G1699" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="H1699" t="s">
         <v>5</v>
@@ -45283,20 +45175,228 @@
         <v>25</v>
       </c>
       <c r="E1700" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F1700" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G1700" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="H1700" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1701">
+        <v>1699</v>
+      </c>
+      <c r="B1701" s="2">
+        <v>43958</v>
+      </c>
+      <c r="C1701">
+        <v>40</v>
+      </c>
+      <c r="D1701" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1701" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1701" s="1">
+        <v>43951</v>
+      </c>
+      <c r="G1701" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1701" s="7" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="1702" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1702">
+        <v>1700</v>
+      </c>
+      <c r="B1702" s="2">
+        <v>43958</v>
+      </c>
+      <c r="C1702">
+        <v>60</v>
+      </c>
+      <c r="D1702" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1702" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1702" s="1">
+        <v>43953</v>
+      </c>
+      <c r="G1702" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1702" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1703">
+        <v>1701</v>
+      </c>
+      <c r="B1703" s="2">
+        <v>43958</v>
+      </c>
+      <c r="C1703">
+        <v>50</v>
+      </c>
+      <c r="D1703" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1703" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1703" s="1">
+        <v>43956</v>
+      </c>
+      <c r="G1703" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1703" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1704">
+        <v>1702</v>
+      </c>
+      <c r="B1704" s="2">
+        <v>43958</v>
+      </c>
+      <c r="C1704">
+        <v>60</v>
+      </c>
+      <c r="D1704" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1704" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1704" s="1">
+        <v>43948</v>
+      </c>
+      <c r="G1704" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1704" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1705">
+        <v>1703</v>
+      </c>
+      <c r="B1705" s="2">
+        <v>43958</v>
+      </c>
+      <c r="C1705">
+        <v>50</v>
+      </c>
+      <c r="D1705" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1705" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1705" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1705" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1705" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1706">
+        <v>1704</v>
+      </c>
+      <c r="B1706" s="2">
+        <v>43958</v>
+      </c>
+      <c r="C1706">
+        <v>80</v>
+      </c>
+      <c r="D1706" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1706" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1706" s="1">
+        <v>43954</v>
+      </c>
+      <c r="G1706" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1706" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1707">
+        <v>1705</v>
+      </c>
+      <c r="B1707" s="2">
+        <v>43958</v>
+      </c>
+      <c r="C1707">
+        <v>30</v>
+      </c>
+      <c r="D1707" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1707" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1707" s="1">
+        <v>43955</v>
+      </c>
+      <c r="G1707" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1707" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1708">
+        <v>1706</v>
+      </c>
+      <c r="B1708" s="2">
+        <v>43958</v>
+      </c>
+      <c r="C1708">
+        <v>40</v>
+      </c>
+      <c r="D1708" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1708" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1708" s="1">
+        <v>43957</v>
+      </c>
+      <c r="G1708" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1708" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:H1700" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A2:H1708"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -45304,10 +45404,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K105"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -45316,7 +45416,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="3">
-        <v>43955</v>
+        <v>43958</v>
       </c>
       <c r="B1" t="s">
         <v>60</v>
@@ -48394,7 +48494,7 @@
         <v>273</v>
       </c>
       <c r="J89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K89">
         <v>21</v>
@@ -48894,58 +48994,93 @@
       <c r="A104" s="2">
         <v>43957</v>
       </c>
-      <c r="B104" s="15">
+      <c r="B104" s="17">
         <v>507</v>
       </c>
-      <c r="C104" s="16">
+      <c r="C104" s="18">
         <v>12</v>
       </c>
-      <c r="D104" s="16">
+      <c r="D104" s="18">
         <v>1698</v>
       </c>
-      <c r="E104" s="16">
-        <v>739</v>
-      </c>
-      <c r="F104" s="16">
+      <c r="E104" s="18">
+        <v>742</v>
+      </c>
+      <c r="F104" s="18">
         <v>64</v>
       </c>
-      <c r="G104" s="16">
-        <v>894</v>
-      </c>
-      <c r="H104" s="16">
+      <c r="G104" s="18">
+        <v>900</v>
+      </c>
+      <c r="H104" s="18">
         <v>64</v>
       </c>
-      <c r="I104" s="16">
+      <c r="I104" s="18">
         <v>900</v>
       </c>
-      <c r="J104" s="16">
-        <v>3</v>
+      <c r="J104" s="18">
+        <v>0</v>
       </c>
       <c r="K104" s="17">
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A105" s="4" t="s">
+    <row r="105" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A105" s="2">
+        <v>43958</v>
+      </c>
+      <c r="B105" s="15">
+        <v>462</v>
+      </c>
+      <c r="C105" s="16">
+        <v>8</v>
+      </c>
+      <c r="D105" s="16">
+        <v>1706</v>
+      </c>
+      <c r="E105" s="16">
+        <v>726</v>
+      </c>
+      <c r="F105" s="16">
+        <v>21</v>
+      </c>
+      <c r="G105" s="16">
+        <v>921</v>
+      </c>
+      <c r="H105" s="16">
+        <v>21</v>
+      </c>
+      <c r="I105" s="16">
+        <v>921</v>
+      </c>
+      <c r="J105" s="16">
+        <v>3</v>
+      </c>
+      <c r="K105" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A106" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B105">
-        <v>19212</v>
-      </c>
-      <c r="C105">
-        <v>1698</v>
-      </c>
-      <c r="F105">
-        <v>900</v>
-      </c>
-      <c r="H105">
-        <v>900</v>
-      </c>
-      <c r="J105">
+      <c r="B106">
+        <v>19674</v>
+      </c>
+      <c r="C106">
+        <v>1706</v>
+      </c>
+      <c r="F106">
+        <v>921</v>
+      </c>
+      <c r="H106">
+        <v>921</v>
+      </c>
+      <c r="J106">
         <v>59</v>
       </c>
-      <c r="K105">
-        <v>884</v>
+      <c r="K106">
+        <v>887</v>
       </c>
     </row>
   </sheetData>

--- a/data/patients_and_inspections.xlsx
+++ b/data/patients_and_inspections.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.19.161.23\kansen_fol\03防疫L（移行済）\06　中国武漢市肺炎（新型コロナウイルス）\検査の状況(HP更新)\陽性者入院状況\コロナサイト\0508（0507のデータ）\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\コロナ対策サイト\0508-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2010" yWindow="465" windowWidth="33000" windowHeight="19155"/>
+    <workbookView xWindow="4020" yWindow="465" windowWidth="33000" windowHeight="19155" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="【公開OK】ピポット集計" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="【公開OK】コロナサイト用（日付ベース）" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'【公開OK】府HP用(陽性者ベース)'!$A$2:$H$1708</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'【公開OK】府HP用(陽性者ベース)'!$A$2:$H$1718</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7225" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7268" uniqueCount="104">
   <si>
     <t>（1）入退院の状況</t>
   </si>
@@ -841,7 +841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -865,7 +865,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>921</v>
+        <v>978</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -873,7 +873,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>389</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
@@ -881,7 +881,7 @@
         <v>92</v>
       </c>
       <c r="B6">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
@@ -897,7 +897,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1706</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
@@ -918,7 +918,7 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <v>620</v>
+        <v>572</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
@@ -926,7 +926,7 @@
         <v>11</v>
       </c>
       <c r="B14">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
@@ -934,7 +934,7 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
@@ -950,7 +950,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>921</v>
+        <v>978</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
@@ -958,7 +958,7 @@
         <v>7</v>
       </c>
       <c r="B18">
-        <v>1706</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
@@ -966,7 +966,7 @@
         <v>84</v>
       </c>
       <c r="B20">
-        <v>112</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
@@ -974,7 +974,7 @@
         <v>85</v>
       </c>
       <c r="B21">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
@@ -982,7 +982,7 @@
         <v>86</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -994,9 +994,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1708"/>
+  <dimension ref="A1:H1718"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A1701" workbookViewId="0">
+      <selection activeCell="B1717" sqref="B1717"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1007,7 +1009,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="3">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="B1" t="s">
         <v>60</v>
@@ -5586,7 +5588,7 @@
         <v>10</v>
       </c>
       <c r="H177" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.4">
@@ -8524,7 +8526,7 @@
         <v>10</v>
       </c>
       <c r="H290" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.4">
@@ -10344,7 +10346,7 @@
         <v>10</v>
       </c>
       <c r="H360" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.35">
@@ -11020,7 +11022,7 @@
         <v>10</v>
       </c>
       <c r="H386" s="14" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.35">
@@ -11046,7 +11048,7 @@
         <v>10</v>
       </c>
       <c r="H387" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.35">
@@ -11306,7 +11308,7 @@
         <v>10</v>
       </c>
       <c r="H397" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.35">
@@ -12424,7 +12426,7 @@
         <v>10</v>
       </c>
       <c r="H440" s="14" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.35">
@@ -12502,7 +12504,7 @@
         <v>10</v>
       </c>
       <c r="H443" s="14" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="444" spans="1:8" x14ac:dyDescent="0.35">
@@ -16584,7 +16586,7 @@
         <v>10</v>
       </c>
       <c r="H600" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="601" spans="1:8" x14ac:dyDescent="0.35">
@@ -17338,7 +17340,7 @@
         <v>10</v>
       </c>
       <c r="H629" s="14" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="630" spans="1:8" x14ac:dyDescent="0.35">
@@ -18196,7 +18198,7 @@
         <v>10</v>
       </c>
       <c r="H662" s="14" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="663" spans="1:8" x14ac:dyDescent="0.35">
@@ -18560,7 +18562,7 @@
         <v>10</v>
       </c>
       <c r="H676" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="677" spans="1:8" x14ac:dyDescent="0.35">
@@ -19080,7 +19082,7 @@
         <v>46</v>
       </c>
       <c r="H696" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="697" spans="1:8" x14ac:dyDescent="0.35">
@@ -22122,7 +22124,7 @@
         <v>10</v>
       </c>
       <c r="H813" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="814" spans="1:8" x14ac:dyDescent="0.35">
@@ -24982,7 +24984,7 @@
         <v>10</v>
       </c>
       <c r="H923" s="14" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="924" spans="1:8" x14ac:dyDescent="0.35">
@@ -25346,7 +25348,7 @@
         <v>10</v>
       </c>
       <c r="H937" s="14" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="938" spans="1:8" x14ac:dyDescent="0.35">
@@ -26412,7 +26414,7 @@
         <v>10</v>
       </c>
       <c r="H978" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="979" spans="1:8" x14ac:dyDescent="0.35">
@@ -26906,7 +26908,7 @@
         <v>10</v>
       </c>
       <c r="H997" s="14" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="998" spans="1:8" x14ac:dyDescent="0.35">
@@ -27296,7 +27298,7 @@
         <v>10</v>
       </c>
       <c r="H1012" s="14" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1013" spans="1:8" x14ac:dyDescent="0.35">
@@ -27686,7 +27688,7 @@
         <v>12</v>
       </c>
       <c r="H1027" s="14" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="1028" spans="1:8" x14ac:dyDescent="0.35">
@@ -27816,7 +27818,7 @@
         <v>10</v>
       </c>
       <c r="H1032" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1033" spans="1:8" x14ac:dyDescent="0.35">
@@ -28466,7 +28468,7 @@
         <v>10</v>
       </c>
       <c r="H1057" s="14" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="1058" spans="1:8" x14ac:dyDescent="0.35">
@@ -28830,7 +28832,7 @@
         <v>10</v>
       </c>
       <c r="H1071" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1072" spans="1:8" x14ac:dyDescent="0.35">
@@ -29298,7 +29300,7 @@
         <v>10</v>
       </c>
       <c r="H1089" s="14" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="1090" spans="1:8" x14ac:dyDescent="0.35">
@@ -30364,7 +30366,7 @@
         <v>46</v>
       </c>
       <c r="H1130" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1131" spans="1:8" x14ac:dyDescent="0.35">
@@ -31040,7 +31042,7 @@
         <v>46</v>
       </c>
       <c r="H1156" s="14" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1157" spans="1:8" x14ac:dyDescent="0.35">
@@ -31453,7 +31455,7 @@
         <v>43937</v>
       </c>
       <c r="G1172" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H1172" s="14" t="s">
         <v>4</v>
@@ -31768,7 +31770,7 @@
         <v>46</v>
       </c>
       <c r="H1184" s="14" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1185" spans="1:8" x14ac:dyDescent="0.35">
@@ -32028,7 +32030,7 @@
         <v>46</v>
       </c>
       <c r="H1194" s="14" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1195" spans="1:8" x14ac:dyDescent="0.35">
@@ -32080,7 +32082,7 @@
         <v>46</v>
       </c>
       <c r="H1196" s="14" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1197" spans="1:8" x14ac:dyDescent="0.35">
@@ -32132,7 +32134,7 @@
         <v>46</v>
       </c>
       <c r="H1198" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1199" spans="1:8" x14ac:dyDescent="0.35">
@@ -32470,7 +32472,7 @@
         <v>10</v>
       </c>
       <c r="H1211" s="14" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1212" spans="1:8" x14ac:dyDescent="0.35">
@@ -32704,7 +32706,7 @@
         <v>46</v>
       </c>
       <c r="H1220" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1221" spans="1:8" x14ac:dyDescent="0.35">
@@ -32730,7 +32732,7 @@
         <v>46</v>
       </c>
       <c r="H1221" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1222" spans="1:8" x14ac:dyDescent="0.35">
@@ -32938,7 +32940,7 @@
         <v>46</v>
       </c>
       <c r="H1229" s="14" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1230" spans="1:8" x14ac:dyDescent="0.35">
@@ -33042,7 +33044,7 @@
         <v>46</v>
       </c>
       <c r="H1233" s="14" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1234" spans="1:8" x14ac:dyDescent="0.35">
@@ -33094,7 +33096,7 @@
         <v>46</v>
       </c>
       <c r="H1235" s="14" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1236" spans="1:8" x14ac:dyDescent="0.35">
@@ -33276,7 +33278,7 @@
         <v>46</v>
       </c>
       <c r="H1242" s="14" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1243" spans="1:8" x14ac:dyDescent="0.35">
@@ -33328,7 +33330,7 @@
         <v>46</v>
       </c>
       <c r="H1244" s="14" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1245" spans="1:8" x14ac:dyDescent="0.35">
@@ -33536,7 +33538,7 @@
         <v>46</v>
       </c>
       <c r="H1252" s="14" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1253" spans="1:8" x14ac:dyDescent="0.35">
@@ -33562,7 +33564,7 @@
         <v>46</v>
       </c>
       <c r="H1253" s="14" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1254" spans="1:8" x14ac:dyDescent="0.35">
@@ -33822,7 +33824,7 @@
         <v>10</v>
       </c>
       <c r="H1263" s="14" t="s">
-        <v>73</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1264" spans="1:8" x14ac:dyDescent="0.35">
@@ -34992,7 +34994,7 @@
         <v>10</v>
       </c>
       <c r="H1308" s="14" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1309" spans="1:8" x14ac:dyDescent="0.35">
@@ -35096,7 +35098,7 @@
         <v>46</v>
       </c>
       <c r="H1312" s="14" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1313" spans="1:8" x14ac:dyDescent="0.35">
@@ -35200,7 +35202,7 @@
         <v>46</v>
       </c>
       <c r="H1316" s="14" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1317" spans="1:8" x14ac:dyDescent="0.35">
@@ -35252,7 +35254,7 @@
         <v>46</v>
       </c>
       <c r="H1318" s="14" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1319" spans="1:8" x14ac:dyDescent="0.35">
@@ -35278,7 +35280,7 @@
         <v>46</v>
       </c>
       <c r="H1319" s="14" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1320" spans="1:8" x14ac:dyDescent="0.35">
@@ -35564,7 +35566,7 @@
         <v>46</v>
       </c>
       <c r="H1330" s="14" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="1331" spans="1:8" x14ac:dyDescent="0.35">
@@ -35798,7 +35800,7 @@
         <v>11</v>
       </c>
       <c r="H1339" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1340" spans="1:8" x14ac:dyDescent="0.35">
@@ -36136,7 +36138,7 @@
         <v>10</v>
       </c>
       <c r="H1352" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1353" spans="1:8" x14ac:dyDescent="0.35">
@@ -36214,7 +36216,7 @@
         <v>10</v>
       </c>
       <c r="H1355" s="14" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1356" spans="1:8" x14ac:dyDescent="0.35">
@@ -36422,7 +36424,7 @@
         <v>10</v>
       </c>
       <c r="H1363" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1364" spans="1:8" x14ac:dyDescent="0.35">
@@ -36500,7 +36502,7 @@
         <v>10</v>
       </c>
       <c r="H1366" s="14" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1367" spans="1:8" x14ac:dyDescent="0.35">
@@ -36526,7 +36528,7 @@
         <v>46</v>
       </c>
       <c r="H1367" s="14" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1368" spans="1:8" x14ac:dyDescent="0.35">
@@ -36552,7 +36554,7 @@
         <v>46</v>
       </c>
       <c r="H1368" s="14" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1369" spans="1:8" x14ac:dyDescent="0.35">
@@ -36578,7 +36580,7 @@
         <v>10</v>
       </c>
       <c r="H1369" s="14" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1370" spans="1:8" x14ac:dyDescent="0.35">
@@ -36630,7 +36632,7 @@
         <v>10</v>
       </c>
       <c r="H1371" s="14" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1372" spans="1:8" x14ac:dyDescent="0.35">
@@ -36838,7 +36840,7 @@
         <v>10</v>
       </c>
       <c r="H1379" s="14" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1380" spans="1:8" x14ac:dyDescent="0.35">
@@ -37020,7 +37022,7 @@
         <v>10</v>
       </c>
       <c r="H1386" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1387" spans="1:8" x14ac:dyDescent="0.35">
@@ -37176,7 +37178,7 @@
         <v>46</v>
       </c>
       <c r="H1392" s="14" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1393" spans="1:8" x14ac:dyDescent="0.35">
@@ -37332,7 +37334,7 @@
         <v>10</v>
       </c>
       <c r="H1398" s="14" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="1399" spans="1:8" x14ac:dyDescent="0.35">
@@ -37384,7 +37386,7 @@
         <v>10</v>
       </c>
       <c r="H1400" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1401" spans="1:8" x14ac:dyDescent="0.35">
@@ -37722,7 +37724,7 @@
         <v>10</v>
       </c>
       <c r="H1413" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1414" spans="1:8" x14ac:dyDescent="0.35">
@@ -37774,7 +37776,7 @@
         <v>10</v>
       </c>
       <c r="H1415" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1416" spans="1:8" x14ac:dyDescent="0.35">
@@ -37956,7 +37958,7 @@
         <v>10</v>
       </c>
       <c r="H1422" s="14" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1423" spans="1:8" x14ac:dyDescent="0.35">
@@ -38008,7 +38010,7 @@
         <v>46</v>
       </c>
       <c r="H1424" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1425" spans="1:8" x14ac:dyDescent="0.35">
@@ -38294,7 +38296,7 @@
         <v>10</v>
       </c>
       <c r="H1435" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1436" spans="1:8" x14ac:dyDescent="0.35">
@@ -39490,7 +39492,7 @@
         <v>10</v>
       </c>
       <c r="H1481" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1482" spans="1:8" x14ac:dyDescent="0.35">
@@ -40062,7 +40064,7 @@
         <v>10</v>
       </c>
       <c r="H1503" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1504" spans="1:8" x14ac:dyDescent="0.35">
@@ -40348,7 +40350,7 @@
         <v>10</v>
       </c>
       <c r="H1514" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1515" spans="1:8" x14ac:dyDescent="0.35">
@@ -40556,7 +40558,7 @@
         <v>10</v>
       </c>
       <c r="H1522" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1523" spans="1:8" x14ac:dyDescent="0.35">
@@ -40660,7 +40662,7 @@
         <v>10</v>
       </c>
       <c r="H1526" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1527" spans="1:8" x14ac:dyDescent="0.35">
@@ -41180,7 +41182,7 @@
         <v>11</v>
       </c>
       <c r="H1546" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1547" spans="1:8" x14ac:dyDescent="0.35">
@@ -41466,7 +41468,7 @@
         <v>10</v>
       </c>
       <c r="H1557" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1558" spans="1:8" x14ac:dyDescent="0.35">
@@ -41492,7 +41494,7 @@
         <v>10</v>
       </c>
       <c r="H1558" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1559" spans="1:8" x14ac:dyDescent="0.35">
@@ -41518,7 +41520,7 @@
         <v>10</v>
       </c>
       <c r="H1559" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1560" spans="1:8" x14ac:dyDescent="0.35">
@@ -42376,7 +42378,7 @@
         <v>46</v>
       </c>
       <c r="H1592" s="14" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="1593" spans="1:8" x14ac:dyDescent="0.35">
@@ -42636,7 +42638,7 @@
         <v>10</v>
       </c>
       <c r="H1602" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1603" spans="1:8" x14ac:dyDescent="0.35">
@@ -42662,7 +42664,7 @@
         <v>12</v>
       </c>
       <c r="H1603" s="14" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1604" spans="1:8" x14ac:dyDescent="0.35">
@@ -42714,7 +42716,7 @@
         <v>10</v>
       </c>
       <c r="H1605" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1606" spans="1:8" x14ac:dyDescent="0.35">
@@ -42740,7 +42742,7 @@
         <v>10</v>
       </c>
       <c r="H1606" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1607" spans="1:8" x14ac:dyDescent="0.35">
@@ -42948,7 +42950,7 @@
         <v>10</v>
       </c>
       <c r="H1614" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1615" spans="1:8" x14ac:dyDescent="0.35">
@@ -43156,7 +43158,7 @@
         <v>46</v>
       </c>
       <c r="H1622" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1623" spans="1:8" x14ac:dyDescent="0.35">
@@ -43182,7 +43184,7 @@
         <v>10</v>
       </c>
       <c r="H1623" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1624" spans="1:8" x14ac:dyDescent="0.35">
@@ -43390,7 +43392,7 @@
         <v>10</v>
       </c>
       <c r="H1631" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1632" spans="1:8" x14ac:dyDescent="0.35">
@@ -43702,7 +43704,7 @@
         <v>10</v>
       </c>
       <c r="H1643" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1644" spans="1:8" x14ac:dyDescent="0.35">
@@ -43728,7 +43730,7 @@
         <v>10</v>
       </c>
       <c r="H1644" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1645" spans="1:8" x14ac:dyDescent="0.35">
@@ -43806,7 +43808,7 @@
         <v>10</v>
       </c>
       <c r="H1647" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1648" spans="1:8" x14ac:dyDescent="0.35">
@@ -43832,7 +43834,7 @@
         <v>10</v>
       </c>
       <c r="H1648" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1649" spans="1:8" x14ac:dyDescent="0.35">
@@ -43858,7 +43860,7 @@
         <v>10</v>
       </c>
       <c r="H1649" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1650" spans="1:8" x14ac:dyDescent="0.35">
@@ -43910,7 +43912,7 @@
         <v>10</v>
       </c>
       <c r="H1651" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1652" spans="1:8" x14ac:dyDescent="0.35">
@@ -43962,7 +43964,7 @@
         <v>10</v>
       </c>
       <c r="H1653" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1654" spans="1:8" x14ac:dyDescent="0.35">
@@ -44274,7 +44276,7 @@
         <v>10</v>
       </c>
       <c r="H1665" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1666" spans="1:8" x14ac:dyDescent="0.35">
@@ -44300,7 +44302,7 @@
         <v>10</v>
       </c>
       <c r="H1666" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1667" spans="1:8" x14ac:dyDescent="0.35">
@@ -44352,7 +44354,7 @@
         <v>10</v>
       </c>
       <c r="H1668" s="14" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1669" spans="1:8" x14ac:dyDescent="0.35">
@@ -44404,7 +44406,7 @@
         <v>10</v>
       </c>
       <c r="H1670" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1671" spans="1:8" x14ac:dyDescent="0.35">
@@ -44560,7 +44562,7 @@
         <v>10</v>
       </c>
       <c r="H1676" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1677" spans="1:8" x14ac:dyDescent="0.35">
@@ -44586,7 +44588,7 @@
         <v>10</v>
       </c>
       <c r="H1677" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1678" spans="1:8" x14ac:dyDescent="0.35">
@@ -44612,7 +44614,7 @@
         <v>10</v>
       </c>
       <c r="H1678" s="14" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1679" spans="1:8" x14ac:dyDescent="0.35">
@@ -44638,7 +44640,7 @@
         <v>10</v>
       </c>
       <c r="H1679" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1680" spans="1:8" x14ac:dyDescent="0.35">
@@ -44768,7 +44770,7 @@
         <v>10</v>
       </c>
       <c r="H1684" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1685" spans="1:8" x14ac:dyDescent="0.4">
@@ -44794,7 +44796,7 @@
         <v>10</v>
       </c>
       <c r="H1685" s="14" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1686" spans="1:8" x14ac:dyDescent="0.4">
@@ -44820,7 +44822,7 @@
         <v>12</v>
       </c>
       <c r="H1686" s="14" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1687" spans="1:8" x14ac:dyDescent="0.4">
@@ -44846,7 +44848,7 @@
         <v>12</v>
       </c>
       <c r="H1687" s="14" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1688" spans="1:8" x14ac:dyDescent="0.4">
@@ -44872,7 +44874,7 @@
         <v>12</v>
       </c>
       <c r="H1688" s="14" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1689" spans="1:8" x14ac:dyDescent="0.4">
@@ -45028,7 +45030,7 @@
         <v>10</v>
       </c>
       <c r="H1694" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1695" spans="1:8" x14ac:dyDescent="0.4">
@@ -45054,7 +45056,7 @@
         <v>10</v>
       </c>
       <c r="H1695" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1696" spans="1:8" x14ac:dyDescent="0.4">
@@ -45080,7 +45082,7 @@
         <v>10</v>
       </c>
       <c r="H1696" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1697" spans="1:8" x14ac:dyDescent="0.4">
@@ -45106,7 +45108,7 @@
         <v>10</v>
       </c>
       <c r="H1697" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1698" spans="1:8" x14ac:dyDescent="0.4">
@@ -45210,7 +45212,7 @@
         <v>10</v>
       </c>
       <c r="H1701" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1702" spans="1:8" x14ac:dyDescent="0.4">
@@ -45236,7 +45238,7 @@
         <v>10</v>
       </c>
       <c r="H1702" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1703" spans="1:8" x14ac:dyDescent="0.4">
@@ -45288,7 +45290,7 @@
         <v>10</v>
       </c>
       <c r="H1704" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1705" spans="1:8" x14ac:dyDescent="0.4">
@@ -45314,7 +45316,7 @@
         <v>12</v>
       </c>
       <c r="H1705" s="7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1706" spans="1:8" x14ac:dyDescent="0.4">
@@ -45340,7 +45342,7 @@
         <v>10</v>
       </c>
       <c r="H1706" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1707" spans="1:8" x14ac:dyDescent="0.4">
@@ -45366,7 +45368,7 @@
         <v>10</v>
       </c>
       <c r="H1707" s="7" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1708" spans="1:8" x14ac:dyDescent="0.4">
@@ -45392,11 +45394,271 @@
         <v>10</v>
       </c>
       <c r="H1708" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1709">
+        <v>1707</v>
+      </c>
+      <c r="B1709" s="2">
+        <v>43959</v>
+      </c>
+      <c r="C1709">
+        <v>30</v>
+      </c>
+      <c r="D1709" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1709" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1709" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1709" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1709" s="7" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="1710" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1710">
+        <v>1708</v>
+      </c>
+      <c r="B1710" s="2">
+        <v>43959</v>
+      </c>
+      <c r="C1710">
+        <v>50</v>
+      </c>
+      <c r="D1710" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1710" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1710" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1710" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1710" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1711">
+        <v>1709</v>
+      </c>
+      <c r="B1711" s="2">
+        <v>43959</v>
+      </c>
+      <c r="C1711">
+        <v>40</v>
+      </c>
+      <c r="D1711" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1711" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1711" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1711" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1711" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1712">
+        <v>1710</v>
+      </c>
+      <c r="B1712" s="2">
+        <v>43959</v>
+      </c>
+      <c r="C1712">
+        <v>40</v>
+      </c>
+      <c r="D1712" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1712" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1712" s="1">
+        <v>43951</v>
+      </c>
+      <c r="G1712" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1712" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1713">
+        <v>1711</v>
+      </c>
+      <c r="B1713" s="2">
+        <v>43959</v>
+      </c>
+      <c r="C1713">
+        <v>40</v>
+      </c>
+      <c r="D1713" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1713" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1713" s="1">
+        <v>43950</v>
+      </c>
+      <c r="G1713" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1713" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1714">
+        <v>1712</v>
+      </c>
+      <c r="B1714" s="2">
+        <v>43959</v>
+      </c>
+      <c r="C1714">
+        <v>20</v>
+      </c>
+      <c r="D1714" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1714" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1714" s="1">
+        <v>43952</v>
+      </c>
+      <c r="G1714" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1714" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1715">
+        <v>1713</v>
+      </c>
+      <c r="B1715" s="2">
+        <v>43959</v>
+      </c>
+      <c r="C1715">
+        <v>30</v>
+      </c>
+      <c r="D1715" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1715" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1715" s="1">
+        <v>43951</v>
+      </c>
+      <c r="G1715" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1715" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1716">
+        <v>1714</v>
+      </c>
+      <c r="B1716" s="2">
+        <v>43959</v>
+      </c>
+      <c r="C1716">
+        <v>70</v>
+      </c>
+      <c r="D1716" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1716" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1716" s="1">
+        <v>43929</v>
+      </c>
+      <c r="G1716" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1716" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1717">
+        <v>1715</v>
+      </c>
+      <c r="B1717" s="2">
+        <v>43959</v>
+      </c>
+      <c r="C1717">
+        <v>20</v>
+      </c>
+      <c r="D1717" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1717" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1717" s="1">
+        <v>43955</v>
+      </c>
+      <c r="G1717" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1717" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1718">
+        <v>1716</v>
+      </c>
+      <c r="B1718" s="2">
+        <v>43959</v>
+      </c>
+      <c r="C1718">
+        <v>60</v>
+      </c>
+      <c r="D1718" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1718" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1718" s="1">
+        <v>43953</v>
+      </c>
+      <c r="G1718" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1718" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:H1708"/>
+  <autoFilter ref="A2:H1718"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -45405,9 +45667,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K106"/>
+  <dimension ref="A1:K107"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -45416,7 +45678,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="3">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="B1" t="s">
         <v>60</v>
@@ -49060,27 +49322,62 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A106" s="4" t="s">
+    <row r="106" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A106" s="2">
+        <v>43959</v>
+      </c>
+      <c r="B106" s="17">
+        <v>589</v>
+      </c>
+      <c r="C106" s="18">
+        <v>10</v>
+      </c>
+      <c r="D106" s="18">
+        <v>1716</v>
+      </c>
+      <c r="E106" s="18">
+        <v>679</v>
+      </c>
+      <c r="F106" s="18">
+        <v>57</v>
+      </c>
+      <c r="G106" s="18">
+        <v>978</v>
+      </c>
+      <c r="H106" s="18">
+        <v>57</v>
+      </c>
+      <c r="I106" s="18">
+        <v>978</v>
+      </c>
+      <c r="J106" s="18">
+        <v>0</v>
+      </c>
+      <c r="K106" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A107" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B106">
-        <v>19674</v>
-      </c>
-      <c r="C106">
-        <v>1706</v>
-      </c>
-      <c r="F106">
-        <v>921</v>
-      </c>
-      <c r="H106">
-        <v>921</v>
-      </c>
-      <c r="J106">
+      <c r="B107">
+        <v>20263</v>
+      </c>
+      <c r="C107">
+        <v>1716</v>
+      </c>
+      <c r="F107">
+        <v>978</v>
+      </c>
+      <c r="H107">
+        <v>978</v>
+      </c>
+      <c r="J107">
         <v>59</v>
       </c>
-      <c r="K106">
-        <v>887</v>
+      <c r="K107">
+        <v>891</v>
       </c>
     </row>
   </sheetData>

--- a/data/patients_and_inspections.xlsx
+++ b/data/patients_and_inspections.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\コロナ対策サイト\0508-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hasse\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E7C174B-3986-4F94-882A-31255E4D0ECC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="465" windowWidth="33000" windowHeight="19155" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="【公開OK】ピポット集計" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <sheet name="【公開OK】コロナサイト用（日付ベース）" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'【公開OK】府HP用(陽性者ベース)'!$A$2:$H$1718</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'【公開OK】府HP用(陽性者ベース)'!$A$2:$H$1734</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7268" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7334" uniqueCount="123">
   <si>
     <t>（1）入退院の状況</t>
   </si>
@@ -344,9 +345,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>計</t>
-  </si>
-  <si>
     <t>大阪市</t>
     <rPh sb="0" eb="2">
       <t>オオサカ</t>
@@ -409,24 +407,152 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
+    <t>計</t>
+    <rPh sb="0" eb="1">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>重症</t>
+    <rPh sb="0" eb="1">
+      <t>ジュウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>重症</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>無症状</t>
+    <rPh sb="0" eb="3">
+      <t>ムショウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>調査中</t>
+    <rPh sb="0" eb="3">
+      <t>チョウサチュウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>調査中</t>
+    <rPh sb="0" eb="3">
+      <t>チョウサチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無症状</t>
+    <rPh sb="0" eb="3">
+      <t>ムショウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重症</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>重症</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショウ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>調査中</t>
+    <rPh sb="0" eb="3">
+      <t>チョウサチュウ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>無症状</t>
+    <rPh sb="0" eb="3">
+      <t>ムショウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>無症状</t>
+    <rPh sb="0" eb="3">
+      <t>ムショウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>重症</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショウ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
     <t>死亡退院</t>
-    <rPh sb="0" eb="2">
-      <t>シボウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>タイイン</t>
-    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>死亡退院</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>死亡退院</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -480,6 +606,38 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="游ゴシック Light"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -506,7 +664,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -558,10 +716,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -838,11 +999,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:B22"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -865,7 +1026,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>978</v>
+        <v>990</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -873,7 +1034,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>405</v>
+        <v>409</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
@@ -881,7 +1042,7 @@
         <v>92</v>
       </c>
       <c r="B6">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
@@ -897,7 +1058,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1716</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
@@ -918,7 +1079,7 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <v>572</v>
+        <v>576</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
@@ -926,7 +1087,7 @@
         <v>11</v>
       </c>
       <c r="B14">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
@@ -934,7 +1095,7 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
@@ -950,7 +1111,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>978</v>
+        <v>990</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
@@ -958,7 +1119,7 @@
         <v>7</v>
       </c>
       <c r="B18">
-        <v>1716</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
@@ -966,7 +1127,7 @@
         <v>84</v>
       </c>
       <c r="B20">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
@@ -974,7 +1135,7 @@
         <v>85</v>
       </c>
       <c r="B21">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
@@ -982,7 +1143,7 @@
         <v>86</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -993,11 +1154,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1718"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H1734"/>
   <sheetViews>
-    <sheetView topLeftCell="A1701" workbookViewId="0">
-      <selection activeCell="B1717" sqref="B1717"/>
+    <sheetView topLeftCell="A1718" workbookViewId="0">
+      <selection activeCell="B1719" sqref="B1719"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1009,7 +1170,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="3">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="B1" t="s">
         <v>60</v>
@@ -1477,10 +1638,10 @@
         <v>43878</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
@@ -2517,10 +2678,10 @@
         <v>43895</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="H59" s="13" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.4">
@@ -2751,10 +2912,10 @@
         <v>43896</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="H68" s="13" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.4">
@@ -3479,10 +3640,10 @@
         <v>43898</v>
       </c>
       <c r="G96" s="11" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="H96" s="13" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
@@ -3583,10 +3744,10 @@
         <v>43896</v>
       </c>
       <c r="G100" s="11" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H100" s="13" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.4">
@@ -4545,7 +4706,7 @@
         <v>43908</v>
       </c>
       <c r="G137" s="11" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H137" s="13" t="s">
         <v>3</v>
@@ -5403,10 +5564,10 @@
         <v>43911</v>
       </c>
       <c r="G170" s="11" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="H170" s="13" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.4">
@@ -7850,7 +8011,7 @@
         <v>14</v>
       </c>
       <c r="H264" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="265" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
@@ -7902,7 +8063,7 @@
         <v>14</v>
       </c>
       <c r="H266" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="267" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
@@ -7928,7 +8089,7 @@
         <v>14</v>
       </c>
       <c r="H267" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="268" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
@@ -8861,10 +9022,10 @@
         <v>43920</v>
       </c>
       <c r="G303" s="11" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="H303" s="13" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.4">
@@ -8887,10 +9048,10 @@
         <v>43922</v>
       </c>
       <c r="G304" s="11" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="H304" s="13" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.4">
@@ -10473,10 +10634,10 @@
         <v>43924</v>
       </c>
       <c r="G365" s="12" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="H365" s="13" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.35">
@@ -10863,7 +11024,7 @@
         <v>46</v>
       </c>
       <c r="G380" s="12" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="H380" s="14" t="s">
         <v>4</v>
@@ -10941,7 +11102,7 @@
         <v>43922</v>
       </c>
       <c r="G383" s="12" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="H383" s="14" t="s">
         <v>4</v>
@@ -10993,7 +11154,7 @@
         <v>43917</v>
       </c>
       <c r="G385" s="12" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="H385" s="14" t="s">
         <v>3</v>
@@ -11409,10 +11570,10 @@
         <v>43918</v>
       </c>
       <c r="G401" s="12" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="H401" s="13" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.35">
@@ -11461,10 +11622,10 @@
         <v>43919</v>
       </c>
       <c r="G403" s="12" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="H403" s="13" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.35">
@@ -11721,7 +11882,7 @@
         <v>43918</v>
       </c>
       <c r="G413" s="12" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="H413" s="14" t="s">
         <v>4</v>
@@ -11825,7 +11986,7 @@
         <v>56</v>
       </c>
       <c r="G417" s="12" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="H417" s="14" t="s">
         <v>87</v>
@@ -11877,7 +12038,7 @@
         <v>43925</v>
       </c>
       <c r="G419" s="12" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="H419" s="14" t="s">
         <v>4</v>
@@ -11955,7 +12116,7 @@
         <v>43922</v>
       </c>
       <c r="G422" s="12" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="H422" s="14" t="s">
         <v>4</v>
@@ -12189,7 +12350,7 @@
         <v>43921</v>
       </c>
       <c r="G431" s="12" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="H431" s="14" t="s">
         <v>4</v>
@@ -12683,7 +12844,7 @@
         <v>43924</v>
       </c>
       <c r="G450" s="12" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="H450" s="14" t="s">
         <v>4</v>
@@ -12917,7 +13078,7 @@
         <v>56</v>
       </c>
       <c r="G459" s="12" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="H459" s="14" t="s">
         <v>87</v>
@@ -13385,10 +13546,10 @@
         <v>43916</v>
       </c>
       <c r="G477" s="12" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="H477" s="13" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
     </row>
     <row r="478" spans="1:8" x14ac:dyDescent="0.35">
@@ -13411,7 +13572,7 @@
         <v>56</v>
       </c>
       <c r="G478" s="12" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="H478" s="14" t="s">
         <v>87</v>
@@ -13463,7 +13624,7 @@
         <v>43916</v>
       </c>
       <c r="G480" s="12" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="H480" s="14" t="s">
         <v>4</v>
@@ -13775,7 +13936,7 @@
         <v>56</v>
       </c>
       <c r="G492" s="12" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="H492" s="14" t="s">
         <v>87</v>
@@ -14399,7 +14560,7 @@
         <v>43923</v>
       </c>
       <c r="G516" s="12" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="H516" s="14" t="s">
         <v>3</v>
@@ -14659,7 +14820,7 @@
         <v>43922</v>
       </c>
       <c r="G526" s="12" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="H526" s="14" t="s">
         <v>4</v>
@@ -14971,7 +15132,7 @@
         <v>56</v>
       </c>
       <c r="G538" s="12" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="H538" s="14" t="s">
         <v>3</v>
@@ -14997,7 +15158,7 @@
         <v>43917</v>
       </c>
       <c r="G539" s="12" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="H539" s="14" t="s">
         <v>4</v>
@@ -15231,7 +15392,7 @@
         <v>43923</v>
       </c>
       <c r="G548" s="12" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="H548" s="14" t="s">
         <v>4</v>
@@ -15439,10 +15600,10 @@
         <v>43926</v>
       </c>
       <c r="G556" s="12" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="H556" s="13" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
     </row>
     <row r="557" spans="1:8" x14ac:dyDescent="0.35">
@@ -15777,7 +15938,7 @@
         <v>56</v>
       </c>
       <c r="G569" s="12" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="H569" s="14" t="s">
         <v>87</v>
@@ -15959,10 +16120,10 @@
         <v>43926</v>
       </c>
       <c r="G576" s="12" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="H576" s="13" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
     </row>
     <row r="577" spans="1:8" x14ac:dyDescent="0.35">
@@ -16167,7 +16328,7 @@
         <v>46</v>
       </c>
       <c r="G584" s="12" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="H584" s="14" t="s">
         <v>87</v>
@@ -16219,10 +16380,10 @@
         <v>43924</v>
       </c>
       <c r="G586" s="12" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="H586" s="13" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
     </row>
     <row r="587" spans="1:8" x14ac:dyDescent="0.35">
@@ -16323,7 +16484,7 @@
         <v>46</v>
       </c>
       <c r="G590" s="12" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="H590" s="14" t="s">
         <v>87</v>
@@ -16479,7 +16640,7 @@
         <v>46</v>
       </c>
       <c r="G596" s="12" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="H596" s="14" t="s">
         <v>87</v>
@@ -16505,7 +16666,7 @@
         <v>46</v>
       </c>
       <c r="G597" s="12" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="H597" s="14" t="s">
         <v>87</v>
@@ -16635,7 +16796,7 @@
         <v>56</v>
       </c>
       <c r="G602" s="12" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="H602" s="14" t="s">
         <v>73</v>
@@ -17285,10 +17446,10 @@
         <v>43925</v>
       </c>
       <c r="G627" s="12" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="H627" s="13" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
     </row>
     <row r="628" spans="1:8" x14ac:dyDescent="0.35">
@@ -17467,7 +17628,7 @@
         <v>56</v>
       </c>
       <c r="G634" s="12" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="H634" s="14" t="s">
         <v>87</v>
@@ -17493,7 +17654,7 @@
         <v>56</v>
       </c>
       <c r="G635" s="12" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="H635" s="14" t="s">
         <v>87</v>
@@ -17519,7 +17680,7 @@
         <v>56</v>
       </c>
       <c r="G636" s="12" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="H636" s="14" t="s">
         <v>87</v>
@@ -17727,10 +17888,10 @@
         <v>43927</v>
       </c>
       <c r="G644" s="12" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="H644" s="13" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
     </row>
     <row r="645" spans="1:8" x14ac:dyDescent="0.35">
@@ -17753,10 +17914,10 @@
         <v>43926</v>
       </c>
       <c r="G645" s="12" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="H645" s="13" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
     </row>
     <row r="646" spans="1:8" x14ac:dyDescent="0.35">
@@ -17779,7 +17940,7 @@
         <v>43928</v>
       </c>
       <c r="G646" s="12" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="H646" s="14" t="s">
         <v>4</v>
@@ -17831,7 +17992,7 @@
         <v>43925</v>
       </c>
       <c r="G648" s="12" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="H648" s="14" t="s">
         <v>4</v>
@@ -18039,10 +18200,10 @@
         <v>43926</v>
       </c>
       <c r="G656" s="12" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="H656" s="13" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
     </row>
     <row r="657" spans="1:8" x14ac:dyDescent="0.35">
@@ -18663,7 +18824,7 @@
         <v>43930</v>
       </c>
       <c r="G680" s="12" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="H680" s="14" t="s">
         <v>4</v>
@@ -18845,7 +19006,7 @@
         <v>46</v>
       </c>
       <c r="G687" s="12" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="H687" s="14" t="s">
         <v>4</v>
@@ -18871,7 +19032,7 @@
         <v>46</v>
       </c>
       <c r="G688" s="12" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="H688" s="14" t="s">
         <v>89</v>
@@ -18897,7 +19058,7 @@
         <v>46</v>
       </c>
       <c r="G689" s="12" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="H689" s="14" t="s">
         <v>3</v>
@@ -18949,7 +19110,7 @@
         <v>46</v>
       </c>
       <c r="G691" s="12" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="H691" s="14" t="s">
         <v>87</v>
@@ -18975,7 +19136,7 @@
         <v>46</v>
       </c>
       <c r="G692" s="12" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="H692" s="14" t="s">
         <v>87</v>
@@ -19001,7 +19162,7 @@
         <v>46</v>
       </c>
       <c r="G693" s="12" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="H693" s="14" t="s">
         <v>73</v>
@@ -19027,7 +19188,7 @@
         <v>46</v>
       </c>
       <c r="G694" s="12" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="H694" s="14" t="s">
         <v>3</v>
@@ -19053,7 +19214,7 @@
         <v>46</v>
       </c>
       <c r="G695" s="12" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="H695" s="14" t="s">
         <v>4</v>
@@ -19079,7 +19240,7 @@
         <v>46</v>
       </c>
       <c r="G696" s="12" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="H696" s="14" t="s">
         <v>3</v>
@@ -19365,10 +19526,10 @@
         <v>46</v>
       </c>
       <c r="G707" s="12" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="H707" s="13" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
     </row>
     <row r="708" spans="1:8" x14ac:dyDescent="0.35">
@@ -19391,7 +19552,7 @@
         <v>43926</v>
       </c>
       <c r="G708" s="12" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="H708" s="14" t="s">
         <v>4</v>
@@ -20457,10 +20618,10 @@
         <v>43930</v>
       </c>
       <c r="G749" s="12" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="H749" s="13" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
     </row>
     <row r="750" spans="1:8" x14ac:dyDescent="0.35">
@@ -20561,10 +20722,10 @@
         <v>43926</v>
       </c>
       <c r="G753" s="12" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="H753" s="13" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
     </row>
     <row r="754" spans="1:8" x14ac:dyDescent="0.35">
@@ -21159,7 +21320,7 @@
         <v>56</v>
       </c>
       <c r="G776" s="12" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="H776" s="14" t="s">
         <v>87</v>
@@ -21393,7 +21554,7 @@
         <v>43925</v>
       </c>
       <c r="G785" s="12" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="H785" s="14" t="s">
         <v>4</v>
@@ -22017,7 +22178,7 @@
         <v>43922</v>
       </c>
       <c r="G809" s="12" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="H809" s="14" t="s">
         <v>4</v>
@@ -22511,7 +22672,7 @@
         <v>43925</v>
       </c>
       <c r="G828" s="12" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="H828" s="14" t="s">
         <v>3</v>
@@ -22693,7 +22854,7 @@
         <v>43924</v>
       </c>
       <c r="G835" s="12" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="H835" s="14" t="s">
         <v>4</v>
@@ -22979,7 +23140,7 @@
         <v>43921</v>
       </c>
       <c r="G846" s="12" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="H846" s="14" t="s">
         <v>4</v>
@@ -23213,10 +23374,10 @@
         <v>43933</v>
       </c>
       <c r="G855" s="12" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="H855" s="13" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
     </row>
     <row r="856" spans="1:8" x14ac:dyDescent="0.35">
@@ -23421,7 +23582,7 @@
         <v>46</v>
       </c>
       <c r="G863" s="12" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="H863" s="14" t="s">
         <v>4</v>
@@ -23447,7 +23608,7 @@
         <v>46</v>
       </c>
       <c r="G864" s="12" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="H864" s="14" t="s">
         <v>87</v>
@@ -23759,10 +23920,10 @@
         <v>43931</v>
       </c>
       <c r="G876" s="12" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="H876" s="13" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
     </row>
     <row r="877" spans="1:8" x14ac:dyDescent="0.35">
@@ -23837,7 +23998,7 @@
         <v>76</v>
       </c>
       <c r="G879" s="12" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="H879" s="14" t="s">
         <v>3</v>
@@ -24071,7 +24232,7 @@
         <v>56</v>
       </c>
       <c r="G888" s="12" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="H888" s="14" t="s">
         <v>87</v>
@@ -24097,10 +24258,10 @@
         <v>46</v>
       </c>
       <c r="G889" s="12" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="H889" s="13" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
     </row>
     <row r="890" spans="1:8" x14ac:dyDescent="0.35">
@@ -24279,7 +24440,7 @@
         <v>56</v>
       </c>
       <c r="G896" s="12" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="H896" s="14" t="s">
         <v>73</v>
@@ -24305,7 +24466,7 @@
         <v>43926</v>
       </c>
       <c r="G897" s="12" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="H897" s="14" t="s">
         <v>4</v>
@@ -24357,10 +24518,10 @@
         <v>43929</v>
       </c>
       <c r="G899" s="12" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="H899" s="13" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
     </row>
     <row r="900" spans="1:8" x14ac:dyDescent="0.35">
@@ -24565,10 +24726,10 @@
         <v>43932</v>
       </c>
       <c r="G907" s="12" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="H907" s="13" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
     </row>
     <row r="908" spans="1:8" x14ac:dyDescent="0.35">
@@ -25033,7 +25194,7 @@
         <v>46</v>
       </c>
       <c r="G925" s="12" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="H925" s="14" t="s">
         <v>4</v>
@@ -25267,7 +25428,7 @@
         <v>43927</v>
       </c>
       <c r="G934" s="12" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="H934" s="14" t="s">
         <v>4</v>
@@ -25449,7 +25610,7 @@
         <v>46</v>
       </c>
       <c r="G941" s="12" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="H941" s="14" t="s">
         <v>87</v>
@@ -25501,7 +25662,7 @@
         <v>56</v>
       </c>
       <c r="G943" s="12" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="H943" s="14" t="s">
         <v>87</v>
@@ -25527,7 +25688,7 @@
         <v>43927</v>
       </c>
       <c r="G944" s="12" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="H944" s="14" t="s">
         <v>4</v>
@@ -25761,7 +25922,7 @@
         <v>56</v>
       </c>
       <c r="G953" s="12" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="H953" s="14" t="s">
         <v>87</v>
@@ -25813,7 +25974,7 @@
         <v>56</v>
       </c>
       <c r="G955" s="12" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="H955" s="14" t="s">
         <v>4</v>
@@ -25917,7 +26078,7 @@
         <v>43931</v>
       </c>
       <c r="G959" s="12" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="H959" s="14" t="s">
         <v>4</v>
@@ -26411,7 +26572,7 @@
         <v>43928</v>
       </c>
       <c r="G978" s="12" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="H978" s="14" t="s">
         <v>4</v>
@@ -26749,7 +26910,7 @@
         <v>46</v>
       </c>
       <c r="G991" s="12" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="H991" s="14" t="s">
         <v>4</v>
@@ -26775,10 +26936,10 @@
         <v>43936</v>
       </c>
       <c r="G992" s="12" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="H992" s="13" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
     </row>
     <row r="993" spans="1:8" x14ac:dyDescent="0.35">
@@ -27633,7 +27794,7 @@
         <v>56</v>
       </c>
       <c r="G1025" s="12" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="H1025" s="14" t="s">
         <v>87</v>
@@ -27685,7 +27846,7 @@
         <v>56</v>
       </c>
       <c r="G1027" s="12" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="H1027" s="14" t="s">
         <v>88</v>
@@ -27711,10 +27872,10 @@
         <v>43920</v>
       </c>
       <c r="G1028" s="12" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="H1028" s="13" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1029" spans="1:8" x14ac:dyDescent="0.35">
@@ -27737,7 +27898,7 @@
         <v>56</v>
       </c>
       <c r="G1029" s="12" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="H1029" s="14" t="s">
         <v>87</v>
@@ -27971,10 +28132,10 @@
         <v>43927</v>
       </c>
       <c r="G1038" s="12" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="H1038" s="13" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1039" spans="1:8" x14ac:dyDescent="0.35">
@@ -28647,7 +28808,7 @@
         <v>43933</v>
       </c>
       <c r="G1064" s="12" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="H1064" s="14" t="s">
         <v>4</v>
@@ -28933,7 +29094,7 @@
         <v>43929</v>
       </c>
       <c r="G1075" s="12" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="H1075" s="14" t="s">
         <v>4</v>
@@ -29167,7 +29328,7 @@
         <v>43937</v>
       </c>
       <c r="G1084" s="12" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="H1084" s="14" t="s">
         <v>4</v>
@@ -29609,7 +29770,7 @@
         <v>43927</v>
       </c>
       <c r="G1101" s="12" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="H1101" s="14" t="s">
         <v>4</v>
@@ -30077,7 +30238,7 @@
         <v>43934</v>
       </c>
       <c r="G1119" s="12" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="H1119" s="14" t="s">
         <v>4</v>
@@ -30233,7 +30394,7 @@
         <v>46</v>
       </c>
       <c r="G1125" s="12" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="H1125" s="14" t="s">
         <v>4</v>
@@ -30259,10 +30420,10 @@
         <v>46</v>
       </c>
       <c r="G1126" s="12" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="H1126" s="13" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1127" spans="1:8" x14ac:dyDescent="0.35">
@@ -30285,7 +30446,7 @@
         <v>46</v>
       </c>
       <c r="G1127" s="12" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="H1127" s="14" t="s">
         <v>4</v>
@@ -30311,7 +30472,7 @@
         <v>46</v>
       </c>
       <c r="G1128" s="12" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="H1128" s="14" t="s">
         <v>4</v>
@@ -30337,7 +30498,7 @@
         <v>46</v>
       </c>
       <c r="G1129" s="12" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="H1129" s="14" t="s">
         <v>4</v>
@@ -30363,7 +30524,7 @@
         <v>46</v>
       </c>
       <c r="G1130" s="12" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="H1130" s="14" t="s">
         <v>3</v>
@@ -30389,7 +30550,7 @@
         <v>46</v>
       </c>
       <c r="G1131" s="12" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="H1131" s="14" t="s">
         <v>4</v>
@@ -30415,7 +30576,7 @@
         <v>46</v>
       </c>
       <c r="G1132" s="12" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="H1132" s="14" t="s">
         <v>4</v>
@@ -30441,7 +30602,7 @@
         <v>46</v>
       </c>
       <c r="G1133" s="12" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="H1133" s="14" t="s">
         <v>4</v>
@@ -30467,7 +30628,7 @@
         <v>46</v>
       </c>
       <c r="G1134" s="12" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="H1134" s="14" t="s">
         <v>4</v>
@@ -30493,10 +30654,10 @@
         <v>46</v>
       </c>
       <c r="G1135" s="12" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H1135" s="13" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1136" spans="1:8" x14ac:dyDescent="0.35">
@@ -30519,7 +30680,7 @@
         <v>46</v>
       </c>
       <c r="G1136" s="12" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="H1136" s="14" t="s">
         <v>4</v>
@@ -30545,7 +30706,7 @@
         <v>46</v>
       </c>
       <c r="G1137" s="12" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="H1137" s="14" t="s">
         <v>4</v>
@@ -30571,7 +30732,7 @@
         <v>46</v>
       </c>
       <c r="G1138" s="12" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="H1138" s="14" t="s">
         <v>4</v>
@@ -30597,7 +30758,7 @@
         <v>46</v>
       </c>
       <c r="G1139" s="12" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="H1139" s="14" t="s">
         <v>4</v>
@@ -30623,7 +30784,7 @@
         <v>46</v>
       </c>
       <c r="G1140" s="12" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="H1140" s="14" t="s">
         <v>4</v>
@@ -30649,7 +30810,7 @@
         <v>46</v>
       </c>
       <c r="G1141" s="12" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="H1141" s="14" t="s">
         <v>4</v>
@@ -30675,10 +30836,10 @@
         <v>46</v>
       </c>
       <c r="G1142" s="12" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="H1142" s="13" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1143" spans="1:8" x14ac:dyDescent="0.35">
@@ -30701,7 +30862,7 @@
         <v>46</v>
       </c>
       <c r="G1143" s="12" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="H1143" s="14" t="s">
         <v>4</v>
@@ -30727,7 +30888,7 @@
         <v>46</v>
       </c>
       <c r="G1144" s="12" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="H1144" s="14" t="s">
         <v>4</v>
@@ -30753,7 +30914,7 @@
         <v>46</v>
       </c>
       <c r="G1145" s="12" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="H1145" s="14" t="s">
         <v>4</v>
@@ -30779,10 +30940,10 @@
         <v>46</v>
       </c>
       <c r="G1146" s="12" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="H1146" s="13" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1147" spans="1:8" x14ac:dyDescent="0.35">
@@ -30805,7 +30966,7 @@
         <v>46</v>
       </c>
       <c r="G1147" s="12" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="H1147" s="14" t="s">
         <v>4</v>
@@ -30831,7 +30992,7 @@
         <v>46</v>
       </c>
       <c r="G1148" s="12" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="H1148" s="14" t="s">
         <v>4</v>
@@ -30857,7 +31018,7 @@
         <v>46</v>
       </c>
       <c r="G1149" s="12" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="H1149" s="14" t="s">
         <v>4</v>
@@ -30883,10 +31044,10 @@
         <v>46</v>
       </c>
       <c r="G1150" s="12" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="H1150" s="13" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1151" spans="1:8" x14ac:dyDescent="0.35">
@@ -30909,7 +31070,7 @@
         <v>46</v>
       </c>
       <c r="G1151" s="12" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="H1151" s="14" t="s">
         <v>4</v>
@@ -30935,7 +31096,7 @@
         <v>46</v>
       </c>
       <c r="G1152" s="12" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="H1152" s="14" t="s">
         <v>4</v>
@@ -30961,7 +31122,7 @@
         <v>46</v>
       </c>
       <c r="G1153" s="12" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="H1153" s="14" t="s">
         <v>4</v>
@@ -30987,7 +31148,7 @@
         <v>46</v>
       </c>
       <c r="G1154" s="12" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="H1154" s="14" t="s">
         <v>75</v>
@@ -31013,7 +31174,7 @@
         <v>46</v>
       </c>
       <c r="G1155" s="12" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="H1155" s="14" t="s">
         <v>87</v>
@@ -31039,7 +31200,7 @@
         <v>46</v>
       </c>
       <c r="G1156" s="12" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="H1156" s="14" t="s">
         <v>87</v>
@@ -31065,7 +31226,7 @@
         <v>46</v>
       </c>
       <c r="G1157" s="12" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="H1157" s="14" t="s">
         <v>4</v>
@@ -31091,7 +31252,7 @@
         <v>46</v>
       </c>
       <c r="G1158" s="12" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="H1158" s="14" t="s">
         <v>4</v>
@@ -31117,7 +31278,7 @@
         <v>46</v>
       </c>
       <c r="G1159" s="12" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="H1159" s="14" t="s">
         <v>87</v>
@@ -31143,10 +31304,10 @@
         <v>46</v>
       </c>
       <c r="G1160" s="12" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H1160" s="13" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1161" spans="1:8" x14ac:dyDescent="0.35">
@@ -31169,7 +31330,7 @@
         <v>46</v>
       </c>
       <c r="G1161" s="12" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="H1161" s="14" t="s">
         <v>4</v>
@@ -31195,7 +31356,7 @@
         <v>46</v>
       </c>
       <c r="G1162" s="12" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="H1162" s="14" t="s">
         <v>4</v>
@@ -31221,7 +31382,7 @@
         <v>46</v>
       </c>
       <c r="G1163" s="12" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="H1163" s="14" t="s">
         <v>4</v>
@@ -31247,7 +31408,7 @@
         <v>46</v>
       </c>
       <c r="G1164" s="12" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="H1164" s="14" t="s">
         <v>4</v>
@@ -31273,7 +31434,7 @@
         <v>46</v>
       </c>
       <c r="G1165" s="12" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="H1165" s="14" t="s">
         <v>4</v>
@@ -31299,7 +31460,7 @@
         <v>43938</v>
       </c>
       <c r="G1166" s="12" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="H1166" s="14" t="s">
         <v>4</v>
@@ -31429,10 +31590,10 @@
         <v>43923</v>
       </c>
       <c r="G1171" s="12" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="H1171" s="13" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1172" spans="1:8" x14ac:dyDescent="0.35">
@@ -31455,7 +31616,7 @@
         <v>43937</v>
       </c>
       <c r="G1172" s="12" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="H1172" s="14" t="s">
         <v>4</v>
@@ -31533,7 +31694,7 @@
         <v>43937</v>
       </c>
       <c r="G1175" s="12" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="H1175" s="14" t="s">
         <v>4</v>
@@ -31585,10 +31746,10 @@
         <v>46</v>
       </c>
       <c r="G1177" s="12" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="H1177" s="13" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1178" spans="1:8" x14ac:dyDescent="0.35">
@@ -31663,7 +31824,7 @@
         <v>43936</v>
       </c>
       <c r="G1180" s="12" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="H1180" s="14" t="s">
         <v>75</v>
@@ -31767,7 +31928,7 @@
         <v>43938</v>
       </c>
       <c r="G1184" s="12" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="H1184" s="14" t="s">
         <v>87</v>
@@ -31871,7 +32032,7 @@
         <v>46</v>
       </c>
       <c r="G1188" s="12" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="H1188" s="14" t="s">
         <v>87</v>
@@ -31897,7 +32058,7 @@
         <v>46</v>
       </c>
       <c r="G1189" s="12" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="H1189" s="14" t="s">
         <v>87</v>
@@ -31923,7 +32084,7 @@
         <v>46</v>
       </c>
       <c r="G1190" s="12" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="H1190" s="14" t="s">
         <v>87</v>
@@ -31949,7 +32110,7 @@
         <v>46</v>
       </c>
       <c r="G1191" s="12" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="H1191" s="14" t="s">
         <v>75</v>
@@ -31975,7 +32136,7 @@
         <v>46</v>
       </c>
       <c r="G1192" s="12" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="H1192" s="14" t="s">
         <v>87</v>
@@ -32027,7 +32188,7 @@
         <v>46</v>
       </c>
       <c r="G1194" s="12" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="H1194" s="14" t="s">
         <v>87</v>
@@ -32053,7 +32214,7 @@
         <v>46</v>
       </c>
       <c r="G1195" s="12" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="H1195" s="14" t="s">
         <v>75</v>
@@ -32079,7 +32240,7 @@
         <v>46</v>
       </c>
       <c r="G1196" s="12" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="H1196" s="14" t="s">
         <v>87</v>
@@ -32105,7 +32266,7 @@
         <v>46</v>
       </c>
       <c r="G1197" s="12" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="H1197" s="14" t="s">
         <v>87</v>
@@ -32131,7 +32292,7 @@
         <v>46</v>
       </c>
       <c r="G1198" s="12" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="H1198" s="14" t="s">
         <v>3</v>
@@ -32157,7 +32318,7 @@
         <v>46</v>
       </c>
       <c r="G1199" s="12" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="H1199" s="14" t="s">
         <v>75</v>
@@ -32183,7 +32344,7 @@
         <v>46</v>
       </c>
       <c r="G1200" s="12" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="H1200" s="14" t="s">
         <v>4</v>
@@ -32209,7 +32370,7 @@
         <v>46</v>
       </c>
       <c r="G1201" s="12" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="H1201" s="14" t="s">
         <v>4</v>
@@ -32443,7 +32604,7 @@
         <v>43929</v>
       </c>
       <c r="G1210" s="12" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="H1210" s="14" t="s">
         <v>4</v>
@@ -32495,10 +32656,10 @@
         <v>43931</v>
       </c>
       <c r="G1212" s="12" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="H1212" s="13" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1213" spans="1:8" x14ac:dyDescent="0.35">
@@ -32521,7 +32682,7 @@
         <v>43929</v>
       </c>
       <c r="G1213" s="12" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="H1213" s="14" t="s">
         <v>73</v>
@@ -32547,7 +32708,7 @@
         <v>46</v>
       </c>
       <c r="G1214" s="12" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="H1214" s="14" t="s">
         <v>4</v>
@@ -32573,7 +32734,7 @@
         <v>46</v>
       </c>
       <c r="G1215" s="12" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="H1215" s="14" t="s">
         <v>4</v>
@@ -32599,7 +32760,7 @@
         <v>46</v>
       </c>
       <c r="G1216" s="12" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="H1216" s="14" t="s">
         <v>4</v>
@@ -32625,7 +32786,7 @@
         <v>46</v>
       </c>
       <c r="G1217" s="12" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="H1217" s="14" t="s">
         <v>4</v>
@@ -32651,10 +32812,10 @@
         <v>46</v>
       </c>
       <c r="G1218" s="12" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="H1218" s="13" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1219" spans="1:8" x14ac:dyDescent="0.35">
@@ -32677,7 +32838,7 @@
         <v>46</v>
       </c>
       <c r="G1219" s="12" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="H1219" s="14" t="s">
         <v>4</v>
@@ -32703,7 +32864,7 @@
         <v>46</v>
       </c>
       <c r="G1220" s="12" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="H1220" s="14" t="s">
         <v>4</v>
@@ -32729,7 +32890,7 @@
         <v>46</v>
       </c>
       <c r="G1221" s="12" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="H1221" s="14" t="s">
         <v>4</v>
@@ -32755,7 +32916,7 @@
         <v>46</v>
       </c>
       <c r="G1222" s="12" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="H1222" s="14" t="s">
         <v>4</v>
@@ -32781,7 +32942,7 @@
         <v>46</v>
       </c>
       <c r="G1223" s="12" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="H1223" s="14" t="s">
         <v>4</v>
@@ -32807,7 +32968,7 @@
         <v>46</v>
       </c>
       <c r="G1224" s="12" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="H1224" s="14" t="s">
         <v>4</v>
@@ -32833,7 +32994,7 @@
         <v>46</v>
       </c>
       <c r="G1225" s="12" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="H1225" s="14" t="s">
         <v>4</v>
@@ -32859,7 +33020,7 @@
         <v>46</v>
       </c>
       <c r="G1226" s="12" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="H1226" s="14" t="s">
         <v>87</v>
@@ -32885,7 +33046,7 @@
         <v>46</v>
       </c>
       <c r="G1227" s="12" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="H1227" s="14" t="s">
         <v>75</v>
@@ -32911,7 +33072,7 @@
         <v>46</v>
       </c>
       <c r="G1228" s="12" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="H1228" s="14" t="s">
         <v>75</v>
@@ -32937,7 +33098,7 @@
         <v>46</v>
       </c>
       <c r="G1229" s="12" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="H1229" s="14" t="s">
         <v>87</v>
@@ -32963,7 +33124,7 @@
         <v>46</v>
       </c>
       <c r="G1230" s="12" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="H1230" s="14" t="s">
         <v>73</v>
@@ -32989,7 +33150,7 @@
         <v>46</v>
       </c>
       <c r="G1231" s="12" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="H1231" s="14" t="s">
         <v>87</v>
@@ -33015,7 +33176,7 @@
         <v>46</v>
       </c>
       <c r="G1232" s="12" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="H1232" s="14" t="s">
         <v>73</v>
@@ -33041,7 +33202,7 @@
         <v>46</v>
       </c>
       <c r="G1233" s="12" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="H1233" s="14" t="s">
         <v>87</v>
@@ -33067,7 +33228,7 @@
         <v>46</v>
       </c>
       <c r="G1234" s="12" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="H1234" s="14" t="s">
         <v>75</v>
@@ -33093,7 +33254,7 @@
         <v>46</v>
       </c>
       <c r="G1235" s="12" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="H1235" s="14" t="s">
         <v>87</v>
@@ -33119,7 +33280,7 @@
         <v>46</v>
       </c>
       <c r="G1236" s="12" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="H1236" s="14" t="s">
         <v>87</v>
@@ -33145,7 +33306,7 @@
         <v>46</v>
       </c>
       <c r="G1237" s="12" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="H1237" s="14" t="s">
         <v>75</v>
@@ -33171,7 +33332,7 @@
         <v>46</v>
       </c>
       <c r="G1238" s="12" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="H1238" s="14" t="s">
         <v>87</v>
@@ -33197,7 +33358,7 @@
         <v>46</v>
       </c>
       <c r="G1239" s="12" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="H1239" s="14" t="s">
         <v>75</v>
@@ -33223,7 +33384,7 @@
         <v>46</v>
       </c>
       <c r="G1240" s="12" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="H1240" s="14" t="s">
         <v>73</v>
@@ -33249,7 +33410,7 @@
         <v>46</v>
       </c>
       <c r="G1241" s="12" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="H1241" s="14" t="s">
         <v>75</v>
@@ -33275,7 +33436,7 @@
         <v>46</v>
       </c>
       <c r="G1242" s="12" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="H1242" s="14" t="s">
         <v>87</v>
@@ -33301,7 +33462,7 @@
         <v>46</v>
       </c>
       <c r="G1243" s="12" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="H1243" s="14" t="s">
         <v>4</v>
@@ -33327,7 +33488,7 @@
         <v>46</v>
       </c>
       <c r="G1244" s="12" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="H1244" s="14" t="s">
         <v>87</v>
@@ -33353,7 +33514,7 @@
         <v>46</v>
       </c>
       <c r="G1245" s="12" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="H1245" s="14" t="s">
         <v>4</v>
@@ -33379,7 +33540,7 @@
         <v>46</v>
       </c>
       <c r="G1246" s="12" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="H1246" s="14" t="s">
         <v>4</v>
@@ -33405,7 +33566,7 @@
         <v>46</v>
       </c>
       <c r="G1247" s="12" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="H1247" s="14" t="s">
         <v>75</v>
@@ -33431,7 +33592,7 @@
         <v>46</v>
       </c>
       <c r="G1248" s="12" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="H1248" s="14" t="s">
         <v>89</v>
@@ -33457,7 +33618,7 @@
         <v>46</v>
       </c>
       <c r="G1249" s="12" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="H1249" s="14" t="s">
         <v>75</v>
@@ -33483,7 +33644,7 @@
         <v>46</v>
       </c>
       <c r="G1250" s="12" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="H1250" s="14" t="s">
         <v>73</v>
@@ -33509,7 +33670,7 @@
         <v>46</v>
       </c>
       <c r="G1251" s="12" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="H1251" s="14" t="s">
         <v>87</v>
@@ -33535,7 +33696,7 @@
         <v>46</v>
       </c>
       <c r="G1252" s="12" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="H1252" s="14" t="s">
         <v>87</v>
@@ -33561,7 +33722,7 @@
         <v>46</v>
       </c>
       <c r="G1253" s="12" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="H1253" s="14" t="s">
         <v>87</v>
@@ -33587,7 +33748,7 @@
         <v>46</v>
       </c>
       <c r="G1254" s="12" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="H1254" s="14" t="s">
         <v>4</v>
@@ -33613,7 +33774,7 @@
         <v>43937</v>
       </c>
       <c r="G1255" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1255" s="14" t="s">
         <v>75</v>
@@ -33639,7 +33800,7 @@
         <v>82</v>
       </c>
       <c r="G1256" s="12" t="s">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="H1256" s="14" t="s">
         <v>75</v>
@@ -33665,7 +33826,7 @@
         <v>43936</v>
       </c>
       <c r="G1257" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1257" s="14" t="s">
         <v>75</v>
@@ -33691,7 +33852,7 @@
         <v>43933</v>
       </c>
       <c r="G1258" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1258" s="14" t="s">
         <v>3</v>
@@ -33717,7 +33878,7 @@
         <v>82</v>
       </c>
       <c r="G1259" s="12" t="s">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="H1259" s="14" t="s">
         <v>75</v>
@@ -33743,7 +33904,7 @@
         <v>43939</v>
       </c>
       <c r="G1260" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1260" s="14" t="s">
         <v>4</v>
@@ -33769,7 +33930,7 @@
         <v>43939</v>
       </c>
       <c r="G1261" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1261" s="14" t="s">
         <v>75</v>
@@ -33795,7 +33956,7 @@
         <v>43938</v>
       </c>
       <c r="G1262" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1262" s="14" t="s">
         <v>75</v>
@@ -33821,7 +33982,7 @@
         <v>43936</v>
       </c>
       <c r="G1263" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1263" s="14" t="s">
         <v>4</v>
@@ -33847,7 +34008,7 @@
         <v>43939</v>
       </c>
       <c r="G1264" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1264" s="14" t="s">
         <v>4</v>
@@ -33873,7 +34034,7 @@
         <v>43935</v>
       </c>
       <c r="G1265" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1265" s="14" t="s">
         <v>4</v>
@@ -33899,7 +34060,7 @@
         <v>43932</v>
       </c>
       <c r="G1266" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1266" s="14" t="s">
         <v>4</v>
@@ -33925,7 +34086,7 @@
         <v>43939</v>
       </c>
       <c r="G1267" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1267" s="14" t="s">
         <v>4</v>
@@ -33951,7 +34112,7 @@
         <v>43940</v>
       </c>
       <c r="G1268" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1268" s="14" t="s">
         <v>4</v>
@@ -33977,7 +34138,7 @@
         <v>43932</v>
       </c>
       <c r="G1269" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1269" s="14" t="s">
         <v>4</v>
@@ -34003,10 +34164,10 @@
         <v>43939</v>
       </c>
       <c r="G1270" s="12" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H1270" s="13" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1271" spans="1:8" x14ac:dyDescent="0.35">
@@ -34029,7 +34190,7 @@
         <v>43932</v>
       </c>
       <c r="G1271" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1271" s="14" t="s">
         <v>4</v>
@@ -34055,7 +34216,7 @@
         <v>43929</v>
       </c>
       <c r="G1272" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1272" s="14" t="s">
         <v>4</v>
@@ -34081,10 +34242,10 @@
         <v>43926</v>
       </c>
       <c r="G1273" s="12" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H1273" s="13" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1274" spans="1:8" x14ac:dyDescent="0.35">
@@ -34107,7 +34268,7 @@
         <v>43932</v>
       </c>
       <c r="G1274" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1274" s="14" t="s">
         <v>4</v>
@@ -34133,7 +34294,7 @@
         <v>43936</v>
       </c>
       <c r="G1275" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1275" s="14" t="s">
         <v>4</v>
@@ -34159,10 +34320,10 @@
         <v>43935</v>
       </c>
       <c r="G1276" s="12" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H1276" s="13" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1277" spans="1:8" x14ac:dyDescent="0.35">
@@ -34185,7 +34346,7 @@
         <v>43940</v>
       </c>
       <c r="G1277" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1277" s="14" t="s">
         <v>4</v>
@@ -34211,7 +34372,7 @@
         <v>43930</v>
       </c>
       <c r="G1278" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1278" s="14" t="s">
         <v>4</v>
@@ -34237,7 +34398,7 @@
         <v>43931</v>
       </c>
       <c r="G1279" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1279" s="14" t="s">
         <v>4</v>
@@ -34263,7 +34424,7 @@
         <v>43930</v>
       </c>
       <c r="G1280" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1280" s="14" t="s">
         <v>4</v>
@@ -34289,7 +34450,7 @@
         <v>43932</v>
       </c>
       <c r="G1281" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1281" s="14" t="s">
         <v>4</v>
@@ -34315,7 +34476,7 @@
         <v>43934</v>
       </c>
       <c r="G1282" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1282" s="14" t="s">
         <v>75</v>
@@ -34341,7 +34502,7 @@
         <v>43928</v>
       </c>
       <c r="G1283" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1283" s="14" t="s">
         <v>87</v>
@@ -34367,7 +34528,7 @@
         <v>43931</v>
       </c>
       <c r="G1284" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1284" s="14" t="s">
         <v>4</v>
@@ -34393,7 +34554,7 @@
         <v>43939</v>
       </c>
       <c r="G1285" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1285" s="14" t="s">
         <v>4</v>
@@ -34419,7 +34580,7 @@
         <v>43939</v>
       </c>
       <c r="G1286" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1286" s="14" t="s">
         <v>4</v>
@@ -34445,7 +34606,7 @@
         <v>43940</v>
       </c>
       <c r="G1287" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1287" s="14" t="s">
         <v>89</v>
@@ -34471,10 +34632,10 @@
         <v>43939</v>
       </c>
       <c r="G1288" s="12" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="H1288" s="13" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1289" spans="1:8" x14ac:dyDescent="0.35">
@@ -34497,7 +34658,7 @@
         <v>43927</v>
       </c>
       <c r="G1289" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1289" s="14" t="s">
         <v>73</v>
@@ -34523,7 +34684,7 @@
         <v>43936</v>
       </c>
       <c r="G1290" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1290" s="14" t="s">
         <v>3</v>
@@ -34549,7 +34710,7 @@
         <v>43934</v>
       </c>
       <c r="G1291" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1291" s="14" t="s">
         <v>4</v>
@@ -34575,7 +34736,7 @@
         <v>43938</v>
       </c>
       <c r="G1292" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1292" s="14" t="s">
         <v>4</v>
@@ -34601,7 +34762,7 @@
         <v>43937</v>
       </c>
       <c r="G1293" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1293" s="14" t="s">
         <v>3</v>
@@ -34627,7 +34788,7 @@
         <v>43939</v>
       </c>
       <c r="G1294" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1294" s="14" t="s">
         <v>3</v>
@@ -34653,7 +34814,7 @@
         <v>43929</v>
       </c>
       <c r="G1295" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1295" s="14" t="s">
         <v>89</v>
@@ -34679,7 +34840,7 @@
         <v>43933</v>
       </c>
       <c r="G1296" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1296" s="14" t="s">
         <v>4</v>
@@ -34705,7 +34866,7 @@
         <v>43928</v>
       </c>
       <c r="G1297" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1297" s="14" t="s">
         <v>89</v>
@@ -34731,7 +34892,7 @@
         <v>43932</v>
       </c>
       <c r="G1298" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1298" s="14" t="s">
         <v>4</v>
@@ -34757,7 +34918,7 @@
         <v>43939</v>
       </c>
       <c r="G1299" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1299" s="14" t="s">
         <v>75</v>
@@ -34783,7 +34944,7 @@
         <v>43932</v>
       </c>
       <c r="G1300" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1300" s="14" t="s">
         <v>75</v>
@@ -34809,7 +34970,7 @@
         <v>43931</v>
       </c>
       <c r="G1301" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1301" s="14" t="s">
         <v>4</v>
@@ -34835,7 +34996,7 @@
         <v>43933</v>
       </c>
       <c r="G1302" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1302" s="14" t="s">
         <v>4</v>
@@ -34861,10 +35022,10 @@
         <v>46</v>
       </c>
       <c r="G1303" s="12" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="H1303" s="13" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1304" spans="1:8" x14ac:dyDescent="0.35">
@@ -34887,7 +35048,7 @@
         <v>43938</v>
       </c>
       <c r="G1304" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1304" s="14" t="s">
         <v>75</v>
@@ -34913,7 +35074,7 @@
         <v>46</v>
       </c>
       <c r="G1305" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1305" s="14" t="s">
         <v>4</v>
@@ -34939,7 +35100,7 @@
         <v>43929</v>
       </c>
       <c r="G1306" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1306" s="14" t="s">
         <v>87</v>
@@ -34965,7 +35126,7 @@
         <v>43932</v>
       </c>
       <c r="G1307" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1307" s="14" t="s">
         <v>75</v>
@@ -34991,7 +35152,7 @@
         <v>43934</v>
       </c>
       <c r="G1308" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1308" s="14" t="s">
         <v>73</v>
@@ -35017,10 +35178,10 @@
         <v>43938</v>
       </c>
       <c r="G1309" s="12" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="H1309" s="13" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1310" spans="1:8" x14ac:dyDescent="0.35">
@@ -35043,7 +35204,7 @@
         <v>43939</v>
       </c>
       <c r="G1310" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1310" s="14" t="s">
         <v>75</v>
@@ -35069,7 +35230,7 @@
         <v>43938</v>
       </c>
       <c r="G1311" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1311" s="14" t="s">
         <v>89</v>
@@ -35095,7 +35256,7 @@
         <v>46</v>
       </c>
       <c r="G1312" s="12" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="H1312" s="14" t="s">
         <v>87</v>
@@ -35121,7 +35282,7 @@
         <v>46</v>
       </c>
       <c r="G1313" s="12" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="H1313" s="14" t="s">
         <v>4</v>
@@ -35147,7 +35308,7 @@
         <v>46</v>
       </c>
       <c r="G1314" s="12" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="H1314" s="14" t="s">
         <v>75</v>
@@ -35173,7 +35334,7 @@
         <v>46</v>
       </c>
       <c r="G1315" s="12" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="H1315" s="14" t="s">
         <v>75</v>
@@ -35199,7 +35360,7 @@
         <v>46</v>
       </c>
       <c r="G1316" s="12" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="H1316" s="14" t="s">
         <v>87</v>
@@ -35225,7 +35386,7 @@
         <v>46</v>
       </c>
       <c r="G1317" s="12" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="H1317" s="14" t="s">
         <v>75</v>
@@ -35251,7 +35412,7 @@
         <v>46</v>
       </c>
       <c r="G1318" s="12" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="H1318" s="14" t="s">
         <v>87</v>
@@ -35277,7 +35438,7 @@
         <v>46</v>
       </c>
       <c r="G1319" s="12" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="H1319" s="14" t="s">
         <v>87</v>
@@ -35303,7 +35464,7 @@
         <v>46</v>
       </c>
       <c r="G1320" s="12" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="H1320" s="14" t="s">
         <v>4</v>
@@ -35329,7 +35490,7 @@
         <v>46</v>
       </c>
       <c r="G1321" s="12" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="H1321" s="14" t="s">
         <v>89</v>
@@ -35355,7 +35516,7 @@
         <v>46</v>
       </c>
       <c r="G1322" s="12" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="H1322" s="14" t="s">
         <v>89</v>
@@ -35381,7 +35542,7 @@
         <v>46</v>
       </c>
       <c r="G1323" s="12" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="H1323" s="14" t="s">
         <v>87</v>
@@ -35407,7 +35568,7 @@
         <v>46</v>
       </c>
       <c r="G1324" s="12" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="H1324" s="14" t="s">
         <v>89</v>
@@ -35433,7 +35594,7 @@
         <v>46</v>
       </c>
       <c r="G1325" s="12" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="H1325" s="14" t="s">
         <v>87</v>
@@ -35459,7 +35620,7 @@
         <v>46</v>
       </c>
       <c r="G1326" s="12" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="H1326" s="14" t="s">
         <v>75</v>
@@ -35485,7 +35646,7 @@
         <v>46</v>
       </c>
       <c r="G1327" s="12" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="H1327" s="14" t="s">
         <v>75</v>
@@ -35511,7 +35672,7 @@
         <v>46</v>
       </c>
       <c r="G1328" s="12" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="H1328" s="14" t="s">
         <v>4</v>
@@ -35537,7 +35698,7 @@
         <v>46</v>
       </c>
       <c r="G1329" s="12" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="H1329" s="14" t="s">
         <v>75</v>
@@ -35563,7 +35724,7 @@
         <v>46</v>
       </c>
       <c r="G1330" s="12" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="H1330" s="14" t="s">
         <v>89</v>
@@ -35589,7 +35750,7 @@
         <v>46</v>
       </c>
       <c r="G1331" s="12" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="H1331" s="14" t="s">
         <v>75</v>
@@ -35615,7 +35776,7 @@
         <v>46</v>
       </c>
       <c r="G1332" s="12" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="H1332" s="14" t="s">
         <v>4</v>
@@ -35641,7 +35802,7 @@
         <v>46</v>
       </c>
       <c r="G1333" s="12" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="H1333" s="14" t="s">
         <v>4</v>
@@ -35667,7 +35828,7 @@
         <v>43937</v>
       </c>
       <c r="G1334" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1334" s="14" t="s">
         <v>3</v>
@@ -35693,7 +35854,7 @@
         <v>43930</v>
       </c>
       <c r="G1335" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1335" s="14" t="s">
         <v>3</v>
@@ -35719,7 +35880,7 @@
         <v>43936</v>
       </c>
       <c r="G1336" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1336" s="14" t="s">
         <v>75</v>
@@ -35745,7 +35906,7 @@
         <v>43938</v>
       </c>
       <c r="G1337" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1337" s="14" t="s">
         <v>3</v>
@@ -35771,7 +35932,7 @@
         <v>43932</v>
       </c>
       <c r="G1338" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1338" s="14" t="s">
         <v>75</v>
@@ -35797,7 +35958,7 @@
         <v>43931</v>
       </c>
       <c r="G1339" s="12" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H1339" s="14" t="s">
         <v>3</v>
@@ -35823,7 +35984,7 @@
         <v>43934</v>
       </c>
       <c r="G1340" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1340" s="14" t="s">
         <v>3</v>
@@ -35849,7 +36010,7 @@
         <v>43934</v>
       </c>
       <c r="G1341" s="12" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H1341" s="14" t="s">
         <v>3</v>
@@ -35875,7 +36036,7 @@
         <v>43936</v>
       </c>
       <c r="G1342" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1342" s="14" t="s">
         <v>3</v>
@@ -35901,7 +36062,7 @@
         <v>43933</v>
       </c>
       <c r="G1343" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1343" s="14" t="s">
         <v>3</v>
@@ -35927,7 +36088,7 @@
         <v>43937</v>
       </c>
       <c r="G1344" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1344" s="14" t="s">
         <v>4</v>
@@ -35953,7 +36114,7 @@
         <v>43940</v>
       </c>
       <c r="G1345" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1345" s="14" t="s">
         <v>75</v>
@@ -35979,7 +36140,7 @@
         <v>43939</v>
       </c>
       <c r="G1346" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1346" s="14" t="s">
         <v>3</v>
@@ -36005,7 +36166,7 @@
         <v>43932</v>
       </c>
       <c r="G1347" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1347" s="14" t="s">
         <v>4</v>
@@ -36031,7 +36192,7 @@
         <v>43929</v>
       </c>
       <c r="G1348" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1348" s="14" t="s">
         <v>87</v>
@@ -36057,7 +36218,7 @@
         <v>43932</v>
       </c>
       <c r="G1349" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1349" s="14" t="s">
         <v>75</v>
@@ -36083,7 +36244,7 @@
         <v>43936</v>
       </c>
       <c r="G1350" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1350" s="14" t="s">
         <v>73</v>
@@ -36109,7 +36270,7 @@
         <v>43920</v>
       </c>
       <c r="G1351" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1351" s="14" t="s">
         <v>4</v>
@@ -36135,7 +36296,7 @@
         <v>43937</v>
       </c>
       <c r="G1352" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1352" s="14" t="s">
         <v>3</v>
@@ -36161,7 +36322,7 @@
         <v>43936</v>
       </c>
       <c r="G1353" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1353" s="14" t="s">
         <v>75</v>
@@ -36187,7 +36348,7 @@
         <v>43940</v>
       </c>
       <c r="G1354" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1354" s="14" t="s">
         <v>3</v>
@@ -36213,7 +36374,7 @@
         <v>43939</v>
       </c>
       <c r="G1355" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1355" s="14" t="s">
         <v>87</v>
@@ -36239,7 +36400,7 @@
         <v>43934</v>
       </c>
       <c r="G1356" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1356" s="14" t="s">
         <v>3</v>
@@ -36265,7 +36426,7 @@
         <v>43935</v>
       </c>
       <c r="G1357" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1357" s="14" t="s">
         <v>75</v>
@@ -36291,7 +36452,7 @@
         <v>43934</v>
       </c>
       <c r="G1358" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1358" s="14" t="s">
         <v>73</v>
@@ -36317,7 +36478,7 @@
         <v>43929</v>
       </c>
       <c r="G1359" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1359" s="14" t="s">
         <v>3</v>
@@ -36343,7 +36504,7 @@
         <v>43932</v>
       </c>
       <c r="G1360" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1360" s="14" t="s">
         <v>73</v>
@@ -36369,7 +36530,7 @@
         <v>43928</v>
       </c>
       <c r="G1361" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1361" s="14" t="s">
         <v>3</v>
@@ -36395,7 +36556,7 @@
         <v>43934</v>
       </c>
       <c r="G1362" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1362" s="14" t="s">
         <v>73</v>
@@ -36421,7 +36582,7 @@
         <v>43927</v>
       </c>
       <c r="G1363" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1363" s="14" t="s">
         <v>3</v>
@@ -36447,7 +36608,7 @@
         <v>43937</v>
       </c>
       <c r="G1364" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1364" s="14" t="s">
         <v>87</v>
@@ -36473,10 +36634,10 @@
         <v>43941</v>
       </c>
       <c r="G1365" s="12" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="H1365" s="13" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1366" spans="1:8" x14ac:dyDescent="0.35">
@@ -36499,7 +36660,7 @@
         <v>43934</v>
       </c>
       <c r="G1366" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1366" s="14" t="s">
         <v>87</v>
@@ -36525,7 +36686,7 @@
         <v>46</v>
       </c>
       <c r="G1367" s="12" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="H1367" s="14" t="s">
         <v>87</v>
@@ -36551,7 +36712,7 @@
         <v>46</v>
       </c>
       <c r="G1368" s="12" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="H1368" s="14" t="s">
         <v>87</v>
@@ -36577,7 +36738,7 @@
         <v>43930</v>
       </c>
       <c r="G1369" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1369" s="14" t="s">
         <v>87</v>
@@ -36603,7 +36764,7 @@
         <v>43931</v>
       </c>
       <c r="G1370" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1370" s="14" t="s">
         <v>4</v>
@@ -36629,7 +36790,7 @@
         <v>43929</v>
       </c>
       <c r="G1371" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1371" s="14" t="s">
         <v>87</v>
@@ -36655,7 +36816,7 @@
         <v>43927</v>
       </c>
       <c r="G1372" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1372" s="14" t="s">
         <v>89</v>
@@ -36681,7 +36842,7 @@
         <v>43935</v>
       </c>
       <c r="G1373" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1373" s="14" t="s">
         <v>4</v>
@@ -36707,7 +36868,7 @@
         <v>43928</v>
       </c>
       <c r="G1374" s="12" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="H1374" s="14" t="s">
         <v>4</v>
@@ -36733,7 +36894,7 @@
         <v>43936</v>
       </c>
       <c r="G1375" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1375" s="14" t="s">
         <v>75</v>
@@ -36759,7 +36920,7 @@
         <v>43938</v>
       </c>
       <c r="G1376" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1376" s="14" t="s">
         <v>75</v>
@@ -36785,7 +36946,7 @@
         <v>43937</v>
       </c>
       <c r="G1377" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1377" s="14" t="s">
         <v>89</v>
@@ -36811,7 +36972,7 @@
         <v>43933</v>
       </c>
       <c r="G1378" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1378" s="14" t="s">
         <v>4</v>
@@ -36837,7 +36998,7 @@
         <v>46</v>
       </c>
       <c r="G1379" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1379" s="14" t="s">
         <v>87</v>
@@ -36863,7 +37024,7 @@
         <v>43939</v>
       </c>
       <c r="G1380" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1380" s="14" t="s">
         <v>73</v>
@@ -36889,7 +37050,7 @@
         <v>43935</v>
       </c>
       <c r="G1381" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1381" s="14" t="s">
         <v>4</v>
@@ -36915,7 +37076,7 @@
         <v>43937</v>
       </c>
       <c r="G1382" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1382" s="14" t="s">
         <v>4</v>
@@ -36941,7 +37102,7 @@
         <v>43939</v>
       </c>
       <c r="G1383" s="12" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="H1383" s="14" t="s">
         <v>3</v>
@@ -36967,7 +37128,7 @@
         <v>43942</v>
       </c>
       <c r="G1384" s="12" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="H1384" s="14" t="s">
         <v>4</v>
@@ -36993,7 +37154,7 @@
         <v>43940</v>
       </c>
       <c r="G1385" s="12" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="H1385" s="14" t="s">
         <v>4</v>
@@ -37019,7 +37180,7 @@
         <v>43941</v>
       </c>
       <c r="G1386" s="12" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="H1386" s="14" t="s">
         <v>4</v>
@@ -37045,7 +37206,7 @@
         <v>43941</v>
       </c>
       <c r="G1387" s="12" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="H1387" s="14" t="s">
         <v>75</v>
@@ -37071,7 +37232,7 @@
         <v>46</v>
       </c>
       <c r="G1388" s="12" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="H1388" s="14" t="s">
         <v>4</v>
@@ -37097,7 +37258,7 @@
         <v>46</v>
       </c>
       <c r="G1389" s="12" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="H1389" s="14" t="s">
         <v>4</v>
@@ -37123,7 +37284,7 @@
         <v>46</v>
       </c>
       <c r="G1390" s="12" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="H1390" s="14" t="s">
         <v>75</v>
@@ -37149,7 +37310,7 @@
         <v>46</v>
       </c>
       <c r="G1391" s="12" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="H1391" s="14" t="s">
         <v>75</v>
@@ -37175,7 +37336,7 @@
         <v>46</v>
       </c>
       <c r="G1392" s="12" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="H1392" s="14" t="s">
         <v>87</v>
@@ -37201,7 +37362,7 @@
         <v>43938</v>
       </c>
       <c r="G1393" s="12" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="H1393" s="14" t="s">
         <v>3</v>
@@ -37227,7 +37388,7 @@
         <v>43933</v>
       </c>
       <c r="G1394" s="12" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="H1394" s="14" t="s">
         <v>4</v>
@@ -37253,7 +37414,7 @@
         <v>43931</v>
       </c>
       <c r="G1395" s="12" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="H1395" s="14" t="s">
         <v>3</v>
@@ -37279,7 +37440,7 @@
         <v>43936</v>
       </c>
       <c r="G1396" s="12" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="H1396" s="14" t="s">
         <v>4</v>
@@ -37305,7 +37466,7 @@
         <v>43917</v>
       </c>
       <c r="G1397" s="12" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="H1397" s="14" t="s">
         <v>4</v>
@@ -37331,7 +37492,7 @@
         <v>43941</v>
       </c>
       <c r="G1398" s="12" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="H1398" s="14" t="s">
         <v>88</v>
@@ -37357,7 +37518,7 @@
         <v>43937</v>
       </c>
       <c r="G1399" s="12" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="H1399" s="14" t="s">
         <v>4</v>
@@ -37383,7 +37544,7 @@
         <v>43942</v>
       </c>
       <c r="G1400" s="12" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="H1400" s="14" t="s">
         <v>3</v>
@@ -37409,7 +37570,7 @@
         <v>43938</v>
       </c>
       <c r="G1401" s="12" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="H1401" s="14" t="s">
         <v>75</v>
@@ -37435,7 +37596,7 @@
         <v>46</v>
       </c>
       <c r="G1402" s="12" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="H1402" s="14" t="s">
         <v>4</v>
@@ -37461,7 +37622,7 @@
         <v>43932</v>
       </c>
       <c r="G1403" s="12" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="H1403" s="14" t="s">
         <v>3</v>
@@ -37487,7 +37648,7 @@
         <v>43936</v>
       </c>
       <c r="G1404" s="12" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="H1404" s="14" t="s">
         <v>75</v>
@@ -37513,7 +37674,7 @@
         <v>43941</v>
       </c>
       <c r="G1405" s="12" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="H1405" s="14" t="s">
         <v>3</v>
@@ -37539,7 +37700,7 @@
         <v>43931</v>
       </c>
       <c r="G1406" s="12" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="H1406" s="14" t="s">
         <v>3</v>
@@ -37565,7 +37726,7 @@
         <v>43934</v>
       </c>
       <c r="G1407" s="12" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="H1407" s="14" t="s">
         <v>4</v>
@@ -37591,7 +37752,7 @@
         <v>43932</v>
       </c>
       <c r="G1408" s="12" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="H1408" s="14" t="s">
         <v>73</v>
@@ -37617,10 +37778,10 @@
         <v>46</v>
       </c>
       <c r="G1409" s="12" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="H1409" s="13" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1410" spans="1:8" x14ac:dyDescent="0.35">
@@ -37643,7 +37804,7 @@
         <v>46</v>
       </c>
       <c r="G1410" s="12" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="H1410" s="14" t="s">
         <v>73</v>
@@ -37669,7 +37830,7 @@
         <v>43927</v>
       </c>
       <c r="G1411" s="12" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="H1411" s="14" t="s">
         <v>73</v>
@@ -37695,7 +37856,7 @@
         <v>43941</v>
       </c>
       <c r="G1412" s="12" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="H1412" s="14" t="s">
         <v>4</v>
@@ -37721,7 +37882,7 @@
         <v>43935</v>
       </c>
       <c r="G1413" s="12" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="H1413" s="14" t="s">
         <v>4</v>
@@ -37747,7 +37908,7 @@
         <v>43940</v>
       </c>
       <c r="G1414" s="12" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="H1414" s="14" t="s">
         <v>4</v>
@@ -37773,7 +37934,7 @@
         <v>43930</v>
       </c>
       <c r="G1415" s="12" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="H1415" s="14" t="s">
         <v>3</v>
@@ -37799,7 +37960,7 @@
         <v>82</v>
       </c>
       <c r="G1416" s="12" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="H1416" s="14" t="s">
         <v>4</v>
@@ -37825,7 +37986,7 @@
         <v>43941</v>
       </c>
       <c r="G1417" s="12" t="s">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="H1417" s="14" t="s">
         <v>75</v>
@@ -37851,10 +38012,10 @@
         <v>43931</v>
       </c>
       <c r="G1418" s="12" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="H1418" s="13" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1419" spans="1:8" x14ac:dyDescent="0.35">
@@ -37877,7 +38038,7 @@
         <v>43938</v>
       </c>
       <c r="G1419" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1419" s="14" t="s">
         <v>3</v>
@@ -37903,7 +38064,7 @@
         <v>43938</v>
       </c>
       <c r="G1420" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1420" s="14" t="s">
         <v>4</v>
@@ -37929,7 +38090,7 @@
         <v>43932</v>
       </c>
       <c r="G1421" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1421" s="14" t="s">
         <v>75</v>
@@ -37955,7 +38116,7 @@
         <v>43942</v>
       </c>
       <c r="G1422" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1422" s="14" t="s">
         <v>87</v>
@@ -37981,7 +38142,7 @@
         <v>43933</v>
       </c>
       <c r="G1423" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1423" s="14" t="s">
         <v>4</v>
@@ -38007,7 +38168,7 @@
         <v>46</v>
       </c>
       <c r="G1424" s="12" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="H1424" s="14" t="s">
         <v>3</v>
@@ -38033,7 +38194,7 @@
         <v>43934</v>
       </c>
       <c r="G1425" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1425" s="14" t="s">
         <v>89</v>
@@ -38059,7 +38220,7 @@
         <v>43940</v>
       </c>
       <c r="G1426" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1426" s="14" t="s">
         <v>73</v>
@@ -38085,7 +38246,7 @@
         <v>43939</v>
       </c>
       <c r="G1427" s="12" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="H1427" s="14" t="s">
         <v>4</v>
@@ -38111,7 +38272,7 @@
         <v>43937</v>
       </c>
       <c r="G1428" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1428" s="14" t="s">
         <v>73</v>
@@ -38137,7 +38298,7 @@
         <v>43939</v>
       </c>
       <c r="G1429" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1429" s="14" t="s">
         <v>4</v>
@@ -38163,7 +38324,7 @@
         <v>43934</v>
       </c>
       <c r="G1430" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1430" s="14" t="s">
         <v>4</v>
@@ -38189,7 +38350,7 @@
         <v>43942</v>
       </c>
       <c r="G1431" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1431" s="14" t="s">
         <v>4</v>
@@ -38215,7 +38376,7 @@
         <v>43936</v>
       </c>
       <c r="G1432" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1432" s="14" t="s">
         <v>75</v>
@@ -38241,7 +38402,7 @@
         <v>43937</v>
       </c>
       <c r="G1433" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1433" s="14" t="s">
         <v>3</v>
@@ -38267,7 +38428,7 @@
         <v>43943</v>
       </c>
       <c r="G1434" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1434" s="14" t="s">
         <v>4</v>
@@ -38293,7 +38454,7 @@
         <v>43939</v>
       </c>
       <c r="G1435" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1435" s="14" t="s">
         <v>4</v>
@@ -38319,7 +38480,7 @@
         <v>43939</v>
       </c>
       <c r="G1436" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1436" s="14" t="s">
         <v>75</v>
@@ -38345,7 +38506,7 @@
         <v>43930</v>
       </c>
       <c r="G1437" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1437" s="14" t="s">
         <v>73</v>
@@ -38371,7 +38532,7 @@
         <v>43934</v>
       </c>
       <c r="G1438" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1438" s="14" t="s">
         <v>75</v>
@@ -38397,7 +38558,7 @@
         <v>43937</v>
       </c>
       <c r="G1439" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1439" s="14" t="s">
         <v>4</v>
@@ -38423,7 +38584,7 @@
         <v>43929</v>
       </c>
       <c r="G1440" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1440" s="14" t="s">
         <v>73</v>
@@ -38449,7 +38610,7 @@
         <v>43939</v>
       </c>
       <c r="G1441" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1441" s="14" t="s">
         <v>73</v>
@@ -38475,7 +38636,7 @@
         <v>43942</v>
       </c>
       <c r="G1442" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1442" s="14" t="s">
         <v>73</v>
@@ -38501,7 +38662,7 @@
         <v>82</v>
       </c>
       <c r="G1443" s="12" t="s">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="H1443" s="14" t="s">
         <v>73</v>
@@ -38527,7 +38688,7 @@
         <v>43937</v>
       </c>
       <c r="G1444" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1444" s="14" t="s">
         <v>75</v>
@@ -38553,7 +38714,7 @@
         <v>43942</v>
       </c>
       <c r="G1445" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1445" s="14" t="s">
         <v>4</v>
@@ -38579,7 +38740,7 @@
         <v>43943</v>
       </c>
       <c r="G1446" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1446" s="14" t="s">
         <v>75</v>
@@ -38605,7 +38766,7 @@
         <v>43932</v>
       </c>
       <c r="G1447" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1447" s="14" t="s">
         <v>73</v>
@@ -38631,7 +38792,7 @@
         <v>43929</v>
       </c>
       <c r="G1448" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1448" s="14" t="s">
         <v>73</v>
@@ -38657,7 +38818,7 @@
         <v>43938</v>
       </c>
       <c r="G1449" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1449" s="14" t="s">
         <v>4</v>
@@ -38683,10 +38844,10 @@
         <v>43943</v>
       </c>
       <c r="G1450" s="12" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="H1450" s="13" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1451" spans="1:8" x14ac:dyDescent="0.35">
@@ -38709,10 +38870,10 @@
         <v>43939</v>
       </c>
       <c r="G1451" s="12" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H1451" s="13" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1452" spans="1:8" x14ac:dyDescent="0.35">
@@ -38735,7 +38896,7 @@
         <v>43943</v>
       </c>
       <c r="G1452" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1452" s="14" t="s">
         <v>4</v>
@@ -38761,7 +38922,7 @@
         <v>43938</v>
       </c>
       <c r="G1453" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1453" s="14" t="s">
         <v>4</v>
@@ -38787,10 +38948,10 @@
         <v>43941</v>
       </c>
       <c r="G1454" s="12" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="H1454" s="13" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1455" spans="1:8" x14ac:dyDescent="0.35">
@@ -38813,7 +38974,7 @@
         <v>46</v>
       </c>
       <c r="G1455" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1455" s="14" t="s">
         <v>73</v>
@@ -38839,7 +39000,7 @@
         <v>43935</v>
       </c>
       <c r="G1456" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1456" s="14" t="s">
         <v>73</v>
@@ -38865,7 +39026,7 @@
         <v>43939</v>
       </c>
       <c r="G1457" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1457" s="14" t="s">
         <v>4</v>
@@ -38891,7 +39052,7 @@
         <v>43937</v>
       </c>
       <c r="G1458" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1458" s="14" t="s">
         <v>4</v>
@@ -38917,7 +39078,7 @@
         <v>43941</v>
       </c>
       <c r="G1459" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1459" s="14" t="s">
         <v>73</v>
@@ -38943,7 +39104,7 @@
         <v>43935</v>
       </c>
       <c r="G1460" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1460" s="14" t="s">
         <v>73</v>
@@ -38969,7 +39130,7 @@
         <v>43930</v>
       </c>
       <c r="G1461" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1461" s="14" t="s">
         <v>73</v>
@@ -38995,7 +39156,7 @@
         <v>43931</v>
       </c>
       <c r="G1462" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1462" s="14" t="s">
         <v>73</v>
@@ -39021,7 +39182,7 @@
         <v>43933</v>
       </c>
       <c r="G1463" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1463" s="14" t="s">
         <v>75</v>
@@ -39047,7 +39208,7 @@
         <v>43941</v>
       </c>
       <c r="G1464" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1464" s="14" t="s">
         <v>75</v>
@@ -39073,7 +39234,7 @@
         <v>43918</v>
       </c>
       <c r="G1465" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1465" s="14" t="s">
         <v>75</v>
@@ -39099,7 +39260,7 @@
         <v>43938</v>
       </c>
       <c r="G1466" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1466" s="14" t="s">
         <v>75</v>
@@ -39125,7 +39286,7 @@
         <v>43942</v>
       </c>
       <c r="G1467" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1467" s="14" t="s">
         <v>4</v>
@@ -39151,7 +39312,7 @@
         <v>43940</v>
       </c>
       <c r="G1468" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1468" s="14" t="s">
         <v>75</v>
@@ -39177,7 +39338,7 @@
         <v>43930</v>
       </c>
       <c r="G1469" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1469" s="14" t="s">
         <v>75</v>
@@ -39203,7 +39364,7 @@
         <v>43937</v>
       </c>
       <c r="G1470" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1470" s="14" t="s">
         <v>75</v>
@@ -39229,7 +39390,7 @@
         <v>43943</v>
       </c>
       <c r="G1471" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1471" s="14" t="s">
         <v>3</v>
@@ -39255,7 +39416,7 @@
         <v>43929</v>
       </c>
       <c r="G1472" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1472" s="14" t="s">
         <v>75</v>
@@ -39281,7 +39442,7 @@
         <v>43937</v>
       </c>
       <c r="G1473" s="12" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="H1473" s="14" t="s">
         <v>4</v>
@@ -39307,7 +39468,7 @@
         <v>43931</v>
       </c>
       <c r="G1474" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1474" s="14" t="s">
         <v>3</v>
@@ -39333,7 +39494,7 @@
         <v>43940</v>
       </c>
       <c r="G1475" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1475" s="14" t="s">
         <v>4</v>
@@ -39359,7 +39520,7 @@
         <v>43944</v>
       </c>
       <c r="G1476" s="12" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="H1476" s="14" t="s">
         <v>4</v>
@@ -39385,7 +39546,7 @@
         <v>43938</v>
       </c>
       <c r="G1477" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1477" s="14" t="s">
         <v>75</v>
@@ -39541,10 +39702,10 @@
         <v>43942</v>
       </c>
       <c r="G1483" s="12" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="H1483" s="13" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1484" spans="1:8" x14ac:dyDescent="0.35">
@@ -39671,10 +39832,10 @@
         <v>43936</v>
       </c>
       <c r="G1488" s="12" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="H1488" s="13" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1489" spans="1:8" x14ac:dyDescent="0.35">
@@ -39749,7 +39910,7 @@
         <v>43939</v>
       </c>
       <c r="G1491" s="12" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="H1491" s="14" t="s">
         <v>4</v>
@@ -39879,7 +40040,7 @@
         <v>43940</v>
       </c>
       <c r="G1496" s="12" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="H1496" s="14" t="s">
         <v>4</v>
@@ -40035,7 +40196,7 @@
         <v>43945</v>
       </c>
       <c r="G1502" s="12" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="H1502" s="14" t="s">
         <v>4</v>
@@ -40087,10 +40248,10 @@
         <v>43937</v>
       </c>
       <c r="G1504" s="12" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="H1504" s="13" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1505" spans="1:8" x14ac:dyDescent="0.35">
@@ -40607,7 +40768,7 @@
         <v>43944</v>
       </c>
       <c r="G1524" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1524" s="14" t="s">
         <v>4</v>
@@ -40633,7 +40794,7 @@
         <v>43936</v>
       </c>
       <c r="G1525" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1525" s="14" t="s">
         <v>4</v>
@@ -40659,7 +40820,7 @@
         <v>43941</v>
       </c>
       <c r="G1526" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1526" s="14" t="s">
         <v>73</v>
@@ -40685,7 +40846,7 @@
         <v>43937</v>
       </c>
       <c r="G1527" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1527" s="14" t="s">
         <v>4</v>
@@ -40711,7 +40872,7 @@
         <v>43945</v>
       </c>
       <c r="G1528" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1528" s="14" t="s">
         <v>4</v>
@@ -40737,7 +40898,7 @@
         <v>43946</v>
       </c>
       <c r="G1529" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1529" s="14" t="s">
         <v>4</v>
@@ -40763,7 +40924,7 @@
         <v>82</v>
       </c>
       <c r="G1530" s="12" t="s">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="H1530" s="14" t="s">
         <v>4</v>
@@ -40789,7 +40950,7 @@
         <v>82</v>
       </c>
       <c r="G1531" s="12" t="s">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="H1531" s="14" t="s">
         <v>4</v>
@@ -40815,7 +40976,7 @@
         <v>43945</v>
       </c>
       <c r="G1532" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1532" s="14" t="s">
         <v>4</v>
@@ -40841,7 +41002,7 @@
         <v>43938</v>
       </c>
       <c r="G1533" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1533" s="14" t="s">
         <v>4</v>
@@ -40867,7 +41028,7 @@
         <v>43944</v>
       </c>
       <c r="G1534" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1534" s="14" t="s">
         <v>73</v>
@@ -40893,7 +41054,7 @@
         <v>43945</v>
       </c>
       <c r="G1535" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1535" s="14" t="s">
         <v>73</v>
@@ -40919,7 +41080,7 @@
         <v>43941</v>
       </c>
       <c r="G1536" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1536" s="14" t="s">
         <v>73</v>
@@ -40945,7 +41106,7 @@
         <v>43934</v>
       </c>
       <c r="G1537" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1537" s="14" t="s">
         <v>75</v>
@@ -40971,7 +41132,7 @@
         <v>43938</v>
       </c>
       <c r="G1538" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1538" s="14" t="s">
         <v>73</v>
@@ -40997,7 +41158,7 @@
         <v>43928</v>
       </c>
       <c r="G1539" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1539" s="14" t="s">
         <v>73</v>
@@ -41023,7 +41184,7 @@
         <v>43930</v>
       </c>
       <c r="G1540" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1540" s="14" t="s">
         <v>75</v>
@@ -41049,7 +41210,7 @@
         <v>43941</v>
       </c>
       <c r="G1541" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1541" s="14" t="s">
         <v>73</v>
@@ -41075,7 +41236,7 @@
         <v>43945</v>
       </c>
       <c r="G1542" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1542" s="14" t="s">
         <v>4</v>
@@ -41101,7 +41262,7 @@
         <v>43943</v>
       </c>
       <c r="G1543" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1543" s="14" t="s">
         <v>4</v>
@@ -41127,7 +41288,7 @@
         <v>43935</v>
       </c>
       <c r="G1544" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1544" s="14" t="s">
         <v>75</v>
@@ -41153,7 +41314,7 @@
         <v>82</v>
       </c>
       <c r="G1545" s="12" t="s">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="H1545" s="14" t="s">
         <v>75</v>
@@ -41179,7 +41340,7 @@
         <v>46</v>
       </c>
       <c r="G1546" s="12" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="H1546" s="14" t="s">
         <v>4</v>
@@ -41205,7 +41366,7 @@
         <v>43937</v>
       </c>
       <c r="G1547" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1547" s="14" t="s">
         <v>4</v>
@@ -41231,7 +41392,7 @@
         <v>43933</v>
       </c>
       <c r="G1548" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1548" s="14" t="s">
         <v>75</v>
@@ -41257,7 +41418,7 @@
         <v>43946</v>
       </c>
       <c r="G1549" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1549" s="14" t="s">
         <v>4</v>
@@ -41283,7 +41444,7 @@
         <v>43944</v>
       </c>
       <c r="G1550" s="12" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="H1550" s="14" t="s">
         <v>4</v>
@@ -41309,7 +41470,7 @@
         <v>43934</v>
       </c>
       <c r="G1551" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1551" s="14" t="s">
         <v>75</v>
@@ -41335,7 +41496,7 @@
         <v>43934</v>
       </c>
       <c r="G1552" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1552" s="14" t="s">
         <v>75</v>
@@ -41361,7 +41522,7 @@
         <v>43944</v>
       </c>
       <c r="G1553" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1553" s="14" t="s">
         <v>73</v>
@@ -41387,7 +41548,7 @@
         <v>46</v>
       </c>
       <c r="G1554" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1554" s="14" t="s">
         <v>4</v>
@@ -41413,7 +41574,7 @@
         <v>43933</v>
       </c>
       <c r="G1555" s="12" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="H1555" s="14" t="s">
         <v>4</v>
@@ -41439,7 +41600,7 @@
         <v>43948</v>
       </c>
       <c r="G1556" s="12" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="H1556" s="14" t="s">
         <v>4</v>
@@ -41465,7 +41626,7 @@
         <v>43945</v>
       </c>
       <c r="G1557" s="12" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="H1557" s="14" t="s">
         <v>4</v>
@@ -41491,7 +41652,7 @@
         <v>43945</v>
       </c>
       <c r="G1558" s="12" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="H1558" s="14" t="s">
         <v>4</v>
@@ -41517,7 +41678,7 @@
         <v>43941</v>
       </c>
       <c r="G1559" s="12" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="H1559" s="14" t="s">
         <v>4</v>
@@ -41543,7 +41704,7 @@
         <v>43931</v>
       </c>
       <c r="G1560" s="12" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="H1560" s="14" t="s">
         <v>4</v>
@@ -41569,7 +41730,7 @@
         <v>43938</v>
       </c>
       <c r="G1561" s="12" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="H1561" s="14" t="s">
         <v>4</v>
@@ -41595,7 +41756,7 @@
         <v>43945</v>
       </c>
       <c r="G1562" s="12" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="H1562" s="14" t="s">
         <v>4</v>
@@ -41621,7 +41782,7 @@
         <v>46</v>
       </c>
       <c r="G1563" s="12" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="H1563" s="14" t="s">
         <v>75</v>
@@ -41647,7 +41808,7 @@
         <v>43942</v>
       </c>
       <c r="G1564" s="12" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="H1564" s="14" t="s">
         <v>4</v>
@@ -41673,7 +41834,7 @@
         <v>43929</v>
       </c>
       <c r="G1565" s="12" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="H1565" s="14" t="s">
         <v>4</v>
@@ -41699,7 +41860,7 @@
         <v>43947</v>
       </c>
       <c r="G1566" s="12" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="H1566" s="14" t="s">
         <v>75</v>
@@ -41725,7 +41886,7 @@
         <v>43945</v>
       </c>
       <c r="G1567" s="12" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="H1567" s="14" t="s">
         <v>75</v>
@@ -41751,7 +41912,7 @@
         <v>43947</v>
       </c>
       <c r="G1568" s="12" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="H1568" s="14" t="s">
         <v>4</v>
@@ -41777,7 +41938,7 @@
         <v>43947</v>
       </c>
       <c r="G1569" s="12" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="H1569" s="14" t="s">
         <v>73</v>
@@ -41803,7 +41964,7 @@
         <v>43946</v>
       </c>
       <c r="G1570" s="12" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="H1570" s="14" t="s">
         <v>4</v>
@@ -41829,7 +41990,7 @@
         <v>43941</v>
       </c>
       <c r="G1571" s="12" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="H1571" s="14" t="s">
         <v>75</v>
@@ -41855,10 +42016,10 @@
         <v>46</v>
       </c>
       <c r="G1572" s="12" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="H1572" s="13" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1573" spans="1:8" x14ac:dyDescent="0.35">
@@ -41881,10 +42042,10 @@
         <v>43946</v>
       </c>
       <c r="G1573" s="12" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H1573" s="13" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1574" spans="1:8" x14ac:dyDescent="0.35">
@@ -41907,7 +42068,7 @@
         <v>43941</v>
       </c>
       <c r="G1574" s="12" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="H1574" s="14" t="s">
         <v>75</v>
@@ -41933,7 +42094,7 @@
         <v>43935</v>
       </c>
       <c r="G1575" s="12" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="H1575" s="14" t="s">
         <v>75</v>
@@ -41959,7 +42120,7 @@
         <v>43945</v>
       </c>
       <c r="G1576" s="12" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="H1576" s="14" t="s">
         <v>4</v>
@@ -41985,7 +42146,7 @@
         <v>43937</v>
       </c>
       <c r="G1577" s="12" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="H1577" s="14" t="s">
         <v>4</v>
@@ -42011,7 +42172,7 @@
         <v>43939</v>
       </c>
       <c r="G1578" s="12" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="H1578" s="14" t="s">
         <v>3</v>
@@ -42037,7 +42198,7 @@
         <v>46</v>
       </c>
       <c r="G1579" s="12" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="H1579" s="14" t="s">
         <v>4</v>
@@ -42063,7 +42224,7 @@
         <v>43938</v>
       </c>
       <c r="G1580" s="12" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="H1580" s="14" t="s">
         <v>4</v>
@@ -42089,7 +42250,7 @@
         <v>46</v>
       </c>
       <c r="G1581" s="12" t="s">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="H1581" s="14" t="s">
         <v>75</v>
@@ -42115,7 +42276,7 @@
         <v>43945</v>
       </c>
       <c r="G1582" s="12" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="H1582" s="14" t="s">
         <v>4</v>
@@ -42141,7 +42302,7 @@
         <v>46</v>
       </c>
       <c r="G1583" s="12" t="s">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="H1583" s="14" t="s">
         <v>4</v>
@@ -42167,7 +42328,7 @@
         <v>43932</v>
       </c>
       <c r="G1584" s="12" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="H1584" s="14" t="s">
         <v>73</v>
@@ -42193,7 +42354,7 @@
         <v>43944</v>
       </c>
       <c r="G1585" s="12" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="H1585" s="14" t="s">
         <v>75</v>
@@ -42219,7 +42380,7 @@
         <v>46</v>
       </c>
       <c r="G1586" s="12" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="H1586" s="14" t="s">
         <v>3</v>
@@ -42245,7 +42406,7 @@
         <v>43941</v>
       </c>
       <c r="G1587" s="12" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="H1587" s="14" t="s">
         <v>75</v>
@@ -42271,7 +42432,7 @@
         <v>43943</v>
       </c>
       <c r="G1588" s="12" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="H1588" s="14" t="s">
         <v>4</v>
@@ -42297,7 +42458,7 @@
         <v>46</v>
       </c>
       <c r="G1589" s="12" t="s">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="H1589" s="14" t="s">
         <v>73</v>
@@ -42323,7 +42484,7 @@
         <v>46</v>
       </c>
       <c r="G1590" s="12" t="s">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="H1590" s="14" t="s">
         <v>4</v>
@@ -42349,7 +42510,7 @@
         <v>46</v>
       </c>
       <c r="G1591" s="12" t="s">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="H1591" s="14" t="s">
         <v>75</v>
@@ -42375,7 +42536,7 @@
         <v>46</v>
       </c>
       <c r="G1592" s="12" t="s">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="H1592" s="14" t="s">
         <v>88</v>
@@ -42401,7 +42562,7 @@
         <v>46</v>
       </c>
       <c r="G1593" s="12" t="s">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="H1593" s="14" t="s">
         <v>75</v>
@@ -42427,7 +42588,7 @@
         <v>46</v>
       </c>
       <c r="G1594" s="12" t="s">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="H1594" s="14" t="s">
         <v>75</v>
@@ -42453,7 +42614,7 @@
         <v>43939</v>
       </c>
       <c r="G1595" s="12" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="H1595" s="14" t="s">
         <v>4</v>
@@ -42479,7 +42640,7 @@
         <v>43946</v>
       </c>
       <c r="G1596" s="12" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="H1596" s="14" t="s">
         <v>75</v>
@@ -42505,7 +42666,7 @@
         <v>43937</v>
       </c>
       <c r="G1597" s="12" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="H1597" s="14" t="s">
         <v>3</v>
@@ -42531,7 +42692,7 @@
         <v>43936</v>
       </c>
       <c r="G1598" s="12" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="H1598" s="14" t="s">
         <v>4</v>
@@ -42557,7 +42718,7 @@
         <v>43944</v>
       </c>
       <c r="G1599" s="12" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="H1599" s="14" t="s">
         <v>4</v>
@@ -42583,7 +42744,7 @@
         <v>43949</v>
       </c>
       <c r="G1600" s="12" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="H1600" s="14" t="s">
         <v>4</v>
@@ -42609,7 +42770,7 @@
         <v>43945</v>
       </c>
       <c r="G1601" s="12" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="H1601" s="14" t="s">
         <v>4</v>
@@ -42635,7 +42796,7 @@
         <v>43943</v>
       </c>
       <c r="G1602" s="12" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="H1602" s="14" t="s">
         <v>4</v>
@@ -42661,7 +42822,7 @@
         <v>82</v>
       </c>
       <c r="G1603" s="12" t="s">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="H1603" s="14" t="s">
         <v>4</v>
@@ -42687,7 +42848,7 @@
         <v>82</v>
       </c>
       <c r="G1604" s="12" t="s">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="H1604" s="14" t="s">
         <v>75</v>
@@ -42713,7 +42874,7 @@
         <v>43944</v>
       </c>
       <c r="G1605" s="12" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="H1605" s="14" t="s">
         <v>4</v>
@@ -42739,7 +42900,7 @@
         <v>43948</v>
       </c>
       <c r="G1606" s="12" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="H1606" s="14" t="s">
         <v>4</v>
@@ -42765,7 +42926,7 @@
         <v>43947</v>
       </c>
       <c r="G1607" s="12" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="H1607" s="14" t="s">
         <v>4</v>
@@ -42791,7 +42952,7 @@
         <v>43948</v>
       </c>
       <c r="G1608" s="12" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="H1608" s="14" t="s">
         <v>75</v>
@@ -42817,7 +42978,7 @@
         <v>43936</v>
       </c>
       <c r="G1609" s="12" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="H1609" s="14" t="s">
         <v>73</v>
@@ -42843,7 +43004,7 @@
         <v>43936</v>
       </c>
       <c r="G1610" s="12" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="H1610" s="14" t="s">
         <v>4</v>
@@ -42869,10 +43030,10 @@
         <v>43950</v>
       </c>
       <c r="G1611" s="12" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H1611" s="13" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1612" spans="1:8" x14ac:dyDescent="0.35">
@@ -42895,7 +43056,7 @@
         <v>82</v>
       </c>
       <c r="G1612" s="12" t="s">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="H1612" s="14" t="s">
         <v>75</v>
@@ -42921,7 +43082,7 @@
         <v>43941</v>
       </c>
       <c r="G1613" s="12" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="H1613" s="14" t="s">
         <v>4</v>
@@ -42947,7 +43108,7 @@
         <v>43938</v>
       </c>
       <c r="G1614" s="12" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="H1614" s="14" t="s">
         <v>4</v>
@@ -42973,7 +43134,7 @@
         <v>46</v>
       </c>
       <c r="G1615" s="12" t="s">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="H1615" s="14" t="s">
         <v>4</v>
@@ -42999,7 +43160,7 @@
         <v>43947</v>
       </c>
       <c r="G1616" s="12" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="H1616" s="14" t="s">
         <v>4</v>
@@ -43025,10 +43186,10 @@
         <v>43948</v>
       </c>
       <c r="G1617" s="12" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H1617" s="13" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1618" spans="1:8" x14ac:dyDescent="0.35">
@@ -43051,7 +43212,7 @@
         <v>43941</v>
       </c>
       <c r="G1618" s="12" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="H1618" s="14" t="s">
         <v>75</v>
@@ -43077,7 +43238,7 @@
         <v>43939</v>
       </c>
       <c r="G1619" s="12" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="H1619" s="14" t="s">
         <v>4</v>
@@ -43103,7 +43264,7 @@
         <v>43941</v>
       </c>
       <c r="G1620" s="12" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="H1620" s="14" t="s">
         <v>4</v>
@@ -43129,7 +43290,7 @@
         <v>43945</v>
       </c>
       <c r="G1621" s="12" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="H1621" s="14" t="s">
         <v>73</v>
@@ -43155,7 +43316,7 @@
         <v>43943</v>
       </c>
       <c r="G1622" s="12" t="s">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="H1622" s="14" t="s">
         <v>4</v>
@@ -43181,7 +43342,7 @@
         <v>43942</v>
       </c>
       <c r="G1623" s="12" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="H1623" s="14" t="s">
         <v>4</v>
@@ -43207,7 +43368,7 @@
         <v>43944</v>
       </c>
       <c r="G1624" s="12" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="H1624" s="14" t="s">
         <v>4</v>
@@ -43233,7 +43394,7 @@
         <v>43945</v>
       </c>
       <c r="G1625" s="12" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="H1625" s="14" t="s">
         <v>4</v>
@@ -43259,7 +43420,7 @@
         <v>43943</v>
       </c>
       <c r="G1626" s="12" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="H1626" s="14" t="s">
         <v>4</v>
@@ -43285,7 +43446,7 @@
         <v>43941</v>
       </c>
       <c r="G1627" s="12" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="H1627" s="14" t="s">
         <v>4</v>
@@ -44891,13 +45052,13 @@
         <v>23</v>
       </c>
       <c r="E1689" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F1689" s="1">
         <v>43953</v>
       </c>
       <c r="G1689" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="H1689" t="s">
         <v>4</v>
@@ -44917,13 +45078,13 @@
         <v>25</v>
       </c>
       <c r="E1690" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F1690" s="1" t="s">
         <v>82</v>
       </c>
       <c r="G1690" t="s">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="H1690" t="s">
         <v>75</v>
@@ -44943,13 +45104,13 @@
         <v>23</v>
       </c>
       <c r="E1691" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F1691" s="1" t="s">
         <v>82</v>
       </c>
       <c r="G1691" t="s">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="H1691" t="s">
         <v>75</v>
@@ -44969,13 +45130,13 @@
         <v>23</v>
       </c>
       <c r="E1692" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F1692" s="1" t="s">
         <v>82</v>
       </c>
       <c r="G1692" t="s">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="H1692" t="s">
         <v>75</v>
@@ -44995,13 +45156,13 @@
         <v>23</v>
       </c>
       <c r="E1693" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F1693" s="1">
         <v>43951</v>
       </c>
       <c r="G1693" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="H1693" t="s">
         <v>4</v>
@@ -45021,13 +45182,13 @@
         <v>25</v>
       </c>
       <c r="E1694" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F1694" s="1">
         <v>43953</v>
       </c>
       <c r="G1694" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="H1694" t="s">
         <v>4</v>
@@ -45047,13 +45208,13 @@
         <v>25</v>
       </c>
       <c r="E1695" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F1695" s="1">
         <v>43943</v>
       </c>
       <c r="G1695" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="H1695" t="s">
         <v>4</v>
@@ -45073,13 +45234,13 @@
         <v>23</v>
       </c>
       <c r="E1696" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F1696" s="1">
         <v>43954</v>
       </c>
       <c r="G1696" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="H1696" t="s">
         <v>73</v>
@@ -45099,13 +45260,13 @@
         <v>23</v>
       </c>
       <c r="E1697" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F1697" s="1">
         <v>43945</v>
       </c>
       <c r="G1697" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="H1697" t="s">
         <v>4</v>
@@ -45125,13 +45286,13 @@
         <v>25</v>
       </c>
       <c r="E1698" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F1698" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G1698" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="H1698" t="s">
         <v>75</v>
@@ -45151,13 +45312,13 @@
         <v>23</v>
       </c>
       <c r="E1699" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F1699" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G1699" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="H1699" t="s">
         <v>5</v>
@@ -45177,13 +45338,13 @@
         <v>25</v>
       </c>
       <c r="E1700" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F1700" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G1700" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="H1700" t="s">
         <v>4</v>
@@ -45209,7 +45370,7 @@
         <v>43951</v>
       </c>
       <c r="G1701" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="H1701" s="7" t="s">
         <v>75</v>
@@ -45235,7 +45396,7 @@
         <v>43953</v>
       </c>
       <c r="G1702" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="H1702" s="7" t="s">
         <v>4</v>
@@ -45261,7 +45422,7 @@
         <v>43956</v>
       </c>
       <c r="G1703" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="H1703" s="7" t="s">
         <v>75</v>
@@ -45287,7 +45448,7 @@
         <v>43948</v>
       </c>
       <c r="G1704" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="H1704" s="7" t="s">
         <v>4</v>
@@ -45313,7 +45474,7 @@
         <v>82</v>
       </c>
       <c r="G1705" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="H1705" s="7" t="s">
         <v>73</v>
@@ -45339,7 +45500,7 @@
         <v>43954</v>
       </c>
       <c r="G1706" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="H1706" s="7" t="s">
         <v>4</v>
@@ -45365,7 +45526,7 @@
         <v>43955</v>
       </c>
       <c r="G1707" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="H1707" s="7" t="s">
         <v>75</v>
@@ -45391,10 +45552,10 @@
         <v>43957</v>
       </c>
       <c r="G1708" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="H1708" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="1709" spans="1:8" x14ac:dyDescent="0.4">
@@ -45417,7 +45578,7 @@
         <v>46</v>
       </c>
       <c r="G1709" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="H1709" s="7" t="s">
         <v>5</v>
@@ -45443,7 +45604,7 @@
         <v>82</v>
       </c>
       <c r="G1710" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="H1710" s="7" t="s">
         <v>4</v>
@@ -45469,7 +45630,7 @@
         <v>82</v>
       </c>
       <c r="G1711" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="H1711" s="7" t="s">
         <v>4</v>
@@ -45495,7 +45656,7 @@
         <v>43951</v>
       </c>
       <c r="G1712" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="H1712" s="7" t="s">
         <v>5</v>
@@ -45521,7 +45682,7 @@
         <v>43950</v>
       </c>
       <c r="G1713" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="H1713" s="7" t="s">
         <v>5</v>
@@ -45547,7 +45708,7 @@
         <v>43952</v>
       </c>
       <c r="G1714" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="H1714" s="7" t="s">
         <v>5</v>
@@ -45573,7 +45734,7 @@
         <v>43951</v>
       </c>
       <c r="G1715" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="H1715" s="7" t="s">
         <v>75</v>
@@ -45599,7 +45760,7 @@
         <v>43929</v>
       </c>
       <c r="G1716" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="H1716" s="7" t="s">
         <v>3</v>
@@ -45625,7 +45786,7 @@
         <v>43955</v>
       </c>
       <c r="G1717" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="H1717" s="7" t="s">
         <v>5</v>
@@ -45651,34 +45812,451 @@
         <v>43953</v>
       </c>
       <c r="G1718" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="H1718" s="7" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="1719" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1719">
+        <v>1717</v>
+      </c>
+      <c r="B1719" s="2">
+        <v>43960</v>
+      </c>
+      <c r="C1719">
+        <v>40</v>
+      </c>
+      <c r="D1719" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1719" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1719" s="1">
+        <v>43957</v>
+      </c>
+      <c r="G1719" t="s">
+        <v>117</v>
+      </c>
+      <c r="H1719" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1720">
+        <v>1718</v>
+      </c>
+      <c r="B1720" s="2">
+        <v>43960</v>
+      </c>
+      <c r="C1720">
+        <v>70</v>
+      </c>
+      <c r="D1720" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1720" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1720" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1720" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1720" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1721">
+        <v>1719</v>
+      </c>
+      <c r="B1721" s="2">
+        <v>43960</v>
+      </c>
+      <c r="C1721">
+        <v>60</v>
+      </c>
+      <c r="D1721" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1721" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1721" s="1">
+        <v>43950</v>
+      </c>
+      <c r="G1721" t="s">
+        <v>117</v>
+      </c>
+      <c r="H1721" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1722">
+        <v>1720</v>
+      </c>
+      <c r="B1722" s="2">
+        <v>43960</v>
+      </c>
+      <c r="C1722">
+        <v>60</v>
+      </c>
+      <c r="D1722" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1722" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1722" s="1">
+        <v>43957</v>
+      </c>
+      <c r="G1722" t="s">
+        <v>117</v>
+      </c>
+      <c r="H1722" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1723">
+        <v>1721</v>
+      </c>
+      <c r="B1723" s="2">
+        <v>43960</v>
+      </c>
+      <c r="C1723">
+        <v>30</v>
+      </c>
+      <c r="D1723" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1723" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1723" s="1">
+        <v>43947</v>
+      </c>
+      <c r="G1723" t="s">
+        <v>117</v>
+      </c>
+      <c r="H1723" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1724">
+        <v>1722</v>
+      </c>
+      <c r="B1724" s="2">
+        <v>43960</v>
+      </c>
+      <c r="C1724">
+        <v>30</v>
+      </c>
+      <c r="D1724" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1724" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1724" s="1">
+        <v>43957</v>
+      </c>
+      <c r="G1724" t="s">
+        <v>117</v>
+      </c>
+      <c r="H1724" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1725">
+        <v>1723</v>
+      </c>
+      <c r="B1725" s="2">
+        <v>43960</v>
+      </c>
+      <c r="C1725">
+        <v>20</v>
+      </c>
+      <c r="D1725" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1725" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1725" s="1">
+        <v>43954</v>
+      </c>
+      <c r="G1725" t="s">
+        <v>117</v>
+      </c>
+      <c r="H1725" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1726">
+        <v>1724</v>
+      </c>
+      <c r="B1726" s="2">
+        <v>43960</v>
+      </c>
+      <c r="C1726">
+        <v>40</v>
+      </c>
+      <c r="D1726" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1726" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1726" s="1">
+        <v>43955</v>
+      </c>
+      <c r="G1726" t="s">
+        <v>117</v>
+      </c>
+      <c r="H1726" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1727">
+        <v>1725</v>
+      </c>
+      <c r="B1727" s="2">
+        <v>43960</v>
+      </c>
+      <c r="C1727">
+        <v>50</v>
+      </c>
+      <c r="D1727" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1727" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1727" s="1">
+        <v>43951</v>
+      </c>
+      <c r="G1727" t="s">
+        <v>117</v>
+      </c>
+      <c r="H1727" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1728">
+        <v>1726</v>
+      </c>
+      <c r="B1728" s="2">
+        <v>43960</v>
+      </c>
+      <c r="C1728">
+        <v>40</v>
+      </c>
+      <c r="D1728" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1728" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1728" s="1">
+        <v>43958</v>
+      </c>
+      <c r="G1728" t="s">
+        <v>117</v>
+      </c>
+      <c r="H1728" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1729">
+        <v>1727</v>
+      </c>
+      <c r="B1729" s="2">
+        <v>43960</v>
+      </c>
+      <c r="C1729">
+        <v>50</v>
+      </c>
+      <c r="D1729" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1729" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1729" s="1">
+        <v>43953</v>
+      </c>
+      <c r="G1729" t="s">
+        <v>119</v>
+      </c>
+      <c r="H1729" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1730">
+        <v>1728</v>
+      </c>
+      <c r="B1730" s="2">
+        <v>43960</v>
+      </c>
+      <c r="C1730">
+        <v>40</v>
+      </c>
+      <c r="D1730" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1730" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1730" s="1">
+        <v>43947</v>
+      </c>
+      <c r="G1730" t="s">
+        <v>117</v>
+      </c>
+      <c r="H1730" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1731">
+        <v>1729</v>
+      </c>
+      <c r="B1731" s="2">
+        <v>43960</v>
+      </c>
+      <c r="C1731">
+        <v>40</v>
+      </c>
+      <c r="D1731" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1731" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1731" s="1">
+        <v>43945</v>
+      </c>
+      <c r="G1731" t="s">
+        <v>117</v>
+      </c>
+      <c r="H1731" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1732">
+        <v>1730</v>
+      </c>
+      <c r="B1732" s="2">
+        <v>43960</v>
+      </c>
+      <c r="C1732">
+        <v>80</v>
+      </c>
+      <c r="D1732" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1732" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1732" s="1">
+        <v>43941</v>
+      </c>
+      <c r="G1732" t="s">
+        <v>117</v>
+      </c>
+      <c r="H1732" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1733">
+        <v>1731</v>
+      </c>
+      <c r="B1733" s="2">
+        <v>43960</v>
+      </c>
+      <c r="C1733">
+        <v>50</v>
+      </c>
+      <c r="D1733" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1733" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1733" s="1">
+        <v>43957</v>
+      </c>
+      <c r="G1733" t="s">
+        <v>117</v>
+      </c>
+      <c r="H1733" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1734">
+        <v>1732</v>
+      </c>
+      <c r="B1734" s="2">
+        <v>43960</v>
+      </c>
+      <c r="C1734">
+        <v>90</v>
+      </c>
+      <c r="D1734" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1734" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1734" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1734" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1734" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:H1718"/>
-  <phoneticPr fontId="1"/>
+  <autoFilter ref="A2:H1734" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <phoneticPr fontId="10"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K107"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:K108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="8.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="3">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="B1" t="s">
         <v>60</v>
@@ -49358,26 +49936,61 @@
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A107" s="4" t="s">
-        <v>93</v>
+      <c r="A107" s="2">
+        <v>43960</v>
       </c>
       <c r="B107">
-        <v>20263</v>
+        <v>764</v>
       </c>
       <c r="C107">
-        <v>1716</v>
+        <v>16</v>
+      </c>
+      <c r="D107">
+        <v>1732</v>
+      </c>
+      <c r="E107">
+        <v>730</v>
       </c>
       <c r="F107">
-        <v>978</v>
+        <v>12</v>
+      </c>
+      <c r="G107">
+        <v>990</v>
       </c>
       <c r="H107">
-        <v>978</v>
+        <v>12</v>
+      </c>
+      <c r="I107">
+        <v>990</v>
       </c>
       <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A108" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="B108">
+        <v>21027</v>
+      </c>
+      <c r="C108">
+        <v>1732</v>
+      </c>
+      <c r="F108">
+        <v>990</v>
+      </c>
+      <c r="H108">
+        <v>990</v>
+      </c>
+      <c r="J108">
         <v>59</v>
       </c>
-      <c r="K107">
-        <v>891</v>
+      <c r="K108">
+        <v>897</v>
       </c>
     </row>
   </sheetData>

--- a/data/patients_and_inspections.xlsx
+++ b/data/patients_and_inspections.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hasse\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.19.161.23\kansen_fol\03防疫L（移行済）\06　中国武漢市肺炎（新型コロナウイルス）\検査の状況(HP更新)\陽性者入院状況\コロナサイト\0511（0510のデータ）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E7C174B-3986-4F94-882A-31255E4D0ECC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2010" yWindow="465" windowWidth="33000" windowHeight="19155"/>
   </bookViews>
   <sheets>
     <sheet name="【公開OK】ピポット集計" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="【公開OK】コロナサイト用（日付ベース）" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'【公開OK】府HP用(陽性者ベース)'!$A$2:$H$1734</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'【公開OK】府HP用(陽性者ベース)'!$A$2:$H$1745</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7334" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7382" uniqueCount="106">
   <si>
     <t>（1）入退院の状況</t>
   </si>
@@ -414,145 +413,30 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>重症</t>
-    <rPh sb="0" eb="1">
-      <t>ジュウ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
+    <t>女</t>
   </si>
   <si>
-    <t>重症</t>
-    <rPh sb="0" eb="2">
-      <t>ジュウショウ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>無症状</t>
-    <rPh sb="0" eb="3">
-      <t>ムショウジョウ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>調査中</t>
-    <rPh sb="0" eb="3">
-      <t>チョウサチュウ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>調査中</t>
-    <rPh sb="0" eb="3">
-      <t>チョウサチュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無症状</t>
-    <rPh sb="0" eb="3">
-      <t>ムショウジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>重症</t>
-    <rPh sb="0" eb="2">
-      <t>ジュウショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
-    <t>重症</t>
-    <rPh sb="0" eb="2">
-      <t>ジュウショウ</t>
-    </rPh>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
-    <t>調査中</t>
-    <rPh sb="0" eb="3">
-      <t>チョウサチュウ</t>
-    </rPh>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
-    <t>無症状</t>
-    <rPh sb="0" eb="3">
-      <t>ムショウジョウ</t>
-    </rPh>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>無症状</t>
-    <rPh sb="0" eb="3">
-      <t>ムショウジョウ</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>重症</t>
-    <rPh sb="0" eb="2">
-      <t>ジュウショウ</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
+    <t>男</t>
   </si>
   <si>
     <t>死亡退院</t>
+    <rPh sb="0" eb="2">
+      <t>シボウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイイン</t>
+    </rPh>
     <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>死亡退院</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>死亡退院</t>
-    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -613,24 +497,6 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -722,7 +588,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -999,11 +865,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1026,7 +892,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>990</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
@@ -1034,7 +900,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
@@ -1042,7 +908,7 @@
         <v>92</v>
       </c>
       <c r="B6">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
@@ -1058,7 +924,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1732</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
@@ -1079,7 +945,7 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <v>576</v>
+        <v>549</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
@@ -1087,7 +953,7 @@
         <v>11</v>
       </c>
       <c r="B14">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
@@ -1095,7 +961,7 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
@@ -1111,7 +977,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>990</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
@@ -1127,7 +993,7 @@
         <v>84</v>
       </c>
       <c r="B20">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
@@ -1135,7 +1001,7 @@
         <v>85</v>
       </c>
       <c r="B21">
-        <v>163</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
@@ -1143,7 +1009,7 @@
         <v>86</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1154,12 +1020,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H1734"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H1745"/>
   <sheetViews>
-    <sheetView topLeftCell="A1718" workbookViewId="0">
-      <selection activeCell="B1719" sqref="B1719"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1170,7 +1034,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="3">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="B1" t="s">
         <v>60</v>
@@ -1638,10 +1502,10 @@
         <v>43878</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
@@ -2678,10 +2542,10 @@
         <v>43895</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="H59" s="13" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.4">
@@ -2912,10 +2776,10 @@
         <v>43896</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="H68" s="13" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.4">
@@ -3640,10 +3504,10 @@
         <v>43898</v>
       </c>
       <c r="G96" s="11" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="H96" s="13" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
@@ -3744,10 +3608,10 @@
         <v>43896</v>
       </c>
       <c r="G100" s="11" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H100" s="13" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.4">
@@ -4547,7 +4411,7 @@
         <v>27</v>
       </c>
       <c r="F131" s="1">
-        <v>0</v>
+        <v>43909</v>
       </c>
       <c r="G131" s="11" t="s">
         <v>10</v>
@@ -5044,7 +4908,7 @@
         <v>43913</v>
       </c>
       <c r="G150" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H150" s="13" t="s">
         <v>4</v>
@@ -5073,7 +4937,7 @@
         <v>14</v>
       </c>
       <c r="H151" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.4">
@@ -5564,10 +5428,10 @@
         <v>43911</v>
       </c>
       <c r="G170" s="11" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="H170" s="13" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.4">
@@ -5879,7 +5743,7 @@
         <v>14</v>
       </c>
       <c r="H182" s="13" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.4">
@@ -7962,7 +7826,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="263" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A263">
         <v>261</v>
       </c>
@@ -7985,10 +7849,10 @@
         <v>14</v>
       </c>
       <c r="H263" s="13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A264">
         <v>262</v>
       </c>
@@ -8011,7 +7875,7 @@
         <v>14</v>
       </c>
       <c r="H264" s="13" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
     </row>
     <row r="265" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
@@ -8040,7 +7904,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="266" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A266">
         <v>264</v>
       </c>
@@ -8063,7 +7927,7 @@
         <v>14</v>
       </c>
       <c r="H266" s="13" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
     </row>
     <row r="267" spans="1:8" ht="34.5" x14ac:dyDescent="0.4">
@@ -9022,10 +8886,10 @@
         <v>43920</v>
       </c>
       <c r="G303" s="11" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="H303" s="13" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.4">
@@ -9048,10 +8912,10 @@
         <v>43922</v>
       </c>
       <c r="G304" s="11" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="H304" s="13" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.4">
@@ -10634,10 +10498,10 @@
         <v>43924</v>
       </c>
       <c r="G365" s="12" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="H365" s="13" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.35">
@@ -10793,7 +10657,7 @@
         <v>10</v>
       </c>
       <c r="H371" s="14" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.35">
@@ -11024,7 +10888,7 @@
         <v>46</v>
       </c>
       <c r="G380" s="12" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="H380" s="14" t="s">
         <v>4</v>
@@ -11102,7 +10966,7 @@
         <v>43922</v>
       </c>
       <c r="G383" s="12" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="H383" s="14" t="s">
         <v>4</v>
@@ -11154,7 +11018,7 @@
         <v>43917</v>
       </c>
       <c r="G385" s="12" t="s">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="H385" s="14" t="s">
         <v>3</v>
@@ -11570,10 +11434,10 @@
         <v>43918</v>
       </c>
       <c r="G401" s="12" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="H401" s="13" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.35">
@@ -11622,10 +11486,10 @@
         <v>43919</v>
       </c>
       <c r="G403" s="12" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="H403" s="13" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.35">
@@ -11882,7 +11746,7 @@
         <v>43918</v>
       </c>
       <c r="G413" s="12" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="H413" s="14" t="s">
         <v>4</v>
@@ -11986,7 +11850,7 @@
         <v>56</v>
       </c>
       <c r="G417" s="12" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="H417" s="14" t="s">
         <v>87</v>
@@ -12038,7 +11902,7 @@
         <v>43925</v>
       </c>
       <c r="G419" s="12" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="H419" s="14" t="s">
         <v>4</v>
@@ -12093,7 +11957,7 @@
         <v>10</v>
       </c>
       <c r="H421" s="14" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="422" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -12116,7 +11980,7 @@
         <v>43922</v>
       </c>
       <c r="G422" s="12" t="s">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="H422" s="14" t="s">
         <v>4</v>
@@ -12350,7 +12214,7 @@
         <v>43921</v>
       </c>
       <c r="G431" s="12" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="H431" s="14" t="s">
         <v>4</v>
@@ -12844,7 +12708,7 @@
         <v>43924</v>
       </c>
       <c r="G450" s="12" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="H450" s="14" t="s">
         <v>4</v>
@@ -13078,7 +12942,7 @@
         <v>56</v>
       </c>
       <c r="G459" s="12" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="H459" s="14" t="s">
         <v>87</v>
@@ -13546,10 +13410,10 @@
         <v>43916</v>
       </c>
       <c r="G477" s="12" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="H477" s="13" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
     </row>
     <row r="478" spans="1:8" x14ac:dyDescent="0.35">
@@ -13572,7 +13436,7 @@
         <v>56</v>
       </c>
       <c r="G478" s="12" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="H478" s="14" t="s">
         <v>87</v>
@@ -13624,7 +13488,7 @@
         <v>43916</v>
       </c>
       <c r="G480" s="12" t="s">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="H480" s="14" t="s">
         <v>4</v>
@@ -13757,7 +13621,7 @@
         <v>10</v>
       </c>
       <c r="H485" s="14" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="486" spans="1:8" x14ac:dyDescent="0.35">
@@ -13936,7 +13800,7 @@
         <v>56</v>
       </c>
       <c r="G492" s="12" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="H492" s="14" t="s">
         <v>87</v>
@@ -13991,7 +13855,7 @@
         <v>10</v>
       </c>
       <c r="H494" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="495" spans="1:8" x14ac:dyDescent="0.35">
@@ -14017,7 +13881,7 @@
         <v>10</v>
       </c>
       <c r="H495" s="14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="496" spans="1:8" x14ac:dyDescent="0.35">
@@ -14560,7 +14424,7 @@
         <v>43923</v>
       </c>
       <c r="G516" s="12" t="s">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="H516" s="14" t="s">
         <v>3</v>
@@ -14820,7 +14684,7 @@
         <v>43922</v>
       </c>
       <c r="G526" s="12" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="H526" s="14" t="s">
         <v>4</v>
@@ -15132,7 +14996,7 @@
         <v>56</v>
       </c>
       <c r="G538" s="12" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="H538" s="14" t="s">
         <v>3</v>
@@ -15158,7 +15022,7 @@
         <v>43917</v>
       </c>
       <c r="G539" s="12" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="H539" s="14" t="s">
         <v>4</v>
@@ -15392,7 +15256,7 @@
         <v>43923</v>
       </c>
       <c r="G548" s="12" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="H548" s="14" t="s">
         <v>4</v>
@@ -15600,10 +15464,10 @@
         <v>43926</v>
       </c>
       <c r="G556" s="12" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="H556" s="13" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
     </row>
     <row r="557" spans="1:8" x14ac:dyDescent="0.35">
@@ -15938,7 +15802,7 @@
         <v>56</v>
       </c>
       <c r="G569" s="12" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="H569" s="14" t="s">
         <v>87</v>
@@ -16120,10 +15984,10 @@
         <v>43926</v>
       </c>
       <c r="G576" s="12" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="H576" s="13" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
     </row>
     <row r="577" spans="1:8" x14ac:dyDescent="0.35">
@@ -16328,7 +16192,7 @@
         <v>46</v>
       </c>
       <c r="G584" s="12" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="H584" s="14" t="s">
         <v>87</v>
@@ -16380,10 +16244,10 @@
         <v>43924</v>
       </c>
       <c r="G586" s="12" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="H586" s="13" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
     </row>
     <row r="587" spans="1:8" x14ac:dyDescent="0.35">
@@ -16484,7 +16348,7 @@
         <v>46</v>
       </c>
       <c r="G590" s="12" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="H590" s="14" t="s">
         <v>87</v>
@@ -16640,7 +16504,7 @@
         <v>46</v>
       </c>
       <c r="G596" s="12" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="H596" s="14" t="s">
         <v>87</v>
@@ -16666,7 +16530,7 @@
         <v>46</v>
       </c>
       <c r="G597" s="12" t="s">
-        <v>107</v>
+        <v>46</v>
       </c>
       <c r="H597" s="14" t="s">
         <v>87</v>
@@ -16721,7 +16585,7 @@
         <v>10</v>
       </c>
       <c r="H599" s="14" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="600" spans="1:8" x14ac:dyDescent="0.35">
@@ -16796,7 +16660,7 @@
         <v>56</v>
       </c>
       <c r="G602" s="12" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="H602" s="14" t="s">
         <v>73</v>
@@ -16929,7 +16793,7 @@
         <v>10</v>
       </c>
       <c r="H607" s=